--- a/data/02_intermediate/cleaned_Koba_La_D_songs.xlsx
+++ b/data/02_intermediate/cleaned_Koba_La_D_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Quel bail ? Wouh Wesh la détaille ? Ouais, AKM, c'est comment, là ? De la B Wouh J'suis dans l'binks, 50K 7, 7 Qu'est-ce que c'est trop bon la vie d'artiste Et j'paye tout avec une pub Et dire que j'ai ve-esqui d'peu, j'étais à deux doigts d'prendre des années d'ferme Et maint'nant, elles veulent toutes baiser avec moi Avec moi, sans demander mon avis Ah ouais Pas du tout les mêmes prix qu'avant, avant, c'était d'la merde, ah, si tu savais J'suis à Phuket, au bord d'la plage, elle m'masse le dos, elle m'masse les pieds J'ai la Rolex, Audemars-Piguets sur mon bras droit, sur mon bras gauche J'suis tout en Nike, pas d'habits d'luxe, paire de TN, voiture de luxe J'suis au volant de la RR, j'ai des étoiles au-d'ssus d'ma tête Et rien n'a changé, j'suis dans le bendo, tout crade, rempli d'crachats et de mégots J'suis dans l'4x4 tout blanc, tout neuf, paire neuve, j'peux même sauter sur mon capot J'suis dans l'truc, sa mère la pute, j'fais plus rentrer qu'un grossiste de stup' Qu'un grossiste de stup' Et comme j'suis pété d'thunes, j'suis obligé d've-esqui mes tantines On y va Koba LaD du 7, Zifuko' de la B La B Détaille sept jours sur sept Sur sept, dis-nous c'qu'on a pas fait Niquer les PDG On y va, vive l'argent du 'rrain-te' 'te Niquer les PDG, niquer les, niquer les PDG On y va You might also like Moi, j'sais c'que j'te raconte, en vrai, si tu 'bé-tom', c'est qu't'es con C'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes Beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas Qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit Hey J'ai l'syndrome de Gilles de la Tourette Gilles de la Tourette, Gilles de la Tourette J'suis capuché devant la tirette Méchant, méchant, méchant, méchant Elle a pas ses règles, j'la bouyave, direct J'éteins la 'te-boî', sa mère, j'suis trop méchant, j'sais même plus combien j'ai pu mettre Gang Les dettes, les 'tains-p', ne joue pas au con, ta vie, je sais comment l'abréger 'bréger Les keufs me voient, ne montent plus le ton, j'ai trente fois l'salaire de l'O.P.J La beuh est bonne, les prix sont bons, j'ai deux-trois contacts vers la Belgique Allô igo, c'est quoi l'boulot ? Putain, faire du sale, j'suis encore obligé Oui L'argent, ça ne s'attend pas, les négros se flinguent comme à Atlanta J'ai d'la frappe de 'ou-f', celle de Frank Lampard, c'est des balles de .12 qui sont sur l'impact Eh Koba, bouge tes locks, pendant qu'j'rentre mon Glock dans l'froc Dans l'froc Oh putain, là, j'suis mort Sa mère, j'crois qu'j'ai mis ma pute en cloque Méchant, méchant Koba LaD du 7 Du 7, Zifuko' de la B La B Détaille sept jours sur sept Sur sept, dis-nous c'qu'on a pas fait Niquer les PDG On y va, vive l'argent du 'rrain-te' 'te Niquer les PDG, niquer les, niquer les PDG Moi, j'sais c'que j'te raconte, en vrai, si tu 'bé-tom', c'est qu't'es con C'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes Beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas Qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit Wow Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Ah oui, oui Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Gang, gang Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con C'est qu't'es con Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Méchant, méchant4</t>
+          <t>Quel bail ? Wouh Wesh la détaille ? Ouais, AKM, c'est comment, là ? De la B Wouh J'suis dans l'binks, 50K 7, 7 Qu'est-ce que c'est trop bon la vie d'artiste Et j'paye tout avec une pub Et dire que j'ai ve-esqui d'peu, j'étais à deux doigts d'prendre des années d'ferme Et maint'nant, elles veulent toutes baiser avec moi Avec moi, sans demander mon avis Ah ouais Pas du tout les mêmes prix qu'avant, avant, c'était d'la merde, ah, si tu savais J'suis à Phuket, au bord d'la plage, elle m'masse le dos, elle m'masse les pieds J'ai la Rolex, Audemars-Piguets sur mon bras droit, sur mon bras gauche J'suis tout en Nike, pas d'habits d'luxe, paire de TN, voiture de luxe J'suis au volant de la RR, j'ai des étoiles au-d'ssus d'ma tête Et rien n'a changé, j'suis dans le bendo, tout crade, rempli d'crachats et de mégots J'suis dans l'4x4 tout blanc, tout neuf, paire neuve, j'peux même sauter sur mon capot J'suis dans l'truc, sa mère la pute, j'fais plus rentrer qu'un grossiste de stup' Qu'un grossiste de stup' Et comme j'suis pété d'thunes, j'suis obligé d've-esqui mes tantines On y va Koba LaD du 7, Zifuko' de la B La B Détaille sept jours sur sept Sur sept, dis-nous c'qu'on a pas fait Niquer les PDG On y va, vive l'argent du 'rrain-te' 'te Niquer les PDG, niquer les, niquer les PDG On y va Moi, j'sais c'que j'te raconte, en vrai, si tu 'bé-tom', c'est qu't'es con C'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes Beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas Qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit Hey J'ai l'syndrome de Gilles de la Tourette Gilles de la Tourette, Gilles de la Tourette J'suis capuché devant la tirette Méchant, méchant, méchant, méchant Elle a pas ses règles, j'la bouyave, direct J'éteins la 'te-boî', sa mère, j'suis trop méchant, j'sais même plus combien j'ai pu mettre Gang Les dettes, les 'tains-p', ne joue pas au con, ta vie, je sais comment l'abréger 'bréger Les keufs me voient, ne montent plus le ton, j'ai trente fois l'salaire de l'O.P.J La beuh est bonne, les prix sont bons, j'ai deux-trois contacts vers la Belgique Allô igo, c'est quoi l'boulot ? Putain, faire du sale, j'suis encore obligé Oui L'argent, ça ne s'attend pas, les négros se flinguent comme à Atlanta J'ai d'la frappe de 'ou-f', celle de Frank Lampard, c'est des balles de .12 qui sont sur l'impact Eh Koba, bouge tes locks, pendant qu'j'rentre mon Glock dans l'froc Dans l'froc Oh putain, là, j'suis mort Sa mère, j'crois qu'j'ai mis ma pute en cloque Méchant, méchant Koba LaD du 7 Du 7, Zifuko' de la B La B Détaille sept jours sur sept Sur sept, dis-nous c'qu'on a pas fait Niquer les PDG On y va, vive l'argent du 'rrain-te' 'te Niquer les PDG, niquer les, niquer les PDG Moi, j'sais c'que j'te raconte, en vrai, si tu 'bé-tom', c'est qu't'es con C'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes Beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas Qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit Wow Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Ah oui, oui Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Gang, gang Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con C'est qu't'es con Moi, j'sais c'que j'te raconte, en vrai, si tu bé-tom, c'est qu't'es con Méchant, méchant4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moi, j'sais c'que j'te raconte, en vrai si tu 'bé-tom', c'est qu't'es con T'es con La prison, ça rend pas plus fort, ça fait perdre des thunes et beaucoup d'temps 'coup d'temps Faut pas qu'tu fasses d'la merde Non, quitte à prendre des coups, faut qu'tu fonces dans l'tas J'ai pris l'habitude de me lever tôt et j'vais placer des guetteurs sur le toit Sur le toit Devant le 9-m, tu changes de ton De ton, elle m'envoie sa shneck et ses tétons Et ses tétons J'ai compris que j'dois plus perdre de temps, je braque, je ramasse et je me casse aussitôt On n'est plus des têtards Non, tu t'enflammes, on t'éteint Vite Pour vous, j'ai pas l'bon teint mais c'est les blacks qu'elle kiffe, cette grosse 'tain-p' Cette grosse pute Ça existe pas l'argent facile, y a les poucaves, les courses poursuites, les saisies Saisies Y a des 'res-f' qui tombent pour six ans, y en a d'autres qui 'tté-fri' la beuh aux ciseaux Aux ciseaux À toutes les bagarres, moi, j'ai assisté Assisté, je nargue mes ennemis en les insultant Insultant Et moi c'est l'argent qui m'a incité à revendre mes stupéfiants sans hésiter Bang, bang, bang Koba LaD du 7 Du 7, j'suis toujours dans le même binks J'suis toujours dans le même binks Gamin, fais attention Attention, mélange pas l'business et tes frères L'business et tes frères Pour l'instant tout va bien, moi, les miens sont toujours 'à-l' Hé, hé C'est moi qui ravitaille Hé, hé et c'est moi qui doit détaille Hé, hé, hé, hé À l'argent, j'me suis attaché A l'argent, j'me suis attaché, excité quand j'suis d'vant sa chatte Excité quand j'suis d'vant sa chatte Et les keufs commencent à m'faire chier, à venir tous les jours juste pour jouer à chat Juste pour jouer à chat La vie d'charbon, des fois, c'est chiant, une petite dette peut coûter cher Mes 'res-f' deviennent de plus en plus méchants, depuis tout p'tit, c'est l'argent qu'on 'che-cher' Qu'on 'che-cher' Et regarde mon chichon, ouvre-le, c'est vert comme des pistaches Comme des pistaches Tu payes si tu touches ou ton t-shirt s'ra rempli d'tâches S'ra rempli d'tâches Si t'es avec moi, check, sinon trace ton ch'min Sinon trace ton ch'min Vrais reconnaissent vrais, j'suis toujours avec les mêmes Et maintenant, quj'ai un peu d'succès, j'en connais plus d'une qui voudrait m'sucer Elle trouve mon regard un peu persistant mais j'veux qu'elle s'retourne, c'est son cul qu'j'veux mater Hé, hé, hé, hé, hé À fond dans l'auto', j'passe pas les rapports, c'est Koba LaD qui tue tes rappeurs À chaque nouveau texte, à chaque fois plus fort, les plus grands sont fiers, m'disent que je vais 'cer-per'You might also like5</t>
+          <t>Moi, j'sais c'que j'te raconte, en vrai si tu 'bé-tom', c'est qu't'es con T'es con La prison, ça rend pas plus fort, ça fait perdre des thunes et beaucoup d'temps 'coup d'temps Faut pas qu'tu fasses d'la merde Non, quitte à prendre des coups, faut qu'tu fonces dans l'tas J'ai pris l'habitude de me lever tôt et j'vais placer des guetteurs sur le toit Sur le toit Devant le 9-m, tu changes de ton De ton, elle m'envoie sa shneck et ses tétons Et ses tétons J'ai compris que j'dois plus perdre de temps, je braque, je ramasse et je me casse aussitôt On n'est plus des têtards Non, tu t'enflammes, on t'éteint Vite Pour vous, j'ai pas l'bon teint mais c'est les blacks qu'elle kiffe, cette grosse 'tain-p' Cette grosse pute Ça existe pas l'argent facile, y a les poucaves, les courses poursuites, les saisies Saisies Y a des 'res-f' qui tombent pour six ans, y en a d'autres qui 'tté-fri' la beuh aux ciseaux Aux ciseaux À toutes les bagarres, moi, j'ai assisté Assisté, je nargue mes ennemis en les insultant Insultant Et moi c'est l'argent qui m'a incité à revendre mes stupéfiants sans hésiter Bang, bang, bang Koba LaD du 7 Du 7, j'suis toujours dans le même binks J'suis toujours dans le même binks Gamin, fais attention Attention, mélange pas l'business et tes frères L'business et tes frères Pour l'instant tout va bien, moi, les miens sont toujours 'à-l' Hé, hé C'est moi qui ravitaille Hé, hé et c'est moi qui doit détaille Hé, hé, hé, hé À l'argent, j'me suis attaché A l'argent, j'me suis attaché, excité quand j'suis d'vant sa chatte Excité quand j'suis d'vant sa chatte Et les keufs commencent à m'faire chier, à venir tous les jours juste pour jouer à chat Juste pour jouer à chat La vie d'charbon, des fois, c'est chiant, une petite dette peut coûter cher Mes 'res-f' deviennent de plus en plus méchants, depuis tout p'tit, c'est l'argent qu'on 'che-cher' Qu'on 'che-cher' Et regarde mon chichon, ouvre-le, c'est vert comme des pistaches Comme des pistaches Tu payes si tu touches ou ton t-shirt s'ra rempli d'tâches S'ra rempli d'tâches Si t'es avec moi, check, sinon trace ton ch'min Sinon trace ton ch'min Vrais reconnaissent vrais, j'suis toujours avec les mêmes Et maintenant, quj'ai un peu d'succès, j'en connais plus d'une qui voudrait m'sucer Elle trouve mon regard un peu persistant mais j'veux qu'elle s'retourne, c'est son cul qu'j'veux mater Hé, hé, hé, hé, hé À fond dans l'auto', j'passe pas les rapports, c'est Koba LaD qui tue tes rappeurs À chaque nouveau texte, à chaque fois plus fort, les plus grands sont fiers, m'disent que je vais 'cer-per'5</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff 2000 Squad Hey-ey-ey-ey Saminex on the track Un train d'vie pas très passionnant et un peu casse-couilles des fois Cosmo, envoie des tracks, tracks, tracks ! J'me rappelle, j'avais rien, j'traînais tous les jours dans l'bât 7 Bât 7 J'enchaînais joint sur joint, quand j'étais chaud, j'allais voler En cours j'étais plutôt violent Violent, en aucun cas j'me laissais faire J'me laissais faire J'avais tout juste c'qu'il faut, souvent apprécié par toutes les filles Hey-ey-ey Matrixé par The Wire Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi Deuspi, pour qu'il me pousse du shit Il m'a dit Fais partir, ramène vingt-six et garde le reste Le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Est-ce que t'es sûr ? Et r'garde, j'ai tout compris J'ai tout compris, j'ai grandi, j'ai appris Quoi faire du bénéfice, coffrer, nan, c'est pas si facile Pas si facile Tout l'temps ma mère me répète de faire attention à mes potes Mes potes La plupart, c'est des putes, quand ils pourront ils t'la mettront dans l'cul Yeah Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois You might also like Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye J'suis passé d'plaquettes aux kilos Kilos, police, va t'faire enculer Enculer Si tu t'soucies du regard des gens Des gens, tu vas jamais y arriver Arriver En peu d'temps, j'leur ai 'tré-mon', et regarde ma nouvelle montre nouvelle montre C'est à mon buzz qu'elle s'agrippe, cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Bénéf', du bénéf', beaucoup d'bénéf' Beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça, des sapes toutes neuves Plus de boloss, plus de billets, plus de billets, plus de 'gue-dro' Billets En plus de ça, c'est que d'la 'ppe-fra', guette, ça les attire tous Et finir ici personne balance, breva sur mon joint, mes gants Mes gants Pas d'flaque donc pas d'empreintes et pas d'empreintes donc pas de preuves De preuves Moi, plus rien ne m'étonne M'étonne, et plus rien n'peut m'atteindre M'atteindre Compte pas sur moi pour t'attendre, si je t'attends, j'vais perdre d'l'argent Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye Hey-ey-ey-ey Hey-ey-ey-ey Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye2</t>
+          <t>Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff 2000 Squad Hey-ey-ey-ey Saminex on the track Un train d'vie pas très passionnant et un peu casse-couilles des fois Cosmo, envoie des tracks, tracks, tracks ! J'me rappelle, j'avais rien, j'traînais tous les jours dans l'bât 7 Bât 7 J'enchaînais joint sur joint, quand j'étais chaud, j'allais voler En cours j'étais plutôt violent Violent, en aucun cas j'me laissais faire J'me laissais faire J'avais tout juste c'qu'il faut, souvent apprécié par toutes les filles Hey-ey-ey Matrixé par The Wire Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi Deuspi, pour qu'il me pousse du shit Il m'a dit Fais partir, ramène vingt-six et garde le reste Le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Est-ce que t'es sûr ? Et r'garde, j'ai tout compris J'ai tout compris, j'ai grandi, j'ai appris Quoi faire du bénéfice, coffrer, nan, c'est pas si facile Pas si facile Tout l'temps ma mère me répète de faire attention à mes potes Mes potes La plupart, c'est des putes, quand ils pourront ils t'la mettront dans l'cul Yeah Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye J'suis passé d'plaquettes aux kilos Kilos, police, va t'faire enculer Enculer Si tu t'soucies du regard des gens Des gens, tu vas jamais y arriver Arriver En peu d'temps, j'leur ai 'tré-mon', et regarde ma nouvelle montre nouvelle montre C'est à mon buzz qu'elle s'agrippe, cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Bénéf', du bénéf', beaucoup d'bénéf' Beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça, des sapes toutes neuves Plus de boloss, plus de billets, plus de billets, plus de 'gue-dro' Billets En plus de ça, c'est que d'la 'ppe-fra', guette, ça les attire tous Et finir ici personne balance, breva sur mon joint, mes gants Mes gants Pas d'flaque donc pas d'empreintes et pas d'empreintes donc pas de preuves De preuves Moi, plus rien ne m'étonne M'étonne, et plus rien n'peut m'atteindre M'atteindre Compte pas sur moi pour t'attendre, si je t'attends, j'vais perdre d'l'argent Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye Hey-ey-ey-ey Hey-ey-ey-ey Hey-ey-ey-ey Et j'me réveille, je chie, j'vis pour vendre ce shit, j'me lève au spliff Hey-ey-ey-ey Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess La hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye A la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye Et j'suis dans l'binks, j'vi-ser', j'ves-qui' la hess Et j'suis dans l'binks, j'vi-ser', j'pense à la paye2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oh my god Ouh Ah, sous ma s'melle Ekip, ekip, hey, ouais Babababa Ouais, toute la semaine, han Han Hum, hum Skuh, skuh, skuh, han Ici, y a pas de mecs cools, que des mecs qui pensent à t'barber ou t'enculer Pas d'trous dans les tes-comp, t'façon, dans tous les cas, y a mon p'tit en moto dans tous les coups Et putain d'merde, des fois, j'me dis qu'j'fume trop mais bon, le million a remplacé mon cur J'bombarde sur Paname, j'suis en Lamborghini, j'les vois en Uber et j'me moque Comme d'hab', ouais, c'est nous l'actu', comme d'habitude, ouais, c'est nous l'actu' J'ai pris des thunes, pas d'habits d'luxe, paire de TN que t'as jamais vue Et y a pas d'paix, baise le camp adverse, j'baise leurs surs et j'vole leurs boloss Si ça d'vient chaud, j'revends mes montres et je rachète une armurerie Fallait faire un choix entre l'école et la rue, un choix entre la push et les terrains d'foot Mais la putain d'sa mère, les huissiers de chez moi ont décidé pour moi, j'peux pas faire autrement Y a que deux personnes dans c'monde qu'ont pris mes patins donc, enculé d'ta mère, viens pas m'parler d'ingrats Si t'entends un bolide de l'autre côté d'la ville, c'est Suge, il est bourré, il fait des dérapages Skuh, ouh, ouh, ouh You might also like Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Che-Chen Zen, Koba, Chief Keef, Fredo, on est là pour l'cash, pétasse, file vite les dough Skuh Très loin au d'ssus d'eux comme si j'visite l'Edo, j'ai fait un rêve ou j'exécutais dix milles pédo' Six, six, sept, seven Han, so OBS, négro, so Next Level So le Black Skuh Matrixé par The Wire, opère comme Stringer Bell et Barksdale Avon 2.2.1, 2.4.2, 9.3, 9.1 Han, aucun stress, fin d'match 9-1 Skuh So Jack Many, so Juicy P, tous mes triples OG du 9.1 Han R.E.P Duck Ekip, faut qu'j'pèse comme si j'joue chez les Bucks Cash Branché, négro, j'ai les plugs Lin, signe de gang comme les Crips et les Bloods Skuh On est d'vant comme Aubameyang et Lacazette Han, négro, ils savent comment j'me sens dans la A7 Han So le Roi, on sait c'qu'il y a dans la cassette Han, on fait du biff avec ou sans la SACEM Cash Négro, j'suis d'vant la cage comme Neymar Jr, tous les jours, j'sip que du lin, négro, pas d'bière Lin On investit dans des métaux, d'la pierre Han, négro, j'demande la même chose à chaque prière Skuh, ekip Ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Ekip8</t>
+          <t>Oh my god Ouh Ah, sous ma s'melle Ekip, ekip, hey, ouais Babababa Ouais, toute la semaine, han Han Hum, hum Skuh, skuh, skuh, han Ici, y a pas de mecs cools, que des mecs qui pensent à t'barber ou t'enculer Pas d'trous dans les tes-comp, t'façon, dans tous les cas, y a mon p'tit en moto dans tous les coups Et putain d'merde, des fois, j'me dis qu'j'fume trop mais bon, le million a remplacé mon cur J'bombarde sur Paname, j'suis en Lamborghini, j'les vois en Uber et j'me moque Comme d'hab', ouais, c'est nous l'actu', comme d'habitude, ouais, c'est nous l'actu' J'ai pris des thunes, pas d'habits d'luxe, paire de TN que t'as jamais vue Et y a pas d'paix, baise le camp adverse, j'baise leurs surs et j'vole leurs boloss Si ça d'vient chaud, j'revends mes montres et je rachète une armurerie Fallait faire un choix entre l'école et la rue, un choix entre la push et les terrains d'foot Mais la putain d'sa mère, les huissiers de chez moi ont décidé pour moi, j'peux pas faire autrement Y a que deux personnes dans c'monde qu'ont pris mes patins donc, enculé d'ta mère, viens pas m'parler d'ingrats Si t'entends un bolide de l'autre côté d'la ville, c'est Suge, il est bourré, il fait des dérapages Skuh, ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Che-Chen Zen, Koba, Chief Keef, Fredo, on est là pour l'cash, pétasse, file vite les dough Skuh Très loin au d'ssus d'eux comme si j'visite l'Edo, j'ai fait un rêve ou j'exécutais dix milles pédo' Six, six, sept, seven Han, so OBS, négro, so Next Level So le Black Skuh Matrixé par The Wire, opère comme Stringer Bell et Barksdale Avon 2.2.1, 2.4.2, 9.3, 9.1 Han, aucun stress, fin d'match 9-1 Skuh So Jack Many, so Juicy P, tous mes triples OG du 9.1 Han R.E.P Duck Ekip, faut qu'j'pèse comme si j'joue chez les Bucks Cash Branché, négro, j'ai les plugs Lin, signe de gang comme les Crips et les Bloods Skuh On est d'vant comme Aubameyang et Lacazette Han, négro, ils savent comment j'me sens dans la A7 Han So le Roi, on sait c'qu'il y a dans la cassette Han, on fait du biff avec ou sans la SACEM Cash Négro, j'suis d'vant la cage comme Neymar Jr, tous les jours, j'sip que du lin, négro, pas d'bière Lin On investit dans des métaux, d'la pierre Han, négro, j'demande la même chose à chaque prière Skuh, ekip Ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Ekip8</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tommy on the track Je n'pourrai jamais être ton mari mari, y a que de ma liasse j'suis amoureux amoureux La vie a un sale goût amer à cause d'une bécane, un frère à moi est mort est mort On a été obligé de charbonner, enculé, les gars du 7 ont bien changé la donne, tu l'savais Y a Bolémvn en pointe, Mafia Spartiate sur les côtés, moi, j'récupère, j'distribue, Kaflo, Shotas à mes arrières Moi, j'ai pas bougé du quartier moi, j'ai pas bougé du quartier Et j'compte plus sur l'bénéf' des quettes-pla j'compte plus sur l'bénef des quettes-pla Et j'en revends pour qu'j'en ai plus et j'en revends pour qu'j'en ai plus Et j'regarde tous ceux qui veulent ma place j'regarde tous ceux qui veulent ma place Y en a jamais assez, le pe-ra c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Quinze piges, j'ai commencé à push, dans l'bât', jamais sans ma capuche J'en détaille plus, j'en rabats plus, j'en revends plus, j'veux manger plus Et j'en veux plus, j'fume beaucoup plus, jveux graille ma pêche, jveux graille ma pêche Donc j'en fais deux fois beaucoup plus pour pouvoir manger deux fois plus Et y en a jamais assez, le pe-ra, c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C You might also like Et ceux qui m'ont aidé, moi, j'les ai trouvés dans la rue, jusqu'aujourd'hui, j'suis avec D et D, les tes-tê du rain-té Comme des rates-pi on va tout prendre, regardez comment faire, on manie la lame mieux que Jackie Chan Cinq-cents eu' cinq-cents eu' sur cent grammes, faut mettre bien celui qui guette qui guette ou t'es mort si lui il s'gâte il s'gâte Et comme les condés enquêtent, toi, tu fais que changer de plaque de plaque Une autre meuf, une nouvelle pompe, plus de bénéf', plus de problèmes plus de problèmes Plus de bosseurs, plus de descentes et y a plus de poucaves plus de poucaves C'est pour ça que j'peux pas être ton mari c'est pour ça que j'peux pas être ton mari Moi, j'ai les deux pieds dans la merde j'ai les deux pieds dans la merde Et tous les jours rien que ça empire, empire et toi tu veux me faire croire que t'es prête tu veux me faire croire que t'es prête Y en a jamais assez, le pe-ra c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Quinze piges, j'ai commencé à push dans l'bât', jamais sans ma capuche J'en détaille plus, j'en rabats plus, j'en revends plus, j'veux manger plus Et j'en veux plus, j'fume beaucoup plus, jveux graille ma pêche, jveux graille ma pêche Donc j'en fais deux fois beaucoup plus pour pouvoir manger deux fois plus Et y en a jamais assez, le pe-ra, c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Tommy on the track Et y en a jamais assez si dans trois mois j'ai pas percé Et y en a jamais assez si dans trois mois j'ai pas percé J'me remets à revendre de la C3</t>
+          <t>Tommy on the track Je n'pourrai jamais être ton mari mari, y a que de ma liasse j'suis amoureux amoureux La vie a un sale goût amer à cause d'une bécane, un frère à moi est mort est mort On a été obligé de charbonner, enculé, les gars du 7 ont bien changé la donne, tu l'savais Y a Bolémvn en pointe, Mafia Spartiate sur les côtés, moi, j'récupère, j'distribue, Kaflo, Shotas à mes arrières Moi, j'ai pas bougé du quartier moi, j'ai pas bougé du quartier Et j'compte plus sur l'bénéf' des quettes-pla j'compte plus sur l'bénef des quettes-pla Et j'en revends pour qu'j'en ai plus et j'en revends pour qu'j'en ai plus Et j'regarde tous ceux qui veulent ma place j'regarde tous ceux qui veulent ma place Y en a jamais assez, le pe-ra c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Quinze piges, j'ai commencé à push, dans l'bât', jamais sans ma capuche J'en détaille plus, j'en rabats plus, j'en revends plus, j'veux manger plus Et j'en veux plus, j'fume beaucoup plus, jveux graille ma pêche, jveux graille ma pêche Donc j'en fais deux fois beaucoup plus pour pouvoir manger deux fois plus Et y en a jamais assez, le pe-ra, c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Et ceux qui m'ont aidé, moi, j'les ai trouvés dans la rue, jusqu'aujourd'hui, j'suis avec D et D, les tes-tê du rain-té Comme des rates-pi on va tout prendre, regardez comment faire, on manie la lame mieux que Jackie Chan Cinq-cents eu' cinq-cents eu' sur cent grammes, faut mettre bien celui qui guette qui guette ou t'es mort si lui il s'gâte il s'gâte Et comme les condés enquêtent, toi, tu fais que changer de plaque de plaque Une autre meuf, une nouvelle pompe, plus de bénéf', plus de problèmes plus de problèmes Plus de bosseurs, plus de descentes et y a plus de poucaves plus de poucaves C'est pour ça que j'peux pas être ton mari c'est pour ça que j'peux pas être ton mari Moi, j'ai les deux pieds dans la merde j'ai les deux pieds dans la merde Et tous les jours rien que ça empire, empire et toi tu veux me faire croire que t'es prête tu veux me faire croire que t'es prête Y en a jamais assez, le pe-ra c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Quinze piges, j'ai commencé à push dans l'bât', jamais sans ma capuche J'en détaille plus, j'en rabats plus, j'en revends plus, j'veux manger plus Et j'en veux plus, j'fume beaucoup plus, jveux graille ma pêche, jveux graille ma pêche Donc j'en fais deux fois beaucoup plus pour pouvoir manger deux fois plus Et y en a jamais assez, le pe-ra, c'est lassant Si dans trois mois j'ai pas percé, j'me remets à revendre de la C Tommy on the track Et y en a jamais assez si dans trois mois j'ai pas percé Et y en a jamais assez si dans trois mois j'ai pas percé J'me remets à revendre de la C3</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eh, ça va toi ? Oh là, là Corbillard Gang Ouais, moi, ça va mais est-ce que toi, tu vas bien ? Oh là, là Ouais mais attend, faut demander à Mufasa, est-ce qu'il va bien ? Oh là, là Mais attends, vite fait alors, attends, eh Tous les jours, on côtoie des blocs bétonnés, comme l'alcool dans l'veau-cer, on est pas tenables On est pas tenables une fois dans votre cité, c'est parce que Dieu pardonne que j'suis pardonnable Sinon, j'pense que pêchés s'ront accumulés, tellement accumulés qu'j'aurais problème de taille Dorée, grave gras, on veut la médaille en or, on s'en fout d'la plus grise grah, grah Tu fais des sous ? C'est bien mais tu l'fais pour la réput', moi, j'les fais contre la crise Aujourd'hui n'est pas demain mais j'ai l'impression qu'nos journées sont répétitives Y a videur en cas d'pépin, à fond dans notre délire, on fait la diff' grah, grah Bienvenue dans la réalité ici, on t'efface si tu dois une somme à six chiffres Tu veux savoir c'qu'on fait dans la rue ? Le nombre de produits qui passe sous la raie Faire l'argent discrètement, c'est ça la ruse et quand j'suis rusé, bah, personne m'arrête Les filles sont remplies de vices, le business, on récidive que en cas de crise Tu sais qu'on n'aime pas les flics Quand on les caillasse pas, on séclipse, on est plutôt vifs You might also like Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec', faut qu'ça pète faut qu'ça pète Ça-ça bouge, pas j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas J'suis dans l'binks, j'sais pas si t'as vu, y a 300 spartiates, personne met les voiles J'suis gé-char, j'en ai plein dans l'froc, on prends pas la fuite sauf devant les flics Écoute pas c'qu'ils racontent, c'est que du fake et selon les vues, c'est nous les plus forts Ça fait trois piges qu'ils rappent ces cons et regarde leurs chaîne, y a pas d'quoi être fier Et avec YouTube, on encaisse on encaisse, je mélange bien, j'déchire et je tasse et je tasse Tu peux m'trouver à la tess, chez nous, c'est tous pour un et nous, contre eux tous contre eux tous J'peux pas faire d'efforts sans mon bédo, on rabat les ients-cli perdus perdus J'sais pas si tu peux trouver pure mais pour la vente de gue-dro, j'serais toujours pour J'ai du buzz, ils disent que j'suis B, deux virgule deux sur le dix balles Y a pas meilleur que nous dans l'biz',, c'qu'on sait faire de mieux, c'est tripler la base À c'qu'il paraît mon ex a l'seum et quand ton heure sonne, tu récoltes c'que t'as semer J'ai toujours fait mes sous en soum, depuis qu'j'ai mon four, j'ai pleins d'autres associés Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec, faut qu'ça pète faut qu'ça pète Ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Y'a d'l'Héro' puis du Coca Cola Et si tu veux y'a d'la verte ou du bon jaune d'Fanta Parés pour la rre-gue, comme en Ouganda J'aimerais bien dévaliser toute l'Avenue Wagram IbraK calme-toi Et si y a drah' faudra sortir l'Beretta Moi ça va hamdoulilah Même si cette pute de juge m'a mis l'bracelet huit mois bang bang Allô monsieur Diallo Oui c'est moi Pour un calo ça tire dessus c'est bien ballot Bah ouais mon gars ahahah J'suis plus en mode Zé Pequeño Non, non Casquette Yamaha derrière j'entends les gyro' bang bang Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec, faut qu'ça pète faut qu'ça pète Ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas4</t>
+          <t>Eh, ça va toi ? Oh là, là Corbillard Gang Ouais, moi, ça va mais est-ce que toi, tu vas bien ? Oh là, là Ouais mais attend, faut demander à Mufasa, est-ce qu'il va bien ? Oh là, là Mais attends, vite fait alors, attends, eh Tous les jours, on côtoie des blocs bétonnés, comme l'alcool dans l'veau-cer, on est pas tenables On est pas tenables une fois dans votre cité, c'est parce que Dieu pardonne que j'suis pardonnable Sinon, j'pense que pêchés s'ront accumulés, tellement accumulés qu'j'aurais problème de taille Dorée, grave gras, on veut la médaille en or, on s'en fout d'la plus grise grah, grah Tu fais des sous ? C'est bien mais tu l'fais pour la réput', moi, j'les fais contre la crise Aujourd'hui n'est pas demain mais j'ai l'impression qu'nos journées sont répétitives Y a videur en cas d'pépin, à fond dans notre délire, on fait la diff' grah, grah Bienvenue dans la réalité ici, on t'efface si tu dois une somme à six chiffres Tu veux savoir c'qu'on fait dans la rue ? Le nombre de produits qui passe sous la raie Faire l'argent discrètement, c'est ça la ruse et quand j'suis rusé, bah, personne m'arrête Les filles sont remplies de vices, le business, on récidive que en cas de crise Tu sais qu'on n'aime pas les flics Quand on les caillasse pas, on séclipse, on est plutôt vifs Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec', faut qu'ça pète faut qu'ça pète Ça-ça bouge, pas j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas J'suis dans l'binks, j'sais pas si t'as vu, y a 300 spartiates, personne met les voiles J'suis gé-char, j'en ai plein dans l'froc, on prends pas la fuite sauf devant les flics Écoute pas c'qu'ils racontent, c'est que du fake et selon les vues, c'est nous les plus forts Ça fait trois piges qu'ils rappent ces cons et regarde leurs chaîne, y a pas d'quoi être fier Et avec YouTube, on encaisse on encaisse, je mélange bien, j'déchire et je tasse et je tasse Tu peux m'trouver à la tess, chez nous, c'est tous pour un et nous, contre eux tous contre eux tous J'peux pas faire d'efforts sans mon bédo, on rabat les ients-cli perdus perdus J'sais pas si tu peux trouver pure mais pour la vente de gue-dro, j'serais toujours pour J'ai du buzz, ils disent que j'suis B, deux virgule deux sur le dix balles Y a pas meilleur que nous dans l'biz',, c'qu'on sait faire de mieux, c'est tripler la base À c'qu'il paraît mon ex a l'seum et quand ton heure sonne, tu récoltes c'que t'as semer J'ai toujours fait mes sous en soum, depuis qu'j'ai mon four, j'ai pleins d'autres associés Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec, faut qu'ça pète faut qu'ça pète Ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Y'a d'l'Héro' puis du Coca Cola Et si tu veux y'a d'la verte ou du bon jaune d'Fanta Parés pour la rre-gue, comme en Ouganda J'aimerais bien dévaliser toute l'Avenue Wagram IbraK calme-toi Et si y a drah' faudra sortir l'Beretta Moi ça va hamdoulilah Même si cette pute de juge m'a mis l'bracelet huit mois bang bang Allô monsieur Diallo Oui c'est moi Pour un calo ça tire dessus c'est bien ballot Bah ouais mon gars ahahah J'suis plus en mode Zé Pequeño Non, non Casquette Yamaha derrière j'entends les gyro' bang bang Mets pas les pieds ici, tu sais qu'c'est la guerilla Juste à l'odeur du pétou, je vois qu'ils sont faya Koba LaD, L2i, IbraK, prêt à faire des dégâts sur l'instru' ou si y a drah' Nos buzz grimpent sans faire d'pacte, flow impec, faut qu'ça pète faut qu'ça pète Ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas Tout-toute la semaine, j'visser et le dimanche, j'encaisse rien qu'j'encaisse Ça-ça bouge pas, j'suis dans l'binks, en haut des favelas des favelas4</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>La mort ou tchitchi ? À deux, on faisait la paire, on a commencé nos locks ensemble ensemble On s'disait que y avait pire, qu'on pouvait pas pleurer sur notre sort J'ai dû ligoter ma peur, le manque d'argent a noirci mon cur mon cur Si tu veux, bah, tu le peux, y a que les faibles qu'arrivent à s'rendre Midi pile, c'est l'coup d'envoi midi pile, c'est l'coup d'envoi Dix-huit heures, c'est la mi-temps dix-huit heures, c'est la mi-temps Nouveau guetteur, nouvelle recharge nouveau guetteur, nouvelle recharge Après vingt heures, les keufs de nuit débarquent faut vraiment qu'ça débite J'suis dans l'bendo sa mère, c'est Dieu qui veut, c'est pas ma faute J'suis obligé d'me lever tôt et de repeser toutes les doses Depuis qu'le terrain tourne, comment tu veux qu'j'pense à autre chose ? Transaction à Sevran, d'la moula contre des billets verts T'en récup' dix, j'en récupe mille, le carré VIP est rempli d'filles J'crois qu'j'ai percé, j'crois qu'j'ai percé, j'baise des daronnes, j'ai qu'dix-huit piges J'ai pas encore trinqué, j'ai pas encore réussi Encore cinq ou six millions, j'supprime tout et j'm'arrache d'ici J'ouvre le terrain dès l'matin, j'ouvre le terrain dès l'matin J'place les bosseurs du matin, y a les feu-kes du matin Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté You might also like Dans l'escalier, j'ai tout détaillé dans l'escalier, j'ai tout détaillé Et la brigade veut nous démanteler et la brigade veut nous démanteler La balle du .9 milli' t'attend la balle du .9 milli' t'attend J'ai baissé la vitre, j't'ai pas raté En pleine nuit, tu m'verras pas venir j'suis la balle qui sort du canon scié skuh Elle veut passer l'été à Venise, j'suis dans l'bénéfice, j'encaisse les billets skuh Ro-ro, platine, millions d'vues, on changera pas J'suis dans l'bus, j'ai laissé place à Rosa Parks Douze coups, j'te parle pas de l'heure, douze grammes, j'ai parlu à l'heure J'suis broliqué, j'sonne au portique, j'ai fleuri parmi les orties Évidemment qu'j'ai la main verte, six kil' de beuh, j'ai fait partir Elle veut d'une histoire romantique, j'voulais que la prendre en levrette Audemars-Piguets, avion, j'regarde par le hublot J'ai pas quitté la zone, mon binks n'est pas plus beau S.E., Evry, dans l'bâtiment every day Ne-jau, te-shi, moula, pas b'soin d'effriter Ils sont mauvais, ils veulent ma mort, ils m'font pas peur, c'est des salopes J'l'ai fait danser, tard-pé, je sors, donne aux raclis, j'donne à ma mère Ma sse-lia ne tient pas en poche mais Maes ne roule pas en Porsche J'suis débranché, j'ai plus mon phone-tél aux Arrivants, loin de mes proches J'ouvre le terrain dès l'matin, j'ouvre le terrain dès l'matin J'place les bosseurs du matin, y a les feu-kes du matin Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Dans l'escalier, j'ai tout détaillé dans l'escalier, j'ai tout détaillé Et la brigade veut nous démanteler et la brigade veut nous démanteler La balle du .9 milli' t'attend la balle du .9 milli' t'attend J'ai baissé la vitre, j't'ai pas raté J'ai baissé la vitre, j't'ai pas raté La balle du .9 milli' t'attend S.E.V.R.Y J'ai placé les guetteurs du matin J'ai placé les bosseurs du matin3</t>
+          <t>La mort ou tchitchi ? À deux, on faisait la paire, on a commencé nos locks ensemble ensemble On s'disait que y avait pire, qu'on pouvait pas pleurer sur notre sort J'ai dû ligoter ma peur, le manque d'argent a noirci mon cur mon cur Si tu veux, bah, tu le peux, y a que les faibles qu'arrivent à s'rendre Midi pile, c'est l'coup d'envoi midi pile, c'est l'coup d'envoi Dix-huit heures, c'est la mi-temps dix-huit heures, c'est la mi-temps Nouveau guetteur, nouvelle recharge nouveau guetteur, nouvelle recharge Après vingt heures, les keufs de nuit débarquent faut vraiment qu'ça débite J'suis dans l'bendo sa mère, c'est Dieu qui veut, c'est pas ma faute J'suis obligé d'me lever tôt et de repeser toutes les doses Depuis qu'le terrain tourne, comment tu veux qu'j'pense à autre chose ? Transaction à Sevran, d'la moula contre des billets verts T'en récup' dix, j'en récupe mille, le carré VIP est rempli d'filles J'crois qu'j'ai percé, j'crois qu'j'ai percé, j'baise des daronnes, j'ai qu'dix-huit piges J'ai pas encore trinqué, j'ai pas encore réussi Encore cinq ou six millions, j'supprime tout et j'm'arrache d'ici J'ouvre le terrain dès l'matin, j'ouvre le terrain dès l'matin J'place les bosseurs du matin, y a les feu-kes du matin Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Dans l'escalier, j'ai tout détaillé dans l'escalier, j'ai tout détaillé Et la brigade veut nous démanteler et la brigade veut nous démanteler La balle du .9 milli' t'attend la balle du .9 milli' t'attend J'ai baissé la vitre, j't'ai pas raté En pleine nuit, tu m'verras pas venir j'suis la balle qui sort du canon scié skuh Elle veut passer l'été à Venise, j'suis dans l'bénéfice, j'encaisse les billets skuh Ro-ro, platine, millions d'vues, on changera pas J'suis dans l'bus, j'ai laissé place à Rosa Parks Douze coups, j'te parle pas de l'heure, douze grammes, j'ai parlu à l'heure J'suis broliqué, j'sonne au portique, j'ai fleuri parmi les orties Évidemment qu'j'ai la main verte, six kil' de beuh, j'ai fait partir Elle veut d'une histoire romantique, j'voulais que la prendre en levrette Audemars-Piguets, avion, j'regarde par le hublot J'ai pas quitté la zone, mon binks n'est pas plus beau S.E., Evry, dans l'bâtiment every day Ne-jau, te-shi, moula, pas b'soin d'effriter Ils sont mauvais, ils veulent ma mort, ils m'font pas peur, c'est des salopes J'l'ai fait danser, tard-pé, je sors, donne aux raclis, j'donne à ma mère Ma sse-lia ne tient pas en poche mais Maes ne roule pas en Porsche J'suis débranché, j'ai plus mon phone-tél aux Arrivants, loin de mes proches J'ouvre le terrain dès l'matin, j'ouvre le terrain dès l'matin J'place les bosseurs du matin, y a les feu-kes du matin Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Balle de .9 milli' t'atteint, j'ai baissé la vitre, j't'ai pas raté Dans l'escalier, j'ai tout détaillé dans l'escalier, j'ai tout détaillé Et la brigade veut nous démanteler et la brigade veut nous démanteler La balle du .9 milli' t'attend la balle du .9 milli' t'attend J'ai baissé la vitre, j't'ai pas raté J'ai baissé la vitre, j't'ai pas raté La balle du .9 milli' t'attend S.E.V.R.Y J'ai placé les guetteurs du matin J'ai placé les bosseurs du matin3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hood Star Beats Hey, hey, hey Une équipe, un péage, hey, hey Une équipe Une équipe, un péage Un péage, hey, y a tout qui passe, on va se régaler J'suis dans l'de-spe De-spe et ma pétasse Pétasse a le cul bombé, je sais qu't'as regardé Hey, hey, hey, hey Elle vient tout droit de la Guadalupe Wouh, on la fait sniffer dans les coins huppés, opé', on fait grossir l'enveloppe Grossir l'enveloppe T'as reconnu N.I Eh, t'as reconnu Koba Eh, t'as reconnu LaD Vendredi, y a Sarah Eh, lundi, y a Élodie Eh et j'suis trop débordé Si ça parle en moula Hey, peut-être que je viendrai Brr, peut-être que je viendrai Si ça parle en moula Brr, peut-être que je viendrai Ah, peut-être que je viendrai Wouh Sponsorisé par Medusa, eh, la vivance La vivance J'me déplace pas pour moins d'20K, eh, la vivance La vivance J'suis en peignoir dans la villa, eh, la vivance La vivance J'ai jeté Nina pour prendre Tina, eh, la putain, la putain, la Woah, jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four You might also like Sur la vie d'ma mère qu'on s'invente pas d'vies, mec, aucun mensonge, aucune légende, aucun mythe Astarf'Allah, j'connais des mecs, qui doivent tellement d'oseille que ça parle en mètres C'est soit tu nous payes ou t'es mort, aucun de ces fils de putes va nous hagar Ils savent pas c'est quoi dêtre en manque de détail, des putains d'transactions que 2Pac n'a pas fait On a dû charger, décharger, recharger, compter, détailler et recompter Récupérer, dispatcher et payer, un surplus pour le guetteur qui a crié Enculé, moi, j'étais tout seul quand j'me faisais courser, j'avais pas d'chaîne YouTube, pas de compte Instagram Du gramme au kil', des kilos au plots et le siste-gro récupère son billet par caisses Sponsorisé par Medusa, eh, la vivance La vivance J'me déplace pas pour moins d'20K, eh, la vivance La vivance J'suis en peignoir dans la villa, eh, la vivance La vivance J'ai jeté Nina pour prendre Tina, eh, la putain, la putain, la Woah, jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Four Il fait tellement chaud dans le four, gros Tiens, tiens, tiens, eh2</t>
+          <t>Hood Star Beats Hey, hey, hey Une équipe, un péage, hey, hey Une équipe Une équipe, un péage Un péage, hey, y a tout qui passe, on va se régaler J'suis dans l'de-spe De-spe et ma pétasse Pétasse a le cul bombé, je sais qu't'as regardé Hey, hey, hey, hey Elle vient tout droit de la Guadalupe Wouh, on la fait sniffer dans les coins huppés, opé', on fait grossir l'enveloppe Grossir l'enveloppe T'as reconnu N.I Eh, t'as reconnu Koba Eh, t'as reconnu LaD Vendredi, y a Sarah Eh, lundi, y a Élodie Eh et j'suis trop débordé Si ça parle en moula Hey, peut-être que je viendrai Brr, peut-être que je viendrai Si ça parle en moula Brr, peut-être que je viendrai Ah, peut-être que je viendrai Wouh Sponsorisé par Medusa, eh, la vivance La vivance J'me déplace pas pour moins d'20K, eh, la vivance La vivance J'suis en peignoir dans la villa, eh, la vivance La vivance J'ai jeté Nina pour prendre Tina, eh, la putain, la putain, la Woah, jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Sur la vie d'ma mère qu'on s'invente pas d'vies, mec, aucun mensonge, aucune légende, aucun mythe Astarf'Allah, j'connais des mecs, qui doivent tellement d'oseille que ça parle en mètres C'est soit tu nous payes ou t'es mort, aucun de ces fils de putes va nous hagar Ils savent pas c'est quoi dêtre en manque de détail, des putains d'transactions que 2Pac n'a pas fait On a dû charger, décharger, recharger, compter, détailler et recompter Récupérer, dispatcher et payer, un surplus pour le guetteur qui a crié Enculé, moi, j'étais tout seul quand j'me faisais courser, j'avais pas d'chaîne YouTube, pas de compte Instagram Du gramme au kil', des kilos au plots et le siste-gro récupère son billet par caisses Sponsorisé par Medusa, eh, la vivance La vivance J'me déplace pas pour moins d'20K, eh, la vivance La vivance J'suis en peignoir dans la villa, eh, la vivance La vivance J'ai jeté Nina pour prendre Tina, eh, la putain, la putain, la Woah, jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Jarrêterai quand j'aurai vingt lourds de côté Pour l'instant, j'leur fais la guerre, j'leur fais l'amour J'leur fais la guerre, j'leur fais l'amour, gros J'ai tout volé à l'arraché, si ça sent l'or, j'vais l'attacher Il fait tellement chaud dans le four Il fait tellement chaud dans le four, gros Four Il fait tellement chaud dans le four, gros Tiens, tiens, tiens, eh2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hey Narcos La mala est gangx Hey Koba, grr Oh, oh, oh, oh Hum, hum, hum Bye, bye Ouh Hum, hum, hum, hum Bye, bye, bye Ah, ah La mala est gangx Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Hey, hey, hey Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade T'as mal bossé, t'es mal payé Té-ma l'gamos, té-ma l'quatre-roues Si j'vux, dedans, j'la mets toute nu, si j'veux, dedans, j'la mets toute nue Nique sa mère si ça porte malheur, t'façon, on est maudit Maudit, maudit On est maudit, y a du C.P, y a du Gucci J'arrive vite dans la Ferrari, tu m'vois pas v'nir comme la mort Elle est grosse, sait qu'elle est mûre et j'aime pas m'yeuter d'vant l'mirroir Et vas-y, fais c'que t'as à faire, fais c'que t'as à faire Et quand j'lui bouffe la schnek, des fois, j'ai mon pif' dans son cul You might also like À c'qu'il paraît, on a percé, putain, des fois, j'oublie qui j'suis Mais j'm'en souviens vite quand j'croise un groupe de gros culs Gros G Percé, putain, des fois, j'oublie qui j'suis Hey Mais j'm'en souviens vite quand j'baisse ma vitre sur Paris J'aurais pu arranger les choses mais j'ai voulu baiser sa pote J'voulais que kassav J'ai des potes, ces bâtards, ils m'font des coup d'putes Hey, hey, hey J'sais même plus où donner d'la tête Donner d'la tête Faut qu'j'roule un joint, là J'roule un kamas Toute ma cons', j'vais la calciner au quartier Smoke, smoke, smoke Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Hey, hey, hey Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade Eux, c'est nous, baby mais toi, tu nous compares à eux La monnaie, j'investis Ouh, villa pour la madre Si t'es mon gazo, j'mett'rais goule-ca sans trop parler Mon gazo, mon gazo, mon gazo On pull up, on s'casse, en caisse, on trace et fait tes valises Hey, hey Gaz' à toujours envie de racks De racks, bitch à toujours envie de sexe Quand j'les ken, tu connais, je flex, si y avait qu'elle, je finis, je next Next Peu importe que ou pas je plais, j'accumule ex sur ex, yeah Yeah BSB gang, on parle pas, on fait, accumule racks sur racks, yeah À c'qu'il paraît, on a percé, putain, des fois, j'oublie qui j'suis Mais j'm'en souviens vite quand j'croise un groupe de gros culs Gros G Percé, putain, des fois, j'oublie qui j'suis Hey Mais j'm'en souviens vite quand j'baisse ma vitre sur Paris J'aurais pu arranger les choses mais j'ai voulu baiser sa pote J'voulais que j'kassav J'ai des potes, ces bâtards, ils m'font des coup d'putes Hey, hey, hey J'sais même plus où donner d'la tête Donner d'la tête Faut qu'j'roule un joint, là J'roule un kamas Toute ma cons', j'vais la calciner au quartier Smoke, smoke, smoke Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Grr, brr Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade2</t>
+          <t>Hey Narcos La mala est gangx Hey Koba, grr Oh, oh, oh, oh Hum, hum, hum Bye, bye Ouh Hum, hum, hum, hum Bye, bye, bye Ah, ah La mala est gangx Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Hey, hey, hey Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade T'as mal bossé, t'es mal payé Té-ma l'gamos, té-ma l'quatre-roues Si j'vux, dedans, j'la mets toute nu, si j'veux, dedans, j'la mets toute nue Nique sa mère si ça porte malheur, t'façon, on est maudit Maudit, maudit On est maudit, y a du C.P, y a du Gucci J'arrive vite dans la Ferrari, tu m'vois pas v'nir comme la mort Elle est grosse, sait qu'elle est mûre et j'aime pas m'yeuter d'vant l'mirroir Et vas-y, fais c'que t'as à faire, fais c'que t'as à faire Et quand j'lui bouffe la schnek, des fois, j'ai mon pif' dans son cul À c'qu'il paraît, on a percé, putain, des fois, j'oublie qui j'suis Mais j'm'en souviens vite quand j'croise un groupe de gros culs Gros G Percé, putain, des fois, j'oublie qui j'suis Hey Mais j'm'en souviens vite quand j'baisse ma vitre sur Paris J'aurais pu arranger les choses mais j'ai voulu baiser sa pote J'voulais que kassav J'ai des potes, ces bâtards, ils m'font des coup d'putes Hey, hey, hey J'sais même plus où donner d'la tête Donner d'la tête Faut qu'j'roule un joint, là J'roule un kamas Toute ma cons', j'vais la calciner au quartier Smoke, smoke, smoke Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Hey, hey, hey Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade Eux, c'est nous, baby mais toi, tu nous compares à eux La monnaie, j'investis Ouh, villa pour la madre Si t'es mon gazo, j'mett'rais goule-ca sans trop parler Mon gazo, mon gazo, mon gazo On pull up, on s'casse, en caisse, on trace et fait tes valises Hey, hey Gaz' à toujours envie de racks De racks, bitch à toujours envie de sexe Quand j'les ken, tu connais, je flex, si y avait qu'elle, je finis, je next Next Peu importe que ou pas je plais, j'accumule ex sur ex, yeah Yeah BSB gang, on parle pas, on fait, accumule racks sur racks, yeah À c'qu'il paraît, on a percé, putain, des fois, j'oublie qui j'suis Mais j'm'en souviens vite quand j'croise un groupe de gros culs Gros G Percé, putain, des fois, j'oublie qui j'suis Hey Mais j'm'en souviens vite quand j'baisse ma vitre sur Paris J'aurais pu arranger les choses mais j'ai voulu baiser sa pote J'voulais que j'kassav J'ai des potes, ces bâtards, ils m'font des coup d'putes Hey, hey, hey J'sais même plus où donner d'la tête Donner d'la tête Faut qu'j'roule un joint, là J'roule un kamas Toute ma cons', j'vais la calciner au quartier Smoke, smoke, smoke Hey Veut que j'la baise pendant qu'ses parents sont pas là Hey, hey Couleur ébène elle m'appelle Daddy chocolat Grr, brr Tu veux la guerre ? T'as pas d'quoi payer une collab' Eux, ils critiquent et maintenant, veulent faire l'accolade2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Oh, oh Narcos Hadouken Oh, oh Et même si c'est dur, j'prends sur moi et j'reste sincère Ces salopes sentent mes sous, collent mes locks comme des sangsues C'est trop chaud, c'est stressant mais j'suis là, même si ça saoule Avec un peu d'chance, encore une affaire sans suite Sur l'trottoir de gauche, à l'affût comme un bacqueux Un extinct', on lave tout, efficace quand y a bagarre On prend la grosse tête quand ça parle de kilos d'beuh Nhar Sheitan, ici, les blocs de glace se vendent en flocons Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Ouais, l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre You might also like J'ai l'air malhonnête Soixante, j'suis juste bien savage J't'éclate l'ampoule, la baïonnette si tu me menaces sur le net Bang Bang, bang, le .9 millimètres est dans les gang-bang Le terrain ferme, ferme la porte derrière toi, je suis plein, plein Si les keufs font des rondes à midi, c'est pour qu'tu ne manges pas l'après-midi Oh, oh, les petits l'ont compris, ils sont mille, on ne sait même pas c'est qui qui tartine Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Ouais, l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Ils en font des tonnes, ils ber-tom pour des grammes J'regarde pas la couleur, on s'ra tous jugés par nos âmes J'ai plus confiance en l'animal qu'en les Hommes Qu'en les Hommes Madame la juge, c'est pas moi, c'est d'la faute des autres On tient les blocs, ils tiennent des zizis On vend coke, shit, beuh jusqu'à minuit Jusqu'à minuit Tu peux m'croiser, RS, Audi ou en Piwi J'encaisse sale, ients-cli sales, billets sales couleur kiwi D'vant l'OPJ, j'deviens muet, j'en perds l'ouïe J'suis Marocain mais j'suis né dans l'pays d'Louis Mais nan T'sais qu'mon Uzi n'est pas usé, j'calme ta folie Ouais, ouais J'obtiens plus avec une arme qu'en étant poli Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Dans l'viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Maintenant, maintenant1</t>
+          <t>Oh, oh Narcos Hadouken Oh, oh Et même si c'est dur, j'prends sur moi et j'reste sincère Ces salopes sentent mes sous, collent mes locks comme des sangsues C'est trop chaud, c'est stressant mais j'suis là, même si ça saoule Avec un peu d'chance, encore une affaire sans suite Sur l'trottoir de gauche, à l'affût comme un bacqueux Un extinct', on lave tout, efficace quand y a bagarre On prend la grosse tête quand ça parle de kilos d'beuh Nhar Sheitan, ici, les blocs de glace se vendent en flocons Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Ouais, l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre J'ai l'air malhonnête Soixante, j'suis juste bien savage J't'éclate l'ampoule, la baïonnette si tu me menaces sur le net Bang Bang, bang, le .9 millimètres est dans les gang-bang Le terrain ferme, ferme la porte derrière toi, je suis plein, plein Si les keufs font des rondes à midi, c'est pour qu'tu ne manges pas l'après-midi Oh, oh, les petits l'ont compris, ils sont mille, on ne sait même pas c'est qui qui tartine Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Ouais, l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Ils en font des tonnes, ils ber-tom pour des grammes J'regarde pas la couleur, on s'ra tous jugés par nos âmes J'ai plus confiance en l'animal qu'en les Hommes Qu'en les Hommes Madame la juge, c'est pas moi, c'est d'la faute des autres On tient les blocs, ils tiennent des zizis On vend coke, shit, beuh jusqu'à minuit Jusqu'à minuit Tu peux m'croiser, RS, Audi ou en Piwi J'encaisse sale, ients-cli sales, billets sales couleur kiwi D'vant l'OPJ, j'deviens muet, j'en perds l'ouïe J'suis Marocain mais j'suis né dans l'pays d'Louis Mais nan T'sais qu'mon Uzi n'est pas usé, j'calme ta folie Ouais, ouais J'obtiens plus avec une arme qu'en étant poli Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Dans l'viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Skuh, skuh, skuh, y a les keufs d'vant la porte à six heures La juge m'a dans l'viseur Oh Le coffre est plein, cousin Viens, on y va maintenant, viens, on y va maintenant, viens, on y va maintenant Regarde-moi bien, cousin Je vais pas t'regarder, moi, j'vais t'bombarder, c'est direct la bagarre Maintenant, maintenant1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tommy On The Track Eh, eh, eh J'suis v'nu tout seul, j'ai pas b'soin d'aide, matrixé par Menace to Society par Menace to Society C'est l'manque d'argent qui nous incites et si ça d'vient che-lou t'inquiète, je saute t'inquiète, je saute Aujourd'hui, je me nourris d'illicite et tout a commencé dans le Bât' 7 commencé dans le Bât' 7 Plus d'buzz, dit plus de soucis mais dit plus de salopes qui veulent sucer de salope qui veulent sucer À c'qu'il paraît, l'argent rend beau rend beau, mélange pas les sous du shit et d'la beuh d'la beuh J'me démerde toujours pour avoir l'bon bail l'bon bail, y a cinq zéros sur le contrat, la vie est belle la vie est belle Viens chez nous, on manie les mots on manie les mots et sur l'autre mélo, y a plus d'un million y a plus d'un million Ça y est, j'suis d'dans, j'suis dans l'élite j'suis dans l'élite, pour l'instant, tout roule comme sur des roulettes comme sur des roulettes Koba La Détaille Koba La Détaille, six-cents sur la quette-pla sur la quette-pla Solides, ça bouge pas solides, ça bouge pas, y a Glazbif, y a Deuspave Glazbif, y a Deuspave Qui dit nouveaux kilos, arrivage de Critycal de Critycal Et si j'dis non, c'est qu'c'est non ou bien, va te faire enculer faire enculer Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise You might also like J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable Je les déboîte, rien que j'les démonte et j'ai pris leur buzz, leurs vues, ils ont l'démon ils ont l'démon Je les démarre, guette, ma cote ter-mon et j'arrête pas d'leur prouver qu'c'est moi, l'patron c'est moi, l'patron Ils ont l'seum de moi parce que j'encaisse, rien que j'encaisse et j'encaisse et j'encaisse et j'encaisse Maintenant, c'est plus facile de m'faire cer-su et mes sous s'accordent avec mon succès avec mon succès Si t'as pas coffré, pas d'bol, les raclis te verront comme un débile verront comme un débile Un cerveau et puis deux boules j'ai compris qu'il fallait des sous en balle fallait des sous en balle J'me rends compte qu'aucun d'entre eux n'est fiable, à la base, c'était le sang de la veine c'était le sang de la veine Mais depuis que j'fais des vues, les négros m'envient, veulent tous voir ma vie veulent tous voir ma vie Fellation, s'te plaît, fais-la bien, j'suis pas l'premier que t'as sucé que t'as sucé La solution, c'est dse soucier dces sous, sans les sucer c'est facile d'les dépasser d'les dépasser Et vu que j'bédave de la pasta et bien, j'attire le regard de tous les passants tous les passants J'me fais plus souvent masser et rien qu'elle s'agrippe à l'odeur du musc à l'odeur du musc Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable c'est rentable C'est rentable, ouais, binks Koba LaD, Seven Binks 50K, Game Over bin-binks Pas b'soin d'vous pour que j'les baise La drogue, c'est rentable1</t>
+          <t>Tommy On The Track Eh, eh, eh J'suis v'nu tout seul, j'ai pas b'soin d'aide, matrixé par Menace to Society par Menace to Society C'est l'manque d'argent qui nous incites et si ça d'vient che-lou t'inquiète, je saute t'inquiète, je saute Aujourd'hui, je me nourris d'illicite et tout a commencé dans le Bât' 7 commencé dans le Bât' 7 Plus d'buzz, dit plus de soucis mais dit plus de salopes qui veulent sucer de salope qui veulent sucer À c'qu'il paraît, l'argent rend beau rend beau, mélange pas les sous du shit et d'la beuh d'la beuh J'me démerde toujours pour avoir l'bon bail l'bon bail, y a cinq zéros sur le contrat, la vie est belle la vie est belle Viens chez nous, on manie les mots on manie les mots et sur l'autre mélo, y a plus d'un million y a plus d'un million Ça y est, j'suis d'dans, j'suis dans l'élite j'suis dans l'élite, pour l'instant, tout roule comme sur des roulettes comme sur des roulettes Koba La Détaille Koba La Détaille, six-cents sur la quette-pla sur la quette-pla Solides, ça bouge pas solides, ça bouge pas, y a Glazbif, y a Deuspave Glazbif, y a Deuspave Qui dit nouveaux kilos, arrivage de Critycal de Critycal Et si j'dis non, c'est qu'c'est non ou bien, va te faire enculer faire enculer Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable Je les déboîte, rien que j'les démonte et j'ai pris leur buzz, leurs vues, ils ont l'démon ils ont l'démon Je les démarre, guette, ma cote ter-mon et j'arrête pas d'leur prouver qu'c'est moi, l'patron c'est moi, l'patron Ils ont l'seum de moi parce que j'encaisse, rien que j'encaisse et j'encaisse et j'encaisse et j'encaisse Maintenant, c'est plus facile de m'faire cer-su et mes sous s'accordent avec mon succès avec mon succès Si t'as pas coffré, pas d'bol, les raclis te verront comme un débile verront comme un débile Un cerveau et puis deux boules j'ai compris qu'il fallait des sous en balle fallait des sous en balle J'me rends compte qu'aucun d'entre eux n'est fiable, à la base, c'était le sang de la veine c'était le sang de la veine Mais depuis que j'fais des vues, les négros m'envient, veulent tous voir ma vie veulent tous voir ma vie Fellation, s'te plaît, fais-la bien, j'suis pas l'premier que t'as sucé que t'as sucé La solution, c'est dse soucier dces sous, sans les sucer c'est facile d'les dépasser d'les dépasser Et vu que j'bédave de la pasta et bien, j'attire le regard de tous les passants tous les passants J'me fais plus souvent masser et rien qu'elle s'agrippe à l'odeur du musc à l'odeur du musc Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable c'est rentable C'est rentable, ouais, binks Koba LaD, Seven Binks 50K, Game Over bin-binks Pas b'soin d'vous pour que j'les baise La drogue, c'est rentable1</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ouais, c'est nous qu'tu croises à l'épicerie, qu'tu croises pas loin d'la gare P'tit filou, tu l'as échappé belle, si on t'choppe, on t'hagar Et en c'moment, y a d'la promo' à mort, y a des masses et des go À cause d'mon ex, mes putes m'ont remonté mais pas grave, j'ai la cote J'te pousse dix pièces, envoie la moitié, ouais, si j't'avance, j'peux plus t'arranger Elle bronze à max, elle bronze à max, elle veut me montrer son décolleté, eh J'prnds ma cons' à la Caste', j'ai une villa pas loin d'Fréjus pas loin d'Fréjus Fonce-dé sur la pénich mais quand on tire, on fait mouche Cagoulé, ça cache la plaque, fais pas l'voyou, un showcase, tu rejoins 2Pac De un bats les couilles d'faire la star, de deux bats les couilles d'faire des streams De trois j'veux deux-trois RS4 ou 5, et un pe-pom ou un 6 J'suis trop rapide comme CR7, j'fais l'signe JuL, là, j'suis dans l'R8 Passements d'jambes, tu glisses comme R9 et comme Ronnie, j'suis numéro dix Si j'sors le onze, tu peux ranger ton douze, comme Zizou, j'viens du 13 Faut qu'tu t'pousses, on est bouillants comme la braise A7, fond d'sept, j'rentre pété vrr, en Christian, Giuseppe eh, eh Tout baiser, c'est mon métier, Parc des Princes, Vélodrome, on a l'double des clés Baissez les cagoules, allumez l'moteur, chargez les machins chargez les machins Le son des mahbouls qui s'en battent les couilles, qui braquent le 'gasin ouh, oui Pas la peine de faire le fou, ici, on sait qui fait les trucs, j'ai fait la stup', moi, j'ai jamais fait d'études Avec le temps, les gens, ils changent, ouais, les gens, ils font les putes Jul envoie la balle, c'est Polak devant le but Ouais, la choupetta, là, j'suis pété là, j'suis pété, j'suis sous pétard, j'vais tourner dans l'Sud tout l'été Khabat, j'ai l'bob sur la tête, j'me coupe un bloc sur la 'quette Jamais j'oublierai la tête du premier condé qui m'a pète You might also like En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Han, Squadra Azzurra, que la bûche et la pura, multirécidiviste ah S'brouncha dans le 4x4, demi-tour devant les bleus Campione del mundo, Cîroc red berry, Hermès, côté maroquinerie Disque est platinum, full sept, aluminium Vers là, ça coupe à la lactose, baby, plus rien n'est gratos Full à 100, c'est 710 et deux-trois guitares électriques Lunettés dans la loge, mathafack han Ils ont pas un, ça les énerve, la vérité hey, hey Faudra plus qu'un sopalin si un d'tes gars s'fait charcler plus qu'un sopalin Le coffre est plein, j'dis Hamdoullah, c'est mérité te-ma la kichta Cette bitches veut câlins, j'le fais pour voir son fessier hey, hey, eh D'or et de platine wah, faut que partout, ça éclate tout ça éclate Tes là pour tartine, dort, on te piétine, ouais, ça t'éclate boum, boum Sur le pécule, des palots ouh et en cellule, j'suis khabat en cellule, j'suis khabat On dit Les chats n'aiment pas l'eau, pourtant, j'ai fait mouiller des ch- miouh Envoie ta ppe-f' sur Snapchat, tu veux faire comme nous, essaye, essaye, essaye Tu connais nos villes, Paris-Marseille, 'seille, 'seille On les côtoie pas, c'est que des bouffons déguisés En BSB gang, j'pull up en bande organisée Eh, yo, sur le taro, on t'arrache eh mais si tu prends bon, on t'arrange Goûtes de sueur perlées sur le front bam, bam entre le Boulou et le Madam's ouh Petrouchka, zumba caféw, connu jusqu'à Santa Few Yo, moi, je rappe pour tout l'monde couscous, mafé, figatew Comme une plaque 13 sur la Tour Eiffel ou 93 sur la Canebière Ça fait des sons club mais les clubs ferment, j'pense re-jober, TP la semaine ah Lean back slide et j'danse comme Bobby devant le bât' ouh Et j'danse comme Bobby devant le bât' ouh, et je cavale sec quand je vois la BAC Lean back slide et j'danse comme Bobby devant le bât' Et j'danse comme Bobby devant le bât', et je cavale sec quand je vois la BAC En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état T'as des armes de guerre et des flingues tout neufs, j'ai les mêmes en mieux Santé Bonheur Si tu m'aimes, tant mieux, si tu m'aimes pas, tant mieux Millionnaire, flingue pour la mif', flingue pour la guerre la vie d'ma mère On n'a peur de R, on va te niquer ta mère la keh pah, pah, pah, pah C'est le Classico, la pure pour les toxicos, les armes viennent de Mexico pah, pah, pah, pah Le game, on lui casse les cotes, c'est la faute du Corsico pah, pah, pah, pah Oh, oh, Maria, j'te connais même pas, tu veux te marier hein Oh, oh, Maria, te monte pas avec moi, j'vais te balayer Eh-eh-eh-eh, frère, c'est nous les nouveaux vaillants C'est nous le COVID-19, c'est nous le nouveau variant Attends Coco, attends Jojo, attends un peu, le sang ton gars Coco Attends Coco, attends Jojo, attends un peu c'est fort !, le sang mmh-mmh, mmh-mmh, mmh-mmh, ah, ah, ah, Jojo, Jo' Demande à Lass', Ibrahimovic, on perd pas l'Nord, on dépense, c'est comme ça tous les week-end ah wah Tous les week-end, tous les week-end, tous les week-end faut bosser, ouh Nous, c'est la Ligue 1, ma voiture à 200, j'te sors un pe-pom si t'es menaçant G2B, pi-pi-pi-pi-pi, Bezbar puissanci Dis-leur qu'on est là, j'suis pas pressé nan, c'est nous la cité dans RS6 dans RS6 Mais qu'est-ce tu sais ? Numéro 10, Maradona, Zizou Arrache la piste, on tue ça, c'est tout, l'avant 'gari, pète, pète et le moteur, pète, pète Côt-côté passager, mon pote, c'était moi en moto ouh oui Nous, c'est les sales gueules, qu'ils veulent ou pas même en chuchotant, j'baise tout La Blancpain un crush, nageuse en norme, Bugatti Divo C'est quelqu'un, c'est quelque chose, c'est ma jolie, elle, c'est trop ma go' Elle calcule même pas mon buzz, elle m'dit Reste pas trop dans le bendo J'vais passer l'hiver aux Caraïbes, un gros jet-pack avec le bédo okay Là, tu crois qu'j'ai un jnoun, hein, mais j'conduis du genou okay J'veux la Chopard hérisson et le moteur qui fait vroum-vroum okay Elle a mis ses talons, elle est sous ballon Elle veut un rappeur ou un joueur de ballon En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état</t>
+          <t>Ouais, c'est nous qu'tu croises à l'épicerie, qu'tu croises pas loin d'la gare P'tit filou, tu l'as échappé belle, si on t'choppe, on t'hagar Et en c'moment, y a d'la promo' à mort, y a des masses et des go À cause d'mon ex, mes putes m'ont remonté mais pas grave, j'ai la cote J'te pousse dix pièces, envoie la moitié, ouais, si j't'avance, j'peux plus t'arranger Elle bronze à max, elle bronze à max, elle veut me montrer son décolleté, eh J'prnds ma cons' à la Caste', j'ai une villa pas loin d'Fréjus pas loin d'Fréjus Fonce-dé sur la pénich mais quand on tire, on fait mouche Cagoulé, ça cache la plaque, fais pas l'voyou, un showcase, tu rejoins 2Pac De un bats les couilles d'faire la star, de deux bats les couilles d'faire des streams De trois j'veux deux-trois RS4 ou 5, et un pe-pom ou un 6 J'suis trop rapide comme CR7, j'fais l'signe JuL, là, j'suis dans l'R8 Passements d'jambes, tu glisses comme R9 et comme Ronnie, j'suis numéro dix Si j'sors le onze, tu peux ranger ton douze, comme Zizou, j'viens du 13 Faut qu'tu t'pousses, on est bouillants comme la braise A7, fond d'sept, j'rentre pété vrr, en Christian, Giuseppe eh, eh Tout baiser, c'est mon métier, Parc des Princes, Vélodrome, on a l'double des clés Baissez les cagoules, allumez l'moteur, chargez les machins chargez les machins Le son des mahbouls qui s'en battent les couilles, qui braquent le 'gasin ouh, oui Pas la peine de faire le fou, ici, on sait qui fait les trucs, j'ai fait la stup', moi, j'ai jamais fait d'études Avec le temps, les gens, ils changent, ouais, les gens, ils font les putes Jul envoie la balle, c'est Polak devant le but Ouais, la choupetta, là, j'suis pété là, j'suis pété, j'suis sous pétard, j'vais tourner dans l'Sud tout l'été Khabat, j'ai l'bob sur la tête, j'me coupe un bloc sur la 'quette Jamais j'oublierai la tête du premier condé qui m'a pète En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Han, Squadra Azzurra, que la bûche et la pura, multirécidiviste ah S'brouncha dans le 4x4, demi-tour devant les bleus Campione del mundo, Cîroc red berry, Hermès, côté maroquinerie Disque est platinum, full sept, aluminium Vers là, ça coupe à la lactose, baby, plus rien n'est gratos Full à 100, c'est 710 et deux-trois guitares électriques Lunettés dans la loge, mathafack han Ils ont pas un, ça les énerve, la vérité hey, hey Faudra plus qu'un sopalin si un d'tes gars s'fait charcler plus qu'un sopalin Le coffre est plein, j'dis Hamdoullah, c'est mérité te-ma la kichta Cette bitches veut câlins, j'le fais pour voir son fessier hey, hey, eh D'or et de platine wah, faut que partout, ça éclate tout ça éclate Tes là pour tartine, dort, on te piétine, ouais, ça t'éclate boum, boum Sur le pécule, des palots ouh et en cellule, j'suis khabat en cellule, j'suis khabat On dit Les chats n'aiment pas l'eau, pourtant, j'ai fait mouiller des ch- miouh Envoie ta ppe-f' sur Snapchat, tu veux faire comme nous, essaye, essaye, essaye Tu connais nos villes, Paris-Marseille, 'seille, 'seille On les côtoie pas, c'est que des bouffons déguisés En BSB gang, j'pull up en bande organisée Eh, yo, sur le taro, on t'arrache eh mais si tu prends bon, on t'arrange Goûtes de sueur perlées sur le front bam, bam entre le Boulou et le Madam's ouh Petrouchka, zumba caféw, connu jusqu'à Santa Few Yo, moi, je rappe pour tout l'monde couscous, mafé, figatew Comme une plaque 13 sur la Tour Eiffel ou 93 sur la Canebière Ça fait des sons club mais les clubs ferment, j'pense re-jober, TP la semaine ah Lean back slide et j'danse comme Bobby devant le bât' ouh Et j'danse comme Bobby devant le bât' ouh, et je cavale sec quand je vois la BAC Lean back slide et j'danse comme Bobby devant le bât' Et j'danse comme Bobby devant le bât', et je cavale sec quand je vois la BAC En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état T'as des armes de guerre et des flingues tout neufs, j'ai les mêmes en mieux Santé Bonheur Si tu m'aimes, tant mieux, si tu m'aimes pas, tant mieux Millionnaire, flingue pour la mif', flingue pour la guerre la vie d'ma mère On n'a peur de R, on va te niquer ta mère la keh pah, pah, pah, pah C'est le Classico, la pure pour les toxicos, les armes viennent de Mexico pah, pah, pah, pah Le game, on lui casse les cotes, c'est la faute du Corsico pah, pah, pah, pah Oh, oh, Maria, j'te connais même pas, tu veux te marier hein Oh, oh, Maria, te monte pas avec moi, j'vais te balayer Eh-eh-eh-eh, frère, c'est nous les nouveaux vaillants C'est nous le COVID-19, c'est nous le nouveau variant Attends Coco, attends Jojo, attends un peu, le sang ton gars Coco Attends Coco, attends Jojo, attends un peu c'est fort !, le sang mmh-mmh, mmh-mmh, mmh-mmh, ah, ah, ah, Jojo, Jo' Demande à Lass', Ibrahimovic, on perd pas l'Nord, on dépense, c'est comme ça tous les week-end ah wah Tous les week-end, tous les week-end, tous les week-end faut bosser, ouh Nous, c'est la Ligue 1, ma voiture à 200, j'te sors un pe-pom si t'es menaçant G2B, pi-pi-pi-pi-pi, Bezbar puissanci Dis-leur qu'on est là, j'suis pas pressé nan, c'est nous la cité dans RS6 dans RS6 Mais qu'est-ce tu sais ? Numéro 10, Maradona, Zizou Arrache la piste, on tue ça, c'est tout, l'avant 'gari, pète, pète et le moteur, pète, pète Côt-côté passager, mon pote, c'était moi en moto ouh oui Nous, c'est les sales gueules, qu'ils veulent ou pas même en chuchotant, j'baise tout La Blancpain un crush, nageuse en norme, Bugatti Divo C'est quelqu'un, c'est quelque chose, c'est ma jolie, elle, c'est trop ma go' Elle calcule même pas mon buzz, elle m'dit Reste pas trop dans le bendo J'vais passer l'hiver aux Caraïbes, un gros jet-pack avec le bédo okay Là, tu crois qu'j'ai un jnoun, hein, mais j'conduis du genou okay J'veux la Chopard hérisson et le moteur qui fait vroum-vroum okay Elle a mis ses talons, elle est sous ballon Elle veut un rappeur ou un joueur de ballon En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère En fumette sur l'Arc de Triomphe, khapta sur la Canebière Y a des gros moteurs qui ronflent d'la banlieue à la Bonne Mère Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état Avec ma choupetta, posé dans un GT3 Poto, hier, j'étais seul, j'ai fini dans un sale état</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ah bah ouais, Bersa Wouh Sept jours sur sept Shoo, paire de Requins, pour pas changer Shoo Y a mon num' dans lpochton d'échange Wouah, j'te passe dix joints, distribue-les Wouah Tiens, un vélo Wouh, prends le bigot Wouh, si j'réponds plus Wouh, appelle Ninho Wouh J'suis à l'hôtel avec des super fesses, que j'ai déjà baisé dans un rêve Wouh Grâce au biz Grâce, on maille et ça, bien avant le buzz Avant le buzz Je l'ai posée, sièges chauffants dans le Merco Benz 63s Rien qu'ça débite, on s'arrête pas, on fait pas d'pause On fait pas d'pause Faut qu'j'la détaille, ah yeah Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit You might also like Et tous les voisins s'plaignent, on fait la loi dans l'binks Loi dans l'binks Plus d'oseille, on fait la loi dans l'binks Loi dans l'binks Et c'est pas évident Évident de la vendre everyday Everyday Train de vie fatigant, nous, on est bons qu'à dealer Qu'à dealer Payer les affaires cash cash, personne à rembourser Personne à rembourser La coco, ça porte la poisse mais le bénef' a doublé Mais le bénéf' a doublé Oh, mama, j'suis désolé, pour l'violet, j'ai déconné, détailler, redétailler Encaisser, encaisser, encaisser, encaisser encore avant d'les mandater Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit Commission, enquête et photo, la juge a fait tomber nos potos mais Les p'tits frères ont repris l'réseau pour faire tourner l'économie dans le ghetto Commission, enquête et photo, la juge a fait tomber nos potos mais Les p'tits frères ont repris l'réseau pour faire tourner l'économie dans le ghetto Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit1</t>
+          <t>Ah bah ouais, Bersa Wouh Sept jours sur sept Shoo, paire de Requins, pour pas changer Shoo Y a mon num' dans lpochton d'échange Wouah, j'te passe dix joints, distribue-les Wouah Tiens, un vélo Wouh, prends le bigot Wouh, si j'réponds plus Wouh, appelle Ninho Wouh J'suis à l'hôtel avec des super fesses, que j'ai déjà baisé dans un rêve Wouh Grâce au biz Grâce, on maille et ça, bien avant le buzz Avant le buzz Je l'ai posée, sièges chauffants dans le Merco Benz 63s Rien qu'ça débite, on s'arrête pas, on fait pas d'pause On fait pas d'pause Faut qu'j'la détaille, ah yeah Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit Et tous les voisins s'plaignent, on fait la loi dans l'binks Loi dans l'binks Plus d'oseille, on fait la loi dans l'binks Loi dans l'binks Et c'est pas évident Évident de la vendre everyday Everyday Train de vie fatigant, nous, on est bons qu'à dealer Qu'à dealer Payer les affaires cash cash, personne à rembourser Personne à rembourser La coco, ça porte la poisse mais le bénef' a doublé Mais le bénéf' a doublé Oh, mama, j'suis désolé, pour l'violet, j'ai déconné, détailler, redétailler Encaisser, encaisser, encaisser, encaisser encore avant d'les mandater Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit Commission, enquête et photo, la juge a fait tomber nos potos mais Les p'tits frères ont repris l'réseau pour faire tourner l'économie dans le ghetto Commission, enquête et photo, la juge a fait tomber nos potos mais Les p'tits frères ont repris l'réseau pour faire tourner l'économie dans le ghetto Et moi, on m'a rien donné, du coup, j'ai tout pris moi-même J'ai fait tourner la farine, le chocolat dans le cartel On fait du blé, la voisine nous maudit Encore des dix, encore des vingt, j'suis là depuis midi Et moi, quand j'arrive, la bonbonne, elle est déjà finie Ça sent la bonne journée les keufs sont pas v'nus depuis midi On fait du cash, la voisine nous maudit On vient de siffler la mi-temps, j'suis là d'dix-huit heures jusqu'à minuit1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Narcos Dans la chambre 122 du tel-hô, ta salope m'attend les sses-fé à l'air les sses-fé à l'air J'vais la rejoindre t'à l'heure, j'suis en showcase j'récupère un salaire un gros billet Pour l'instant, ça s'passe, j'suis resté serein, vrai, humble et peace j'suis toujours vrai Du moment que j'gratte ma pièce et le Seven Binks a prit toute la place Et toutes les couleurs, toutes les saveurs toutes les saveurs, faut mettre le bon prix pour qu'tu savoures tu savoures Mon cerveau, d'mes couilles j'me suis servi me suis servi, et j'me suis jamais mélangé aux suiveurs aux suiveurs La peufra, c'est nous qui l'a ramenons, maintenant, c'est YouTube qui nous rémunère nous paie Et coupe, recoupe, recoupe, y'en a assez pour toute la vie Elle-elle veut que j'l'attrape par les veuchs, c'que j'veux, c'est cher-cra dans sa bouche sa bouche C'est l'shit qui nous a rendu moche moche, les faux-payeurs qui nous rendent fous Les descentes de keuf sur le four, le manque d'argent fait rentrer tard tard Si t'es mon frère, je tire, j'te donne mon dos si t'es un traître un traître T'as cru qu'on allait s'raconter nos vies jusquà quand ? jusqu'à quand ? Dans mes DM Insta', j'arrive pas à choisir laquelle laquelle J'regarde encore et j'aborde la plus bonne à ken à ken Si elle veut ma queue, j'vais la ramener dans l'premier hôtel You might also like Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi C'est vrai l'argent rend beau, plus de groupies, de putes, mes poches sont remplies remplies ouais Des gros cul qu't'as jamais vu nada, j'pensais ne jamais voir ça dans ma vie ma vie ouais Et Fenzo, tu disais vrai Fenzo tu disais vrai et mon frère, tu disais vrai mon frère, tu disais vrai Toujours croire en ses rêves et travailler dur pour y arriver 'rriver Des fois j'repense au buzz, au grec de la gare, au manque de détail détail ouais Et dans les jours de neige, il faut faire belek, les barrettes se cassent se cassent ouais J'suis toujours dans l'fond du Binks Binks, j'recompte après l'passage d'un autre clicos clicos J'ai pas retourné ma veste veste, tu fais avec les miens, demande aux autres aux autres, aux autres Les deux pieds dans la piscine, complètement khabat sous Jack Honey J'me die pendant qu'elle s'baigne, j'suis le seul à bédave dans l'hôtel Je sais que j'vais lui mettre, avant d'me coucher, j'retire la montre J'allume un dernier pét' avant d'l'envoyer éteindre la lumière T'as cru qu'on allait s'raconter nos vies jusquà quand ? jusqu'à quand ? Dans mes DM Insta', j'arrive pas à choisir laquelle laquelle J'regarde encore et j'aborde la plus bonne à ken à ken Si elle veut ma queue, j'vais la ramener dans l'premier hôtel Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi Et ensuite j'm'occupe de toi Et ensuite j'm'occupe de toi3</t>
+          <t>Narcos Dans la chambre 122 du tel-hô, ta salope m'attend les sses-fé à l'air les sses-fé à l'air J'vais la rejoindre t'à l'heure, j'suis en showcase j'récupère un salaire un gros billet Pour l'instant, ça s'passe, j'suis resté serein, vrai, humble et peace j'suis toujours vrai Du moment que j'gratte ma pièce et le Seven Binks a prit toute la place Et toutes les couleurs, toutes les saveurs toutes les saveurs, faut mettre le bon prix pour qu'tu savoures tu savoures Mon cerveau, d'mes couilles j'me suis servi me suis servi, et j'me suis jamais mélangé aux suiveurs aux suiveurs La peufra, c'est nous qui l'a ramenons, maintenant, c'est YouTube qui nous rémunère nous paie Et coupe, recoupe, recoupe, y'en a assez pour toute la vie Elle-elle veut que j'l'attrape par les veuchs, c'que j'veux, c'est cher-cra dans sa bouche sa bouche C'est l'shit qui nous a rendu moche moche, les faux-payeurs qui nous rendent fous Les descentes de keuf sur le four, le manque d'argent fait rentrer tard tard Si t'es mon frère, je tire, j'te donne mon dos si t'es un traître un traître T'as cru qu'on allait s'raconter nos vies jusquà quand ? jusqu'à quand ? Dans mes DM Insta', j'arrive pas à choisir laquelle laquelle J'regarde encore et j'aborde la plus bonne à ken à ken Si elle veut ma queue, j'vais la ramener dans l'premier hôtel Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi C'est vrai l'argent rend beau, plus de groupies, de putes, mes poches sont remplies remplies ouais Des gros cul qu't'as jamais vu nada, j'pensais ne jamais voir ça dans ma vie ma vie ouais Et Fenzo, tu disais vrai Fenzo tu disais vrai et mon frère, tu disais vrai mon frère, tu disais vrai Toujours croire en ses rêves et travailler dur pour y arriver 'rriver Des fois j'repense au buzz, au grec de la gare, au manque de détail détail ouais Et dans les jours de neige, il faut faire belek, les barrettes se cassent se cassent ouais J'suis toujours dans l'fond du Binks Binks, j'recompte après l'passage d'un autre clicos clicos J'ai pas retourné ma veste veste, tu fais avec les miens, demande aux autres aux autres, aux autres Les deux pieds dans la piscine, complètement khabat sous Jack Honey J'me die pendant qu'elle s'baigne, j'suis le seul à bédave dans l'hôtel Je sais que j'vais lui mettre, avant d'me coucher, j'retire la montre J'allume un dernier pét' avant d'l'envoyer éteindre la lumière T'as cru qu'on allait s'raconter nos vies jusquà quand ? jusqu'à quand ? Dans mes DM Insta', j'arrive pas à choisir laquelle laquelle J'regarde encore et j'aborde la plus bonne à ken à ken Si elle veut ma queue, j'vais la ramener dans l'premier hôtel Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi Une fois arrivé, tu sais c'qu'il va se passer Si moi j'ai payé, c'est pas pour te regarder Tu te déshabilles pendant qu'j'roule un dernier joint D'abord, masse-moi l'dos et ensuite j'm'occupe de toi Et ensuite j'm'occupe de toi Et ensuite j'm'occupe de toi3</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Laytebeats J'suis dans l'binks, fonce-dé dans l'50K Oye, oye, oye, oye Dans l'auto' avec Deuspi et c'est bête de vouloir venir tester Essaye On sait mieux faire que Despo et à chaque transaction, y a au moins dix pièces De frappe On les pousse, ils nous remboursent Cest sûr, pas l'même tarot pour eux tous C'est mort Y a ceux qui s'contentent d'être chouf D'être chouf et d'autres qui t'allument pour devenir chef Devenir chef Te-shi, begeuh, CC, cliquos en chien sous le Porsche J'me dépêche, j'me dépêche, faut pas qu'les fes-keu approchent Approchent On détaille plus au gramme, maintenant, c'est la frappe qui parle Qui parle Import-export, transac' de ppe-f', récupère ton bénéf' trois fois Trois fois Avant d'kusher, j'passe au chinois, pour ma cons', dans l'sac, je pioche Que des vingts et des blocs, c'est bleu et orange dans ma sacoche Meilleur moula, meilleur kush, ma mission ramener du cash Que du cash, beaucoup d'cash, une dernière carotte et j'me couche Que j'me couche Envoie une masse, j'en roule un autre Oye, oye, oye, oye Oh, ressers-moi, j'en veux encore Oye, oye, oye, oye Tu peux m'voir dans l'fond du 7 Oye, oye, oye, oye Ou mort, khabat dans l'Golf 7 R Oye, oye, oye, oye You might also like Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Attends pause Vite fait, passe à lépice, y a plus d'potion Plus de Jack Sois pas pressé, attendez, avant d'partir, faut qu'j'aille pisser Reste peace pour ta pièce, c'est nous la pire espèce Et comme j'encaisse, j'encaisse heureux, car je change de caisse Un nouveau Golf On est puissant, tellement puissant que les bitches s'abaissent Elles s'déshabillent Pour que j'la baise, suffit d'un clin d'il D'un clin d'il Dieu merci, j'ai buzzé d'un coup Tout d'un coup J'suis gâté, j'ai pris tout l'gâteau, pour être blindé, moi, j'suis avec des blindés Des gérants J'suis toujours avec ma bande Les mêmes, les mêmes crapules, les mêmes bandits Les mêmes bandits On baise tout, donc les autres boudent, en danger, c'est l'arme de poing qu'je brandis On a pris l'contrôle, on gère le périmètre, pas d'paramètres et ton pilon est périmé C'est d'la caille Par amour, j'ai allumé mon pire ennemi, d'la pure moula, nous, on en reçoit par milliers Que d'la frappe Et j'en rajoute une couche, non, c'est pas fini, pas fini et j'suis l'meilleur quand j'suis sous fumette Avant, j'les interdisais de filmer, maintenant, j'les laisse car ça fait booster ma SACEM Apprécie-moi Envoie une masse, j'en roule un autre Oye, oye, oye, oye Oh, ressers-moi, j'en veux encore Oye, oye, oye, oye Tu peux m'voir dans l'fond du 7 Oye, oye, oye, oye Ou mort, khabat dans l'Golf 7 R Oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye2</t>
+          <t>Laytebeats J'suis dans l'binks, fonce-dé dans l'50K Oye, oye, oye, oye Dans l'auto' avec Deuspi et c'est bête de vouloir venir tester Essaye On sait mieux faire que Despo et à chaque transaction, y a au moins dix pièces De frappe On les pousse, ils nous remboursent Cest sûr, pas l'même tarot pour eux tous C'est mort Y a ceux qui s'contentent d'être chouf D'être chouf et d'autres qui t'allument pour devenir chef Devenir chef Te-shi, begeuh, CC, cliquos en chien sous le Porsche J'me dépêche, j'me dépêche, faut pas qu'les fes-keu approchent Approchent On détaille plus au gramme, maintenant, c'est la frappe qui parle Qui parle Import-export, transac' de ppe-f', récupère ton bénéf' trois fois Trois fois Avant d'kusher, j'passe au chinois, pour ma cons', dans l'sac, je pioche Que des vingts et des blocs, c'est bleu et orange dans ma sacoche Meilleur moula, meilleur kush, ma mission ramener du cash Que du cash, beaucoup d'cash, une dernière carotte et j'me couche Que j'me couche Envoie une masse, j'en roule un autre Oye, oye, oye, oye Oh, ressers-moi, j'en veux encore Oye, oye, oye, oye Tu peux m'voir dans l'fond du 7 Oye, oye, oye, oye Ou mort, khabat dans l'Golf 7 R Oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Attends pause Vite fait, passe à lépice, y a plus d'potion Plus de Jack Sois pas pressé, attendez, avant d'partir, faut qu'j'aille pisser Reste peace pour ta pièce, c'est nous la pire espèce Et comme j'encaisse, j'encaisse heureux, car je change de caisse Un nouveau Golf On est puissant, tellement puissant que les bitches s'abaissent Elles s'déshabillent Pour que j'la baise, suffit d'un clin d'il D'un clin d'il Dieu merci, j'ai buzzé d'un coup Tout d'un coup J'suis gâté, j'ai pris tout l'gâteau, pour être blindé, moi, j'suis avec des blindés Des gérants J'suis toujours avec ma bande Les mêmes, les mêmes crapules, les mêmes bandits Les mêmes bandits On baise tout, donc les autres boudent, en danger, c'est l'arme de poing qu'je brandis On a pris l'contrôle, on gère le périmètre, pas d'paramètres et ton pilon est périmé C'est d'la caille Par amour, j'ai allumé mon pire ennemi, d'la pure moula, nous, on en reçoit par milliers Que d'la frappe Et j'en rajoute une couche, non, c'est pas fini, pas fini et j'suis l'meilleur quand j'suis sous fumette Avant, j'les interdisais de filmer, maintenant, j'les laisse car ça fait booster ma SACEM Apprécie-moi Envoie une masse, j'en roule un autre Oye, oye, oye, oye Oh, ressers-moi, j'en veux encore Oye, oye, oye, oye Tu peux m'voir dans l'fond du 7 Oye, oye, oye, oye Ou mort, khabat dans l'Golf 7 R Oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye Oye, oye, oye, oye, oye, oye2</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hey Oh-oh-ah Hey Tchip Hey Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé T'auras beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Tu veux faire partie de ma vie, de ma destiny mais t'es pas Beyoncé Yeah, yeah Eh, eh Ma Beyoncé, elle m'suce la bite, négro Elle m'suce la bite, négro Elle me fait les meilleurs massages Eh, son cul, il est tout gros Eh, tout rond comme le monde Eh Elle veut le dernier sac LV à la mode Oh et une fourrure qui sort d'un loup de la meute Et une fourrure qui sort d'un loup de la meute Elle veut aussi la même Rolex que moi Oui, c'est moi qui ramène l'argent, dmoi, elle dépend Elle dépend J'sais qu'ils reposent en paix quand j'la démonte Quand j'la démonte Elle aime mon écran tactile quand j'décapote Quand j'décapote Quand j'suis mort fonce-dé, quand j'secoue mes locks J'secoue mes locks Là, j'ressors du tribunal, sans suite, mon affaire, elle est classée Classée Donc, j'remonte dans mon Classe C You might also like Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer Si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Comme Jay-Z Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé Oh no T'aura beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Oh no Tu veux faire partie de ma vie, de ma Destiny mais t'es pas Beyoncé T'es pas Beyoncé Yeah, yeah Elle cherche un millionnaire Un million d'euro, million d'euro, ouais Pour remplacer son père Pour remplacer son papa, oh Elle veut me faire un gosse dans le dos Ah, mon bébé, ah, mon bébé, ah Pension alimentaire Shii Que des négros titulaires Congolais, mwana mboka Y a plus rien qui coûte cher Cristiano Ronaldo Respecte-moi juste un chouïa Un chouïa, un chouïa, un chouïa, un chouïa Oh-oh-ah Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer Si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Comme Jay-Z Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé Oh no T'aura beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Oh no Tu veux faire partie de ma vie, de ma destiny mais t'es pas Beyoncé T'es pas Beyoncé Yeah, yeah Ah Oh-oh-ah Ah-ah Un million d'euros, million d'euros, ouais Ah Ah-ah Oh no Ah Ah-ah Cristiano Ronaldo Ah Ah-ah Que des négros titulaires Ah Ah-ah Oh no Oh-oh-ah</t>
+          <t>Hey Oh-oh-ah Hey Tchip Hey Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé T'auras beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Tu veux faire partie de ma vie, de ma destiny mais t'es pas Beyoncé Yeah, yeah Eh, eh Ma Beyoncé, elle m'suce la bite, négro Elle m'suce la bite, négro Elle me fait les meilleurs massages Eh, son cul, il est tout gros Eh, tout rond comme le monde Eh Elle veut le dernier sac LV à la mode Oh et une fourrure qui sort d'un loup de la meute Et une fourrure qui sort d'un loup de la meute Elle veut aussi la même Rolex que moi Oui, c'est moi qui ramène l'argent, dmoi, elle dépend Elle dépend J'sais qu'ils reposent en paix quand j'la démonte Quand j'la démonte Elle aime mon écran tactile quand j'décapote Quand j'décapote Quand j'suis mort fonce-dé, quand j'secoue mes locks J'secoue mes locks Là, j'ressors du tribunal, sans suite, mon affaire, elle est classée Classée Donc, j'remonte dans mon Classe C Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer Si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Comme Jay-Z Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé Oh no T'aura beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Oh no Tu veux faire partie de ma vie, de ma Destiny mais t'es pas Beyoncé T'es pas Beyoncé Yeah, yeah Elle cherche un millionnaire Un million d'euro, million d'euro, ouais Pour remplacer son père Pour remplacer son papa, oh Elle veut me faire un gosse dans le dos Ah, mon bébé, ah, mon bébé, ah Pension alimentaire Shii Que des négros titulaires Congolais, mwana mboka Y a plus rien qui coûte cher Cristiano Ronaldo Respecte-moi juste un chouïa Un chouïa, un chouïa, un chouïa, un chouïa Oh-oh-ah Elle m'dit qu'elle veut vivre avec un homme riche, elle m'a parlé français Elle m'a parlé français Quitter le, quitter l'pays, pour la lune de miel, si j'veux la fiancer Si j'veux la fiancer L'argent du buis', l'argent de la 'sique, elle veut le dépenser Elle veut le dépenser Malin pour qu'tout le monde dise, que nous deux c'est fluide, comme Jay-Z, Beyoncé Comme Jay-Z Beyoncé Mais t'es pas Beyoncé, cries pas, t'es pas Beyoncé Oh no T'aura beau taper ton vice, j'suis pas ton Jay-Z, t'es pas ma Beyoncé T'es pas ma Beyoncé T'es pas Beyoncé, t'es pas, t'es pas Beyoncé Oh no Tu veux faire partie de ma vie, de ma destiny mais t'es pas Beyoncé T'es pas Beyoncé Yeah, yeah Ah Oh-oh-ah Ah-ah Un million d'euros, million d'euros, ouais Ah Ah-ah Oh no Ah Ah-ah Cristiano Ronaldo Ah Ah-ah Que des négros titulaires Ah Ah-ah Oh no Oh-oh-ah</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquell ? Sinon, laquelle ? N'aie pas la hain Flemme du pénitencier, j'ai grandi dans l'souk, ça fait longtemps qu'on deale mais y en a pas assez Eh, poto, reste assis, ça s'enroule un joint, ouvre bien grand tes oreilles, faut qu'j'te raconte un truc J'me suis fait près du hall, près des putes, près d'la stup', près des flingues, près des grosses bagarres devant la gare J'ai fini dans la blanche, dans la verte, dans le jaune pour essayer de repeindre ma vie en rose J'ai fait tomber ta mala, j'suis défoncé, j'fais que d'me cacher, y a les condés qui font que d'tourner jour et nuit Plus en plus, j'réfléchis et des fois, j'me dis qu'c'est la vapeur de la drogue qui nous illumine J'sais qu'elle va pas dire Non, j'l'emmène pas dîner, j'suis au Mélia, vingtième étage, Dom Pérignon Gros, j'suis pas trop mignon mais le bruit d'la racli fait que dans ma tête, y a rien qui part d'son chignon J'sais qu'tu l'as vue, le dernier fer, si tu veux, j'te l'loue J'ai pas changé, j'suis resté neutre mais sur ma montre, j'ai mis v'là les thunes J'ai bien grandi, mes locks aussi, non, c'est plus la même qu'à l'époque Ouais, c'est fini les TP. C'est plus les même phrases dans l'bloc-notes You might also like N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquelle ? Sinon, laquelle ? N'aie pas la haine Ah bah, ah bah qui voilà-je ? Encore un autre rappeur qui voyage Train d'vie de star, pas de vie moyenne, s'ils voyaient tout le charbon que ça représente Wow J'pense qu'on nous sucerait même davantage Hey Très, très gourmand sur le carambar Ah J'décroche pas l'tél' si c'est pas rentable Lamentable Traces de griffures sur les avant-bras, j'dors avec Freddy Krueger ou Pocahontas Hey Non, te fais pas du mal, c'est pas la peine, tu t'perds dans les flows comme Ben Laden J'suis deux fois meilleur que la veille, je suis le miel, sur mon t-shirt, il y a des abeilles C'est D.V.A.L, quand je déprime, je pense à la SACEM, ouais, je pense à la tienne La vie d'artiste sinon j'ai la flemme, la vie d'artiste sinon j'ai la flemme Adidas collec' en avance Wow, j'suis toujours et jamais en vacances Le temps fait semblant d'exister, ta présidentielle provient de Thaïlande Dis-moi, pourquoi t'as la haine ? Au point que, tu nous veux du mal, tu vois même pas que T'es qu'un tas ddata dun doigt qu'on efface Vas-y, dégage à droite qu'on dépasse, vas-y, dégage à droite qu'on dépasse N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquelle ? Sinon, laquelle ? N'aie pas la haine2</t>
+          <t>N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquell ? Sinon, laquelle ? N'aie pas la hain Flemme du pénitencier, j'ai grandi dans l'souk, ça fait longtemps qu'on deale mais y en a pas assez Eh, poto, reste assis, ça s'enroule un joint, ouvre bien grand tes oreilles, faut qu'j'te raconte un truc J'me suis fait près du hall, près des putes, près d'la stup', près des flingues, près des grosses bagarres devant la gare J'ai fini dans la blanche, dans la verte, dans le jaune pour essayer de repeindre ma vie en rose J'ai fait tomber ta mala, j'suis défoncé, j'fais que d'me cacher, y a les condés qui font que d'tourner jour et nuit Plus en plus, j'réfléchis et des fois, j'me dis qu'c'est la vapeur de la drogue qui nous illumine J'sais qu'elle va pas dire Non, j'l'emmène pas dîner, j'suis au Mélia, vingtième étage, Dom Pérignon Gros, j'suis pas trop mignon mais le bruit d'la racli fait que dans ma tête, y a rien qui part d'son chignon J'sais qu'tu l'as vue, le dernier fer, si tu veux, j'te l'loue J'ai pas changé, j'suis resté neutre mais sur ma montre, j'ai mis v'là les thunes J'ai bien grandi, mes locks aussi, non, c'est plus la même qu'à l'époque Ouais, c'est fini les TP. C'est plus les même phrases dans l'bloc-notes N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquelle ? Sinon, laquelle ? N'aie pas la haine Ah bah, ah bah qui voilà-je ? Encore un autre rappeur qui voyage Train d'vie de star, pas de vie moyenne, s'ils voyaient tout le charbon que ça représente Wow J'pense qu'on nous sucerait même davantage Hey Très, très gourmand sur le carambar Ah J'décroche pas l'tél' si c'est pas rentable Lamentable Traces de griffures sur les avant-bras, j'dors avec Freddy Krueger ou Pocahontas Hey Non, te fais pas du mal, c'est pas la peine, tu t'perds dans les flows comme Ben Laden J'suis deux fois meilleur que la veille, je suis le miel, sur mon t-shirt, il y a des abeilles C'est D.V.A.L, quand je déprime, je pense à la SACEM, ouais, je pense à la tienne La vie d'artiste sinon j'ai la flemme, la vie d'artiste sinon j'ai la flemme Adidas collec' en avance Wow, j'suis toujours et jamais en vacances Le temps fait semblant d'exister, ta présidentielle provient de Thaïlande Dis-moi, pourquoi t'as la haine ? Au point que, tu nous veux du mal, tu vois même pas que T'es qu'un tas ddata dun doigt qu'on efface Vas-y, dégage à droite qu'on dépasse, vas-y, dégage à droite qu'on dépasse N'aie pas la haine N'aie pas la haine, tu t'fais du mal, c'est pas la peine Pas la peine Nan, y a pas de Dadju, pas de Reine Pas de Reine Oh, regarde cette kich' plein d'OGM, n'aie pas la haine J'ai grave la haine J'ai l'démon, ils ont trouvé ma be-her dans l'Cayenne En d'ssous du siège Mais comme j'suis Koba LaD, ils m'mettent pas d'peine Ils vont rien faire Oh, cette vie d'artiste sinon, laquelle ? Sinon, laquelle ? N'aie pas la haine2</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Woh, woh, woh Woh, woh, woh, woh 8 seconds, ah! Eh, eh Woh, putain AKM Woh Ah là, j'crois faut faire le son-là, le son Eh, eh, La Volga, eh Eh, tarpé On a commencé le rap à trois Ouh J'suis aux pyramides, j'suis au bunker Ouh Et comme je faisais des temps-plein, j'posais mes seizes en one shot, j'retournais bosser Direct J'suis fonce-dé dans la Villa D La D, dans l'autre pièce, y a Suge qui s'fait sucer Ah, comme d'hab' Inspiration débordante, on m'a demandé de faire mon album en dix jours Et j't'explique, tout a commencé Commencé une semaine avant la rentrée Juste avant Allô ? Allô, Deuspi ? Il faut qu'on s'voit Qu'on s'voit, dans pas longtemps, j'rentre au lycée Au secours Une bonbonne de shit Que d'la frappe, bien compacte, la beuh, elle pue, cellophane-la Cellophane-la Et si je sens que ça veut m'mêler Ça veut m'mêler, j't'appelle pour venir me chercher Avec un flingue La boule au ventre quand j'sors de chez moi par peur d'croiser les condés Vu que j'ai un c-tru sur moi, pas peur de croiser l'autre quartier Ça, c'était avant, putain, avant, si tu savais, tout a changé J'suis à Total, j'suis dans l'Audi, j'mets l'plein et j'vais la laver Quand c'est moi qui détaille, un gramme six pour les dix balles Deux-deux pour les vingt d'beuh, t'es mon pote, j'rajoute un peu De midi jusqu'à minuit, les ients-cli, les keufs aussi Qu'est-ce tu dis ? Argent facile ? Y a Fleury, y a Bois-d'Arcy You might also like Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Capuché, casquetté, écouteurs, onze heures, j'roulais mon joint dans l'fond du bus Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est d'l'abus Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Eh, putain, j'ai grandi, j'ai appris, j'ai compris Et l'ancien m'a dit Dans la vie, apprend à marcher avant d'vouloir courir Ban-bang-bang Eh, gamin, écoute-moi bien la vie, c'est dur mais bon, c'est rien Et comme c'est tous des tains-p', mets la capote ou sinon, rien Tu fais d'l'argent, tu t'en sors bien, donc ralentis par des bons à rien C'est Dieu qui donne, l'travail aussi mais si tu dors, bah, t'aurais rien En aucun cas, j'viens d'cette planète, j'suis ni des nôtres, j'suis ni des vôtres Et j'me rends compte qu'une fois qu't'es mort, bah, toute la Terre ont des remords J'suis dans la caisse, volant à droite, au-dessus d'ma tête, y a des étoiles En première classe, j'bois du champagne, si j'ouvre la fenêtre, j'vole un nuage Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Capuché, casquette et écouteurs, onze heures, j'roulais mon joint dans l'fond du bus Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est d'l'abus Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Putain AKM, j'te l'avais dis, hein Là, on a fait l'son Tard-pé, puto, salope Woh, woh, woh, woh Woh, woh, woh, woh1</t>
+          <t>Woh, woh, woh Woh, woh, woh, woh 8 seconds, ah! Eh, eh Woh, putain AKM Woh Ah là, j'crois faut faire le son-là, le son Eh, eh, La Volga, eh Eh, tarpé On a commencé le rap à trois Ouh J'suis aux pyramides, j'suis au bunker Ouh Et comme je faisais des temps-plein, j'posais mes seizes en one shot, j'retournais bosser Direct J'suis fonce-dé dans la Villa D La D, dans l'autre pièce, y a Suge qui s'fait sucer Ah, comme d'hab' Inspiration débordante, on m'a demandé de faire mon album en dix jours Et j't'explique, tout a commencé Commencé une semaine avant la rentrée Juste avant Allô ? Allô, Deuspi ? Il faut qu'on s'voit Qu'on s'voit, dans pas longtemps, j'rentre au lycée Au secours Une bonbonne de shit Que d'la frappe, bien compacte, la beuh, elle pue, cellophane-la Cellophane-la Et si je sens que ça veut m'mêler Ça veut m'mêler, j't'appelle pour venir me chercher Avec un flingue La boule au ventre quand j'sors de chez moi par peur d'croiser les condés Vu que j'ai un c-tru sur moi, pas peur de croiser l'autre quartier Ça, c'était avant, putain, avant, si tu savais, tout a changé J'suis à Total, j'suis dans l'Audi, j'mets l'plein et j'vais la laver Quand c'est moi qui détaille, un gramme six pour les dix balles Deux-deux pour les vingt d'beuh, t'es mon pote, j'rajoute un peu De midi jusqu'à minuit, les ients-cli, les keufs aussi Qu'est-ce tu dis ? Argent facile ? Y a Fleury, y a Bois-d'Arcy Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Capuché, casquetté, écouteurs, onze heures, j'roulais mon joint dans l'fond du bus Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est d'l'abus Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Eh, putain, j'ai grandi, j'ai appris, j'ai compris Et l'ancien m'a dit Dans la vie, apprend à marcher avant d'vouloir courir Ban-bang-bang Eh, gamin, écoute-moi bien la vie, c'est dur mais bon, c'est rien Et comme c'est tous des tains-p', mets la capote ou sinon, rien Tu fais d'l'argent, tu t'en sors bien, donc ralentis par des bons à rien C'est Dieu qui donne, l'travail aussi mais si tu dors, bah, t'aurais rien En aucun cas, j'viens d'cette planète, j'suis ni des nôtres, j'suis ni des vôtres Et j'me rends compte qu'une fois qu't'es mort, bah, toute la Terre ont des remords J'suis dans la caisse, volant à droite, au-dessus d'ma tête, y a des étoiles En première classe, j'bois du champagne, si j'ouvre la fenêtre, j'vole un nuage Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Capuché, casquette et écouteurs, onze heures, j'roulais mon joint dans l'fond du bus Nique la police, vive la gue-dro Woh, nique la police, vive la gue-dro Woh Dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est d'l'abus Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Allô ? Il t'reste combien ? Il m'reste un bloc, un vingt Putain AKM, j'te l'avais dis, hein Là, on a fait l'son Tard-pé, puto, salope Woh, woh, woh, woh Woh, woh, woh, woh1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fuck it's easy J'vendais d'la drogue à l'école J'vendais la drogue à l'école J'ai quitté l'école pour la dope J'ai quitté l'école pour la dope Le 6.35 est menaçant Le 6.35 est menaçant, nettoyé minutieusement Nettoyé minutieusement J'étais dehors avant midi Avant midi, j'étais dehors Midi-minuit, y a pas d'mi-temps Midi-minuit, y a pas d'mi-temps La plupart du temps en meute La plupart du temps en meute Personne pouvait nous la mettre, han On coupait la moitié de la moitié La moitié Moi qui croyait que la hess m'avait maudit sale Maudit sale Mais à vrai dire, notre amitié notre amitié Elle vaut rien de plus que de l'argent sale D'l'argent, des capotes, un paquet d'clopes et des feuilles Comme j'ai une cachette, jamais d'gue-dro dans ma fouille Si j'ai la recharge, obligé de prendre la fuite Maman, pardonne-moi, j'suis au charbon, crois pas que j'fuis Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale You might also like Pendant qu'le soleil se couche Pendant qu'le soleil se couche Sur l'transac', j'pète ma O.G kush Sur l'transac', j'pète un autre joint d'beuh J'repense au showcase d'la veille J'repense aux dix points d'hier Regarde, j'ai rendu fier mon vieux Regarde, j'ai rendu fier mon père Eh, allô Deuspi ? C'est moi Eh, allô Deuspi ? T'es où ? Il m'reste qu'un bleu, ravitaille le bail Recharge Bellek, les keufs sont à-l Y a la N.A.S et la koda J'fais l'tour, on s'pète vers la re-ga Tiens, y a trois-cent vingt, c'est la fin d'la 'quette 'Quette, finis ça et j'double ta paye Ta paye Te fais pas péter Nan, va trouver une cachette Vite Un conseil évite les f'nêtres D'l'argent des capotes, un paquet d'clopes et des feuilles Comme j'ai une cachette, jamais d'gue-dro dans ma fouille Si j'ai la recharge, obligé de prendre la fuite Maman pardonne-moi, j'suis au charbon, crois pas que j'fuis Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Tiens, y a trois-cent vingt, c'est la fin d'la 'quette, finis ça et j'double ta paye Te fais pas péter, va trouver une cachette Un conseil évite les f'nêtres Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale2</t>
+          <t>Fuck it's easy J'vendais d'la drogue à l'école J'vendais la drogue à l'école J'ai quitté l'école pour la dope J'ai quitté l'école pour la dope Le 6.35 est menaçant Le 6.35 est menaçant, nettoyé minutieusement Nettoyé minutieusement J'étais dehors avant midi Avant midi, j'étais dehors Midi-minuit, y a pas d'mi-temps Midi-minuit, y a pas d'mi-temps La plupart du temps en meute La plupart du temps en meute Personne pouvait nous la mettre, han On coupait la moitié de la moitié La moitié Moi qui croyait que la hess m'avait maudit sale Maudit sale Mais à vrai dire, notre amitié notre amitié Elle vaut rien de plus que de l'argent sale D'l'argent, des capotes, un paquet d'clopes et des feuilles Comme j'ai une cachette, jamais d'gue-dro dans ma fouille Si j'ai la recharge, obligé de prendre la fuite Maman, pardonne-moi, j'suis au charbon, crois pas que j'fuis Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Pendant qu'le soleil se couche Pendant qu'le soleil se couche Sur l'transac', j'pète ma O.G kush Sur l'transac', j'pète un autre joint d'beuh J'repense au showcase d'la veille J'repense aux dix points d'hier Regarde, j'ai rendu fier mon vieux Regarde, j'ai rendu fier mon père Eh, allô Deuspi ? C'est moi Eh, allô Deuspi ? T'es où ? Il m'reste qu'un bleu, ravitaille le bail Recharge Bellek, les keufs sont à-l Y a la N.A.S et la koda J'fais l'tour, on s'pète vers la re-ga Tiens, y a trois-cent vingt, c'est la fin d'la 'quette 'Quette, finis ça et j'double ta paye Ta paye Te fais pas péter Nan, va trouver une cachette Vite Un conseil évite les f'nêtres D'l'argent des capotes, un paquet d'clopes et des feuilles Comme j'ai une cachette, jamais d'gue-dro dans ma fouille Si j'ai la recharge, obligé de prendre la fuite Maman pardonne-moi, j'suis au charbon, crois pas que j'fuis Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale Tiens, y a trois-cent vingt, c'est la fin d'la 'quette, finis ça et j'double ta paye Te fais pas péter, va trouver une cachette Un conseil évite les f'nêtres Et j'coupe la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Et j'vends la gue-dro, gue-dro, gue-dro, gue-dro, cellophanée Eh, maman n'aime pas que j'traîne la nuit Et papa ne veut pas que j'deale2</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hee, hee J'suis dans l'binks, posé dans l'50k Hee, hee Hee, hee Hee, hee J'suis dans l'binks, posé dans l'50k Hee, hee Des belles caisses, des tasses, d'la drogue, d'la money Du khaliss, des litrons, des bosseurs, des guetteurs Les condés, les enquêtes, les saisies, les poucaves La perquise, la GAV, le dépôt, le placard Fais partir la bonbonne reste dans le bat' négro Dans le coffre du Golf 7R, j'ai mis quatre kilos Et si les condés viennent, vide le bat', négro Attend qu'un petit appel et retourne bosser, négro Je ressort du dépôt, j'ai eu du pot, j'viens de ve-squi la taule C'est bien beau de parler, mais comédien est-ce que t'as les talles ? Elle dit que j'ai du talent donc je sors la 'teille Nouveau clip, nouvelle pute, nouvelle chambre d'hôtel Et regarde mes abonnés, c'est moi qu'y a le plus de flow C'est moi qui a le plus de buzz, c'est moi qui baise tout le monde Et depuis Ténébreux 1, j'attire les maisons de disques En plus de la gue-dro, bientôt y'auras des disques J'suis mort rhabat dans le 50K, j'veux la concu' en quarantaine J'ai dû réfléchir comme un grand, pas tout voir en gros de temps en temps cru Il a fallut que tu sois aigris, donc ils m'ont prit pour un ingrat Mec aujourd'hui c'est moi qui graille, ils ont raté le train, c'est ça d'être en retard Et en temps de crise nous on ressert l'étau Ils se manifestent tous en vrai il était temps Et à l'ancienne ils me boycottaient tous, parce que j'étais plus petit Et aujourd'hui bah c'est ces même putes, maintenant qui m'sucent la bite Elle veut qu'j'la baise vu que j'ai du buzz Elle m'fait la bise, elle me dit que je lui manque Mais moi de base c'est que le terrain, rien que le terrain, j'vis pour ma tour, rien que pour ma tour Askip j'ai tord et qu'j'dois me concentrer au rap Mais comment vous dire qu'ça m'fait mal quand j'vois tout ces ient-cli que j'rate Donc je suis obligé d'détaille, re-détaille et encore détaille 22 heures, j'retourne sur l'terrain J'récupère, j're-compte et j're-compte C'est pas l'argent qui fait l'homme mais c'est l'homme qui doit faire d'l'argent Et vu qu'j'récupère tout les jours moi en vrai j'ai de quoi être un homme J'voulais des sous pas du succès, et depuis les putes se succèdent J'suis ton bébé sois disant quand tu m'suces, j'veux que tu m'regardes dans les yeux En vrai j'en ai jamais assez, donc j'peut pas rester assis Je discute avec le bosseur, on s'demande Comment faire rentrer plus de sous ? You might also like Des belles caisses, des tasses, d'la drogue, d'la money Du khaliss, des litrons, des bosseurs, des guetteurs Les condés, les enquêtes, les saisies, les poucaves La perquise, la GAV, le dépôt, le placard Fais partir la bonbonne reste dans le bat', négro Reste dans le bat' négro Dans le coffre du Golf 7R, j'ai mis quatre kilos J'ai mis quatre kilos Et si les condés viennent, vide le bat', négro Vide le bat', négro Attend qu'un petit appel et retourne bosser, négro Retourne bosser, négro Et retourne bosser, négro J'suis dans l'binks, posé dans l'50k Hee, hee3</t>
+          <t>Hee, hee J'suis dans l'binks, posé dans l'50k Hee, hee Hee, hee Hee, hee J'suis dans l'binks, posé dans l'50k Hee, hee Des belles caisses, des tasses, d'la drogue, d'la money Du khaliss, des litrons, des bosseurs, des guetteurs Les condés, les enquêtes, les saisies, les poucaves La perquise, la GAV, le dépôt, le placard Fais partir la bonbonne reste dans le bat' négro Dans le coffre du Golf 7R, j'ai mis quatre kilos Et si les condés viennent, vide le bat', négro Attend qu'un petit appel et retourne bosser, négro Je ressort du dépôt, j'ai eu du pot, j'viens de ve-squi la taule C'est bien beau de parler, mais comédien est-ce que t'as les talles ? Elle dit que j'ai du talent donc je sors la 'teille Nouveau clip, nouvelle pute, nouvelle chambre d'hôtel Et regarde mes abonnés, c'est moi qu'y a le plus de flow C'est moi qui a le plus de buzz, c'est moi qui baise tout le monde Et depuis Ténébreux 1, j'attire les maisons de disques En plus de la gue-dro, bientôt y'auras des disques J'suis mort rhabat dans le 50K, j'veux la concu' en quarantaine J'ai dû réfléchir comme un grand, pas tout voir en gros de temps en temps cru Il a fallut que tu sois aigris, donc ils m'ont prit pour un ingrat Mec aujourd'hui c'est moi qui graille, ils ont raté le train, c'est ça d'être en retard Et en temps de crise nous on ressert l'étau Ils se manifestent tous en vrai il était temps Et à l'ancienne ils me boycottaient tous, parce que j'étais plus petit Et aujourd'hui bah c'est ces même putes, maintenant qui m'sucent la bite Elle veut qu'j'la baise vu que j'ai du buzz Elle m'fait la bise, elle me dit que je lui manque Mais moi de base c'est que le terrain, rien que le terrain, j'vis pour ma tour, rien que pour ma tour Askip j'ai tord et qu'j'dois me concentrer au rap Mais comment vous dire qu'ça m'fait mal quand j'vois tout ces ient-cli que j'rate Donc je suis obligé d'détaille, re-détaille et encore détaille 22 heures, j'retourne sur l'terrain J'récupère, j're-compte et j're-compte C'est pas l'argent qui fait l'homme mais c'est l'homme qui doit faire d'l'argent Et vu qu'j'récupère tout les jours moi en vrai j'ai de quoi être un homme J'voulais des sous pas du succès, et depuis les putes se succèdent J'suis ton bébé sois disant quand tu m'suces, j'veux que tu m'regardes dans les yeux En vrai j'en ai jamais assez, donc j'peut pas rester assis Je discute avec le bosseur, on s'demande Comment faire rentrer plus de sous ? Des belles caisses, des tasses, d'la drogue, d'la money Du khaliss, des litrons, des bosseurs, des guetteurs Les condés, les enquêtes, les saisies, les poucaves La perquise, la GAV, le dépôt, le placard Fais partir la bonbonne reste dans le bat', négro Reste dans le bat' négro Dans le coffre du Golf 7R, j'ai mis quatre kilos J'ai mis quatre kilos Et si les condés viennent, vide le bat', négro Vide le bat', négro Attend qu'un petit appel et retourne bosser, négro Retourne bosser, négro Et retourne bosser, négro J'suis dans l'binks, posé dans l'50k Hee, hee3</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hadouken C'était comment l'parlu ? C'est bon, j'ai vu les potes T'inquiète, le 3esses va nous ramener les entrecôtes Et l'fils de pute ? C'est bon, j't'ai fait rentrer ta puce Ce soir, j'te branche directement avec le mec Assis-toi et roule un p'tit, j'sais bien qu'tu pètes un câble On va s'le faire, mon reuf, c'est pas l'mitard qui va arranger les choses Tu vux d'mander la condi', en même tmps, tu veux l'voir dans l'coffre de la Audi Ne laisse pas les nerfs prendre le pas sur ta cause Ouais, j'veux l'voir dans la fosse, You, j'vois plus mes quatre gosses Le pire j'ai honte, j'ai fait confiance à un dromadaire qui avait quatre bosses Tu sais, même dans mes rêves, j'passe la porte, j'suis libérable Y a Reda qui m'tire le col pour me ramener en cellule Ça fait quarante mois qu'je tourne, la concu' m'a mis aux archives Dans les pellicules de Snap', j'revois mes vacances aux Maldives Mon frérot, branche-moi une bonne fois pour toute, qu'on en finisse Je paie c'qu'il faut pour qu'ça soit propre et pas qu'on nous remonte - Tu veux parler avec lui ? Tiens, parle avec lui. Tiens, ça sonne - Ouais, allô ? - Ouais, allô ? Poto ? - Bien ou quoi ? - Ouais, bien. Eh, frérot, j't'appelle par rapport à l'autre là. Eh, j'suis en sang sa mère, frérot. C'est un mec de chez toi, t'as capté ? Il a pas été carré, il nous a donné directement, ma gueule. Il est branché avec eux directement. J'peux pas laisser. Dis-moi, j'paie c'qu'il faut et faut qu'ça vienne de chez toi, ma gueule. - T'inquiète, on va l'faire, on va l'faire. You might also like Rien qui bouge sans mon accord, zone quadrillée, tout l'monde raccorde Un coup, un corps, j'l'entends crier, il est d'jà mort, Il l'sait pas encore Okay, vamos, y a vrais vatos, y a gros matos, son nom gravé sur la bastos Ta cause, ma cause, pas de taros Ouais, on te l'arrose et tout, gratos Merci Sois en paix, j'vais bipper Ouais, sa grand-mère, faut qu'il paie sa dette, sa Patek Philippée Okay Équipiers équipés, OP pour s'en occuper Okay, sac mortuaire d'jà zippé, sur son torse R.I.P Ouais, Lacrim ? Ouais, salam T'sais qu'chez moi, ça démarre au quart J'connais deux-trois hayawan avec qui ils jouaient au poker à l'occas' Mon tit-pe baisait sa sur, j'sais qu'il va souvent la voir pour voir si elle est pas seule, facile d'lui mettre un traceur Eh, t'sais quoi ? J'ai les outils adéquats, de quoi ? Éteindre les témoins ? J'reçois De quoi l'allumer, j'déploie, deux-trois gars d'chez moi, dis-moi le jour et l'endroit J'ai d'quoi régler mes conflits, d'habitude, faut payer plein pot, pour lui, ça sera moitié prix - Ouais, allô ? - Ouais, allô ? Reda ? - Ouais, frérot ? - Ouais, ça va ou quoi, frérot ? Bien ? - Ça va et toi ? - Ouais, tranquille. Qu'est-ce qu'j'voulais dire ? Y a des affaires là, qui sont arrivées là - Ah, cool - Ouais, ouais... Donc, vas-y, hein, passe, hein... Passe comme d'hab' au café - Euh... J'passerai ce soir ou demain, ça t'va ? - Vas-y, c'est bon. Direct - Vas-y, carré, carré - Vas-y, salam, frérot. Salam Ça dit quoi ? J'ai une clope, fais voir un stick, faut qu'j'te dise, j'crois qu'j'ai cramé l'appartement de sa pute Mes potes connaissent tous ses potes, t'es mon reuf, j'veux pas qu'tu m'payes Et t'inquiète, il t'a balance, ils vont tous prendre mes patins J'ai un sin-c' qui traite avec un sin-c' qui connaît tous ses sins-c' et comme d'habitude, avec Rimkus, pour les plavons ches-lou J'ai trop d'ges-sh' sur la SIM et j'ai te-j' la carte SIM, avant d'te-j' la carte SIM, j'ai d'jà copié tous les num' Apparemment, tout s'passe bien, ils ont la bonne logistique Tes potes, c'est pas du bidon, il va s'faire fumer comme un p'tit stick Ouais Dès qu'il sort du Bât' 7 Ouais, dans sa Audi A7 Ouais, ce fils de pute va regretter d'avoir volé dans nos assiettes, amigo Faut lui niquer sa tante, même tout l'or du monde ne pourra pas racheter sa langue Ils m'ont bippé, tout est en place, demain, ils vont s'le faire Quand la parole devient bip, mon reuf, on répond par le fer, eh T'es une balance et t'arrives pas à peser tes actes Tes actes, tes actes ? On t'mettra du plomb dans la cervelle Cervelle Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes On t'remet les pieds sur la terre ferme Terre ferme T'as fait pleurer les miens, j'vais faire pleurer les tiens, gros Pleurer les tiens, gros Du 7.62 pour soigner ton syndrome Ton syndrome Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes T'aurais dû tenir ta langue, gros Ta langue, gros, ta langue, gros Gardien d'mon frère, en effet En effet, c'qui compte, c'est les faits et on l'a fait On l'a fait, il est dans l'fer Dans l'fer Faire ses affaires sans s'laisser faire notre sphère et rien n'y fait Rien n'y fait C'est comme ça, frère, toujours fier Toujours fier J'espère qu'tu as l'cur soulagé, la petite merde en sachet a fini comme promis, Champomy1</t>
+          <t>Hadouken C'était comment l'parlu ? C'est bon, j'ai vu les potes T'inquiète, le 3esses va nous ramener les entrecôtes Et l'fils de pute ? C'est bon, j't'ai fait rentrer ta puce Ce soir, j'te branche directement avec le mec Assis-toi et roule un p'tit, j'sais bien qu'tu pètes un câble On va s'le faire, mon reuf, c'est pas l'mitard qui va arranger les choses Tu vux d'mander la condi', en même tmps, tu veux l'voir dans l'coffre de la Audi Ne laisse pas les nerfs prendre le pas sur ta cause Ouais, j'veux l'voir dans la fosse, You, j'vois plus mes quatre gosses Le pire j'ai honte, j'ai fait confiance à un dromadaire qui avait quatre bosses Tu sais, même dans mes rêves, j'passe la porte, j'suis libérable Y a Reda qui m'tire le col pour me ramener en cellule Ça fait quarante mois qu'je tourne, la concu' m'a mis aux archives Dans les pellicules de Snap', j'revois mes vacances aux Maldives Mon frérot, branche-moi une bonne fois pour toute, qu'on en finisse Je paie c'qu'il faut pour qu'ça soit propre et pas qu'on nous remonte - Tu veux parler avec lui ? Tiens, parle avec lui. Tiens, ça sonne - Ouais, allô ? - Ouais, allô ? Poto ? - Bien ou quoi ? - Ouais, bien. Eh, frérot, j't'appelle par rapport à l'autre là. Eh, j'suis en sang sa mère, frérot. C'est un mec de chez toi, t'as capté ? Il a pas été carré, il nous a donné directement, ma gueule. Il est branché avec eux directement. J'peux pas laisser. Dis-moi, j'paie c'qu'il faut et faut qu'ça vienne de chez toi, ma gueule. - T'inquiète, on va l'faire, on va l'faire. Rien qui bouge sans mon accord, zone quadrillée, tout l'monde raccorde Un coup, un corps, j'l'entends crier, il est d'jà mort, Il l'sait pas encore Okay, vamos, y a vrais vatos, y a gros matos, son nom gravé sur la bastos Ta cause, ma cause, pas de taros Ouais, on te l'arrose et tout, gratos Merci Sois en paix, j'vais bipper Ouais, sa grand-mère, faut qu'il paie sa dette, sa Patek Philippée Okay Équipiers équipés, OP pour s'en occuper Okay, sac mortuaire d'jà zippé, sur son torse R.I.P Ouais, Lacrim ? Ouais, salam T'sais qu'chez moi, ça démarre au quart J'connais deux-trois hayawan avec qui ils jouaient au poker à l'occas' Mon tit-pe baisait sa sur, j'sais qu'il va souvent la voir pour voir si elle est pas seule, facile d'lui mettre un traceur Eh, t'sais quoi ? J'ai les outils adéquats, de quoi ? Éteindre les témoins ? J'reçois De quoi l'allumer, j'déploie, deux-trois gars d'chez moi, dis-moi le jour et l'endroit J'ai d'quoi régler mes conflits, d'habitude, faut payer plein pot, pour lui, ça sera moitié prix - Ouais, allô ? - Ouais, allô ? Reda ? - Ouais, frérot ? - Ouais, ça va ou quoi, frérot ? Bien ? - Ça va et toi ? - Ouais, tranquille. Qu'est-ce qu'j'voulais dire ? Y a des affaires là, qui sont arrivées là - Ah, cool - Ouais, ouais... Donc, vas-y, hein, passe, hein... Passe comme d'hab' au café - Euh... J'passerai ce soir ou demain, ça t'va ? - Vas-y, c'est bon. Direct - Vas-y, carré, carré - Vas-y, salam, frérot. Salam Ça dit quoi ? J'ai une clope, fais voir un stick, faut qu'j'te dise, j'crois qu'j'ai cramé l'appartement de sa pute Mes potes connaissent tous ses potes, t'es mon reuf, j'veux pas qu'tu m'payes Et t'inquiète, il t'a balance, ils vont tous prendre mes patins J'ai un sin-c' qui traite avec un sin-c' qui connaît tous ses sins-c' et comme d'habitude, avec Rimkus, pour les plavons ches-lou J'ai trop d'ges-sh' sur la SIM et j'ai te-j' la carte SIM, avant d'te-j' la carte SIM, j'ai d'jà copié tous les num' Apparemment, tout s'passe bien, ils ont la bonne logistique Tes potes, c'est pas du bidon, il va s'faire fumer comme un p'tit stick Ouais Dès qu'il sort du Bât' 7 Ouais, dans sa Audi A7 Ouais, ce fils de pute va regretter d'avoir volé dans nos assiettes, amigo Faut lui niquer sa tante, même tout l'or du monde ne pourra pas racheter sa langue Ils m'ont bippé, tout est en place, demain, ils vont s'le faire Quand la parole devient bip, mon reuf, on répond par le fer, eh T'es une balance et t'arrives pas à peser tes actes Tes actes, tes actes ? On t'mettra du plomb dans la cervelle Cervelle Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes On t'remet les pieds sur la terre ferme Terre ferme T'as fait pleurer les miens, j'vais faire pleurer les tiens, gros Pleurer les tiens, gros Du 7.62 pour soigner ton syndrome Ton syndrome Dans un silence de sourd, on fait crier les armes Crier les armes, crier les armes T'aurais dû tenir ta langue, gros Ta langue, gros, ta langue, gros Gardien d'mon frère, en effet En effet, c'qui compte, c'est les faits et on l'a fait On l'a fait, il est dans l'fer Dans l'fer Faire ses affaires sans s'laisser faire notre sphère et rien n'y fait Rien n'y fait C'est comme ça, frère, toujours fier Toujours fier J'espère qu'tu as l'cur soulagé, la petite merde en sachet a fini comme promis, Champomy1</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tommy On The Track Eh, eh, eh J'suis v'nu tout seul, j'ai pas b'soin d'aide, matrixé par Menace to Society par Menace to Society C'est l'manque d'argent qui nous incites et si ça d'vient che-lou t'inquiète, je saute t'inquiète, je saute Aujourd'hui, je me nourris d'illicite et tout a commencé dans le Bât' 7 commencé dans le Bât' 7 Plus d'buzz, dit plus de soucis mais dit plus de salopes qui veulent sucer de salope qui veulent sucer À c'qu'il paraît, l'argent rend beau rend beau, mélange pas les sous du shit et d'la beuh d'la beuh J'me démerde toujours pour avoir l'bon bail l'bon bail, y a cinq zéros sur le contrat, la vie est belle la vie est belle Viens chez nous, on manie les mots on manie les mots et sur l'autre mélo, y a plus d'un million y a plus d'un million Ça y est, j'suis d'dans, j'suis dans l'élite j'suis dans l'élite, pour l'instant, tout roule comme sur des roulettes comme sur des roulettes Koba La Détaille Koba La Détaille, six-cents sur la quette-pla sur la quette-pla Solides, ça bouge pas solides, ça bouge pas, y a Glazbif, y a Deuspave Glazbif, y a Deuspave Qui dit nouveaux kilos, arrivage de Critycal de Critycal Et si j'dis non, c'est qu'c'est non ou bien, va te faire enculer faire enculer Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise You might also like J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable Je les déboîte, rien que j'les démonte et j'ai pris leur buzz, leurs vues, ils ont l'démon ils ont l'démon Je les démarre, guette, ma cote ter-mon et j'arrête pas d'leur prouver qu'c'est moi, l'patron c'est moi, l'patron Ils ont l'seum de moi parce que j'encaisse, rien que j'encaisse et j'encaisse et j'encaisse et j'encaisse Maintenant, c'est plus facile de m'faire cer-su et mes sous s'accordent avec mon succès avec mon succès Si t'as pas coffré, pas d'bol, les raclis te verront comme un débile verront comme un débile Un cerveau et puis deux boules j'ai compris qu'il fallait des sous en balle fallait des sous en balle J'me rends compte qu'aucun d'entre eux n'est fiable, à la base, c'était le sang de la veine c'était le sang de la veine Mais depuis que j'fais des vues, les négros m'envient, veulent tous voir ma vie veulent tous voir ma vie Fellation, s'te plaît, fais-la bien, j'suis pas l'premier que t'as sucé que t'as sucé La solution, c'est dse soucier dces sous, sans les sucer c'est facile d'les dépasser d'les dépasser Et vu que j'bédave de la pasta et bien, j'attire le regard de tous les passants tous les passants J'me fais plus souvent masser et rien qu'elle s'agrippe à l'odeur du musc à l'odeur du musc Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable c'est rentable C'est rentable, ouais, binks Koba LaD, Seven Binks 50K, Game Over bin-binks Pas b'soin d'vous pour que j'les baise La drogue, c'est rentable1</t>
+          <t>Tommy On The Track Eh, eh, eh J'suis v'nu tout seul, j'ai pas b'soin d'aide, matrixé par Menace to Society par Menace to Society C'est l'manque d'argent qui nous incites et si ça d'vient che-lou t'inquiète, je saute t'inquiète, je saute Aujourd'hui, je me nourris d'illicite et tout a commencé dans le Bât' 7 commencé dans le Bât' 7 Plus d'buzz, dit plus de soucis mais dit plus de salopes qui veulent sucer de salope qui veulent sucer À c'qu'il paraît, l'argent rend beau rend beau, mélange pas les sous du shit et d'la beuh d'la beuh J'me démerde toujours pour avoir l'bon bail l'bon bail, y a cinq zéros sur le contrat, la vie est belle la vie est belle Viens chez nous, on manie les mots on manie les mots et sur l'autre mélo, y a plus d'un million y a plus d'un million Ça y est, j'suis d'dans, j'suis dans l'élite j'suis dans l'élite, pour l'instant, tout roule comme sur des roulettes comme sur des roulettes Koba La Détaille Koba La Détaille, six-cents sur la quette-pla sur la quette-pla Solides, ça bouge pas solides, ça bouge pas, y a Glazbif, y a Deuspave Glazbif, y a Deuspave Qui dit nouveaux kilos, arrivage de Critycal de Critycal Et si j'dis non, c'est qu'c'est non ou bien, va te faire enculer faire enculer Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable Je les déboîte, rien que j'les démonte et j'ai pris leur buzz, leurs vues, ils ont l'démon ils ont l'démon Je les démarre, guette, ma cote ter-mon et j'arrête pas d'leur prouver qu'c'est moi, l'patron c'est moi, l'patron Ils ont l'seum de moi parce que j'encaisse, rien que j'encaisse et j'encaisse et j'encaisse et j'encaisse Maintenant, c'est plus facile de m'faire cer-su et mes sous s'accordent avec mon succès avec mon succès Si t'as pas coffré, pas d'bol, les raclis te verront comme un débile verront comme un débile Un cerveau et puis deux boules j'ai compris qu'il fallait des sous en balle fallait des sous en balle J'me rends compte qu'aucun d'entre eux n'est fiable, à la base, c'était le sang de la veine c'était le sang de la veine Mais depuis que j'fais des vues, les négros m'envient, veulent tous voir ma vie veulent tous voir ma vie Fellation, s'te plaît, fais-la bien, j'suis pas l'premier que t'as sucé que t'as sucé La solution, c'est dse soucier dces sous, sans les sucer c'est facile d'les dépasser d'les dépasser Et vu que j'bédave de la pasta et bien, j'attire le regard de tous les passants tous les passants J'me fais plus souvent masser et rien qu'elle s'agrippe à l'odeur du musc à l'odeur du musc Frère, tu s'ras déçu, viens pas ici, y a pas d'issue pas ici, y a pas d'issue En plus, là, j'suis saoul, plus j'bois, plus j'fume et plus je sue plus j'bois, plus j'fume et plus je sue Maintenant, c'est moi qui paye, bientôt, j'sors ma ville de sa peine ma ville de sa peine La drogue, c'est rentable, j'ai pas b'soin d'vous pour que j'les baise J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable J'ai pas b'soin d'vous pour que j'les baise pour que j'les baise La drogue, c'est rentable c'est rentable C'est rentable, ouais, binks Koba LaD, Seven Binks 50K, Game Over bin-binks Pas b'soin d'vous pour que j'les baise La drogue, c'est rentable1</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris Wesh Paname Le cahier de mes-ri est 3amar hey, sors un son pour boucler l'année fiscale La gestu', ça évite les coups de matraque ah, même en Fefe, le corbillard t'rattrape On est non-coupables mais pas innocents nan, j'suis un millénial, pas un 1900 yah On est ni ami, ni ennemi, on a que des intérêts ensemble, il me semble bang, bang Paraîtrait qu'l'argent vite gagné ouh, c'est d'l'argent vite perdu Frère, on a tous été élevés ban-ban-bangsur des montagnes d'ordures Moi, j'suis prêt à t'couper les pieds rha, rha si j'aime pas tes chaussures Incrustés sur le sol français comme le marbre DZ de la Maison Blanche Il m'faut du liquide, liquide, liquide, liquide, liquide donc faut écouler la dure en gros J'sais pas si j'achète l'RS6 ou bien jvais chez Merco, sortir la 45S, mon pote Et Paname influence le globe mais c'est le 91 qui influence Paname Les descentes, les embrouilles de bandes sa mère, la boule au ventre quand t'es devant ton lycée On peut t'monter en l'air d'vant les yeux d'ta mère on peut t'monter en l'air d'vant les yeux d'ta mère On va peut-être s'arrêter si y a un mort on va peut-être s'arrêter si y a un mort Et même quand tu veux pas, bah, t'es obligé, interdit d'courir, interdit d'balancer Interdit d'toucher les surs et d'sniffer la C, donne à Juicy pour goûter si tu veux détailler You might also like Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris 1.8.2, ouais, c'est grincheux Wesh Paname, c'est nous l'Grand Paris, bien avant tous les Qataris Y a la coke du Havre dans Paris ou dans l'ze-n d'Tyson Fury C'est réel, gros, y a pas d'série, on est cramés comme des civils Si t'entends des ouh, ouh, c'est Paname, c'est pas l'Amérique J't'envoie au septième ciel, pas besoin d'passeport ouh J'démarre au quart de tour comme 700 Raptor gang Tu m'as trahi ouh, t'as des remords gang J'vais faire une croix sur toi comme un pasteur pah, pah, pah Dehors, c'est l'anarchie, j'connais des fils d'imam qui s'tuent au shit rha, rha, rha, rha À genoux devant ma bite mais devant l'Créateur, ils sont absentéistes rha, rha, rha, rha Si on l'fait c'est pour la mama, pas pour un gros Fefe J'ai la pression du papa, Grand Paris comme Mbappé Depuis un long moment, ça m'demande de partager J'ai pris quelques followers, ils m'ont pris pour Booska-P rha, rha, rha, rha Renfermé de dingue renfermé de dingue Y a qu'à ma plume que j'parle y a qu'à ma plume que j'parle Si j'le fais pas si j'le fais pas Qui ira faire ma maille ? qui ira faire ma maille ? Ils veulent tout, ils foutent rien pendant qu'moi, j'bosse Arrêtez tout arrêtez tout, rangez vos gosses rangez vos gosses J'me vois dans l'futur comme mes rêves mais pour ça, faudrait peut-être qu'il y ait plus de bénéf' Je veux les chaussures haute couture, la voiture mais avant tout, maman, dis-moi c'qui t'intéresse Faire sourire les siens, pas qu'en caricatures Je sais, c'est compliqué mais faisable, impossible mais faisons, j'viens des quartiers malfaisants Quand j'rappe, ils savent c'que ça donne donc l'atmosphère est pesante J'suis dans l'bât' avec têtes rasées, paires de Carrera Chez moi, dbase ça aime pas trop les caméras Saperlipon-pon, les p'tits boivent la potion Ici, l'temps passe doucement, rends les gens sous tension Les montagnes s'croisent, le sang coule comme de l'Evian Ta p'tite sur, le soir, t'es choqué qu'elle s'fasse ler-vio J'sors du quartier, m'balader dans l'Grand Paname Et j'me rappelle que dans l'premier, j'étais pas là Wesh Paname wesh Paname, wesh Paname Hey, c'est nous, c'est nous Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris Full-up la tiop de coco, mets des vitesses sur l'autoroute Si tu t'fais péter, c'est torride, en cellule, tu finis taré J'ai plus besoin de parler, moi et eux, c'était pas pareil C'est des gamins, pense au fait qu'j'ai pensé argent tous les jours Je veux la vie de rêve, pas celle de Tony, ni Manny Je manie mal les mots mais tu sais que la mélo' t'élimine C'est ton papa qui va pleurer si ta mère se met à pleurer Et c'est ta mère qui va pleurer si elle voit son fils en miettes C'est nous l'Grand Paris, couilles sur table Les miennes sont bien logées, les tiennes sont sortables Tu court-circuites, mais tu comptes faire quoi ? À part pleurer chez les gens qu'on n'est pas fairplay Depuis Woin, woin, woin, woin que des propals DM cest rempli full up, que des chaudasses, wow Appliqué sur l'boulot, j'vais les boire au goulot L'argent fait pas l'bonheur, quelle phrase d'enfant gâté La banlieue influence Paname, Paname influence le monde le monde, le monde Grand Paris, ma cité, les cam', le 17 qui tournait en rond qui tournait en rond, en rond La Cité Blanca sur les ondes, merci la famille, c'est d'la bombe Cramé par la BAC, ça déraille, mon cur ne bat plus depuis un bail Couronne de lauriers, j'arrive comme César sur le boulevard Barbès Elle m'masse le dos à Château d'Eau, comme par hasard, t'as pas l'adresse À l'inverse de la guerre et l'contraire d'un imbécile, j'suis vers Belleville, si t'es indécise En vélo, ou pass Navigo 7 zones, en sandales, chaussettes jaunes Pas d'gros mais de beaux mots, tes potos se sont trompés sur les totaux Ils font des total, cassent des motos, savent pas que les selfies sont des photos Ils rappent de la mort aux rats, s'croient à Gomorra, parfumeur sans odorat En vrai, on est adorables, abordables, on peut être plus sympa qu'Matt Pokora Ha, wesh Paname wesh Paname</t>
+          <t>Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris Wesh Paname Le cahier de mes-ri est 3amar hey, sors un son pour boucler l'année fiscale La gestu', ça évite les coups de matraque ah, même en Fefe, le corbillard t'rattrape On est non-coupables mais pas innocents nan, j'suis un millénial, pas un 1900 yah On est ni ami, ni ennemi, on a que des intérêts ensemble, il me semble bang, bang Paraîtrait qu'l'argent vite gagné ouh, c'est d'l'argent vite perdu Frère, on a tous été élevés ban-ban-bangsur des montagnes d'ordures Moi, j'suis prêt à t'couper les pieds rha, rha si j'aime pas tes chaussures Incrustés sur le sol français comme le marbre DZ de la Maison Blanche Il m'faut du liquide, liquide, liquide, liquide, liquide donc faut écouler la dure en gros J'sais pas si j'achète l'RS6 ou bien jvais chez Merco, sortir la 45S, mon pote Et Paname influence le globe mais c'est le 91 qui influence Paname Les descentes, les embrouilles de bandes sa mère, la boule au ventre quand t'es devant ton lycée On peut t'monter en l'air d'vant les yeux d'ta mère on peut t'monter en l'air d'vant les yeux d'ta mère On va peut-être s'arrêter si y a un mort on va peut-être s'arrêter si y a un mort Et même quand tu veux pas, bah, t'es obligé, interdit d'courir, interdit d'balancer Interdit d'toucher les surs et d'sniffer la C, donne à Juicy pour goûter si tu veux détailler Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris 1.8.2, ouais, c'est grincheux Wesh Paname, c'est nous l'Grand Paris, bien avant tous les Qataris Y a la coke du Havre dans Paris ou dans l'ze-n d'Tyson Fury C'est réel, gros, y a pas d'série, on est cramés comme des civils Si t'entends des ouh, ouh, c'est Paname, c'est pas l'Amérique J't'envoie au septième ciel, pas besoin d'passeport ouh J'démarre au quart de tour comme 700 Raptor gang Tu m'as trahi ouh, t'as des remords gang J'vais faire une croix sur toi comme un pasteur pah, pah, pah Dehors, c'est l'anarchie, j'connais des fils d'imam qui s'tuent au shit rha, rha, rha, rha À genoux devant ma bite mais devant l'Créateur, ils sont absentéistes rha, rha, rha, rha Si on l'fait c'est pour la mama, pas pour un gros Fefe J'ai la pression du papa, Grand Paris comme Mbappé Depuis un long moment, ça m'demande de partager J'ai pris quelques followers, ils m'ont pris pour Booska-P rha, rha, rha, rha Renfermé de dingue renfermé de dingue Y a qu'à ma plume que j'parle y a qu'à ma plume que j'parle Si j'le fais pas si j'le fais pas Qui ira faire ma maille ? qui ira faire ma maille ? Ils veulent tout, ils foutent rien pendant qu'moi, j'bosse Arrêtez tout arrêtez tout, rangez vos gosses rangez vos gosses J'me vois dans l'futur comme mes rêves mais pour ça, faudrait peut-être qu'il y ait plus de bénéf' Je veux les chaussures haute couture, la voiture mais avant tout, maman, dis-moi c'qui t'intéresse Faire sourire les siens, pas qu'en caricatures Je sais, c'est compliqué mais faisable, impossible mais faisons, j'viens des quartiers malfaisants Quand j'rappe, ils savent c'que ça donne donc l'atmosphère est pesante J'suis dans l'bât' avec têtes rasées, paires de Carrera Chez moi, dbase ça aime pas trop les caméras Saperlipon-pon, les p'tits boivent la potion Ici, l'temps passe doucement, rends les gens sous tension Les montagnes s'croisent, le sang coule comme de l'Evian Ta p'tite sur, le soir, t'es choqué qu'elle s'fasse ler-vio J'sors du quartier, m'balader dans l'Grand Paname Et j'me rappelle que dans l'premier, j'étais pas là Wesh Paname wesh Paname, wesh Paname Hey, c'est nous, c'est nous Wesh Paname wesh Paname C'est nous l'Grand Paris La banlieue influence Paname Paname C'est nous l'Grand Paris La banlieue influence le monde La banlieue influence Paname influence Paname C'est nous l'Grand Paris Full-up la tiop de coco, mets des vitesses sur l'autoroute Si tu t'fais péter, c'est torride, en cellule, tu finis taré J'ai plus besoin de parler, moi et eux, c'était pas pareil C'est des gamins, pense au fait qu'j'ai pensé argent tous les jours Je veux la vie de rêve, pas celle de Tony, ni Manny Je manie mal les mots mais tu sais que la mélo' t'élimine C'est ton papa qui va pleurer si ta mère se met à pleurer Et c'est ta mère qui va pleurer si elle voit son fils en miettes C'est nous l'Grand Paris, couilles sur table Les miennes sont bien logées, les tiennes sont sortables Tu court-circuites, mais tu comptes faire quoi ? À part pleurer chez les gens qu'on n'est pas fairplay Depuis Woin, woin, woin, woin que des propals DM cest rempli full up, que des chaudasses, wow Appliqué sur l'boulot, j'vais les boire au goulot L'argent fait pas l'bonheur, quelle phrase d'enfant gâté La banlieue influence Paname, Paname influence le monde le monde, le monde Grand Paris, ma cité, les cam', le 17 qui tournait en rond qui tournait en rond, en rond La Cité Blanca sur les ondes, merci la famille, c'est d'la bombe Cramé par la BAC, ça déraille, mon cur ne bat plus depuis un bail Couronne de lauriers, j'arrive comme César sur le boulevard Barbès Elle m'masse le dos à Château d'Eau, comme par hasard, t'as pas l'adresse À l'inverse de la guerre et l'contraire d'un imbécile, j'suis vers Belleville, si t'es indécise En vélo, ou pass Navigo 7 zones, en sandales, chaussettes jaunes Pas d'gros mais de beaux mots, tes potos se sont trompés sur les totaux Ils font des total, cassent des motos, savent pas que les selfies sont des photos Ils rappent de la mort aux rats, s'croient à Gomorra, parfumeur sans odorat En vrai, on est adorables, abordables, on peut être plus sympa qu'Matt Pokora Ha, wesh Paname wesh Paname</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tu veux qu'ton re-fou tourne, il t'faut un bosseur assidu Du pilon adéquate, avec une beuh de bonne prestance Faut éviter tous les shtars, quand tu les vois, tu cours Moi, j'suis pas un bâtard, tu fais pas d'trou, t'auras ta part J'ai pris leur buzz, ils sont plus à la mode Flow d'un autre univers j'reviens d'un nouveau monde T'as beau fuir où tu veux, nous on va suivre ton ombre On va te rattraper, t'laisser dans les débris Koba la Détaille la débrouille, mec Té-ma le gamos, pas b'soin d'embrayer N'écoute pas ses clochards, c'est que du bluff, tous les jours la même chose, c'est du biff qu'on fait C'est de la frappe et faut pas que tu mettes tout Tu va te faire tousser, prends mon num', quand tu veux, tu m'appelles Des demis, des 100G, j'comprend pas, pourquoi ils m'jalousent tous, pourtant j'ai pas changé C'est pas grave, du moment qu'j'fais du cash, du cash, du cash, du cash La concu' diminue, j'ai l'taga démoniaque J'veux ma nouvelle demeure, j'veux qu'ta sur me suce même quand j'dors À la récupération comme Iniesta, j'ai compris qu'il faut pas hésiter Et tous ceux qu'ils veulent résister, j'vais tellement les hagar qu'ils vont s'désister J'paie tous cash, j'marque des buts et j'fais pas de passe Y a même la passe, on est bon qu'a à s'faire de l'espèce Ici ça casse ou ça passe, et dans deux semaines, je change de puce Confonds pas malchance et la poisse, maintenant c'est moi le plus gros poisson Eh-eh, à la base c'est l'argent que j'voulais Mais j'me suis laissé engrainer, par la voix qui m'encourageait d'aller voler À c'qu'il parait c'est le sheitan, à c'qu'on raconte c'est lui qui tire vers le mal Maintenant je comprend mieux pourquoi, maman ne voulait pas que je traine en bas Mais maman regarde-moi aujourd'hui j'ai grandi, c'est ton gamin qui gère le bail Après le patron, c'est moi la tête du réseau, je récupère et je dois détaille Et si il y'a un vrai pépin, j'reviens avec un vrai pe-pom C'est sur toi qu'tu fais pipi, j'roule un autre pendant qu'elle m'taille une pipeYou might also like1</t>
+          <t>Tu veux qu'ton re-fou tourne, il t'faut un bosseur assidu Du pilon adéquate, avec une beuh de bonne prestance Faut éviter tous les shtars, quand tu les vois, tu cours Moi, j'suis pas un bâtard, tu fais pas d'trou, t'auras ta part J'ai pris leur buzz, ils sont plus à la mode Flow d'un autre univers j'reviens d'un nouveau monde T'as beau fuir où tu veux, nous on va suivre ton ombre On va te rattraper, t'laisser dans les débris Koba la Détaille la débrouille, mec Té-ma le gamos, pas b'soin d'embrayer N'écoute pas ses clochards, c'est que du bluff, tous les jours la même chose, c'est du biff qu'on fait C'est de la frappe et faut pas que tu mettes tout Tu va te faire tousser, prends mon num', quand tu veux, tu m'appelles Des demis, des 100G, j'comprend pas, pourquoi ils m'jalousent tous, pourtant j'ai pas changé C'est pas grave, du moment qu'j'fais du cash, du cash, du cash, du cash La concu' diminue, j'ai l'taga démoniaque J'veux ma nouvelle demeure, j'veux qu'ta sur me suce même quand j'dors À la récupération comme Iniesta, j'ai compris qu'il faut pas hésiter Et tous ceux qu'ils veulent résister, j'vais tellement les hagar qu'ils vont s'désister J'paie tous cash, j'marque des buts et j'fais pas de passe Y a même la passe, on est bon qu'a à s'faire de l'espèce Ici ça casse ou ça passe, et dans deux semaines, je change de puce Confonds pas malchance et la poisse, maintenant c'est moi le plus gros poisson Eh-eh, à la base c'est l'argent que j'voulais Mais j'me suis laissé engrainer, par la voix qui m'encourageait d'aller voler À c'qu'il parait c'est le sheitan, à c'qu'on raconte c'est lui qui tire vers le mal Maintenant je comprend mieux pourquoi, maman ne voulait pas que je traine en bas Mais maman regarde-moi aujourd'hui j'ai grandi, c'est ton gamin qui gère le bail Après le patron, c'est moi la tête du réseau, je récupère et je dois détaille Et si il y'a un vrai pépin, j'reviens avec un vrai pe-pom C'est sur toi qu'tu fais pipi, j'roule un autre pendant qu'elle m'taille une pipe1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bin-binks Oh, oh, oh Tiens, tiens, tiens, eh, eh You know, I don't like to do that! Oh, eh Premiers du binks, boy Encore la même journée qu'hier, j'enfile mon flingue avant mon froc C'est moi qui détaille la 'quette, c'est moi qui ré-ti les coups francs J'suis encore dans l'bâtiment, j'suis dans tous les plans foireux Minuit passé, encore avec mes enfoirés Tout en bas d'la pente, poto, le sommet fait qu's'éloigner S'éloigner Igo, moi, c'est trente trente, pour dix-mille, j'viendrai jamais Ah, ah LaD du 7, la beuh, le shit, la réussite, ah La réussite, ah First class, bagagerie Louis Vui' dans la soute Dans la soute On crache pas dans la soupe mais dans la bouche, faut qu'tu saches, bitch Qu'tu saches bitch Quarante-cinq, si j'te la push, pasta dans l'plastique Plastique Rien qu'ça tartine, rien qu'ça débite, jusqu'à minuit Sale Y a des dix, y a des douze, y a des olives Grave Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé J'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter Si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh You might also like Q-Q7 teinté, Monaco, Marbe', j'y vais plus, j'fais trop d'photos Ouais Ça parle en diamant, ça fait des années qu'ça parle plus en ro-ro, oh Eh ouais Elle m'regarde quand j'accélère Eh, hey, hey, hey, hey J'fais que d'doubler les lettres Eh, F.F.R.R Han J'ai peu d'sentiment sous mes locks, le RS6, c'est pas une loc' C.P Company, guette le look, je change de pute comme j'change de montre On fait du biff, le raincif, la vie d'artiste, on connaît tout ça Là, j'suis à mille-deux avant la mi-temps, un nouveau bosseur, han J'confonds les gyrophares d'l'ambulance et d'la NAS Et d'la NAS J'ai la main plié, depuis t'à l'heure, j'd'mande une massa Y a pas d'massa Et même ma sacoche devient trop p'tite pour ma liasse Ah, ah Les cinquante-cinquante, j'recompte, j'me trompe, ça m'agace Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé J'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh J'confonds les gyrophares d'l'ambulance et d'la NAS Et d'la mu'-mu' J'ai la main plié, depuis t'à l'heure, j'demande une massa Ouais, j'crois qu'y en a plus Et même ma sacoche devient trop p'tite pour ma liasse Ah, bin-bin-binks Les cinquante-cinquante, j'recompte, j'me trompe, ça m'agace Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé j'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh Oh, woh, woh Toutes les CR Eh Oh, woh, woh LaD du 7, là Bin-binks1</t>
+          <t>Bin-binks Oh, oh, oh Tiens, tiens, tiens, eh, eh You know, I don't like to do that! Oh, eh Premiers du binks, boy Encore la même journée qu'hier, j'enfile mon flingue avant mon froc C'est moi qui détaille la 'quette, c'est moi qui ré-ti les coups francs J'suis encore dans l'bâtiment, j'suis dans tous les plans foireux Minuit passé, encore avec mes enfoirés Tout en bas d'la pente, poto, le sommet fait qu's'éloigner S'éloigner Igo, moi, c'est trente trente, pour dix-mille, j'viendrai jamais Ah, ah LaD du 7, la beuh, le shit, la réussite, ah La réussite, ah First class, bagagerie Louis Vui' dans la soute Dans la soute On crache pas dans la soupe mais dans la bouche, faut qu'tu saches, bitch Qu'tu saches bitch Quarante-cinq, si j'te la push, pasta dans l'plastique Plastique Rien qu'ça tartine, rien qu'ça débite, jusqu'à minuit Sale Y a des dix, y a des douze, y a des olives Grave Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé J'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter Si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh Q-Q7 teinté, Monaco, Marbe', j'y vais plus, j'fais trop d'photos Ouais Ça parle en diamant, ça fait des années qu'ça parle plus en ro-ro, oh Eh ouais Elle m'regarde quand j'accélère Eh, hey, hey, hey, hey J'fais que d'doubler les lettres Eh, F.F.R.R Han J'ai peu d'sentiment sous mes locks, le RS6, c'est pas une loc' C.P Company, guette le look, je change de pute comme j'change de montre On fait du biff, le raincif, la vie d'artiste, on connaît tout ça Là, j'suis à mille-deux avant la mi-temps, un nouveau bosseur, han J'confonds les gyrophares d'l'ambulance et d'la NAS Et d'la NAS J'ai la main plié, depuis t'à l'heure, j'd'mande une massa Y a pas d'massa Et même ma sacoche devient trop p'tite pour ma liasse Ah, ah Les cinquante-cinquante, j'recompte, j'me trompe, ça m'agace Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé J'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh J'confonds les gyrophares d'l'ambulance et d'la NAS Et d'la mu'-mu' J'ai la main plié, depuis t'à l'heure, j'demande une massa Ouais, j'crois qu'y en a plus Et même ma sacoche devient trop p'tite pour ma liasse Ah, bin-bin-binks Les cinquante-cinquante, j'recompte, j'me trompe, ça m'agace Oh, woh, woh Oh, woh, woh, te-shi cellophané Hein, hein J'suis un gros bâtard, j'avance personne, j'vends tout au tail-dé j'avance personne Oh, woh, woh Oh, woh, woh, igo, si tu veux gratter si tu veux tter-gra J'vais tout agrafer, j'suis trop mauvais sur le rrain-te J'suis dans les bacs, dans toutes les CR R Un club de foot, une paire de TN Dans tous les bagailles, toutes les CR R Encore un ge-sh' qui gratte un pochton d'beuh Oh, woh, woh Toutes les CR Eh Oh, woh, woh LaD du 7, là Bin-binks1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Noxious Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel ay Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel Chez moi, cest tous pour un pour un et nous contre eux tous eux tous Mon frère, si tu vas t'per-ta, qu'tu gagnes ou perds, je saute je saute Mon frérot, comment j'taime, tes mon frère mais dune autre mère Ten allumes un, bah, jallume lautre, j'prends tes patins, tinquiète, mon frère mon frère En vrai, je sais tout mais mais j'fais comme si j'savais rien rien Il sourit d'vant ma gueule et ose galéjer d'vant mes yeux J'viens dun monde ténébreux où beaucoup dentre eux deviennent fous fous Il pleut, il caille, cest tout gris, les méchants, ils tournent beaucoup Sous G13 et Haze Rene, sous G13 et Haze Rene On s'connait à peine et tu veux que j'tarrange J'suis sur un balcon, un gros joint tah les tanks Cest d'la super patate, gamin, ça fume plus quun volcan You might also like Dix kilos, vingt kilos, tranquille, j'les liquide j'les liquide Et les plus grands disent que j'suis mortel que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes quarante mille personnes Et ta p'tite sur dit que j'suis mortel que j'suis mortel, ay Dix kilos, vingt kilos, tranquille, j'les liquide ouh woh Et les plus grands disent que j'suis mortel que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel j'suis mortel Bienvenue de lautre côté côté, ici aussi, cest B c'est B Y a un boug qui dessine toutes ses visions, gros, c'est B c'est B Tard la nuit, y a Obé Obé, c'gros voleur de bécanes bécanes Si ce mec-là tattrape, même moi, j'peux pas taider cest mort Et chez lui, tout est rouge ouh, ses jantes et ses étriers Et ceux qui lui d'vaient des sous, par plaisir, les a éventrés Il bicrave tout la douce, la dure et même les meufs et même des putes Et lui tout seul, il fait la guerre à tous les keufs, ces fils de putes Sous G13 et Haze Rene, sous G13 et Haze Rene On s'connait à peine et tu veux que j'tarrange J'suis sur un balcon, un gros joint tah les tanks Cest d'la super patate, gamin, ça fume plus quun volcan Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel ay Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel2</t>
+          <t>Noxious Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel ay Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel Chez moi, cest tous pour un pour un et nous contre eux tous eux tous Mon frère, si tu vas t'per-ta, qu'tu gagnes ou perds, je saute je saute Mon frérot, comment j'taime, tes mon frère mais dune autre mère Ten allumes un, bah, jallume lautre, j'prends tes patins, tinquiète, mon frère mon frère En vrai, je sais tout mais mais j'fais comme si j'savais rien rien Il sourit d'vant ma gueule et ose galéjer d'vant mes yeux J'viens dun monde ténébreux où beaucoup dentre eux deviennent fous fous Il pleut, il caille, cest tout gris, les méchants, ils tournent beaucoup Sous G13 et Haze Rene, sous G13 et Haze Rene On s'connait à peine et tu veux que j'tarrange J'suis sur un balcon, un gros joint tah les tanks Cest d'la super patate, gamin, ça fume plus quun volcan Dix kilos, vingt kilos, tranquille, j'les liquide j'les liquide Et les plus grands disent que j'suis mortel que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes quarante mille personnes Et ta p'tite sur dit que j'suis mortel que j'suis mortel, ay Dix kilos, vingt kilos, tranquille, j'les liquide ouh woh Et les plus grands disent que j'suis mortel que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel j'suis mortel Bienvenue de lautre côté côté, ici aussi, cest B c'est B Y a un boug qui dessine toutes ses visions, gros, c'est B c'est B Tard la nuit, y a Obé Obé, c'gros voleur de bécanes bécanes Si ce mec-là tattrape, même moi, j'peux pas taider cest mort Et chez lui, tout est rouge ouh, ses jantes et ses étriers Et ceux qui lui d'vaient des sous, par plaisir, les a éventrés Il bicrave tout la douce, la dure et même les meufs et même des putes Et lui tout seul, il fait la guerre à tous les keufs, ces fils de putes Sous G13 et Haze Rene, sous G13 et Haze Rene On s'connait à peine et tu veux que j'tarrange J'suis sur un balcon, un gros joint tah les tanks Cest d'la super patate, gamin, ça fume plus quun volcan Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel ay Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel Dix kilos, vingt kilos, tranquille, j'les liquide Et les plus grands disent que j'suis mortel J'secoue mes locks, j'flex d'vant quarante mille personnes Et ta p'tite sur dit que j'suis mortel2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aye, Guilty, yeah Bye Bye Ouh Aye, aye, aye Ah, ah, ah Katrina Squad Je donne le go, je tire dans le ciel Pfiou, poussez-vous, j'suis dans une sale affaire Oui J'peux manger du plomb, j'peux manger du ferme Pfiou Rien à branler, j'ai plus rien à perdre Rien à perdre Y a trop de balances dans la nature Trop, y a la BRI en filature Wow On roule la nuit, j'fais l'ouverture, la lune est blanche comme de la pure Elle veut boire mon sang, elle a mis les escarpins, gros tapin Les bacqueux, on les aime pas, on sait tous que tu plaintes, on va t'éteindre Le bigo est codifié, le cigare humidifié, l'argent m'appelle J'les baise dans le respect, j'suis en qamis dans le Bentley Le joint s'éteint, je le rallume, j'habite du mauvais côté d'la rue J'balade mon Glock sur le boulevard, comme un animal de compagnie De la beldi' dans le sac Fendi, on ravitaille la pharmacie Petite frappe, ferme ta chatte, on t'met un tracker sous l'pare-chocs Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Oui You might also like Gros culs sur gros culs, j'fais que d'zigouiller, Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Mathafack Gros cul sur gros cul, j'fais que d'zigouiller, Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé J'suis carrément dans l'truc Mec, par Dieu, j'vais t'briser la nuque Oh Chiffres indiens sur ma Audemars, j'suis l'haut d'la commission rogatoire Mathafack La pasta qui t'fait craquer lil, j'pense oseille depuis l'éveil Hey Marseille, sens de l'accueil, puto, Marseille, sens des affaires Yah J'ai pas des suceurs, j'ai des amis, si j'perds le tête, j'sors un cutter P'tit con, j'suis tout l'temps d'bonne humeur, j'gagne le tête aux penalties Comme un O.G, j'sors un Audi qui va t'faire saigner du nez, p'tit enculé Diamant brut, le r'gard d'l'incendie, ça donne les larmes aux yeux à ta gadji J'roule un fer noir, j'ai un nine noir, si t'es noir et tout pour le bénéfice Deux-vingt au radar, j'y produit des noix et j'y bois tout c'putain d'Hennessy Liasses de 10K, additionnées, ça paie presque autant que les crimes Tonton Rim'K, Koba LaD, déchargent les valises, ouais, han Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Oui Gros culs sur gros culs, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Mathafack Gros cul sur gros cul, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé À la base, j'voulais pas être une star, j'voulais que du cash mais bon, en vrai de vrai, Dieu merci J'ai sorti l'Urus, même l'RS7, petit frère mais j'ai frôlé trois fois la mort, ce mois-ci J'ai la rage quand elle m'demande une paire de seins, quand mes poils saccrochent à son piercing On a d'l'argent de côté, même des armes de côté, qui sont un tout p'tit peu plus grands que Messi À peine vingt ans mais j'suis presque riche, c'est pas moi qui dit, c'est l'RS6 Moi, la rue m'a appris depuis qu'j'suis môme, c'est mon mode de vie qui inquiète maman Gamin, faut mesurer tes mots, no stress, ne pas flipper d'vant la mu'-mu' D'abord, tu la découpes au milieu, ensuite, détaille lamelle par lamelle Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Gros culs sur gros culs, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Oui Gros cul sur gros cul, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé3</t>
+          <t>Aye, Guilty, yeah Bye Bye Ouh Aye, aye, aye Ah, ah, ah Katrina Squad Je donne le go, je tire dans le ciel Pfiou, poussez-vous, j'suis dans une sale affaire Oui J'peux manger du plomb, j'peux manger du ferme Pfiou Rien à branler, j'ai plus rien à perdre Rien à perdre Y a trop de balances dans la nature Trop, y a la BRI en filature Wow On roule la nuit, j'fais l'ouverture, la lune est blanche comme de la pure Elle veut boire mon sang, elle a mis les escarpins, gros tapin Les bacqueux, on les aime pas, on sait tous que tu plaintes, on va t'éteindre Le bigo est codifié, le cigare humidifié, l'argent m'appelle J'les baise dans le respect, j'suis en qamis dans le Bentley Le joint s'éteint, je le rallume, j'habite du mauvais côté d'la rue J'balade mon Glock sur le boulevard, comme un animal de compagnie De la beldi' dans le sac Fendi, on ravitaille la pharmacie Petite frappe, ferme ta chatte, on t'met un tracker sous l'pare-chocs Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Oui Gros culs sur gros culs, j'fais que d'zigouiller, Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Mathafack Gros cul sur gros cul, j'fais que d'zigouiller, Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé J'suis carrément dans l'truc Mec, par Dieu, j'vais t'briser la nuque Oh Chiffres indiens sur ma Audemars, j'suis l'haut d'la commission rogatoire Mathafack La pasta qui t'fait craquer lil, j'pense oseille depuis l'éveil Hey Marseille, sens de l'accueil, puto, Marseille, sens des affaires Yah J'ai pas des suceurs, j'ai des amis, si j'perds le tête, j'sors un cutter P'tit con, j'suis tout l'temps d'bonne humeur, j'gagne le tête aux penalties Comme un O.G, j'sors un Audi qui va t'faire saigner du nez, p'tit enculé Diamant brut, le r'gard d'l'incendie, ça donne les larmes aux yeux à ta gadji J'roule un fer noir, j'ai un nine noir, si t'es noir et tout pour le bénéfice Deux-vingt au radar, j'y produit des noix et j'y bois tout c'putain d'Hennessy Liasses de 10K, additionnées, ça paie presque autant que les crimes Tonton Rim'K, Koba LaD, déchargent les valises, ouais, han Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Oui Gros culs sur gros culs, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Mathafack Gros cul sur gros cul, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé À la base, j'voulais pas être une star, j'voulais que du cash mais bon, en vrai de vrai, Dieu merci J'ai sorti l'Urus, même l'RS7, petit frère mais j'ai frôlé trois fois la mort, ce mois-ci J'ai la rage quand elle m'demande une paire de seins, quand mes poils saccrochent à son piercing On a d'l'argent de côté, même des armes de côté, qui sont un tout p'tit peu plus grands que Messi À peine vingt ans mais j'suis presque riche, c'est pas moi qui dit, c'est l'RS6 Moi, la rue m'a appris depuis qu'j'suis môme, c'est mon mode de vie qui inquiète maman Gamin, faut mesurer tes mots, no stress, ne pas flipper d'vant la mu'-mu' D'abord, tu la découpes au milieu, ensuite, détaille lamelle par lamelle Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, liasses de dix-mille, wow Du millésime, wow, la ppe-f' du Rif Wow, charger les valises, wow, wow Gros culs sur gros culs, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé Oui Gros cul sur gros cul, j'fais que d'zigouiller Oui Joint d'beuh sur joint d'beuh, j'suis trop zigouillé3</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hum, eh Eh, yah, eh, eh, eh, yah Eh, eh, eh, yah wouh Hey, hey J'suis dans l'allée, capuché, j'revendais des dix, des vingt, quand y a les keufs, j'partais Et j'entends ma Rolex me chuchoter On court trop après l'temps pour leurs donner l'heure Et j'ai décidé, oui, j'l'ai décidé, Dolce Gabbana, Gucci, Thaïlande Première classe, j'suis à CDG et d'être tellement haut, je l'ai décidé Et t'as vu où j'ai grandi, sans mentir, c'est pas facile de s'en sortir Il m'a fallu des couilles grosses, sa mère la pute et un mental bien solide J'ai traversé toute la France, en train, sa mère et vraie moula dans le sac, cinq litrons Par intérêt, les fils de putes, quand ça devient dur et bah, changent de camp Le neuf millimètre devenu léger et comme d'hab', j'suis dans le bolide Et regarde bien, j'ai l'chargeur tout pleins, j'suis pas du genre à mettre des middle J'suis dans l'four cramé mais j'ai froid, c'qui va t'refroidir, c'est mon feu Quand j'étais p'tit, moi, j'ai fait un vu et aujourd'hui, j'crois qu'c'est fait J'suis fonce-dé dans l'RS comme un paresseux, récupérer l'argent qui sort d'sa pussy J'suis dans la finesse, dans l'ajustement et c'est dans sa bouche, pour la finition Et quand j'ai marqué, bah, j'me tire, sur la vie d'ma mère qu'j'ai pas changé, sa mère J'suis à la barrière, j'suis à mon sixième teh et j'commence à le ressentir par derrière Fils de pute, on n'a plus douze ans, on t'séquestre ta mère, faut qu'tu payes, ta mère Et j'connais des mecs qu'ont déjà plus d'cur, qu'ont déjà tué sur la vie d'ma mère J'ai le compte rendu y en a pas assez, donc j'vais prendre le game par le cul À la base, tout ça, c'était pas pour nous mais bon, on refuse pas les cadeaux Le disque d'or, le même, en platine, attendez, attendez, c'est que l'début Faut pas lâcher, on va s'les faire et quoi qu'il arrive, il faut pas qu'tu doutes Regarde-nous, on a la peau sur les os, survet' de bas tout rouge deviennent nos yeux Mais bon, nique sa mère, on l'fait pour le blé, il m'faut cent millions pour qu'j'sois comblé Écoute-moi bien, faut que j't'explique un truc, y a trois piges, personne croyait en moi Aujourd'hui, ces mêmes fils de putes, ces fils de putes veulent m'serrer la main J'suis à deux pas d'la Tour Eiffel et j'me fais lahsa de bon matin Trois-cents euros la nuit dans la chambre d'hôtel, comme j'y vais fort, elle crie Koba, attends Y a deux-trois billets qui sont déchirés, j'vais acheter des élastiques un peu plus larges Audemars Piguets, tourbillon extra thin, nique sa grand mère, ton horloge Elle descend, elle remonte et quand c'est sec, euh, elle recrache J'la démonte, j'be-tom du lit et c'est à ses veux-che que je m'accroche You might also like J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent1</t>
+          <t>Hum, eh Eh, yah, eh, eh, eh, yah Eh, eh, eh, yah wouh Hey, hey J'suis dans l'allée, capuché, j'revendais des dix, des vingt, quand y a les keufs, j'partais Et j'entends ma Rolex me chuchoter On court trop après l'temps pour leurs donner l'heure Et j'ai décidé, oui, j'l'ai décidé, Dolce Gabbana, Gucci, Thaïlande Première classe, j'suis à CDG et d'être tellement haut, je l'ai décidé Et t'as vu où j'ai grandi, sans mentir, c'est pas facile de s'en sortir Il m'a fallu des couilles grosses, sa mère la pute et un mental bien solide J'ai traversé toute la France, en train, sa mère et vraie moula dans le sac, cinq litrons Par intérêt, les fils de putes, quand ça devient dur et bah, changent de camp Le neuf millimètre devenu léger et comme d'hab', j'suis dans le bolide Et regarde bien, j'ai l'chargeur tout pleins, j'suis pas du genre à mettre des middle J'suis dans l'four cramé mais j'ai froid, c'qui va t'refroidir, c'est mon feu Quand j'étais p'tit, moi, j'ai fait un vu et aujourd'hui, j'crois qu'c'est fait J'suis fonce-dé dans l'RS comme un paresseux, récupérer l'argent qui sort d'sa pussy J'suis dans la finesse, dans l'ajustement et c'est dans sa bouche, pour la finition Et quand j'ai marqué, bah, j'me tire, sur la vie d'ma mère qu'j'ai pas changé, sa mère J'suis à la barrière, j'suis à mon sixième teh et j'commence à le ressentir par derrière Fils de pute, on n'a plus douze ans, on t'séquestre ta mère, faut qu'tu payes, ta mère Et j'connais des mecs qu'ont déjà plus d'cur, qu'ont déjà tué sur la vie d'ma mère J'ai le compte rendu y en a pas assez, donc j'vais prendre le game par le cul À la base, tout ça, c'était pas pour nous mais bon, on refuse pas les cadeaux Le disque d'or, le même, en platine, attendez, attendez, c'est que l'début Faut pas lâcher, on va s'les faire et quoi qu'il arrive, il faut pas qu'tu doutes Regarde-nous, on a la peau sur les os, survet' de bas tout rouge deviennent nos yeux Mais bon, nique sa mère, on l'fait pour le blé, il m'faut cent millions pour qu'j'sois comblé Écoute-moi bien, faut que j't'explique un truc, y a trois piges, personne croyait en moi Aujourd'hui, ces mêmes fils de putes, ces fils de putes veulent m'serrer la main J'suis à deux pas d'la Tour Eiffel et j'me fais lahsa de bon matin Trois-cents euros la nuit dans la chambre d'hôtel, comme j'y vais fort, elle crie Koba, attends Y a deux-trois billets qui sont déchirés, j'vais acheter des élastiques un peu plus larges Audemars Piguets, tourbillon extra thin, nique sa grand mère, ton horloge Elle descend, elle remonte et quand c'est sec, euh, elle recrache J'la démonte, j'be-tom du lit et c'est à ses veux-che que je m'accroche J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent J'suis dans le re-fou, cramé où les descentes de condés nous refroidissent1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wouh Quel bail ? Wesh, la Détaille De la B Wouh Kopoba la D Hehe, sale Le stock est écoulé oh, le stock est écoulé gang Ce soir, j'vais me saouler saouler et baiser dans la foulée foulée Je sais c'que vous voulez je sais, du sale, vous demandez ah bon ? Sur l'or, je dois rouler gang, charo est bien entouré wouh La juge est misérable eh Madrane pas libérable non Du sang sur mes ennemis, cette fois, je vise le mille V8 dans le sous-sol vroum, Koro fait des sous sales gang M'en bats les couilles d'leur avis, ces chiens sont remplis de vice oh J'pète le champagne wouh, j'vais lui faire du mal J'regarde les formes sous son pagne j'guette son cul Guette mon train de vie oh, oh, j'ai trop de style style Charos font la maille dans les affaires illégales Bye, bye, bye ouh, wouh You might also like Minuit pile le stock de stup écoulé 'coulé, 'coulé Je vais vraiment tous mais vraiment tous les couler tous les dead Méchant dans le bendo, tu sais qu'on est tu sais qu'on est Solidaires, renois violents comme ça qu'on est Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B Minuit pile on remballe tout, le sac de stup s'est fait écouler Ça part vite, c'est d'la super ppe-fra, c'est Dendé qui m'a poussé des affaires Encore moi, Koba du binks, si j'la fume et j'la vends, c'est que c'est d'la frappe Défoncé quand j'recompte j'me suis gouré assez mal, faut que j'recommence Donc j'me lève, je chie, j'me lave, je sors, j'me pose, je vends Je vends, je vends, je vends, quand y a les keufs tempête Et y a plus rien qui nous impressionne c'est mort, plus rien qui nous impressionne c'est mort Cette pute, elle sait pas qui j'suis, non, elle m'aime pour tout ce que j'possède J'ai tartiné toute l'année, j'ai coffré seize-mille euros c'mois-ci Une autre liasse, un autre élastique, dans l'enquête, ils ont soulevé plus de deux-cent kilos d'cocaïne Il s'est fait donner par l'OCTRIS Minuit pile le stock de stup écoulé 'coulé, 'coulé Je vais vraiment tous mais vraiment tous les couler tous les dead Méchant dans le bendo, tu sais qu'on est tu sais qu'on est Solidaires, renois violents comme ça qu'on est Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B Kopoba la D, Kopoba la D, Kopoba la D Zifu de la B, Zifu de la B, Zifu de la B Kopoba la D, Kopoba la D, Kopoba la D Zifu de la B, Zifu de la B, Zifu de la B Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B1</t>
+          <t>Wouh Quel bail ? Wesh, la Détaille De la B Wouh Kopoba la D Hehe, sale Le stock est écoulé oh, le stock est écoulé gang Ce soir, j'vais me saouler saouler et baiser dans la foulée foulée Je sais c'que vous voulez je sais, du sale, vous demandez ah bon ? Sur l'or, je dois rouler gang, charo est bien entouré wouh La juge est misérable eh Madrane pas libérable non Du sang sur mes ennemis, cette fois, je vise le mille V8 dans le sous-sol vroum, Koro fait des sous sales gang M'en bats les couilles d'leur avis, ces chiens sont remplis de vice oh J'pète le champagne wouh, j'vais lui faire du mal J'regarde les formes sous son pagne j'guette son cul Guette mon train de vie oh, oh, j'ai trop de style style Charos font la maille dans les affaires illégales Bye, bye, bye ouh, wouh Minuit pile le stock de stup écoulé 'coulé, 'coulé Je vais vraiment tous mais vraiment tous les couler tous les dead Méchant dans le bendo, tu sais qu'on est tu sais qu'on est Solidaires, renois violents comme ça qu'on est Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B Minuit pile on remballe tout, le sac de stup s'est fait écouler Ça part vite, c'est d'la super ppe-fra, c'est Dendé qui m'a poussé des affaires Encore moi, Koba du binks, si j'la fume et j'la vends, c'est que c'est d'la frappe Défoncé quand j'recompte j'me suis gouré assez mal, faut que j'recommence Donc j'me lève, je chie, j'me lave, je sors, j'me pose, je vends Je vends, je vends, je vends, quand y a les keufs tempête Et y a plus rien qui nous impressionne c'est mort, plus rien qui nous impressionne c'est mort Cette pute, elle sait pas qui j'suis, non, elle m'aime pour tout ce que j'possède J'ai tartiné toute l'année, j'ai coffré seize-mille euros c'mois-ci Une autre liasse, un autre élastique, dans l'enquête, ils ont soulevé plus de deux-cent kilos d'cocaïne Il s'est fait donner par l'OCTRIS Minuit pile le stock de stup écoulé 'coulé, 'coulé Je vais vraiment tous mais vraiment tous les couler tous les dead Méchant dans le bendo, tu sais qu'on est tu sais qu'on est Solidaires, renois violents comme ça qu'on est Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B Kopoba la D, Kopoba la D, Kopoba la D Zifu de la B, Zifu de la B, Zifu de la B Kopoba la D, Kopoba la D, Kopoba la D Zifu de la B, Zifu de la B, Zifu de la B Tous les couler, tous les couler Tous les couler bye, bye, bye, bye, bye Tous les couler, tous les couler Tous les couler de la B, de la B, de la B1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba La rue c'est ma femme, j'suis son mari Ocho, ouais, ouais Eh SDM, cent moins huit Ocho, la rue, c'est ma femme, j'suis son mari Ouh Perso', moi, j'sais pas, toi, tu sais, dis-moi, pourquoi la gare de Lyon est à Paris ? Dis-moi J'ai fait une semaine super carrée, le week-end, j'suis à la cité, pas dans l'carré Ouh J'suis pas calme, toujours agité, y a que ma sacoche qui sait s'tenir à carreaux, eh Ouh oui Moi, perso', j'pousse pas la fonte mais mon fusil à pompe a la forme Rah Si t'aimes c'que j'fais, tu partages, j'te force pas à l'faire, on mendie pas la force, eh Jamais J'ai que ds bandits dans mon tél' Ouh, le num' de mes frèrs menottés Brr, brr Bon, j'avoue, j'ai aussi deux-trois num', ok, quatre ou cinq, des p'tites surs à untel, eh Ah, ah J'te fais danser l'yakalélo, on joue d'la guitare, pas du ukulélé Arriba Le minimum, c'est l'million d'loves, on encaisse et après, on mougou des meufs, eh J'ai fait un rêve où j'avais Jacques Chirac et Whitney Houston sur ma puce de ge-sh' En Fe-Fe, en Lambo', en plus de ça, là dis aux vils-ci, moi, j'leur pisse dessus, bref Doigt sur la détente, l'autre sur un téton, huit contre un, j'les fais détale Et à part ça, en Fe-Fe, j'suis pas dans l'Audi TT, j'ai tout baisé sur un son d'été J'dois mailler et m'casser, Glock sur la tempe, remplis l'c-sa ou sinon, j'te fais sauter l'caisson Rah J'en veux une comme Casi, crochet du gauche à la Cassius Casse ded à Ocho You might also like Un coup d'feu Pah, pah, pah, j'veux tout l'monde à plat ventre Ouh oui On a la meilleure, y a que d'la ppe-fra, en lu'-lu' comme Pavard Arriba, arriba Clamart zoo, Koba, Grinta Green, en train d'baiser l'game comme des bâtards Ouais, ouais, ouais, ouais, ouais Que des titulaires, y a que des buteurs Koba du 7, tu m'connais Switch, prince de la ville, n'importe où on bicrave Même si ça tourne à trente balles la journée Ouh, comme au début, on continue d'rabattre Évry hood, SD, 92i, en train d'baiser l'game comme des bâtards En train d'baiser l'game comme des bâtards Que des titulaires, y a que des buteurs J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Ouais Vers chez nous, c'est rare les refus, la première preuve toutes les références Tous les temps, on fuck les fédéraux, là, j'suis au bar avec El Jefe Et R.C On t'a barbé, si on doit le refaire, on l'refait Grosse caisse comme le président mais lui, il a taffé toute sa vie T'as pas coffré, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le teu-sh à vendre P'tit p', reste concentré, tu vas nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde que j'ai dû péter Dû péter J'té-cla un autre pé-tou, j'ai raté la sortie, j'suis trop pété J'suis trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter qu'on prendra d'la valeur au fil du temps Putain, si tu l'écoutes trop, sa fausse sacoche L.V peut t'rendre bête Ici, c'est Evry, c'est pas Chicago il est pas dans mon froc mais dans ma sacoche Un coup d'feu Pah, pah, pah, j'veux tout l'monde à plat ventre Ouh oui On a la meilleure, y a que d'la ppe-fra, en lu'-lu' comme Pavard Arriba, arriba Clamart zoo, Koba, Grinta Green, en train d'baiser l'game comme des bâtards Ouais, ouais, ouais, ouais, ouais Que des titulaires, y a que des buteurs Koba du 7, tu m'connais Switch, prince de la ville, n'importe où on bicrave Même si ça tourne à trente balles la journée Ouh, comme au début, on continue d'rabattre Évry hood, SD, 92i, en train d'baiser l'game comme des bâtards En train d'baiser l'game comme des bâtards Que des titulaires, y a que des buteurs1</t>
+          <t>Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba Arriba, arriba La rue c'est ma femme, j'suis son mari Ocho, ouais, ouais Eh SDM, cent moins huit Ocho, la rue, c'est ma femme, j'suis son mari Ouh Perso', moi, j'sais pas, toi, tu sais, dis-moi, pourquoi la gare de Lyon est à Paris ? Dis-moi J'ai fait une semaine super carrée, le week-end, j'suis à la cité, pas dans l'carré Ouh J'suis pas calme, toujours agité, y a que ma sacoche qui sait s'tenir à carreaux, eh Ouh oui Moi, perso', j'pousse pas la fonte mais mon fusil à pompe a la forme Rah Si t'aimes c'que j'fais, tu partages, j'te force pas à l'faire, on mendie pas la force, eh Jamais J'ai que ds bandits dans mon tél' Ouh, le num' de mes frèrs menottés Brr, brr Bon, j'avoue, j'ai aussi deux-trois num', ok, quatre ou cinq, des p'tites surs à untel, eh Ah, ah J'te fais danser l'yakalélo, on joue d'la guitare, pas du ukulélé Arriba Le minimum, c'est l'million d'loves, on encaisse et après, on mougou des meufs, eh J'ai fait un rêve où j'avais Jacques Chirac et Whitney Houston sur ma puce de ge-sh' En Fe-Fe, en Lambo', en plus de ça, là dis aux vils-ci, moi, j'leur pisse dessus, bref Doigt sur la détente, l'autre sur un téton, huit contre un, j'les fais détale Et à part ça, en Fe-Fe, j'suis pas dans l'Audi TT, j'ai tout baisé sur un son d'été J'dois mailler et m'casser, Glock sur la tempe, remplis l'c-sa ou sinon, j'te fais sauter l'caisson Rah J'en veux une comme Casi, crochet du gauche à la Cassius Casse ded à Ocho Un coup d'feu Pah, pah, pah, j'veux tout l'monde à plat ventre Ouh oui On a la meilleure, y a que d'la ppe-fra, en lu'-lu' comme Pavard Arriba, arriba Clamart zoo, Koba, Grinta Green, en train d'baiser l'game comme des bâtards Ouais, ouais, ouais, ouais, ouais Que des titulaires, y a que des buteurs Koba du 7, tu m'connais Switch, prince de la ville, n'importe où on bicrave Même si ça tourne à trente balles la journée Ouh, comme au début, on continue d'rabattre Évry hood, SD, 92i, en train d'baiser l'game comme des bâtards En train d'baiser l'game comme des bâtards Que des titulaires, y a que des buteurs J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Ouais Vers chez nous, c'est rare les refus, la première preuve toutes les références Tous les temps, on fuck les fédéraux, là, j'suis au bar avec El Jefe Et R.C On t'a barbé, si on doit le refaire, on l'refait Grosse caisse comme le président mais lui, il a taffé toute sa vie T'as pas coffré, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le teu-sh à vendre P'tit p', reste concentré, tu vas nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde que j'ai dû péter Dû péter J'té-cla un autre pé-tou, j'ai raté la sortie, j'suis trop pété J'suis trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter qu'on prendra d'la valeur au fil du temps Putain, si tu l'écoutes trop, sa fausse sacoche L.V peut t'rendre bête Ici, c'est Evry, c'est pas Chicago il est pas dans mon froc mais dans ma sacoche Un coup d'feu Pah, pah, pah, j'veux tout l'monde à plat ventre Ouh oui On a la meilleure, y a que d'la ppe-fra, en lu'-lu' comme Pavard Arriba, arriba Clamart zoo, Koba, Grinta Green, en train d'baiser l'game comme des bâtards Ouais, ouais, ouais, ouais, ouais Que des titulaires, y a que des buteurs Koba du 7, tu m'connais Switch, prince de la ville, n'importe où on bicrave Même si ça tourne à trente balles la journée Ouh, comme au début, on continue d'rabattre Évry hood, SD, 92i, en train d'baiser l'game comme des bâtards En train d'baiser l'game comme des bâtards Que des titulaires, y a que des buteurs1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat La moula moula, la monnaie monnaie et l'argent sale nous a maudit maudit La moula moula, la monnaie, jdevais sortir de chez moi avant midi besoin La rue m'a appris d'pas faire confiance et de me mêler que de mes affaires de mes affaires Toujours rester à npas faire le fier et pour en avoir plus, faut faire plus d'efforts encore Travaillant depuis l'époque du seum et j'vis plus les intrusions en soum J'ai pas percé tard, Audi 2018 S3 full options tout noir 'vec un pétard Ne pas s'faire péter, gonfler le butin, finir riche quoi qu'il arrive même si jen bute un Seize heures, jrécupère, vingt heures, j'récupère et jvais tout arrêter que si j'suis en perte que si j'suis en perte D'la moula moula, dla monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Crois-moi, l'être humain est hypocrite Et ça, ça provoque beaucoup de quiproquos de quiproquos Donc t'es obligé de montrer que Celui qui s'avance, tu l'allumes à l'AK, oh D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre You might also like hé D'la moula moula, d'la monnaie monnaie J'm'y remets, tu m'remets un rre-ve J'la remets, j'suis repeint, j'suis refait, mon re-fré George Moulaga des Hauts-d'-Seine, tu connais hé J'propose d'la moula affichée au menu Tu reconnais ma tenue, langage est soutenu skch Le gang est torse velu, cette vie-là, mes gars l'ont tous voulu skch Mes esprits ont timba la hnoucha, j'ai benda Standa, j'suis réglo, c'est réglé hé Viens en Europe, y a d'la drogue et du bénéf', béné', béné', bénéfices D'la re-pu, d'la végé' passent par les PDG Le tarot, c'est léger, Versace et DG, Orly ou CDG J'me barre et j'me gare juste avant d'me faire crever P'tite sur, passe ton bac, ton Master ou ton brevet J'ramasse tous les lovés, les lovés, les lovés George Moulaga, d'la moula et d'la monnaie, béné', béné', bénéfices D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Heuss L'enfoiré, bande d'enfoirés Hé, George Moula, gars d'la moula et d'la monnaie Béné', béné', bénéfices Skch3</t>
+          <t>Zeg P on the track beat La moula moula, la monnaie monnaie et l'argent sale nous a maudit maudit La moula moula, la monnaie, jdevais sortir de chez moi avant midi besoin La rue m'a appris d'pas faire confiance et de me mêler que de mes affaires de mes affaires Toujours rester à npas faire le fier et pour en avoir plus, faut faire plus d'efforts encore Travaillant depuis l'époque du seum et j'vis plus les intrusions en soum J'ai pas percé tard, Audi 2018 S3 full options tout noir 'vec un pétard Ne pas s'faire péter, gonfler le butin, finir riche quoi qu'il arrive même si jen bute un Seize heures, jrécupère, vingt heures, j'récupère et jvais tout arrêter que si j'suis en perte que si j'suis en perte D'la moula moula, dla monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Crois-moi, l'être humain est hypocrite Et ça, ça provoque beaucoup de quiproquos de quiproquos Donc t'es obligé de montrer que Celui qui s'avance, tu l'allumes à l'AK, oh D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre hé D'la moula moula, d'la monnaie monnaie J'm'y remets, tu m'remets un rre-ve J'la remets, j'suis repeint, j'suis refait, mon re-fré George Moulaga des Hauts-d'-Seine, tu connais hé J'propose d'la moula affichée au menu Tu reconnais ma tenue, langage est soutenu skch Le gang est torse velu, cette vie-là, mes gars l'ont tous voulu skch Mes esprits ont timba la hnoucha, j'ai benda Standa, j'suis réglo, c'est réglé hé Viens en Europe, y a d'la drogue et du bénéf', béné', béné', bénéfices D'la re-pu, d'la végé' passent par les PDG Le tarot, c'est léger, Versace et DG, Orly ou CDG J'me barre et j'me gare juste avant d'me faire crever P'tite sur, passe ton bac, ton Master ou ton brevet J'ramasse tous les lovés, les lovés, les lovés George Moulaga, d'la moula et d'la monnaie, béné', béné', bénéfices D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Heuss L'enfoiré, bande d'enfoirés Hé, George Moula, gars d'la moula et d'la monnaie Béné', béné', bénéfices Skch3</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Putain Yahia, c'est encore toi enfoiré Guapo J'suis dans l'FeFe-Fe J'suis dans l'FeFe, FeFe, FeFe, j'suis dans l'FeFe Eh, j'suis dans l'FeFe, vroum, vroum, vroum Eh, troisième recharge à seize heures, gros charbonneur depuis qu'j'ai seize ans La meilleure frappe du lycée, j'quittais l'école entre midi et deux 500 eu' d'shit, 400 eu' d'beuh, j'virais les petits qui traînaient en bas Encore un peu et juste un peu, faut que tu réajustes, là, il manque un gramme Flashback du Clio 2 Quand j'bombarde dans l'FeFe J'ai bicrave comme un esclave Et regarde maintenant, j'recompte comme un roi J'suis passé du gramme au kil', ensuite des kilos aux plots J'fais l'tour du monde en showcase et j'récup' du bois toutes les fins d'semaine J'suis en première classe, j'vais m'allonger et dix heures de vol sous Hennessy Et comme c'est moi Koba LaD, bah dans ma bre-cham y'a un jacuzzi Et six heures du mat' mort sous sky, j'm'endors avec la plus bonne d'la boîte Et j'suis die, j'suis tellement die, quand j'recompte, j'repense aux sous du détail, putain d'merde J'ai plus rien d'autre à faire à part compter mes thunes et remercier l'bon Dieu Mais y'a encore cette pute qui croit que j'vais lui faire un gosse sa mère Toujours la même niaque, j'suis revenu les niquer plus qu'avant On est cramé à cause du four, les p'tits deviennent des grands, les grands finissent vieux Dans l'VIP, on exhibe des billets violets, mon disque d'or a fait des envieux J'me fais masser par une thaïlandaise, quatre-vingt-dix minutes après j'en re-veux Et y'a ce qu'on dit, on r'connait les putes quand on doit couper la poire en deux Ma mère ma dit d'investir mes thunes et de ne jamais donner mon dos Et maint'nant depuis qu'j'suis d'dans, j'rodave que les grands sont des grands mythos Et patati et patata, y'a qu'les gamins pour croire qu'ils sont blindés You might also like Flashback du Clio 2 Quand j'bombarde dans l'FeFe J'ai bicrave comme un esclave Et regarde maintenant, j'recompte comme un roi J'suis dans l'FeFe et fuck FIFA, j'me fais lahsa par une folle J'suis dans l'FeFe et fuck ta Fiat et tout ton équipe de fiottes J'suis dans l'FeFe à la barrière, mes ennemis sont à l'arrêt d'bus J'regrette pas mon passé, merci Dopé, merci Deuspi J'suis dans l'FeFe, j'suis dans l'FeFe, FeFe, FeFe, FeFe-Fe J'suis dans l'FeFe-Fe, FeFe-Fe, FeFe, FeFe Vroum, vroum, vroum, vroum, oh Vroum, vroum, vroum, vroum, vroum, oh J'suis dans l'FeFe, j'suis dans l'FeFe, FeFe, FeFe, FeFe-Fe J'suis dans l'FeFe-Fe, FeFe-Fe, FeFe, FeFe Vroum, vroum, vroum, vroum, oh Vroum, vroum, vroum, vroum, vroum, oh</t>
+          <t>Putain Yahia, c'est encore toi enfoiré Guapo J'suis dans l'FeFe-Fe J'suis dans l'FeFe, FeFe, FeFe, j'suis dans l'FeFe Eh, j'suis dans l'FeFe, vroum, vroum, vroum Eh, troisième recharge à seize heures, gros charbonneur depuis qu'j'ai seize ans La meilleure frappe du lycée, j'quittais l'école entre midi et deux 500 eu' d'shit, 400 eu' d'beuh, j'virais les petits qui traînaient en bas Encore un peu et juste un peu, faut que tu réajustes, là, il manque un gramme Flashback du Clio 2 Quand j'bombarde dans l'FeFe J'ai bicrave comme un esclave Et regarde maintenant, j'recompte comme un roi J'suis passé du gramme au kil', ensuite des kilos aux plots J'fais l'tour du monde en showcase et j'récup' du bois toutes les fins d'semaine J'suis en première classe, j'vais m'allonger et dix heures de vol sous Hennessy Et comme c'est moi Koba LaD, bah dans ma bre-cham y'a un jacuzzi Et six heures du mat' mort sous sky, j'm'endors avec la plus bonne d'la boîte Et j'suis die, j'suis tellement die, quand j'recompte, j'repense aux sous du détail, putain d'merde J'ai plus rien d'autre à faire à part compter mes thunes et remercier l'bon Dieu Mais y'a encore cette pute qui croit que j'vais lui faire un gosse sa mère Toujours la même niaque, j'suis revenu les niquer plus qu'avant On est cramé à cause du four, les p'tits deviennent des grands, les grands finissent vieux Dans l'VIP, on exhibe des billets violets, mon disque d'or a fait des envieux J'me fais masser par une thaïlandaise, quatre-vingt-dix minutes après j'en re-veux Et y'a ce qu'on dit, on r'connait les putes quand on doit couper la poire en deux Ma mère ma dit d'investir mes thunes et de ne jamais donner mon dos Et maint'nant depuis qu'j'suis d'dans, j'rodave que les grands sont des grands mythos Et patati et patata, y'a qu'les gamins pour croire qu'ils sont blindés Flashback du Clio 2 Quand j'bombarde dans l'FeFe J'ai bicrave comme un esclave Et regarde maintenant, j'recompte comme un roi J'suis dans l'FeFe et fuck FIFA, j'me fais lahsa par une folle J'suis dans l'FeFe et fuck ta Fiat et tout ton équipe de fiottes J'suis dans l'FeFe à la barrière, mes ennemis sont à l'arrêt d'bus J'regrette pas mon passé, merci Dopé, merci Deuspi J'suis dans l'FeFe, j'suis dans l'FeFe, FeFe, FeFe, FeFe-Fe J'suis dans l'FeFe-Fe, FeFe-Fe, FeFe, FeFe Vroum, vroum, vroum, vroum, oh Vroum, vroum, vroum, vroum, vroum, oh J'suis dans l'FeFe, j'suis dans l'FeFe, FeFe, FeFe, FeFe-Fe J'suis dans l'FeFe-Fe, FeFe-Fe, FeFe, FeFe Vroum, vroum, vroum, vroum, oh Vroum, vroum, vroum, vroum, vroum, oh</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J'suis dans lAventador Vroum, vroum, vroum, vroum, vroum Vroum, vroum, vroum, vroum, vroum Vroum, vroum, vroum, vroum, vroum MMG On The Track D'abord, j'coupe le pain en deux Deux, jdétaille un premier bout Un bout J'fous tout dans mon sac de school L'école et au lycée, j'revendais tout La drogue Tu peux v'nir vérifier Viens voir, tout c'que j't'ai dis, jlai fait C'est vrai Cest nous, on tenait la gare et à qui on veut, on fait la guerre Tu veux ? Faut qu'tu saches que dans la vie ça s'ra toi contre toi Toujours On a tous deux bras, deux jambes Deux jambes, un cerveau avec deux boules Mais moi, je comprends pas Pas, toi, t'es un gros clochard Clochard Tu sais rien faire dtes deux mains Tes mains mais t'as la bouche pour ler-par Connard J'suis dans l'Aventador Vroum, té-ma mes putains d'jantes Ah ouais J'suis dans l'Aventador Vroum, ouverture papillon Vroum J'suis dans l'Aventador Ouais, bébé, je sais qu't'adores Ouais J'suis dans l'Aventador Ouais, bébé, je sais qu't'adores J'suis dans l'gamos de luxe habillé tout en Nike, on gère la boule au ventre, on contrôle la pression On contrôle du monde, nous, on n'est pas pressé, j'ai augmenté l'niveau, faut plus de mapessa Tu peux croiser ma ganache partout dans les coins, voleur de téléphone, voleur de ients-cli En période d'été, qu'il pleuve ou bien, qu'il caille, toujours sur le terrain avec ma paire de couilles Onze heures, j'fais toute la ville, midi, le marché ouvre, quinze heures, les flics arrivent, dis-moi ce que tu veux Y a des dix, des vingt, d'la beuh, des blocs, mon pote, bosseur assidu et l'guetteur à l'affût Minuit, fermeture et demain, rebelote, rebelote, rebelote et dimanche, j'suis payé Ouh la la, sa mère, des tonnes de G.A.V. mais comme j'étais mineur, Deuspi venait m'chercher Et ça m'arrive d'y penser Penser quand j'étais inconnu Connu, quatre en place sur l'rrain-te Rrain-te, la taule, c'était imminent Tu choisis pas ton passé Passé mais tu crées ton avenir Avenir Compte pas sur ces enfoirés Jamais, tu finiras à néant You might also like J'suis dans l'Aventador, té-ma mes putains d'jantes J'suis dans l'Aventador, ouverture papillon J'suis dans l'Aventador, bébé, je sais qu't'adores J'suis dans l'Aventador, bébé, je sais qu't'adores Yeah, yeah, yeah, oh Yeah, yeah, yeah, oh Yeah, yeah, yeah, oh Yeah, oh J'suis dans l'Aventador, té-ma mes putains d'jantes Oh ouais J'suis dans l'Aventador, ouverture papillon Ouais J'suis dans l'Aventador, bébé, je sais qu't'adores J'suis dans l'Aventador, bébé, je sais qu't'adores Oh, oh, oh ouais Oh, oh, oh ouais Oh, oh, oh ouais2</t>
+          <t>J'suis dans lAventador Vroum, vroum, vroum, vroum, vroum Vroum, vroum, vroum, vroum, vroum Vroum, vroum, vroum, vroum, vroum MMG On The Track D'abord, j'coupe le pain en deux Deux, jdétaille un premier bout Un bout J'fous tout dans mon sac de school L'école et au lycée, j'revendais tout La drogue Tu peux v'nir vérifier Viens voir, tout c'que j't'ai dis, jlai fait C'est vrai Cest nous, on tenait la gare et à qui on veut, on fait la guerre Tu veux ? Faut qu'tu saches que dans la vie ça s'ra toi contre toi Toujours On a tous deux bras, deux jambes Deux jambes, un cerveau avec deux boules Mais moi, je comprends pas Pas, toi, t'es un gros clochard Clochard Tu sais rien faire dtes deux mains Tes mains mais t'as la bouche pour ler-par Connard J'suis dans l'Aventador Vroum, té-ma mes putains d'jantes Ah ouais J'suis dans l'Aventador Vroum, ouverture papillon Vroum J'suis dans l'Aventador Ouais, bébé, je sais qu't'adores Ouais J'suis dans l'Aventador Ouais, bébé, je sais qu't'adores J'suis dans l'gamos de luxe habillé tout en Nike, on gère la boule au ventre, on contrôle la pression On contrôle du monde, nous, on n'est pas pressé, j'ai augmenté l'niveau, faut plus de mapessa Tu peux croiser ma ganache partout dans les coins, voleur de téléphone, voleur de ients-cli En période d'été, qu'il pleuve ou bien, qu'il caille, toujours sur le terrain avec ma paire de couilles Onze heures, j'fais toute la ville, midi, le marché ouvre, quinze heures, les flics arrivent, dis-moi ce que tu veux Y a des dix, des vingt, d'la beuh, des blocs, mon pote, bosseur assidu et l'guetteur à l'affût Minuit, fermeture et demain, rebelote, rebelote, rebelote et dimanche, j'suis payé Ouh la la, sa mère, des tonnes de G.A.V. mais comme j'étais mineur, Deuspi venait m'chercher Et ça m'arrive d'y penser Penser quand j'étais inconnu Connu, quatre en place sur l'rrain-te Rrain-te, la taule, c'était imminent Tu choisis pas ton passé Passé mais tu crées ton avenir Avenir Compte pas sur ces enfoirés Jamais, tu finiras à néant J'suis dans l'Aventador, té-ma mes putains d'jantes J'suis dans l'Aventador, ouverture papillon J'suis dans l'Aventador, bébé, je sais qu't'adores J'suis dans l'Aventador, bébé, je sais qu't'adores Yeah, yeah, yeah, oh Yeah, yeah, yeah, oh Yeah, yeah, yeah, oh Yeah, oh J'suis dans l'Aventador, té-ma mes putains d'jantes Oh ouais J'suis dans l'Aventador, ouverture papillon Ouais J'suis dans l'Aventador, bébé, je sais qu't'adores J'suis dans l'Aventador, bébé, je sais qu't'adores Oh, oh, oh ouais Oh, oh, oh ouais Oh, oh, oh ouais2</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tommy on the track Eh, j'ai même plus besoin de me présenter Koba LaD du 7, le jeune rappeur le plus attendu tu m'reconnais Et qu'est c't'en dis ? Hein mais dis-moi qu'est c't'en dis ? ils regardent ma paire J'ai l'taga doux, tellement doux qu'il l'effrite avec ton index Ça y'est, j'suis passé de l'autre côté de l'autre côté, de l'autre côté c'est mieux qu'là où j'étais là où j'étais De l'autre côté, je fais que recompter, recompter, à cause des studios, je rentre très tard Des interviews, j'signe même des autographes des autographes Dans la rue, on m'prend en tho-ph' et moi, je suis là pour mes intérêts J'dois faire augmenter l'chiffre d'affaire du terrain du terrain J'tiens, un cinq cent en détail, ramène ramène Quatre cent quatre-vingt, tout est compté moi ta cons' c'est ta graille Tu s'ras tu s'ras, payé en fin d'semaine et t'as pas d'paie en cas de perte en cas de perte Et en cas d'saisie, j'retire la moitié d'ta paie d'ta paie Nous aussi, on a connu les moments durs, faire cent vingt euros en deux jours Mais aujourd'hui, je peux m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter, j'peux tout porter sur mes épaules Et y'a que le million d'euros, pour récompenser ces années d'charbon You might also like Nous aussi, on a connu les moments durs moments durs, faire cent vingt euros en deux jours en deux jours Mais aujourd'hui, je peux m'réjouir m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter t'inquiéter, j'peux tout porter sur mes épaules mes épaules Et y'a que le million d'euros euros, pour récompenser ces années d'charbon ces années d'charbon Eh, depuis qu'j'me rapproche de la vie de rêve J'ai changé de train d'vie, j'm'éloigne p'tit à p'tit de la garde à vue du placard Et l'autre quartier m'envie ouais, et l'autre quartier m'envie y'a rien qui m'retient Toi, on t'a jamais vu, vers ici, c'est nous les boss de la ville c'est nous les boss Dans ta zone, n'importe où, on revend on revend, on revend, mon feu s'appelle reviens je sais qu'il va revenir Me pousser des affaires on évite, on est vifs surtout avec ceux qui prennent leur temps Faut qu'ils comprennent que j'ai pas le temps de courir après eux, à cause des condés, j'ressers l'étau donc c'est mieux qui paient vite Qu'est c'que j'ferai pas pour détaille ? c'que j'ferai pas pour détaille Et de briller, il était temps de briller, il était temps Eh eh, cinq cent euros sur le cent g, faire bloc de cinquante, tout ça écoulé en une journée en vingt-quatre heures Ils ravitaillent, détaillent, comptent et ravitaillent ils recomptent Il a payé lui, tu peux retirer son blase Nous aussi, on a connu les moments durs, faire cent vingt euros en deux jours Mais aujourd'hui, je peux m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter, j'peux tout porter sur mes épaules Et y'a que le million d'euros, pour récompenser ces années d'charbon Nous aussi, on a connu les moments durs moments durs, faire cent vingt euros en deux jours en deux jours Mais aujourd'hui, je peux m'réjouir m'réjouir, de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter t'inquiéter, j'peux tout porter sur mes épaules mes épaules Et y'a que le million d'euros euros, pour récompenser ces années d'charbon ces années d'charbon1</t>
+          <t>Tommy on the track Eh, j'ai même plus besoin de me présenter Koba LaD du 7, le jeune rappeur le plus attendu tu m'reconnais Et qu'est c't'en dis ? Hein mais dis-moi qu'est c't'en dis ? ils regardent ma paire J'ai l'taga doux, tellement doux qu'il l'effrite avec ton index Ça y'est, j'suis passé de l'autre côté de l'autre côté, de l'autre côté c'est mieux qu'là où j'étais là où j'étais De l'autre côté, je fais que recompter, recompter, à cause des studios, je rentre très tard Des interviews, j'signe même des autographes des autographes Dans la rue, on m'prend en tho-ph' et moi, je suis là pour mes intérêts J'dois faire augmenter l'chiffre d'affaire du terrain du terrain J'tiens, un cinq cent en détail, ramène ramène Quatre cent quatre-vingt, tout est compté moi ta cons' c'est ta graille Tu s'ras tu s'ras, payé en fin d'semaine et t'as pas d'paie en cas de perte en cas de perte Et en cas d'saisie, j'retire la moitié d'ta paie d'ta paie Nous aussi, on a connu les moments durs, faire cent vingt euros en deux jours Mais aujourd'hui, je peux m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter, j'peux tout porter sur mes épaules Et y'a que le million d'euros, pour récompenser ces années d'charbon Nous aussi, on a connu les moments durs moments durs, faire cent vingt euros en deux jours en deux jours Mais aujourd'hui, je peux m'réjouir m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter t'inquiéter, j'peux tout porter sur mes épaules mes épaules Et y'a que le million d'euros euros, pour récompenser ces années d'charbon ces années d'charbon Eh, depuis qu'j'me rapproche de la vie de rêve J'ai changé de train d'vie, j'm'éloigne p'tit à p'tit de la garde à vue du placard Et l'autre quartier m'envie ouais, et l'autre quartier m'envie y'a rien qui m'retient Toi, on t'a jamais vu, vers ici, c'est nous les boss de la ville c'est nous les boss Dans ta zone, n'importe où, on revend on revend, on revend, mon feu s'appelle reviens je sais qu'il va revenir Me pousser des affaires on évite, on est vifs surtout avec ceux qui prennent leur temps Faut qu'ils comprennent que j'ai pas le temps de courir après eux, à cause des condés, j'ressers l'étau donc c'est mieux qui paient vite Qu'est c'que j'ferai pas pour détaille ? c'que j'ferai pas pour détaille Et de briller, il était temps de briller, il était temps Eh eh, cinq cent euros sur le cent g, faire bloc de cinquante, tout ça écoulé en une journée en vingt-quatre heures Ils ravitaillent, détaillent, comptent et ravitaillent ils recomptent Il a payé lui, tu peux retirer son blase Nous aussi, on a connu les moments durs, faire cent vingt euros en deux jours Mais aujourd'hui, je peux m'réjouir de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter, j'peux tout porter sur mes épaules Et y'a que le million d'euros, pour récompenser ces années d'charbon Nous aussi, on a connu les moments durs moments durs, faire cent vingt euros en deux jours en deux jours Mais aujourd'hui, je peux m'réjouir m'réjouir, de tout c'que j'ai dans mon compte Maman, t'as plus à t'inquiéter t'inquiéter, j'peux tout porter sur mes épaules mes épaules Et y'a que le million d'euros euros, pour récompenser ces années d'charbon ces années d'charbon1</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais, yeah, yeah, yeah, yeah, yeah Gars du 7, c'est nous, que nous, la gestu, on l'a d'jà bloqué bloqué On vient tfaire un blocus blocus mais harba tselek si y a la Focus Focus De la gue-dro près des boules ok, déboule et les guetteurs près du bloc ok J'vends plus d'détail, j'fais plus d'bloc, toujours en loc', souvent une nouvelle plaque ok J'me rappelle, j'étais ptit, inconnu sur lterrain, les plus grands m'prenaient pour un imbécile ah bon ? Aujourdhui, disques d'or, singles d'or, singles d'or et la plupart dentre eux demande des feat' maintenant J'suis avec Koba LaD LaD, ton pote t'a lâché, oh merde, oh la D la D On est dans l'gamos, on se balade, si y a haja, t'inquiète, viens nous appeler Quand elle m'suce la bite dans ma suite, j'repense à toutes ces années dans l'binks sa mère Les perquis', les pleurs de ma mère, les bonbonnes et les traces de dos sur le mur Les traces de dos sur le mur, les poucaves, les tres-traî, on en a marre Y a que à nos daronnes qu'on donne d'l'amour et nous, on se côtoyait avant qu'ça marche J'suis avec Kaflo, Famas et Shotas au fond d'la tess, rien que les sses-lia s'entassent Plus forts que tous ceux de l'actu et tout est compté, séparés par sses-lia de mille Récupère des liasses de mille, dans l'gobelet, rajoute du miel Sur l'terrain, faut être agile, pas d'égalité, je fais pas la belle Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' You might also like Maintenant, j'encaisse, j'encaisse, j'encaisse, mon champagne bulle, mon pilon bulle Jamais en-d'ssous du demi-plein jamais et j'rentre avec le plus gros boule J'me rappelle, j'étais comme toi eh, avant d'être là, j'étais en bas ah ouais Mais j'ai du pot, moi, j'ai pu v'-esqui, j'm'éloigne du cartel depuis que j'trill Oui, j'ai le shit qui pegue, la peugeuff qui trouble, à 240, j'ai le cur qui tremble qui tremble Dans l'A45, avec, j'fais des dribbles, dans la sacoche, j'ai la carte qui dit pas non J'remporte la guerre, j'prends le trophée et des temps-plein, crois-moi qu'j'en ai trop fait J'préfère la maille, Shotas, n'est pas trop fille et si c'est à refaire, on le refait T'as pas d'oseille, Tarti dans l're-fou, c'est le manque d'argent qui nous rend tous fous T'es amoureuse ? C'est sûr que je m'en fous, y a les vingt-deux, c'est sûr que je m'enfuis J'suis écouté, maintenant, j'suis entendu, t'as fini la journée, fais l'compte-rendu T'as poucave ton pote, t'as fait le vendu, au calme, tu vas juste finir pendu Elle a mouillé, j'ai pas bandé, la chatte pas rasée m'a fait débander cette pute Faut les écraser comme des bandits, té-ma le succès comment ça grandit Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Bénèf', chou Bénèf', chou Chou, chou, chou Chou, chou, chou, chou, chou</t>
+          <t>Ouais, yeah, yeah, yeah, yeah, yeah Gars du 7, c'est nous, que nous, la gestu, on l'a d'jà bloqué bloqué On vient tfaire un blocus blocus mais harba tselek si y a la Focus Focus De la gue-dro près des boules ok, déboule et les guetteurs près du bloc ok J'vends plus d'détail, j'fais plus d'bloc, toujours en loc', souvent une nouvelle plaque ok J'me rappelle, j'étais ptit, inconnu sur lterrain, les plus grands m'prenaient pour un imbécile ah bon ? Aujourdhui, disques d'or, singles d'or, singles d'or et la plupart dentre eux demande des feat' maintenant J'suis avec Koba LaD LaD, ton pote t'a lâché, oh merde, oh la D la D On est dans l'gamos, on se balade, si y a haja, t'inquiète, viens nous appeler Quand elle m'suce la bite dans ma suite, j'repense à toutes ces années dans l'binks sa mère Les perquis', les pleurs de ma mère, les bonbonnes et les traces de dos sur le mur Les traces de dos sur le mur, les poucaves, les tres-traî, on en a marre Y a que à nos daronnes qu'on donne d'l'amour et nous, on se côtoyait avant qu'ça marche J'suis avec Kaflo, Famas et Shotas au fond d'la tess, rien que les sses-lia s'entassent Plus forts que tous ceux de l'actu et tout est compté, séparés par sses-lia de mille Récupère des liasses de mille, dans l'gobelet, rajoute du miel Sur l'terrain, faut être agile, pas d'égalité, je fais pas la belle Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Maintenant, j'encaisse, j'encaisse, j'encaisse, mon champagne bulle, mon pilon bulle Jamais en-d'ssous du demi-plein jamais et j'rentre avec le plus gros boule J'me rappelle, j'étais comme toi eh, avant d'être là, j'étais en bas ah ouais Mais j'ai du pot, moi, j'ai pu v'-esqui, j'm'éloigne du cartel depuis que j'trill Oui, j'ai le shit qui pegue, la peugeuff qui trouble, à 240, j'ai le cur qui tremble qui tremble Dans l'A45, avec, j'fais des dribbles, dans la sacoche, j'ai la carte qui dit pas non J'remporte la guerre, j'prends le trophée et des temps-plein, crois-moi qu'j'en ai trop fait J'préfère la maille, Shotas, n'est pas trop fille et si c'est à refaire, on le refait T'as pas d'oseille, Tarti dans l're-fou, c'est le manque d'argent qui nous rend tous fous T'es amoureuse ? C'est sûr que je m'en fous, y a les vingt-deux, c'est sûr que je m'enfuis J'suis écouté, maintenant, j'suis entendu, t'as fini la journée, fais l'compte-rendu T'as poucave ton pote, t'as fait le vendu, au calme, tu vas juste finir pendu Elle a mouillé, j'ai pas bandé, la chatte pas rasée m'a fait débander cette pute Faut les écraser comme des bandits, té-ma le succès comment ça grandit Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Je pense qu'au bénéf', je pense, je pense qu'au bénéf' Et quand j'la baise, j'la baise, j'la baise J'fais comme aux States j'lui bouffe la schnek Liquide, virements, quelques fois chèques Dix ans d'salaire en un week-end Bénèf', chou Bénèf', chou Chou, chou, chou Chou, chou, chou, chou, chou</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Oye Tommy, dame el fuego papi Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Deux s'maines sans manger, nourris sous perfusion Juste qu'ici, tout va bien, elle tient l'coup, elle s'en sort 3 avril 2000, à dix-neuf heures trente Navré d'vous dire que l'autre jumeau est mort Le jour de son anniversaire, heureuse mais déçu Sur son lit, elle repense à son fils décédé Dieu merci, l'autre est là, un qu'a pas survécu Les mêmes yeux que son père, c'est toi Marcel Junior Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi You might also like Et j'suis désolé maman, si tu savais T'es la seule femme que j'aime, c'est à cause de tes larmes Que je regrette et tous les soirs J'y pense, qu'est-c'que je f'rais sans toi ? Et derrière l'anti-pop, j'recrache toute ma haine Là, tout va mieux, j'mets d'l'or sur ta tête Et comme tu jouais le rôle de mon père Et de ma mère, j'me dois de t'rendre fière Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et j'suis désolé maman, t'es la seule femme que j'aime, c'est à cause de tes larmes que je regrette J'y pense, qu'est-ce que je f'rais sans toi ? Eh, eh, eh Eh, eh, eh, eh Eh, eh, eh, eh Oye Tommy, dame el fuego papi Eh, eh, eh, eh</t>
+          <t>Oye Tommy, dame el fuego papi Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Deux s'maines sans manger, nourris sous perfusion Juste qu'ici, tout va bien, elle tient l'coup, elle s'en sort 3 avril 2000, à dix-neuf heures trente Navré d'vous dire que l'autre jumeau est mort Le jour de son anniversaire, heureuse mais déçu Sur son lit, elle repense à son fils décédé Dieu merci, l'autre est là, un qu'a pas survécu Les mêmes yeux que son père, c'est toi Marcel Junior Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et j'suis désolé maman, si tu savais T'es la seule femme que j'aime, c'est à cause de tes larmes Que je regrette et tous les soirs J'y pense, qu'est-c'que je f'rais sans toi ? Et derrière l'anti-pop, j'recrache toute ma haine Là, tout va mieux, j'mets d'l'or sur ta tête Et comme tu jouais le rôle de mon père Et de ma mère, j'me dois de t'rendre fière Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et si je rentrais pas des fois, j'te jure que c'était pour toi Tous les soirs, j'demande au bon Dieu de m'faire partir avant toi Et j'me suis juré d'tout niquer, de tout péter pour toi Et j'suis désolé maman, t'es la seule femme que j'aime, c'est à cause de tes larmes que je regrette J'y pense, qu'est-ce que je f'rais sans toi ? Eh, eh, eh Eh, eh, eh, eh Eh, eh, eh, eh Oye Tommy, dame el fuego papi Eh, eh, eh, eh</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La muerte Comment tu t'appelles ? Mets ton Snap dans mon tél' Draguer, c'est pas mon dél' mais j'aime trop comment t'es belle J't'avoue, j'ai plus l'permis mais j'prends celui d'mon sin-cou Prêt à faire la route même si t'habites loin d'mon hood La vie, c'est un choix je fais le choix de faire une balade Gris Na-, gris Nardo, phares xénon comme voitures d'Insta' Si j'avoue qu'j'te kiffe, jure-le moi que tu s'ra loyale Je nique pas les femmes mais si j'entends un truc, j'te balaye J'aime la vitesse, baby, y a pas d'ralentir Fais-moi voir si tu l'fais si bien comme athlète de haut niveau Papouilles, caresses, j'peux être ton S.A Doudou ou ton chouchou Tu ken bien, tu s'ra ma go Un coup d'cheveux, un coup d'un soir, pas d'une longue histoire C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré On palpe des millions, ça bosse à mort, crois pas qu'on fout rien C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe Descends tout d'suite, j'suis vers l'adresse, c'est moi dans l'RS7 Intérêt d'être là quand j'arrive ou j'me taille direct J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller You might also like Eh, d'moiselle, s'te plaît, t'as deux minutes ? Dis-moi si j'te dérange ou pas ? J'me taille direct Depuis t'-à l'heure, j'te look J'te look mais j'peux pas t'laisser kill comme ça C'est mort Là, j'suis un peu trop die Un tout p'tit peu, laisse-moi ton Snap, au moins Vas-y, s'te plaît On s'verra p't-être plus tard, j'delete si tu réponds pas Aye, aye, aye P'tite curly, bien gé-char, comme j'les aime trop, gars Comme j'les aime trop, gars, putain Comme j'les aime trop, gars Oh, yah J'sais qu'elle m'trouve trop beau J'sais qu'elle m'trouve trop beau, quand j'attache mes ch'veux Quand j'attache mes veux-ch' Quand j'viens d'vant son taff, avec 700 chevaux Le Merco tape à l'il Ouais, son fessier tape à l'il Woaw, c'est du .9 millimètres Vroum, du 95D Oh, baby mama Baby, baby, baby, umh, oh, baby mama Baby, baby, baby, baby, umh Un coup d'cheveux, un coup d'un soir, pas d'une longue histoire C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré On palpe des millions, ça bosse à mort, crois pas qu'on fout rien C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe Descends tout d'suite, j'suis vers l'adresse, c'est moi dans l'RS7 Intérêt d'être là quand j'arrive ou j'me taille direct J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe</t>
+          <t>La muerte Comment tu t'appelles ? Mets ton Snap dans mon tél' Draguer, c'est pas mon dél' mais j'aime trop comment t'es belle J't'avoue, j'ai plus l'permis mais j'prends celui d'mon sin-cou Prêt à faire la route même si t'habites loin d'mon hood La vie, c'est un choix je fais le choix de faire une balade Gris Na-, gris Nardo, phares xénon comme voitures d'Insta' Si j'avoue qu'j'te kiffe, jure-le moi que tu s'ra loyale Je nique pas les femmes mais si j'entends un truc, j'te balaye J'aime la vitesse, baby, y a pas d'ralentir Fais-moi voir si tu l'fais si bien comme athlète de haut niveau Papouilles, caresses, j'peux être ton S.A Doudou ou ton chouchou Tu ken bien, tu s'ra ma go Un coup d'cheveux, un coup d'un soir, pas d'une longue histoire C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré On palpe des millions, ça bosse à mort, crois pas qu'on fout rien C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe Descends tout d'suite, j'suis vers l'adresse, c'est moi dans l'RS7 Intérêt d'être là quand j'arrive ou j'me taille direct J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller Eh, d'moiselle, s'te plaît, t'as deux minutes ? Dis-moi si j'te dérange ou pas ? J'me taille direct Depuis t'-à l'heure, j'te look J'te look mais j'peux pas t'laisser kill comme ça C'est mort Là, j'suis un peu trop die Un tout p'tit peu, laisse-moi ton Snap, au moins Vas-y, s'te plaît On s'verra p't-être plus tard, j'delete si tu réponds pas Aye, aye, aye P'tite curly, bien gé-char, comme j'les aime trop, gars Comme j'les aime trop, gars, putain Comme j'les aime trop, gars Oh, yah J'sais qu'elle m'trouve trop beau J'sais qu'elle m'trouve trop beau, quand j'attache mes ch'veux Quand j'attache mes veux-ch' Quand j'viens d'vant son taff, avec 700 chevaux Le Merco tape à l'il Ouais, son fessier tape à l'il Woaw, c'est du .9 millimètres Vroum, du 95D Oh, baby mama Baby, baby, baby, umh, oh, baby mama Baby, baby, baby, baby, umh Un coup d'cheveux, un coup d'un soir, pas d'une longue histoire C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré On palpe des millions, ça bosse à mort, crois pas qu'on fout rien C'est un secret, t'inquiète, j'vais pas dire que j't'ai fourré Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe Descends tout d'suite, j'suis vers l'adresse, c'est moi dans l'RS7 Intérêt d'être là quand j'arrive ou j'me taille direct J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller J'connais toujours pas ton prénom mais ça va aller Xénon phares, RS3, t'inquiète pas, ça va aller Envoie ton adresse, j'arrive Mets-toi chic, faut qu'tu les choques, t'inquiète, t'es la plus bonne En streetwear et même, en robe</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SHK SHK Oh, bitch J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella Le prix du kilo de la C coûte cher, j'investis avec mon cachet d'artiste Attention, vas-y molo sur le teh, la peugheuf qui se vend peut te rendre autiste Rrain-te surveillé par hélicoptère, cagoulé dans l'entrée pour la transaction Prends Zé Pequ' et Béné en exemplaires, dans la cité, on s'croit dans un film d'action Bref, libérez les gros bras enfermés Ok, qu'ils reçoivent plus de nudes que d'mandats Oh ouais Coffré avant de ber-tom Oh ouais pour éviter qu'à la sortie, tu mendies Oh ouais, oh ouais Dans les alentours, j'rencontre, j'fais des selfies c'est mon quotidien C'est mon quotidien Zéro dans les poches, t'es con, plus jamais ça, c'est ma vie d'avant Vie d'avant You might also like Dans le spa en doggy, dans le jacuzzi jusqu'au lendemain Doggy, doggy Story privée X, c'est mon bail, j'la démonte en souriant Gang Fais-moi bander sinon, tu dégages, le Glock est sur moi, plus le temps pour la bagarre Fort, fort Fais-moi plaisir, bouge ton boule sur moi tout en harmonie comme mon flow sur les backas Oui, oui J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella La putain d'sa mère, la pute, j'suis dans des trucs louches, sa mère la pute Han, han Des centaines d'litrons de coke et y a même des mineures qui s'prostituent Koba du binks, j'suis pas trop vacances, j'préfère me déf' dans la ville, dans un gros fer Yattara m'a dit Continue comme ça et avant tes vingt-deux piges, t'es millionnaire Maintenant, j'suis dans l'truc, maintenant, j'suis dans l'truc, à quarante-milles fans, j'suis dans l'festival Pour être comme un grand, il a fallu du cran et quelques gardes-à-v' et maintenant, j'suis là Et ma mère m'a dit Il faut qu'tu t'écartes de tous ces vauriens qui veulent me la mettre À tout ceux à qui j'essaye de tendre ma main mais ils regardent les diamants qu'y a sur ma montre J'suis chez Gucci J'suis chez Gucci, Louis Vui' Louis Vui', Givenchi Givenchi Fendi quand j'ai envie Quand j'ai envie 510 chevaux, j'suis dans la Batmobile Hum, hum Il est débridé, j'monte à trois-cents facile J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella1</t>
+          <t>SHK SHK Oh, bitch J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella Le prix du kilo de la C coûte cher, j'investis avec mon cachet d'artiste Attention, vas-y molo sur le teh, la peugheuf qui se vend peut te rendre autiste Rrain-te surveillé par hélicoptère, cagoulé dans l'entrée pour la transaction Prends Zé Pequ' et Béné en exemplaires, dans la cité, on s'croit dans un film d'action Bref, libérez les gros bras enfermés Ok, qu'ils reçoivent plus de nudes que d'mandats Oh ouais Coffré avant de ber-tom Oh ouais pour éviter qu'à la sortie, tu mendies Oh ouais, oh ouais Dans les alentours, j'rencontre, j'fais des selfies c'est mon quotidien C'est mon quotidien Zéro dans les poches, t'es con, plus jamais ça, c'est ma vie d'avant Vie d'avant Dans le spa en doggy, dans le jacuzzi jusqu'au lendemain Doggy, doggy Story privée X, c'est mon bail, j'la démonte en souriant Gang Fais-moi bander sinon, tu dégages, le Glock est sur moi, plus le temps pour la bagarre Fort, fort Fais-moi plaisir, bouge ton boule sur moi tout en harmonie comme mon flow sur les backas Oui, oui J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella La putain d'sa mère, la pute, j'suis dans des trucs louches, sa mère la pute Han, han Des centaines d'litrons de coke et y a même des mineures qui s'prostituent Koba du binks, j'suis pas trop vacances, j'préfère me déf' dans la ville, dans un gros fer Yattara m'a dit Continue comme ça et avant tes vingt-deux piges, t'es millionnaire Maintenant, j'suis dans l'truc, maintenant, j'suis dans l'truc, à quarante-milles fans, j'suis dans l'festival Pour être comme un grand, il a fallu du cran et quelques gardes-à-v' et maintenant, j'suis là Et ma mère m'a dit Il faut qu'tu t'écartes de tous ces vauriens qui veulent me la mettre À tout ceux à qui j'essaye de tendre ma main mais ils regardent les diamants qu'y a sur ma montre J'suis chez Gucci J'suis chez Gucci, Louis Vui' Louis Vui', Givenchi Givenchi Fendi quand j'ai envie Quand j'ai envie 510 chevaux, j'suis dans la Batmobile Hum, hum Il est débridé, j'monte à trois-cents facile J'me fais masser par une Thaï dans les chics arrondissements Arrondissements Oh ma guapa bitch, ça va partir en finition En finition Dans l'auto, y a quatre pots, trop rapide pour l'interpellation 'pellation Police, on t'encule, système rempli d'mauvais garçons J'ai sorti skalape pour dormir sur les Champs, ma gueule J'ai sorti skalape pour dormir sur les Champs, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Avec un gros gamos comme à Dubaï, ma gueule Oh putain d'merde, il fallait qu'j'apprends l'espagnol Oh putain d'merde, il fallait qu'j'apprends l'espagnol Quarante-deux degrés, là, j'suis derrière Marbella Quarante-deux degrés, là, j'suis derrière Marbella1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ouhouh, ouhouh, ouh Hey, hey Ouhouh, ouhouh, ouh Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Je sais que tes plus nerveuse depuis qu'jai commencé la S Y'a quà toi que j'peux faire confiance, vers seize heure, descends six sachets Bébé, j'te promets des vacances mais en c'moment, au quartier, c'est chaud c'est chaud Faut que j'arrive à sortir d'la merde, te ram'ner au bord d'la mer J'reviens d'Paname, ils ont tout soul'vé, il faut qu'j'change de loc' faut qu'j'change de loc' Faut que j'aille faire la mise à jour d'la feuille de cons' d'la feuille de cons' Sans permis, au volant du Golf 7 tout blanc, toit ouvrant toit ouvrant Avec dix pièces de frappes six meujs sous l'tapis You might also like Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie J'ai sorti Clio 4 Rs et j'l'ai fait louée en balle en balle Y'a pas longtemps, j'ai barbé deux kil' de beuh, ça peut venir tirer en bas Mon reuf en mandat d'dépot s'est fait soulevé pour plus cent kilos de S Bébé, j'peux pas bouger pour l'instant donc il va falloir que t'attendes encore J'suis dans l'A3 avec des armes et de la cons' et de la cons' Dans une baraque ou dans toutes les pièces, y'a d'la dope toutes les pièces, y a d'la dope J'suis capuché dans l'auto, prêt à commettre un délit un délit Regarde c'que j'suis à défaut d'être un bandit d'être un bandit Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie3</t>
+          <t>Ouhouh, ouhouh, ouh Hey, hey Ouhouh, ouhouh, ouh Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Je sais que tes plus nerveuse depuis qu'jai commencé la S Y'a quà toi que j'peux faire confiance, vers seize heure, descends six sachets Bébé, j'te promets des vacances mais en c'moment, au quartier, c'est chaud c'est chaud Faut que j'arrive à sortir d'la merde, te ram'ner au bord d'la mer J'reviens d'Paname, ils ont tout soul'vé, il faut qu'j'change de loc' faut qu'j'change de loc' Faut que j'aille faire la mise à jour d'la feuille de cons' d'la feuille de cons' Sans permis, au volant du Golf 7 tout blanc, toit ouvrant toit ouvrant Avec dix pièces de frappes six meujs sous l'tapis Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie J'ai sorti Clio 4 Rs et j'l'ai fait louée en balle en balle Y'a pas longtemps, j'ai barbé deux kil' de beuh, ça peut venir tirer en bas Mon reuf en mandat d'dépot s'est fait soulevé pour plus cent kilos de S Bébé, j'peux pas bouger pour l'instant donc il va falloir que t'attendes encore J'suis dans l'A3 avec des armes et de la cons' et de la cons' Dans une baraque ou dans toutes les pièces, y'a d'la dope toutes les pièces, y a d'la dope J'suis capuché dans l'auto, prêt à commettre un délit un délit Regarde c'que j'suis à défaut d'être un bandit d'être un bandit Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Jfais du sale du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Jfais du sale du sale, j'fais du sale Et jcompte le bénéf', jcompte le bénéf', jcompte le bénéf' Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie Elle veut que j'la marie, marie, marie, oh, Marie3</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Layte Beats Y a du biff, y a du cash à s'faire, et nous dans la drogue j't'assure qu'on est forts C'est moi qui gère et j'en suis fier, à 250 avec les pleins phares Sur mes gardes, toujours à l'affût, je gère mon four, mon négro j'peux pas perdre la foi Non, jamais Elle a bu tout mon jus cette folle, c'est moi qui paie la chambre c'est moi qui file Nouvelle compo', nouveau flow, nouveau tampon, nouveau kill Nouveau style donc plus de vues, et vu qu'j'ai d'la peuff les autres m'envient Et c'est mieux qu'ils mettent les voiles, moi de base j'étais dans l'vol Et en vrai j'sais pas c'qu'ils veulent, mais je sais qu'c'est nous les princes de la ville On les hagar, on les cabosse, moins vulnérable depuis qu'j'encaisse Comme j'ai mis le plein dans l'carrosse, ce soir je m'endors avec des caresses Et message groupé, on m'a dit d'faire gaffe aux groupies Mon buzz grimpe, j'suis pas prêt d'lâcher la grappe Rien n'est donné, rien n'est gratuit, souris pas trop vite rien n'est acquis Laisse les croire que c'est des racailles, nous ici on sait c'est qui les bandits J'fume tellement que mon inspi' déborde, est-ce que t'es préparé ? Ça va barder Et là j'qué-bra le game à bout portant, à vos marques, un, deux, trois, prêt feu partez C'est avec mes dents que j'dégoupille, avec mon doigt que j'décapote Cette pétasse adore que j'la torture, elle s'torpille elle suce mieux que les meufs sur le trottoir J'ai dépassé tout le monde super vite, maintenant j'parle avec des mecs qui m'vouvoient J'suis toujours courtois aux rendez-vous, pour atteindre son objectif faut l'vouloir Même les anciens sont convaincus, et croient en moi savent que j'vais les vaincre Ils ont vu c'que j'avais dans l'ventre, depuis que j'me suis mis à vendre Tu sais pas à quoi r'ssemblent nos vies, c'est pas très sain mais c'est c'que j'veux J'ai dû même élever le niveau, j'ai vendu la beuh comme des côtes de veaux Et, regarde c'est nous-mêmes on décide, j'ai pas dormi j'provoque mon destin J'aime pas trop les négros qui s'désistent, et avec les salopes j'suis d'venu distant C'est toi qu'on a r'monté dans la descente, cinq minutes de plus et tu décédais Le bon Dieu voulait pas qu'j'l'achève, vu qu'y avait les condés j'ai du nachave Agressif, nerveux, méfiant, parano Parano, j'ai codé tant de gue-dro par années Par années Et dans le business, non y a pas d'ami Pas d'ami, j'peux t'fumer pour un kilo d'amné' J'ai grandi bâtard, j'suis plus un marmot Un marmot, j'démarre au quart de tour comme une marmite Comme une marmite Bientôt, j'suis dans l'trafic de mét' Eh, la plupart de leurs histoires restent des mythes Restent des mythesYou might also like1</t>
+          <t>Layte Beats Y a du biff, y a du cash à s'faire, et nous dans la drogue j't'assure qu'on est forts C'est moi qui gère et j'en suis fier, à 250 avec les pleins phares Sur mes gardes, toujours à l'affût, je gère mon four, mon négro j'peux pas perdre la foi Non, jamais Elle a bu tout mon jus cette folle, c'est moi qui paie la chambre c'est moi qui file Nouvelle compo', nouveau flow, nouveau tampon, nouveau kill Nouveau style donc plus de vues, et vu qu'j'ai d'la peuff les autres m'envient Et c'est mieux qu'ils mettent les voiles, moi de base j'étais dans l'vol Et en vrai j'sais pas c'qu'ils veulent, mais je sais qu'c'est nous les princes de la ville On les hagar, on les cabosse, moins vulnérable depuis qu'j'encaisse Comme j'ai mis le plein dans l'carrosse, ce soir je m'endors avec des caresses Et message groupé, on m'a dit d'faire gaffe aux groupies Mon buzz grimpe, j'suis pas prêt d'lâcher la grappe Rien n'est donné, rien n'est gratuit, souris pas trop vite rien n'est acquis Laisse les croire que c'est des racailles, nous ici on sait c'est qui les bandits J'fume tellement que mon inspi' déborde, est-ce que t'es préparé ? Ça va barder Et là j'qué-bra le game à bout portant, à vos marques, un, deux, trois, prêt feu partez C'est avec mes dents que j'dégoupille, avec mon doigt que j'décapote Cette pétasse adore que j'la torture, elle s'torpille elle suce mieux que les meufs sur le trottoir J'ai dépassé tout le monde super vite, maintenant j'parle avec des mecs qui m'vouvoient J'suis toujours courtois aux rendez-vous, pour atteindre son objectif faut l'vouloir Même les anciens sont convaincus, et croient en moi savent que j'vais les vaincre Ils ont vu c'que j'avais dans l'ventre, depuis que j'me suis mis à vendre Tu sais pas à quoi r'ssemblent nos vies, c'est pas très sain mais c'est c'que j'veux J'ai dû même élever le niveau, j'ai vendu la beuh comme des côtes de veaux Et, regarde c'est nous-mêmes on décide, j'ai pas dormi j'provoque mon destin J'aime pas trop les négros qui s'désistent, et avec les salopes j'suis d'venu distant C'est toi qu'on a r'monté dans la descente, cinq minutes de plus et tu décédais Le bon Dieu voulait pas qu'j'l'achève, vu qu'y avait les condés j'ai du nachave Agressif, nerveux, méfiant, parano Parano, j'ai codé tant de gue-dro par années Par années Et dans le business, non y a pas d'ami Pas d'ami, j'peux t'fumer pour un kilo d'amné' J'ai grandi bâtard, j'suis plus un marmot Un marmot, j'démarre au quart de tour comme une marmite Comme une marmite Bientôt, j'suis dans l'trafic de mét' Eh, la plupart de leurs histoires restent des mythes Restent des mythes1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Oh, oh Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base Et ça a pas changé, on les baise Strike comme au bowling J'arrive tout en Nike dans un bolide Les poucaves sont bannies, j'recompte le bénéf' quand elle s'baigne Mon enfance dans un pagne, les temps ont changé, guette mon poignet Elle sait j'matte, son boule Cette pétasse elle croit qu'elle est belle Wey, wey, maintenant, j'passe à la télé Wey, wey, j'fais que d'récup', détale M'occupe que du détail Et j'suis moins là les jours de paye En vrai, les sous du rap font que j'm'éloigne de l'illégal Et pour que je m'éloigne de l'illégal, fallait bien que j'récupère à chaque showcase Maintenant que j'récupère à chaque showcase, mes anciens ennemis veulent des dédicaces Mais ça a pas changé, moi, je les baise, Seven Binks, c'est la base Ils disent tous que j'abuse et que j'fais le mec depuis qu'j'ai du buzz Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base et ça a pas changé, on les baise You might also like Aujourd'hui, j'm'en sors, j'suis passé d'l'ombre à la lumière Arrange ton frérot, faut l'booster, pas l'allumer J'fais rentrer sa mère, enculé, moi, j'suis plus un môme Que des élastiques, nou ka fè lagen, depuis un bon moment Eh gamin, si tu savais Maman me voit plus souvent Eh gamin, si tu savais C'est plus comme avant, si seulement tu savais J'sais pas si t'as vu tous ces négros qui m'envient Pour l'avoir, faut l'vouloir, préviens si ça vient Vers là-bas ça vend et moi Dieu merci ça va Fais belek aux gyros, ton volant faut l'gérer Et préviens le gérant si t'arrives dans la zone rouge Dans l'noir, ça revend du jaune, ça revend d'la verte Ça revend d'la blanche éclairé par lumière du jour J'suis à 2-30 sur l'périph', j'peux m'faire flasher, c'est pas grave La loc' n'est pas à mon blaze, toute neuve sortie d'Europcar Et j'baraude toute la nuit avec Suge, tu sais pas combien j'la touche C'est quand t'as meilleur kush que les terrains d'à côté trichent Aujourd'hui, j'm'en sors, j'suis passé d'l'ombre à la lumière Arrange ton frérot, faut l'booster, pas l'allumer J'fais rentrer sa mère, enculé, moi, j'suis plus un môme Que des élastiques, nou ka fè lagen, depuis un bon moment Eh gamin, si tu savais Maman me voit plus souvent Eh gamin, si tu savais Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base et ça a pas changé, on les baise</t>
+          <t>Oh, oh Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base Et ça a pas changé, on les baise Strike comme au bowling J'arrive tout en Nike dans un bolide Les poucaves sont bannies, j'recompte le bénéf' quand elle s'baigne Mon enfance dans un pagne, les temps ont changé, guette mon poignet Elle sait j'matte, son boule Cette pétasse elle croit qu'elle est belle Wey, wey, maintenant, j'passe à la télé Wey, wey, j'fais que d'récup', détale M'occupe que du détail Et j'suis moins là les jours de paye En vrai, les sous du rap font que j'm'éloigne de l'illégal Et pour que je m'éloigne de l'illégal, fallait bien que j'récupère à chaque showcase Maintenant que j'récupère à chaque showcase, mes anciens ennemis veulent des dédicaces Mais ça a pas changé, moi, je les baise, Seven Binks, c'est la base Ils disent tous que j'abuse et que j'fais le mec depuis qu'j'ai du buzz Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base et ça a pas changé, on les baise Aujourd'hui, j'm'en sors, j'suis passé d'l'ombre à la lumière Arrange ton frérot, faut l'booster, pas l'allumer J'fais rentrer sa mère, enculé, moi, j'suis plus un môme Que des élastiques, nou ka fè lagen, depuis un bon moment Eh gamin, si tu savais Maman me voit plus souvent Eh gamin, si tu savais C'est plus comme avant, si seulement tu savais J'sais pas si t'as vu tous ces négros qui m'envient Pour l'avoir, faut l'vouloir, préviens si ça vient Vers là-bas ça vend et moi Dieu merci ça va Fais belek aux gyros, ton volant faut l'gérer Et préviens le gérant si t'arrives dans la zone rouge Dans l'noir, ça revend du jaune, ça revend d'la verte Ça revend d'la blanche éclairé par lumière du jour J'suis à 2-30 sur l'périph', j'peux m'faire flasher, c'est pas grave La loc' n'est pas à mon blaze, toute neuve sortie d'Europcar Et j'baraude toute la nuit avec Suge, tu sais pas combien j'la touche C'est quand t'as meilleur kush que les terrains d'à côté trichent Aujourd'hui, j'm'en sors, j'suis passé d'l'ombre à la lumière Arrange ton frérot, faut l'booster, pas l'allumer J'fais rentrer sa mère, enculé, moi, j'suis plus un môme Que des élastiques, nou ka fè lagen, depuis un bon moment Eh gamin, si tu savais Maman me voit plus souvent Eh gamin, si tu savais Avec Suge, j'baraude toute la night et l'autre pute veut j'l'attrape par ses nattes Seven Binks, c'est la base et ça a pas changé, on les baise</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eh, yeah, eh, oh Million Man Eh, ouais, j'suis dans l'vaisseau mère C'est plus rentable que dans l'bâtiment mais je sais que j'peux y r'tourner à tout moment Ouais, enculé, ouais, c'est moi qui mène C'est Koba LaD, fonce-dé au volant, mon sang devenu tout violet à cause du miel J'suis à deux doigts d'vomir, j'suis sous honey honey, je crois que j'viens d'dépasser mes limites mes limites Et déterminé depuis marmot et y a même des traces de nos dos sur les murs et regarde J'ressors de vingt-quatre heures sans dire un mot, maintenant, j'peux sortir tout seul vu qu'j'suis majeur comme un grand Et j'ai pris goût à cette vie là mais cette vie là m'a ramené jusqu'à ici jusqu'à ici On t'éliminera pour l'bénéfice pour le bénéf' et les preuves, nous, on les efface on les efface Et t'apprendras p't'-être mieux la valeur des sous en parlant affaire avec des juifs avec des feujs Et si j'participe, c'est pour gagner et bientôt, je vais piquer la place du chef la place du chef Et j'casse la démarche, les yeux plissés, donc quand j'ai besoin d'récupérer un ticket un billet Eh, j'suis fonce-dé mais j'en r'mets encore mais j'en r'mets encore J'en roule un autre, j'bois une gée-gor et j'tire une taff et j'tire une latte Deux minutes après, j'retire une taff, j'bois une autre gée-gor j'bois une autre gorgée Et j'mets mes lunettes, les ients-cli doivent pas cramer que j'suis flex que j'suis fait Eh, j'suis fonce-dé mais j'en r'mets encore mais j'en r'mets encore J'en roule un autre, j'bois une gée-gor et j'tire une taff et j'tire une latte Deux minutes après, j'retire une taff, j'bois une autre gée-gor j'bois une autre gorgée Et j'mets mes lunettes, les ients-cli doivent pas cramer que j'suis flex que j'suis faitYou might also like</t>
+          <t>Eh, yeah, eh, oh Million Man Eh, ouais, j'suis dans l'vaisseau mère C'est plus rentable que dans l'bâtiment mais je sais que j'peux y r'tourner à tout moment Ouais, enculé, ouais, c'est moi qui mène C'est Koba LaD, fonce-dé au volant, mon sang devenu tout violet à cause du miel J'suis à deux doigts d'vomir, j'suis sous honey honey, je crois que j'viens d'dépasser mes limites mes limites Et déterminé depuis marmot et y a même des traces de nos dos sur les murs et regarde J'ressors de vingt-quatre heures sans dire un mot, maintenant, j'peux sortir tout seul vu qu'j'suis majeur comme un grand Et j'ai pris goût à cette vie là mais cette vie là m'a ramené jusqu'à ici jusqu'à ici On t'éliminera pour l'bénéfice pour le bénéf' et les preuves, nous, on les efface on les efface Et t'apprendras p't'-être mieux la valeur des sous en parlant affaire avec des juifs avec des feujs Et si j'participe, c'est pour gagner et bientôt, je vais piquer la place du chef la place du chef Et j'casse la démarche, les yeux plissés, donc quand j'ai besoin d'récupérer un ticket un billet Eh, j'suis fonce-dé mais j'en r'mets encore mais j'en r'mets encore J'en roule un autre, j'bois une gée-gor et j'tire une taff et j'tire une latte Deux minutes après, j'retire une taff, j'bois une autre gée-gor j'bois une autre gorgée Et j'mets mes lunettes, les ients-cli doivent pas cramer que j'suis flex que j'suis fait Eh, j'suis fonce-dé mais j'en r'mets encore mais j'en r'mets encore J'en roule un autre, j'bois une gée-gor et j'tire une taff et j'tire une latte Deux minutes après, j'retire une taff, j'bois une autre gée-gor j'bois une autre gorgée Et j'mets mes lunettes, les ients-cli doivent pas cramer que j'suis flex que j'suis fait</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Han, han, han, han Guapo Guapo Oh, oh, oh, oh, oh Eh eh, laisse tomber les peines de cur tomber les peines de cur T'auras beau les loger, les nourrir mais bon, ils vont t'trahir dans tous les cas t'trahir dans tous les cas J'leur fais du sale alors que je sais que j'vais tout laisser mais j'sais pas quand tout laisser mais j'sais pas quand Et puis moi, comme un con, au lieu de partir en cours, j'suis parti en couilles En-encore sur l'terrain, j'espère qu'tout ira mieux demain tout ira mieux demain Mais-mais c'est pas facile, cousin, tant bien qu'mal, on s'démène évidemment Et si ça tiendrait qu'à moi, j'me serais écarté de ce truc de merde mais j'suis dedans Mais y a encore trop de monde en bas qui me demande des blocs et des vingts Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains You might also like Le plus important, c'est le tri les prières ont chassé les traîtres et j'en avais trop Le platine a enlevé mes doutes et la drogue a payé mes dettes et mon premier Audi Et quarante-cinq secondes, pas plus, une fois dedans, han Premier cambu, j'ai capté qu'le temps, c'est d'l'argent Et si ça pète, dis-moi, qui reste ? J'fume un joint quand j'suis triste J'viens d'là où même les p'tits préfèrent un 6.35 qu'une rose Ici, la confiance, ça coûte cher mais on t'nique ta mère pour r' J'viens d'là où on agit et peut-être parler après Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains</t>
+          <t>Han, han, han, han Guapo Guapo Oh, oh, oh, oh, oh Eh eh, laisse tomber les peines de cur tomber les peines de cur T'auras beau les loger, les nourrir mais bon, ils vont t'trahir dans tous les cas t'trahir dans tous les cas J'leur fais du sale alors que je sais que j'vais tout laisser mais j'sais pas quand tout laisser mais j'sais pas quand Et puis moi, comme un con, au lieu de partir en cours, j'suis parti en couilles En-encore sur l'terrain, j'espère qu'tout ira mieux demain tout ira mieux demain Mais-mais c'est pas facile, cousin, tant bien qu'mal, on s'démène évidemment Et si ça tiendrait qu'à moi, j'me serais écarté de ce truc de merde mais j'suis dedans Mais y a encore trop de monde en bas qui me demande des blocs et des vingts Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Le plus important, c'est le tri les prières ont chassé les traîtres et j'en avais trop Le platine a enlevé mes doutes et la drogue a payé mes dettes et mon premier Audi Et quarante-cinq secondes, pas plus, une fois dedans, han Premier cambu, j'ai capté qu'le temps, c'est d'l'argent Et si ça pète, dis-moi, qui reste ? J'fume un joint quand j'suis triste J'viens d'là où même les p'tits préfèrent un 6.35 qu'une rose Ici, la confiance, ça coûte cher mais on t'nique ta mère pour r' J'viens d'là où on agit et peut-être parler après Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Quatre sorties d'pot, ça chasse ça chasse Mais j'suis serein si j'me fais chasser chasser Y a d'la beuh, y a du shit, y a plein d'choses y a plein d'choses Mais cette vie-là, des fois, elle fait chier, han Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains Eh, ça ira bien mieux demain, pour l'instant, j'ai d'la drogue dans les mains</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nous tends pas la main ou bien on t'arrachera le bras Les moggos crieront 9-1, les tipères crieront Nous tends pas la main ou bien on t'arrachera le bras Wou-ouh Les moggos crieront 9-1, les tipères crieront 9-1 Nous tends pas la main ou bien on t'arrachera le bras Hey K2n, muestra que sabés hacer Les moggos crieront 9-1, les tipères crieront On a grandi dans la violence, j'ai toujours encaissé les coups Yes Tes nouveaux MCs font les gangsters une cuillère n or dans la bouche Boh, boh J'ai entendu qu'à Panam, il fait froid Il caille, les bandits récupèrent les sécu' Oui Du Charlie Delta à la Rocade, si y a heja, ça kheli l'avocat Allô ? Ils ont pas encore bien capté le mouv' Non, ils ont pas encore bien capté le mouv' Jamais J'déboule gé-char devant la foule Brr, guitarisé pour mettre un peu de groove Groove C'est devenu mé-cra, faut qu'j'm'arrache d'ici D'ici avant qu'j'pète les plombs comme Disiz Merde Trop d'diamants, j'vois plus les ffre-chi La Rollie, comme Koba LaD, j'suis affranchis Affranchis Toujours actif, j'fais bugger la SNEP comme si j'avais consulté le bout-ma Ra J'fais couler son mascara pendant la levrette, on verse pas de larmes dans goumin Pute Charo Oui, on déplace le cash et on décaisse Ah bon ?, carré VIP remplie d'négresse Ouais, négresse Tous les ans, j'ouvre un business Ouais, business, ouais, charo Ouais, ba-ba-ba-bay Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah You might also like Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens Tout l'monde se connaît dans l'secteur frangin, j'préfère caner qu'payer une amende Ah Pourtant, j'ai sac de cash coffré Ouais, si j'les décoffre, c'est pour une allemande Ouais Y a du tamien, des prix de fou De fou, des fois, des rixes en plein tieks En plein tieks Ça recharge pendant la vidéo Oh, en cavale, j'flouterais sa tête Han In To Deep comme La Comera 'mera, sale comme Nubi Ouais Toujours en full derrière caméra, au dernier étage du Nobu Binks Six coups pour faire le ménage Han on toc-toc as-p, on tré-ren Binks Adrénaline pendant l'mélage Ah, à la taurine, j'coupe mon mélange Han RER D, wagon relou, y a des chacals qui font la douane Ouais J'arrive en paix Ouais mais ils sont chelou, j'vais bientôt décharger, la tête de oi-m Han Nous c'est Blue Magic, nous c'est BMF, toujours en prise de tête avec la police Police Un automatique te laisse en PLS, alibi solide, train d'vie OG, c'est la folie, my man Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens C'est les potes à mon p'tit frère qui caillassent la BAC Ouh, Essonne-Geles, ahah Ça retourne ta ve-ca pour voler ta béc' La Rolex est fe-neu, le she-Por est fe-neu, j'récupère une recharge, j'la dépose au tit-pe Vroum, vroum, vroum Il bosse toute la journée, il m'rejoint dans la planque, je recompte, je recompte avant d'lui téj' une paye Ouh, 9-1 Les bagarres de bandes, on connaît par cur Eux, c'est des salopes, salopes, si j'sors une béquille, y a tout l'monde qui court Ces fils de pute étaient juste là par intérêt, j'vais pas t'mentir que moi aussi, j'suis là pour J'revois mon ancien manager entrain d'pleurer, de pitié, j'enlève le truc de sa bouche Aïe, aïe On surveille que les stats Les stats, j'ai calé la recharge de beuh dans l'Stunt Dans l'Stunt Toi, j'vais faire comme si tu m'excitais Sale pute, la mu'-mu' d'ici, ils font trop les chauds Ma rue J'suis sur un nouveau dossier, une baraque de fou, une voiture de sport Bay, bay J'relance mon expert comptable, j'ai b'soin du bilan de la société Maintenant Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900, tu dis ? Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens J'fais qu'rentrer, toi, t'es dans l'bain C'est l'9-1, on arrive à plein J'reviens en 911 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Capuché, casquette, quelques burchett 91 Superthugz, anti Doracell Banlieue banlieue sud, on pratique du gangsta rap LMC, la clique, okay</t>
+          <t>Nous tends pas la main ou bien on t'arrachera le bras Les moggos crieront 9-1, les tipères crieront Nous tends pas la main ou bien on t'arrachera le bras Wou-ouh Les moggos crieront 9-1, les tipères crieront 9-1 Nous tends pas la main ou bien on t'arrachera le bras Hey K2n, muestra que sabés hacer Les moggos crieront 9-1, les tipères crieront On a grandi dans la violence, j'ai toujours encaissé les coups Yes Tes nouveaux MCs font les gangsters une cuillère n or dans la bouche Boh, boh J'ai entendu qu'à Panam, il fait froid Il caille, les bandits récupèrent les sécu' Oui Du Charlie Delta à la Rocade, si y a heja, ça kheli l'avocat Allô ? Ils ont pas encore bien capté le mouv' Non, ils ont pas encore bien capté le mouv' Jamais J'déboule gé-char devant la foule Brr, guitarisé pour mettre un peu de groove Groove C'est devenu mé-cra, faut qu'j'm'arrache d'ici D'ici avant qu'j'pète les plombs comme Disiz Merde Trop d'diamants, j'vois plus les ffre-chi La Rollie, comme Koba LaD, j'suis affranchis Affranchis Toujours actif, j'fais bugger la SNEP comme si j'avais consulté le bout-ma Ra J'fais couler son mascara pendant la levrette, on verse pas de larmes dans goumin Pute Charo Oui, on déplace le cash et on décaisse Ah bon ?, carré VIP remplie d'négresse Ouais, négresse Tous les ans, j'ouvre un business Ouais, business, ouais, charo Ouais, ba-ba-ba-bay Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens Tout l'monde se connaît dans l'secteur frangin, j'préfère caner qu'payer une amende Ah Pourtant, j'ai sac de cash coffré Ouais, si j'les décoffre, c'est pour une allemande Ouais Y a du tamien, des prix de fou De fou, des fois, des rixes en plein tieks En plein tieks Ça recharge pendant la vidéo Oh, en cavale, j'flouterais sa tête Han In To Deep comme La Comera 'mera, sale comme Nubi Ouais Toujours en full derrière caméra, au dernier étage du Nobu Binks Six coups pour faire le ménage Han on toc-toc as-p, on tré-ren Binks Adrénaline pendant l'mélage Ah, à la taurine, j'coupe mon mélange Han RER D, wagon relou, y a des chacals qui font la douane Ouais J'arrive en paix Ouais mais ils sont chelou, j'vais bientôt décharger, la tête de oi-m Han Nous c'est Blue Magic, nous c'est BMF, toujours en prise de tête avec la police Police Un automatique te laisse en PLS, alibi solide, train d'vie OG, c'est la folie, my man Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens C'est les potes à mon p'tit frère qui caillassent la BAC Ouh, Essonne-Geles, ahah Ça retourne ta ve-ca pour voler ta béc' La Rolex est fe-neu, le she-Por est fe-neu, j'récupère une recharge, j'la dépose au tit-pe Vroum, vroum, vroum Il bosse toute la journée, il m'rejoint dans la planque, je recompte, je recompte avant d'lui téj' une paye Ouh, 9-1 Les bagarres de bandes, on connaît par cur Eux, c'est des salopes, salopes, si j'sors une béquille, y a tout l'monde qui court Ces fils de pute étaient juste là par intérêt, j'vais pas t'mentir que moi aussi, j'suis là pour J'revois mon ancien manager entrain d'pleurer, de pitié, j'enlève le truc de sa bouche Aïe, aïe On surveille que les stats Les stats, j'ai calé la recharge de beuh dans l'Stunt Dans l'Stunt Toi, j'vais faire comme si tu m'excitais Sale pute, la mu'-mu' d'ici, ils font trop les chauds Ma rue J'suis sur un nouveau dossier, une baraque de fou, une voiture de sport Bay, bay J'relance mon expert comptable, j'ai b'soin du bilan de la société Maintenant Binks Binks, j'fais qu'rentrer, toi, t'es dans l'bain Ah-ah, money C'est l'9-1, on arrive à plein On arrive à beaucoup, wesh Hey, han-han, j'reviens en 911 J'reviens en 900, tu dis ? Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Pa-pa-pa-pa-pa-pah Simili cuir, dégaine de shooter Han-han, 9-1 Demande à Chirac, nous, c'est le bruit et l'odeur Oh oui Y a plus d'tête à tête Non, ça t'piétine après ta fête Tiens On tolère pas la défaite, non Tiens, on tolère pas la défaite Tiens J'fais qu'rentrer, toi, t'es dans l'bain C'est l'9-1, on arrive à plein J'reviens en 911 Appelle le 17 si t'as chaud, c'est relou quand j'suis yomb Capuché, casquette, quelques burchett 91 Superthugz, anti Doracell Banlieue banlieue sud, on pratique du gangsta rap LMC, la clique, okay</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Oye Tommy, dame el fuego papi Plus p'tit, tétais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets et cest à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans lbloc Alors jtraîne tard dans l'bloc bloc, alors jtraîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors jtraîne tard dans l'bloc Ton pied, mon pied, ma mère, la tienne, la tienne, la mienne la mienne Toi et moi, on est liés, faut pas qu'le gent-ar nous sépare sépare Si c'est une salope, on l'écarte on l'écarte, personne va se mettre entre nous entre nous Et si c'est un fils de pute alors, à deux, on l'salit à deux, on l'salit Un paquet pour deux, une cons' pour deux, dix balles pour deux pour deux Même si pour manger, c'est restreint, on coupe le grec en deux J'ai l'extinct', t'as la matraque matraque, prêt à surmonter le plus dur Et il faut qu'on se serre les coudes et faut tout faire pour pas tomber tomber Est-ce que tu t'en rappelle de notre première plaquette ? À minimum 37, c'était l'tarot à l'ancienne Quand t'as pété l'mis-per, c'était l'RS qu'on louait Il croyait qu'on rigolait, c't enculé, j'ai dû l'crosser You might also like Plus p'tit, t'étais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets Oye Tommy, dame el fuego papi Et c'est à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc J'sais même pas pourquoi t'as pris la voiture volée T'es sorti avec la tasse-pé, tu sais qu'elle est grillée Tu fais des trucs d'abrutis, tu brûles des feux en plein Paris Donc y a les gyro' pendant qu'tu commences la chasse Et qu'tu finis dans un cul d'sac, la caisse est aux saisies Tout le liquide que t'avais, ta conso', la racli' aussi Même pas vingt-quatre heures après et tout juste trois heures après Descente de keufs chez l'sin-cou, on peut pas vous en dire plus Votre fils est en garde à vue Tu sais pourquoi t'es là, t'es dans une histoire de vol qui s'est déroulée la veille Est ce que tu t'en rappelle de notre première plaquette ? À minimum 37, c'était l'tarot à l'ancienne On s'était juré de tout baiser, ravitaille tour les rain-té Mais comme t'es qu'une balance, notre amitié a basculée Plus p'tit, t'étais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets Oye Tommy, dame el fuego papi Et c'est à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc1</t>
+          <t>Oye Tommy, dame el fuego papi Plus p'tit, tétais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets et cest à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans lbloc Alors jtraîne tard dans l'bloc bloc, alors jtraîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors jtraîne tard dans l'bloc Ton pied, mon pied, ma mère, la tienne, la tienne, la mienne la mienne Toi et moi, on est liés, faut pas qu'le gent-ar nous sépare sépare Si c'est une salope, on l'écarte on l'écarte, personne va se mettre entre nous entre nous Et si c'est un fils de pute alors, à deux, on l'salit à deux, on l'salit Un paquet pour deux, une cons' pour deux, dix balles pour deux pour deux Même si pour manger, c'est restreint, on coupe le grec en deux J'ai l'extinct', t'as la matraque matraque, prêt à surmonter le plus dur Et il faut qu'on se serre les coudes et faut tout faire pour pas tomber tomber Est-ce que tu t'en rappelle de notre première plaquette ? À minimum 37, c'était l'tarot à l'ancienne Quand t'as pété l'mis-per, c'était l'RS qu'on louait Il croyait qu'on rigolait, c't enculé, j'ai dû l'crosser Plus p'tit, t'étais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets Oye Tommy, dame el fuego papi Et c'est à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc J'sais même pas pourquoi t'as pris la voiture volée T'es sorti avec la tasse-pé, tu sais qu'elle est grillée Tu fais des trucs d'abrutis, tu brûles des feux en plein Paris Donc y a les gyro' pendant qu'tu commences la chasse Et qu'tu finis dans un cul d'sac, la caisse est aux saisies Tout le liquide que t'avais, ta conso', la racli' aussi Même pas vingt-quatre heures après et tout juste trois heures après Descente de keufs chez l'sin-cou, on peut pas vous en dire plus Votre fils est en garde à vue Tu sais pourquoi t'es là, t'es dans une histoire de vol qui s'est déroulée la veille Est ce que tu t'en rappelle de notre première plaquette ? À minimum 37, c'était l'tarot à l'ancienne On s'était juré de tout baiser, ravitaille tour les rain-té Mais comme t'es qu'une balance, notre amitié a basculée Plus p'tit, t'étais bien mais bon, l'argent rend bête, t'avais dix milles tes-po tous partis en fumée Comme la beuh, additionner les échecs, multiplier les billets Oye Tommy, dame el fuego papi Et c'est à cause de ton succès que tu seras jalousé Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc bloc Alors j'traîne tard dans l'bloc bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc Alors j'traîne tard dans l'bloc, alors j'traîne tard dans l'bloc1</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Un bloc, ma pièce Ça m'pose Laytebeats Ta place, ma puce Un plus, j'encaisse Pas d'acteurs, y'a pas d'actrices, peu m'importe tant qu'le terrain né-tour atroce Plus de bénéf', j'suis moins triste et la pétasse kiffe quand j'la tire par ses tresses Et j'ai plus les deks à mes trousses À l'ancienne, j'rentrais par intrusion, ouais Dieu merci, qui l'aurait cru ? Depuis, j'dépose du cash à la maison Et à cause de mon buzz, j'ai dû faire le tri Y'a pas d'barrettes entre trop donc fais pas de trou Les traitres, on les considère comme des intrus Et ceux qui manquent de couilles, on les laisse entre eux Sachent que ceux qui parlent peu sont les plus dangereux Faut qu'tu rentabilises, que tu investisses Fils de pute moi j'ai pas retourné ma veste Et quand je galère, j'm'enfume dans le bât' 7 Celui qui parle, on l'démonte Avant d'shooter, j'prends mon élan J'la reçois en gros petit à p'tit, le bloc s'finit en lamelles Le million, c'est l'minimum J'ai pas bougé, j'suis avec les miens Mon équipe est dure, est tellement dure que personne pourra m'la mettre You might also like J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM Et j'suis dans l'binks, toute la journée pour faire ma pièce Si tu perds tes couilles, bah y'a d'autres petits pour v'nir prendre ta place Et je sais qu'ma puce me rapporte plus que ma chaîne YouTube Deux fois plus de drogue, deux autres kilos, deux fois plus de thunes Mon buzz monte de plus en plus Et moi j'me suis battu pour faire ma place Ils ont l'seum depuis que j'encaisse, depuis que je baise la fille de leur mère J'avais des barrettes dans ma trousse et comme j'ai plus de biff, ils disent que je triche Et comme j'dois choisir l'une d'entre elles, sucez-moi à deux pour que mon cur tranche Fonsdé dla veille j'détaille à l'arrache, et j'vi-ser pour pas connaître la hess C'est l'terrain qui m'empêche de nahess, comment je fais pour faire rentrer plus de bénéf' ? Et, attend je roule un autre kamas Mon cur palpite quand je recompte, je recompte Je recompte, me dit que je les baise, mon seul alibi, c'est mon contrat Quand on récupère les sous, on élastique tout, on sépare les sommes Et comme j'ai pris de l'ampleur, j'me permets de prendre des plaquettes de cons' gramme Ils savent très bien qu'on encaisse et toutes les deux s'maines dans une nouvelle caisse Toute l'année vêtu en Nike, non c'est pas l'habit qui fait le moine J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM Et j'suis dans l'binks, toute la journée pour faire ma pièce Si tu perds tes couilles, bah y'a d'autres petits pour v'nir prendre ta place Et je sais qu'ma puce me rapporte plus que ma chaîne YouTube Deux fois plus de drogue, deux autres kilos, deux fois plus de thunes J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM1</t>
+          <t>Un bloc, ma pièce Ça m'pose Laytebeats Ta place, ma puce Un plus, j'encaisse Pas d'acteurs, y'a pas d'actrices, peu m'importe tant qu'le terrain né-tour atroce Plus de bénéf', j'suis moins triste et la pétasse kiffe quand j'la tire par ses tresses Et j'ai plus les deks à mes trousses À l'ancienne, j'rentrais par intrusion, ouais Dieu merci, qui l'aurait cru ? Depuis, j'dépose du cash à la maison Et à cause de mon buzz, j'ai dû faire le tri Y'a pas d'barrettes entre trop donc fais pas de trou Les traitres, on les considère comme des intrus Et ceux qui manquent de couilles, on les laisse entre eux Sachent que ceux qui parlent peu sont les plus dangereux Faut qu'tu rentabilises, que tu investisses Fils de pute moi j'ai pas retourné ma veste Et quand je galère, j'm'enfume dans le bât' 7 Celui qui parle, on l'démonte Avant d'shooter, j'prends mon élan J'la reçois en gros petit à p'tit, le bloc s'finit en lamelles Le million, c'est l'minimum J'ai pas bougé, j'suis avec les miens Mon équipe est dure, est tellement dure que personne pourra m'la mettre J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM Et j'suis dans l'binks, toute la journée pour faire ma pièce Si tu perds tes couilles, bah y'a d'autres petits pour v'nir prendre ta place Et je sais qu'ma puce me rapporte plus que ma chaîne YouTube Deux fois plus de drogue, deux autres kilos, deux fois plus de thunes Mon buzz monte de plus en plus Et moi j'me suis battu pour faire ma place Ils ont l'seum depuis que j'encaisse, depuis que je baise la fille de leur mère J'avais des barrettes dans ma trousse et comme j'ai plus de biff, ils disent que je triche Et comme j'dois choisir l'une d'entre elles, sucez-moi à deux pour que mon cur tranche Fonsdé dla veille j'détaille à l'arrache, et j'vi-ser pour pas connaître la hess C'est l'terrain qui m'empêche de nahess, comment je fais pour faire rentrer plus de bénéf' ? Et, attend je roule un autre kamas Mon cur palpite quand je recompte, je recompte Je recompte, me dit que je les baise, mon seul alibi, c'est mon contrat Quand on récupère les sous, on élastique tout, on sépare les sommes Et comme j'ai pris de l'ampleur, j'me permets de prendre des plaquettes de cons' gramme Ils savent très bien qu'on encaisse et toutes les deux s'maines dans une nouvelle caisse Toute l'année vêtu en Nike, non c'est pas l'habit qui fait le moine J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM Et j'suis dans l'binks, toute la journée pour faire ma pièce Si tu perds tes couilles, bah y'a d'autres petits pour v'nir prendre ta place Et je sais qu'ma puce me rapporte plus que ma chaîne YouTube Deux fois plus de drogue, deux autres kilos, deux fois plus de thunes J'suis dans l'bloc toute la journée pour faire ma pièce Le plus fort s'impose, si tu marques une pause bah tu perds ta place Et je sais qu'ma puce vaut plus cher qu'un iPhone Plus Grâce à ça, j'encaisse, j'encaisse, j'encaisse, j'encaisse, j'recharge ma SIM1</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Woho Laytebeats, woho Woho, woho Eh J'ai pas changé, Koba du 7 Koba du 7, du 7, woho J'ai pas retourné ma veste j'ai pas retourné ma veste J'collectionne les billets d'cinq cents billets verts Pète mon joint dans l'hélico', sur la concu', j'laisse mes cendres L'habit ne fait pas le moine, en survêt' mais j'fais rentrer comme un homme d'affaires d'affaires Maintenant, c'est moi l'aîné chez moi, j'ai fini de régler toutes les dettes de ma mère ma mère Ça sommeille ici, quatre-cinq boites par là, sur WhatsApp ou bigot avec un grossiste Ça détaille ici, ça bicrave par là et quand y a les condés, de partout ça crie pue Et ça depuis, tout petit que Deuspi m'l'avait dit C'est pas l'plus rapide mais l'plus endurant qui survit Comme j'ai augmenté le niveau, j'me défonce dans l'hélico' J'ai entendu dire à la radio que Koba, c'est quelqu'un J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et nique sa mère le jour de paye, mon chef de projet m'a dit que j'suis streamé streamé J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et regarde la montre que j'ai, c'est la Submariner qui va dans la mer You might also like J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère j'survole la ville en hélicoptère, la vie d'ma mère J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère le Mondeo peut pas m'attraper, oh non, c'est mort Woho Eh, j'vais vous dire la vérité j'vais vous dire la vérité, eh la rue n'est pas aussi simple qu'elle paraît Y a des gros bâtards, des fils de putes, des mecs qu'tu pousses, que t'as refait Qu't'as habillés, que t'as logés, que t'as nourris, qui te répondent plus Y a les pénuries, les sonnes surprises, 48 heures ou 72 heures Les gros jaloux, les moins-que-rien, les grands K.O ou les comédiens Les armes de guerre, les armes de poing, les mères qui pleurent, les guerres de terrain Ils chassent le jour, perquis' aussi, c'est dur mais pas grave, on fait avec J'ai pas quitté mon bendo, j'suis au dixième étage du septième bâtiment woho La vente de drogues contribue à nourrir ma famille sinon, d'quoi on mange ? Elle veut qu'j'arrête mais je peux pas, même si j'voudrais, bah je pourrais pas woho Comment refuser une passe ? Hein comment tu peux refuser d'l'espèce ? woho J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et nique sa mère le jour de paye, mon chef de projet m'a dit que j'suis streamé streamé J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et regarde la montre que j'ai, c'est la Submariner qui va dans la mer J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère j'survole la ville en hélicoptère, la vie d'ma mère J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère le Mondeo peut pas m'attraper, oh non, c'est mort1</t>
+          <t>Woho Laytebeats, woho Woho, woho Eh J'ai pas changé, Koba du 7 Koba du 7, du 7, woho J'ai pas retourné ma veste j'ai pas retourné ma veste J'collectionne les billets d'cinq cents billets verts Pète mon joint dans l'hélico', sur la concu', j'laisse mes cendres L'habit ne fait pas le moine, en survêt' mais j'fais rentrer comme un homme d'affaires d'affaires Maintenant, c'est moi l'aîné chez moi, j'ai fini de régler toutes les dettes de ma mère ma mère Ça sommeille ici, quatre-cinq boites par là, sur WhatsApp ou bigot avec un grossiste Ça détaille ici, ça bicrave par là et quand y a les condés, de partout ça crie pue Et ça depuis, tout petit que Deuspi m'l'avait dit C'est pas l'plus rapide mais l'plus endurant qui survit Comme j'ai augmenté le niveau, j'me défonce dans l'hélico' J'ai entendu dire à la radio que Koba, c'est quelqu'un J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et nique sa mère le jour de paye, mon chef de projet m'a dit que j'suis streamé streamé J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et regarde la montre que j'ai, c'est la Submariner qui va dans la mer J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère j'survole la ville en hélicoptère, la vie d'ma mère J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère le Mondeo peut pas m'attraper, oh non, c'est mort Woho Eh, j'vais vous dire la vérité j'vais vous dire la vérité, eh la rue n'est pas aussi simple qu'elle paraît Y a des gros bâtards, des fils de putes, des mecs qu'tu pousses, que t'as refait Qu't'as habillés, que t'as logés, que t'as nourris, qui te répondent plus Y a les pénuries, les sonnes surprises, 48 heures ou 72 heures Les gros jaloux, les moins-que-rien, les grands K.O ou les comédiens Les armes de guerre, les armes de poing, les mères qui pleurent, les guerres de terrain Ils chassent le jour, perquis' aussi, c'est dur mais pas grave, on fait avec J'ai pas quitté mon bendo, j'suis au dixième étage du septième bâtiment woho La vente de drogues contribue à nourrir ma famille sinon, d'quoi on mange ? Elle veut qu'j'arrête mais je peux pas, même si j'voudrais, bah je pourrais pas woho Comment refuser une passe ? Hein comment tu peux refuser d'l'espèce ? woho J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et nique sa mère le jour de paye, mon chef de projet m'a dit que j'suis streamé streamé J'suis dans l'R44 sa mère woho, j'suis dans l'R44 sa mère woho Et regarde la montre que j'ai, c'est la Submariner qui va dans la mer J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère j'survole la ville en hélicoptère, la vie d'ma mère J'suis plus dans l'binks j'suis plus dans l'binks, la vie d'ma mère Et j'survole la ville en hélicoptère le Mondeo peut pas m'attraper, oh non, c'est mort1</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J'lui ai volé son sac de détaille Neuf millimètres est de taille Ramène tes grands frères pédale Neuf millimètres est de taille Ouh, ah J'suis encore décalé, six heures d'avion, regarde-bien mes cernes Mes cernes Quatre villes en une semaine, j'ai trop ramassé Eh, j'ai fais quatre nuits blanches Eh J'suis en interview ou bien, en showcase, quand y a rien à faire, j'suis dans l'bâtiment Quand y a rien à faire, j'suis dans l'bâtiment Ou comme ton chocolat chaud dans une tasse blanche La vie, gamin, c'est un choix, après chacun d'tes actes, ne pense pas à reculer À reculer, wouh Y a ceux qui vont bosser pour les gens et ceux qui t'allument ta grand-mère pour un kilo J'suis à côté du quartier, d'la drogue dans mes couilles, le problème en été, c'est qu'les barrettes se collent Se collent C'est linconvénient du cellophane mais c'est beaucoup plus pratique pour pouvoir les ken Là, j'contrôle plus mes démons Mes démons quand jsens ça bave sur mes boules Sur mes boules La pute, elle puait d'la schneck, jlui ai doigté, sa mère, j'ai mis mon doigt dans sa bouche Dans sa bouche J'ai envie d'pleurer, ma gueule, moi qui croyais qu'j'allais la baiser toute la nuit Moi qui croyais qu'j'allais la baiser toute la nuit J'ai démarré l'RS et j'ai fait demi-tour Et j'ai fait demi-tour Rolex Rolex, Audemars Piguet Audemars Piguet Même si j'ai du mal à lire l'heure J'ai du mal à lire l'heure Au bigo Bigo avec mon baveux Avec mon baveux C'est pas grave si il me demande un peu trop Il m'as sauvé You might also like Putain d'merde, là, j'sors d'mon jugement sa mère Sa mère, wAllah qu'c'était chaud, sa mère Sa mère J'suis délibéré dans un mois mais la proc' a demandé du ferme, sa mère Mais bon, nique sa mère si demain, j'bé-tom, Deuspi et Dope vont m'envoyer du bédo Mais avec moi, j'ai maître Bendavid, c'est lui le roi des vices de procédures Et de temps à autre, j'suis dans l'avion J'suis dans l'avion Et de temps à autre, j'suis au tel-hô J'suis au tel-hô Et j'revends ta langue en passant par Moscou, il faut que je règle l'heure de ma tre-mon De ma tre-mon Et pour pas changer, j'suis avec Suge J'suis avec Suge, jamais dans moins d'300 chevaux 300 chevaux C'est moi qu'a braqué ton terrain, pour lui faire peur, j'ai tiré à côté d'sa joue J'suis dans l'Bâtiment 7, en vrai, rien a changé à part que j'collectionne les disques d'or Les disques d'or C'est en 2019 qu'tu t'es mis à bicrave, enculé d'ta mère, t'es en retard Ils m'font rire eux, tous bande de cons, vers chez nous, ça fait longtemps qu'ça push, sa mère Saladeurs, bâtard, mille-deux cent, tous les jours, à seize ans au GR, j'étais boss sa mère Sa mère J'ai la même carte bleue, carte bleue Bleue qu'un ministre, putain Putain, ah ouais Et j'ai le même gamos Gamos, même gamos qu'un footeux, putain Putain, ah ouais Et mon daron m'a dit M'a dit En showcase, surveille ton champagne Non Et mon fils, quand t'as l'temps T'as l'temps, faut me faire conduire ton RS Et ça va faire plus d'un an qu'j'les baise J'les baise, y a Zé, y a Shaggi, y a Gigs Y a Gigs J'suis posé à la barrière, y a Skofreu, AKH, y a toute l'équipe Un p'tit moment que j'ai capté la tech', tech', tech' nardine o mok Ramenez la ppe-f' de Namek et quoique quil arrive négro faut que tu nies J'lui ai volé son sac de détaille J'lui ai volé son sac de détaille Neuf millimètres est de taille Neuf millimètres est de taille Ramène tes grands frères pédale Comme tu fait d'habitude Neuf millimètres est de taille Neuf millimètres est de taille J'lui ai volé son sac de détaille Détaille Neuf millimètres est de taille De taille Ramène tes grands frères pédale Pédale Neuf millimètres est de taille De taille J'lui ai volé son sac de détaille Détaille Neuf millimètres est de taille De taille Ramène tes grands frères pédale Pédale Neuf millimètres est de taille De taille Poh-poh-poh-poh-poh</t>
+          <t>J'lui ai volé son sac de détaille Neuf millimètres est de taille Ramène tes grands frères pédale Neuf millimètres est de taille Ouh, ah J'suis encore décalé, six heures d'avion, regarde-bien mes cernes Mes cernes Quatre villes en une semaine, j'ai trop ramassé Eh, j'ai fais quatre nuits blanches Eh J'suis en interview ou bien, en showcase, quand y a rien à faire, j'suis dans l'bâtiment Quand y a rien à faire, j'suis dans l'bâtiment Ou comme ton chocolat chaud dans une tasse blanche La vie, gamin, c'est un choix, après chacun d'tes actes, ne pense pas à reculer À reculer, wouh Y a ceux qui vont bosser pour les gens et ceux qui t'allument ta grand-mère pour un kilo J'suis à côté du quartier, d'la drogue dans mes couilles, le problème en été, c'est qu'les barrettes se collent Se collent C'est linconvénient du cellophane mais c'est beaucoup plus pratique pour pouvoir les ken Là, j'contrôle plus mes démons Mes démons quand jsens ça bave sur mes boules Sur mes boules La pute, elle puait d'la schneck, jlui ai doigté, sa mère, j'ai mis mon doigt dans sa bouche Dans sa bouche J'ai envie d'pleurer, ma gueule, moi qui croyais qu'j'allais la baiser toute la nuit Moi qui croyais qu'j'allais la baiser toute la nuit J'ai démarré l'RS et j'ai fait demi-tour Et j'ai fait demi-tour Rolex Rolex, Audemars Piguet Audemars Piguet Même si j'ai du mal à lire l'heure J'ai du mal à lire l'heure Au bigo Bigo avec mon baveux Avec mon baveux C'est pas grave si il me demande un peu trop Il m'as sauvé Putain d'merde, là, j'sors d'mon jugement sa mère Sa mère, wAllah qu'c'était chaud, sa mère Sa mère J'suis délibéré dans un mois mais la proc' a demandé du ferme, sa mère Mais bon, nique sa mère si demain, j'bé-tom, Deuspi et Dope vont m'envoyer du bédo Mais avec moi, j'ai maître Bendavid, c'est lui le roi des vices de procédures Et de temps à autre, j'suis dans l'avion J'suis dans l'avion Et de temps à autre, j'suis au tel-hô J'suis au tel-hô Et j'revends ta langue en passant par Moscou, il faut que je règle l'heure de ma tre-mon De ma tre-mon Et pour pas changer, j'suis avec Suge J'suis avec Suge, jamais dans moins d'300 chevaux 300 chevaux C'est moi qu'a braqué ton terrain, pour lui faire peur, j'ai tiré à côté d'sa joue J'suis dans l'Bâtiment 7, en vrai, rien a changé à part que j'collectionne les disques d'or Les disques d'or C'est en 2019 qu'tu t'es mis à bicrave, enculé d'ta mère, t'es en retard Ils m'font rire eux, tous bande de cons, vers chez nous, ça fait longtemps qu'ça push, sa mère Saladeurs, bâtard, mille-deux cent, tous les jours, à seize ans au GR, j'étais boss sa mère Sa mère J'ai la même carte bleue, carte bleue Bleue qu'un ministre, putain Putain, ah ouais Et j'ai le même gamos Gamos, même gamos qu'un footeux, putain Putain, ah ouais Et mon daron m'a dit M'a dit En showcase, surveille ton champagne Non Et mon fils, quand t'as l'temps T'as l'temps, faut me faire conduire ton RS Et ça va faire plus d'un an qu'j'les baise J'les baise, y a Zé, y a Shaggi, y a Gigs Y a Gigs J'suis posé à la barrière, y a Skofreu, AKH, y a toute l'équipe Un p'tit moment que j'ai capté la tech', tech', tech' nardine o mok Ramenez la ppe-f' de Namek et quoique quil arrive négro faut que tu nies J'lui ai volé son sac de détaille J'lui ai volé son sac de détaille Neuf millimètres est de taille Neuf millimètres est de taille Ramène tes grands frères pédale Comme tu fait d'habitude Neuf millimètres est de taille Neuf millimètres est de taille J'lui ai volé son sac de détaille Détaille Neuf millimètres est de taille De taille Ramène tes grands frères pédale Pédale Neuf millimètres est de taille De taille J'lui ai volé son sac de détaille Détaille Neuf millimètres est de taille De taille Ramène tes grands frères pédale Pédale Neuf millimètres est de taille De taille Poh-poh-poh-poh-poh</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont as-p til-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets You might also like Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y'a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille On doit v'nir chez qui ? Guette la dégaine de mes chacals Y'a un pochton pour chaque, je sais qu'le critical les choque1</t>
+          <t>Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont as-p til-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y'a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille La détaille ou la débrouille Kobz' Double D la détaille ou la débrouille Kobz' Double D la détaille ou la débrouille On doit v'nir chez qui ? Guette la dégaine de mes chacals Y'a un pochton pour chaque, je sais qu'le critical les choque1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wouh Ouais, AKM c'est comment ? J'suis dans l'binks, 50K Vroum, vroum Qu'est c'que c'est trop beau la vie d'artiste et j'paie tout avec une pub' Et dire que j'ai v'-esqui d'peu, j'étais à deux doigts d'prendre des années d'ferme Et maint'nant, j'peux baiser la meuf que j'veux, sans demander son avis Pas du tout les mêmes couilles qu'avant, avant, c'était la merde, ah, si tu savais J'suis à Phuket, au bord d'la plage, elle m'masse le dos, elle m'masse les pieds J'ai la Rolex, Audemars-Piguet, sur mon bras droit, sur mon bras gauche J'suis tout en Nike, pas d'habits d'luxe, paire de TN, voiture de luxe J'suis au volant de la RR, j'ai des étoiles au-d'ssus d'ma tête Elle veut que je vienne la chercher, elle veut même piloter elle veut conduire J'enlève pas mon bluetooth, tu vas pas t'connecter c'est mort J'suis à 2.10 sur la A6, tout près Chilly, on s'fait flasher Mais Deuspi, tu vas trop vite, faut ralentir, j'fais mon flash Et ça va faire plus d'un an qu'j'les baise, Y a Zé y a Shaggy, y a Gigs Là, j'suis dans l'bâtiment 7, y a Shotas, y a Famas, y a toute l'équipe Un p'tit moment que j'ai capté la tech', tech', tech', nardinamouk Ramenez la ppe-'f de Namek et quoiqu'il arrive, négro, faut qu'tu nies You might also like Moi, j'sais c'que j'te raconte, en vrai, si tu be-tom, c'est qu't'es con c'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit j'ai l'toit ouvrant Moi, j'sais c'que j'te raconte, en vrai, si tu be-tom, c'est qu't'es con c'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit toit ouvrant J'suis dans l'RR, vaisseau spatial, y a des étoiles j'suis dans l'RR J'suis dans l'RR, vaisseau spatial, y a des étoiles J'suis dans l'RR, vaisseau spatial, y a des étoiles j'suis dans la Rolls Royce J'suis dans l'RR, vaisseau spatial, y a des étoiles, yeah yeah</t>
+          <t>Wouh Ouais, AKM c'est comment ? J'suis dans l'binks, 50K Vroum, vroum Qu'est c'que c'est trop beau la vie d'artiste et j'paie tout avec une pub' Et dire que j'ai v'-esqui d'peu, j'étais à deux doigts d'prendre des années d'ferme Et maint'nant, j'peux baiser la meuf que j'veux, sans demander son avis Pas du tout les mêmes couilles qu'avant, avant, c'était la merde, ah, si tu savais J'suis à Phuket, au bord d'la plage, elle m'masse le dos, elle m'masse les pieds J'ai la Rolex, Audemars-Piguet, sur mon bras droit, sur mon bras gauche J'suis tout en Nike, pas d'habits d'luxe, paire de TN, voiture de luxe J'suis au volant de la RR, j'ai des étoiles au-d'ssus d'ma tête Elle veut que je vienne la chercher, elle veut même piloter elle veut conduire J'enlève pas mon bluetooth, tu vas pas t'connecter c'est mort J'suis à 2.10 sur la A6, tout près Chilly, on s'fait flasher Mais Deuspi, tu vas trop vite, faut ralentir, j'fais mon flash Et ça va faire plus d'un an qu'j'les baise, Y a Zé y a Shaggy, y a Gigs Là, j'suis dans l'bâtiment 7, y a Shotas, y a Famas, y a toute l'équipe Un p'tit moment que j'ai capté la tech', tech', tech', nardinamouk Ramenez la ppe-'f de Namek et quoiqu'il arrive, négro, faut qu'tu nies Moi, j'sais c'que j'te raconte, en vrai, si tu be-tom, c'est qu't'es con c'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit j'ai l'toit ouvrant Moi, j'sais c'que j'te raconte, en vrai, si tu be-tom, c'est qu't'es con c'est qu't'es con C'est pas tout beau, tout rose, j'ai pris beaucoup d'thunes, perdu beaucoup d'potes beaucoup d'potes Faut pas qu'tu fasses la pute, quitte à prendre des coups, faut qu'tu fonces dans l'tas C'est fini l'époque où j'me levais tôt et dans mon gamos, j'peux enlever le toit toit ouvrant J'suis dans l'RR, vaisseau spatial, y a des étoiles j'suis dans l'RR J'suis dans l'RR, vaisseau spatial, y a des étoiles J'suis dans l'RR, vaisseau spatial, y a des étoiles j'suis dans la Rolls Royce J'suis dans l'RR, vaisseau spatial, y a des étoiles, yeah yeah</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Le seven binks, le seven binks Le seven binks, le seven binks Le seven binks, le seven binks Le seven binks En vrai t'avais raison de pas vouloir m'connaître J'suis d'la catégorie des négros malhonnêtes J'vends d'la drogue et j'fume, moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous, tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, compter, détaille Tu veux qu'j'arrête le business, tu veux qu'j't'arose de pétales Mais si j'laisse cette vie comment veux tu qu'j'enlève cette dalle ? Et comment j'm'habille ? l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compare pas a mes potes C'est toi que j'compte marrier mais avec eux que j'croque Prends pas la tête ce soir j'rentre tard j'récupère des sous M'envoie pas d'messages, j'éteins mon tel j'suis foncedé tu msaoules J'peut pas arrêter c'que j'fais tu m'as connu dans les affaires Chérie t'inquiète je gère, c'est ton mari qui tient la garde Non plus personne tembête N'ai pas peur j'paye les dettes Te prend pas la tête financièrement tu s'ras prête C'est plus d'temps en temps C'est plus en plus souvent Que j'me pose, j'me questionne Et j'deviens plus distant Hein si j'prend dix ans dit moi est ce que tu vas m'attendre ? M'aimeras-tu autant, prendras-tu tout mon argent ? You might also like Quand j'te regarde c'est à c'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quitte babe C'est réel j'te mens pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quitte babe C'est réel j'te ment pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash C'est plus d'temps en temps C'est d'plus en plus souvent Que j'me pose, j'me questionne Et j'deviens plus distant Hein si j'prend dix ans dit moi est-ce que tu vas m'attendre ? M'aimeras tu autant, prendras tu tout mon argent ? He, c'est d'plus en plus souvent c'est de plus en plus souvent He, que j'me pose, j'me questionne que j'me pose, j'me questionne Ouais, j'suis plus distant j'suis plus distant Si j'prends dix ans, dis moi tu vas m'attendre, hey, hey Quand j'te regarde c'est a ç'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quittes babe C'est réel j'te ment pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash Quand j'te regarde c'est a ç'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte Fais moi mes gosses et on est quittes babe Te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Dieu mer... Dieu merci, j'ai d'la chance Dans un monde de timp j'reste fidèle qu'à mon cash</t>
+          <t>Le seven binks, le seven binks Le seven binks, le seven binks Le seven binks, le seven binks Le seven binks En vrai t'avais raison de pas vouloir m'connaître J'suis d'la catégorie des négros malhonnêtes J'vends d'la drogue et j'fume, moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous, tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, compter, détaille Tu veux qu'j'arrête le business, tu veux qu'j't'arose de pétales Mais si j'laisse cette vie comment veux tu qu'j'enlève cette dalle ? Et comment j'm'habille ? l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compare pas a mes potes C'est toi que j'compte marrier mais avec eux que j'croque Prends pas la tête ce soir j'rentre tard j'récupère des sous M'envoie pas d'messages, j'éteins mon tel j'suis foncedé tu msaoules J'peut pas arrêter c'que j'fais tu m'as connu dans les affaires Chérie t'inquiète je gère, c'est ton mari qui tient la garde Non plus personne tembête N'ai pas peur j'paye les dettes Te prend pas la tête financièrement tu s'ras prête C'est plus d'temps en temps C'est plus en plus souvent Que j'me pose, j'me questionne Et j'deviens plus distant Hein si j'prend dix ans dit moi est ce que tu vas m'attendre ? M'aimeras-tu autant, prendras-tu tout mon argent ? Quand j'te regarde c'est à c'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quitte babe C'est réel j'te mens pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quitte babe C'est réel j'te ment pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash C'est plus d'temps en temps C'est d'plus en plus souvent Que j'me pose, j'me questionne Et j'deviens plus distant Hein si j'prend dix ans dit moi est-ce que tu vas m'attendre ? M'aimeras tu autant, prendras tu tout mon argent ? He, c'est d'plus en plus souvent c'est de plus en plus souvent He, que j'me pose, j'me questionne que j'me pose, j'me questionne Ouais, j'suis plus distant j'suis plus distant Si j'prends dix ans, dis moi tu vas m'attendre, hey, hey Quand j'te regarde c'est a ç'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte J'ramène les sous, fais moi mes gosses et on est quittes babe C'est réel j'te ment pas te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci, j'ai d'la chance Mais j'vis dans un monde de timp j'reste fidèle qu'à mon cash Quand j'te regarde c'est a ç'moment que je cogite Comment tu fais ? pourquoi tu restes dans mon train d'vie babe ? Pose pas d'dilemmes pour mon point d'deal direct j'te quitte Fais moi mes gosses et on est quittes babe Te fie pas a ma tchatch C'est ptêt' que des bobards, j'suis ptêt' là pour ta chatte Dieu mer... Dieu merci, j'ai d'la chance Dans un monde de timp j'reste fidèle qu'à mon cash</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J'suis l'best des best et j'en suis sûr, sûr Et quand ça tire et tire, on sait qui se replie binks J'suis H24 posé dans l'fond du 7 Pendant que j'roule mon joint, bah mes poches se remplissent On m'a dit d'donner sans rien attendre en retour en retour Et vu qu'il a khalass, bah tu l'retires tu l'retires J'la baise, j'la baise et j'la rebaise, rebaise Et comme un cain-ri j'suis r'descendu vers sa schnek Tu m'as reconnu coté passager passager, le CK, cci-Gu en argent en argent J'ai ma canette, j'ai mon joint j'ai mon joint, en moins d'un moment monsieur l'agent monsieur l'agent Ient-cli met toi sur la gauche sur la gauche, on s'enrichit grâce au Gush grâce au Gush On est v'nu pour tout gâcher tout gâcher Tu peux pas comparer, j'ai la meilleure Kush meilleur gouache J'fais plus grand chose sur mon terrain mon terrain J'suis toujours dans les alentours les alentours C'est l'argent sale qui m'a vêtu qui m'a vêtu, qui m'a nourri, crois pas j'galère dans ma tour dans ma tour C'est bon j'ai trouvé la faille trouvé la faille Il faut qu'tu triples le bénéf' le bénéf' Trouve un moyen d'gonfler tes fonds d'gonfler tes fonds Si tu vois qu'ça marche et bah tu l'refais tu l'refais You might also like On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses J'prends mon temps, non j'suis pas pressé pressé Je sais que j'suis puissant regarde mes locks poussent mes locks poussent Il en faudra toujours plus toujours plus Tu payes les sacs, l'autre demi j'te pousse jte pousse J'ai compris pourquoi ils m'envient je sais J'ai p't-être monté la barre trop haute ils ont l'seum En 4 jours j'fais le million d'vues million d'vues A c'qui parait j'ai d'jà gagné ma vie ils ont l'seum C'est mieux pour toi qu'tu t'ressaisi' ressaisi' J'ai dû arrêter l'école à 16 ans à 16 ans J'ai pensé qu'à me remplir les ches-po les ches-po Et j'fais des milliers par jour sous une jambe sous une jambe J'ravitaille et j'recompte c'est moi l'gérant c'est moi l'gérant J'vois que des nouveaux billets tous les jours tous les jours C'est l'taga' qui fait la diff' qui fait la diff' Y'a qu'le critical pour tenir un four tenir un four J'fais plus grand chose sur mon terrain mon terrain J'suis toujours dans les alentours les alentours C'est l'argent sale qui m'a vêtu qui m'a vêtu, qui m'a nourri, crois pas j'galère dans ma tour dans ma tour C'est bon j'ai trouvé la faille trouvé la faille Il faut qu'tu triple le bénéf' le bénéf' Trouve un moyen d'gonfler tes fonds d'gonfler tes fonds Si tu vois qu'ça marche et bah tu l'refais tu l'refais On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush,si t'en mets trop bah tu tousses</t>
+          <t>J'suis l'best des best et j'en suis sûr, sûr Et quand ça tire et tire, on sait qui se replie binks J'suis H24 posé dans l'fond du 7 Pendant que j'roule mon joint, bah mes poches se remplissent On m'a dit d'donner sans rien attendre en retour en retour Et vu qu'il a khalass, bah tu l'retires tu l'retires J'la baise, j'la baise et j'la rebaise, rebaise Et comme un cain-ri j'suis r'descendu vers sa schnek Tu m'as reconnu coté passager passager, le CK, cci-Gu en argent en argent J'ai ma canette, j'ai mon joint j'ai mon joint, en moins d'un moment monsieur l'agent monsieur l'agent Ient-cli met toi sur la gauche sur la gauche, on s'enrichit grâce au Gush grâce au Gush On est v'nu pour tout gâcher tout gâcher Tu peux pas comparer, j'ai la meilleure Kush meilleur gouache J'fais plus grand chose sur mon terrain mon terrain J'suis toujours dans les alentours les alentours C'est l'argent sale qui m'a vêtu qui m'a vêtu, qui m'a nourri, crois pas j'galère dans ma tour dans ma tour C'est bon j'ai trouvé la faille trouvé la faille Il faut qu'tu triples le bénéf' le bénéf' Trouve un moyen d'gonfler tes fonds d'gonfler tes fonds Si tu vois qu'ça marche et bah tu l'refais tu l'refais On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses J'prends mon temps, non j'suis pas pressé pressé Je sais que j'suis puissant regarde mes locks poussent mes locks poussent Il en faudra toujours plus toujours plus Tu payes les sacs, l'autre demi j'te pousse jte pousse J'ai compris pourquoi ils m'envient je sais J'ai p't-être monté la barre trop haute ils ont l'seum En 4 jours j'fais le million d'vues million d'vues A c'qui parait j'ai d'jà gagné ma vie ils ont l'seum C'est mieux pour toi qu'tu t'ressaisi' ressaisi' J'ai dû arrêter l'école à 16 ans à 16 ans J'ai pensé qu'à me remplir les ches-po les ches-po Et j'fais des milliers par jour sous une jambe sous une jambe J'ravitaille et j'recompte c'est moi l'gérant c'est moi l'gérant J'vois que des nouveaux billets tous les jours tous les jours C'est l'taga' qui fait la diff' qui fait la diff' Y'a qu'le critical pour tenir un four tenir un four J'fais plus grand chose sur mon terrain mon terrain J'suis toujours dans les alentours les alentours C'est l'argent sale qui m'a vêtu qui m'a vêtu, qui m'a nourri, crois pas j'galère dans ma tour dans ma tour C'est bon j'ai trouvé la faille trouvé la faille Il faut qu'tu triple le bénéf' le bénéf' Trouve un moyen d'gonfler tes fonds d'gonfler tes fonds Si tu vois qu'ça marche et bah tu l'refais tu l'refais On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush, si t'en mets trop bah tu tousses On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On détaille tout, on revend tout On les avance tous, ils nous remboursent tous Pas l'même taro pour eux tous J'ai l'meilleur teush,si t'en mets trop bah tu tousses</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'suis un gars d'la ville, ça date pas d'hier J'peux pas faire la fermeture et en même temps entrer à l'heure J'suis pas tête en l'air, j'fais rentrer des sous alors Dis-moi pourquoi t'insistes, moi j'suis d'ceux qui font pas d'siestes J'ai d'autres priorités, ouais j'ai d'autres problèmes Si j'te consacre trop d'temps, au final j'vais perdre l'argent C'est pas que j'veux pas mais j'ai pleins d'trucs à faire Et si j'le fais pas, c'est pas toi qui sera en perte Comment tu veux qu'j'm'habille comment j'mange et j'paye mon loyer J'suis obligé d'détail d'redétailler encore détail De récupérer, recompter, séparer et payer Tout ça bientôt sera fini mais j'te promet rien Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul, ouais Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul, ouais Ou ton cur va exploser You might also like D'abord écoute-moi, ne crois pas qu'j'te mens Et le mot je t'aime ne vaut rien de plus qu'une mère J'suis tout l'temps dans le bat, j'sors jamais en boite A part pour des showcases, mais prend pas mal c'est mon taff Trop souvent dehors, j'sors tôt j'rentre tard Il faut qu'tu saches que dormir c'est pour les riches J'suis désolé bébé, j'suis pas fait pour toi J'sais rien faire d'mes mains à part rouler, compter, détail J'préfère milles fois ma liasse, c'est mieux pour toi qu't'en trouves un autre C'est pas ton cul mais mon biff qui m'remet dans mon bien-être Je finis de compter, je range tout j'en roule un autre Et il n'y a que mon biff qui augmente mon bien être Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser</t>
+          <t>J'suis un gars d'la ville, ça date pas d'hier J'peux pas faire la fermeture et en même temps entrer à l'heure J'suis pas tête en l'air, j'fais rentrer des sous alors Dis-moi pourquoi t'insistes, moi j'suis d'ceux qui font pas d'siestes J'ai d'autres priorités, ouais j'ai d'autres problèmes Si j'te consacre trop d'temps, au final j'vais perdre l'argent C'est pas que j'veux pas mais j'ai pleins d'trucs à faire Et si j'le fais pas, c'est pas toi qui sera en perte Comment tu veux qu'j'm'habille comment j'mange et j'paye mon loyer J'suis obligé d'détail d'redétailler encore détail De récupérer, recompter, séparer et payer Tout ça bientôt sera fini mais j'te promet rien Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul, ouais Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul, ouais Ou ton cur va exploser D'abord écoute-moi, ne crois pas qu'j'te mens Et le mot je t'aime ne vaut rien de plus qu'une mère J'suis tout l'temps dans le bat, j'sors jamais en boite A part pour des showcases, mais prend pas mal c'est mon taff Trop souvent dehors, j'sors tôt j'rentre tard Il faut qu'tu saches que dormir c'est pour les riches J'suis désolé bébé, j'suis pas fait pour toi J'sais rien faire d'mes mains à part rouler, compter, détail J'préfère milles fois ma liasse, c'est mieux pour toi qu't'en trouves un autre C'est pas ton cul mais mon biff qui m'remet dans mon bien-être Je finis de compter, je range tout j'en roule un autre Et il n'y a que mon biff qui augmente mon bien être Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser Faut qu'tu prennes du recul, ouais Faut qu'tu prennes du recul Ou ton cur va exploser</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ah shit Wow, wow, wow, wow Ah, ouh, de bon matin, j'me lève avec un gros cul, j'ai un déjà-vu Uh Garde le sac, on veut que l'contenu, nique ta grand-mère la corrompue Uh Tu peux m'trouver sur Champ de la Couronne avec de la coke dans le Rick Owens Okay Si c'est pour être mal accompagné, laisse tomber, je préfère être schizophrène Hey, yeah À l'hôtel, j'fais des scènes obscènes mais avec ta hlel, mouah Ta bitch Pourquoi tu l'appelles ? Elle m'suçait à peine, j'ai d'la ganja californienne 'ornienne De mon bloc, j'ai le Prix Nobel Oh oui, mouah J'te renvoie ta salope en tyrolienne, la chienne Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Sauce God Sauce God, Koba LaD Ouh, ouh, Block 5, Bât' 7, Bac 12 Bad bitch Bad bitch, Penélope Cruz Yeah, police Police encore à mes trousses Yeah Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 Ah, ouh Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Brr Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 Ah, ouh Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 You might also like Et j'suis dans l'stress, sa mère la pute À cause des descentes des keufs, j'ai même plus faim, moi J'ai même plus faim, sa mère la pute La bi'-bi', ça m'a fait perdre l'appétit Sur mon lit dhôpital, j'me voyais d'jà mort mais bon, ce qui ne tue pas, ça rend plus fort Maintenant, j'ai d'l'argent qui rentre sans faire d'efforts, les voitures de sport, ça m'fait plus d'effet Et té-ma son cavu Et té-ma son cavu, sa sse-fe gauche fait toute ma tête Il est tout lisse, il est tout beau, il est tout gros, plus que parfait À mon p'tit frère À mon p'tit frère, j'lui apprends tout c'que j'ai déjà fait J'ai des grands frères mais nique sa mère, sa mère, ils m'ont rien donné Oh nan, nan Bad bitch Bad bitch, Penélope Cruz Hey, Penélope, police Police encore à mes trousses Sauce God Hey, Koba LaD Ouh, ouh, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7 Bad bitch Ouh, Penélope Cruz Yeah, police Penélope encore à mes trousses Yeah Sauce God Ah, Koba LaD, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7, ouh Bad bitch Ouh, Penélope Cruz Eh, Penélope, police encore à mes trousses Brr Sauce God Ouh, Koba LaD Ouh, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7, ah, ouh Bad bitch Ouh, Penélope Cruz, police Penélope encore à mes trousses Sauce God Ouh, Koba LaD Hey, Block 5, Bât' 7 Ouh, Bac 12 Ouh, ouh, Bât' 7, Bât' 7, Bât' 7 Ouh Block 5, Bât' 7, Bac 12 Ouh, ouh, Bât' 7, Bât' 7, Bât' 7 Ouh BAC 123</t>
+          <t>Ah shit Wow, wow, wow, wow Ah, ouh, de bon matin, j'me lève avec un gros cul, j'ai un déjà-vu Uh Garde le sac, on veut que l'contenu, nique ta grand-mère la corrompue Uh Tu peux m'trouver sur Champ de la Couronne avec de la coke dans le Rick Owens Okay Si c'est pour être mal accompagné, laisse tomber, je préfère être schizophrène Hey, yeah À l'hôtel, j'fais des scènes obscènes mais avec ta hlel, mouah Ta bitch Pourquoi tu l'appelles ? Elle m'suçait à peine, j'ai d'la ganja californienne 'ornienne De mon bloc, j'ai le Prix Nobel Oh oui, mouah J'te renvoie ta salope en tyrolienne, la chienne Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Sauce God Sauce God, Koba LaD Ouh, ouh, Block 5, Bât' 7, Bac 12 Bad bitch Bad bitch, Penélope Cruz Yeah, police Police encore à mes trousses Yeah Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 Ah, ouh Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Brr Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 Ah, ouh Bad bitch Bad bitch, Penélope Cruz, police Police encore à mes trousses Sauce God Sauce God, Koba LaD, Block 5, Bât' 7, Bac 12 Et j'suis dans l'stress, sa mère la pute À cause des descentes des keufs, j'ai même plus faim, moi J'ai même plus faim, sa mère la pute La bi'-bi', ça m'a fait perdre l'appétit Sur mon lit dhôpital, j'me voyais d'jà mort mais bon, ce qui ne tue pas, ça rend plus fort Maintenant, j'ai d'l'argent qui rentre sans faire d'efforts, les voitures de sport, ça m'fait plus d'effet Et té-ma son cavu Et té-ma son cavu, sa sse-fe gauche fait toute ma tête Il est tout lisse, il est tout beau, il est tout gros, plus que parfait À mon p'tit frère À mon p'tit frère, j'lui apprends tout c'que j'ai déjà fait J'ai des grands frères mais nique sa mère, sa mère, ils m'ont rien donné Oh nan, nan Bad bitch Bad bitch, Penélope Cruz Hey, Penélope, police Police encore à mes trousses Sauce God Hey, Koba LaD Ouh, ouh, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7 Bad bitch Ouh, Penélope Cruz Yeah, police Penélope encore à mes trousses Yeah Sauce God Ah, Koba LaD, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7, ouh Bad bitch Ouh, Penélope Cruz Eh, Penélope, police encore à mes trousses Brr Sauce God Ouh, Koba LaD Ouh, Block 5, Bât' 7, Bac 12 Bât' 7, bât' 7, bât' 7, ah, ouh Bad bitch Ouh, Penélope Cruz, police Penélope encore à mes trousses Sauce God Ouh, Koba LaD Hey, Block 5, Bât' 7 Ouh, Bac 12 Ouh, ouh, Bât' 7, Bât' 7, Bât' 7 Ouh Block 5, Bât' 7, Bac 12 Ouh, ouh, Bât' 7, Bât' 7, Bât' 7 Ouh BAC 123</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise Elle a reconnu la Mafia, connu pour de nombreux méfaits Pour pas changer j'ai l'arme à feu, pour pas changer, faut qu'tu te méfies Plus t'es différent, plus tu fascines, tu t'fais recaler comme une fille sale Les rappeurs sont en apprentissage et ta salope a fait tomber son tissage Trop violent, ça date pas d'hier, le plus fort mange une balayette Putain, une de ces balayette, j'vais pas t'raconter, fallait y être Méchant Kodes méchant, j'rabats dans l'bendo d'à côté d'à côté Et vu qu'j'suis coté, ce soir, j'vais lui briser les côtes Tu n'mérites pas mon coup de reins, j'suis à sept pour-cents, si tu veux j'fasse un effort, lahssa bien Si t'es bonne, j'fais croquer tout mon bâtiment, montre à mes gars comment tu fais la tchoin Salut, comment ça va ?, est-c'que tu t'rappelles de moi quand je n'faisais pas d'vues ? Maintenant tu m'vois sur toute les storys d'Insta', tu te penches pour que j'fasse bouger ton cavu Carrément, dans mon délire, à force de faire du lourd, j'suis grave en surpoids Réputation d'souleveur de ebony quand j'ouvre ton message, c'est pour rentrer dans ta chatte Qui veux faire ? Allez dis moi qui ? Spartiate gravement soudé comme la Mafia Koba, dis leur qu'on est débrouillard, après l'million, j'pète un gros cigare de Cuba oh ma gad' You might also like Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut Enculé, on traine jusqu'à pas d'heure pas d'heure, des liasses, des mes-ar et des dealeurs des dealeurs Impliqué dans l'réseau, j'dois sortir à 10 heures 10 heures, à 11 heures, j'dois placer les guetteurs Tout est compté, pesé pour faire bosser l'bosseur le bosseur, au diner, j'arrive jamais à l'heure jamais Dans l'rap game, j'arrive à vive allure avec un peuf' de peufra bien coffré derrière vroom vroom vroom vroom À c'qui paraît, c'est eux les vrais bandits les vrais bandits, rien n'est donné, rien n'est gratuit rien est gratuit Mais depuis que j'vis cette vie, mes anciens amis font que d'revenir ces fils de pute Et laissez-les tous croire qu'on est des cons, tu sais pas c'qu'il y a sous l'contrat sous contrat Dix-huit piges, j'ai déjà cent balles et comme consommation, j'ai un kil' de beuh un kil' de frappe Pour grossir, fais partir des kilos que d'la frappe, que du Jack Honey, pas d'Tequila que du Jack J'ai d'la cam' qui va t'faire décoller, cinq litrons détaillés, finis ça, j'vais t'payer que d'la pure Les patrons nous veulent mais moi j'veux le pactole, un pote et un paquet d'oseille avec le patron T'as pas d'couilles et dans les poches de ton pantalon, t'as zéro enfoiré T'as pas d'rond, t'as pas d'droit Laisse le shit au chaud au chaud, viens faire le con si t'est chiche t'es chiche J'suis dans l'bât' 7 si tu m'cherches tu m'cherches, mes adversaires finissent séchés Attends renoi, attends j't'explique, y a des sous à faire, il faut juste être assidu Et à la moindre perte, t'es viré aussitôt, pour ce bout de papier combien sont décédés ? Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut1</t>
+          <t>Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise Elle a reconnu la Mafia, connu pour de nombreux méfaits Pour pas changer j'ai l'arme à feu, pour pas changer, faut qu'tu te méfies Plus t'es différent, plus tu fascines, tu t'fais recaler comme une fille sale Les rappeurs sont en apprentissage et ta salope a fait tomber son tissage Trop violent, ça date pas d'hier, le plus fort mange une balayette Putain, une de ces balayette, j'vais pas t'raconter, fallait y être Méchant Kodes méchant, j'rabats dans l'bendo d'à côté d'à côté Et vu qu'j'suis coté, ce soir, j'vais lui briser les côtes Tu n'mérites pas mon coup de reins, j'suis à sept pour-cents, si tu veux j'fasse un effort, lahssa bien Si t'es bonne, j'fais croquer tout mon bâtiment, montre à mes gars comment tu fais la tchoin Salut, comment ça va ?, est-c'que tu t'rappelles de moi quand je n'faisais pas d'vues ? Maintenant tu m'vois sur toute les storys d'Insta', tu te penches pour que j'fasse bouger ton cavu Carrément, dans mon délire, à force de faire du lourd, j'suis grave en surpoids Réputation d'souleveur de ebony quand j'ouvre ton message, c'est pour rentrer dans ta chatte Qui veux faire ? Allez dis moi qui ? Spartiate gravement soudé comme la Mafia Koba, dis leur qu'on est débrouillard, après l'million, j'pète un gros cigare de Cuba oh ma gad' Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut Enculé, on traine jusqu'à pas d'heure pas d'heure, des liasses, des mes-ar et des dealeurs des dealeurs Impliqué dans l'réseau, j'dois sortir à 10 heures 10 heures, à 11 heures, j'dois placer les guetteurs Tout est compté, pesé pour faire bosser l'bosseur le bosseur, au diner, j'arrive jamais à l'heure jamais Dans l'rap game, j'arrive à vive allure avec un peuf' de peufra bien coffré derrière vroom vroom vroom vroom À c'qui paraît, c'est eux les vrais bandits les vrais bandits, rien n'est donné, rien n'est gratuit rien est gratuit Mais depuis que j'vis cette vie, mes anciens amis font que d'revenir ces fils de pute Et laissez-les tous croire qu'on est des cons, tu sais pas c'qu'il y a sous l'contrat sous contrat Dix-huit piges, j'ai déjà cent balles et comme consommation, j'ai un kil' de beuh un kil' de frappe Pour grossir, fais partir des kilos que d'la frappe, que du Jack Honey, pas d'Tequila que du Jack J'ai d'la cam' qui va t'faire décoller, cinq litrons détaillés, finis ça, j'vais t'payer que d'la pure Les patrons nous veulent mais moi j'veux le pactole, un pote et un paquet d'oseille avec le patron T'as pas d'couilles et dans les poches de ton pantalon, t'as zéro enfoiré T'as pas d'rond, t'as pas d'droit Laisse le shit au chaud au chaud, viens faire le con si t'est chiche t'es chiche J'suis dans l'bât' 7 si tu m'cherches tu m'cherches, mes adversaires finissent séchés Attends renoi, attends j't'explique, y a des sous à faire, il faut juste être assidu Et à la moindre perte, t'es viré aussitôt, pour ce bout de papier combien sont décédés ? Million d'vues mais j'suis toujours dans l'binks Et showcase vaut mieux qu'un match de boxe On s'déplace si y en a minimum dix La 'teille de miel pour que j'tise C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut C'est cette vie là, c'est cette vie, c'est cette vie là, c'est cette vie C'est cette vie là, c'est cette vie, c'est cette vie là qu'tout l'monde veut1</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Laytebeats Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Ouais, yeah, yeah, yeah, yeah, yeah J'démarre J'démarre, j'décapote avec un spuff' de ppe-fra bien coffré derrière Ouh J'avance J'avance, j'perds des potes mais malgré tout ça, mon frère, je perds pas le Nord Ouh On se mélangera jamais avec eux Ouh, mon p'tit doigt m'a dit que dans très peu d'temps, c'est nous wouh Comme j'fais des millions d'vues, elle veut l'anneau Ouh, j'ai ramassé des sous, en même temps, des ennuis Ouh J'suis flex dans l'RS3 RS3, tout noir, toit ouvrant Ouvrant Et vu que je fais mieux qu'eux, j'té-ma leurs vues et j'me moque Moque Et nardinomouk 'mouk, j'ai les yeux rouges, nacrés Nacrés Je sais que j'les nique, j'les re-nique avec la niaque Niaque Mais dis-moi, qu'est-ce tu veux qu'on fasse, à part faire entrer plus de bénéfice ? Bénéfice Attention, quoiqu'tu fasses, faut toujours coffrer ta drogue dans tes fesses Dans tes fesses Bellek aux amis d'enfance, tu sais pas, ça s'trouve, c'est lui qui t'enfonce Qui t'enfonce Faut toujours donner la force et si y a lopportunité, tu fonces Eh, enculés, enculés, enculés Kodes, Kodes la B Kodes la B J'signe un contrat, j'machète un flingue et des habits Et des habits Il fait croire, on sait qu'il en a pas Non, j'fais l'malin, j'lui pose un lapin Bang, bang Elle a reconnu la Mafia, en Gucci des Gucci, comme d'hab', j'enfume l'appart', ban-ban-bang You might also like Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7 bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks J'démarre la bécane pour faire du sale, le Glock risque pas de s'enrailler J'té-ma son vu-ca, je pense qu'on va pas tarder à s'en lasser Appelez des renforts car les collègue se mangent des pavés T'as pas vu ces bavons en bavette ? Je m'en vais, Jack Honey dans l'rre-ve, des billets, je revis Le roi 2-Zé 2zé, j'push depuis douze ans Douze ans J'ai bien dosé, le pocheton avec feuille de cana pour le design Design Maintenant, j't'assure J't'assure, écouté par ta sur Ta sur Je sors les kalashs' pour régner, j'vais t'fumer, je serais la cause de ton sort Salope Enchanté, moi, c'est Bobo' du Seven, j'fais partie du coté d'la Dalle où cest ténébreux Vous êtes validés sur le net, validé par vos nanas, grâce à ma queue Carrément, carrément, gang, j'ai signé un pacte avec celle qu'a le plus gros cul Yeah, yeah Fogo, fogo, fogo, yeah, yeah Yeah, yeah, yeah, yeah, tu peux t'foutre à poil si t'as la carrure Vous pouvez remercier notre bâtiment, pour être fort, on a pas fait de magie noire Les forces de l'ordre veulent nous prendre en guet-apens, donc avant l'jugement, j'me taperais une magistrale Moi, j'sais c'que j'te raconte, en vrai si ou pa ka sucé, cest qu't'es conne Oh, nan, nan Depuis que j'bouge mes locks, mes groupies veulent s'agripper à mon cône Yeah, yeah, yeah, yeah Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7 bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks1</t>
+          <t>Laytebeats Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Ouais, yeah, yeah, yeah, yeah, yeah J'démarre J'démarre, j'décapote avec un spuff' de ppe-fra bien coffré derrière Ouh J'avance J'avance, j'perds des potes mais malgré tout ça, mon frère, je perds pas le Nord Ouh On se mélangera jamais avec eux Ouh, mon p'tit doigt m'a dit que dans très peu d'temps, c'est nous wouh Comme j'fais des millions d'vues, elle veut l'anneau Ouh, j'ai ramassé des sous, en même temps, des ennuis Ouh J'suis flex dans l'RS3 RS3, tout noir, toit ouvrant Ouvrant Et vu que je fais mieux qu'eux, j'té-ma leurs vues et j'me moque Moque Et nardinomouk 'mouk, j'ai les yeux rouges, nacrés Nacrés Je sais que j'les nique, j'les re-nique avec la niaque Niaque Mais dis-moi, qu'est-ce tu veux qu'on fasse, à part faire entrer plus de bénéfice ? Bénéfice Attention, quoiqu'tu fasses, faut toujours coffrer ta drogue dans tes fesses Dans tes fesses Bellek aux amis d'enfance, tu sais pas, ça s'trouve, c'est lui qui t'enfonce Qui t'enfonce Faut toujours donner la force et si y a lopportunité, tu fonces Eh, enculés, enculés, enculés Kodes, Kodes la B Kodes la B J'signe un contrat, j'machète un flingue et des habits Et des habits Il fait croire, on sait qu'il en a pas Non, j'fais l'malin, j'lui pose un lapin Bang, bang Elle a reconnu la Mafia, en Gucci des Gucci, comme d'hab', j'enfume l'appart', ban-ban-bang Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7 bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks J'démarre la bécane pour faire du sale, le Glock risque pas de s'enrailler J'té-ma son vu-ca, je pense qu'on va pas tarder à s'en lasser Appelez des renforts car les collègue se mangent des pavés T'as pas vu ces bavons en bavette ? Je m'en vais, Jack Honey dans l'rre-ve, des billets, je revis Le roi 2-Zé 2zé, j'push depuis douze ans Douze ans J'ai bien dosé, le pocheton avec feuille de cana pour le design Design Maintenant, j't'assure J't'assure, écouté par ta sur Ta sur Je sors les kalashs' pour régner, j'vais t'fumer, je serais la cause de ton sort Salope Enchanté, moi, c'est Bobo' du Seven, j'fais partie du coté d'la Dalle où cest ténébreux Vous êtes validés sur le net, validé par vos nanas, grâce à ma queue Carrément, carrément, gang, j'ai signé un pacte avec celle qu'a le plus gros cul Yeah, yeah Fogo, fogo, fogo, yeah, yeah Yeah, yeah, yeah, yeah, tu peux t'foutre à poil si t'as la carrure Vous pouvez remercier notre bâtiment, pour être fort, on a pas fait de magie noire Les forces de l'ordre veulent nous prendre en guet-apens, donc avant l'jugement, j'me taperais une magistrale Moi, j'sais c'que j'te raconte, en vrai si ou pa ka sucé, cest qu't'es conne Oh, nan, nan Depuis que j'bouge mes locks, mes groupies veulent s'agripper à mon cône Yeah, yeah, yeah, yeah Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7 bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Seven, seven, blow Le cartel du 7, bienvenue dans le bâtiment Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks, le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks Sept, Seven Binks Le Seven Binks1</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Te-ma la prod mon vieux, te-ma la prod mon vieux Solide comme Big Dopé Et vu qu'j'ai été assidu, aujourd'hui je récolte tout ce que j'ai semé Passer de l'ombre à la lumière c'est comme si tu passais du gramme au kilo Et c'est les syllabes qu'on manie J'me permet de défier la concu' à main nue Et non l'habit fait pas le moine, et à chercher les sous, j'en ai fais ma réput' Depuis que j'rappe, elle s'attache J'veux plus connaître le banc d'touche C'est moi qu'a le meilleur teush' J'ai celui qui s'effrite que quand tu l'touches Avant de descendre elle attache Et près des boules, ça m'chatouille Et vu que je suis rabat' sous l'flash Sans faire exprès, j'lui ai léché la chatte T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek You might also like Y'a pas d'repos pour les vrais gars Et dans l'parking, y'a mes brigands Et aucun d'ma bande n'a grandi gaté J'ai connu très tard le goût du gâteau On a fait du sale et du cello' Avec du travail et grâce au cielo À la base c'était pour le terrain Depuis que j'ai signé, ils ont tous le seum Vérifie avant qu'tu t'confies J't'assure que parmi les vrais y'a les faux Y'a ceux qui nient tout pour deux ans piges fermes Et puis t'en as d'autres qui avouent les faits Regardes c'est mon blaze tout en haut d'l'affiche C'est moi qu'affole la foule Bénéf, bénéf, 09 C'est la qualité qui fait la diff' Vu que tout s'vend, tout s'achète Change et rechange de cachette C'est toujours mieux d'payer cash T'auras moins de problèmes si tu perds quelqu'chose La meilleure déf' c'est l'attaque C'est moi qu'a la meilleure tech' Regarde j'ai capté le truc Et bientôt le p'tit mec va devenir roi Et vu qu'j'ai été assidu, aujourd'hui je récolte tout ce que j'ai semé Passer de l'ombre à la lumière c'est comme si tu passais du gramme au kilo Et c'est les syllabes qu'on manie J'me permet de défier la concu' à main nue Et non l'habit fait pas le moine, et à chercher les sous, j'en ai fais ma réput' Depuis que j'rappe, elle s'attache J'veux plus connaître le banc d'touche C'est moi qui a le meilleur teush' J'ai celui qui s'effrite que quand tu l'touches Avant de descendre elle attache Et près des boules, ça m'chatouille Et vu que je suis rabat' sous l'flash Sans faire exprès, j'lui ai léché la chatte T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek</t>
+          <t>Te-ma la prod mon vieux, te-ma la prod mon vieux Solide comme Big Dopé Et vu qu'j'ai été assidu, aujourd'hui je récolte tout ce que j'ai semé Passer de l'ombre à la lumière c'est comme si tu passais du gramme au kilo Et c'est les syllabes qu'on manie J'me permet de défier la concu' à main nue Et non l'habit fait pas le moine, et à chercher les sous, j'en ai fais ma réput' Depuis que j'rappe, elle s'attache J'veux plus connaître le banc d'touche C'est moi qu'a le meilleur teush' J'ai celui qui s'effrite que quand tu l'touches Avant de descendre elle attache Et près des boules, ça m'chatouille Et vu que je suis rabat' sous l'flash Sans faire exprès, j'lui ai léché la chatte T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek Y'a pas d'repos pour les vrais gars Et dans l'parking, y'a mes brigands Et aucun d'ma bande n'a grandi gaté J'ai connu très tard le goût du gâteau On a fait du sale et du cello' Avec du travail et grâce au cielo À la base c'était pour le terrain Depuis que j'ai signé, ils ont tous le seum Vérifie avant qu'tu t'confies J't'assure que parmi les vrais y'a les faux Y'a ceux qui nient tout pour deux ans piges fermes Et puis t'en as d'autres qui avouent les faits Regardes c'est mon blaze tout en haut d'l'affiche C'est moi qu'affole la foule Bénéf, bénéf, 09 C'est la qualité qui fait la diff' Vu que tout s'vend, tout s'achète Change et rechange de cachette C'est toujours mieux d'payer cash T'auras moins de problèmes si tu perds quelqu'chose La meilleure déf' c'est l'attaque C'est moi qu'a la meilleure tech' Regarde j'ai capté le truc Et bientôt le p'tit mec va devenir roi Et vu qu'j'ai été assidu, aujourd'hui je récolte tout ce que j'ai semé Passer de l'ombre à la lumière c'est comme si tu passais du gramme au kilo Et c'est les syllabes qu'on manie J'me permet de défier la concu' à main nue Et non l'habit fait pas le moine, et à chercher les sous, j'en ai fais ma réput' Depuis que j'rappe, elle s'attache J'veux plus connaître le banc d'touche C'est moi qui a le meilleur teush' J'ai celui qui s'effrite que quand tu l'touches Avant de descendre elle attache Et près des boules, ça m'chatouille Et vu que je suis rabat' sous l'flash Sans faire exprès, j'lui ai léché la chatte T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek T'as reconnu Koba du 7 Si t'es sale, on touche pas ta schnek</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Junior Alaprod, zanmi Oh Ouh, ouh, eh, eh, eh Y a pas d'patron dans la Calle Dans la Calle mais y a des couilles Ouh, oh J'arrive dans l'hôtel, j'détaille un kil' Un kil', gros, vers minuit, j'me taille Ouh, oh Avec une tain-p', claire, cheveux lissés ou curly mais un gros cul Gros cul Nique sa mère l'corona, les showcases Ah, on s'refait dans la drogue On s'refait Oh sa mère, c'est qu'du matériel, je casse, j'achète un autre Un autre J'suis à 200 en quatre secondes, j'me touche le front, j'suis plus d'ce monde Elle m'suce la bite, j'sens plus mon cur Psch, psch, psch, j'crois qu'j'ai fait trop d'ballons Grinta Records, on gère le bail, pourcentages élevés sur l'contrat Bye, bye, bye, bye, bye, bye C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon You might also like Ouais, ouais, j'ai jamais bandé sur le délire Amérique Non, non J'ai connu la hess, j'me sens bien dans un jean Amiri Ou dans un survêt' Gucci, gros, flex Jalouse pas sur nous, gros, tout c'qu'on a, on mérite Ouais, ouais D'abord, j'agis, après, je médite Ouh, j'entends concu' crier mayday Arriba, arriba, arri', ocho À quatre sur un mafé Ouh, à deux sur un T-MAX, un qui tient l'arme à feu Grrah Précision parfaite ouh, SDM, cent moins huit aka Draco Malfoy Ocho De la frappe qui se tord Ouh, des ients-cli qui s'étonnent Ouh Plus j'avance, plus j'ai le bras qui se tend Ouh, ouh, ouh, ouh, ouh Koba, G2, SDM, donc tu sais que y a du sale qui se trame Ocho C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Liasses de billets dans l'sac-à-dos Hermès C'est fort My G, que des vrais négros qui pè-pèsent Ça flingue C'est fort, j'réveille les tanasses, c'est pas petit boucan J'arrive à te bloquer, Glocker comme un Chicas Ah, ah Sous Chivas, j'la ramène, tu sais que c'est piquant Mmh, mmh, putain, les baiser, c'est kiffant My G Ok, j'dors sur les Champs Élysées Visite ma suite, elle est grande comme Disney Ouh, paw J'lui mets trois coups, j'suis épuisé J'me rajoute un fond d'tise, pour investir, j'ai pas b'soin qu'on cotise Jojo, Jojo Donc arrête tes sottises Yo Y a pas qu'toi qui veut Ah, patiente juste un peu Ah Massa, pilon, beuh Ah, je te crache du feu Jojo, Jojo Jojo, Jojo Le Coco Jojo, ah, ah, Jojo, Jojo C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Han, han, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Oh, oh, oh, oh On tue ça, tue ça, tu sais Oh, oh, oh, oh On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais1</t>
+          <t>Junior Alaprod, zanmi Oh Ouh, ouh, eh, eh, eh Y a pas d'patron dans la Calle Dans la Calle mais y a des couilles Ouh, oh J'arrive dans l'hôtel, j'détaille un kil' Un kil', gros, vers minuit, j'me taille Ouh, oh Avec une tain-p', claire, cheveux lissés ou curly mais un gros cul Gros cul Nique sa mère l'corona, les showcases Ah, on s'refait dans la drogue On s'refait Oh sa mère, c'est qu'du matériel, je casse, j'achète un autre Un autre J'suis à 200 en quatre secondes, j'me touche le front, j'suis plus d'ce monde Elle m'suce la bite, j'sens plus mon cur Psch, psch, psch, j'crois qu'j'ai fait trop d'ballons Grinta Records, on gère le bail, pourcentages élevés sur l'contrat Bye, bye, bye, bye, bye, bye C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Ouais, ouais, j'ai jamais bandé sur le délire Amérique Non, non J'ai connu la hess, j'me sens bien dans un jean Amiri Ou dans un survêt' Gucci, gros, flex Jalouse pas sur nous, gros, tout c'qu'on a, on mérite Ouais, ouais D'abord, j'agis, après, je médite Ouh, j'entends concu' crier mayday Arriba, arriba, arri', ocho À quatre sur un mafé Ouh, à deux sur un T-MAX, un qui tient l'arme à feu Grrah Précision parfaite ouh, SDM, cent moins huit aka Draco Malfoy Ocho De la frappe qui se tord Ouh, des ients-cli qui s'étonnent Ouh Plus j'avance, plus j'ai le bras qui se tend Ouh, ouh, ouh, ouh, ouh Koba, G2, SDM, donc tu sais que y a du sale qui se trame Ocho C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Liasses de billets dans l'sac-à-dos Hermès C'est fort My G, que des vrais négros qui pè-pèsent Ça flingue C'est fort, j'réveille les tanasses, c'est pas petit boucan J'arrive à te bloquer, Glocker comme un Chicas Ah, ah Sous Chivas, j'la ramène, tu sais que c'est piquant Mmh, mmh, putain, les baiser, c'est kiffant My G Ok, j'dors sur les Champs Élysées Visite ma suite, elle est grande comme Disney Ouh, paw J'lui mets trois coups, j'suis épuisé J'me rajoute un fond d'tise, pour investir, j'ai pas b'soin qu'on cotise Jojo, Jojo Donc arrête tes sottises Yo Y a pas qu'toi qui veut Ah, patiente juste un peu Ah Massa, pilon, beuh Ah, je te crache du feu Jojo, Jojo Jojo, Jojo Le Coco Jojo, ah, ah, Jojo, Jojo C'est nous les meilleurs dans la vente La stup' Dans ma sacoche, du rouge et bleu Baw On tue ça, tue ça, tu sais Han, han, ah bon On tue ça, tue ça, tu sais Ah bon D'la monnaie, on en fait dans l'bloc J'ai arraché mes cloques à cause du Glock On tue ça, tue ça, tu sais Ah, ah, ah bon On tue ça, tue ça, tu sais Ah bon Oh, oh, oh, oh On tue ça, tue ça, tu sais Oh, oh, oh, oh On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais On tue ça, tue ça, tu sais1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ouh Ouh Bellek track Aïe ah, aïe ah, aïe, aïe, aïe, aïe Les mains sales comme les geôles du central Les galères viennent toutes en même temps, on dirait qu'elles parlent entre elles Pas ici qu'tu parles d'entraide ouh, ça t'fait des coups d'pute en scred ouh Voiture chargée, rien n'est caché, j'suis d'vant la BAC en stress Donc j'me casse en vitesse, poursuite dans les rues d'Roubaix J'prends deux-trois sens interdits, gauche-droite, ils peuvent plus m'trouver J'ai trop eu les poches trouées donc j'ai pas les mains trouées De cicatrices, j'suis tatoué, t'étonne pas qu'j'sois doué Un million pour mes gars, ça suffit pas ça suffit pas Y a des choses qui s'pardonnent, qui s'oublient pas Elle m'dit qu'j'suis pas fidèle comme un briquet sale pute Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part You might also like Moi, cette pute de chance me sourit à l'envers J'sais plus trop si c'est l'il des gens, en tout cas, j'ai cartonne l'RS l'RS tres Plein d'zéros dans l'compte mais j'suis dans l'binks Si j'veux, j'emménage sur les Champs mais j'préfère les barbec' du tieks C'est moi à midi pile mais j'suis plus là si y a les bleus si y a les keufs J'suis dans l'BM, j'passe les rapports avec la boule À l'hôtel avec une chienne, ma sacoche, j'l'emmène dans les chiottes dans les chiottes Elle peut m'voler, j'la garde sur moi même si c'est chiant même si ça m'gêne Mon reuf, on parle ce soir, là, j'ai pas l'temps, faut qu'j'taille en balle En c'moment, le four débite, j'sors un album fin d'cet été Toi, tu crois qu'la vie est belle, viens voir les dessous du métier Ils viennent de saisir ma caisse, c'est ma belle-sur qu's'est fait péter Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part Wesh Koba, à Roubaix, il fait gris comme à Évry Il leur arrive rien d'bon, normal, ils sont aigris Ici, si on construit un empire sur des débris Pleure sur des cadavres, rarement acquittés Avenir inquiétant mais j'compte que sur Dieu pour m'aider Quand j'pense aux billets de tous ces clients C'est tellement dur de n'pas céder De pas craquer, sa mère la pute Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part</t>
+          <t>Ouh Ouh Bellek track Aïe ah, aïe ah, aïe, aïe, aïe, aïe Les mains sales comme les geôles du central Les galères viennent toutes en même temps, on dirait qu'elles parlent entre elles Pas ici qu'tu parles d'entraide ouh, ça t'fait des coups d'pute en scred ouh Voiture chargée, rien n'est caché, j'suis d'vant la BAC en stress Donc j'me casse en vitesse, poursuite dans les rues d'Roubaix J'prends deux-trois sens interdits, gauche-droite, ils peuvent plus m'trouver J'ai trop eu les poches trouées donc j'ai pas les mains trouées De cicatrices, j'suis tatoué, t'étonne pas qu'j'sois doué Un million pour mes gars, ça suffit pas ça suffit pas Y a des choses qui s'pardonnent, qui s'oublient pas Elle m'dit qu'j'suis pas fidèle comme un briquet sale pute Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part Moi, cette pute de chance me sourit à l'envers J'sais plus trop si c'est l'il des gens, en tout cas, j'ai cartonne l'RS l'RS tres Plein d'zéros dans l'compte mais j'suis dans l'binks Si j'veux, j'emménage sur les Champs mais j'préfère les barbec' du tieks C'est moi à midi pile mais j'suis plus là si y a les bleus si y a les keufs J'suis dans l'BM, j'passe les rapports avec la boule À l'hôtel avec une chienne, ma sacoche, j'l'emmène dans les chiottes dans les chiottes Elle peut m'voler, j'la garde sur moi même si c'est chiant même si ça m'gêne Mon reuf, on parle ce soir, là, j'ai pas l'temps, faut qu'j'taille en balle En c'moment, le four débite, j'sors un album fin d'cet été Toi, tu crois qu'la vie est belle, viens voir les dessous du métier Ils viennent de saisir ma caisse, c'est ma belle-sur qu's'est fait péter Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part Wesh Koba, à Roubaix, il fait gris comme à Évry Il leur arrive rien d'bon, normal, ils sont aigris Ici, si on construit un empire sur des débris Pleure sur des cadavres, rarement acquittés Avenir inquiétant mais j'compte que sur Dieu pour m'aider Quand j'pense aux billets de tous ces clients C'est tellement dur de n'pas céder De pas craquer, sa mère la pute Certains jouent du violon, d'autres d'la guitare Poursuite, ça cavale vite comme des guépards Elle m'dit qu'j'suis pas fidèle comme un briquet Qui fait toutes les poches de la cité Même quand c'est pas d'la ppe-f', y a tout qui part Des millions d'auditeurs mais j'suis dans l'binks Tu veux d'la zep dans l'Nord ? Y a ZKR Une croix pour trouver le juste milieu Ça visser grave de tous les côtés Même quand c'est pas d'la ppe-f', y a tout qui part</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fuck i'ts Eh Là, cest l'G, RK, Koba LaD, mode avion, j'parle après Oh, jquitte le binks Numéro un d'entrée, saute pas où t'as pas pied En 0-9-6 Direction ton nez, elles partent, tes cellophanées Oh, si ça pète J'finis condamné, poukie j'te monte en l'air Et d'un coup, j'alterne, on est gantés Pah, pah, on fait du rap et des affaires à côté Jai raté ltrain, j'reviens sur un refrain, jai fermé le terrain juste avant les condés Salut, mon vieux, tu m'reconnais ? J'visser d'hiver en été Jpasse mes soirées à recompter, eh, la putain d'ta mère, on l'a fait en indé Aïe, aïe, aïe J'perds un kilo d'herbe, nique sa mère, on le récupère On est ensemble, les kheys, j'perds du biff, j'reprends en showcase On est vrai de vrai, une bastos en cache une deuxième Tellement insolent, sourire aux lèvres, broliqué sur ta scène Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah You might also like Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah D'la moula, d'la moula, d'la moula, d'la moula La moula Faut qu'le commerce tourne comme un moulin, faut qu'tu sois malin, si t'as l'occas', mets-lui Mets-lui Avant d'pochtonner, pèse les lamelles, y a rien d'mieux que le miel et l'Audi quatre anneaux L'anneaux Maintenant, c'est moi l'patron, c'est moi l'aîné, j'augmente le niveau et j'accueille les nouveaux Et j'recompte dans le RS3 tout noir, toit ouvrant Ouvert Quand j'm'arrête au feu rouge, j'crame une clope, j'ouvre la fenêtre Complètement khabat au volant, j'ai bossé, j'ai rien volé Et numéro uno, c'est c'que Dieu a voulu Dix millions d'vues sur ma chaîne et j'suis toujours dans l'bât' Dans l'fond du 7 La plupart d'mes ennemis savent très bien où j'habite Là où j'crêche Et pour pas changer, fonce-dé dans l'50k Avec RK pour l'frérot GLK, on vous offre des 10 balles Et c'est gratuit Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah J'suis l'p'tit à personne, moi, j'rentabilise chaque mois Le flingue dans l'armoire, bédo calé pour le parloir Même si t'es armé, baraqué, fait d'la D T'inquiète pas, y a les outils et dans l'appart', y a environ dix-milles Les p'tits et les salopes tirent, on est dans l'actu L'entends-tu ? Dis-nous quand ça tire C'est pas que sur YouTube, dix mois tuent M'as-tu vu ? Zénith, plus de garde-à-vue J'suis avec patron du four, toi, t'as mon âge, t'es à l'affût Moula, moula, moula, moula, bah, visière teintée, tu n'me verras pas Plus d'mis-per, j'm'arrête pas, ceux qu'tu suces, c'est ceux qu'on bat J'veux ma part pile à l'heure, il t'a barbé ? Oh, la, la Rafale-le et basta-ta-ta-ta Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah Pah, pah, pah, pah</t>
+          <t>Fuck i'ts Eh Là, cest l'G, RK, Koba LaD, mode avion, j'parle après Oh, jquitte le binks Numéro un d'entrée, saute pas où t'as pas pied En 0-9-6 Direction ton nez, elles partent, tes cellophanées Oh, si ça pète J'finis condamné, poukie j'te monte en l'air Et d'un coup, j'alterne, on est gantés Pah, pah, on fait du rap et des affaires à côté Jai raté ltrain, j'reviens sur un refrain, jai fermé le terrain juste avant les condés Salut, mon vieux, tu m'reconnais ? J'visser d'hiver en été Jpasse mes soirées à recompter, eh, la putain d'ta mère, on l'a fait en indé Aïe, aïe, aïe J'perds un kilo d'herbe, nique sa mère, on le récupère On est ensemble, les kheys, j'perds du biff, j'reprends en showcase On est vrai de vrai, une bastos en cache une deuxième Tellement insolent, sourire aux lèvres, broliqué sur ta scène Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah D'la moula, d'la moula, d'la moula, d'la moula La moula Faut qu'le commerce tourne comme un moulin, faut qu'tu sois malin, si t'as l'occas', mets-lui Mets-lui Avant d'pochtonner, pèse les lamelles, y a rien d'mieux que le miel et l'Audi quatre anneaux L'anneaux Maintenant, c'est moi l'patron, c'est moi l'aîné, j'augmente le niveau et j'accueille les nouveaux Et j'recompte dans le RS3 tout noir, toit ouvrant Ouvert Quand j'm'arrête au feu rouge, j'crame une clope, j'ouvre la fenêtre Complètement khabat au volant, j'ai bossé, j'ai rien volé Et numéro uno, c'est c'que Dieu a voulu Dix millions d'vues sur ma chaîne et j'suis toujours dans l'bât' Dans l'fond du 7 La plupart d'mes ennemis savent très bien où j'habite Là où j'crêche Et pour pas changer, fonce-dé dans l'50k Avec RK pour l'frérot GLK, on vous offre des 10 balles Et c'est gratuit Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah J'suis l'p'tit à personne, moi, j'rentabilise chaque mois Le flingue dans l'armoire, bédo calé pour le parloir Même si t'es armé, baraqué, fait d'la D T'inquiète pas, y a les outils et dans l'appart', y a environ dix-milles Les p'tits et les salopes tirent, on est dans l'actu L'entends-tu ? Dis-nous quand ça tire C'est pas que sur YouTube, dix mois tuent M'as-tu vu ? Zénith, plus de garde-à-vue J'suis avec patron du four, toi, t'as mon âge, t'es à l'affût Moula, moula, moula, moula, bah, visière teintée, tu n'me verras pas Plus d'mis-per, j'm'arrête pas, ceux qu'tu suces, c'est ceux qu'on bat J'veux ma part pile à l'heure, il t'a barbé ? Oh, la, la Rafale-le et basta-ta-ta-ta Charge et tire Ouais Mon négro, charge et tire Et charge et tire Fallait l'dire L'dire Si t'as peur, fallait l'dire Et fallait l'dire Charge et tire Et tire Mon négro, charge et tire J'm'en bats les couilles, j'vous baise tous À tous tes potes, va leur dire Et pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Pah, pah, pah, pah Charge et tire, charge et tire, charge et tire Rah, rah, rah, rah et pah, pah, pah, pah Pah, pah, pah, pah</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fuck it's easy Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger, yah La vérité, tout c'que j't'ai dit, j'l'ai fait mais j'vais pas dire tout c'que j'fais Eh, fils de pute, eh, fils de pute, avant d'arriver là, j'dormais dans la rue J'rêvais d'être footeux, capitaine sur l'terrain sur l'terrain mais j'me suis trompé de terrain rrain-te J'ai fini avec une bonbonne de shit, la Dapellana, c'est cinq gué-no gué-no Et j'suis dans l'quatre anneaux, 2018 2018 avec Deuspi, Suge, j'suis dans l'Ford, menotté Avec moi, y a trois bacqueux et j'me suis juré sur la vie d'ma mère, d'plus voir la misère, d'plus connaître la hess J'roule un joint, j'suis dans la banquette arrière et j'me tape la cuisse, faut pas d'trous d'boulette Maintenant, que j'suis en haut, j'regarde tous ceux en bas Moi, quand j'étais en bas, j'étais contraint d'revendre la dope Maintenant j'revends plus d'drogue, j'me contente des sous des showcases Dix piges en un week-end, j'ai refait la baraque à ma mère Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi You might also like À dix heures, j'arrive en cours en cours, à treize heures, j'ressors des cours des cours Et comme j'étais j'étais un peu malin malin Tout mon détail, jle foutais dans ma p'tite trousse p'tite trousse Et j'm'en rappelle du premier jour d'la rentrée rentrée cent-trente euros en barrette barrette Rien à branler d'trouver un stage un stage, mon seul souci, c'est qu'mon argent rentre Et j'refourguais d'la drogue toute la récré, c'était un mini re-fou pendant quinze minutes Et j'appelle Deuspi pour qu'il vienne me recharger, tu peux demander, tu peux t'renseigner C'est dans mon lycée, c'est pas moi j'vendais J'me suis fait virer, on a fait l'rrain-te, à tout juste seize ans, cinq mille eu' coffrés Maintenant que j'suis en haut, j'regarde tous ceux en bas Moi, quand j'étais en bas, j'étais contraint d'revendre la dope Maintenant j'revends plus d'drogue, j'me contente des sous des showcases Dix piges en un week-end, j'ai refait la baraque à ma mère Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger, yah</t>
+          <t>Fuck it's easy Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger, yah La vérité, tout c'que j't'ai dit, j'l'ai fait mais j'vais pas dire tout c'que j'fais Eh, fils de pute, eh, fils de pute, avant d'arriver là, j'dormais dans la rue J'rêvais d'être footeux, capitaine sur l'terrain sur l'terrain mais j'me suis trompé de terrain rrain-te J'ai fini avec une bonbonne de shit, la Dapellana, c'est cinq gué-no gué-no Et j'suis dans l'quatre anneaux, 2018 2018 avec Deuspi, Suge, j'suis dans l'Ford, menotté Avec moi, y a trois bacqueux et j'me suis juré sur la vie d'ma mère, d'plus voir la misère, d'plus connaître la hess J'roule un joint, j'suis dans la banquette arrière et j'me tape la cuisse, faut pas d'trous d'boulette Maintenant, que j'suis en haut, j'regarde tous ceux en bas Moi, quand j'étais en bas, j'étais contraint d'revendre la dope Maintenant j'revends plus d'drogue, j'me contente des sous des showcases Dix piges en un week-end, j'ai refait la baraque à ma mère Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi À dix heures, j'arrive en cours en cours, à treize heures, j'ressors des cours des cours Et comme j'étais j'étais un peu malin malin Tout mon détail, jle foutais dans ma p'tite trousse p'tite trousse Et j'm'en rappelle du premier jour d'la rentrée rentrée cent-trente euros en barrette barrette Rien à branler d'trouver un stage un stage, mon seul souci, c'est qu'mon argent rentre Et j'refourguais d'la drogue toute la récré, c'était un mini re-fou pendant quinze minutes Et j'appelle Deuspi pour qu'il vienne me recharger, tu peux demander, tu peux t'renseigner C'est dans mon lycée, c'est pas moi j'vendais J'me suis fait virer, on a fait l'rrain-te, à tout juste seize ans, cinq mille eu' coffrés Maintenant que j'suis en haut, j'regarde tous ceux en bas Moi, quand j'étais en bas, j'étais contraint d'revendre la dope Maintenant j'revends plus d'drogue, j'me contente des sous des showcases Dix piges en un week-end, j'ai refait la baraque à ma mère Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger wouh Mélanger, mélanger, mélanger, yah La vraie patate, du Critical, un block acheté, un paquet dmasse Une veste Quechua, paire de Requin, jogging troué, skalape sur moi Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger Mélanger, mélanger, mélanger, yah</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Noxious Drama State Jai plus le même train d'vie, j'traîne plus tard dans le 7, rien qu'jenchaîne les concerts, moins souvent à la tess Maintenant, jsuis moins stressé d'voir la banalisée, attends, j'finis de rouler et j'vais tout t'raconter Et tout à commencé à la fin de troisième, à tfaire des arrachées jsuis posté sur le rrain-té, une fois sur deux, j'rentrais J'suis désolé, maman, ce soir je rentre à la maison, cest vrai qu'l'argent rend bête et en vrai, tavais raison Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh Midi pile devant le bât', jdois attendre les affaires et quand j'avais plus d'shit, j'leur disais de repasser Jreprenais tes ients-cli, ta caille est repoussée, jme faisais des films, skyé, jdétaillais Huit cents eu' aujourdhui, mille deux cents demain, ça tournait de plus en plus, on a jeté la hess, cest maudit par les cieux You might also like J'suis désolé, maman, ce soir je rentre à la maison, cest vrai qu'l'argent rend bête et en vrai, tavais raison Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh Au lieu d'être fiers de moi, sont bons qu'à dire que j'ai changé P't-être la Audemars Piguet ou l'quat' pétards qui les fait rager Même pas sorti la tête de l'eau qu'ils pensent d'jà à m'noyer Et quand j'suis seul dans l'bât fonce-dé, j'repense à toi sous teh Au lieu d'être fiers de moi, sont bons qu'à dire que j'ai changé P't-être la Audemars Piguet ou l'quat' pétards qui les fait rager Même pas sorti la tête de l'eau qu'ils pensent d'jà à m'noyer Et quand j'suis seul dans l'bât fonce-dé, j'repense à toi sous teh Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh2</t>
+          <t>Noxious Drama State Jai plus le même train d'vie, j'traîne plus tard dans le 7, rien qu'jenchaîne les concerts, moins souvent à la tess Maintenant, jsuis moins stressé d'voir la banalisée, attends, j'finis de rouler et j'vais tout t'raconter Et tout à commencé à la fin de troisième, à tfaire des arrachées jsuis posté sur le rrain-té, une fois sur deux, j'rentrais J'suis désolé, maman, ce soir je rentre à la maison, cest vrai qu'l'argent rend bête et en vrai, tavais raison Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh Midi pile devant le bât', jdois attendre les affaires et quand j'avais plus d'shit, j'leur disais de repasser Jreprenais tes ients-cli, ta caille est repoussée, jme faisais des films, skyé, jdétaillais Huit cents eu' aujourdhui, mille deux cents demain, ça tournait de plus en plus, on a jeté la hess, cest maudit par les cieux J'suis désolé, maman, ce soir je rentre à la maison, cest vrai qu'l'argent rend bête et en vrai, tavais raison Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh Au lieu d'être fiers de moi, sont bons qu'à dire que j'ai changé P't-être la Audemars Piguet ou l'quat' pétards qui les fait rager Même pas sorti la tête de l'eau qu'ils pensent d'jà à m'noyer Et quand j'suis seul dans l'bât fonce-dé, j'repense à toi sous teh Au lieu d'être fiers de moi, sont bons qu'à dire que j'ai changé P't-être la Audemars Piguet ou l'quat' pétards qui les fait rager Même pas sorti la tête de l'eau qu'ils pensent d'jà à m'noyer Et quand j'suis seul dans l'bât fonce-dé, j'repense à toi sous teh Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Faut qu'j'arrête le sale, faut qu'j'arrête le sale Faut qu'j'arrête le sale, promis, demain qu'j'arrête Et j't'oublie pas, là, j'pense à toi sous teh Et j't'oublie pas, là, j'pense à toi sous teh2</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>D'temps en temps, j'fume la beuh A-A-A Rien qu'j'enchaîne les meufs, ah-ah-ah-ah A-A.W.A the mafia, my nigga! M'appelle as-p Le sang, tu v'-esqui les problèmes, t'es que là quand ça baise Eh Si j'fais un test et que j'te laisse derrière, j'suis sûr qu'tu vas m'la mettre Eh Salopette, t'as d'jà r'tourné ta veste, donc ça s'ra plus pareil, donc ça s'ra plus pareil Ils osent dirent qu'j'ai changé, wesh, c'est l'monde à l'envers Ces fils de p', ils sont bizarres, quelques fois, j'me sens baisé On s'lève tôt, on s'couche trop tard, la haine, la tise nous bousillent J'arrive bourré dans l'sche-Por, j'dégaine un Glock, j'dégaine un blunt Et comme j'suis pas un bouffon, du coup, j'ai fait justice moi-même D'temps en temps, j'fume la beuh La beuguih, la beuguih, le bédo me fait mal au crâne Putain d'merde Ouais, rien qu'j'enchaîne les meufs Les raclis, les raclis Depuis que j'rappe, j'peux pas être stable, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur les miens et j'garde les miens très proches de moi, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur mes biens et j'garde les miens très proches de moi Moi J'arrive bourré dans l'sche-Por, c'est encore pire quand j'repars Tu veux pas voir c'que j'ai vu, moi non plus mais c'est trop tard J'fais mes talles, maintenant Maintenant, toi, t'es bloqué sur avant J'ai pas changé, qu'est-ce tu racontes ? J'ai grave des talles mais j'me la raconte pas T'sais pas faire de talles, t'es un con toi, on chasse la monnaie comme si y en a pas Personne se connaît quand l'demande le shtar, j'ai des photos d'eux, poto, quand ils s'garent Poto, si j'me déplace, c'est sûrement pour l'argent, han, j'poste des photos d'moi avec ce pétard sans les gants, han Brr You might also like D'temps en temps, j'fume la beuh La beuguih, la beuguih, le bédo me fait mal au crâne Putain d'merde Ouais, rien qu'j'enchaîne les meufs Les raclis, les raclis Depuis que j'rappe, j'peux pas être stable, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur les miens et j'garde les miens très proche de moi, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur mes biens et j'garde les miens très proche de moi Moi D'temps en temps, j'fume la beuh La beuguih, la beuguih Le bédo me fait mal au crâne, putain d'merde Ouais</t>
+          <t>D'temps en temps, j'fume la beuh A-A-A Rien qu'j'enchaîne les meufs, ah-ah-ah-ah A-A.W.A the mafia, my nigga! M'appelle as-p Le sang, tu v'-esqui les problèmes, t'es que là quand ça baise Eh Si j'fais un test et que j'te laisse derrière, j'suis sûr qu'tu vas m'la mettre Eh Salopette, t'as d'jà r'tourné ta veste, donc ça s'ra plus pareil, donc ça s'ra plus pareil Ils osent dirent qu'j'ai changé, wesh, c'est l'monde à l'envers Ces fils de p', ils sont bizarres, quelques fois, j'me sens baisé On s'lève tôt, on s'couche trop tard, la haine, la tise nous bousillent J'arrive bourré dans l'sche-Por, j'dégaine un Glock, j'dégaine un blunt Et comme j'suis pas un bouffon, du coup, j'ai fait justice moi-même D'temps en temps, j'fume la beuh La beuguih, la beuguih, le bédo me fait mal au crâne Putain d'merde Ouais, rien qu'j'enchaîne les meufs Les raclis, les raclis Depuis que j'rappe, j'peux pas être stable, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur les miens et j'garde les miens très proches de moi, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur mes biens et j'garde les miens très proches de moi Moi J'arrive bourré dans l'sche-Por, c'est encore pire quand j'repars Tu veux pas voir c'que j'ai vu, moi non plus mais c'est trop tard J'fais mes talles, maintenant Maintenant, toi, t'es bloqué sur avant J'ai pas changé, qu'est-ce tu racontes ? J'ai grave des talles mais j'me la raconte pas T'sais pas faire de talles, t'es un con toi, on chasse la monnaie comme si y en a pas Personne se connaît quand l'demande le shtar, j'ai des photos d'eux, poto, quand ils s'garent Poto, si j'me déplace, c'est sûrement pour l'argent, han, j'poste des photos d'moi avec ce pétard sans les gants, han Brr D'temps en temps, j'fume la beuh La beuguih, la beuguih, le bédo me fait mal au crâne Putain d'merde Ouais, rien qu'j'enchaîne les meufs Les raclis, les raclis Depuis que j'rappe, j'peux pas être stable, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur les miens et j'garde les miens très proche de moi, même si j'suis loin J'suis loin Faut qu'j'recharge le tartin, j'garde un il sur mes biens et j'garde les miens très proche de moi Moi D'temps en temps, j'fume la beuh La beuguih, la beuguih Le bédo me fait mal au crâne, putain d'merde Ouais</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jemi Black on the beat C'est qui qui parle mal ? Quon l'ratatine C'est qui qui repart avec le platine ? Insolent depuis quj'ai laissé la tétine et violent, rancunier, bâtard et têtu J'suis dans l'tel-hô, j'lui bouffe la ouh, elle m'suce la ouh, évidemment J'recompte et j'recompte et nique sa mère la vie davant Regarde, jai percé, Audemars-Piguets, comme j'ai des sous, jai mis des diamants Moi, j'm'en rappelle quand j'bicravais les jours de fêtes, toute la semaine jusquau dimanche Tous les jours, mes poches sont remplies d'argent J'suis désolé monsieur l'agent, vous voyez bien que j'ai mis l'warning Pourquoi tu me parles de mauvais stationnement ? J'suis dans l'Viano, mort fonce-dé j'suis mort pété Dans l'château, y a dix chambres, des tasses-pé y a plein d' pétasses Il reste deux heures de route, j'crois qu'j'vais rouler que j'vais rouler Faut pas qu'on croise la douane, sur moi plus d'dix balles en billets Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité You might also like Ce-for à tous les bosseurs, j'me réveille plus à dix heures Et si y a une passe à faire et bah, j'la fais, nique sa mère J'suis moins dans l'binks every day, j'ai même plus besoin d'détaille Et jeudi et vendredi et sam'di, je suis payé Action-réaction, toujours actif, quand j'partais au fait, c'était toujours pour vendre la drogue C'est des vingt, des dix et tout près d'ma bite et vers trois heures trente, j'allais péter Deuspi' Et je vends plus d'pillons et elle m'fait des papouilles, yah, sur sa fesse gauche, un gros papillon J'suis dans l'Viano, mort fonce-dé j'suis mort pété Dans l'château, y a dix chambres, des tasses-pé y a plein d'pétasses Il reste deux heures de route, j'crois qu'j'vais rouler que j'vais rouler Faut pas qu'on croise la douane, sur moi plus d'dix balles en billets y a trop d'papier Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité Et j'vends plus d'pillons et elle m'fait des trop d'papier papouilles, sur sa fesse gauche, un gros papillon Et j'vends plus d'pillons et elle m'fait des papouilles, sur sa fesse gauche, un gros papillon</t>
+          <t>Jemi Black on the beat C'est qui qui parle mal ? Quon l'ratatine C'est qui qui repart avec le platine ? Insolent depuis quj'ai laissé la tétine et violent, rancunier, bâtard et têtu J'suis dans l'tel-hô, j'lui bouffe la ouh, elle m'suce la ouh, évidemment J'recompte et j'recompte et nique sa mère la vie davant Regarde, jai percé, Audemars-Piguets, comme j'ai des sous, jai mis des diamants Moi, j'm'en rappelle quand j'bicravais les jours de fêtes, toute la semaine jusquau dimanche Tous les jours, mes poches sont remplies d'argent J'suis désolé monsieur l'agent, vous voyez bien que j'ai mis l'warning Pourquoi tu me parles de mauvais stationnement ? J'suis dans l'Viano, mort fonce-dé j'suis mort pété Dans l'château, y a dix chambres, des tasses-pé y a plein d' pétasses Il reste deux heures de route, j'crois qu'j'vais rouler que j'vais rouler Faut pas qu'on croise la douane, sur moi plus d'dix balles en billets Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité Ce-for à tous les bosseurs, j'me réveille plus à dix heures Et si y a une passe à faire et bah, j'la fais, nique sa mère J'suis moins dans l'binks every day, j'ai même plus besoin d'détaille Et jeudi et vendredi et sam'di, je suis payé Action-réaction, toujours actif, quand j'partais au fait, c'était toujours pour vendre la drogue C'est des vingt, des dix et tout près d'ma bite et vers trois heures trente, j'allais péter Deuspi' Et je vends plus d'pillons et elle m'fait des papouilles, yah, sur sa fesse gauche, un gros papillon J'suis dans l'Viano, mort fonce-dé j'suis mort pété Dans l'château, y a dix chambres, des tasses-pé y a plein d'pétasses Il reste deux heures de route, j'crois qu'j'vais rouler que j'vais rouler Faut pas qu'on croise la douane, sur moi plus d'dix balles en billets y a trop d'papier Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité Oh, c'est moi Koba LaD J'suis dans l'bolide noir mat et les vitres teintées Oh, c'est moi Koba LaD On a que d'la qualité en quantité Et j'vends plus d'pillons et elle m'fait des trop d'papier papouilles, sur sa fesse gauche, un gros papillon Et j'vends plus d'pillons et elle m'fait des papouilles, sur sa fesse gauche, un gros papillon</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Téma la prod mon vieux, je vais tous les faire baver Fait ton contrôle casse toi, belek fait pas de bavures Non non la comédie ça paie pas, donc essaye d'être moins bavard Là j'suis fonce-dé dans mon navire, entre mes jambes une Belve' Koba du Sept, tu sais 5x T'as reconnu ma voix, mon flow tu sais Fermeture du rain-té, descente de keuf Pas grave toi même tu sais Midi, 22 je stress Je revend du shit c'est triste Sur le couteau il reste des traces J'pochtonne tout, je descend, j'enfume le binks J'aime trop l'argent, la drogue Violent nerveux comme Trunks Exctint', marteau, matraque Est-ce que t'as capté le truc ? Détaille la 'quette et je la refourgue dans mon lycée Y'as pas d'issue si Fenzo sors le canon scié Écoute moi bien petit imbécile C'est dur de faire rentrer de l'argent facile Mais tu sais que je suis bon qu'à ça Il faut que je brasse dans l'argent sale Il faut que tu ramène tout mon yessay Mes spartiates maitrisent le Samurai Qu'elle me suce, que je goûte ses seins Et je crache tout dans la sale bouche d'cette tass' Eh! Koba La D sous codé J'maîtrise le Vocoder Bébé m'impose pas trop de dilemme J'préfère mille fois l'argent que ton coeur Koba du Sept, j'suis pas du genre à me la péter J'pose en One shot, et puis je retourne sur le rain-té Ma qualité je te la refourgue Bon jaune, bonne dose, bonne quantité Et tout ça j'le fait exprès C'est juste pour baiser le four d'à côté You might also like Téma la prod mon vieux, je vais tous les faire baver Fait ton contrôle casse toi, belek fait pas de bavures Non non la comédie ça paie pas, donc essaye d'être moins bavard Là j'suis fonce-dé dans mon navire, entre mes jambes une Belve' Koba du Sept, tu sais 5x T'as reconnu ma voix, mon flow tu sais Fermeture du rain-té, descente de keuf Pas grave toi même tu sais Pas grave y'a plus de tail-dé!</t>
+          <t>Téma la prod mon vieux, je vais tous les faire baver Fait ton contrôle casse toi, belek fait pas de bavures Non non la comédie ça paie pas, donc essaye d'être moins bavard Là j'suis fonce-dé dans mon navire, entre mes jambes une Belve' Koba du Sept, tu sais 5x T'as reconnu ma voix, mon flow tu sais Fermeture du rain-té, descente de keuf Pas grave toi même tu sais Midi, 22 je stress Je revend du shit c'est triste Sur le couteau il reste des traces J'pochtonne tout, je descend, j'enfume le binks J'aime trop l'argent, la drogue Violent nerveux comme Trunks Exctint', marteau, matraque Est-ce que t'as capté le truc ? Détaille la 'quette et je la refourgue dans mon lycée Y'as pas d'issue si Fenzo sors le canon scié Écoute moi bien petit imbécile C'est dur de faire rentrer de l'argent facile Mais tu sais que je suis bon qu'à ça Il faut que je brasse dans l'argent sale Il faut que tu ramène tout mon yessay Mes spartiates maitrisent le Samurai Qu'elle me suce, que je goûte ses seins Et je crache tout dans la sale bouche d'cette tass' Eh! Koba La D sous codé J'maîtrise le Vocoder Bébé m'impose pas trop de dilemme J'préfère mille fois l'argent que ton coeur Koba du Sept, j'suis pas du genre à me la péter J'pose en One shot, et puis je retourne sur le rain-té Ma qualité je te la refourgue Bon jaune, bonne dose, bonne quantité Et tout ça j'le fait exprès C'est juste pour baiser le four d'à côté Téma la prod mon vieux, je vais tous les faire baver Fait ton contrôle casse toi, belek fait pas de bavures Non non la comédie ça paie pas, donc essaye d'être moins bavard Là j'suis fonce-dé dans mon navire, entre mes jambes une Belve' Koba du Sept, tu sais 5x T'as reconnu ma voix, mon flow tu sais Fermeture du rain-té, descente de keuf Pas grave toi même tu sais Pas grave y'a plus de tail-dé!</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, hé Laytebeats Hé, le disque d'or, il est là, là Il est dans l'bât' 7, il est dans l'50k aussi, ouais Du biff, du biff, du biff avant d'en avoir, la vie m'a mis des baffes M'a montré que les plus grands bluffent et qu'la plupart s'faisaient dépouille par des poufs Avant d'parler d'la rue, faut y être, gérer la pression, calmer la boule au ventre Avoir des principes, des valeurs, enculé, et ne pas laisser tomber à terre tes couilles Quand j'suis mort fonce-dé, j'réfléchis, j'cogite et je constate que depuis qu'j'ai percé J'ai des nouveaux sins-cou, nouveaux amis, pourtant, j'ai dormi tout sale seul dans la nuit J'barodais solo dans le centre-ville quand c'était la fermeture du rrain-té J'allais, planquer dans l'garage à côté, j'avais caché le Clio 2 volé Des fois j'devais y passer la nuit maman m'ouvrait plus la porte après minuit Et quand ils ont soulevé la caisse, j'ai été contraint d'aller dormir chez Deuspi Mais Dieu merci, c'est beaucoup mieux depuis que je vis la vie d'artiste J'ai fait l'tour de France en Viano et tout a commencé dans le bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 You might also like J'ai le disque d'or, j'suis le chef, chef, j'ai plus besoin de placer de chouff-chouff La même gestuelle que Chief Keef et quand j'secoue mes locks ta re-s kiffe Le plus important, c'est d'être actif, essaie d'éviter un max de tof' Et à deux doigts que les keufs chouffent, j'sais c'est quoi d'passer à côté du ferme Mais ça, c'était avant sa mère, bloqué dans le coffre arrière, j'avais chaud Dans le binks en saison d'hiver, j'me calais tout près du radiateur Et quand Deuspi n'était pas là, j'me devais de tout détaille à sa place Dans quelques transac' à sa place mais j'en faisais plus, je gonflais ma pièce J'ai l'disque d'or, maman, regarde, billet violet va essuyer tes larmes C'est plus moi l'fardeau d'la famille, je fais rentrer beaucoup plus d'argent qu'papa Le disque d'or en un mois, pas besoin d'aller refourguer d'la è-c Toute la journée à la tess' et j'récupère tout c'que j'dépense en showcase Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le disque d'or est dans l'bât' 7 Hé, on l'a fait, La Grinta On a commencé à trois, mon pote Hé Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7</t>
+          <t>Ouais, ouais, ouais, hé Laytebeats Hé, le disque d'or, il est là, là Il est dans l'bât' 7, il est dans l'50k aussi, ouais Du biff, du biff, du biff avant d'en avoir, la vie m'a mis des baffes M'a montré que les plus grands bluffent et qu'la plupart s'faisaient dépouille par des poufs Avant d'parler d'la rue, faut y être, gérer la pression, calmer la boule au ventre Avoir des principes, des valeurs, enculé, et ne pas laisser tomber à terre tes couilles Quand j'suis mort fonce-dé, j'réfléchis, j'cogite et je constate que depuis qu'j'ai percé J'ai des nouveaux sins-cou, nouveaux amis, pourtant, j'ai dormi tout sale seul dans la nuit J'barodais solo dans le centre-ville quand c'était la fermeture du rrain-té J'allais, planquer dans l'garage à côté, j'avais caché le Clio 2 volé Des fois j'devais y passer la nuit maman m'ouvrait plus la porte après minuit Et quand ils ont soulevé la caisse, j'ai été contraint d'aller dormir chez Deuspi Mais Dieu merci, c'est beaucoup mieux depuis que je vis la vie d'artiste J'ai fait l'tour de France en Viano et tout a commencé dans le bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 J'ai le disque d'or, j'suis le chef, chef, j'ai plus besoin de placer de chouff-chouff La même gestuelle que Chief Keef et quand j'secoue mes locks ta re-s kiffe Le plus important, c'est d'être actif, essaie d'éviter un max de tof' Et à deux doigts que les keufs chouffent, j'sais c'est quoi d'passer à côté du ferme Mais ça, c'était avant sa mère, bloqué dans le coffre arrière, j'avais chaud Dans le binks en saison d'hiver, j'me calais tout près du radiateur Et quand Deuspi n'était pas là, j'me devais de tout détaille à sa place Dans quelques transac' à sa place mais j'en faisais plus, je gonflais ma pièce J'ai l'disque d'or, maman, regarde, billet violet va essuyer tes larmes C'est plus moi l'fardeau d'la famille, je fais rentrer beaucoup plus d'argent qu'papa Le disque d'or en un mois, pas besoin d'aller refourguer d'la è-c Toute la journée à la tess' et j'récupère tout c'que j'dépense en showcase Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Ça y est, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le sept, le sept, le disque d'or est dans l'bât' 7 Le disque d'or est dans l'bât' 7 Hé, on l'a fait, La Grinta On a commencé à trois, mon pote Hé Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7 Le sept, le sept, est dans l'bât' 7</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Yo, Joshy Hey J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la rou, elle tourne Aujourd'hui, ms thunes, c'est le pansement de mes blessures Moi, le pe-ra, ça fait que d'me souler Sérieux Mais comme j'suis bon, j'vais continuer Aye, j'vais continuer Aye à les baiser Disque de platine sur un travail bâclé Aye, aye, aye, aye, aye Moi, j'ai quelques ennemis qui sont plus d'ce monde Ouh Tu m'connais, toujours fidèle à ma meute Wouh, à ma meute, on lève tous tes morts J'suis comme une Kalash', toujours à la mode Ah J'me suis fait remonter, là, j'ai l'démon Mais bon, elle sait que je brasse comme un baron Et si, la pute, demain, elle kill', pas grave, j'ai plusieurs raclis comme mon daron Nous, on connaît les ficelles depuis tout petit, depuis tout petit, on sait qui veut s'faire tout p'tit Et dans tout ça, y a des grands qui ont bien menti Ces gros fils de', pour me calmer, j'me roule un p'tit You might also like J'regarde même plus les prix sur la carte, moi J'ai arrêté mais j'ai posé les p'tits à ma place On m'a dit Le temps c'est des streams, j'compte toutes les heures qui passent, moi Encore un soir où j'suis en bas, j'm'allume, j'démarre un flash, moi, ouais, ouais J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la roue, elle tourne Aujourd'hui, mes thunes, c'est le pansement de mes blessures J'ai compris qu'j'ai grandi le jour où j'ai vu des condés plus jeunes que moi Sur les Champs, défoncé, deux pétasses, un gamos, sa mère, faut qu'j'ouvre le toit D'ici au Canada, Polak, il a la côte, madame veut faire un featuring au tel-hô Eh, eh Ici, ça garde la balle, ici, ça fait des fautes, deux mi-temps, prolongations et les péno Ouh oui J'ai du te-shi sous les ongles, j'écoute passer mon son sur les ondes Six coups pour t'montrer que j'ai raison, j'en fume un dernier et j'remonte à la maison C'est cool, c'est moi l'attaquant d'pointe Oui Ça met qu'des putains d'buts Quoi ?, ça nique des putains d'putes Oh Pourtant, j'suis équipé au cas où, il s'passe un truc Brr, au cas où, il s'passe un truc J'regarde même plus les prix sur la carte, moi J'ai arrêté mais j'ai posé les p'tits à ma place On m'a dit Le temps c'est des streams, j'compte toutes les heures qui passent, moi Encore un soir où j'suis en bas, j'm'allume, j'démarre un flash, moi, ouais, ouais J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la roue, elle tourne Aujourd'hui, mes thunes, c'est le pansement de mes blessures</t>
+          <t>Yo, Joshy Hey J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la rou, elle tourne Aujourd'hui, ms thunes, c'est le pansement de mes blessures Moi, le pe-ra, ça fait que d'me souler Sérieux Mais comme j'suis bon, j'vais continuer Aye, j'vais continuer Aye à les baiser Disque de platine sur un travail bâclé Aye, aye, aye, aye, aye Moi, j'ai quelques ennemis qui sont plus d'ce monde Ouh Tu m'connais, toujours fidèle à ma meute Wouh, à ma meute, on lève tous tes morts J'suis comme une Kalash', toujours à la mode Ah J'me suis fait remonter, là, j'ai l'démon Mais bon, elle sait que je brasse comme un baron Et si, la pute, demain, elle kill', pas grave, j'ai plusieurs raclis comme mon daron Nous, on connaît les ficelles depuis tout petit, depuis tout petit, on sait qui veut s'faire tout p'tit Et dans tout ça, y a des grands qui ont bien menti Ces gros fils de', pour me calmer, j'me roule un p'tit J'regarde même plus les prix sur la carte, moi J'ai arrêté mais j'ai posé les p'tits à ma place On m'a dit Le temps c'est des streams, j'compte toutes les heures qui passent, moi Encore un soir où j'suis en bas, j'm'allume, j'démarre un flash, moi, ouais, ouais J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la roue, elle tourne Aujourd'hui, mes thunes, c'est le pansement de mes blessures J'ai compris qu'j'ai grandi le jour où j'ai vu des condés plus jeunes que moi Sur les Champs, défoncé, deux pétasses, un gamos, sa mère, faut qu'j'ouvre le toit D'ici au Canada, Polak, il a la côte, madame veut faire un featuring au tel-hô Eh, eh Ici, ça garde la balle, ici, ça fait des fautes, deux mi-temps, prolongations et les péno Ouh oui J'ai du te-shi sous les ongles, j'écoute passer mon son sur les ondes Six coups pour t'montrer que j'ai raison, j'en fume un dernier et j'remonte à la maison C'est cool, c'est moi l'attaquant d'pointe Oui Ça met qu'des putains d'buts Quoi ?, ça nique des putains d'putes Oh Pourtant, j'suis équipé au cas où, il s'passe un truc Brr, au cas où, il s'passe un truc J'regarde même plus les prix sur la carte, moi J'ai arrêté mais j'ai posé les p'tits à ma place On m'a dit Le temps c'est des streams, j'compte toutes les heures qui passent, moi Encore un soir où j'suis en bas, j'm'allume, j'démarre un flash, moi, ouais, ouais J'arrive en sifflant comme Omar Ouais Vie d'ma mère, j'vais pas rater, eh J'l'ai soulevée à l'arrière d'la go-va Nan, elle croyait qu'j'allais la marier Han, ça joue pour l'collectif Han, les billets j'collectionne Paw, paw Fonce-dé, j'recompte mes billes, cousin, c'est nous les Hommes J'arrive défoncé dans l'pack M RS, qui coûte plus cher que ta piaule Rien qu'on encaisse, eux, ils disent que j'ai pacté Bâtard J'ai trop trimé dans mon hall Han, han, han J'suis rempli d'amertume mais bon, la roue, elle tourne Aujourd'hui, mes thunes, c'est le pansement de mes blessures</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Drama State Je vends l'gramme de coco, ça rapporte plus que le pilon Interdit de la consommer ou sinon, t'es viré du gang Laisse tomber l'V.I.P rapporte mes bouteilles dans ma loge ma loge 6.3, j'accélère, elle a peur, son cur se décroche Là, j'suis dans l'allemande chargé, là, j'suis dans l'allemande chargé Je ressors tout d'suite de l'Espagne avec du produit marocain Je conduis, j'peux pas trop parler ouais ouais, j'suis sur l'périph', j'arrive chérie j'arrive On va péter ta pote, dans ma veste y'a les clés du Audi Gamin, regarde la panoplie, de la tête aux pieds en Gucci Et le prix d'ma voiture, t'aurais jamais ça dans ta vie jamais, c'est mort Et c'est bien beau mais putain, il faut l'admettre il faut l'admettre C'est moi l'padre de toute ma géné' Depuis tout petits, la drogue, on la vend depuis petits, la drogue, on la vend Et y a les keufs donc à vive allure y a les keufs donc à vive allure AU 50K avec Chily au 50K avec Chily Et ma sacoche est remplie dshit ma sacoche est remplie dshit Les dealers, tu les connais ah, les dealers, tu les connais Si jsuis là, cest que tout est calé si jsuis là, cest que tout est calé Numéro de boloss dans le tél numéro de boloss dans le tél Javais que ça dans la roulette javais que ça dans la roulette You might also like Les commis, on les connait les commis, on les connait Les vrais bandits, on reconnaît les vrais bandit on reconnaît Les vendeurs du dimanche, on les connait vendeurs du dimanche, on les connait Les voyous, on reconnaît les voyous, on reconnaît On vient les niquer, igo, tu vas voir, depuis tout petits, la mort, on la vend Fais pas le mytho, poto, tu m'as vu, quand je suis pas là, j'suis en garde à vue ayah-yo Et quand je ressors, je fume un pilon et je coupe, coupe la 'quette Histoire de combler la perte de la veille, complètement rébanave dans la ville On a grandi dans le vol, pas de pesos, pas de folles Oseille à faire, hendek à fuir, pas l'temps, j'suis dans les affaires Y a pas très longtemps, j'ai vesqui le ferme, un très bon baveux, il a fallu me mettre Produits prohibés dans les cohiba, je m'en vais visser dans les coins huppés Sortons les mes-ar, fini les coups dpoings et pour l'humiliation un gros coup d'pompe La pépite, le génie, le prodige Depuis tout petits, la drogue, on la vend depuis petits, la drogue, on la vend Et y a les keufs donc à vive allure y a les keufs donc à vive allure Au 50k avec Chily Au 50k avec Chily Et ma sacoche est remplie dshit ma sacoche est remplie dshit Les dealers, tu les connais ah, les dealers, tu les connais Si jsuis là, cest que tout est calé si jsuis là, cest que tout est calé Numéro de boloss dans le tél numéro de boloss dans le tél Javais que ça dans la roulette javais que ça dans la roulette Les commis, on les connait les commis, on les connait Les vrais bandits, on reconnaît les vrais bandit on reconnaît Les vendeurs du dimanche, on les connait vendeurs du dimanche, on les connait Les voyous, on reconnaît les voyous, on reconnaît Koba LaD du VII, bienvenue dans la cinquième chambre, mon ami Ah, ah, ah Ah là, nanani, nanana Ah là, nanani, nanana</t>
+          <t>Drama State Je vends l'gramme de coco, ça rapporte plus que le pilon Interdit de la consommer ou sinon, t'es viré du gang Laisse tomber l'V.I.P rapporte mes bouteilles dans ma loge ma loge 6.3, j'accélère, elle a peur, son cur se décroche Là, j'suis dans l'allemande chargé, là, j'suis dans l'allemande chargé Je ressors tout d'suite de l'Espagne avec du produit marocain Je conduis, j'peux pas trop parler ouais ouais, j'suis sur l'périph', j'arrive chérie j'arrive On va péter ta pote, dans ma veste y'a les clés du Audi Gamin, regarde la panoplie, de la tête aux pieds en Gucci Et le prix d'ma voiture, t'aurais jamais ça dans ta vie jamais, c'est mort Et c'est bien beau mais putain, il faut l'admettre il faut l'admettre C'est moi l'padre de toute ma géné' Depuis tout petits, la drogue, on la vend depuis petits, la drogue, on la vend Et y a les keufs donc à vive allure y a les keufs donc à vive allure AU 50K avec Chily au 50K avec Chily Et ma sacoche est remplie dshit ma sacoche est remplie dshit Les dealers, tu les connais ah, les dealers, tu les connais Si jsuis là, cest que tout est calé si jsuis là, cest que tout est calé Numéro de boloss dans le tél numéro de boloss dans le tél Javais que ça dans la roulette javais que ça dans la roulette Les commis, on les connait les commis, on les connait Les vrais bandits, on reconnaît les vrais bandit on reconnaît Les vendeurs du dimanche, on les connait vendeurs du dimanche, on les connait Les voyous, on reconnaît les voyous, on reconnaît On vient les niquer, igo, tu vas voir, depuis tout petits, la mort, on la vend Fais pas le mytho, poto, tu m'as vu, quand je suis pas là, j'suis en garde à vue ayah-yo Et quand je ressors, je fume un pilon et je coupe, coupe la 'quette Histoire de combler la perte de la veille, complètement rébanave dans la ville On a grandi dans le vol, pas de pesos, pas de folles Oseille à faire, hendek à fuir, pas l'temps, j'suis dans les affaires Y a pas très longtemps, j'ai vesqui le ferme, un très bon baveux, il a fallu me mettre Produits prohibés dans les cohiba, je m'en vais visser dans les coins huppés Sortons les mes-ar, fini les coups dpoings et pour l'humiliation un gros coup d'pompe La pépite, le génie, le prodige Depuis tout petits, la drogue, on la vend depuis petits, la drogue, on la vend Et y a les keufs donc à vive allure y a les keufs donc à vive allure Au 50k avec Chily Au 50k avec Chily Et ma sacoche est remplie dshit ma sacoche est remplie dshit Les dealers, tu les connais ah, les dealers, tu les connais Si jsuis là, cest que tout est calé si jsuis là, cest que tout est calé Numéro de boloss dans le tél numéro de boloss dans le tél Javais que ça dans la roulette javais que ça dans la roulette Les commis, on les connait les commis, on les connait Les vrais bandits, on reconnaît les vrais bandit on reconnaît Les vendeurs du dimanche, on les connait vendeurs du dimanche, on les connait Les voyous, on reconnaît les voyous, on reconnaît Koba LaD du VII, bienvenue dans la cinquième chambre, mon ami Ah, ah, ah Ah là, nanani, nanana Ah là, nanani, nanana</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chaud Eh, eh Eh-eh, oh Eh-eh Et j'suis dans l'binks, ouais, j'suis dans l'binks J'suis dans l'binks, fonce-dé dans l'50K Aye, aye, aye, aye, aye, aye Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow Et j'suis dans l'gamos de luxe Shh, siège chauffant, j'suis relax Eh J'sais pas quoi mettre, j'ai plusieurs choix Audemars-Piguets ou Rolex Eh Et mon sin-cou qu'est bientôt relâcher Relâcher, à cause du khaliss Le khaliss Les condés l'ont attaché, ont filés au mandat d'dépôt à Fleury J'suis pas tout seul, avec moi, y a La Passe Nan, on va v'nir m'chercher à l'heure de la pause T'est mort M'en rappelle quand on bossait sur l'rrain-te, on s'battait juste pour visser le prochain cliquos Et aujourdhui, on a grandi, on monte dans la musique, on s'lève l'après-midi, on rentre après midi Là, j'suis dans l'carré VIP, j'ai les meilleures gadjis, on croit c'qu'on s'était dit, de plus revendre des dix You might also like Sale fils de pute, Koba du 7, ouais, c'est moi la tête La tête, ouh Si tu t'avances, le Tokarev braqué sur ta tête J'ai fais la diff', jusqu'aujourd'hui, j'suis l'tenant du titre Eh-eh Toujours les même frères, on a dû s'écarter des traîtres Aye, aye, aye, aye Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow A45, fuck l'arrêt d'bus, monte dans la caisse, si j'veux, je la baise Et comme ma côte, elle était en hausse, automatiquement, les autres en baisse J'ai plus de buzz, comme j'ai plus de buzz, juste après la baise, j'la checke, pas de bise Comme j'ai du buzz, j'suis plus trop dans l'bis' et en cas d'galère, on revient à deux C'est comme la tecktonik Ouais, ça remonte par la nuque Ouais J't'ai jamais vue d'ma vie Ouais, tu veux j't'arrange les prix Ouais Et pour faire du khaliss, on inverse l'jour et la nuit Ouh J'ai récolté c'que j'ai semé mais maint'nant, je m'ennuie J'suis dans l'bâtiment 7 ou fonce-dé à lhôtel, là, j'ressort d'un showcase et j'baise n'importe laquelle Dis pas n'importe quoi, ramène n'importe qui où il veut avec c'qu'il veut et n'importe quand C'est p't-être ta sur qui bosse et ton p'tit frère qui gère La rue, c'est méchant, masqué, on t'allume ta mère Et demain, on va te rejoindre à l'enterrement Là, j'ai des larmes et deux palettes comme des vrais frères Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow</t>
+          <t>Chaud Eh, eh Eh-eh, oh Eh-eh Et j'suis dans l'binks, ouais, j'suis dans l'binks J'suis dans l'binks, fonce-dé dans l'50K Aye, aye, aye, aye, aye, aye Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow Et j'suis dans l'gamos de luxe Shh, siège chauffant, j'suis relax Eh J'sais pas quoi mettre, j'ai plusieurs choix Audemars-Piguets ou Rolex Eh Et mon sin-cou qu'est bientôt relâcher Relâcher, à cause du khaliss Le khaliss Les condés l'ont attaché, ont filés au mandat d'dépôt à Fleury J'suis pas tout seul, avec moi, y a La Passe Nan, on va v'nir m'chercher à l'heure de la pause T'est mort M'en rappelle quand on bossait sur l'rrain-te, on s'battait juste pour visser le prochain cliquos Et aujourdhui, on a grandi, on monte dans la musique, on s'lève l'après-midi, on rentre après midi Là, j'suis dans l'carré VIP, j'ai les meilleures gadjis, on croit c'qu'on s'était dit, de plus revendre des dix Sale fils de pute, Koba du 7, ouais, c'est moi la tête La tête, ouh Si tu t'avances, le Tokarev braqué sur ta tête J'ai fais la diff', jusqu'aujourd'hui, j'suis l'tenant du titre Eh-eh Toujours les même frères, on a dû s'écarter des traîtres Aye, aye, aye, aye Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow A45, fuck l'arrêt d'bus, monte dans la caisse, si j'veux, je la baise Et comme ma côte, elle était en hausse, automatiquement, les autres en baisse J'ai plus de buzz, comme j'ai plus de buzz, juste après la baise, j'la checke, pas de bise Comme j'ai du buzz, j'suis plus trop dans l'bis' et en cas d'galère, on revient à deux C'est comme la tecktonik Ouais, ça remonte par la nuque Ouais J't'ai jamais vue d'ma vie Ouais, tu veux j't'arrange les prix Ouais Et pour faire du khaliss, on inverse l'jour et la nuit Ouh J'ai récolté c'que j'ai semé mais maint'nant, je m'ennuie J'suis dans l'bâtiment 7 ou fonce-dé à lhôtel, là, j'ressort d'un showcase et j'baise n'importe laquelle Dis pas n'importe quoi, ramène n'importe qui où il veut avec c'qu'il veut et n'importe quand C'est p't-être ta sur qui bosse et ton p'tit frère qui gère La rue, c'est méchant, masqué, on t'allume ta mère Et demain, on va te rejoindre à l'enterrement Là, j'ai des larmes et deux palettes comme des vrais frères Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow Koba du 7, Koba du 7, ouais, j'ai fait la diff' Ouais, j'ai fait la diff' Koba du 7, jusqu'aujourdhui, j'suis le tenant du titre Tenant du titre Koba du 7, Koba du 7, Koba du 7 Koba du 7 Koba du 7, wow, wow, wow, wow</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C'est moi l'nouveau Sasuke, j'ai du soké dans mon çon-cale Et je sais qu'le 6 coups laisse des séquelles partout sur l'corps Il faut qu'tu m'dises c'est qui ? C'était quand ? Il s'est passé quoi ? On va monter une équipe pour ce con, il doit graille ses coups Nan, rien n'a changé, j'vise le bénef', nan rien n'a changé, j'vise le bénef' On a des cicatrices, des balafres parce qu'on a toujours été déter' J'suis pas du genre dans les palaces, si j't'avance, il faut que tu paies net J'peux t'allumer pour mes pépétes, c'est clair et net, pas besoin d'débattre Ces faux bandits, j'les daba tous depuis l'début, moi Toujours présent toujours debout, moi, midi 23 faut qu'ça débite Nous, on se démerde, on se démêle, rien à damer, ils s'font du mal, ils ont l'démon, eux J'ai mes deux jambes, j'ai mes deux mains donc concentre-toi sur la démo' J'fais que d'rire Regarde, elle tourne la roue, l'argent ça m'rend heureux Quand j'avais rien, j'barodais dans ma rue et j'rêvais d'être le roi Maintenant que j'rappe, y a même mon ex qui rampe De temps en temps elle pleure, j'prends pas d'repos Si dans la 'sique, j'me rate, y a toujours la re-pu toujours la re-pu Y a d'la dope en stock, liasses dans l'élastique J'ai trouvé l'astuce coups d'langue, j'déchire et j'le tasse En moins d'un an, j'm'insère, j'me sers, j'me ressers Et même le respect s'perd, c'est sur ton terrain que j'visser Mon buzz fait que d'ter-mon, je sais qu'ils portent lil, rien qu'ils tent-ma Mais moi, je suis sûr de ma team, à la base, mon rêve, c'était d'vendre la beuh en tonne Ils ont chaud rien qu'ils flippent, zéro gaffe, faut zéro gaffe, pas de flop Et même si ça fuite, pas de bol pour eux je ne fais pas d'faute Et nous on s'est toujours débrouillés, on a pas fui quand y avait brouille-em Je sais qu'j'suis né pour briller, cette anné,e j't'assure qu'c'est nous qui graille Et moi j'kiffe quand elle secoue ses fesses, quand elle me lèche, j'ché-cra sur sa face Aujourd'hui, c'est moi qui perce, j'fais du sale à mes adversairesYou might also like</t>
+          <t>C'est moi l'nouveau Sasuke, j'ai du soké dans mon çon-cale Et je sais qu'le 6 coups laisse des séquelles partout sur l'corps Il faut qu'tu m'dises c'est qui ? C'était quand ? Il s'est passé quoi ? On va monter une équipe pour ce con, il doit graille ses coups Nan, rien n'a changé, j'vise le bénef', nan rien n'a changé, j'vise le bénef' On a des cicatrices, des balafres parce qu'on a toujours été déter' J'suis pas du genre dans les palaces, si j't'avance, il faut que tu paies net J'peux t'allumer pour mes pépétes, c'est clair et net, pas besoin d'débattre Ces faux bandits, j'les daba tous depuis l'début, moi Toujours présent toujours debout, moi, midi 23 faut qu'ça débite Nous, on se démerde, on se démêle, rien à damer, ils s'font du mal, ils ont l'démon, eux J'ai mes deux jambes, j'ai mes deux mains donc concentre-toi sur la démo' J'fais que d'rire Regarde, elle tourne la roue, l'argent ça m'rend heureux Quand j'avais rien, j'barodais dans ma rue et j'rêvais d'être le roi Maintenant que j'rappe, y a même mon ex qui rampe De temps en temps elle pleure, j'prends pas d'repos Si dans la 'sique, j'me rate, y a toujours la re-pu toujours la re-pu Y a d'la dope en stock, liasses dans l'élastique J'ai trouvé l'astuce coups d'langue, j'déchire et j'le tasse En moins d'un an, j'm'insère, j'me sers, j'me ressers Et même le respect s'perd, c'est sur ton terrain que j'visser Mon buzz fait que d'ter-mon, je sais qu'ils portent lil, rien qu'ils tent-ma Mais moi, je suis sûr de ma team, à la base, mon rêve, c'était d'vendre la beuh en tonne Ils ont chaud rien qu'ils flippent, zéro gaffe, faut zéro gaffe, pas de flop Et même si ça fuite, pas de bol pour eux je ne fais pas d'faute Et nous on s'est toujours débrouillés, on a pas fui quand y avait brouille-em Je sais qu'j'suis né pour briller, cette anné,e j't'assure qu'c'est nous qui graille Et moi j'kiffe quand elle secoue ses fesses, quand elle me lèche, j'ché-cra sur sa face Aujourd'hui, c'est moi qui perce, j'fais du sale à mes adversaires</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'suis désolé maman J'paye le loyer, j'habille mes frères Pour me faire pardonner, han La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais Ça débite grave, ça bicrave grave, viens capuché, y a la caméra Regarde en haut, c'est une boule toute noire, super qualité, envoie les pochtars Faut qu't'arrêtes de vi-sser d'vant les voitures les voitures Ils peuvent te voir même si c'est teinté c'est teinté C'est plus les années 90 eh, la municipale eh peut même maintenant t'embarquer eh Enculé, nous raconte pas tes histoires dégage, les mecs comme toi, ça nous impressionne pas j'te jure On a rodave que t'es un faux rodave, menteur mytho, j'peux te parler de plein d'trucs que tu connais pas mytho Deux kilogrammes, feuilles de coca', des p'tits fils de pute qui te répondent pas te répondent plus J'ai l'cur qui serre que devant les pleurs de mama yeah, yeah J'suis désolé maman yeah, yeah, j'paye le loyer, j'habille mes frères J'fais les courses, j'prie tout les soirs pour me faire pardonner, han You might also like La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais Tes lacets, tes trois chaines, tes bracelets, ta Rolex, enlève-les, signe ce papier, l'OPJ dit qu'tu dors ici Appelle un membre de ta famille Allô Deuspi' ? Ils m'ont pété deux s'condes après que tu t'sois barré Tout l'comico sur le rrain-te Ils sont v'nus trop vite, j'étais en train d'rouler La poussée d'la cons, rien de trouvé, ils m'ont dit qu'ils m'ont vu visser mais j'en suis sûr que le JR est sous CR J'avais du liquide sur moi, au moins huit-cents euros, faut que t'appelles les tit-pe, il a réussi à s'barrer Faut que t'ailles chez moi, y a les ces-tru à Dope, le surveillant arrive faut qu'j'rende le téléphone Yeah, yeah J'suis désolé maman yeah, yeah, j'paye le loyer, j'habille mes frères J'fais les courses, j'prie tout les soirs pour me faire pardonner, han La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais</t>
+          <t>J'suis désolé maman J'paye le loyer, j'habille mes frères Pour me faire pardonner, han La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais Ça débite grave, ça bicrave grave, viens capuché, y a la caméra Regarde en haut, c'est une boule toute noire, super qualité, envoie les pochtars Faut qu't'arrêtes de vi-sser d'vant les voitures les voitures Ils peuvent te voir même si c'est teinté c'est teinté C'est plus les années 90 eh, la municipale eh peut même maintenant t'embarquer eh Enculé, nous raconte pas tes histoires dégage, les mecs comme toi, ça nous impressionne pas j'te jure On a rodave que t'es un faux rodave, menteur mytho, j'peux te parler de plein d'trucs que tu connais pas mytho Deux kilogrammes, feuilles de coca', des p'tits fils de pute qui te répondent pas te répondent plus J'ai l'cur qui serre que devant les pleurs de mama yeah, yeah J'suis désolé maman yeah, yeah, j'paye le loyer, j'habille mes frères J'fais les courses, j'prie tout les soirs pour me faire pardonner, han La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais Tes lacets, tes trois chaines, tes bracelets, ta Rolex, enlève-les, signe ce papier, l'OPJ dit qu'tu dors ici Appelle un membre de ta famille Allô Deuspi' ? Ils m'ont pété deux s'condes après que tu t'sois barré Tout l'comico sur le rrain-te Ils sont v'nus trop vite, j'étais en train d'rouler La poussée d'la cons, rien de trouvé, ils m'ont dit qu'ils m'ont vu visser mais j'en suis sûr que le JR est sous CR J'avais du liquide sur moi, au moins huit-cents euros, faut que t'appelles les tit-pe, il a réussi à s'barrer Faut que t'ailles chez moi, y a les ces-tru à Dope, le surveillant arrive faut qu'j'rende le téléphone Yeah, yeah J'suis désolé maman yeah, yeah, j'paye le loyer, j'habille mes frères J'fais les courses, j'prie tout les soirs pour me faire pardonner, han La ne-zo est quadrillée, faut courir, y a les condés Et vu qu'sur moi, j'ai du détail, s'ils m'pe-cho c'est garde à v' La ne-zo est quadrillée ouais, ouais, faut courir, y a les condés ouais, ouais Et vu qu'j'ai du détail sur moi, s'ils m'pe-cho c'est garde à v' ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Oh, oh, eh, eh Kamu no yo oregamasu Eh, eh, eh, eh, eh, eh Ouvre grand tes yeux, gamin, regarde comment on coupe la beuh on coupe la weed Deux-deux dans l'pochton d'vingt et revend à c'lui qui l'veut pour les ients-cli J'ai trop traîné en bas traîné en bas, sous la neige, sous la pluie quand il caille Et pour graille ma part, j'vais pas t'raconter le pire À trois dans le trafic de cess cess et en showcase, dans le Viano, à six six J'me fais sucer, j'oublie tous mes soucis et j'suis saoul quand j'recompte l'argent sale sale J'ai signé, j'ai ramené un tas d'oseille de biff, tellement d'oseille qu'j'attire le mauvais il la guigne À c'qui p', j'ai changé changé, tu connais la suite la suite Les vrais me suivent et les faux amis sautent dégage Ouais, ouais, réputé pour avoir la meilleure Kush Maintenant qu'j'fais plus de cash, j'vais à la banque pour encaisser des chèques des chèques À chaque morceau, j'les choque j'les choque, j'ai dû affronter la vie J'me suis battu, débattu, toujours porté mes couilles comme l'a fait Cheick J'avance avec du recul recul, tant de tendances à la cool à la cool J'la baise, j'la baise et j'kill j'la kill, ça a beau être n'importe laquelle laquelle Et t'aventures pas, c'est cuit c'est mort, celui qui tente, on l'encule Et ramènes n'importe qui, y a l'6.35, L'AK 7.4 Toujours dans le bendo, c'est pas l'ppe-ra qui nous a fait non On a détaille et redétaille, faut l'disque d'or ou on l'refait Elle kiffe quand j'caresse ses fesses, sourit quand j'crache sur sa face sa face Elle veut qu'j'la doigte quand elle m'suce suce et j'fuis de la chambre après six heures eh, eh You might also like On la récup' vers trois heures trois heures, on va dormir à quatre heures à quatre heures On la détaille vers dix heures, onze heures quarante, on donne tout aux bosseurs aux bosseurs On la récup' vers trois heures trois heures, on va dormir à quatre heures à quatre heures On la détaille vers dix heures, onze heures quarante, on donne tout aux bosseurs aux bosseurs J'suis toujours dans l'binks, tu sais tu sais, j'suis toujours dans l'binks, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, Koba du 7, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, j'suis toujours dans l'binks, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, Koba du 7, tu sais tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh j'suis toujours dans l'binks, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh Koba du 7, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh j'suis toujours dans l'binks, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh Koba du 7, tu sais Oh woh</t>
+          <t>Oh, oh, eh, eh Kamu no yo oregamasu Eh, eh, eh, eh, eh, eh Ouvre grand tes yeux, gamin, regarde comment on coupe la beuh on coupe la weed Deux-deux dans l'pochton d'vingt et revend à c'lui qui l'veut pour les ients-cli J'ai trop traîné en bas traîné en bas, sous la neige, sous la pluie quand il caille Et pour graille ma part, j'vais pas t'raconter le pire À trois dans le trafic de cess cess et en showcase, dans le Viano, à six six J'me fais sucer, j'oublie tous mes soucis et j'suis saoul quand j'recompte l'argent sale sale J'ai signé, j'ai ramené un tas d'oseille de biff, tellement d'oseille qu'j'attire le mauvais il la guigne À c'qui p', j'ai changé changé, tu connais la suite la suite Les vrais me suivent et les faux amis sautent dégage Ouais, ouais, réputé pour avoir la meilleure Kush Maintenant qu'j'fais plus de cash, j'vais à la banque pour encaisser des chèques des chèques À chaque morceau, j'les choque j'les choque, j'ai dû affronter la vie J'me suis battu, débattu, toujours porté mes couilles comme l'a fait Cheick J'avance avec du recul recul, tant de tendances à la cool à la cool J'la baise, j'la baise et j'kill j'la kill, ça a beau être n'importe laquelle laquelle Et t'aventures pas, c'est cuit c'est mort, celui qui tente, on l'encule Et ramènes n'importe qui, y a l'6.35, L'AK 7.4 Toujours dans le bendo, c'est pas l'ppe-ra qui nous a fait non On a détaille et redétaille, faut l'disque d'or ou on l'refait Elle kiffe quand j'caresse ses fesses, sourit quand j'crache sur sa face sa face Elle veut qu'j'la doigte quand elle m'suce suce et j'fuis de la chambre après six heures eh, eh On la récup' vers trois heures trois heures, on va dormir à quatre heures à quatre heures On la détaille vers dix heures, onze heures quarante, on donne tout aux bosseurs aux bosseurs On la récup' vers trois heures trois heures, on va dormir à quatre heures à quatre heures On la détaille vers dix heures, onze heures quarante, on donne tout aux bosseurs aux bosseurs J'suis toujours dans l'binks, tu sais tu sais, j'suis toujours dans l'binks, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, Koba du 7, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, j'suis toujours dans l'binks, tu sais tu sais J'suis toujours dans l'binks, tu sais tu sais, Koba du 7, tu sais tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh j'suis toujours dans l'binks, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh Koba du 7, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh j'suis toujours dans l'binks, tu sais Oh woh j'suis toujours dans l'binks, tu sais, oh woh Koba du 7, tu sais Oh woh</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Oh-oh-oh-oh-oh-oh-oh-oh Wouh LeTempsDuPiano Frenchis got that bass Oh Ouvre grand tes oreilles, j'vais t'raconter l'histoire du p'tit Mais depuis, il a grandit, tout l'monde le connaît dans la ville Ville Souvent nostalgique, j'voulais l'ballon d'or à R10 10 Septième pot, fallait qu'je sois convoqué les samedis Tellement la niak de fou, j'avais d'jà mes crampons dans l'bus M'en bats les couilles mais tout l'monde me dit qu'j'abuse Moi, c'est que la gagne, même les matchs nuls, ça m'fait chier Avec du recul, j'capte à quel moment j'ai flanché Flanché Quand l'daron a kill, on a vite ressenti la crise Ressenti la crise Moi et tous mes reufs, on pouvait pas faire de caprice Et c'est là mes premiers vols, mes premiers joints, mes premières tasses-pé Ma sur m'a vu en 4D à ma première perquis' Première perquis' Rien n'compte à part, ma fumée, l'soir, baisais des putes Baisais des putes J'viens d'faire un arraché, y a la mu'-mu' à pattes Duo avec La Pince, à deux on niquait tes potes Une bonbonne de 100, c'est avec ça qu'ils m'ont pété Le seul regret qu'j'ai, c'est d'avoir vu les larmes de ma mère J'ai flashé à seize piges, j'ai fait mon paquetage, j'ai kill Dehors, c'est pas facile, je sais qu'j'suis livré à moi-même Mais t'inquiète, j'suis pas tout seul, j'suis avec Dopi et Deuspi On a ouvert un terrain d'foot qui débite comme dans l'Sud Sud Mais tout peut aller vite, j'pense à ce teh tous les jours Jour Le terrain grandi 'di et j'sais qu'ils veulent notre chute Eux Mais rien à foutre, on écoule cinq plaquettes par jour Jour You might also like La vérité, ça a changé depuis Ténébreux 1 1 Trop d'trucs ont changé 'gé depuis Ténébreux 1 1 On a laissé l'terrain Nan et ceux qu'tu voyais dans mes clips Clips Se sont tous évaporés un par un Un J'suis plus départager entre la stup' et la musique Nan Mes doutes se sont concrétisés à mon premier platine Platine Maintenant qu'j'suis dans l'truc, j'vois le monde différemment Différemment Mais c'est pas grave vu qu'on ramasse pour l'moment Wouh On est des grands, on parle en gros On parle en gros, on parle en gros Des sins-cou qui parlent en cadavre En cadavre, gros Ici, y a jamais eu d'détail en trop Nan, jamais Mais j'peux t'attendre si t'es en r'tard Mon pote, ici, c'est chaud, c'est chaud J'crois qu'c'est bon, c'est bon On est des grands, on parle en gros On parle en gros, on parle en gros Des sins-cou qui parlent en cadavre En cadavre, gros Ici, y a jamais eu d'détail en trop Nan, jamais Mais j'peux t'attendre si t'es en retard Mon pote, ici, c'est chaud, c'est chaud J'crois qu'c'est bon, c'est bon Han-han-han Han Han Han2</t>
+          <t>Oh-oh-oh-oh-oh-oh-oh-oh Wouh LeTempsDuPiano Frenchis got that bass Oh Ouvre grand tes oreilles, j'vais t'raconter l'histoire du p'tit Mais depuis, il a grandit, tout l'monde le connaît dans la ville Ville Souvent nostalgique, j'voulais l'ballon d'or à R10 10 Septième pot, fallait qu'je sois convoqué les samedis Tellement la niak de fou, j'avais d'jà mes crampons dans l'bus M'en bats les couilles mais tout l'monde me dit qu'j'abuse Moi, c'est que la gagne, même les matchs nuls, ça m'fait chier Avec du recul, j'capte à quel moment j'ai flanché Flanché Quand l'daron a kill, on a vite ressenti la crise Ressenti la crise Moi et tous mes reufs, on pouvait pas faire de caprice Et c'est là mes premiers vols, mes premiers joints, mes premières tasses-pé Ma sur m'a vu en 4D à ma première perquis' Première perquis' Rien n'compte à part, ma fumée, l'soir, baisais des putes Baisais des putes J'viens d'faire un arraché, y a la mu'-mu' à pattes Duo avec La Pince, à deux on niquait tes potes Une bonbonne de 100, c'est avec ça qu'ils m'ont pété Le seul regret qu'j'ai, c'est d'avoir vu les larmes de ma mère J'ai flashé à seize piges, j'ai fait mon paquetage, j'ai kill Dehors, c'est pas facile, je sais qu'j'suis livré à moi-même Mais t'inquiète, j'suis pas tout seul, j'suis avec Dopi et Deuspi On a ouvert un terrain d'foot qui débite comme dans l'Sud Sud Mais tout peut aller vite, j'pense à ce teh tous les jours Jour Le terrain grandi 'di et j'sais qu'ils veulent notre chute Eux Mais rien à foutre, on écoule cinq plaquettes par jour Jour La vérité, ça a changé depuis Ténébreux 1 1 Trop d'trucs ont changé 'gé depuis Ténébreux 1 1 On a laissé l'terrain Nan et ceux qu'tu voyais dans mes clips Clips Se sont tous évaporés un par un Un J'suis plus départager entre la stup' et la musique Nan Mes doutes se sont concrétisés à mon premier platine Platine Maintenant qu'j'suis dans l'truc, j'vois le monde différemment Différemment Mais c'est pas grave vu qu'on ramasse pour l'moment Wouh On est des grands, on parle en gros On parle en gros, on parle en gros Des sins-cou qui parlent en cadavre En cadavre, gros Ici, y a jamais eu d'détail en trop Nan, jamais Mais j'peux t'attendre si t'es en r'tard Mon pote, ici, c'est chaud, c'est chaud J'crois qu'c'est bon, c'est bon On est des grands, on parle en gros On parle en gros, on parle en gros Des sins-cou qui parlent en cadavre En cadavre, gros Ici, y a jamais eu d'détail en trop Nan, jamais Mais j'peux t'attendre si t'es en retard Mon pote, ici, c'est chaud, c'est chaud J'crois qu'c'est bon, c'est bon Han-han-han Han Han Han2</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Oye Tommy, dame el fuego papi Et en primaire, on t'niquait ta mère si tu perds la balle au lieu de faire la passe Tout était beau, tout était rose, cétait tout pour le football, à la base Mais bon, j'ai dû vite faire un choix soit traîner dans l'bât ou bien, les longues études J'pensais faire de l'argent plus vite dans l'bat', j'me suis fait perquis' par la brigade des stup' Trois-heure quarante-trois fonce-dé dans lparking, ça parle de tonnes, parle de kil De la journée, du point d'deal, jespère qu'il a pas fait de trous, le p'tit Re-taille-dé, recompter, investis, mets d'côté, Tokarev, quoiquil arrive, j'laisserai pas tomber C'est plus comme quand j'étais petit, le foot en salle, les heures de colle C'est à mes risques et périls et si j'me rate, des années d'taule J'en ai vu d'puis qu'j'ai grandi des grandes balances, des mecs qui s'rangent Et quand j'suis fonce-dé côté passager, c'est à son tard-pé que j'pense Et c'est plus comme quand j'étais petit, nan nan, dix-mille euros pour acheter des vêtements C'est plus comme quand j'étais petit, nan nan, tout l'placard est rempli de gâteaux, oh C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan You might also like Avec tous les showcase que j'fais, j'subviens à chaque besoin d'ma mère J'ai l'disque d'or, j'ai l'single d'or qui pends dans l'salon à ma mère Eh, Deuspi', on l'a fait, ouais, Dopé, on l'a fait Un sac Gucci, un lit Gucci dans la chambre à ma mère Et le lundi, j'clippe toute la journée, le lendemain, interview Mercredi, j'dois acheter des sapes et vers minuit, j'suis au studio Jeudi, chez moi, j'me repose puis, le reste de la s'maine, showcase C'est pas que j'veux pas, bébé mais l'argent m'appelle C'est plus comme quand j'étais petit, le foot en salle, les heures de colle Devant un joint, resserre un verre, eh, AK, remets la prod' Une prod', un seize, un refrain, trente millions d'humains ravis Les plus anciens sont choqués d'me retrouver dans leur navire Et c'est plus comme quand j'étais petit, nan nan, dix-mille euros pour acheter des vêtements C'est plus comme quand j'étais petit, nan nan, tout l'placard est rempli de gâteaux, oh C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan C'est plus comme quand j'étais petit, nan C'est plus comme quand j'étais petit, nan</t>
+          <t>Oye Tommy, dame el fuego papi Et en primaire, on t'niquait ta mère si tu perds la balle au lieu de faire la passe Tout était beau, tout était rose, cétait tout pour le football, à la base Mais bon, j'ai dû vite faire un choix soit traîner dans l'bât ou bien, les longues études J'pensais faire de l'argent plus vite dans l'bat', j'me suis fait perquis' par la brigade des stup' Trois-heure quarante-trois fonce-dé dans lparking, ça parle de tonnes, parle de kil De la journée, du point d'deal, jespère qu'il a pas fait de trous, le p'tit Re-taille-dé, recompter, investis, mets d'côté, Tokarev, quoiquil arrive, j'laisserai pas tomber C'est plus comme quand j'étais petit, le foot en salle, les heures de colle C'est à mes risques et périls et si j'me rate, des années d'taule J'en ai vu d'puis qu'j'ai grandi des grandes balances, des mecs qui s'rangent Et quand j'suis fonce-dé côté passager, c'est à son tard-pé que j'pense Et c'est plus comme quand j'étais petit, nan nan, dix-mille euros pour acheter des vêtements C'est plus comme quand j'étais petit, nan nan, tout l'placard est rempli de gâteaux, oh C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan Avec tous les showcase que j'fais, j'subviens à chaque besoin d'ma mère J'ai l'disque d'or, j'ai l'single d'or qui pends dans l'salon à ma mère Eh, Deuspi', on l'a fait, ouais, Dopé, on l'a fait Un sac Gucci, un lit Gucci dans la chambre à ma mère Et le lundi, j'clippe toute la journée, le lendemain, interview Mercredi, j'dois acheter des sapes et vers minuit, j'suis au studio Jeudi, chez moi, j'me repose puis, le reste de la s'maine, showcase C'est pas que j'veux pas, bébé mais l'argent m'appelle C'est plus comme quand j'étais petit, le foot en salle, les heures de colle Devant un joint, resserre un verre, eh, AK, remets la prod' Une prod', un seize, un refrain, trente millions d'humains ravis Les plus anciens sont choqués d'me retrouver dans leur navire Et c'est plus comme quand j'étais petit, nan nan, dix-mille euros pour acheter des vêtements C'est plus comme quand j'étais petit, nan nan, tout l'placard est rempli de gâteaux, oh C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan nan C'est plus comme quand j'étais petit, nan C'est plus comme quand j'étais petit, nan C'est plus comme quand j'étais petit, nan</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Le magot, le magot, le magot Fuck it's easy Le magot, le magot, le magot Eh, eh Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Quinze heures, j'me réveille et une tisse-mé fait la vaisselle J'fais une toilette en bal et j'me casse aussitôt d'chez elle J'suis parti avant midi, c'est une chambre d'hôtel Ce soir, y a showcase, j'mets Audemars-Piguets et Rolex ouais, yeah Change de couleur coquard au noir, j'ai beau avoir un cur en pierre Mais comme j'ai eu le disque d'or, pour me voir, elle ment même à sa mère Avant de connaître le meilleur, attends-toi à connaître le pire Commande-le sur un grec et c'est fini, on est plus des p'tit mecs You might also like Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Il y a d'la l'argent à coffrer pour investir, le reste, c'est pour dépenser Une partie du butin coffré, cellophané, qui sorte que si j'suis un plat Ah là c'est tes phrases, c'était tchou tchou, un même pas, avec j'tenais la journée A45, AMG, comme j'ai des sous, si j'veux j'te rachète la caisse Allô Deuspi', dis-moi t'es où ? Seize heures, faut qu'j'm'habille comment ? Et j'te mets la paire de Versace, si faut tomber jusquà dessus Nique sa mère, on vient tous en jogging, on sait jamais si ça s'embrouille Et l'vélo, il arrive à quelle heure ? Faut que je rappelle les autres Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar</t>
+          <t>Le magot, le magot, le magot Fuck it's easy Le magot, le magot, le magot Eh, eh Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Quinze heures, j'me réveille et une tisse-mé fait la vaisselle J'fais une toilette en bal et j'me casse aussitôt d'chez elle J'suis parti avant midi, c'est une chambre d'hôtel Ce soir, y a showcase, j'mets Audemars-Piguets et Rolex ouais, yeah Change de couleur coquard au noir, j'ai beau avoir un cur en pierre Mais comme j'ai eu le disque d'or, pour me voir, elle ment même à sa mère Avant de connaître le meilleur, attends-toi à connaître le pire Commande-le sur un grec et c'est fini, on est plus des p'tit mecs Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Il y a d'la l'argent à coffrer pour investir, le reste, c'est pour dépenser Une partie du butin coffré, cellophané, qui sorte que si j'suis un plat Ah là c'est tes phrases, c'était tchou tchou, un même pas, avec j'tenais la journée A45, AMG, comme j'ai des sous, si j'veux j'te rachète la caisse Allô Deuspi', dis-moi t'es où ? Seize heures, faut qu'j'm'habille comment ? Et j'te mets la paire de Versace, si faut tomber jusquà dessus Nique sa mère, on vient tous en jogging, on sait jamais si ça s'embrouille Et l'vélo, il arrive à quelle heure ? Faut que je rappelle les autres Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Every day, j'encaisse, toutes les semaines, rien que j'fais des C Et comme j'ai percé, plus d'20K sur un seul poignet Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar Le magot, le magot, le magot Le magot, le magot, le magot Le magot, le magot, le magot, j'suis refait comme Escobar</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Je suis dans le binks fonce-dé dans le 50k Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Sur la vie d'ma mère qu'on s'invente pas d'vie nous et si tu m'crois pas bah viens m'voir hein Kilo, détail en 3 heures et j'ai tout liquidé en 7 jours De la peugeuff qui s'effrite tout seul, non ça existe pas l'argent facile Ici, y'a que des sous sales et le reste des affaires planqué dans le sous-sol J'suis dans l'Binks, n'importe où on rabat, on kiffe l'argent rapide J'découpe ma pur, j'descend en bas d'ma tour et la j'm'attend au pire Et toi t'as tord, j'ramène d'la 0-9 c'est comme ça qu'j'fais la diff' Et en hiver, comme le taille-dé durcie, dans mes couilles pour qu'sa chauffe Et la j'prépare mon attentat, pour être auch' et bah faut lutter J'ai trébuché, j'me suis relevé et petit à p'tit j'récup' mon butin Et, suis moi si t'es partant, à vos marques prêt feu partez Tu peux revendre partout et tu pourras t'acheter une nouvelle paire Enculé ! You might also like Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Ouais , Ola ola ola Moi avant j'devais les rabattre en vélo Avec mon bigot, 2 barrettes dans mes couilles Et j'faisais demi-tour quand j'voyais les flics Si tu nous voles ici nous on te pète la gueule Interdit d'vendre la cam pour qu'le terrain tourne Peufra quantité, bosseur assidu Recharger toute les 4 heures jusquà minuit Charger, recharger compter et puis recompter Détaillé, distribuer et ramasser Mélange pas ton chiffre d'affaire et le bénéfice Y'a de l'argent pour coffrer et ré-investir 0,8 grammes d'alcool dans l'sang Et 0,9 affiche la balance Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Je suis dans le binks fonce-dé dans le 50k</t>
+          <t>Je suis dans le binks fonce-dé dans le 50k Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Sur la vie d'ma mère qu'on s'invente pas d'vie nous et si tu m'crois pas bah viens m'voir hein Kilo, détail en 3 heures et j'ai tout liquidé en 7 jours De la peugeuff qui s'effrite tout seul, non ça existe pas l'argent facile Ici, y'a que des sous sales et le reste des affaires planqué dans le sous-sol J'suis dans l'Binks, n'importe où on rabat, on kiffe l'argent rapide J'découpe ma pur, j'descend en bas d'ma tour et la j'm'attend au pire Et toi t'as tord, j'ramène d'la 0-9 c'est comme ça qu'j'fais la diff' Et en hiver, comme le taille-dé durcie, dans mes couilles pour qu'sa chauffe Et la j'prépare mon attentat, pour être auch' et bah faut lutter J'ai trébuché, j'me suis relevé et petit à p'tit j'récup' mon butin Et, suis moi si t'es partant, à vos marques prêt feu partez Tu peux revendre partout et tu pourras t'acheter une nouvelle paire Enculé ! Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Ouais , Ola ola ola Moi avant j'devais les rabattre en vélo Avec mon bigot, 2 barrettes dans mes couilles Et j'faisais demi-tour quand j'voyais les flics Si tu nous voles ici nous on te pète la gueule Interdit d'vendre la cam pour qu'le terrain tourne Peufra quantité, bosseur assidu Recharger toute les 4 heures jusquà minuit Charger, recharger compter et puis recompter Détaillé, distribuer et ramasser Mélange pas ton chiffre d'affaire et le bénéfice Y'a de l'argent pour coffrer et ré-investir 0,8 grammes d'alcool dans l'sang Et 0,9 affiche la balance Drogue, liasses, money Sex, Jack Honey On a dû charbonner Et l'argent sale nous a maudit Dans le binks everyday c'est Rentable évidemment C'est la hess qu'on évite Toujours du cash dans ma sacoche Et je suis dans le binks everyday Et je suis dans le binks everyday Et je suis dans le binks everyday ey ey ey everyday Je suis dans le binks fonce-dé dans le 50k</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Voluptyk Voluptyk Okay J't'avais dis de pas faire le con SHB Mais ils ont pas écouté Scar, t'as fais une dinguerie, hein Ouh, ouh Merde, alors Merde alors Oh-oh-oh Tu connais l'boug, j'enfile ma Wimbledon et j'file à Roland Garros J'suis invité J'fais chauffer la garri et j'termine ma garrot, un peu paro', à chaque rendez-vous, obligé d'prendre un Glock 6.3 black, la carte est black mais j'galère toujours devant l'bloc D'eux, c'est mort, noyé, y en a assez Okay, j'oublie toujours d'débrasser Okay Ça fais longtemps que j'suis dans ça mais j'suis censé, j'me noie dans sa pussy Thing, thing Pour un putain de son royal, N.A.P.S, mélange le shit, la beuh Okay Ell s'est bourré toute la soirée, elle m'a sucé, sur ma bite, elle dégueule Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté You might also like Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Okay, okay J'suis khapta sur Avenue Foch Ouh, ouh, la danse du roro J'viens d'faire 100K, t'inquiètes, j'te défauche Ah-ah, zaza sous vo'-vo' Han En Panamera Center, loc' Vroum, vers les Tours Duo Dans le gros Range Rover Evoque Okay, sur les îles Bornéo J'arrive à balle, j'pars d'Aubagne, paire d'Hogan sous la pergola Qu'est c'que c'est trop bon la vie d'artiste, en temps réel, dans le Uracan J'suis à Vegas, Ceasar Palace, à 'seille, 'seille, c'est le matrixage J'ai 20K dans la banane Horspist Okay, comme d'hab,' à deux vingt dans les virages Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh Ils vont pas t'louper, c'est les plus méchants qu'j'ai envoyé Piou, piou, piou Laisse-les faire les grossistes, moi, j'sais qu'leur vie fait qu'un an d'loyer Brr Ça parles, ça parles, d'vant oi-m, c'est pas les mêmes mots qu'ils vont employer Piou, piou Le AMG passe Vroum, les chiens font qu'aboyer Nique la mère à Bilal Hassani Fort, shooter d'Sevran à Saint-Denis Fort Demande aux autres si j'me suis assagis Fort, j'fête quand les Kalashs s'agitent Grah, grah Combinaison, j'suis tout en noir Vroum, album, Rolex tout en or J'démarre qu'le sac à la poire, jamais on balance d'vant les porcs Piou, piou Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Elle m'posait v'là les questions, j'ai dû la laisser tomber J'ai toujours pas r'tnue la l'çon, j'récupère dix kilos d'C Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh</t>
+          <t>Voluptyk Voluptyk Okay J't'avais dis de pas faire le con SHB Mais ils ont pas écouté Scar, t'as fais une dinguerie, hein Ouh, ouh Merde, alors Merde alors Oh-oh-oh Tu connais l'boug, j'enfile ma Wimbledon et j'file à Roland Garros J'suis invité J'fais chauffer la garri et j'termine ma garrot, un peu paro', à chaque rendez-vous, obligé d'prendre un Glock 6.3 black, la carte est black mais j'galère toujours devant l'bloc D'eux, c'est mort, noyé, y en a assez Okay, j'oublie toujours d'débrasser Okay Ça fais longtemps que j'suis dans ça mais j'suis censé, j'me noie dans sa pussy Thing, thing Pour un putain de son royal, N.A.P.S, mélange le shit, la beuh Okay Ell s'est bourré toute la soirée, elle m'a sucé, sur ma bite, elle dégueule Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Okay, okay J'suis khapta sur Avenue Foch Ouh, ouh, la danse du roro J'viens d'faire 100K, t'inquiètes, j'te défauche Ah-ah, zaza sous vo'-vo' Han En Panamera Center, loc' Vroum, vers les Tours Duo Dans le gros Range Rover Evoque Okay, sur les îles Bornéo J'arrive à balle, j'pars d'Aubagne, paire d'Hogan sous la pergola Qu'est c'que c'est trop bon la vie d'artiste, en temps réel, dans le Uracan J'suis à Vegas, Ceasar Palace, à 'seille, 'seille, c'est le matrixage J'ai 20K dans la banane Horspist Okay, comme d'hab,' à deux vingt dans les virages Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh Ils vont pas t'louper, c'est les plus méchants qu'j'ai envoyé Piou, piou, piou Laisse-les faire les grossistes, moi, j'sais qu'leur vie fait qu'un an d'loyer Brr Ça parles, ça parles, d'vant oi-m, c'est pas les mêmes mots qu'ils vont employer Piou, piou Le AMG passe Vroum, les chiens font qu'aboyer Nique la mère à Bilal Hassani Fort, shooter d'Sevran à Saint-Denis Fort Demande aux autres si j'me suis assagis Fort, j'fête quand les Kalashs s'agitent Grah, grah Combinaison, j'suis tout en noir Vroum, album, Rolex tout en or J'démarre qu'le sac à la poire, jamais on balance d'vant les porcs Piou, piou Mélange aux fruits d'la passion, le sac avec le gros C La Rolex en immersion, sur Insta', j'ai riposté Elle m'posait v'là les questions, j'ai dû la laisser tomber J'ai toujours pas r'tnue la l'çon, j'récupère dix kilos d'C Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh Cagoulé, RS4 péta, ah-ah-ah-ah Ouh, ouh T'inquiètes, on connaît la que-pla, ah-ah-ah-ah Ouh, ouh En jet en deux-deux à Cuba, ah-ah-ah-ah Ouh, ouh Mais toi, t'es K.O, t'es ttu-ba, ah-ah-ah-ah Ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Eh, oh On t'ramène d'la patate d'la patate Olala Eh, woh Eh Et le business m'a rapporté que des ennuis, mon disque de platine, des haineux J'suis dedans, ça fait même pas un an, Koba LaD, RK prend la place des aînés J'suis dans l'bolide, la plaque est allemande, RS marqué en gros sur le volant Et 3 litres 2, ça consomme un peu comme on fructifie, toujours le plein d'essence Eh, ramène tous tes potos, on les baise, j'veux niquer la grand-mère du boss J'suis dans l'bâtiment, j'vais dans la pièce, le colis passe pas par La Poste J'suis avec Kobz La Détaille, il pleut des balles à la fin de l'épisode On la détaille, la ravitaille, elle est tellement belle qu'elle a causé des morts Cent grammes, un kil', Pablo, ouh, ça fait beaucoup J'dors plus beaucoup, planning bouclé, quatre jours dans la s'maine, j'suis booké Grosse quantité, bonne qualité, ouh J'en ai plus que du Critical et d'la G13, propose une feuille pour les tirer Eh oh, et j'rejoins Geeks dans l'bloc sa mère dans l'bloc sa mère Détesté par les cops, déféré pour d'la merde déféré pour d'la merde Trois trous, T-Max, Rastou retrace gros salaire Enfin dans l'tas, ils nous connaissent pas, j'ai laissé aucune trace, allez niquer vos mères, j'suis dans la villa Est-c'que tu penses que tu peux nous la mettre ? Woh Serein, les deux pieds dans la tess, compte l'oseille que j'peux claquer au resto On vous confirme qu'on vous baise tous, on lâche des albums ou des best-of On va répéter qu'on les baise tous, le soir, défoncés, on en rigole Pas compliqué nous, on encaisse tout, mon gros, tu vas vider la caisse, toi J'rentre dans l'appart' cagoulé comme d'hab', en plus, on est rentrés par le toit par effraction You might also like Encore encore un peu un peu, juste un juste un p'tit peu p'tit peu Une cons' une cons', deux cons' deux cons', deux grammes deux grammes, vingt eu' pas mal Onze heures oh, ici hey, quinze heures hey, on recharge hey Ça tire hey, hey, hey, hey, ça tire, plus d'balle, j'recharge Si tu veux d'la patate, on t'ramène d'la patate Si tu veux d'la patate, on t'ramène d'la patate Si tu veux d'la patate, on t'ramène d'la patate, enculé Si tu veux d'la patate, on t'ramène d'la patate, enculé</t>
+          <t>Eh, oh On t'ramène d'la patate d'la patate Olala Eh, woh Eh Et le business m'a rapporté que des ennuis, mon disque de platine, des haineux J'suis dedans, ça fait même pas un an, Koba LaD, RK prend la place des aînés J'suis dans l'bolide, la plaque est allemande, RS marqué en gros sur le volant Et 3 litres 2, ça consomme un peu comme on fructifie, toujours le plein d'essence Eh, ramène tous tes potos, on les baise, j'veux niquer la grand-mère du boss J'suis dans l'bâtiment, j'vais dans la pièce, le colis passe pas par La Poste J'suis avec Kobz La Détaille, il pleut des balles à la fin de l'épisode On la détaille, la ravitaille, elle est tellement belle qu'elle a causé des morts Cent grammes, un kil', Pablo, ouh, ça fait beaucoup J'dors plus beaucoup, planning bouclé, quatre jours dans la s'maine, j'suis booké Grosse quantité, bonne qualité, ouh J'en ai plus que du Critical et d'la G13, propose une feuille pour les tirer Eh oh, et j'rejoins Geeks dans l'bloc sa mère dans l'bloc sa mère Détesté par les cops, déféré pour d'la merde déféré pour d'la merde Trois trous, T-Max, Rastou retrace gros salaire Enfin dans l'tas, ils nous connaissent pas, j'ai laissé aucune trace, allez niquer vos mères, j'suis dans la villa Est-c'que tu penses que tu peux nous la mettre ? Woh Serein, les deux pieds dans la tess, compte l'oseille que j'peux claquer au resto On vous confirme qu'on vous baise tous, on lâche des albums ou des best-of On va répéter qu'on les baise tous, le soir, défoncés, on en rigole Pas compliqué nous, on encaisse tout, mon gros, tu vas vider la caisse, toi J'rentre dans l'appart' cagoulé comme d'hab', en plus, on est rentrés par le toit par effraction Encore encore un peu un peu, juste un juste un p'tit peu p'tit peu Une cons' une cons', deux cons' deux cons', deux grammes deux grammes, vingt eu' pas mal Onze heures oh, ici hey, quinze heures hey, on recharge hey Ça tire hey, hey, hey, hey, ça tire, plus d'balle, j'recharge Si tu veux d'la patate, on t'ramène d'la patate Si tu veux d'la patate, on t'ramène d'la patate Si tu veux d'la patate, on t'ramène d'la patate, enculé Si tu veux d'la patate, on t'ramène d'la patate, enculé</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ah Noxious, Noxious Ah À c'qui p', j'suis un effet de mode mais mes liasses sont empilées Aujourd'hui, j'souris, demain, j'suis yomb, à quoi bon ? C'est éphémère Les bagarres de groupe, les terrains d'drogue, c'est sur nos p'tits qu'on déteint Et j'étais pas sûr, là, y a plus d'doute, je ne peux plus perdre de temps Et j'avais des rêves comme tout l'monde mais la beuh a fumé mes crampons Y a pas de magie p'tit frère dans la vie, tu deviens ceux que tu fréquentes Et quand dans ma tête, tout est confus, auprès du Très-Haut, je me confesse Nous, on a fait la guerre, ceux qu'ont pas fait la guerre ne connaissent pas le goût d'la paix Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or, donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or, dehors, j'bâtis son abri You might also like J'reviens d'loin, mon pote J'ai trop de mépris, car peu d'personnes m'éprouvent Aller-retour, cave-bâtiments mais l'bénèf' fait fuir ma peur Midi-minuit, forfait bloquée, impossible d'le résilier On a la peau sur les os, mec, impossible d'se résigner Fonce-dé, j'me pose des questions Mais où commence un arc-en-ciel ? J'achète l'RS6 ou l'A45, j'réfléchis mieux quand j'suis tout seul Faut pas cracher sur la main, celle qui t'a te-j' ta bonbonne Nous, on a fait la guerre, ceux qu'ont pas fait la guerre ne connaissent pas le goût d'la paix Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or dehors j'bâtis son abri Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or, dehors, j'bâtis son abri J'ai pris des coups dans la cité J'l'ai fais par nécessité2</t>
+          <t>Ah Noxious, Noxious Ah À c'qui p', j'suis un effet de mode mais mes liasses sont empilées Aujourd'hui, j'souris, demain, j'suis yomb, à quoi bon ? C'est éphémère Les bagarres de groupe, les terrains d'drogue, c'est sur nos p'tits qu'on déteint Et j'étais pas sûr, là, y a plus d'doute, je ne peux plus perdre de temps Et j'avais des rêves comme tout l'monde mais la beuh a fumé mes crampons Y a pas de magie p'tit frère dans la vie, tu deviens ceux que tu fréquentes Et quand dans ma tête, tout est confus, auprès du Très-Haut, je me confesse Nous, on a fait la guerre, ceux qu'ont pas fait la guerre ne connaissent pas le goût d'la paix Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or, donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or, dehors, j'bâtis son abri J'reviens d'loin, mon pote J'ai trop de mépris, car peu d'personnes m'éprouvent Aller-retour, cave-bâtiments mais l'bénèf' fait fuir ma peur Midi-minuit, forfait bloquée, impossible d'le résilier On a la peau sur les os, mec, impossible d'se résigner Fonce-dé, j'me pose des questions Mais où commence un arc-en-ciel ? J'achète l'RS6 ou l'A45, j'réfléchis mieux quand j'suis tout seul Faut pas cracher sur la main, celle qui t'a te-j' ta bonbonne Nous, on a fait la guerre, ceux qu'ont pas fait la guerre ne connaissent pas le goût d'la paix Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or dehors j'bâtis son abri Han, han Leur faire du sale, que du sale, y a la Grinta, j'suis pas seul Han, han Et tout est calé, tout est calé, j'ai la cons' tout près des couilles J'ai créé Koba dans la cité Pour ça, personne m'a félicité, 'cité, 'cité J'l'ai fais par nécessité J'subis la vie d'la cité, cité, cité Rien que j'traîne dehors mais dehors, c'est trop la crise Maman veut de l'or donc dehors, j'suis au charbon Mais putain, dehors, trop d'hypocrites m'font la bise Ma mère veut de l'or, dehors, j'bâtis son abri J'ai pris des coups dans la cité J'l'ai fais par nécessité2</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Noxious Okay, okay Ouh HRNN to the top, man! N.A.P.S La-la-la-la-la-la, Koba LaD Des fois, c'est la merde mais faut qu'j'assume, j'peux rien y faire Cartel volume 2 Han Okay La-la-la-la-la-la Des fois, c'est trop la merde mais faut qu'j'assume, j'peux rien y faire J'peux rien y faire Matinal, pas pour la school mais pour le four Mais pour le four Toi, tu m'verras pas sur l'R mais tout ça, c'est mes affaires C'est mes affaires Ça bosse, ça bosse, trop d'rayures sur la feuille de compte Han Et faut qu'j'lui sorte un bout Un bout, juste un peu Un peu Pochton d'buh gé-char comme son boule Son cul J'dois descndre voir Naps, AR en bas Han C'est l'bon vieux mais j'le fous dans la cache Okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou You might also like Et j'suis fonce-dé dans l'RS3 J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Et la-la-la-la-la-la-la J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Des fois, faut sortir, faut décompresser J'récup' la mama dans le Kompressor La principale me disait qu'j'allais pas m'en sortir Et juste ma voiture, elle pourra jamais s'l'offrir Okay Ouais, ça craint ces temps-ci, j'suis grave défoncé, j'récup' le poto, j'crois qu'ce soir, on va dépenser Va dépenser Tu m'as manqué aussi, elle aime trop danser, j'récup' la petite, j'crois qu'ce soir, on va s'ambiancer J'ressors d'G.À.V avec mes lacets, là, j'suis au Bât' 7, avec Koba LaD C'est l'Cartel volume 2, mets l'volume un peu Derrière les vitres teintées, ça fume des gros joints d'beuh Okay, okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou Et j'suis fonce-dé dans l'RS3 J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Et la-la-la-la-la-la-la J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Des fois, faut sortir, faut décompresser J'récup' la mama dans le Kompressor La principale me disait qu'j'allais pas m'en sortir Et juste ma voiture, elle pourra jamais s'l'offrir Okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou1</t>
+          <t>Noxious Okay, okay Ouh HRNN to the top, man! N.A.P.S La-la-la-la-la-la, Koba LaD Des fois, c'est la merde mais faut qu'j'assume, j'peux rien y faire Cartel volume 2 Han Okay La-la-la-la-la-la Des fois, c'est trop la merde mais faut qu'j'assume, j'peux rien y faire J'peux rien y faire Matinal, pas pour la school mais pour le four Mais pour le four Toi, tu m'verras pas sur l'R mais tout ça, c'est mes affaires C'est mes affaires Ça bosse, ça bosse, trop d'rayures sur la feuille de compte Han Et faut qu'j'lui sorte un bout Un bout, juste un peu Un peu Pochton d'buh gé-char comme son boule Son cul J'dois descndre voir Naps, AR en bas Han C'est l'bon vieux mais j'le fous dans la cache Okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou Et j'suis fonce-dé dans l'RS3 J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Et la-la-la-la-la-la-la J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Des fois, faut sortir, faut décompresser J'récup' la mama dans le Kompressor La principale me disait qu'j'allais pas m'en sortir Et juste ma voiture, elle pourra jamais s'l'offrir Okay Ouais, ça craint ces temps-ci, j'suis grave défoncé, j'récup' le poto, j'crois qu'ce soir, on va dépenser Va dépenser Tu m'as manqué aussi, elle aime trop danser, j'récup' la petite, j'crois qu'ce soir, on va s'ambiancer J'ressors d'G.À.V avec mes lacets, là, j'suis au Bât' 7, avec Koba LaD C'est l'Cartel volume 2, mets l'volume un peu Derrière les vitres teintées, ça fume des gros joints d'beuh Okay, okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou Et j'suis fonce-dé dans l'RS3 J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Et la-la-la-la-la-la-la J'ramène kichtas à la son-mai, là j'suis perdu dans la zone Des fois, faut sortir, faut décompresser J'récup' la mama dans le Kompressor La principale me disait qu'j'allais pas m'en sortir Et juste ma voiture, elle pourra jamais s'l'offrir Okay C'est bizarre, j'repense à tout, tout, tout Et même sur Snap', y a la doudou-dou Par la vitre, elle m'fait Coucou, c'est ma gadji, c'est ma chouchou C'est bizarre, j'repense à tout, tout, tout Même sur Snap', y a la doudou-dou Par la vitre, elle me fait Coucou, c'est ma gadji, c'est mon chouchou1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>You know, I don't like to do that! Eh, y a du B, y a du B, y a du B Boomi' Eh, AKM c'est comment ? Oh, oh, oh Oh, woh J'viens du bâtiment, j'viens du bâtiment Ah, ah Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' Oh, woh J'viens du bâtiment, j'viens du bâtiment Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' Le terrain tenu par un 2000, nous, on push sale dans l'bâtiment La tourage Partout, ça pue la merde mais y a mon fer en bas d'chez moi V'là les che-lou, v'là les ches-lâ bons qu'à jacter d'vant les raclis Mais ces mecs-là, c'est comme mes ex sont bons qu'à rev'nir s'excuser Et mon dernier boloss d'hier, il est en état d'apesanteur Il est sur Pluton On va tout prendre si ton gent-ar t'rend pas heureux Là, j'bombarde en cabriolet, j'en ai fait voler mon joint d'beuh Ma G13 Elle a senti l'biff, renoi, je sais qu'j'suis pas beau You might also like On m'a promis la gloire La gloire, depuis, j'l'attends toujours, j'en deviens fou Fou En plus, mon ex la pute La pute, j'ai vu qu'elle s'fait ner-tour dans l'snap de l'autre De l'autre Il faut que j'reste focus Focus, faut pas que je sois distrait, pour mon bien être Bien être J'viens d'recevoir d'la beuh mais j'sais pas où la mettre Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' La vie d'ma mère Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' C'est trop bon la vie d'artiste Han, han, trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment C'est trop bon la vie d'artiste Han, han, c'est trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment Galbé comme un dent-cure Hey mais la montre fait que je pèse lourd J'fais trembler l'sol quand j'accélère mais merde, j'arrive jamais à l'heure Pah, pah, pah, pah J'fais six-cent eu' sur un cent G Cent G, j'suis v'nu manger Manger, pour pas changer Changer Pour bien manger, fallait buzzer Buzzer, donc pour buzzer j'les ai baisés J'ai treize Philippe, momo, Rizla, deux barres, deux barres sur le buzz Deux barres, deux barres sur le buzz Les poumons plus noirs que ta bip Gros, c'est bizarre, elle veut pas s'poser, elle veut pas d'bisous, elle veut que baiser Ah bon ? J'suis au Biblos avec Deuspi, Skofreu, Nazo, Zango, Dopé Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' La vie d'ma mère Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' C'est trop bon la vie d'artiste Han, han, trop bon la vie d'artiste han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment C'est trop bon la vie d'artiste Han, han, c'est trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment Ah, ah, ah Vroum Pah, pah, pah, pah Ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh3</t>
+          <t>You know, I don't like to do that! Eh, y a du B, y a du B, y a du B Boomi' Eh, AKM c'est comment ? Oh, oh, oh Oh, woh J'viens du bâtiment, j'viens du bâtiment Ah, ah Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' Oh, woh J'viens du bâtiment, j'viens du bâtiment Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' Le terrain tenu par un 2000, nous, on push sale dans l'bâtiment La tourage Partout, ça pue la merde mais y a mon fer en bas d'chez moi V'là les che-lou, v'là les ches-lâ bons qu'à jacter d'vant les raclis Mais ces mecs-là, c'est comme mes ex sont bons qu'à rev'nir s'excuser Et mon dernier boloss d'hier, il est en état d'apesanteur Il est sur Pluton On va tout prendre si ton gent-ar t'rend pas heureux Là, j'bombarde en cabriolet, j'en ai fait voler mon joint d'beuh Ma G13 Elle a senti l'biff, renoi, je sais qu'j'suis pas beau On m'a promis la gloire La gloire, depuis, j'l'attends toujours, j'en deviens fou Fou En plus, mon ex la pute La pute, j'ai vu qu'elle s'fait ner-tour dans l'snap de l'autre De l'autre Il faut que j'reste focus Focus, faut pas que je sois distrait, pour mon bien être Bien être J'viens d'recevoir d'la beuh mais j'sais pas où la mettre Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' La vie d'ma mère Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' C'est trop bon la vie d'artiste Han, han, trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment C'est trop bon la vie d'artiste Han, han, c'est trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment Galbé comme un dent-cure Hey mais la montre fait que je pèse lourd J'fais trembler l'sol quand j'accélère mais merde, j'arrive jamais à l'heure Pah, pah, pah, pah J'fais six-cent eu' sur un cent G Cent G, j'suis v'nu manger Manger, pour pas changer Changer Pour bien manger, fallait buzzer Buzzer, donc pour buzzer j'les ai baisés J'ai treize Philippe, momo, Rizla, deux barres, deux barres sur le buzz Deux barres, deux barres sur le buzz Les poumons plus noirs que ta bip Gros, c'est bizarre, elle veut pas s'poser, elle veut pas d'bisous, elle veut que baiser Ah bon ? J'suis au Biblos avec Deuspi, Skofreu, Nazo, Zango, Dopé Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' La vie d'ma mère Oh, woh J'viens du bâtiment, j'viens du bâtiment Du bât 7 Oh, woh Comme j'suis un gros bâtard, j'vais marier une tain-p' C'est trop bon la vie d'artiste Han, han, trop bon la vie d'artiste han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment C'est trop bon la vie d'artiste Han, han, c'est trop bon la vie d'artiste Han, han C'est trop bon la vie d'artiste Han, han mais j'suis encore dans l'bâtiment Ah, ah, ah Vroum Pah, pah, pah, pah Ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh3</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Laytebeats J'suis tous les jours dans l'binks même si j'ai signé dans l'meilleur label meilleur label Regarde l'argent rend beau et de mon point vue, la vie est belle la vie est belle Et j'enchaîne les showcases, après l'effort, viendra la récompense la récompense J'ai plus d'soucis à m'faire vu qu'j'ai signé dans l'meilleur label meilleur label Et comme t'es meilleur qu'eux meilleur qu'eux, la moitié va t'tourner l'dos regarde ces putes Maman me l'avait dit me l'avait dit, fiston ne néglige jamais ton don jamais ton don T'es pas là dans les moments durs les moments durs, bizarrement, j'suis ton reuf depuis qu'j'fais la une c'est des fous Et la plupart, c'est des hyènes c'est des hyènes réputés comme les plus gros fils de putes fils de chiens Nous, on chiffrait avant d'rapper avant d'rapper, mes anciens boloss m'voient à la télé sur YouTube Ils s'rappellent de moi dans l'bloc, toujours entrain d'fumer ou deffriter en train d'bédave Fais le plus gros bloc j'fais le plus gros bloc, j'ai la meilleure peuf j'ai la meilleure peuf À une putain d'touche, pour qu'on s'arrange, il faut qu't'en rachètes t'en rachètes Et j'ramène les affaires à l'heure pour que t'en rachètes Le bosseur est postiche à midi pour que t'en rachètes J'détaille tout soigneusement pour que t'en t'en achètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Il faut que t'en rachètes ouais ouais Il faut que t'en rachètes, il faut que t'en rachètes Tu vois que c'est d'la peuf, il faut que t'en rachètes You might also like Et j'me fais lahsa ensuite j'me déplace j'ai plus trop l'temps pour la S Elle parle allemand, en même temps qu'elle me suce elle me suce Dans son Mojito, au pied du lit, j'suis assis j'suis assis Et du bénef', y'en a jamais assez jamais assez, j'réinvestis tout et nique sa grand-mère les sapes les sapes Sans te gourrer, mélangé dans la soupe la soupe, super compo, super flow, super bat J'suis sur l'terrain terrain, c'est pas du mytho non, té-ma non regarde Contrôle orienté, coup dil et hop là demi-volée la lucarne Depuis les années 2000, maintenant c'est l'casque intégral intégral La tenue complète un autre ennemi abattu en T-Max bye bye bye bye bye bye J'ai gravi tous les échelons les échelons, d'autres m'ont suivi et d'autres m'ont lâché lâché N'empêche que c'est moi qui devient louche, ces fils de chien f'raient tout pour que j'les lèche les lèche Ici, on va jeter parle pas de nage de nage, c'est nous les meilleurs commerçants de neige de la S Bande de pédés, ma détermination personne va m'l'enlever va m'l'enlever Et j'ramène les affaires à l'heure pour que t'en rachètes Le bosseur est postiche à midi pour que t'en rachètes J'détaille tout soigneusement pour que t'en t'en achètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Il faut que t'en rachètes ouais ouais Il faut que t'en rachètes, il faut que t'en rachètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Ouais ouais, ouais ouais Ouais ouais, ouais ouais Ouais ouais, ouais ouais Ouais ouais, ouais ouais</t>
+          <t>Laytebeats J'suis tous les jours dans l'binks même si j'ai signé dans l'meilleur label meilleur label Regarde l'argent rend beau et de mon point vue, la vie est belle la vie est belle Et j'enchaîne les showcases, après l'effort, viendra la récompense la récompense J'ai plus d'soucis à m'faire vu qu'j'ai signé dans l'meilleur label meilleur label Et comme t'es meilleur qu'eux meilleur qu'eux, la moitié va t'tourner l'dos regarde ces putes Maman me l'avait dit me l'avait dit, fiston ne néglige jamais ton don jamais ton don T'es pas là dans les moments durs les moments durs, bizarrement, j'suis ton reuf depuis qu'j'fais la une c'est des fous Et la plupart, c'est des hyènes c'est des hyènes réputés comme les plus gros fils de putes fils de chiens Nous, on chiffrait avant d'rapper avant d'rapper, mes anciens boloss m'voient à la télé sur YouTube Ils s'rappellent de moi dans l'bloc, toujours entrain d'fumer ou deffriter en train d'bédave Fais le plus gros bloc j'fais le plus gros bloc, j'ai la meilleure peuf j'ai la meilleure peuf À une putain d'touche, pour qu'on s'arrange, il faut qu't'en rachètes t'en rachètes Et j'ramène les affaires à l'heure pour que t'en rachètes Le bosseur est postiche à midi pour que t'en rachètes J'détaille tout soigneusement pour que t'en t'en achètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Il faut que t'en rachètes ouais ouais Il faut que t'en rachètes, il faut que t'en rachètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Et j'me fais lahsa ensuite j'me déplace j'ai plus trop l'temps pour la S Elle parle allemand, en même temps qu'elle me suce elle me suce Dans son Mojito, au pied du lit, j'suis assis j'suis assis Et du bénef', y'en a jamais assez jamais assez, j'réinvestis tout et nique sa grand-mère les sapes les sapes Sans te gourrer, mélangé dans la soupe la soupe, super compo, super flow, super bat J'suis sur l'terrain terrain, c'est pas du mytho non, té-ma non regarde Contrôle orienté, coup dil et hop là demi-volée la lucarne Depuis les années 2000, maintenant c'est l'casque intégral intégral La tenue complète un autre ennemi abattu en T-Max bye bye bye bye bye bye J'ai gravi tous les échelons les échelons, d'autres m'ont suivi et d'autres m'ont lâché lâché N'empêche que c'est moi qui devient louche, ces fils de chien f'raient tout pour que j'les lèche les lèche Ici, on va jeter parle pas de nage de nage, c'est nous les meilleurs commerçants de neige de la S Bande de pédés, ma détermination personne va m'l'enlever va m'l'enlever Et j'ramène les affaires à l'heure pour que t'en rachètes Le bosseur est postiche à midi pour que t'en rachètes J'détaille tout soigneusement pour que t'en t'en achètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Il faut que t'en rachètes ouais ouais Il faut que t'en rachètes, il faut que t'en rachètes Tu vois que c'est d'la peuf, il faut que t'en rachètes Ouais ouais, ouais ouais Ouais ouais, ouais ouais Ouais ouais, ouais ouais Ouais ouais, ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>La mort ou tchitchi ? Ouais, ouais, ouais, ouais Ah, ah Putain AKM, un revenant, eh, eh Bye, bye, bye, bye Full troisième dans la Ferrari, regarde, j'fais bander les p'tits du re-fou Re-fou Au feu rouge, pétard à la bouche, la daronne d'en face me voit comme un fou Un fou Confonds pas gourmandise et faim Jamais Avoir des couilles, c'est pas être fou C'est pas être fou, mon pote, nan Même si j'la trompe, elle peut pas m'dire Foye La pute Y a d'la beuh, y a du shit à mort, frérot, sans t'n rendre compte, ça put t'faire baver Baver J'suis dans l'Merco, j'suis dans l'sche-Por, j'suis dans l'dernier RS6 2020 Audi C'est mon fer, j'suis pas à 2.20 Et toi, j'te sens pas depuis que j't'ai vu C'est mort C'est dur, crois pas qu'on savoure, le goût d'la défaite c'est la pire saveur Mais bon, ça va, j'vais m'endormir dans l'avion Dans dix heures, je me réveille Dans dix heures, je me réveille J'suis vers le lac Moraine, j'ai huit heures de décalage Là, j'pète les plombs Ma caisse sort de révision, ils ont trouvé trois traqueurs Ils ont trouvé trois traqueurs Une nouvelle équipe de keufs fait des rondes dans mon parking You might also like Il est trois heures et il m'reste deux-trois joints Deux-trois teh Cinq heures cinquante-cinq, faut qu'j'sois en bas d'chez moi Chez ma mère Depuis midi, j'ai récup' deux-trois points Il est seize heures Après minuit, j'fais tous les comptes chez moi C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Il reste rien sur la conso' depuis qu'ils ont té-mon le prix du litre Bâtard Souviens, mec, on signe à la lettre, si tu rates, c'est toi, remets rien sur l'autre Et même en gamos, on baraude en meute En meute, quatre pétards alignés Vroum Ceux qui m'ont laissé en loup tentent de me rattraper par la queue Dans ma tess, c'est un HP en plein air, belek quand tu vois mes potes Sur La Dalle, les tits-pe qui chassent les keufs, les grands en voiture pé-ta Dans la cage, les ptes-com de la journée juste à côté du pétard Dans la cage, les ptes-com de la journée juste ah, putain Il est trois heures et il m'reste deux-trois joints Deux-trois teh Cinq heures cinquante-cinq, faut qu'j'sois en bas d'chez moi Chez ma mère Depuis midi, j'ai récup' deux-trois points Il est seize heures Après minuit, j'fais tous les comptes chez moi C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Mais bon, ça va, j'vais m'endormir dans l'avion Dans dix heures, je me réveille Dans dix heures, je me réveille J'suis vers le lac Moraine, j'ai huit heures de décalage Là, j'pète les plombs Ma caisse sort de révision, ils ont trouvé trois traqueurs Ils ont trouvé trois traqueurs Une nouvelle équipe de keufs fait des rondes dans mon parking Yah, yah, yah C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Aye, yah, yah, yah</t>
+          <t>La mort ou tchitchi ? Ouais, ouais, ouais, ouais Ah, ah Putain AKM, un revenant, eh, eh Bye, bye, bye, bye Full troisième dans la Ferrari, regarde, j'fais bander les p'tits du re-fou Re-fou Au feu rouge, pétard à la bouche, la daronne d'en face me voit comme un fou Un fou Confonds pas gourmandise et faim Jamais Avoir des couilles, c'est pas être fou C'est pas être fou, mon pote, nan Même si j'la trompe, elle peut pas m'dire Foye La pute Y a d'la beuh, y a du shit à mort, frérot, sans t'n rendre compte, ça put t'faire baver Baver J'suis dans l'Merco, j'suis dans l'sche-Por, j'suis dans l'dernier RS6 2020 Audi C'est mon fer, j'suis pas à 2.20 Et toi, j'te sens pas depuis que j't'ai vu C'est mort C'est dur, crois pas qu'on savoure, le goût d'la défaite c'est la pire saveur Mais bon, ça va, j'vais m'endormir dans l'avion Dans dix heures, je me réveille Dans dix heures, je me réveille J'suis vers le lac Moraine, j'ai huit heures de décalage Là, j'pète les plombs Ma caisse sort de révision, ils ont trouvé trois traqueurs Ils ont trouvé trois traqueurs Une nouvelle équipe de keufs fait des rondes dans mon parking Il est trois heures et il m'reste deux-trois joints Deux-trois teh Cinq heures cinquante-cinq, faut qu'j'sois en bas d'chez moi Chez ma mère Depuis midi, j'ai récup' deux-trois points Il est seize heures Après minuit, j'fais tous les comptes chez moi C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Il reste rien sur la conso' depuis qu'ils ont té-mon le prix du litre Bâtard Souviens, mec, on signe à la lettre, si tu rates, c'est toi, remets rien sur l'autre Et même en gamos, on baraude en meute En meute, quatre pétards alignés Vroum Ceux qui m'ont laissé en loup tentent de me rattraper par la queue Dans ma tess, c'est un HP en plein air, belek quand tu vois mes potes Sur La Dalle, les tits-pe qui chassent les keufs, les grands en voiture pé-ta Dans la cage, les ptes-com de la journée juste à côté du pétard Dans la cage, les ptes-com de la journée juste ah, putain Il est trois heures et il m'reste deux-trois joints Deux-trois teh Cinq heures cinquante-cinq, faut qu'j'sois en bas d'chez moi Chez ma mère Depuis midi, j'ai récup' deux-trois points Il est seize heures Après minuit, j'fais tous les comptes chez moi C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Mais bon, ça va, j'vais m'endormir dans l'avion Dans dix heures, je me réveille Dans dix heures, je me réveille J'suis vers le lac Moraine, j'ai huit heures de décalage Là, j'pète les plombs Ma caisse sort de révision, ils ont trouvé trois traqueurs Ils ont trouvé trois traqueurs Une nouvelle équipe de keufs fait des rondes dans mon parking Yah, yah, yah C'est trop doux, j'ai fait des sous Des thunes Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du fric Juste en bas d'chez moi Mais tranquille, y a le bât' 7 7 Juste en bas d'chez moi Et c'est trop doux, j'ai fait des sous Du flouz Juste en bas d'chez moi Aye, yah, yah, yah</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pas d'gestuelle d'épaule, personne gigote ses pieds Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Tout l'monde sait tu l'sors d'où, tu t'es fait poucave par certains certains C'est réel, y a pas dindin, en i sur la béc', ces débiles En c'moment, j'galère Ouais, faut qu'j'bouge dans l'Sud Ouais Pour la route, j'vais prendre un Fefe Ouais, une Ferrari Celui qui s'gare tout seul, je choque tous les pères de famille Plus j'm'approche du million et plus j'm'écarte du paradis Du paradis On t'fait guerre devant la baraque, mes reufs m'voient plus comme un raté Que des fettels, que des broliques, là, c'est tout l'contraire d'Ibiza Beaucoup d'détails, beaucoup d'pochtars, nous, on t'tartine comme des baisés Pas d'gestuelle d'épaule, personne gigote ses pieds Personne gigote sees ieds-p, enculé, eh, eh Que des négros fonces-dé qui attendent une bagarre Pour mieux t'enculer ta, eh, eh You might also like Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon Le seul chemin Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon C'est mon destin J'suis fonce-dé dans l'trou noir Bre-som, j'suis tout en noir En noir Et putain d'merde, la hess m'a mis tout nu, ma vie fait qu'des tonneaux Rien d'convaincant, gros, zéro dans les poches, mon frère, c'est embêtant J'ai pris d'la C, j'l'ai mis sur la pesette et pour l'bénéf' d'cette merde, j'ai trop dormi dehors Mais bon, pas grave mais bon pas dig, à part mon flingue, rien n'est assortable Assorti Un caddie posé sur le bout du pont, c'est pour le PU Ils viennent de poser une caméra au bout d'la rue, yah, yah, yah Pas d'gestuelle d'épaule, personne gigote ses pieds Personne gigote sees ieds-p, enculé, eh, eh Que des négros fonce-dé, qui attendent une bagarre Pour mieux t'enculer ta, eh, eh Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon Le seul chemin Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon C'est mon destin Ohlolo Ohlolo Ohlolo Ohlolo1</t>
+          <t>Pas d'gestuelle d'épaule, personne gigote ses pieds Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Tout l'monde sait tu l'sors d'où, tu t'es fait poucave par certains certains C'est réel, y a pas dindin, en i sur la béc', ces débiles En c'moment, j'galère Ouais, faut qu'j'bouge dans l'Sud Ouais Pour la route, j'vais prendre un Fefe Ouais, une Ferrari Celui qui s'gare tout seul, je choque tous les pères de famille Plus j'm'approche du million et plus j'm'écarte du paradis Du paradis On t'fait guerre devant la baraque, mes reufs m'voient plus comme un raté Que des fettels, que des broliques, là, c'est tout l'contraire d'Ibiza Beaucoup d'détails, beaucoup d'pochtars, nous, on t'tartine comme des baisés Pas d'gestuelle d'épaule, personne gigote ses pieds Personne gigote sees ieds-p, enculé, eh, eh Que des négros fonces-dé qui attendent une bagarre Pour mieux t'enculer ta, eh, eh Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon Le seul chemin Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon C'est mon destin J'suis fonce-dé dans l'trou noir Bre-som, j'suis tout en noir En noir Et putain d'merde, la hess m'a mis tout nu, ma vie fait qu'des tonneaux Rien d'convaincant, gros, zéro dans les poches, mon frère, c'est embêtant J'ai pris d'la C, j'l'ai mis sur la pesette et pour l'bénéf' d'cette merde, j'ai trop dormi dehors Mais bon, pas grave mais bon pas dig, à part mon flingue, rien n'est assortable Assorti Un caddie posé sur le bout du pont, c'est pour le PU Ils viennent de poser une caméra au bout d'la rue, yah, yah, yah Pas d'gestuelle d'épaule, personne gigote ses pieds Personne gigote sees ieds-p, enculé, eh, eh Que des négros fonce-dé, qui attendent une bagarre Pour mieux t'enculer ta, eh, eh Y a v'là les entrées, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo C'est la haine qui m'a fait, mon frère Ohlolo Moi, ma meuf, c'est un métal froid Ohlolo Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon Le seul chemin Ici, la drogue, c'est le seul filon La seule option La drogue, c'est le seul filon C'est mon destin Ohlolo Ohlolo Ohlolo Ohlolo1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah C'est la B.A, la BMF SHK Largent, la drogue, l'euro Ouh, ouh, ouh Narcos Ouh, ouh, ouh, ouh Que des mauvaises ondes, des mauvaises idées C'est relou, jfais plus confiance les yeux fermés C'est même pas la peine Donc renvoie les papiers, j'vais vérifier Ouh, renvoie les papiers, j'vais vérifier Tu m'renvoie sur le mail Quand j'revois sa te-tê, j'ai l'démon, jvais ltraîner mais faut qu'jattends mes talls Un billet J'suis toujours en attent de jugement Oh putain, donc j'peux pas m'permettre dre-bé-tom pour rien Oh putain Là, ça pue la be-her sur ton palier Faut doser, c'est un Adieu mais j'ai dit À t'-à l'heure À jamais J'suis quasiment sûr de plus la baiser La pétasse et la Rollie en or, elle donne pas l'heure Elle est même pas réglé Zola, roule un joint d'beuh, fais P2 P2, j'tire deux-trois barres vite fait sur l'pétou Pétou Elle demande pourquoi j'conduis l'siège baissé La pute, bébé, moi, j'suis trop rodave sur la route J'les ai vu faire l'aller J'les ai vu partir mais jamais le retour Jamais revenir Dans mon binks, l'escalier Dans l'bendo, c'est pas la bonne issue d'secours Bonne issue d'secours Sur la Rolex en ro'-ro' Rolex en ro'-ro', c'est le compte à rebours Le compte à rebours Elle est jamais à l'heure Elle est jamais à l'heure, j'oublie qu'elle est faite pour J'oublie qu'elle est faite pour Elle aime bien m'appeller Big Daddy Yeah, MDR, mon neveu fait l'bandit Yeah Il m'dit c'qu'il va être quand il va grandir, il veut un billet d'dix, il veut revendre l'OG Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Ce con Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con You might also like À cause des gens comme moi, les keufs se disent que leur instincts ne trompent pas J'suis cramé J'peux pas borner dans la té-c', ma poupée se demande pourquoi j'sonne pas Allô ? Ce plan, là, j'le sens pas Nan, j'y vais quand-même, j'm'en bats Les couilles J'allonge le siège dans la caisse, pendant qu'ma baby retire son bas Sale La pétasse, elle réclame un daddy caramel et un daddy chocolaté Aye, aye, aye, sale J'ai trouvé les clés d'un Fe'-Fe' dans mon Lambo', c'était à Koba LaD Aye, aye, aye, i got you Un Glock sur moi, j'vais m'balader, dans mon jardin, j'veux un bassin où j'ai pas pieds Aye, aye, aye Un, deux, trois, quatre, cinq coups d'pelle où j'mets mon paquet Aye, aye, aye Toc, toc, toc, toc à ma porte, les fes-keu sur l'pallier, un Glock sur moi quand je vais m'balader I got you Yeah, tu veux mes kichtas, mes loves mais pas ma vie Aye, aye, aye J'ai fait du sale, faut qu'j'mette mon pied d'biche sur les portes du paradis Aye, aye, aye J'avoue, j'ai fait trop d'sale Yeah, yeah, yeah, j'ai fait trop d'sale Yeah, yeah, yeah Arrête de bander sur elle, j'l'ai d'jà baisée, c'est pété, c'est pourri J'les ai vu faire l'aller J'les ai vu partir mais jamais le retour Jamais revenir Dans mon binks, l'escalier Dans l'bendo, c'est pas la bonne issue d'secours Bonne issue d'secours Sur la Rolex en ro'-ro' Rolex en ro'-ro', c'est le compte à rebours Le compte à rebours Elle est jamais à l'heure Elle est jamais à l'heure, j'oublie qu'elle est faite pour J'oublie qu'elle est faite pour Elle aime bien m'appeller Big Daddy Yeah, MDR, mon neveu fait l'bandit Yeah Il m'dit c'qu'il va être quand il va grandir, il veut un billet d'dix, il veut revendre l'OG Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Ce con Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Va pas l'dire à ta mère Ouais, ouais, ouais C'est la B.A, la BMF</t>
+          <t>Yeah, yeah, yeah C'est la B.A, la BMF SHK Largent, la drogue, l'euro Ouh, ouh, ouh Narcos Ouh, ouh, ouh, ouh Que des mauvaises ondes, des mauvaises idées C'est relou, jfais plus confiance les yeux fermés C'est même pas la peine Donc renvoie les papiers, j'vais vérifier Ouh, renvoie les papiers, j'vais vérifier Tu m'renvoie sur le mail Quand j'revois sa te-tê, j'ai l'démon, jvais ltraîner mais faut qu'jattends mes talls Un billet J'suis toujours en attent de jugement Oh putain, donc j'peux pas m'permettre dre-bé-tom pour rien Oh putain Là, ça pue la be-her sur ton palier Faut doser, c'est un Adieu mais j'ai dit À t'-à l'heure À jamais J'suis quasiment sûr de plus la baiser La pétasse et la Rollie en or, elle donne pas l'heure Elle est même pas réglé Zola, roule un joint d'beuh, fais P2 P2, j'tire deux-trois barres vite fait sur l'pétou Pétou Elle demande pourquoi j'conduis l'siège baissé La pute, bébé, moi, j'suis trop rodave sur la route J'les ai vu faire l'aller J'les ai vu partir mais jamais le retour Jamais revenir Dans mon binks, l'escalier Dans l'bendo, c'est pas la bonne issue d'secours Bonne issue d'secours Sur la Rolex en ro'-ro' Rolex en ro'-ro', c'est le compte à rebours Le compte à rebours Elle est jamais à l'heure Elle est jamais à l'heure, j'oublie qu'elle est faite pour J'oublie qu'elle est faite pour Elle aime bien m'appeller Big Daddy Yeah, MDR, mon neveu fait l'bandit Yeah Il m'dit c'qu'il va être quand il va grandir, il veut un billet d'dix, il veut revendre l'OG Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Ce con Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con À cause des gens comme moi, les keufs se disent que leur instincts ne trompent pas J'suis cramé J'peux pas borner dans la té-c', ma poupée se demande pourquoi j'sonne pas Allô ? Ce plan, là, j'le sens pas Nan, j'y vais quand-même, j'm'en bats Les couilles J'allonge le siège dans la caisse, pendant qu'ma baby retire son bas Sale La pétasse, elle réclame un daddy caramel et un daddy chocolaté Aye, aye, aye, sale J'ai trouvé les clés d'un Fe'-Fe' dans mon Lambo', c'était à Koba LaD Aye, aye, aye, i got you Un Glock sur moi, j'vais m'balader, dans mon jardin, j'veux un bassin où j'ai pas pieds Aye, aye, aye Un, deux, trois, quatre, cinq coups d'pelle où j'mets mon paquet Aye, aye, aye Toc, toc, toc, toc à ma porte, les fes-keu sur l'pallier, un Glock sur moi quand je vais m'balader I got you Yeah, tu veux mes kichtas, mes loves mais pas ma vie Aye, aye, aye J'ai fait du sale, faut qu'j'mette mon pied d'biche sur les portes du paradis Aye, aye, aye J'avoue, j'ai fait trop d'sale Yeah, yeah, yeah, j'ai fait trop d'sale Yeah, yeah, yeah Arrête de bander sur elle, j'l'ai d'jà baisée, c'est pété, c'est pourri J'les ai vu faire l'aller J'les ai vu partir mais jamais le retour Jamais revenir Dans mon binks, l'escalier Dans l'bendo, c'est pas la bonne issue d'secours Bonne issue d'secours Sur la Rolex en ro'-ro' Rolex en ro'-ro', c'est le compte à rebours Le compte à rebours Elle est jamais à l'heure Elle est jamais à l'heure, j'oublie qu'elle est faite pour J'oublie qu'elle est faite pour Elle aime bien m'appeller Big Daddy Yeah, MDR, mon neveu fait l'bandit Yeah Il m'dit c'qu'il va être quand il va grandir, il veut un billet d'dix, il veut revendre l'OG Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Ce con Alors, j'sors un billet à ce p'tit con Ce p'tit con, alors, j'sors un billet à ce p'tit con Va pas l'dire à ta mère Ouais, ouais, ouais C'est la B.A, la BMF</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Oh, oh, oh Layte Beats J'suis avec mes semblables, on fait pas semblant Nan, on met d'la coke dans l'sablier Le paquet est soufflé, la couper, c'est simple Eh et quand ça passe, faut ses appuis Trop d'trucs ont changées depuis que j'suis coté, j'follow les raclis et l'terrain d'à côté Aye Toujours la même tête, le respect, ça compte, si t'allumes, on t'allume ta mère, on est quittes Y a un trou Encore un trou sa mère, encore, on l'bouche avec le bénéf' Bénéf' Si j'ai un doute, je le visser pas C'est mort, j'laisse faire mon intuition et mon flair Mon flair Elle va t'faire fuir, alors, pas d'flirt Flirt, t'es pas l'plus fou, y a toujours plus fou T'es pas l'plus fou, y a toujours plus fou, c'est elle qui t'fait mais c'est elle qui t'fume J'suis garé tout au fond du bendo La B, j'me fais lahsa par Brenda La tain-p' Pour dodo, je fume quatre bedodo De beuh, on accélère au Total C'est mort Ici, à tous les postes, ça charbonne Ça deal, rien que ça transpire, on s'la donne C'est chaud Pas sûr qu'on s'en sorte indemne C'est chaud et encore moins si y a la douane C'est chaud Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo, j'me fais lahsa par Brenda Aye, aye, aye, aye, aye You might also like J'suis dans la musique et j'suis dans la street, encore un cliquos qui gratte une t-oph' À la tête d'un commerce à but lucratif Eh, Grinta Records fait gonfler les fonds à donf' Les fonds à donf' Elle se cambre comme une folle Han, g-strin couleur Fe-Fe Nan, on n'est pas v'nu pour ta fête Nan, liquider l'reste du détail J'suis dans un 4x4, gros comme un avion Aye, j'suis dans un gros cul Aye, comme Nicki Minaj Aye Bats les couilles d'tes ongles Aye, vas faire le ménage Aye, bédave la beugeuh qui zigouille les méninges Aye, aye, aye, aye Pour vingt euros, y a d'la drogue qui accélère ton corps comme un manège Ouais, ouais, ouais, ouais Dedans depuis gamin, guette, c'est les patrons du four qui me managent Ouais, ouais, ouais, ouais J'suis garé tout au fond du bendo La B, j'me fais lahsa par Brenda La tain-p' Pour dodo, je fume quatre bedodo De beuh, on accélère au Total C'est mort Ici, à tous les postes, ça charbonne Ça deal, rien que ça transpire, on s'la donne C'est chaud Pas sûr qu'on s'en sorte indemne C'est chaud et encore moins si y a la douane C'est chaud Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo, j'me fais lahsa par Brenda Aye, aye, aye, aye, aye</t>
+          <t>Oh, oh, oh Layte Beats J'suis avec mes semblables, on fait pas semblant Nan, on met d'la coke dans l'sablier Le paquet est soufflé, la couper, c'est simple Eh et quand ça passe, faut ses appuis Trop d'trucs ont changées depuis que j'suis coté, j'follow les raclis et l'terrain d'à côté Aye Toujours la même tête, le respect, ça compte, si t'allumes, on t'allume ta mère, on est quittes Y a un trou Encore un trou sa mère, encore, on l'bouche avec le bénéf' Bénéf' Si j'ai un doute, je le visser pas C'est mort, j'laisse faire mon intuition et mon flair Mon flair Elle va t'faire fuir, alors, pas d'flirt Flirt, t'es pas l'plus fou, y a toujours plus fou T'es pas l'plus fou, y a toujours plus fou, c'est elle qui t'fait mais c'est elle qui t'fume J'suis garé tout au fond du bendo La B, j'me fais lahsa par Brenda La tain-p' Pour dodo, je fume quatre bedodo De beuh, on accélère au Total C'est mort Ici, à tous les postes, ça charbonne Ça deal, rien que ça transpire, on s'la donne C'est chaud Pas sûr qu'on s'en sorte indemne C'est chaud et encore moins si y a la douane C'est chaud Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo, j'me fais lahsa par Brenda Aye, aye, aye, aye, aye J'suis dans la musique et j'suis dans la street, encore un cliquos qui gratte une t-oph' À la tête d'un commerce à but lucratif Eh, Grinta Records fait gonfler les fonds à donf' Les fonds à donf' Elle se cambre comme une folle Han, g-strin couleur Fe-Fe Nan, on n'est pas v'nu pour ta fête Nan, liquider l'reste du détail J'suis dans un 4x4, gros comme un avion Aye, j'suis dans un gros cul Aye, comme Nicki Minaj Aye Bats les couilles d'tes ongles Aye, vas faire le ménage Aye, bédave la beugeuh qui zigouille les méninges Aye, aye, aye, aye Pour vingt euros, y a d'la drogue qui accélère ton corps comme un manège Ouais, ouais, ouais, ouais Dedans depuis gamin, guette, c'est les patrons du four qui me managent Ouais, ouais, ouais, ouais J'suis garé tout au fond du bendo La B, j'me fais lahsa par Brenda La tain-p' Pour dodo, je fume quatre bedodo De beuh, on accélère au Total C'est mort Ici, à tous les postes, ça charbonne Ça deal, rien que ça transpire, on s'la donne C'est chaud Pas sûr qu'on s'en sorte indemne C'est chaud et encore moins si y a la douane C'est chaud Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo De beuh, j'me fais lahsa par Brenda Oh, la tain-p' Pour dodo, je fume quatre bedodo, j'me fais lahsa par Brenda Aye, aye, aye, aye, aye</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Narcos La misère, elle m'a désarmé P't-être un diplôme ou j'crois qu'j'aurais du faire l'armé Ah, ah Hadouken Eh, eh, la misère, elle m'a désarmé, p't-être un diplôme ou j'crois qu'j'aurais dû faire l'armée Ah-ah J'garde mes sin-c' près d'moi Ah-ah, que ça qui m'fait du bien Ah-ah J'garde mes sin-c' près d'moi Ah-ah, que ça qui m'fait du bien Ah-ah Trop d'haineux, trop d'envieux, trop d'suceurs, j'comprends pas Ah, pourtant, j'faisais bien Ah, pourtant, j'faisais bien Ah Donc, sur un coup d'tête, j'ai niqué l'ancien manager Ah, avec Headie One mais j'parle pas l'anglais Pour moi, c'est chelou, dans la zone, tout l'monde dvient fou Fou Au fond, j'm'en bats les couills Han, au fond, chacun sa route Han J'ai voulu faire le bon mais toi, tu m'as pris pour un con Han Donc, j'vais t'charcler comme à Londres, j'vais t'charcler comme à Londres Ici, la sincérité, ça pue sa mère, l'humain est chelou à mort C'est léger, t'inquiète, on pèse, c'est léger, t'inquiète, on pèse J'lui ai foutu un coup d'reins, un deuxième coup d'reins, j'l'ai laissé dans l'hôtel Mais toi, elle t'voit comme un , t'es revenu quand elle t'a te-j' Whether in England or France, we do not deal with the feds No Whether in London or Paris, we do not sit on the fence No I got VVS diamonds on me Diamonds on me as I sit in the trench Sit in the trench Ain't nothin' nice where I'm from, we did have to sleep with a skeng Sleep with a skeng, one You might also like Off-head, I don't know my mobile number Agh, but I still know my prison one How? How can I forget 'bout the bando when I basically lived in one? I still can't go to Michigan even though I made all this bread, it's pain Turn up Told little broski work his aim Turn, turn, don't go shoot no civilian Told me turn, yeah Opps wanna act like comedians Suh-suh That's 'til we in a ding dong tryna blend in like chameleons Make bine fly in the evenin' Suh, su-su-suh They want beef, we bring seasonin' Shh got banged from a ting with a beamer Shh went sleep from the cheapest ting Yo, all of this time in France, but I still can't speak French Turn up, turn up Yo, I told Koba LaD to come to London, let's link in ends Told me turn It's only right that we live it large Told me turn, yeah 'cah the feds want us livin' less Told me turn, suh Back on that sweat box cuttin' through Inverness Suh, su-su-su-su-su Ici, la sincérité, ça pue sa mère, l'humain est chelou à mort C'est léger, t'inquiète, on pèse, c'est léger, t'inquiète, on pèse J'lui ai foutu un coup d'reins, un deuxième coup d'reins, j'l'ai laissé dans l'hôtel Mais toi, elle t'voit comme un , t'es revenu quand elle t'a te-j' Whether in England or France, we do not deal with the feds No Whether in London or Paris, we do not sit on the fence No I got VVS diamonds on me Diamonds on me as I sit in the trench Sit in the trench Ain't nothin' nice where I'm from, we did have to sleep with a skeng Sleep with a skeng2</t>
+          <t>Narcos La misère, elle m'a désarmé P't-être un diplôme ou j'crois qu'j'aurais du faire l'armé Ah, ah Hadouken Eh, eh, la misère, elle m'a désarmé, p't-être un diplôme ou j'crois qu'j'aurais dû faire l'armée Ah-ah J'garde mes sin-c' près d'moi Ah-ah, que ça qui m'fait du bien Ah-ah J'garde mes sin-c' près d'moi Ah-ah, que ça qui m'fait du bien Ah-ah Trop d'haineux, trop d'envieux, trop d'suceurs, j'comprends pas Ah, pourtant, j'faisais bien Ah, pourtant, j'faisais bien Ah Donc, sur un coup d'tête, j'ai niqué l'ancien manager Ah, avec Headie One mais j'parle pas l'anglais Pour moi, c'est chelou, dans la zone, tout l'monde dvient fou Fou Au fond, j'm'en bats les couills Han, au fond, chacun sa route Han J'ai voulu faire le bon mais toi, tu m'as pris pour un con Han Donc, j'vais t'charcler comme à Londres, j'vais t'charcler comme à Londres Ici, la sincérité, ça pue sa mère, l'humain est chelou à mort C'est léger, t'inquiète, on pèse, c'est léger, t'inquiète, on pèse J'lui ai foutu un coup d'reins, un deuxième coup d'reins, j'l'ai laissé dans l'hôtel Mais toi, elle t'voit comme un , t'es revenu quand elle t'a te-j' Whether in England or France, we do not deal with the feds No Whether in London or Paris, we do not sit on the fence No I got VVS diamonds on me Diamonds on me as I sit in the trench Sit in the trench Ain't nothin' nice where I'm from, we did have to sleep with a skeng Sleep with a skeng, one Off-head, I don't know my mobile number Agh, but I still know my prison one How? How can I forget 'bout the bando when I basically lived in one? I still can't go to Michigan even though I made all this bread, it's pain Turn up Told little broski work his aim Turn, turn, don't go shoot no civilian Told me turn, yeah Opps wanna act like comedians Suh-suh That's 'til we in a ding dong tryna blend in like chameleons Make bine fly in the evenin' Suh, su-su-suh They want beef, we bring seasonin' Shh got banged from a ting with a beamer Shh went sleep from the cheapest ting Yo, all of this time in France, but I still can't speak French Turn up, turn up Yo, I told Koba LaD to come to London, let's link in ends Told me turn It's only right that we live it large Told me turn, yeah 'cah the feds want us livin' less Told me turn, suh Back on that sweat box cuttin' through Inverness Suh, su-su-su-su-su Ici, la sincérité, ça pue sa mère, l'humain est chelou à mort C'est léger, t'inquiète, on pèse, c'est léger, t'inquiète, on pèse J'lui ai foutu un coup d'reins, un deuxième coup d'reins, j'l'ai laissé dans l'hôtel Mais toi, elle t'voit comme un , t'es revenu quand elle t'a te-j' Whether in England or France, we do not deal with the feds No Whether in London or Paris, we do not sit on the fence No I got VVS diamonds on me Diamonds on me as I sit in the trench Sit in the trench Ain't nothin' nice where I'm from, we did have to sleep with a skeng Sleep with a skeng2</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise Des billets, du cash qu'on veut Pour être blindé j'ferai pas parti des vôtres Plus d'une fois, j'vois ma vie qui défile Non maman, j'aurais dû traverser le pare-prise J'ai grandi maman, t'inquiètes n'aies plus peur Maintenant ton fils fait parti des plus forts Personne pensait que j'aurai pu le faire Et regarde je suis la tête du rap FR Les condés, les condés rendent parano Et moi je m'introduis que quand il dort J'ai tout pris et j'ai rien rendu Tout ça m'appartient et jusquà nouvelle ordre Y a les baqueux, la c'est chaud mec Donc j'me cale vers le chinois Les p'tits m'disent de faire belek, la mumu né-tour tout près d'la gare Faut pas qu'tu sois bavard, et mise tous sur un bon baveux Mais faut qu'ça soit rentable, ne fait jamais de bénévolat J'aurais pas dû, mais j'l'ai fait Fourrer la pote de mon ex Koba LaD c'est moi qui fait la diff' en plein axe You might also like L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise Du gramme j'suis passé au kilo Les tes-traî allez vous faire enculer Le gars qui ne porte pas ses couilles qui pense qu'à faire du cash Posté même quand il caille On est pas là pour rigoler Que d'la peufra à gogo D'mon côté personne recule, rien qu'ça charbonne, personne roupille On a l'meilleur bedo, et c'est moi l'buteur Et les autres boudent, veulent c'que j'ai dans l'bide On pense cash money, billets vert, violets Moi tout c'que j'veux c'est que vous m'payez pour c'que j'veux J'suis l'meilleur vous savez Elles s'retournent toutes pour m'dire ça va ? On a toutes les saveurs, à c'qui parait l'arme c'est l'savoir Le bénéf' ça se savoure, on est fasciné sois en sûr Quand les condés sévirent faut tenir le coup, rester solide L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre pas sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise</t>
+          <t>L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise Des billets, du cash qu'on veut Pour être blindé j'ferai pas parti des vôtres Plus d'une fois, j'vois ma vie qui défile Non maman, j'aurais dû traverser le pare-prise J'ai grandi maman, t'inquiètes n'aies plus peur Maintenant ton fils fait parti des plus forts Personne pensait que j'aurai pu le faire Et regarde je suis la tête du rap FR Les condés, les condés rendent parano Et moi je m'introduis que quand il dort J'ai tout pris et j'ai rien rendu Tout ça m'appartient et jusquà nouvelle ordre Y a les baqueux, la c'est chaud mec Donc j'me cale vers le chinois Les p'tits m'disent de faire belek, la mumu né-tour tout près d'la gare Faut pas qu'tu sois bavard, et mise tous sur un bon baveux Mais faut qu'ça soit rentable, ne fait jamais de bénévolat J'aurais pas dû, mais j'l'ai fait Fourrer la pote de mon ex Koba LaD c'est moi qui fait la diff' en plein axe L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise Du gramme j'suis passé au kilo Les tes-traî allez vous faire enculer Le gars qui ne porte pas ses couilles qui pense qu'à faire du cash Posté même quand il caille On est pas là pour rigoler Que d'la peufra à gogo D'mon côté personne recule, rien qu'ça charbonne, personne roupille On a l'meilleur bedo, et c'est moi l'buteur Et les autres boudent, veulent c'que j'ai dans l'bide On pense cash money, billets vert, violets Moi tout c'que j'veux c'est que vous m'payez pour c'que j'veux J'suis l'meilleur vous savez Elles s'retournent toutes pour m'dire ça va ? On a toutes les saveurs, à c'qui parait l'arme c'est l'savoir Le bénéf' ça se savoure, on est fasciné sois en sûr Quand les condés sévirent faut tenir le coup, rester solide L'argent, j'en veux encore, la drogue, j'en vois encore J'ai grandi, j'ai mûri, et maintenant j'ai plus peur Eux et moi c'est pas pareil, deux mondes parallèles La vie t'fait voir les envieux, ils t'envient, ils t'en veulent On s'réveille pour le cash, on t'recherche pour le cash On sort pour faire du cash et on rentre pas sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise On sort pour faire du cash et on rentre d'fois sans cash On s'est juré d'gagner, si tu t'opposes on t'cogne La reconnaissance c'est la base, et à la concu' j'fais la bise</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Noxious Oh ouais, oh ouais J'étais dans l'bât' à partir de midi, les keufs et les ients-cli défilent Et maintenant, tous les week-end, j'suis sur scène et devant la foule, j'me défoule J'récupère, j'récupère, j'récupère, j'récupère des billets des fans Et au studio, j'repense à mes garde à vue, aux keufs, aux ients-cli qui défilent Oh ouais oh ouais, oh ouais, aujourd'hui, maman me sourit Oh ouais oh ouais, oh ouais, mes p'tits et mes grands frères portent mes habits J'suis plus dans l'binks oh ouais, oh ouais, j'négocie l'tarot des showcases Et quand j'la baise oh ouais, oh ouais, je sais que j'rends fiers mes ancêtres OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG You might also like Et maintenant, j'ai un emploi du temps chargé, j'dois toujours refaire ma valise Et j'transite d'hôtel en hôtel et je passe de ville en ville Et maintenant, je paye le loyer, j'suis plus le fardeau d'la famille Eh, gamin, si tu compte sur eux, c'est dans ton dos qu'ils vont s'gaver Fais bellek oh ouais, oh ouais, la moitié d'entre eux sont des putes c'est pas des potes oh ouais, oh ouais Tu les vois plus quand ça pète quand t'es en bas oh ouais, oh ouais Ils font zehma ça soutient depuis qu'tu perces oh ouais, oh ouais Mon négro, tu connais la suite OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG OG fume la OG</t>
+          <t>Noxious Oh ouais, oh ouais J'étais dans l'bât' à partir de midi, les keufs et les ients-cli défilent Et maintenant, tous les week-end, j'suis sur scène et devant la foule, j'me défoule J'récupère, j'récupère, j'récupère, j'récupère des billets des fans Et au studio, j'repense à mes garde à vue, aux keufs, aux ients-cli qui défilent Oh ouais oh ouais, oh ouais, aujourd'hui, maman me sourit Oh ouais oh ouais, oh ouais, mes p'tits et mes grands frères portent mes habits J'suis plus dans l'binks oh ouais, oh ouais, j'négocie l'tarot des showcases Et quand j'la baise oh ouais, oh ouais, je sais que j'rends fiers mes ancêtres OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG Et maintenant, j'ai un emploi du temps chargé, j'dois toujours refaire ma valise Et j'transite d'hôtel en hôtel et je passe de ville en ville Et maintenant, je paye le loyer, j'suis plus le fardeau d'la famille Eh, gamin, si tu compte sur eux, c'est dans ton dos qu'ils vont s'gaver Fais bellek oh ouais, oh ouais, la moitié d'entre eux sont des putes c'est pas des potes oh ouais, oh ouais Tu les vois plus quand ça pète quand t'es en bas oh ouais, oh ouais Ils font zehma ça soutient depuis qu'tu perces oh ouais, oh ouais Mon négro, tu connais la suite OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais Oh, hey, oh ouais, oh ouais OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât,' on est maudit OG fume la OG, OG fume la OG Dans l'bât', on est maudit, dans l'bât', on est maudit OG fume la OG, OG fume la OG OG fume la OG, OG fume la OG OG fume la OG</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>La guerra, la guerra, Valar Morghulis Ah, spectaculavéguère Quarante-cinq, quatre-vingt onze, voisin du crime, tu vois ou pas ? Tu vois ou pas ? Summer Crack 4 Ah, ah Ouais, ouais, ouais, ouais Chassé de Koba, ba kanga monoko ba zoba Chien Équipe outillée dans les govas, parés pour braquer le convoi Bang Bon, maintenant, où est-c'quon va ? Où Toque à ta porte comme des five O' ou des témoins d'Jehovah Cest nous On t'soulève, tu dormais dans l'sofa Ah, ah, ouais, laud-sa, c'est nous les sauvages Où est ma conso' ? Où est mon breuvage Où ? J'veux la musique de Star Wars Pour faire voir aux tchoins d'la te-boî Tchoin qu'léquipe est solide et solvable Gang Ma chérie vient dse faire un gommage Skurt, j'viens pour lui causer des dommages Ah La faire crier comme au parloir sauvage et récupérer tous les hommages Bébé, les vitres sont teintées, tu peux dégrafer le soutif et les bas Ouais, cest le D avec LaD et vous, c'est qui ? Hmm, hmm, connais pas Ah, quelle insolence J'rejoins l'poto vers le bât 7, putain, j'ai cogné le bas d'caisse J'crois qu'je viens d'rouler sur l'pe-ra, c'est priceless Ah You might also like J'vais cuisiner le cke-cra tout l'été Oh yeah, yeah, yeah Rider dans la cité sous Lambo', sous Fe-Fe Sous Lambo, sous Fe-Fe, sous Lambo, sous Fe-Fe À la base, on était venu qu'pour aider À la base, on était venu qu'pour aider Laud-sa des lauds-sa va encore tout péter Ouh, ouais, ouais, ouais Le corps gainé quand le gamos chasse Le corps est gainé, le corps est gainé Le corps gainé quand le gamos chasse Juste après le RS, tu rajoutes Q3 J'ai le corps gainé quand le gamos chasse Ouais, ouais, ouais, ouais Koba Tout en LV, tout en Dolce dans un gamos qui fait le poids de ma montre Faut que je referme ma valise, à huit heures, j'ai mon vol pour La Réunion Et j'me rappelle quand à l'ancienne, les jours de plus bas, c'était la misère À défaut d'avoir des baskets trouées, j'rentrais chez maman, les chaussettes mouillées J'suis debout dans l'meilleur, dans le pire et j'essaye pas d'avoir un frérot mort Des rivières de larmes qu'a fait couler ma mère en voyant son gamin plonger dans la merde Enculé, on est là depuis l'début, deuxième album, nous, on est plus des p'tits Et j'suis dans l'corner, j'suis avec Dosseh et Deuspi, en train de re-peser les doses Avenue Foch, j'suis en train d'lécher tes tétons Et regarde, on a gravi les échelons Skurt Enculé, quand c'était chaud, t'étais où ? Toute l'année au fer, on attend pas l'été On récupère, on commet des péchés, la musique en vrai, bah, c'est comme la push Faut l'meilleur produit, rester assidu Prends ton temps, gamin, non, ne sois pas pressé J'vais cuisiner le cke-cra tout l'été Oh yeah, yeah, yeah Rider dans la cité sous Lambo', sous Fe-Fe Sous Lambo, sous Fe-Fe, sous Lambo, sous Fe-Fe À la base, je n'étais venu qu'pour aider À la base, je n'étais venu qu'pour aider Laud-sa des lauds-sa va encore tout péter Ouh, ouais, ouais, ouais Le corps gainé quand le gamos chasse Le corps est gainé, le corps est gainé Le corps gainé quand le gamos chasse Juste après le RS, tu rajoutes Q3 J'ai le corps gainé quand le gamos chasse Ouais, ouais, ouais, ouais Le corps est gainé, le corps est gainé, eh Koba Laud-sa des lauds-sa Ouais, ouais, ouais, ouais Poh1</t>
+          <t>La guerra, la guerra, Valar Morghulis Ah, spectaculavéguère Quarante-cinq, quatre-vingt onze, voisin du crime, tu vois ou pas ? Tu vois ou pas ? Summer Crack 4 Ah, ah Ouais, ouais, ouais, ouais Chassé de Koba, ba kanga monoko ba zoba Chien Équipe outillée dans les govas, parés pour braquer le convoi Bang Bon, maintenant, où est-c'quon va ? Où Toque à ta porte comme des five O' ou des témoins d'Jehovah Cest nous On t'soulève, tu dormais dans l'sofa Ah, ah, ouais, laud-sa, c'est nous les sauvages Où est ma conso' ? Où est mon breuvage Où ? J'veux la musique de Star Wars Pour faire voir aux tchoins d'la te-boî Tchoin qu'léquipe est solide et solvable Gang Ma chérie vient dse faire un gommage Skurt, j'viens pour lui causer des dommages Ah La faire crier comme au parloir sauvage et récupérer tous les hommages Bébé, les vitres sont teintées, tu peux dégrafer le soutif et les bas Ouais, cest le D avec LaD et vous, c'est qui ? Hmm, hmm, connais pas Ah, quelle insolence J'rejoins l'poto vers le bât 7, putain, j'ai cogné le bas d'caisse J'crois qu'je viens d'rouler sur l'pe-ra, c'est priceless Ah J'vais cuisiner le cke-cra tout l'été Oh yeah, yeah, yeah Rider dans la cité sous Lambo', sous Fe-Fe Sous Lambo, sous Fe-Fe, sous Lambo, sous Fe-Fe À la base, on était venu qu'pour aider À la base, on était venu qu'pour aider Laud-sa des lauds-sa va encore tout péter Ouh, ouais, ouais, ouais Le corps gainé quand le gamos chasse Le corps est gainé, le corps est gainé Le corps gainé quand le gamos chasse Juste après le RS, tu rajoutes Q3 J'ai le corps gainé quand le gamos chasse Ouais, ouais, ouais, ouais Koba Tout en LV, tout en Dolce dans un gamos qui fait le poids de ma montre Faut que je referme ma valise, à huit heures, j'ai mon vol pour La Réunion Et j'me rappelle quand à l'ancienne, les jours de plus bas, c'était la misère À défaut d'avoir des baskets trouées, j'rentrais chez maman, les chaussettes mouillées J'suis debout dans l'meilleur, dans le pire et j'essaye pas d'avoir un frérot mort Des rivières de larmes qu'a fait couler ma mère en voyant son gamin plonger dans la merde Enculé, on est là depuis l'début, deuxième album, nous, on est plus des p'tits Et j'suis dans l'corner, j'suis avec Dosseh et Deuspi, en train de re-peser les doses Avenue Foch, j'suis en train d'lécher tes tétons Et regarde, on a gravi les échelons Skurt Enculé, quand c'était chaud, t'étais où ? Toute l'année au fer, on attend pas l'été On récupère, on commet des péchés, la musique en vrai, bah, c'est comme la push Faut l'meilleur produit, rester assidu Prends ton temps, gamin, non, ne sois pas pressé J'vais cuisiner le cke-cra tout l'été Oh yeah, yeah, yeah Rider dans la cité sous Lambo', sous Fe-Fe Sous Lambo, sous Fe-Fe, sous Lambo, sous Fe-Fe À la base, je n'étais venu qu'pour aider À la base, je n'étais venu qu'pour aider Laud-sa des lauds-sa va encore tout péter Ouh, ouais, ouais, ouais Le corps gainé quand le gamos chasse Le corps est gainé, le corps est gainé Le corps gainé quand le gamos chasse Juste après le RS, tu rajoutes Q3 J'ai le corps gainé quand le gamos chasse Ouais, ouais, ouais, ouais Le corps est gainé, le corps est gainé, eh Koba Laud-sa des lauds-sa Ouais, ouais, ouais, ouais Poh1</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Guapo du Soleil Ouais, ouais, ah Cosmo, envoie, des, track track tracks ! Koba du 7, toujours en tendances, attends, j'active le M2 qu'est-ce t'en dis ? BM' Des billets d'cent en abondance, demande à Monsieur Piggy, il va t'dire Oh nan C'est pas d'ma faute, moi, c'est trop tentant mais j'suis plus prêt du million que d'la crise D'la hess Et j'crois qu'ils sont à mes trousses, fait deux-trois dérapage et puis, j'trace J'me tire Et dans l'Audi, moi, j'suis en jogging En Nike, dans une voiture à plus d'cent mills Euros Pourboire pour le voiturier Dux-cent, juste en-dessous d'l'accoudoir Regarde J'suis au tel-hô avec une star d'Insta' Ouais, bisous à tous ceux qu'aimeraient vivre cette vie Faudrait sacrifier du temps, moi, j'essaie de survivre depuis tout p'tit J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non, dans un vaisseau que tu, que tu connais pas, non J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non Connais pas, dans un vaisseau que tu, que tu connais pas, non Connais pas Toujours en place, toujours en Nike, toujours gé-char, toujours les bons bails Si j'sors d'chez moi et j'laisse mon tél, c'est que ce soir, j'suis sur un gros coup Troisième album, j'suis dans les temps mais j'crois qu'y a le Fisc qui resserre l'étau L'argent d'la drogue, l'argent d'la 'sique, j'suis multifonctions, j'suis double patron Et j'entends ma mère crier Allez, Junior, faut faire gaffe aux gens, non, c'est pas d'ta faute, c'est l'il des jaloux qui a raillé la jante Mec, t'endors pas sur le oint-j, rien que fait tourner l'pétou et moi, j'ai frotté, frotté la lampe pour tout pé-ta au génie You might also like J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non, dans un vaisseau que tu, que tu connais pas, non Oh-oh J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non Connais pas, dans un vaisseau que tu, que tu connais pas, non Connais pas J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Nous, on change pas, on encaisse billets et les pièces Oh-oh-oh-oh Que tu, que tu connais pas, non Que tu, que tu connais pas, non</t>
+          <t>Guapo du Soleil Ouais, ouais, ah Cosmo, envoie, des, track track tracks ! Koba du 7, toujours en tendances, attends, j'active le M2 qu'est-ce t'en dis ? BM' Des billets d'cent en abondance, demande à Monsieur Piggy, il va t'dire Oh nan C'est pas d'ma faute, moi, c'est trop tentant mais j'suis plus prêt du million que d'la crise D'la hess Et j'crois qu'ils sont à mes trousses, fait deux-trois dérapage et puis, j'trace J'me tire Et dans l'Audi, moi, j'suis en jogging En Nike, dans une voiture à plus d'cent mills Euros Pourboire pour le voiturier Dux-cent, juste en-dessous d'l'accoudoir Regarde J'suis au tel-hô avec une star d'Insta' Ouais, bisous à tous ceux qu'aimeraient vivre cette vie Faudrait sacrifier du temps, moi, j'essaie de survivre depuis tout p'tit J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non, dans un vaisseau que tu, que tu connais pas, non J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non Connais pas, dans un vaisseau que tu, que tu connais pas, non Connais pas Toujours en place, toujours en Nike, toujours gé-char, toujours les bons bails Si j'sors d'chez moi et j'laisse mon tél, c'est que ce soir, j'suis sur un gros coup Troisième album, j'suis dans les temps mais j'crois qu'y a le Fisc qui resserre l'étau L'argent d'la drogue, l'argent d'la 'sique, j'suis multifonctions, j'suis double patron Et j'entends ma mère crier Allez, Junior, faut faire gaffe aux gens, non, c'est pas d'ta faute, c'est l'il des jaloux qui a raillé la jante Mec, t'endors pas sur le oint-j, rien que fait tourner l'pétou et moi, j'ai frotté, frotté la lampe pour tout pé-ta au génie J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non, dans un vaisseau que tu, que tu connais pas, non Oh-oh J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Tout là-haut Nous, on change pas, on encaisse billets et les pièces Des euros Dans un vaisseau que tu, que tu connais pas, non Connais pas, dans un vaisseau que tu, que tu connais pas, non Connais pas J'suis dans l'avion, j'suis défoncé, j'suis dans l'espace Nous, on change pas, on encaisse billets et les pièces Oh-oh-oh-oh Que tu, que tu connais pas, non Que tu, que tu connais pas, non</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Unh Parano, ils m'ont rendu parano Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Et Dieu merci, il m'reste encore quelques vrais frères mais tout le reste est devenu faux Les fils de putes qui sont bons qu'à dire qu'ils arrangent que sur ça, ils grattent pas un euro C'est triste à dire mais pour s'rapprocher d'la réussite, on a dû réduire, réduire l'effectif Et dans la vie, sache que les euros des autres font souvent le malheur des autres J'suis dans l'Binks et et j'veux pas énième dans l'l'hella vu quj'suis dans un monde d'hypocrites Et que l'être humain n'est qu'une pute j'ai compris qu'faut être le roi des hypocrites Sur la vie d'ma mère qu'on est pas comme eux, non eux, c'est des rappeurs, nous, la street Et pour compter des gros sous, bah, on na pas attendu la musique You might also like Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Parano, mmh, ils m'ont rendu parano umh, umh Parano, mmh, ils m'ont rendu parano umh, umh Si j'étais pas Niro, tu s'rais pas là tu ferais pas la moitié de c'que t'as fait par amitié Soit la pour autre chose que la mala et j'ai du compter mes balles pour dormir c'est pas la bitch qui m'aidera, la c'est la salat Ouh, ouh, ouh toujours en décalage, j'suis pas là, j'aime pas tes salades t'étais pas là au démarrage Atterrissage, tu seras pas là, tu t'es barré avant d'khalass on est ensemble à la base, du airsoft à la Kalash De la garde à vue au Palace on a passé l'temps t'es jaloux depuis longtemps, ne dit pas c'est l'sang, on a pas seize ans Ils m'ont donné leur cul, j'suis pas rentré dedans, gros, j'ai fait l'sale boulot Ouh, ouh, ouh La chatte à leur père, faut que j'remonte un Empire faudra coopérer, 2020, j'parle plus Gros, la guerre, c'est l'enfer mais l'attendre, c'est pire donc fais-moi pas galérer, paye à l'heure, sale pute Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh, hey Je suis un esprit sain, dans un corps sain, dans du Saint Laurent Ouh, ouh, ouh, hey Je t'ai vu mitonner sur moi et jurer sur le Saint Coran Ouh, ouh, ouh, hey Si le cash est sur la table, est-c'que je peux te laisser compter ? compter, décompter, décompter, décompter On a fait le coup à deux, pourquoi t'es parti tous raconter ? Oh j'me suis trompé, j'dansais sous Dom Pe' ton pied, mon pied, sur quoi j'me suis fondé ? Si tu sors le liquide, ils commenceront tous à pomper et quand le chat n'est pas la, les souris sont fonce-dé Oh, ne me passe pas l'salam les chemins ne mènent pas à Rome quand tu passes par Paname Deux-trois opportunistes veulent sassoire à ma table je ne graille qu'en miff, on est pas bar - tapasses Ne faites pas les fous, on vous a dis c'est nous ouh il n'y a que devant Dieu que tu nous verras à genou ouh Dans ce putain de jeu, re-noi, dis-moi, à quoi tu joues ? ouh j'viens de loin, j'étais posé au fond du trou ouh comment te dire ? C'était le zoo Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh, ouh</t>
+          <t>Unh Parano, ils m'ont rendu parano Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Et Dieu merci, il m'reste encore quelques vrais frères mais tout le reste est devenu faux Les fils de putes qui sont bons qu'à dire qu'ils arrangent que sur ça, ils grattent pas un euro C'est triste à dire mais pour s'rapprocher d'la réussite, on a dû réduire, réduire l'effectif Et dans la vie, sache que les euros des autres font souvent le malheur des autres J'suis dans l'Binks et et j'veux pas énième dans l'l'hella vu quj'suis dans un monde d'hypocrites Et que l'être humain n'est qu'une pute j'ai compris qu'faut être le roi des hypocrites Sur la vie d'ma mère qu'on est pas comme eux, non eux, c'est des rappeurs, nous, la street Et pour compter des gros sous, bah, on na pas attendu la musique Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Parano, mmh, ils m'ont rendu parano umh, umh Parano, mmh, ils m'ont rendu parano umh, umh Si j'étais pas Niro, tu s'rais pas là tu ferais pas la moitié de c'que t'as fait par amitié Soit la pour autre chose que la mala et j'ai du compter mes balles pour dormir c'est pas la bitch qui m'aidera, la c'est la salat Ouh, ouh, ouh toujours en décalage, j'suis pas là, j'aime pas tes salades t'étais pas là au démarrage Atterrissage, tu seras pas là, tu t'es barré avant d'khalass on est ensemble à la base, du airsoft à la Kalash De la garde à vue au Palace on a passé l'temps t'es jaloux depuis longtemps, ne dit pas c'est l'sang, on a pas seize ans Ils m'ont donné leur cul, j'suis pas rentré dedans, gros, j'ai fait l'sale boulot Ouh, ouh, ouh La chatte à leur père, faut que j'remonte un Empire faudra coopérer, 2020, j'parle plus Gros, la guerre, c'est l'enfer mais l'attendre, c'est pire donc fais-moi pas galérer, paye à l'heure, sale pute Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Qui sont ces femmes autour de moi ? Ouh, ouh, ouh Qui sont ces hommes autour de moi ? Ouh, ouh, ouh Qui sont les gens autour de moi ? Ouh, ouh, ouh Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh, hey Je suis un esprit sain, dans un corps sain, dans du Saint Laurent Ouh, ouh, ouh, hey Je t'ai vu mitonner sur moi et jurer sur le Saint Coran Ouh, ouh, ouh, hey Si le cash est sur la table, est-c'que je peux te laisser compter ? compter, décompter, décompter, décompter On a fait le coup à deux, pourquoi t'es parti tous raconter ? Oh j'me suis trompé, j'dansais sous Dom Pe' ton pied, mon pied, sur quoi j'me suis fondé ? Si tu sors le liquide, ils commenceront tous à pomper et quand le chat n'est pas la, les souris sont fonce-dé Oh, ne me passe pas l'salam les chemins ne mènent pas à Rome quand tu passes par Paname Deux-trois opportunistes veulent sassoire à ma table je ne graille qu'en miff, on est pas bar - tapasses Ne faites pas les fous, on vous a dis c'est nous ouh il n'y a que devant Dieu que tu nous verras à genou ouh Dans ce putain de jeu, re-noi, dis-moi, à quoi tu joues ? ouh j'viens de loin, j'étais posé au fond du trou ouh comment te dire ? C'était le zoo Aveuglé par la lumière, qui sont les gens autour de moi ? Va leur dire qu'on croit en Dieu, au cas où ça tourne mal Casquette baissée dans les bacs, qui sont les gens autour de moi ? Et si demain, j'suis plus personne, est-c'qu'ils voudront toujours me voir ? Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Noxious Elle croit qu'j'suis millionnaire, comme sa pote elle veut la bague au doigt Si on s'voit toujours c'est que t'es un bon au fond, j'ai pas besoin d'toi 80 kilos mais ma tre-mon pèse plus lourd que mon bras J'en veux toujours plus, oui, beaucoup plus, tant qu'j'respire, je m'arrête pas, han J'suis dans l'Fe-Fe avec une tisse-mé, elle sait que j'connais ses grands frères mais la copine, elle se laisse faire Eh, j'suis dans le C63 coupé, j'peux pas la laisser conduire, si elle cartonne, j'vais devoir tout payer Junior, maintenant qu't'es quelqu'un, essaye de moins traîner à la cité Surtout, attention aux femmes, leur tigné c'est peut-être Satan Combien d'tes potes parlent sur toi ? Tellement que je n'peux pas t'les citer Ce qui est sûr et certain, j'serai blindé avant d'voir mon cercueil Oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Encore une autre garde à v', c'est trop encore une autre garde à v' de trop Aujourd'hui, j'suis dans l'bâtiment et hier et demain c'est la même Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Oh oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop You might also like J'viens d'là où la drogue est le meilleur commerce, où les dealers de C baisent plus que des footeux, bitch bitch, bitch On charge et décharge pendant qu'tu criais Et si t'es mon reufré bah soit toujours à-l, en survêt', TN, là, j'm'endors sur la plage J'traine qu'avec des mecs qui connaissent que la drogue, et pour des services, ils vont t'payer en dope Et regarde les balafres qu'on a, mec, depuis mon premier tête-à-tête, j'ai la main cassée Et les cicatrices sur mon cou me rappellent que mon putain d'passé était difficile Nique sa mère les étoiles filantes, les seules étoiles qu'j'ai vues c'est au tel-hô Y a que quand j'recompte que mon cur s'apaise, y a que dans les pe-sna que la vie est belle Junior, maintenant qu't'es quelqu'un, essaye de moins traîner à la cité Surtout, attention aux femmes, leur tigné c'est peut-être Satan Combien d'tes potes parlent sur toi ? Tellement que je n'peux pas t'les citer Ce qui est sûr et certain, j'serai blindé avant d'voir mon cercueil Oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Encore une autre garde à v', c'est trop encore une autre garde à v' de trop Aujourd'hui, j'suis dans l'bâtiment hier et demain c'est la même Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Oh oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop</t>
+          <t>Noxious Elle croit qu'j'suis millionnaire, comme sa pote elle veut la bague au doigt Si on s'voit toujours c'est que t'es un bon au fond, j'ai pas besoin d'toi 80 kilos mais ma tre-mon pèse plus lourd que mon bras J'en veux toujours plus, oui, beaucoup plus, tant qu'j'respire, je m'arrête pas, han J'suis dans l'Fe-Fe avec une tisse-mé, elle sait que j'connais ses grands frères mais la copine, elle se laisse faire Eh, j'suis dans le C63 coupé, j'peux pas la laisser conduire, si elle cartonne, j'vais devoir tout payer Junior, maintenant qu't'es quelqu'un, essaye de moins traîner à la cité Surtout, attention aux femmes, leur tigné c'est peut-être Satan Combien d'tes potes parlent sur toi ? Tellement que je n'peux pas t'les citer Ce qui est sûr et certain, j'serai blindé avant d'voir mon cercueil Oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Encore une autre garde à v', c'est trop encore une autre garde à v' de trop Aujourd'hui, j'suis dans l'bâtiment et hier et demain c'est la même Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Oh oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop J'viens d'là où la drogue est le meilleur commerce, où les dealers de C baisent plus que des footeux, bitch bitch, bitch On charge et décharge pendant qu'tu criais Et si t'es mon reufré bah soit toujours à-l, en survêt', TN, là, j'm'endors sur la plage J'traine qu'avec des mecs qui connaissent que la drogue, et pour des services, ils vont t'payer en dope Et regarde les balafres qu'on a, mec, depuis mon premier tête-à-tête, j'ai la main cassée Et les cicatrices sur mon cou me rappellent que mon putain d'passé était difficile Nique sa mère les étoiles filantes, les seules étoiles qu'j'ai vues c'est au tel-hô Y a que quand j'recompte que mon cur s'apaise, y a que dans les pe-sna que la vie est belle Junior, maintenant qu't'es quelqu'un, essaye de moins traîner à la cité Surtout, attention aux femmes, leur tigné c'est peut-être Satan Combien d'tes potes parlent sur toi ? Tellement que je n'peux pas t'les citer Ce qui est sûr et certain, j'serai blindé avant d'voir mon cercueil Oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Encore une autre garde à v', c'est trop encore une autre garde à v' de trop Aujourd'hui, j'suis dans l'bâtiment hier et demain c'est la même Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop Oh oh, et putain, laisse tomber, c'est trop et putain, laisse tomber, c'est trop</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Han-han-han, eh-eh-eh Ouh, ouh Han, han Appelle Dédou, hein Han Wesh, Koba LaD, c'est comment ? Oh Co-Corbillard Gang Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey Et nique sa mère mon passé, l'époque où je revendais d'la pasta Pasta Aujourd'hui, je vis d'mon passe-temps Eh et je secoue mes locks Eh, fonce-dé sur la piste La piste Ta sur me traque depuis qu'j'vends des CD Des CD, j'suis en tendances et la concu' décède Elle décède J'ai signé, j'ai zappé ceux qui m'devaient des sous Eh, sans les sucer, j'suis passé au-dessus Eh, eh, eh Tu peux v'nir voir, nous, on gère le périmètre Eh-eh, transversale de Deus', contrôle de la poitrine Eh-eh Pour être un bosseur, t'as même ton propre patron, pété, là pour t'allumer à bout portant On ravitaille les terrains en manque Eh-eh, donne un billet pour que j'prenne le mic Ah-ah Depuis l'début, moi, j'fais mieux qu'eux, j'ai rendu les coups, j'ai porté mes couilles You might also like Numéro un, apparemment Eh, j'récup' ma place, si tu permets Eh Neuf-sept, quatre pétard de quatre-vingt dix et file de gauche sans permis Eh Koba LaD, regarde, je perce Eh, la mentalité du four fait Eh Que j'en veux toujours plus et beaucoup plus Et mon p'tit reuf compte à ma place Eh Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey T'as une dent contre moi, j'ai tout un dentier Graah, réfléchis qui va manger qui Sur l'terrain, faut sa paire de shoes grah, grah, faut anticiper grah, grah, faire la part des choses Hey, c'est des bandits entre parenthèses, devant un Glock, ça s'invente des liens d'parenté Elle kiffe les rappeurs, on kiffe les rapports sexuels, coup franc, c'est bien rentré Hey, ou la, ou la la, hey, j't'élimine facilement, toi, tu m'blesses J'ai aucune pression, j'suis dans ma sphère, t'as vu qu'c'est chaud, tu t'grattes la tête, eh Pour la remontada, question de temps et de minutes Et de minutes Pour la beuh et l'taga, question de puces et de mini-tél' C'est la rue qu'on vit, y a personne, j'me confis, la rue t'attire quand tu vois la vie d'grossiste Si tu coopères pas, on rentre en conflit, t'as beau fumer, tu t'évaderas pas comme Scofield J'bouge la tête, j'suis dans l'camp adverse, on démolit tout, on rentre à la tess On rentre à la tess T'as pas d'cojones, devant ton équipe, là, t'es coriace Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey Allô ? Drama, Mufasa, il est où ? Allô ? On est posés vers l'bois d'Bou-Bou Mais qu'est-ce que vous foutez là-bas, bande de fougous ? Bah, il négocie l'tarot pour l'mougou Han, arrêtez, bref, on se pète à la cité Oh my God Elle veut l'troisième T mais mes deux y ont déjà succombé L'équipage est plutôt gang-gang, si t'entends bang-bang, c'est Q.E qui t'as pris en boing-boing Madame la juge, je n'ai rien fait Huit mois sous bracelet, c'est parce que je les ai pas calés dans fringue, gang Hello, hola, hola chica Hola chicha Crochet, p'tit pont, à la rez-Mah Bang, bang Ibrak est fêlé, Ibrak est trix-ma Dans la fêlance y a Big manadja Co-Corbillard Gang</t>
+          <t>Han-han-han, eh-eh-eh Ouh, ouh Han, han Appelle Dédou, hein Han Wesh, Koba LaD, c'est comment ? Oh Co-Corbillard Gang Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey Et nique sa mère mon passé, l'époque où je revendais d'la pasta Pasta Aujourd'hui, je vis d'mon passe-temps Eh et je secoue mes locks Eh, fonce-dé sur la piste La piste Ta sur me traque depuis qu'j'vends des CD Des CD, j'suis en tendances et la concu' décède Elle décède J'ai signé, j'ai zappé ceux qui m'devaient des sous Eh, sans les sucer, j'suis passé au-dessus Eh, eh, eh Tu peux v'nir voir, nous, on gère le périmètre Eh-eh, transversale de Deus', contrôle de la poitrine Eh-eh Pour être un bosseur, t'as même ton propre patron, pété, là pour t'allumer à bout portant On ravitaille les terrains en manque Eh-eh, donne un billet pour que j'prenne le mic Ah-ah Depuis l'début, moi, j'fais mieux qu'eux, j'ai rendu les coups, j'ai porté mes couilles Numéro un, apparemment Eh, j'récup' ma place, si tu permets Eh Neuf-sept, quatre pétard de quatre-vingt dix et file de gauche sans permis Eh Koba LaD, regarde, je perce Eh, la mentalité du four fait Eh Que j'en veux toujours plus et beaucoup plus Et mon p'tit reuf compte à ma place Eh Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey T'as une dent contre moi, j'ai tout un dentier Graah, réfléchis qui va manger qui Sur l'terrain, faut sa paire de shoes grah, grah, faut anticiper grah, grah, faire la part des choses Hey, c'est des bandits entre parenthèses, devant un Glock, ça s'invente des liens d'parenté Elle kiffe les rappeurs, on kiffe les rapports sexuels, coup franc, c'est bien rentré Hey, ou la, ou la la, hey, j't'élimine facilement, toi, tu m'blesses J'ai aucune pression, j'suis dans ma sphère, t'as vu qu'c'est chaud, tu t'grattes la tête, eh Pour la remontada, question de temps et de minutes Et de minutes Pour la beuh et l'taga, question de puces et de mini-tél' C'est la rue qu'on vit, y a personne, j'me confis, la rue t'attire quand tu vois la vie d'grossiste Si tu coopères pas, on rentre en conflit, t'as beau fumer, tu t'évaderas pas comme Scofield J'bouge la tête, j'suis dans l'camp adverse, on démolit tout, on rentre à la tess On rentre à la tess T'as pas d'cojones, devant ton équipe, là, t'es coriace Eh, Koba LaD, Q.E Fave' Paire de Nike Phantom, j'suis titulaire comme Mahrez Maintenant qu'on récupère en showcase, tu nous vois moins souvent dans la street J'suis avec Nico de Booska-P, les maisons d'disque font que d'appeler Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Wouh J'ai ma paire de Nike Phantom, j'frime Wouh, j'suis titulaire comme Mahrez Wouh Si tu veux nous tester, c'est mort Wouh, tu sais qu'personne nous arrête Wouh Koba LaD, Q.E Fave' sur Booska-P Wouh, la street, c'est strict, tu le sais Hey, hey Allô ? Drama, Mufasa, il est où ? Allô ? On est posés vers l'bois d'Bou-Bou Mais qu'est-ce que vous foutez là-bas, bande de fougous ? Bah, il négocie l'tarot pour l'mougou Han, arrêtez, bref, on se pète à la cité Oh my God Elle veut l'troisième T mais mes deux y ont déjà succombé L'équipage est plutôt gang-gang, si t'entends bang-bang, c'est Q.E qui t'as pris en boing-boing Madame la juge, je n'ai rien fait Huit mois sous bracelet, c'est parce que je les ai pas calés dans fringue, gang Hello, hola, hola chica Hola chicha Crochet, p'tit pont, à la rez-Mah Bang, bang Ibrak est fêlé, Ibrak est trix-ma Dans la fêlance y a Big manadja Co-Corbillard Gang</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mmh, sombre Comme la chatte à ta Eh, eh Hi-hier au centre-ville, j'ai recroisé ma prof' de math' La vieille Choquée du Ferrari, elle veut qu'son mari achète ça À cause du réseau, j'deviens paro' de fou, j'me méfie même d'mes frères J'deviens che-lou, frérot, jour après jour, j'm'enfume, mon cur s'renferme Dégaine bre-som, équipe bre-som, gros joint d'bâtard qui tape à l'il Arrête de m'blaguer, suce-moi la bite, j't'ai pas appelé pour des patins WAllah, c'est trop B, y a trop d'requins, gamin, viens pas si t'as pas pieds Attiré par les sous, des bouffons, menteurs, salopes, comme toi Récup', coupe et donner, tout ça m'fait mal au crâne Mais si j'laisse le tit-pe faire, ce p'tit bâtard, il va tte-gra Donc fallait qu'je joue de mon hypocrisie pour m'intégrer Si ça colle, c'est qu'c'est gras, validé par le gros Demain, j'ai rien à faire À faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle M'appelle ou j'prolonge la chambre d'hôtel Demain, j'ai rien à faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle ou j'prolonge la chambre d'hôtel You might also like Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange J'descends pour prendre mes thunes ou gifler un impoli Sinon, mon frère, j'suis vers Marseille en train d'foutre la merde en Jet pack J'ai mis l'paquet, le pack RS ou le pack M, gros, c'est pareil Et ces p'tits cons croient m'rattraper, bande d'imbéciles, v'nez on pari J'rends fier mon bookeur et mon backeur, si j'veux, demain, j'sors un bouquin Dans les batailles, dans les pagailles, viens voir c'que j'ai dans mon baggy Si c'est ta meugeuf, igo, tiens-la, si elle m'che-bran, j'vais la doggy Pendant qu'nous, on s'faisait sé-cour, eux, ils baisaient ou ils piquaient Le petit transpire grave, que des arthena piquant Ici, pour moins d'une plaque, j'en connais plus d'un qui clic-clic J'guette pas c'est qui qui pilote, même mon neveu connait leurs plaques Tantôt, tout va bene, tantôt, je passe de planque en planque Demain, j'ai rien à faire À faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle M'appelle ou j'prolonge la chambre d'hôtel Demain, j'ai rien à faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle ou j'prolonge la chambre d'hôtel Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange</t>
+          <t>Mmh, sombre Comme la chatte à ta Eh, eh Hi-hier au centre-ville, j'ai recroisé ma prof' de math' La vieille Choquée du Ferrari, elle veut qu'son mari achète ça À cause du réseau, j'deviens paro' de fou, j'me méfie même d'mes frères J'deviens che-lou, frérot, jour après jour, j'm'enfume, mon cur s'renferme Dégaine bre-som, équipe bre-som, gros joint d'bâtard qui tape à l'il Arrête de m'blaguer, suce-moi la bite, j't'ai pas appelé pour des patins WAllah, c'est trop B, y a trop d'requins, gamin, viens pas si t'as pas pieds Attiré par les sous, des bouffons, menteurs, salopes, comme toi Récup', coupe et donner, tout ça m'fait mal au crâne Mais si j'laisse le tit-pe faire, ce p'tit bâtard, il va tte-gra Donc fallait qu'je joue de mon hypocrisie pour m'intégrer Si ça colle, c'est qu'c'est gras, validé par le gros Demain, j'ai rien à faire À faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle M'appelle ou j'prolonge la chambre d'hôtel Demain, j'ai rien à faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle ou j'prolonge la chambre d'hôtel Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange J'descends pour prendre mes thunes ou gifler un impoli Sinon, mon frère, j'suis vers Marseille en train d'foutre la merde en Jet pack J'ai mis l'paquet, le pack RS ou le pack M, gros, c'est pareil Et ces p'tits cons croient m'rattraper, bande d'imbéciles, v'nez on pari J'rends fier mon bookeur et mon backeur, si j'veux, demain, j'sors un bouquin Dans les batailles, dans les pagailles, viens voir c'que j'ai dans mon baggy Si c'est ta meugeuf, igo, tiens-la, si elle m'che-bran, j'vais la doggy Pendant qu'nous, on s'faisait sé-cour, eux, ils baisaient ou ils piquaient Le petit transpire grave, que des arthena piquant Ici, pour moins d'une plaque, j'en connais plus d'un qui clic-clic J'guette pas c'est qui qui pilote, même mon neveu connait leurs plaques Tantôt, tout va bene, tantôt, je passe de planque en planque Demain, j'ai rien à faire À faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle M'appelle ou j'prolonge la chambre d'hôtel Demain, j'ai rien à faire, j'prolonge la chambre d'hôtel J'descends que si le fric m'appelle ou j'prolonge la chambre d'hôtel Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange Sombre mais l'argent d'la C éclaire le vrai visage des faux frères Même c'lui d'une Sheitana Caché derrière un regard d'ange</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SHB Han, han Scar Vo-Vo-Voluptyk Han, han Han, han, han, han, han Yeah Yeah, c'est la merde dans nos banlieues RER D, ça remonte RER D pour visser sur Paname VSG 0.8 sur la pesette, j'peux pas dépasser d'un milligramme J'peux pas dépasser d'un milligramme Comment leur faire confiance ? C'est des fake-ass J'suis dans le fer, elle me lehess Han, han À 230 sur le périph', ça r'monte sur Bériz Ça r'monte sur Paname Yeah, j'ai promis à la daronne qu'on allait mieux graille Qu'on allait manger Nos santés se dégradent, toi, t'étais pas là mais c'est pas grave Y a plus rien à tter-gra Non, reste pas sur le chemin ou on t'écrase Dégage Sur leurs genoux, y a des croutes Yeah, ils sont bons qu'à faire des crasses Et dans la ne-zo, on est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Que des problèmes On est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis You might also like Ils disent qu'y a R mais moi, j'sais qu'ils m'détestent Ils disent Y a R mais j'sais qu'ils nous détestent J'm'en bats les R, t'façon, moi, j'les fodes Ils vont parler mais j'sais qu'ils vont rien faire Comment leur faire confiance ? C'est des fake-ass Regarde-les, tu peux rien faire avec eux À 230 sur le périph', han, ça r'monte sur Bériz, han On remonte de Tanger, après la frontière Le pilon, j'l'ai à trente-trois Ou trente-quatre Et ma pétasse, elle kiffe quand j'l'insulte de pétasse Que des bourbiers Que des galères Un peu moins d'cent-mille pour des diamants Pour des diamants J'peux pas rester avec toi, t'es un bon mec mais tu mens trop Bébé, crois-moi, c'qui ne tue pas, ça rend plus fort 250, j'appuie même pas, j'suis dans l'confort J'crois qu'j'ai crevé, y a trop d'il, j'peux plus Snapper Y a trop d'il, j'peux plus Snapper Le sche-Por dans la ne-zo Et dans la ne-zo, on est cramés, faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis On est cramés, faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Et dans la ne-zo, on est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Que des problèmes On est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Ils disent qu'y a R mais moi, j'sais qu'ils m'détestent Ils disent Y a R mais j'sais qu'ils nous détestent J'm'en bats les R, t'façon, moi, j'les fodes Ils vont parler mais j'sais qu'ils vont rien faire Comment leur faire confiance ? C'est des fake-ass Regarde-les, tu peux rien faire avec eux À 230 sur le périph', han, ça r'monte sur Bériz, han Nan, nan Nan, nan, nan, nan1</t>
+          <t>SHB Han, han Scar Vo-Vo-Voluptyk Han, han Han, han, han, han, han Yeah Yeah, c'est la merde dans nos banlieues RER D, ça remonte RER D pour visser sur Paname VSG 0.8 sur la pesette, j'peux pas dépasser d'un milligramme J'peux pas dépasser d'un milligramme Comment leur faire confiance ? C'est des fake-ass J'suis dans le fer, elle me lehess Han, han À 230 sur le périph', ça r'monte sur Bériz Ça r'monte sur Paname Yeah, j'ai promis à la daronne qu'on allait mieux graille Qu'on allait manger Nos santés se dégradent, toi, t'étais pas là mais c'est pas grave Y a plus rien à tter-gra Non, reste pas sur le chemin ou on t'écrase Dégage Sur leurs genoux, y a des croutes Yeah, ils sont bons qu'à faire des crasses Et dans la ne-zo, on est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Que des problèmes On est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Ils disent qu'y a R mais moi, j'sais qu'ils m'détestent Ils disent Y a R mais j'sais qu'ils nous détestent J'm'en bats les R, t'façon, moi, j'les fodes Ils vont parler mais j'sais qu'ils vont rien faire Comment leur faire confiance ? C'est des fake-ass Regarde-les, tu peux rien faire avec eux À 230 sur le périph', han, ça r'monte sur Bériz, han On remonte de Tanger, après la frontière Le pilon, j'l'ai à trente-trois Ou trente-quatre Et ma pétasse, elle kiffe quand j'l'insulte de pétasse Que des bourbiers Que des galères Un peu moins d'cent-mille pour des diamants Pour des diamants J'peux pas rester avec toi, t'es un bon mec mais tu mens trop Bébé, crois-moi, c'qui ne tue pas, ça rend plus fort 250, j'appuie même pas, j'suis dans l'confort J'crois qu'j'ai crevé, y a trop d'il, j'peux plus Snapper Y a trop d'il, j'peux plus Snapper Le sche-Por dans la ne-zo Et dans la ne-zo, on est cramés, faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis On est cramés, faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Et dans la ne-zo, on est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Que des problèmes On est cramés On est cramés, faut pas qu'j'reste ici Faut pas qu'j'reste ici Hiver comme été, on récolte sous et soucis Ils disent qu'y a R mais moi, j'sais qu'ils m'détestent Ils disent Y a R mais j'sais qu'ils nous détestent J'm'en bats les R, t'façon, moi, j'les fodes Ils vont parler mais j'sais qu'ils vont rien faire Comment leur faire confiance ? C'est des fake-ass Regarde-les, tu peux rien faire avec eux À 230 sur le périph', han, ça r'monte sur Bériz, han Nan, nan Nan, nan, nan, nan1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Eh, Booska-P, faites-moi une faveur, wesh Arrêtez, arrêtez, haha Le terrain ouvre, bats les couilles, qu'c'est miné miné, j'fais les livraisons après minuit Trois points par jour, mille euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros et Manu, yeah Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si l R coule, j'ai d'jà percé dans tous les cas tous ls cas Le mal dans tous, tous, tous les recoins, y a pas d'bagailles, j'ai tout guetté pour le terrain Moi, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres aux autres Deux jeux différents, deux beuh différentes, pour passer la, crois-moi que la meilleure c'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon, mes thunes et l'odeur d'ma beuh Fais-que, j'peux baiser qui j'veux mais non, c'est mort, ces folles, elles sont toutes rrées-bou J'suis sur l'terrain, j'me suis pas forcé, c'est un choix, que j'ai décidé d'faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore encore, entre nous un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste faut que j'résiste Tout près d'moi, j'garde mon oseille et la miff' You might also like On calcule même pas le poids d'nos erreurs, nous, on calcule que l'poids d'la drogue triste à dire J'ai une guitare, j'la sors pas, si j'la sors, j'vais en taule en taule, chakal C'est pas pour un règlement d'compte, bâtard C'est pour une mise à l'amende Mais faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Wesh, Booska-P, vas-y, c'est bon, c'est carré, haha</t>
+          <t>Eh, Booska-P, faites-moi une faveur, wesh Arrêtez, arrêtez, haha Le terrain ouvre, bats les couilles, qu'c'est miné miné, j'fais les livraisons après minuit Trois points par jour, mille euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros et Manu, yeah Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si l R coule, j'ai d'jà percé dans tous les cas tous ls cas Le mal dans tous, tous, tous les recoins, y a pas d'bagailles, j'ai tout guetté pour le terrain Moi, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres aux autres Deux jeux différents, deux beuh différentes, pour passer la, crois-moi que la meilleure c'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon, mes thunes et l'odeur d'ma beuh Fais-que, j'peux baiser qui j'veux mais non, c'est mort, ces folles, elles sont toutes rrées-bou J'suis sur l'terrain, j'me suis pas forcé, c'est un choix, que j'ai décidé d'faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore encore, entre nous un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste faut que j'résiste Tout près d'moi, j'garde mon oseille et la miff' On calcule même pas le poids d'nos erreurs, nous, on calcule que l'poids d'la drogue triste à dire J'ai une guitare, j'la sors pas, si j'la sors, j'vais en taule en taule, chakal C'est pas pour un règlement d'compte, bâtard C'est pour une mise à l'amende Mais faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Faut bien qu'on croque, han, mais faut pas qu'on craque, nous Wesh, Booska-P, vas-y, c'est bon, c'est carré, haha</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah Chaque jour, j'veux devenir quelquun d'meilleur, chaque jour, j'échoue SHK L1, L2, R1, R2 SHK N-N-N-N L1, L2, R1, R2, R1, eh Jm'amuse aux palettes, ça ronronne sur le boulevard, pas de keufs en vue, on baraude comme à Baltimore J'sais comment faire des talles avec un joint d'beuh dans la main, tu vois dans mon r'gard, j'suis pas bien sans ma maman Beaucoup d'efforts sur moi mais j'serai plus comme avant, cest plus mon gars et est devant mon canon Jrêve de liasses de Brinks, on va les chercher, elles sont pas tombées du camion Ouais J'suis avec des dealers, shooters, des fichés S Des taulards, jai peut-être un micro dans ma caisse J'suis rodave Une salope, deux salopes dans ma suite Eh, j'suis bourré, j'suis tout nu pendant quelles vident mon stress Trop loin Ça passe quand c'est serré, au fond, y a rien d'sérieux Ouh, j'suis serein, ces bâtards, ils disent que j'ai serré Ces bouffons D'la came en sachet, y a des seringues Han, j'peux prendre dix piges juste parce que j'ai souris Oh, putain Chaque jour, j'veux devenir quelqu'un d'meilleur, chaque jour, j'échoue Skrt On sort les outils des pays d'ailleurs, on tend pas la joue Fuck Fuck ces enculés, j'force le barrage, j'peux pas reculer, fuck les fausses pierres sur vos collier J'claque des bands dans des VVS, j'vois grave les chicos du bijoutier You might also like Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons Toi, arrête de parler, tu prends pas un sou Sale con, ta journée d'salaire, c'est mon essence Ah bon Quand j'te pénaves, arrête d'faire le sourd, elle voulait que ça, donc j'ai donné que ça Ah bon, ah bon, ah bon C'est vrai, j'ai percé mais j'suis toujours dans ça, toujours la pression quand je rec' le ce-sa J'peux plus la rebaiser, j'peux plus remettre ça, en plus, son cavu, il est couci-couça Cliquez, cliquez, bande de salopes, faudra m'éteindre, personne m'a galope Ouais J'ai donné RDV à un mec pour le carotte et il voulait m'carotte aussi Rah Plus j'fais des papel, plus ma kichta grossit, libérez mes gars, ouais, libérez mes G's J'ai coupé des rettes-ba, j'me faisais chier pour des dix, zéro disquette, pas sur mes disques Chaque jour, j'veux devenir quelqu'un d'meilleur, chaque jour, j'échoue On sort les outils des pays d'ailleurs, on tend pas la joue Fuck ces enculés, j'force le barrage, j'peux pas reculer, fuck les fausses pierres sur vos collier J'claque des bands dans des VVS, j'vois grave les chicos du bijoutier Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons L1, L2, R1, R2, vrrt Les problèmes</t>
+          <t>Yeah, yeah, yeah, yeah Chaque jour, j'veux devenir quelquun d'meilleur, chaque jour, j'échoue SHK L1, L2, R1, R2 SHK N-N-N-N L1, L2, R1, R2, R1, eh Jm'amuse aux palettes, ça ronronne sur le boulevard, pas de keufs en vue, on baraude comme à Baltimore J'sais comment faire des talles avec un joint d'beuh dans la main, tu vois dans mon r'gard, j'suis pas bien sans ma maman Beaucoup d'efforts sur moi mais j'serai plus comme avant, cest plus mon gars et est devant mon canon Jrêve de liasses de Brinks, on va les chercher, elles sont pas tombées du camion Ouais J'suis avec des dealers, shooters, des fichés S Des taulards, jai peut-être un micro dans ma caisse J'suis rodave Une salope, deux salopes dans ma suite Eh, j'suis bourré, j'suis tout nu pendant quelles vident mon stress Trop loin Ça passe quand c'est serré, au fond, y a rien d'sérieux Ouh, j'suis serein, ces bâtards, ils disent que j'ai serré Ces bouffons D'la came en sachet, y a des seringues Han, j'peux prendre dix piges juste parce que j'ai souris Oh, putain Chaque jour, j'veux devenir quelqu'un d'meilleur, chaque jour, j'échoue Skrt On sort les outils des pays d'ailleurs, on tend pas la joue Fuck Fuck ces enculés, j'force le barrage, j'peux pas reculer, fuck les fausses pierres sur vos collier J'claque des bands dans des VVS, j'vois grave les chicos du bijoutier Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons Toi, arrête de parler, tu prends pas un sou Sale con, ta journée d'salaire, c'est mon essence Ah bon Quand j'te pénaves, arrête d'faire le sourd, elle voulait que ça, donc j'ai donné que ça Ah bon, ah bon, ah bon C'est vrai, j'ai percé mais j'suis toujours dans ça, toujours la pression quand je rec' le ce-sa J'peux plus la rebaiser, j'peux plus remettre ça, en plus, son cavu, il est couci-couça Cliquez, cliquez, bande de salopes, faudra m'éteindre, personne m'a galope Ouais J'ai donné RDV à un mec pour le carotte et il voulait m'carotte aussi Rah Plus j'fais des papel, plus ma kichta grossit, libérez mes gars, ouais, libérez mes G's J'ai coupé des rettes-ba, j'me faisais chier pour des dix, zéro disquette, pas sur mes disques Chaque jour, j'veux devenir quelqu'un d'meilleur, chaque jour, j'échoue On sort les outils des pays d'ailleurs, on tend pas la joue Fuck ces enculés, j'force le barrage, j'peux pas reculer, fuck les fausses pierres sur vos collier J'claque des bands dans des VVS, j'vois grave les chicos du bijoutier Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons Barre à mine dans l'pyjama, Amiri Jeans plein d'argent, Zola, Kob'z, c'est bon, déjà, Zola, Kob'z, c'est bon, déjà Amiri Jeans plein d'argent, aucun cul d'clopes dans l'dar-cen, Zola, Koba sur l'même son, les problèmes de grands garçons L1, L2, R1, R2, vrrt Les problèmes</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Oh Narcos C'est Ténébreux 6 Le six, c'est Ténébreux 6 Le six, c'est Ténébreux 6 Le six Hadouken Ouais, ouais, ouais, ouais, ouais Mon gars, c'est la BMF, même si j't'encule, ils vont t'sauter Non, non, non, non, non, non Nouvelle société à but lucratif Ouais, ouais, ouais, ouais Nouvelle société à but lucratif, ça fait longtemps que j'suis dans l'trafic de C C'est interdit au moins d'seize, interdit au moins d'seize, moi, j'suis pas trop after mais j'suis là si ça baise En c'moment, j'ai la poisse, en c'moment, j'ai la guigne, en c'moment, j'ai la guigne, en c'moment, j'ai la guigne Il faut ma p'tit copine mais faut qu'elle soit digne, faut qu'elle remplisse son jean, faut qu'elle remplisse son jean J'suis trop zehef comme si je sortais de taule, han, j'suis rev'nu de te faire, j'suis comme Kanan Tu sais pas tout c'qui y a dans ma piaule, tu sais pas tout c'qui y a dans ma piaule Quatre-vingt dix-neuf partout, j'suis comme Pelé, R10, toi, t'es battu comme Cavani K.O J'ai sorti l'brolique, ils ont cavale, j'ai sorti l'brolique, ils ont cavale Depuis tout p'tit, que des galères de grands, moi, ça fait longtemps que ça parles en gros, han Deux pilons, graille, deux pilons, graille Ouais, toujours la boule au ventre d'vant la patrouille Tu nous connais, on est là comme on est nous, j'en ai pour tes veines ou pour ton nez Pour ton z-en Devant son fessier, moi, j'peux pas dire Non et au bout du compte, j'crois qu'l'amour, c'est un nud, l'amour, c'est un nud Eh, ma voisine d'en face veut un bébé, pas cool, 7.62 dans mon boubou, pardon Calibré pendant le mariage au cas où une envie d'me venger sur tout l'monde, bon Dieu Considéré comme les rats d'la ville, j'ai la recette de la veille Ouais, ouais J'ai la recette de la veille, dimanche, j'khalass les p'tits qui guettent Ouais, ouais D'arrivé là, moi, j'l'ai décider, j'peux pas déceder, j'dois bicrave des CD Ouais, des CD Trop d'antécédents, maintenant, j'suis assidu Assidu, trop d'antécédents, maintenant, j'suis assidu Assidu Sur tous tes projets futur, évite le sujet Ouais, ouais, la plupart d'ces bouffons vont t'décourager Ah ouais C'est pas d'la rigolade, c'est réel, gamin, ici, tu peux tout prendre sur un lancé d'dés, putain d'merde Ouh On change pas comme le prix du tron-li Tron-li, j'sais plus y a combien sous l'matelas, j'peux t'en pousser cinq mais il m'faut la moitié, là C'est moche quand ça pète, c'est moche quand ça pète, j'attend un tout p'tit peu qu'les condés partent C'est de pire en pire, j'me faisais coursé, tu collé la p'tite, ma copine du collège, c'est dev'nu une pute On change pas On change pas comme le prix du tron-li Nan, nan, j'sais plus y a combien sous l'matelas, j'peux t'en pousser cinq mais il m'faut la moitié, là C'est moche quand ça pète, c'est moche quand ça pète, j'attend un tout p'tit peu qu'les condés passent C'est de pire en pire, j'me faisais coursé, tu collé la p'tite, ma copine du collège, c'est dev'nu une pute You might also like BMF, que des mecs bre-som Bre-som, même si j't'encule, ils vont t'ter-sau BMF, que des mecs bre-som Ouais, même si j't'encule, ils vont t'ter-sau À la base, sur l'terrain d'shit mais bon, j'fais plus d'bénéf' dans la coke À c'qui p', la poudre, ça porte la poisse mais bon, dans tous les cas, c'est d'la gue-dro BMF, que des mecs bre-som Bre-som, même si j't'encule, ils vont t'ter-sau BMF, que des mecs bre-som Ouais, même si j't'encule, ils vont t'ter-sau À la base, sur l'terrain d'shit mais bon, j'fais plus d'bénéf' dans la coke À c'qui p', la poudre, ça porte la poisse mais bon, dans tous les cas, c'est d'la gue-dro</t>
+          <t>Oh Narcos C'est Ténébreux 6 Le six, c'est Ténébreux 6 Le six, c'est Ténébreux 6 Le six Hadouken Ouais, ouais, ouais, ouais, ouais Mon gars, c'est la BMF, même si j't'encule, ils vont t'sauter Non, non, non, non, non, non Nouvelle société à but lucratif Ouais, ouais, ouais, ouais Nouvelle société à but lucratif, ça fait longtemps que j'suis dans l'trafic de C C'est interdit au moins d'seize, interdit au moins d'seize, moi, j'suis pas trop after mais j'suis là si ça baise En c'moment, j'ai la poisse, en c'moment, j'ai la guigne, en c'moment, j'ai la guigne, en c'moment, j'ai la guigne Il faut ma p'tit copine mais faut qu'elle soit digne, faut qu'elle remplisse son jean, faut qu'elle remplisse son jean J'suis trop zehef comme si je sortais de taule, han, j'suis rev'nu de te faire, j'suis comme Kanan Tu sais pas tout c'qui y a dans ma piaule, tu sais pas tout c'qui y a dans ma piaule Quatre-vingt dix-neuf partout, j'suis comme Pelé, R10, toi, t'es battu comme Cavani K.O J'ai sorti l'brolique, ils ont cavale, j'ai sorti l'brolique, ils ont cavale Depuis tout p'tit, que des galères de grands, moi, ça fait longtemps que ça parles en gros, han Deux pilons, graille, deux pilons, graille Ouais, toujours la boule au ventre d'vant la patrouille Tu nous connais, on est là comme on est nous, j'en ai pour tes veines ou pour ton nez Pour ton z-en Devant son fessier, moi, j'peux pas dire Non et au bout du compte, j'crois qu'l'amour, c'est un nud, l'amour, c'est un nud Eh, ma voisine d'en face veut un bébé, pas cool, 7.62 dans mon boubou, pardon Calibré pendant le mariage au cas où une envie d'me venger sur tout l'monde, bon Dieu Considéré comme les rats d'la ville, j'ai la recette de la veille Ouais, ouais J'ai la recette de la veille, dimanche, j'khalass les p'tits qui guettent Ouais, ouais D'arrivé là, moi, j'l'ai décider, j'peux pas déceder, j'dois bicrave des CD Ouais, des CD Trop d'antécédents, maintenant, j'suis assidu Assidu, trop d'antécédents, maintenant, j'suis assidu Assidu Sur tous tes projets futur, évite le sujet Ouais, ouais, la plupart d'ces bouffons vont t'décourager Ah ouais C'est pas d'la rigolade, c'est réel, gamin, ici, tu peux tout prendre sur un lancé d'dés, putain d'merde Ouh On change pas comme le prix du tron-li Tron-li, j'sais plus y a combien sous l'matelas, j'peux t'en pousser cinq mais il m'faut la moitié, là C'est moche quand ça pète, c'est moche quand ça pète, j'attend un tout p'tit peu qu'les condés partent C'est de pire en pire, j'me faisais coursé, tu collé la p'tite, ma copine du collège, c'est dev'nu une pute On change pas On change pas comme le prix du tron-li Nan, nan, j'sais plus y a combien sous l'matelas, j'peux t'en pousser cinq mais il m'faut la moitié, là C'est moche quand ça pète, c'est moche quand ça pète, j'attend un tout p'tit peu qu'les condés passent C'est de pire en pire, j'me faisais coursé, tu collé la p'tite, ma copine du collège, c'est dev'nu une pute BMF, que des mecs bre-som Bre-som, même si j't'encule, ils vont t'ter-sau BMF, que des mecs bre-som Ouais, même si j't'encule, ils vont t'ter-sau À la base, sur l'terrain d'shit mais bon, j'fais plus d'bénéf' dans la coke À c'qui p', la poudre, ça porte la poisse mais bon, dans tous les cas, c'est d'la gue-dro BMF, que des mecs bre-som Bre-som, même si j't'encule, ils vont t'ter-sau BMF, que des mecs bre-som Ouais, même si j't'encule, ils vont t'ter-sau À la base, sur l'terrain d'shit mais bon, j'fais plus d'bénéf' dans la coke À c'qui p', la poudre, ça porte la poisse mais bon, dans tous les cas, c'est d'la gue-dro</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kamu no yo oregamasu Hey, hey Oye Tommy, dame el fuego papi Ouh oui J'suis en équipe wow, j'ti-sor du Biturbo wow J'récupère une kich' kich', dans mes bookings, y a v'là les go' wow C'est qui la, c'est qui lawiss ? Un suceur, un suceur qui joue le vice wallah Fais-moi la, fais-moi la bise, y a du buzz, y a des tains-p' et des kbis wallah On est des loups, pas très polis, on reviendra sûrement si on te loupe Mes sons né-tour à Tripoli, c't'année, faut que j'dekhel au moins de lourd Que des coups bas, te-tê de coupables, y a GLK, Soolking et Koba Frappe de Koba, trois points tah Kobe, fais pas l'cowboy, t'es qu'un comique Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie You might also like Ouais, ouais, j'voulais t'appeler mais j'ai eu la flemme j'voulais t'appeler mais j'ai eu la flemme Des problèmes, que des problèmes des problèmes, que des problèmes Impact de balles sur tout leur binks piou-piou-piou-piou-piou, où sont passés vos bonhommes ? Ils veulent faire la paix, on aime trop la guerre, des meurtriers très cool dans mon répertoire DZ trop fier, j'leur mets une madjer et j'arrive à la tess avec deux étoiles Oh nan, oh nan, viens pas maintenant, j'recompte la fraîche, bipe-moi après Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie Eh, calmez-vous, j'suis pas un super-héros, juste un débrouillard qui a percé dans l'son mais bon son mais bon Un homme d'affaires mais je descends pas si y a les keufs en bas Zieute là-bas, zieute là-bas, si c'est la BAC, mets la cons' en boule Gros 4x4, sièges cuir blanc, 600 poneys dans mon véhicule Toute la cité est sous commission, on en a masse, on s'est fait masse aussi masse aussi Mais ça m'fout l'seum, plus j'en ramasse et plus j'ai d'soucis C'est sérieux, c'est sérieux, quinze balles, quinze minutes, j'me régale RS6, RS7, j'ai garé les deux en bas d'chez moi Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie</t>
+          <t>Kamu no yo oregamasu Hey, hey Oye Tommy, dame el fuego papi Ouh oui J'suis en équipe wow, j'ti-sor du Biturbo wow J'récupère une kich' kich', dans mes bookings, y a v'là les go' wow C'est qui la, c'est qui lawiss ? Un suceur, un suceur qui joue le vice wallah Fais-moi la, fais-moi la bise, y a du buzz, y a des tains-p' et des kbis wallah On est des loups, pas très polis, on reviendra sûrement si on te loupe Mes sons né-tour à Tripoli, c't'année, faut que j'dekhel au moins de lourd Que des coups bas, te-tê de coupables, y a GLK, Soolking et Koba Frappe de Koba, trois points tah Kobe, fais pas l'cowboy, t'es qu'un comique Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie Ouais, ouais, j'voulais t'appeler mais j'ai eu la flemme j'voulais t'appeler mais j'ai eu la flemme Des problèmes, que des problèmes des problèmes, que des problèmes Impact de balles sur tout leur binks piou-piou-piou-piou-piou, où sont passés vos bonhommes ? Ils veulent faire la paix, on aime trop la guerre, des meurtriers très cool dans mon répertoire DZ trop fier, j'leur mets une madjer et j'arrive à la tess avec deux étoiles Oh nan, oh nan, viens pas maintenant, j'recompte la fraîche, bipe-moi après Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie Eh, calmez-vous, j'suis pas un super-héros, juste un débrouillard qui a percé dans l'son mais bon son mais bon Un homme d'affaires mais je descends pas si y a les keufs en bas Zieute là-bas, zieute là-bas, si c'est la BAC, mets la cons' en boule Gros 4x4, sièges cuir blanc, 600 poneys dans mon véhicule Toute la cité est sous commission, on en a masse, on s'est fait masse aussi masse aussi Mais ça m'fout l'seum, plus j'en ramasse et plus j'ai d'soucis C'est sérieux, c'est sérieux, quinze balles, quinze minutes, j'me régale RS6, RS7, j'ai garé les deux en bas d'chez moi Te-traî, t'es banni, c'est la loi c'est chaud Biatch, pas d'bigo, c'est la loi grr Que des dégaines tah Sinaloa hey, hey, yah, yah, yah, yah, yah Te-traî, t'es banni, c'est la loi Pourquoi tu parles mal de moi ? 100K, j'achète dans l'État Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie Oh nan, oh nan, oh nan, oh nan, oh nan, oh nan, quel train de vie</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Geo On The Track Ouh HRNN to the top man Ouh Noxious, Noxious Posés en bas du bâtiment, elle me parle de sentiments Ici, c'est dur, c'est sans pitié, bébé, j'vais rien laisser pour toi J'suis sur l'terrain toute la journée, doudoune et même en été On a fait trop d'sale, j'espère qu'le bon Dieu va nous pardonner J'suis dans le VIP, que des cavu qui défilent Et j'ai du jaune, pour la qualité, mets le prix, ouais Tu veux pas qu'on s'attache, qu'on s'étire et qu'on s'déchire Mais attends, j'dois voir un mec, si j'le rate, il va m'fuir Même si tu manges dans la C Des plans continuent d'écouler Le p'tit cur est balafré Trop tôt jeté au cur de la Calle Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir You might also like C'est pas pour les sapes mais pour les los-ki qu'j'mets l'prix Prix J'détaille, j'remplis l'pocheton mais c'est plus moi qui bi-bi Prince de la ville, au poignet, j'ai la Rollie Rollie Dernier Audi avec les freins céramiques Miroir, miroir, dis-moi si depuis La C, j'ai percé Miroir, dis-moi si depuis La C, j'ai percé J'suis pas prêt d'me marier, faut revoir tes projets Recherché pour le trafic auquel j'suis exposé Même si tu manges dans la C Des plans continuent d'écouler Le p'tit cur est balafré Trop tôt jeté au cur de la Calle Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Ouais, ouais, ouais Ouais, ouais, ouais</t>
+          <t>Geo On The Track Ouh HRNN to the top man Ouh Noxious, Noxious Posés en bas du bâtiment, elle me parle de sentiments Ici, c'est dur, c'est sans pitié, bébé, j'vais rien laisser pour toi J'suis sur l'terrain toute la journée, doudoune et même en été On a fait trop d'sale, j'espère qu'le bon Dieu va nous pardonner J'suis dans le VIP, que des cavu qui défilent Et j'ai du jaune, pour la qualité, mets le prix, ouais Tu veux pas qu'on s'attache, qu'on s'étire et qu'on s'déchire Mais attends, j'dois voir un mec, si j'le rate, il va m'fuir Même si tu manges dans la C Des plans continuent d'écouler Le p'tit cur est balafré Trop tôt jeté au cur de la Calle Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir C'est pas pour les sapes mais pour les los-ki qu'j'mets l'prix Prix J'détaille, j'remplis l'pocheton mais c'est plus moi qui bi-bi Prince de la ville, au poignet, j'ai la Rollie Rollie Dernier Audi avec les freins céramiques Miroir, miroir, dis-moi si depuis La C, j'ai percé Miroir, dis-moi si depuis La C, j'ai percé J'suis pas prêt d'me marier, faut revoir tes projets Recherché pour le trafic auquel j'suis exposé Même si tu manges dans la C Des plans continuent d'écouler Le p'tit cur est balafré Trop tôt jeté au cur de la Calle Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Des fois, j'fais des erreurs, maman, faut me dire On s'est fait prendre en flag', là, j'm'attends au pire J'te fais souvent d'la peine mais j'monte un empire Quitter le bâtiment, nan, j'peux pas le fuir Ouais, ouais, ouais Ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cache le khaliss, y'a la police J'ai un alibi, hier j'ai bibi Pas loin d'Évry, pas loin de BX Cache le khaliss Balle dans la tête, gracias Griselda Negro dans le boule de Tashigi Cache le khaliss, y'a les ouhouh J'ai un alibi hier j'ai bibi Pas dans un film loin du cartel de Cali La monnaie, le risque, investi un calibre Petit cur noir face à cette chienne J'lui dis je t'aime, elle voulait juste ken Ils allument le feu, c'est juste pour leur joint Fumer leurs drogue, oublier leurs soucis Ça sent le roussi mais c'est toujours mieux Que l'odeur de poisson que dégage sa pussy Mamacita veut que je rentre à la maison Elle veut de l'amour elle me demande pas le million me mèneront en prison pas tant que les flics seront des pigeons La vie c'est pas facile non-non-non-non Devant l'inspecteur, pas de remords Histoire de gramme qui tourne au drame Lame qui se plante pour rondeur de femme, hermano m'a vendu tout ça pour une chatte pussy Qui puait de la chatte La vie c'est pas facile non-non-non-non Devant l'inspecteur pas de remords Jsuis en plein rêve bébé j'suis à Mexico J'rêve de tonne de coco j'rêve d'un hélico Mongolito, jamais de nom sur le bigo Bambino néglige ien-cli pour une bimbo T'entends les échos faut mettre de té-cô Décale dès que c'est chaud, la promenade c'est chiant J'ai fait le comique, j'ai fini au comico Je refais mes lacets, j'ai fouetté la C You might also like Cache le khaliss Cache le khaliss Cache le khaliss Cache le khaliss J'ai un alibi, hier j'ai bibi J'ai un alibi, hier j'ai bibi Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Compter compter et recompter, hé, enlève le shit sur le couteau Moi, c'est le sheitan qui m'a tenté Et pour la sécurité je l'ai mis sur le toit Jai eu raison de charbonner autant Et maintenant il me trouve hautain Et moi je dois revendre tout le temps Tout le temps que d'la détaille en quette-pla Y'a rien de mieux que du cellophane Et maintenant les filles me veulent en selfie, ça vend Dis moi tu veux un 20 de quoi y'a d'la beuh du shit attends moi ici, j'reviens C'est pas grave si je perce pas Bats les couilles des disques tant qu'il y a le terrain Des liasses, de la drogue, éviter les flics Et si t'as pas de couilles eh bah t'auras rien Dans le bat, rabat sous OG kush Dans le binks, je refourgue et je recompte Tous les jours je change de cachette J'ai que des liasses à chaque contrôle Dans le bat, rabat sous OG kush Dans le binks, je refourgue et je recompte J'ai que des liasses à chaque contrôle Tous les jours je change de cachette Toute l'année on recharge le sac Jamais tu nous verras les poches à sec Et la frappe du terrain les choque Je passe sur Vevo après Ténébreux 5 Et dans le G-7R on est 4, avec le pétard on est 5 Et dans le chargeur y'en a 6 et tout à commencé dans le bat 7 Cache le khaliss Cache le khaliss Cache le khaliss Cache le khaliss J'ai un alibi, hier j'ai bibi J'ai un alibi, hier j'ai bibi Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police</t>
+          <t>Cache le khaliss, y'a la police J'ai un alibi, hier j'ai bibi Pas loin d'Évry, pas loin de BX Cache le khaliss Balle dans la tête, gracias Griselda Negro dans le boule de Tashigi Cache le khaliss, y'a les ouhouh J'ai un alibi hier j'ai bibi Pas dans un film loin du cartel de Cali La monnaie, le risque, investi un calibre Petit cur noir face à cette chienne J'lui dis je t'aime, elle voulait juste ken Ils allument le feu, c'est juste pour leur joint Fumer leurs drogue, oublier leurs soucis Ça sent le roussi mais c'est toujours mieux Que l'odeur de poisson que dégage sa pussy Mamacita veut que je rentre à la maison Elle veut de l'amour elle me demande pas le million me mèneront en prison pas tant que les flics seront des pigeons La vie c'est pas facile non-non-non-non Devant l'inspecteur, pas de remords Histoire de gramme qui tourne au drame Lame qui se plante pour rondeur de femme, hermano m'a vendu tout ça pour une chatte pussy Qui puait de la chatte La vie c'est pas facile non-non-non-non Devant l'inspecteur pas de remords Jsuis en plein rêve bébé j'suis à Mexico J'rêve de tonne de coco j'rêve d'un hélico Mongolito, jamais de nom sur le bigo Bambino néglige ien-cli pour une bimbo T'entends les échos faut mettre de té-cô Décale dès que c'est chaud, la promenade c'est chiant J'ai fait le comique, j'ai fini au comico Je refais mes lacets, j'ai fouetté la C Cache le khaliss Cache le khaliss Cache le khaliss Cache le khaliss J'ai un alibi, hier j'ai bibi J'ai un alibi, hier j'ai bibi Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Compter compter et recompter, hé, enlève le shit sur le couteau Moi, c'est le sheitan qui m'a tenté Et pour la sécurité je l'ai mis sur le toit Jai eu raison de charbonner autant Et maintenant il me trouve hautain Et moi je dois revendre tout le temps Tout le temps que d'la détaille en quette-pla Y'a rien de mieux que du cellophane Et maintenant les filles me veulent en selfie, ça vend Dis moi tu veux un 20 de quoi y'a d'la beuh du shit attends moi ici, j'reviens C'est pas grave si je perce pas Bats les couilles des disques tant qu'il y a le terrain Des liasses, de la drogue, éviter les flics Et si t'as pas de couilles eh bah t'auras rien Dans le bat, rabat sous OG kush Dans le binks, je refourgue et je recompte Tous les jours je change de cachette J'ai que des liasses à chaque contrôle Dans le bat, rabat sous OG kush Dans le binks, je refourgue et je recompte J'ai que des liasses à chaque contrôle Tous les jours je change de cachette Toute l'année on recharge le sac Jamais tu nous verras les poches à sec Et la frappe du terrain les choque Je passe sur Vevo après Ténébreux 5 Et dans le G-7R on est 4, avec le pétard on est 5 Et dans le chargeur y'en a 6 et tout à commencé dans le bat 7 Cache le khaliss Cache le khaliss Cache le khaliss Cache le khaliss J'ai un alibi, hier j'ai bibi J'ai un alibi, hier j'ai bibi Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police Cache le khaliss, y'a la police</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Han-han-han J'aimerais l'aimer un peu mais j'arrive pas Yeah, han Ouais, eh Il est d'jà midi passé, j'en roule un avant d'quitter la 'bre J'la rebaise avant d'quitter la 'bre mais dans ma défonce, j'ai laissé la caution J'ai plus trop le temps pour les locations, j'ai la mienne au nom d'ma société Y a trop de noms qu'j'aurais pas dû citer mais tu connais, j'aime trop ma cité J'aimerais l'aimer un peu mais j'arrive pas, moi C'est ton pied, mon pied mais t'es bizarre, là Nique sa mère la juge, j'ai le mandat d'dépôt J'veux l'aimer un peu mais j'arrive pas, là Trop dur de t dire c'que tu veux ntendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite Mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie ? Va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit You might also like J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Faut qu'j'te termine, faut qu'j'te termine J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut qu'j'te termine Ouais, ouais Bendo, canon scié Grr, pah Faut des billets Ouais, pour oublier, 7adi malaki Ouais F biti quillé, ga3ma kafi billet Pour t'oublier, toute la noche, mkiyef F dnobi barek kankeyel Oh yeah Soldat fidèle, nayda guala W ba9i f ma cité Grr C'est Koba LaD du 7, Bolé' DoubleTo dans ta cité Eh, salope, tu mas figé, ndemti daba, fallait pas m'quitter Trop dur de te dire c'que tu veux entendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie, va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène Han, j'fais que d'déraper sur l'rond-point Han Faut qu'j'te termine Han, faut qu'j'te termine Han Me soûle pas sinon, j'vais partir ailleurs, crie pas, n'hausse pas le ton, je t'entends Tes menaces en message me font pas peur, j'te trompe et t'avoue avec élégance Ça tourne même si c'est pas Sinaloa, ça toque, faut toujours dire Ce n'est pas moi Bébé sait où faut cacher les sacs, nan avec la tête, sans le son de la voix T'as jamais volé, jamais niqué mais devant les meufs, on est dangereux, gaye T'as jamais voulu m'aider, enculé mais maintenant, t'es prêt à m'sucer dans la cabine Attention, chacal, elle est mauvaise, y a pas qu'chez toi qu'elle sait enlever son soutif Plus besoin d'lui dire Je t'aime, si elle fait la pute, j'la cata avec une taquine Trop dur de te dire c'que tu veux entendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie, va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène Han, j'fais que d'déraper sur l'rond-point Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut-faut qu'j'te termine J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut-faut qu'j'te termine, yeah, eh, eh</t>
+          <t>Han-han-han J'aimerais l'aimer un peu mais j'arrive pas Yeah, han Ouais, eh Il est d'jà midi passé, j'en roule un avant d'quitter la 'bre J'la rebaise avant d'quitter la 'bre mais dans ma défonce, j'ai laissé la caution J'ai plus trop le temps pour les locations, j'ai la mienne au nom d'ma société Y a trop de noms qu'j'aurais pas dû citer mais tu connais, j'aime trop ma cité J'aimerais l'aimer un peu mais j'arrive pas, moi C'est ton pied, mon pied mais t'es bizarre, là Nique sa mère la juge, j'ai le mandat d'dépôt J'veux l'aimer un peu mais j'arrive pas, là Trop dur de t dire c'que tu veux ntendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite Mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie ? Va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Faut qu'j'te termine, faut qu'j'te termine J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut qu'j'te termine Ouais, ouais Bendo, canon scié Grr, pah Faut des billets Ouais, pour oublier, 7adi malaki Ouais F biti quillé, ga3ma kafi billet Pour t'oublier, toute la noche, mkiyef F dnobi barek kankeyel Oh yeah Soldat fidèle, nayda guala W ba9i f ma cité Grr C'est Koba LaD du 7, Bolé' DoubleTo dans ta cité Eh, salope, tu mas figé, ndemti daba, fallait pas m'quitter Trop dur de te dire c'que tu veux entendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie, va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène Han, j'fais que d'déraper sur l'rond-point Han Faut qu'j'te termine Han, faut qu'j'te termine Han Me soûle pas sinon, j'vais partir ailleurs, crie pas, n'hausse pas le ton, je t'entends Tes menaces en message me font pas peur, j'te trompe et t'avoue avec élégance Ça tourne même si c'est pas Sinaloa, ça toque, faut toujours dire Ce n'est pas moi Bébé sait où faut cacher les sacs, nan avec la tête, sans le son de la voix T'as jamais volé, jamais niqué mais devant les meufs, on est dangereux, gaye T'as jamais voulu m'aider, enculé mais maintenant, t'es prêt à m'sucer dans la cabine Attention, chacal, elle est mauvaise, y a pas qu'chez toi qu'elle sait enlever son soutif Plus besoin d'lui dire Je t'aime, si elle fait la pute, j'la cata avec une taquine Trop dur de te dire c'que tu veux entendre, tu peux pas m'ralentir, je peux pas perdre de temps, nan Nan, nan Des fois, j'suis solo, j'cogite mais j'repense à tout c'qu'on s'est dit Ma chérie, tu veux rentrer dans ma vie, va falloir assumer les regards dans la ville La ville Des fois, j'suis solo, j'cogite J'cogite mais j'repense à tout c'qu'on s'est dit J'rallume un fumigène, j'enfile la cagoule dans l'4x4 Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène Han, j'fais que d'déraper sur l'rond-point Han Faut qu'j'te termine Han, faut qu'j'te termine Han J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut-faut qu'j'te termine J'rallume un fumigène, j'fais que d'déraper sur l'rond-point Faut qu'j'te termine, faut-faut qu'j'te termine, yeah, eh, eh</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Elias, why are you so fire ? D1gri Ah, ah J'voulais qu'mon re-p soit fier, j'ai tout donné dans l'foot Qu'les supporters acclament mon nom dans tout l'stade Mais assoiffé d'sous, j'voulais tout et tout d'suite Donc, j'ai changé la balle Ouais, changé d'équipe et d'terrain Deuspi m'a dit Travaille et persévère, tu vas réussir, ainsi Réussir, ainsi J'ai visser là-bas, un autre là-bas, avant d'ouvrir ici Toute la journée, sans être assis, j'vais m'asseoir sur mon bénéfice J'ai coupé là-bas, packté là-bas, avant d'le té-j' ici J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yux m'ont tout montré J'suis dans l'quartier et mes fux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah You might also like On était propres avant d'baigner dans l'sale Woh, propres avant d'baigner dans l'sale La plupart du temps, dans l'bloc, j'étais tout seul Marie-Jeanne, quand Beldia me soule Et aujourd'hui, j'ai encore changé d'vie, j'gagne ma vie en racontant ma vie Ouais Tout Évry m'a vu, y a du réseau vers le centre-ville Habitué, ici, pour aimer l'fric, faut savoir aimer l'risque Ouais Tout Évry m'a vu, y a du réseau vers le centre-ville J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yeux m'ont tout montré J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yeux m'ont tout montré J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah</t>
+          <t>Elias, why are you so fire ? D1gri Ah, ah J'voulais qu'mon re-p soit fier, j'ai tout donné dans l'foot Qu'les supporters acclament mon nom dans tout l'stade Mais assoiffé d'sous, j'voulais tout et tout d'suite Donc, j'ai changé la balle Ouais, changé d'équipe et d'terrain Deuspi m'a dit Travaille et persévère, tu vas réussir, ainsi Réussir, ainsi J'ai visser là-bas, un autre là-bas, avant d'ouvrir ici Toute la journée, sans être assis, j'vais m'asseoir sur mon bénéfice J'ai coupé là-bas, packté là-bas, avant d'le té-j' ici J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yux m'ont tout montré J'suis dans l'quartier et mes fux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah On était propres avant d'baigner dans l'sale Woh, propres avant d'baigner dans l'sale La plupart du temps, dans l'bloc, j'étais tout seul Marie-Jeanne, quand Beldia me soule Et aujourd'hui, j'ai encore changé d'vie, j'gagne ma vie en racontant ma vie Ouais Tout Évry m'a vu, y a du réseau vers le centre-ville Habitué, ici, pour aimer l'fric, faut savoir aimer l'risque Ouais Tout Évry m'a vu, y a du réseau vers le centre-ville J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yeux m'ont tout montré J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier, mes feux sont éteints Ah Mais j'vais kill, y a mon biff qui m'attend J'l'ai regardé descendre pendant qu'on remontait Ta bouche me ment mais tes yeux m'ont tout montré J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah J'suis dans l'quartier et mes feux sont éteints Ah Dans l'quartier et mes feux sont éteints Ah</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C'est koba la D Kob'z la détaille, je jump sur l'instrumental Et j'pense au billet, j'dois faire avec ce détaille Tu m'connais pas d'sentiments j'encaisse billets et centimes On t'connait on sait qu'tu ments T'as rien fait casse toi teur-men J'ai toujours pas cé-per 22 j'recompte les sous d'la journée Et dans même pas 6 mois J't'assure que c'est moi la une des journaux J'reste à l'affût sur l'terrain Toi arrêtes de nous dire que tu tires On t'a jamais vu sur le ter-ter Pourtant jsors tôt et jrentre tard Psahtek ta percé, maintenant tu hagal les p'tits Mais n'oublie pas qu'avant tout sa t'es un pd ici La j'vais m'remplir mes poches J'ramène une nouvelle push J'me remets à la page J'vais tout prendre pour moi et mes proches Futur négro riche J'viens incompréhensible les rush On est dure comme roche Donc c'est mieux pour toi qu'tu t'arraches Dans ma vie, j'ai dû ruser Aujourd'hui, je gère le réseau Et j'ai toutes mes raisons D'me postiche de vendre cette résine La vie d'charbon, c'est bien Mais j'veux la vie du rap J'veux signer des gros que-chè J'veux des gros showcases Il faut pas que j'me rate Pas d'concurrence j'connais pas ça Elle a kiffé ma voix elle se déssape C'est moi le prince de la ville Ta sur m'connaît Elle aime quand j'la démonte pour son cognac On récolte c'que l'on sème Mon ex a encore l'seum Aujourd'hui, elle m'déteste Elle insulte même ma reum Mais bébé, j'y peux rien l'argent monte à la tête Tant qu'j'suis pas rassasié j'mange dans toutes les assiettes 100 000 vues sur ma chaîne Sur snap j'regarde ces chiennes J'reçois des nudes Y'a ptêtre ta sur dans le truc Puis j'réfléchis, j'me dis C'est quand j'les butes Ces imbéciles, ces cons racontent d'la merde ces putes La vie, c'est dure Y'a pas d'argent facile Midi-22, j'me bute Faut pas que j'cane La bonbonne cale Qui neige, qui pleuvent qui caille J'suis plus papier que cahiers C'est comme tout dans la vie Avant de courir, il faut qu'tu marches Ne saute pas les étapes Tu vas bé-tom Les écoutes pas, c'est des schmeta You might also like Regarde cette pute elle s'attache à ma bite, à mon fric, à mon buzz En vrai j'm'en fou J'claque pas un sous En plus de sa jla baise C'est la nouvelle génération On va devenir riche Sans volé les nations Gamin fait attention, ta sur m'écoute, elle s'ambiance sur tout mes sons</t>
+          <t>C'est koba la D Kob'z la détaille, je jump sur l'instrumental Et j'pense au billet, j'dois faire avec ce détaille Tu m'connais pas d'sentiments j'encaisse billets et centimes On t'connait on sait qu'tu ments T'as rien fait casse toi teur-men J'ai toujours pas cé-per 22 j'recompte les sous d'la journée Et dans même pas 6 mois J't'assure que c'est moi la une des journaux J'reste à l'affût sur l'terrain Toi arrêtes de nous dire que tu tires On t'a jamais vu sur le ter-ter Pourtant jsors tôt et jrentre tard Psahtek ta percé, maintenant tu hagal les p'tits Mais n'oublie pas qu'avant tout sa t'es un pd ici La j'vais m'remplir mes poches J'ramène une nouvelle push J'me remets à la page J'vais tout prendre pour moi et mes proches Futur négro riche J'viens incompréhensible les rush On est dure comme roche Donc c'est mieux pour toi qu'tu t'arraches Dans ma vie, j'ai dû ruser Aujourd'hui, je gère le réseau Et j'ai toutes mes raisons D'me postiche de vendre cette résine La vie d'charbon, c'est bien Mais j'veux la vie du rap J'veux signer des gros que-chè J'veux des gros showcases Il faut pas que j'me rate Pas d'concurrence j'connais pas ça Elle a kiffé ma voix elle se déssape C'est moi le prince de la ville Ta sur m'connaît Elle aime quand j'la démonte pour son cognac On récolte c'que l'on sème Mon ex a encore l'seum Aujourd'hui, elle m'déteste Elle insulte même ma reum Mais bébé, j'y peux rien l'argent monte à la tête Tant qu'j'suis pas rassasié j'mange dans toutes les assiettes 100 000 vues sur ma chaîne Sur snap j'regarde ces chiennes J'reçois des nudes Y'a ptêtre ta sur dans le truc Puis j'réfléchis, j'me dis C'est quand j'les butes Ces imbéciles, ces cons racontent d'la merde ces putes La vie, c'est dure Y'a pas d'argent facile Midi-22, j'me bute Faut pas que j'cane La bonbonne cale Qui neige, qui pleuvent qui caille J'suis plus papier que cahiers C'est comme tout dans la vie Avant de courir, il faut qu'tu marches Ne saute pas les étapes Tu vas bé-tom Les écoutes pas, c'est des schmeta Regarde cette pute elle s'attache à ma bite, à mon fric, à mon buzz En vrai j'm'en fou J'claque pas un sous En plus de sa jla baise C'est la nouvelle génération On va devenir riche Sans volé les nations Gamin fait attention, ta sur m'écoute, elle s'ambiance sur tout mes sons</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ah Eh-eh Il dort sur l'bé-tom, c'est pas toi mais non Brr Laylow, LaD, bâtard Laylow, LaD, bâtard Brr Hey, hey J'ai que du filtré Hum, tinquiète, j'fais fumer Hum mais pas tout l'monde, elle revient chère la 'quette Aye, aye, aye Que des appels de gaz Hum, des appels de gaz Hum et sur le deux-temps, j'ai niqué ma paire Hum Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond J'tourne en rond, avec mes pneus arrières, j'fait des ronds En c'momnt, j'me fais rare, en c'momnt, j'me fais rare J'me fais rare, p'tit frère, la pillave, c'est d'la merde Des fois, j'la baise debout, j'fume une clope sur l'balcon, des fois, j'suis au dépôt, des fois, en première classe Des fois, j'suis en Fe-Fe, j'fous la merde sur les Champs Sur Paname, j'ai plus d'permis mais son fils me connaît Eh, Laylow, LaD, bâtard Bâtard, j'ressors d'la grotte Glocké J'l'emmène partout, j'l'emmène partout mais là, c'est mort, j'vais prendre l'avion Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan, hey, hey You might also like Ma bitch regarde mal, elle fait trop la belle, j'suis dans gros bolide, boîte automatique Okay Koba LaD, Laylow, oui, ma gueule, ramène les boiss' qui font brr et tout c'qui va vite Baby Babe, flow wavy Yeah, en sous-marin, bosse comme la Navy J'suis sur Paname, gros son, j'baisse les vitres, les piétons pètent tous des plombs sur ma vie C63 tout en noir, j'arrive, j'suis tout en noir, y a qu'mes colliers qui sont tout en or Oh, oh Mon seize, y a tout qui s'envole mais l'rap, c'est pas la vie, j's'rai millionnaire même si tout s'envole Tu parles mais t'as couru comme Usain Bolt, j'te sens pas, même si t'as mis l'parfum qui sent bon Voiture allemande comme à Düsseldorf Wouh, ça prr prr à deux cents sur l'périph' Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan</t>
+          <t>Ah Eh-eh Il dort sur l'bé-tom, c'est pas toi mais non Brr Laylow, LaD, bâtard Laylow, LaD, bâtard Brr Hey, hey J'ai que du filtré Hum, tinquiète, j'fais fumer Hum mais pas tout l'monde, elle revient chère la 'quette Aye, aye, aye Que des appels de gaz Hum, des appels de gaz Hum et sur le deux-temps, j'ai niqué ma paire Hum Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond J'tourne en rond, avec mes pneus arrières, j'fait des ronds En c'momnt, j'me fais rare, en c'momnt, j'me fais rare J'me fais rare, p'tit frère, la pillave, c'est d'la merde Des fois, j'la baise debout, j'fume une clope sur l'balcon, des fois, j'suis au dépôt, des fois, en première classe Des fois, j'suis en Fe-Fe, j'fous la merde sur les Champs Sur Paname, j'ai plus d'permis mais son fils me connaît Eh, Laylow, LaD, bâtard Bâtard, j'ressors d'la grotte Glocké J'l'emmène partout, j'l'emmène partout mais là, c'est mort, j'vais prendre l'avion Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan, hey, hey Ma bitch regarde mal, elle fait trop la belle, j'suis dans gros bolide, boîte automatique Okay Koba LaD, Laylow, oui, ma gueule, ramène les boiss' qui font brr et tout c'qui va vite Baby Babe, flow wavy Yeah, en sous-marin, bosse comme la Navy J'suis sur Paname, gros son, j'baisse les vitres, les piétons pètent tous des plombs sur ma vie C63 tout en noir, j'arrive, j'suis tout en noir, y a qu'mes colliers qui sont tout en or Oh, oh Mon seize, y a tout qui s'envole mais l'rap, c'est pas la vie, j's'rai millionnaire même si tout s'envole Tu parles mais t'as couru comme Usain Bolt, j'te sens pas, même si t'as mis l'parfum qui sent bon Voiture allemande comme à Düsseldorf Wouh, ça prr prr à deux cents sur l'périph' Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan Oh shit Oh shit, oh nan Oh nan mais j'crois qu'il lui reste un mois Plus qu'un mois Oh shit Eh, eh, oh nan Eh, eh, il m'reste un ze-dou sur moi Oh Oh shit, oh nan, 4.58 Italia, oh shit, oh nan Oh shit, oh nan</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Enculé, j'recompte mon oseille et j'remercie le ciel Dieu merci Tellement dominant que j'me sers dans ton assiette C'est léger Enfoiré, j'suis accro qu'aux billets la monnaie, la cité, en croco habillé Gare de Grigny, tu finis dépouillé waw, salope Doudou Sankhara, du Seven vous salut, j'suis avec tous mes gars, ça défonce grave yeah, yeah, yeah Trop de fans depuis qu'j'suis dans les actus, monnaie fait que d rentrer, j'me sns bien sens bien Dans le bâtiment, y a la potion poh, j'suis fort et j'le fais sans m'en rendre compte oui Manie très bien toutes les positions, super karaté comme Jet Li dans films d'action On a connu les moments secs, y avait du shit, pas de cahier dans mon sac Démarre la Bec', fous-la en arrière et ça part en chasse à l'homme si y a la BAC Je descends puis, je remonte salope Elle descend puis, elle remonte tiens Elle suce ma queue encore un peu et à la fin, j'la démonte Ouh merde, c'est encore nous le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à côté ça copie Gang gang Salut, ça va ? Nous, c'est cool, encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances, j'ai pas bougé sa mère, j'ai fait que recompter tout d'cet été Des dix balles comme des bateaux, les vingt balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile You might also like Moi aussi j'ai le M sur le front, j'suis fonce-dé, j'ai bédave comme un fou Si j'dégaine un pétard de mon fut', c'est p't-être que j'vais tirer dans la foule J'pense qu'à faire de la monnaie, Kodes la barrière, tu connais La bouteille finit siphonnée sheesh, sheesh Et j'ai vu les jaloux s'affiner depuis qu'on maîtrise la symphonie J'bois du Cognac comme Tupac du lundi au lundi, j'fume la beuh de Biggie Smalls J'baise que des gros culs d'bâtard, des putain d'gros culs refaits comme Kardashian Kim 19 piges sa mère, j'fais le tour d'la sphère, j'fous la merde et j'remonte sur ma planète Toujours en TT, là, j'suis au tel-hô avec une meuf d'la télé-réalité Ouh merde, c'est encore nous, le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à côté ça copie Gang gang Salut, ça va ? Nous, c'est cool, encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances, j'ai pas bougé sa mère, j'ai fait que recompter tout cet été Des dix balles comme des bateaux, les vingt-balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile Keusty pal, du 7 à la B shu, shu, y a d'la C, du pilon, y a d'la beuh On va baiser d'abord, ensuite prends ton Uber, si on déboule, on finit à la barre Drive-by dans l'G7R, une balle, tu quittes la Terre J'vais les tordre de les retordre jusqu'à qu'ils disent Keusty c'est toi l'plus fort J'écoute les sirènes, c'est les bleus qui débarquent, posé avec l'équipe, il faut qu'on les démarre On se connait avant la musique, on va mettre des fessées comme l'a fait Munich J'me trimballe avec de la moula, à 14 heures, j'étais avec le Glaza Et ça faisait tourner tout comme le Barça, enchanté monsieur, madame, c'est du 7k Ouh merde, c'est encore nous, le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à coté ça copie Gang gang Salut, ça va ? Nous, c'est cool encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances j'ai pas bougé sa mère, j'ai fait que recompter tout cet été Des dix balles comme des bateaux, les vingt-balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile</t>
+          <t>Enculé, j'recompte mon oseille et j'remercie le ciel Dieu merci Tellement dominant que j'me sers dans ton assiette C'est léger Enfoiré, j'suis accro qu'aux billets la monnaie, la cité, en croco habillé Gare de Grigny, tu finis dépouillé waw, salope Doudou Sankhara, du Seven vous salut, j'suis avec tous mes gars, ça défonce grave yeah, yeah, yeah Trop de fans depuis qu'j'suis dans les actus, monnaie fait que d rentrer, j'me sns bien sens bien Dans le bâtiment, y a la potion poh, j'suis fort et j'le fais sans m'en rendre compte oui Manie très bien toutes les positions, super karaté comme Jet Li dans films d'action On a connu les moments secs, y avait du shit, pas de cahier dans mon sac Démarre la Bec', fous-la en arrière et ça part en chasse à l'homme si y a la BAC Je descends puis, je remonte salope Elle descend puis, elle remonte tiens Elle suce ma queue encore un peu et à la fin, j'la démonte Ouh merde, c'est encore nous le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à côté ça copie Gang gang Salut, ça va ? Nous, c'est cool, encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances, j'ai pas bougé sa mère, j'ai fait que recompter tout d'cet été Des dix balles comme des bateaux, les vingt balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile Moi aussi j'ai le M sur le front, j'suis fonce-dé, j'ai bédave comme un fou Si j'dégaine un pétard de mon fut', c'est p't-être que j'vais tirer dans la foule J'pense qu'à faire de la monnaie, Kodes la barrière, tu connais La bouteille finit siphonnée sheesh, sheesh Et j'ai vu les jaloux s'affiner depuis qu'on maîtrise la symphonie J'bois du Cognac comme Tupac du lundi au lundi, j'fume la beuh de Biggie Smalls J'baise que des gros culs d'bâtard, des putain d'gros culs refaits comme Kardashian Kim 19 piges sa mère, j'fais le tour d'la sphère, j'fous la merde et j'remonte sur ma planète Toujours en TT, là, j'suis au tel-hô avec une meuf d'la télé-réalité Ouh merde, c'est encore nous, le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à côté ça copie Gang gang Salut, ça va ? Nous, c'est cool, encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances, j'ai pas bougé sa mère, j'ai fait que recompter tout cet été Des dix balles comme des bateaux, les vingt-balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile Keusty pal, du 7 à la B shu, shu, y a d'la C, du pilon, y a d'la beuh On va baiser d'abord, ensuite prends ton Uber, si on déboule, on finit à la barre Drive-by dans l'G7R, une balle, tu quittes la Terre J'vais les tordre de les retordre jusqu'à qu'ils disent Keusty c'est toi l'plus fort J'écoute les sirènes, c'est les bleus qui débarquent, posé avec l'équipe, il faut qu'on les démarre On se connait avant la musique, on va mettre des fessées comme l'a fait Munich J'me trimballe avec de la moula, à 14 heures, j'étais avec le Glaza Et ça faisait tourner tout comme le Barça, enchanté monsieur, madame, c'est du 7k Ouh merde, c'est encore nous, le Bâtiment 7, puissant comme les armes à Poutine Le flow, la mélo' et les gestes, on manie ça bien et j'vois qu'à coté ça copie Gang gang Salut, ça va ? Nous, c'est cool encaissement fait partie de notre routine Tu veux savoir comment être fort ? Regarde-nous faire à la cité Et ces vacances j'ai pas bougé sa mère, j'ai fait que recompter tout cet été Des dix balles comme des bateaux, les vingt-balles sont bien mousseux et tout pâteux Toujours dans l'bendo même si j'ai pété, j'peux pas m'arrêter, boy, j'suis trop bon dedans Je bande à chaque élastique, y a que les novices pour croire que c'est facile</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C'est la BA, la BMF Ziak, Koba LaD Han Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein Nous ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Il-, il-, il est pas né c'lui qui va m'rendre fou, j'ai une grosse paire de couills qui rentre pas dans l'moule Bé-, bébé, j'rcompte les grosses coupures, là, j'suis pas dans l'mood Oh-oh Ils font R, ils me copient oi-m, t'imagines même pas, ces tain-p', j'leur marche Ah Mes g-, mes gars m'disent Rend nous hommage, j'suis pas à toi si au lit, on matche Cabriolé pour la saison des 'tasses, Des classes, des classes, des cambriolages Moi, j'canne pour la feugueu qu'est derrière moi, toi, tu vis pour les caméras, les flashs Ya-, Yamamoto comme si j'tais en bécane Bécane, mature dans l'il d'cette femme Elle m'fait des approches, son p'tit est fan, elle m'fait des avances, mon billet crame J'aime trop Les vautours sont juste au d'ssus, ils nous tournent autour, ils attendent qu'on flanche Ces bâtards On répare le business en tac-tac et c'est sur son cas qu'on s'penche Ouh, ouh J'dis pas tout c'que j'pense, c'est mieux comme ça Nous, on sait bien où ça va quand on s'lance Oh-oh Belek aux grands sourires qui t'tapent l'épaule et qui vont toujours dans ton sens You might also like Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Ma chérie coco, c'est une grosse pute Eh, elle veut ma bite et ma réput' Réput' J'revends l'bédo mais j'le fume plus Non, j'revends l'bédo mais j'le fume plus C'est mort Maintenant, j'suis grave concentré, t'inquiète À fond, ils m'l'ont mis déjà une fois, pas deux C'est mort J'arrive en Louis Vuitton, Balmain, frais Eh, j'pose mon CZ, j'me casse en deux-deux Je t'ai mis bien, vraiment bien et moi, comme d'hab', bah, j'ai tout gâché Comme d'hab' Tu t'montres un peu, un peu beaucoup, maintenant, mes sins-cou veulent t'attacher Eh Maintenant, mes sins-cou veulent t'attacher, faire le contour d'ton corps à la craie Han Avenue des Champs en GTS, ils m'arrêtent pour une to-ph', pas pour m'contrôler Et ouais Les vautours sont juste au d'ssus, ils nous tournent autour, ils attendent qu'on flanche Ces bâtards On répare le business en tac-tac et c'est sur son cas qu'on s'penche Ouh, ouh J'dis pas tout c'que j'pense, c'est mieux comme ça Nous, on sait bien où ça va quand on s'lance Oh, oh Belek aux grands sourires qui t'tapent l'épaule et qui vont toujours dans ton sens Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Eh-eh-eh-eh</t>
+          <t>C'est la BA, la BMF Ziak, Koba LaD Han Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein Nous ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Il-, il-, il est pas né c'lui qui va m'rendre fou, j'ai une grosse paire de couills qui rentre pas dans l'moule Bé-, bébé, j'rcompte les grosses coupures, là, j'suis pas dans l'mood Oh-oh Ils font R, ils me copient oi-m, t'imagines même pas, ces tain-p', j'leur marche Ah Mes g-, mes gars m'disent Rend nous hommage, j'suis pas à toi si au lit, on matche Cabriolé pour la saison des 'tasses, Des classes, des classes, des cambriolages Moi, j'canne pour la feugueu qu'est derrière moi, toi, tu vis pour les caméras, les flashs Ya-, Yamamoto comme si j'tais en bécane Bécane, mature dans l'il d'cette femme Elle m'fait des approches, son p'tit est fan, elle m'fait des avances, mon billet crame J'aime trop Les vautours sont juste au d'ssus, ils nous tournent autour, ils attendent qu'on flanche Ces bâtards On répare le business en tac-tac et c'est sur son cas qu'on s'penche Ouh, ouh J'dis pas tout c'que j'pense, c'est mieux comme ça Nous, on sait bien où ça va quand on s'lance Oh-oh Belek aux grands sourires qui t'tapent l'épaule et qui vont toujours dans ton sens Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Ma chérie coco, c'est une grosse pute Eh, elle veut ma bite et ma réput' Réput' J'revends l'bédo mais j'le fume plus Non, j'revends l'bédo mais j'le fume plus C'est mort Maintenant, j'suis grave concentré, t'inquiète À fond, ils m'l'ont mis déjà une fois, pas deux C'est mort J'arrive en Louis Vuitton, Balmain, frais Eh, j'pose mon CZ, j'me casse en deux-deux Je t'ai mis bien, vraiment bien et moi, comme d'hab', bah, j'ai tout gâché Comme d'hab' Tu t'montres un peu, un peu beaucoup, maintenant, mes sins-cou veulent t'attacher Eh Maintenant, mes sins-cou veulent t'attacher, faire le contour d'ton corps à la craie Han Avenue des Champs en GTS, ils m'arrêtent pour une to-ph', pas pour m'contrôler Et ouais Les vautours sont juste au d'ssus, ils nous tournent autour, ils attendent qu'on flanche Ces bâtards On répare le business en tac-tac et c'est sur son cas qu'on s'penche Ouh, ouh J'dis pas tout c'que j'pense, c'est mieux comme ça Nous, on sait bien où ça va quand on s'lance Oh, oh Belek aux grands sourires qui t'tapent l'épaule et qui vont toujours dans ton sens Son putain d'cul m'ramène que des sales idées, hein, un putain d'pavtar, quatre étages, ce s'rait ça, l'idéal Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Et si j'traîne pas dehors, qui c'est qui nous fait bouffer, hein ? Elle sera triste en Dior, triste en Louboutin Trop d'vautours m'tournent autour, qui veulent manger mon pain, qui m'té-ma du coin d'l'il, alors, j'exhibe un flingue Eh-eh-eh-eh</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Oh-oh-oh-oh Ouais You know i dont like to do that ! Ah-ah-ah Moi, j'ai pas fait de prison, moi Moi, j'ai pas fait de prison mais j'suis trop nerveux comme taulard J'suis dans AMG super rapide comme tonnerre Vroum, vroum vroum, vroum et puis, y a très peu d'choses qu'on tolère, j'crache un mollard J'te donne du temps mais m'fais pas perdre mon temps, tu donnes confiance comme si tu donnes ton cul Faut qu'j'passe à autre chose mais faut qu'j'récup' mon dû, faut qu'j'passe à autre chose mais faut qu'j'récup' mon dû Vers ici, on connait là-celle, j'l'ai déjà ken, donc mon frérot, ne sois pas love d'elle Tu peux d'mander au dernier fils de pute qu'a tenté, j'te tue ta sur et je récup' la montre à ton père devant ta meuf Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal J'ai trop galéré, j'ai trop généré, j'suis dans l'binks, j'ai trop à gérer, il faut intérêt .38 S, j'ai pas leur temps, aucun d'entre eux peut m'faire du tort GTS, Avenue des Champs, j'rentre chez Gucci, j'suis tout en Dior Dans le bâtiment, faut bloquer au premier l'escalier J'change de continent, j'inverse la soirée à la matinée J'sais plus combien j'ai ché-tou, combien j'ai donné, j'ai sorti l'gun, il est ché-tou, j'peux plus pardonner You might also like Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal Ah-ah-ah-ah Oh-oh-oh-oh-oh-oh J'suis cagoulé dans une villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib, j'change tous les deux mois d'signal</t>
+          <t>Oh-oh-oh-oh Ouais You know i dont like to do that ! Ah-ah-ah Moi, j'ai pas fait de prison, moi Moi, j'ai pas fait de prison mais j'suis trop nerveux comme taulard J'suis dans AMG super rapide comme tonnerre Vroum, vroum vroum, vroum et puis, y a très peu d'choses qu'on tolère, j'crache un mollard J'te donne du temps mais m'fais pas perdre mon temps, tu donnes confiance comme si tu donnes ton cul Faut qu'j'passe à autre chose mais faut qu'j'récup' mon dû, faut qu'j'passe à autre chose mais faut qu'j'récup' mon dû Vers ici, on connait là-celle, j'l'ai déjà ken, donc mon frérot, ne sois pas love d'elle Tu peux d'mander au dernier fils de pute qu'a tenté, j'te tue ta sur et je récup' la montre à ton père devant ta meuf Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal J'ai trop galéré, j'ai trop généré, j'suis dans l'binks, j'ai trop à gérer, il faut intérêt .38 S, j'ai pas leur temps, aucun d'entre eux peut m'faire du tort GTS, Avenue des Champs, j'rentre chez Gucci, j'suis tout en Dior Dans le bâtiment, faut bloquer au premier l'escalier J'change de continent, j'inverse la soirée à la matinée J'sais plus combien j'ai ché-tou, combien j'ai donné, j'ai sorti l'gun, il est ché-tou, j'peux plus pardonner Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal Capuché d'vant les m'bilas, j'fais défiler tous les clients d'beuh Beuh Deux-soixante dans le virage, j'laisse derrière oi-m le rouge et le bleu J'suis cagoulé dans une villa Villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib Vélib, j'change tous les deux mois d'signal Ah-ah-ah-ah Oh-oh-oh-oh-oh-oh J'suis cagoulé dans une villa, j'suis broliqué dans le Velar J'prends l'AMG, j'te laisse le Vélib, j'change tous les deux mois d'signal</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nonante Ma vie n'est pas du tout légale, la boule au ventre, chez moi, n'est pas inconnue, c'est l'ghetto safari coupe, coupe, coupe Quand c'est fini l'hiver, les keufs font plus des rondes mais des tourbillons Mais j'suis toujours là, la sueur au front, toujours au charbon olaskurt Série de chemins dans le Série 3 ou dans le Série 1 coupe, coupe, coupe, coupe Dans les quatre saisons, lunettes 4 saisons, vitre baissée pour t'pull up poh, poh, poh C'est pas le bruit du gun mais le truc qui transperce ta culotte eh Nonante Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot Nos vies sont pas légales nos vies sont pas légales, nan, nan, nos vies sont pas légales pas légales, nan, nan Dans l'le-sa, on s'régale dans l'le-sa, on s'régale, les hassanates sont en panne panne, ouais J'ai appelé EFIDIS EFIDIS, j'appelle, j'appelle ça a sonné occupé ça a sonné occupé, promets J'ai composé en privé j're pull up, bizarrement, ça a décroché allô ? Dans le propre, on s'sent mal propre, on s'sent mal, à part quand c'est l'Ram'dan le Ram'dan Zahma, ça fait les frères, une fois qu'le fer a fait dégâts J'resterai fidèle aux miens fidèle aux miens, j'resterai fidèle aux sous ouais, aux sous Et j'resterai fidèle à femme, te dire oui, c'est faire le ouf You might also like Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot Depuis tout p'tit, j'voulais l'gros lot, j'voulais l'gros fer et l'gros Merco eho, binks Les grosses commères qui restaient trop près du hall et voulaient pas vendre eh, eh, eh, eh, eh, eh En vrai, moi, j'les vois en bizarre, on r'fourgue ta mère ou dégage d'la zone Crier Bader et s'mettre au rap et buzz avec la vie des autres ouais Double vie quand j'sors d'la maison, mama s'demande si j'perds la raison ah, ah Arc-en-ciel de biff toutes les saisons, enquêtes, saisies, faut qu'j'gère la pression fuck le 17 L'impression qu'ça devient che-lou, si j'baisse les armes, dis bye aux genoux bye, bye, oh Le nerf de la guerre c'est la ffe-chnou pas coupée, c'est comme ça chez nous Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot Y a trois piges, si tu savais c'que les gens m'disaient C'est la prison ou j'vais mourir Aujourd'hui, j'les baise, aujourd'hui, j'les baise et rien d'eux vaut plus cher que ma Extra Thin Rien d'autre à faire à part fructifier des sous, coffrer un bon bout et le reste, l'investir Quoi qu'ils fassent et quoi qu'ils disent, le platine sera là pour les démentir Petit, j'ai p't-être baisé ta grande sur, j'ai acheté un nouveau gamos Deux pédales et quatre gros pétards et elle s'agrippe à mon bras quand j'accélère Tu m'reconnais ? Tu m'as reconnu, j'ai le disque en roro comme ma montre Et comme j'ai un buzz de fils de pute, bah, j'fais plus la queue chez Louis Vuitton binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot</t>
+          <t>Nonante Ma vie n'est pas du tout légale, la boule au ventre, chez moi, n'est pas inconnue, c'est l'ghetto safari coupe, coupe, coupe Quand c'est fini l'hiver, les keufs font plus des rondes mais des tourbillons Mais j'suis toujours là, la sueur au front, toujours au charbon olaskurt Série de chemins dans le Série 3 ou dans le Série 1 coupe, coupe, coupe, coupe Dans les quatre saisons, lunettes 4 saisons, vitre baissée pour t'pull up poh, poh, poh C'est pas le bruit du gun mais le truc qui transperce ta culotte eh Nonante Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot Nos vies sont pas légales nos vies sont pas légales, nan, nan, nos vies sont pas légales pas légales, nan, nan Dans l'le-sa, on s'régale dans l'le-sa, on s'régale, les hassanates sont en panne panne, ouais J'ai appelé EFIDIS EFIDIS, j'appelle, j'appelle ça a sonné occupé ça a sonné occupé, promets J'ai composé en privé j're pull up, bizarrement, ça a décroché allô ? Dans le propre, on s'sent mal propre, on s'sent mal, à part quand c'est l'Ram'dan le Ram'dan Zahma, ça fait les frères, une fois qu'le fer a fait dégâts J'resterai fidèle aux miens fidèle aux miens, j'resterai fidèle aux sous ouais, aux sous Et j'resterai fidèle à femme, te dire oui, c'est faire le ouf Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot Depuis tout p'tit, j'voulais l'gros lot, j'voulais l'gros fer et l'gros Merco eho, binks Les grosses commères qui restaient trop près du hall et voulaient pas vendre eh, eh, eh, eh, eh, eh En vrai, moi, j'les vois en bizarre, on r'fourgue ta mère ou dégage d'la zone Crier Bader et s'mettre au rap et buzz avec la vie des autres ouais Double vie quand j'sors d'la maison, mama s'demande si j'perds la raison ah, ah Arc-en-ciel de biff toutes les saisons, enquêtes, saisies, faut qu'j'gère la pression fuck le 17 L'impression qu'ça devient che-lou, si j'baisse les armes, dis bye aux genoux bye, bye, oh Le nerf de la guerre c'est la ffe-chnou pas coupée, c'est comme ça chez nous Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot Y a trois piges, si tu savais c'que les gens m'disaient C'est la prison ou j'vais mourir Aujourd'hui, j'les baise, aujourd'hui, j'les baise et rien d'eux vaut plus cher que ma Extra Thin Rien d'autre à faire à part fructifier des sous, coffrer un bon bout et le reste, l'investir Quoi qu'ils fassent et quoi qu'ils disent, le platine sera là pour les démentir Petit, j'ai p't-être baisé ta grande sur, j'ai acheté un nouveau gamos Deux pédales et quatre gros pétards et elle s'agrippe à mon bras quand j'accélère Tu m'reconnais ? Tu m'as reconnu, j'ai le disque en roro comme ma montre Et comme j'ai un buzz de fils de pute, bah, j'fais plus la queue chez Louis Vuitton binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, j'rêve du gros lot depuis tout p'tit Gyrophare tourne dans ma lle-vi nion, nion, nion, gyrophare tourne dans la ne-zo H24, ça vend la gue-dro ouais, ouais, que serions-nous sans prendre des risques ? binks, binks, binks Depuis tout p'tit, j'voulais l'gros lot, depuis tout p'tit, j'voulais l'gros lot depuis tout p'tit, j'voulais l'gros lot</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BMF Ibé, Ibé, Ibé PDSOUT PDSOUT Ouh, ouais Hey, j'arrive même plus à m'confier, c'est soit tu t'en sors ou bien la descente de condés De base, j'les aimais tellement mais tre-l'au, c'est un fils de pute De base, j'les aimais tellement mais tre-l'au, c'est un fils de pute J'ai pas d'nouvelle école, j'té-cla la beuh, j'décolle J'men vais Toujours en retard au foot Toujours, toujours en retard dans l'hall Ah putain d'merde J'ai toujours rêvé d'baiser ma boulangère Toujours rêvé d'baiser ma boulangère J'ai rêvé d'Patek Phillipe, vue sur la mer J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit Partout où j'passe, j'ramène ma beuh, si Dieu veut on finit à deux J'serais peut-être déjà bien loin d'eux, si j'avais qu'c'était des fils de- J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs You might also like Que j'enchaîne les joints, il est déjà 3 heures du mat' J'reste pas sur ma faim, j'fonce au studio pour l'audimat Qu'est-ce qu'il raconte ? Il comprend pas la vision J'ai tout vu dans le noir et ça devient plus clair dans l'Audi mat J'remets mes lacets, j'refais la même journée Est-ce que c'est normal ou est-ce que j'suis jnouné ? J'appelle le D, fallait nouvelle fournée Il m'connait pas, j'suis passé sous son nez lui C'est dur de m'raisonner, j'ai un problème avec les lâches J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit Partout où j'passe, j'ramène ma beuh, si Dieu veut on finit à deux J'serais peut-être déjà bien loin d'eux, si j'avais qu'c'était des fils de- J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs Que j'enchaîne les joints, il est déjà 3 heures du mat J'reste pas sur ma faim, j'fonce au studio pour l'audimat J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'regrets</t>
+          <t>BMF Ibé, Ibé, Ibé PDSOUT PDSOUT Ouh, ouais Hey, j'arrive même plus à m'confier, c'est soit tu t'en sors ou bien la descente de condés De base, j'les aimais tellement mais tre-l'au, c'est un fils de pute De base, j'les aimais tellement mais tre-l'au, c'est un fils de pute J'ai pas d'nouvelle école, j'té-cla la beuh, j'décolle J'men vais Toujours en retard au foot Toujours, toujours en retard dans l'hall Ah putain d'merde J'ai toujours rêvé d'baiser ma boulangère Toujours rêvé d'baiser ma boulangère J'ai rêvé d'Patek Phillipe, vue sur la mer J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit Partout où j'passe, j'ramène ma beuh, si Dieu veut on finit à deux J'serais peut-être déjà bien loin d'eux, si j'avais qu'c'était des fils de- J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs Que j'enchaîne les joints, il est déjà 3 heures du mat' J'reste pas sur ma faim, j'fonce au studio pour l'audimat Qu'est-ce qu'il raconte ? Il comprend pas la vision J'ai tout vu dans le noir et ça devient plus clair dans l'Audi mat J'remets mes lacets, j'refais la même journée Est-ce que c'est normal ou est-ce que j'suis jnouné ? J'appelle le D, fallait nouvelle fournée Il m'connait pas, j'suis passé sous son nez lui C'est dur de m'raisonner, j'ai un problème avec les lâches J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit J'le sens quand ça dure trop longtemps, j'change de num' J'change de num', de bigo, de petit Partout où j'passe, j'ramène ma beuh, si Dieu veut on finit à deux J'serais peut-être déjà bien loin d'eux, si j'avais qu'c'était des fils de- J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'rancurs Que j'enchaîne les joints, il est déjà 3 heures du mat J'reste pas sur ma faim, j'fonce au studio pour l'audimat J'suis rempli d'bastos, rempli d'regrets J'suis rempli d'bastos, rempli d'regrets</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>À 13 ans j'ai eu l'déclic, l'hôpital m'as mis une claque Junior Alaprod Faut que jremercie mon bendo, avec du Bedo mon empire je lai bâti La matière grasse, le stress fait perdre du bide grave Mais faut qujreste debout ouais, mais faut qujreste debout abandonner cest stupide Plus de dope que d'bonté, moi j'ai tiré sans but maille, maille, maille, maille Traffic organisé en bande, 1 million ça m'fais plus bander 510 à péter, gamin laisse ls croire qu'on est bêtes J'baraud sur le périph' à fond, j'ai tellement fumé d'shit, j'me souviens même plus d'mon enfance Mais nique sa mère ces 'tainp, faut d'abord que ma mère soit fière Mais pour y arriver j'dois d'abord m'écarter des faux Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras À 13 ans, j'ai eu l'déclic, l'hôpital, la peur de caner m'as mis une claque Y a qu'les putes et les tapettes qui ont pas d'clans Fait gaffe quand tu brasse, y a des requins qui peuvent séquestrer ta grand mère 15 ans j'ouvre un terrain, j'voulais peser comme Pablo j'voulais peser comme Pablo Mais la maison d'disques m'a rattrapé 15 ans j'ouvre un terrain, j'voulais peser comme Pablo Mais la maison d'disques m'a rattrapé You might also like J'baraude sur le périph' à fond, j'ai tellement fumé d'shit, j'me souviens même plus d'mon enfance Mais nique sa mère ces 'tainp, faut d'abord que ma mère soit fière Mais pour y arriver j'dois d'abord m'écarter des faux Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras</t>
+          <t>À 13 ans j'ai eu l'déclic, l'hôpital m'as mis une claque Junior Alaprod Faut que jremercie mon bendo, avec du Bedo mon empire je lai bâti La matière grasse, le stress fait perdre du bide grave Mais faut qujreste debout ouais, mais faut qujreste debout abandonner cest stupide Plus de dope que d'bonté, moi j'ai tiré sans but maille, maille, maille, maille Traffic organisé en bande, 1 million ça m'fais plus bander 510 à péter, gamin laisse ls croire qu'on est bêtes J'baraud sur le périph' à fond, j'ai tellement fumé d'shit, j'me souviens même plus d'mon enfance Mais nique sa mère ces 'tainp, faut d'abord que ma mère soit fière Mais pour y arriver j'dois d'abord m'écarter des faux Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras À 13 ans, j'ai eu l'déclic, l'hôpital, la peur de caner m'as mis une claque Y a qu'les putes et les tapettes qui ont pas d'clans Fait gaffe quand tu brasse, y a des requins qui peuvent séquestrer ta grand mère 15 ans j'ouvre un terrain, j'voulais peser comme Pablo j'voulais peser comme Pablo Mais la maison d'disques m'a rattrapé 15 ans j'ouvre un terrain, j'voulais peser comme Pablo Mais la maison d'disques m'a rattrapé J'baraude sur le périph' à fond, j'ai tellement fumé d'shit, j'me souviens même plus d'mon enfance Mais nique sa mère ces 'tainp, faut d'abord que ma mère soit fière Mais pour y arriver j'dois d'abord m'écarter des faux Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras Mama se plaint d'son mal de dos mama se plaint d'son mal de dos À en détaille, j'ai mal aux bras à en détaille, j'ai mal aux bras</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Putain En ce moment, c'est chaud, sa mère En ce moment, c'est chaud, sa mère Putain Hey, hey, hey En c'moment, c'est chaud, ça craint, là, c'est la plus grosse pénurie du siècle Dans le pochton, j'ai Piccolo, sur mon poignet, j'ai la montre à Nicolas Sur le terrain, j'ai posé deux beuh, de l'amnésia et d'la purple M.E.2S sur la moto, en Y dans la descente et la pente En ce moment, le taga, c'est dur, c'est trop, j'ai les mêmes touches qu'en 2015 Ils sont chauds sur les passages de shit mais bon, y a toujours les ients-cli de coup J'ai plusieurs bigos, plusieurs raclis, plusieurs appart' même jusqu'en Afrique J'ai beaucoup d'flingues, des belles voitures, sur le périph', tout l'monde s'tord le cou Bah ouais, qu'est-ce tu crois, ma belle bah ouais, qu'est-ce que tu crois ? J'ai assez d'sous pour te sortir de la misère assez d'sous pour te sortir de la misère Et si tous mes calculs sont bons si tous mes calculs sont bons À vingt-cinq balais, j'ai au moins quatre millions à vingt-cinq balais, j'ai au moins quatre millions Et putain d'merde toujours au dépôt, plusieurs fois, j'ai re-pesé le pour et l'contre han, han Au final, j'suis plus sage qu'immonde, j'préfère les chiffres d'la pesette qu'les paroles d'hommes han, han En plus d'mes amis qu'mes ennemis, maman m'a dit C'est les amis qui trahissent han, han Ça sera sûrement pour du fric ou p't-être pour une salope qu'il a pas pine Les potes à mon p'tit reufré sont choqués du cylindré dans la cité han, han Mais comme ils ont l'habitude, les condés de la zone me contrôlent plus han, han Et le plein de mon véhicule, c'est même pas ce qu'on te paye pour un midi-minuit han, han Et côté passager, un gros cul que j'ai ramené de Martinique han, han You might also like En c'moment, c'est trop B, c'est la pénurie d'taga taga Et regarde si tu veux, j'ai d'la superbe patate patate Attends un p'tit moment, j'vais recevoir de la moula de la moula Et si tout se passe bien passe bien, putain d'merde En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque</t>
+          <t>Putain En ce moment, c'est chaud, sa mère En ce moment, c'est chaud, sa mère Putain Hey, hey, hey En c'moment, c'est chaud, ça craint, là, c'est la plus grosse pénurie du siècle Dans le pochton, j'ai Piccolo, sur mon poignet, j'ai la montre à Nicolas Sur le terrain, j'ai posé deux beuh, de l'amnésia et d'la purple M.E.2S sur la moto, en Y dans la descente et la pente En ce moment, le taga, c'est dur, c'est trop, j'ai les mêmes touches qu'en 2015 Ils sont chauds sur les passages de shit mais bon, y a toujours les ients-cli de coup J'ai plusieurs bigos, plusieurs raclis, plusieurs appart' même jusqu'en Afrique J'ai beaucoup d'flingues, des belles voitures, sur le périph', tout l'monde s'tord le cou Bah ouais, qu'est-ce tu crois, ma belle bah ouais, qu'est-ce que tu crois ? J'ai assez d'sous pour te sortir de la misère assez d'sous pour te sortir de la misère Et si tous mes calculs sont bons si tous mes calculs sont bons À vingt-cinq balais, j'ai au moins quatre millions à vingt-cinq balais, j'ai au moins quatre millions Et putain d'merde toujours au dépôt, plusieurs fois, j'ai re-pesé le pour et l'contre han, han Au final, j'suis plus sage qu'immonde, j'préfère les chiffres d'la pesette qu'les paroles d'hommes han, han En plus d'mes amis qu'mes ennemis, maman m'a dit C'est les amis qui trahissent han, han Ça sera sûrement pour du fric ou p't-être pour une salope qu'il a pas pine Les potes à mon p'tit reufré sont choqués du cylindré dans la cité han, han Mais comme ils ont l'habitude, les condés de la zone me contrôlent plus han, han Et le plein de mon véhicule, c'est même pas ce qu'on te paye pour un midi-minuit han, han Et côté passager, un gros cul que j'ai ramené de Martinique han, han En c'moment, c'est trop B, c'est la pénurie d'taga taga Et regarde si tu veux, j'ai d'la superbe patate patate Attends un p'tit moment, j'vais recevoir de la moula de la moula Et si tout se passe bien passe bien, putain d'merde En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque En c'moment, c'est chaud, ça craint han, han En c'moment c'est chaud, ça craint han, han En c'moment, c'est chaud, ça craint mais nique sa grand-mère, y a la maison d'disque</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Say-Say, Saydiq Et j'ai pas grandi comme les autres et j'ai pas grandi comme les autres Pas les mêmes moyens qu'les autres pas les mêmes moyens qu'les autres J'ai dû faire plus que les autres et j'ai du faire plus que les autres Pour être un jour mieux que les autres pour êtres un jour mieux que les autres Et j'me rapproche de c'que j'veux être, je fais plus d'argent qu'les autres Je baise plus que les autres et j'ai plus de buzz que les autres Pour accroître ton avance faut qu'tu restes fidèle et monte Ne fait pas d'acte pour nous nuire, mon fils, ne fait pas comme les nôtres comme les nôtres Ceux qui m'restent, j'les comptent avec mes doigts avec mes doigts Ça a changé depuis l'époque d'la White Widow d'la Jack Herer Jusqu'à ma mort, j'vais devoir leur tenir tête leur tenir tête Ou les autres vont m'pétarder le dos Hey, non, non Tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille Non non, tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille You might also like Étant gamin j'en rêvais étant gamin j'en rêvais La vie d'artiste, soirée privée la vie d'artiste, soirée privée Showcases ici, concerts par là showcases ici, concerts par là J'rêvais de vacances toute l'année j'rêvais de vacance toute l'année On en a fait du chemin, crever c'qu'ils veulent crever nos roues Un naît comme eux, souffrant comme eux malgré tout rejeté comme un rat Dans tes potes fait bien ton tri car même dans ton tri y'a des traîtres C'est peut-être ton reuf' qui baise ta meuf, peut-être lui qui va te donner aux keufs, aux keufs Ceux qui m'restent, j'les comptent avec mes doigts avec mes doigts Ça a changé depuis l'époque d'la White Widow d'la Jack Herer Jusqu'à ma mort, j'vais devoir leur tenir tête leur tenir tête Ou les autres vont m'pétarder le dos Hey, non, non Tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille Non non, tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille</t>
+          <t>Say-Say, Saydiq Et j'ai pas grandi comme les autres et j'ai pas grandi comme les autres Pas les mêmes moyens qu'les autres pas les mêmes moyens qu'les autres J'ai dû faire plus que les autres et j'ai du faire plus que les autres Pour être un jour mieux que les autres pour êtres un jour mieux que les autres Et j'me rapproche de c'que j'veux être, je fais plus d'argent qu'les autres Je baise plus que les autres et j'ai plus de buzz que les autres Pour accroître ton avance faut qu'tu restes fidèle et monte Ne fait pas d'acte pour nous nuire, mon fils, ne fait pas comme les nôtres comme les nôtres Ceux qui m'restent, j'les comptent avec mes doigts avec mes doigts Ça a changé depuis l'époque d'la White Widow d'la Jack Herer Jusqu'à ma mort, j'vais devoir leur tenir tête leur tenir tête Ou les autres vont m'pétarder le dos Hey, non, non Tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille Non non, tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille Étant gamin j'en rêvais étant gamin j'en rêvais La vie d'artiste, soirée privée la vie d'artiste, soirée privée Showcases ici, concerts par là showcases ici, concerts par là J'rêvais de vacances toute l'année j'rêvais de vacance toute l'année On en a fait du chemin, crever c'qu'ils veulent crever nos roues Un naît comme eux, souffrant comme eux malgré tout rejeté comme un rat Dans tes potes fait bien ton tri car même dans ton tri y'a des traîtres C'est peut-être ton reuf' qui baise ta meuf, peut-être lui qui va te donner aux keufs, aux keufs Ceux qui m'restent, j'les comptent avec mes doigts avec mes doigts Ça a changé depuis l'époque d'la White Widow d'la Jack Herer Jusqu'à ma mort, j'vais devoir leur tenir tête leur tenir tête Ou les autres vont m'pétarder le dos Hey, non, non Tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille Non non, tu peux pas chanter encore, boy J'suis pas là, là j'suis parti ravitaille Sur Paname, tu m'vois bombarder en S J'suis pas là, là j'suis parti ravitaille</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Noxious Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis Hey, hey Recompter mon activité, j'en ai eu des crampes, sur la tête des gosses On m'a dit Taffer pour mille-deux, j'ai répondu Fuck, je finirai boss De la gandja calée dans les cojo avec une liasse élastiqué vers le tibia Devant les condés, la seule fois qu'j'ai couru, j'vais v'-esqui' les barreaux, donc pour l'instant, ça rentre Faut le million, boy, j'le vois arriver au loin comme une tchoin qui veut gouter mon buzz J'suis mignon mais j'ai un p'tit côté démoniaque, contentes-toi de goutter mon zob Ne m'en voulez pas, non, j'ai pas changé j'suis toujours le même, c'est juste que je donne plus l'heure bah ouais, bah ouais Ça pue la richesse même si à la base, l'argent n'a pas d'odeur Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis You might also like Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Sous rhum ambré, j'ai des grosses visions, moi, j'étais multimillionnaire J'avais racheté la ville avec plusieurs yachts, j'fait du biff que dans l'hélicoptère J'me réveille aux Champs-Élysées dans un hôtel plus haut qu'la Tour Eiffel J'ai d'la beuh plus forte que d'la cocaïne, de ma géné', bah, c'est moi, l'plus riche J'ai toujours traîné qu'avec les plus grands, toujours traiter qu'avec les plus grands J'volais des bugs pour les revendre aux plus grands, dans les bagarres, j'me bat avec les plus grands Mes démons sont de sortie, quand le Soleil alterne avec la Luna Ma Rolex me dit Qu'on prendra d'la valeur à la longue Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis1</t>
+          <t>Noxious Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis Hey, hey Recompter mon activité, j'en ai eu des crampes, sur la tête des gosses On m'a dit Taffer pour mille-deux, j'ai répondu Fuck, je finirai boss De la gandja calée dans les cojo avec une liasse élastiqué vers le tibia Devant les condés, la seule fois qu'j'ai couru, j'vais v'-esqui' les barreaux, donc pour l'instant, ça rentre Faut le million, boy, j'le vois arriver au loin comme une tchoin qui veut gouter mon buzz J'suis mignon mais j'ai un p'tit côté démoniaque, contentes-toi de goutter mon zob Ne m'en voulez pas, non, j'ai pas changé j'suis toujours le même, c'est juste que je donne plus l'heure bah ouais, bah ouais Ça pue la richesse même si à la base, l'argent n'a pas d'odeur Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Sous rhum ambré, j'ai des grosses visions, moi, j'étais multimillionnaire J'avais racheté la ville avec plusieurs yachts, j'fait du biff que dans l'hélicoptère J'me réveille aux Champs-Élysées dans un hôtel plus haut qu'la Tour Eiffel J'ai d'la beuh plus forte que d'la cocaïne, de ma géné', bah, c'est moi, l'plus riche J'ai toujours traîné qu'avec les plus grands, toujours traiter qu'avec les plus grands J'volais des bugs pour les revendre aux plus grands, dans les bagarres, j'me bat avec les plus grands Mes démons sont de sortie, quand le Soleil alterne avec la Luna Ma Rolex me dit Qu'on prendra d'la valeur à la longue Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Entrain d'recompter sur le parking, du côté de la Pagode Entrain d'recompter sur le parking boy, du côté de la Pagode Mille-deux par se', faut élastique et plus que le milli' Impliqué dans résine et les streams, j'ai l'réseau pour faire tourner le four comme une usine Encaissé, je le sais, on le faisait déjà depuis mini Si ça rappe, c'est pour doubler, rouler dans des gros gamos, j'me suis permis1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah Hey, le P, le L Dosseh, VIDALOA Hey, hey, hey, hey Voie d'gauche sur lA6-6-6, dernier Audi S6-6-6 Siège en cuir trempé, j'fais que d'la doigter, elle est assise-sise-sise Peut-être une fan de trop, oups, jespère qu'elle parle pas trop Elle a l'cul à Cardi B, la tête à Demi Lovato J'sais qu'elle kiffe mon portefeuille, j'lui réponds plus, elle prend le seum Dernier pull Kenzo, à part moi, personne peut m'porter l'il Nous parle dpièces et dollars, chez toi, tes qu'un donneur Jassume, moi, j'ai l'dos large, c'est quune question d'honneur Trois cents ch'vaux, Deutsche qualité, trois cents fous, tous calibrés Si tu fais l'con, on t'envoie jouer au foot avec Johnny Hallyday J'vais leur apprendre la vie comme Jamy, fais la pute, j'te rase la tête comme Jallet Polak fonce droit vers le platine donc maman fonce droit chez Chanel Dans ton salon comme Hitachi, en un showcase, je les rachète Tout l'monde aboie, personne agit, gros, la trahison, ça coûte pas cher, hey Assez rigolé, c'est l'heure de les déboîter, j'veux l'or et les diamants, propre ou illégalement FonscarFonsdé comme des dératés, renfermés, terre-à-terre, cinq immigrés dans un fer allemand Y a rien d'plus dangereux qu'un mec qui doute, rien d'plus casse-couilles qu'une meuf qui boude, eh, bellek Si tu t'loupes, l'ancien t'juge les jeunes, ils t'doublent, hey Y a des bulles dans l'champagne, fuck les putes comme Chantal Peu d'villas au bord d'la mer, par mois, j'veux rentrer plus d'cent balles You might also like Deux cents quarante, vitesse de croisière, le roi des loups sort de sa tanière Tu pues l'désespoir, tu pues la galère comme une escort en fin de carrière Sombre drapeau, sombre bannière, paire de baloches grosses comme ta mère Dans la sacoche, deux-trois salaires, du vert et du rouge sur la lanière Mauvais garçon lance mauvaises manières, j'traverse une période, ouais, plus que charnière Laud-sa ne se couche pas car laud-sa est fier, c'est en le forçant que le respect s'acquiert J'ai r'çu mon avance, faut qu'j'me tempère, j'investis dans stup' ou dans la pierre J'baise la baveuse, j'baise la banquière car la liberté et l'confort, ça coûte cher Traîne sur les toits comme chat de gouttière, on escroque condé d'mèche avec la croupière On s'rembourse dans vos poches de c'qu'on a souffert avant d'se faire fumer et d'finir poussière Ta mère la rombière, ouais, j'suis vulgaire, j'partirai d'une balle ou d'un ulcère Sur ça, y a zéro mystère, si t'as pas compris, j'réitère LOA Ola, hello, jeune Polak dans l'ghetto, nouveau contrat donc rajoute des zéros J'connais Charo qui peut soulever ta go même si elle fait dans les cent vingt kilos Dans la te-boî pour te traumatiser, Givenchy, c'est là-bas que j'm'habille Si j'baise ta sur, ça sera médiatisé, vous pourrez en parler au repas d'famille Chez nous, ça bosse comme à l'usine, hey, les p'tits s'sont mis à la tisane, boy Sortent les tards-pé comme au Brésil, hey, pour cinquante balles, tu vas lécher l'sol Polak au top level, ramène n'importe lequel Disque en or comme ma carte bleue, j'finis l'showcase donc apporte l'oseille J'regarde Paris d'puis ma terrasse, j'baisse la visière, j'monte sur l'T-Max J'le laisse sur béquille latérale, j'descends j'te démarre devant ta pétasse VIDALOA, hey, hey Quand j'rappe, tous les T-Max regardent vers le ciel, on dirait presque qu'ils prient J'viens d'Afrique comme les bling-bling du Pape et d'la Reine d'Angleterre ou cette mafia d'Vitry, hey J'ai seize mille euros à claquer, hein, j'hésite entre une Daytona or et l'RR 1000 gris foncé Mais j'sais pas faire d'cane-bé, j'aime pas lire l'heure avec les aiguilles donc j'me pet' un d'mi-litron d'C J'regarde sur ma gauche, j'regarde sur ma droite beaucoup de traîtres, ils ont le goître Putain d'fils d'putain d'pute , allez vous faire casser la boîte J'suis frais comme si j'tenais un four qui tourne à trente mille eurosjour Que l'pe-ra m'fasse une pipe au miel pendant qu'j'lui que-bra un flingue sur la joue en l'saisissant par ses rajouts J'marche pas, c'est l'sol qui me porte, hé, j'vais tellement tous les baiser qu'ils vont s'en rappeler comme si j'étais l'premier à les fuck Ma chérie, j'suis pas un che-ri, juste un pauvre avec des liasses dans les poches, hé Feu, le daron m'a dit Fuck être juste bon, sois sublime, Bissap, Thiéboudiène, arome agit J'suis plus que prêt pour l'charbon, la turbine, hey Des grands couturiers, j'suis un coutumier, les traîtres s'mettent un peu de produit sur le bout du nez Saumon fumé vert, fumée vitre, fumer gros, refrain auto-tuné dans une grosse auto tunée Négro, j'suis la rue avec de l'intellect', j'suis dans l'haut du building, j'pisse par le fenêtre Groupie, protège ta rondelle, t'es sur la sellette, 22, v'là les fes-keu, harbat, Selec On a commencé l'rap à trois, j'suis aux Pyramides, j'suis au bunker Et comme j'faisais des temps pleins, j'faisais mes seize en one shot et j'retournais bosser J'suis fonce-dé dans la villa D, dans l'autre pièce y'a Suge qui s'fait sucer Inspiration débordante, on m'a demandé de faire mon album en dix jours Et j't'explique tout a commencé une semaine avant la rentrée Allô Despi ? Il faut qu'on s'voit, dans pas longtemps, j'rentre au lycée Une bonbonne de shit bien compact, la beuh, elle pue, cellophane-la Et si, je sens qu'ça veut mêler, j't'appelle pour venir me chercher La boule au ventre quand j'sors de chez moi par peur d'croiser les condés Vu que j'ai un c-tru sur moi, pas peur de croiser l'autre quartier Ça, c'était avant, putain, avant, si tu savais, tout a changé J'suis à Total, j'suis dans l'Audi, j'mets l'plein et j'vais la laver, hé Comme c'est moi qui détaille, un gramme six pour les dix balles Deux-deux pour les vingt d'beuh, t'es mon pote et j'rajoute un peu De midi jusqu'à minuit, ients-cli, les keufs aussi Qu'est-ce tu dis ? Argent facile ? Y a Fleury, y a Bois-d'Arcy Et nique la police, vive la gue-dro et nique la police, vive la gue-dro Capuché, casquetté, écouteurs posé, je roulais mon joint dans le fond du bus Et nique la police, vive la gue-dro et nique la police, vive la gue-dro Et dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est l'abus Allô, il t'reste combien ? il m'reste un bloc un vingt Allô, il t'reste combien ? il m'reste un bloc un vingt Allô, il t'reste combien ? Il m'reste un bloc un vingt Allô, il t'reste combien ? Il m'reste un bloc un vingt1</t>
+          <t>Yeah yeah yeah Hey, le P, le L Dosseh, VIDALOA Hey, hey, hey, hey Voie d'gauche sur lA6-6-6, dernier Audi S6-6-6 Siège en cuir trempé, j'fais que d'la doigter, elle est assise-sise-sise Peut-être une fan de trop, oups, jespère qu'elle parle pas trop Elle a l'cul à Cardi B, la tête à Demi Lovato J'sais qu'elle kiffe mon portefeuille, j'lui réponds plus, elle prend le seum Dernier pull Kenzo, à part moi, personne peut m'porter l'il Nous parle dpièces et dollars, chez toi, tes qu'un donneur Jassume, moi, j'ai l'dos large, c'est quune question d'honneur Trois cents ch'vaux, Deutsche qualité, trois cents fous, tous calibrés Si tu fais l'con, on t'envoie jouer au foot avec Johnny Hallyday J'vais leur apprendre la vie comme Jamy, fais la pute, j'te rase la tête comme Jallet Polak fonce droit vers le platine donc maman fonce droit chez Chanel Dans ton salon comme Hitachi, en un showcase, je les rachète Tout l'monde aboie, personne agit, gros, la trahison, ça coûte pas cher, hey Assez rigolé, c'est l'heure de les déboîter, j'veux l'or et les diamants, propre ou illégalement FonscarFonsdé comme des dératés, renfermés, terre-à-terre, cinq immigrés dans un fer allemand Y a rien d'plus dangereux qu'un mec qui doute, rien d'plus casse-couilles qu'une meuf qui boude, eh, bellek Si tu t'loupes, l'ancien t'juge les jeunes, ils t'doublent, hey Y a des bulles dans l'champagne, fuck les putes comme Chantal Peu d'villas au bord d'la mer, par mois, j'veux rentrer plus d'cent balles Deux cents quarante, vitesse de croisière, le roi des loups sort de sa tanière Tu pues l'désespoir, tu pues la galère comme une escort en fin de carrière Sombre drapeau, sombre bannière, paire de baloches grosses comme ta mère Dans la sacoche, deux-trois salaires, du vert et du rouge sur la lanière Mauvais garçon lance mauvaises manières, j'traverse une période, ouais, plus que charnière Laud-sa ne se couche pas car laud-sa est fier, c'est en le forçant que le respect s'acquiert J'ai r'çu mon avance, faut qu'j'me tempère, j'investis dans stup' ou dans la pierre J'baise la baveuse, j'baise la banquière car la liberté et l'confort, ça coûte cher Traîne sur les toits comme chat de gouttière, on escroque condé d'mèche avec la croupière On s'rembourse dans vos poches de c'qu'on a souffert avant d'se faire fumer et d'finir poussière Ta mère la rombière, ouais, j'suis vulgaire, j'partirai d'une balle ou d'un ulcère Sur ça, y a zéro mystère, si t'as pas compris, j'réitère LOA Ola, hello, jeune Polak dans l'ghetto, nouveau contrat donc rajoute des zéros J'connais Charo qui peut soulever ta go même si elle fait dans les cent vingt kilos Dans la te-boî pour te traumatiser, Givenchy, c'est là-bas que j'm'habille Si j'baise ta sur, ça sera médiatisé, vous pourrez en parler au repas d'famille Chez nous, ça bosse comme à l'usine, hey, les p'tits s'sont mis à la tisane, boy Sortent les tards-pé comme au Brésil, hey, pour cinquante balles, tu vas lécher l'sol Polak au top level, ramène n'importe lequel Disque en or comme ma carte bleue, j'finis l'showcase donc apporte l'oseille J'regarde Paris d'puis ma terrasse, j'baisse la visière, j'monte sur l'T-Max J'le laisse sur béquille latérale, j'descends j'te démarre devant ta pétasse VIDALOA, hey, hey Quand j'rappe, tous les T-Max regardent vers le ciel, on dirait presque qu'ils prient J'viens d'Afrique comme les bling-bling du Pape et d'la Reine d'Angleterre ou cette mafia d'Vitry, hey J'ai seize mille euros à claquer, hein, j'hésite entre une Daytona or et l'RR 1000 gris foncé Mais j'sais pas faire d'cane-bé, j'aime pas lire l'heure avec les aiguilles donc j'me pet' un d'mi-litron d'C J'regarde sur ma gauche, j'regarde sur ma droite beaucoup de traîtres, ils ont le goître Putain d'fils d'putain d'pute , allez vous faire casser la boîte J'suis frais comme si j'tenais un four qui tourne à trente mille eurosjour Que l'pe-ra m'fasse une pipe au miel pendant qu'j'lui que-bra un flingue sur la joue en l'saisissant par ses rajouts J'marche pas, c'est l'sol qui me porte, hé, j'vais tellement tous les baiser qu'ils vont s'en rappeler comme si j'étais l'premier à les fuck Ma chérie, j'suis pas un che-ri, juste un pauvre avec des liasses dans les poches, hé Feu, le daron m'a dit Fuck être juste bon, sois sublime, Bissap, Thiéboudiène, arome agit J'suis plus que prêt pour l'charbon, la turbine, hey Des grands couturiers, j'suis un coutumier, les traîtres s'mettent un peu de produit sur le bout du nez Saumon fumé vert, fumée vitre, fumer gros, refrain auto-tuné dans une grosse auto tunée Négro, j'suis la rue avec de l'intellect', j'suis dans l'haut du building, j'pisse par le fenêtre Groupie, protège ta rondelle, t'es sur la sellette, 22, v'là les fes-keu, harbat, Selec On a commencé l'rap à trois, j'suis aux Pyramides, j'suis au bunker Et comme j'faisais des temps pleins, j'faisais mes seize en one shot et j'retournais bosser J'suis fonce-dé dans la villa D, dans l'autre pièce y'a Suge qui s'fait sucer Inspiration débordante, on m'a demandé de faire mon album en dix jours Et j't'explique tout a commencé une semaine avant la rentrée Allô Despi ? Il faut qu'on s'voit, dans pas longtemps, j'rentre au lycée Une bonbonne de shit bien compact, la beuh, elle pue, cellophane-la Et si, je sens qu'ça veut mêler, j't'appelle pour venir me chercher La boule au ventre quand j'sors de chez moi par peur d'croiser les condés Vu que j'ai un c-tru sur moi, pas peur de croiser l'autre quartier Ça, c'était avant, putain, avant, si tu savais, tout a changé J'suis à Total, j'suis dans l'Audi, j'mets l'plein et j'vais la laver, hé Comme c'est moi qui détaille, un gramme six pour les dix balles Deux-deux pour les vingt d'beuh, t'es mon pote et j'rajoute un peu De midi jusqu'à minuit, ients-cli, les keufs aussi Qu'est-ce tu dis ? Argent facile ? Y a Fleury, y a Bois-d'Arcy Et nique la police, vive la gue-dro et nique la police, vive la gue-dro Capuché, casquetté, écouteurs posé, je roulais mon joint dans le fond du bus Et nique la police, vive la gue-dro et nique la police, vive la gue-dro Et dès l'ouverture, y a les gyro', la putain d'sa mère, ils sont trop chauds, c'est l'abus Allô, il t'reste combien ? il m'reste un bloc un vingt Allô, il t'reste combien ? il m'reste un bloc un vingt Allô, il t'reste combien ? Il m'reste un bloc un vingt Allô, il t'reste combien ? Il m'reste un bloc un vingt1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Koll nhar kayen blan fuck, dima m3ettel skur Kayen un souci, j'suis dans l'appart Kantsenna l'appel, kantsenna floussi J'suis dans la caisse, chouf lweqt ki dayez F darna ma bqitch kangles, ma kayench plan B, hey Lil w nhar kanrappi, m3a morra khassna nsoviw F dherna kaydwiw, ch7al men wa7ed kankmi Kolla nhar, c'est pas la peine tdwi Kantsennak t'verser, ma kayench retard J'ai pas la tête, ouais Kbert west les plaquettes, tba3o kter m lbtata Comment t'appelles-tu ? J'te mets d'accord wakha ma 3arefnich ga3 f ach kandwi Yeah, yeah Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra Kandor f Bariz, kalash f idi, nseffi 7sabati, jay m favela Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la moula Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra La selha, la selha, kalash ila bdat la guerra La selha, la selha, kalash ila bdat la guerra You might also like J'suis dans l'bolide, quatre anneaux, quatre pétard J'fume d'la beuh d'Hollande et j'suis dans le sept ou j'suis dans la suite, j'ai sali toutes les serviettes Donne l'élastique, cinquante billets de 50 et cents de 20 Fini les garde à vues, j'suis sur l'Versace en velours J'ai pas choisi cette nouvelle vie Et j'reviens de 'kech et lendemain, showcase J'dépose, j'récupère, pas besoin d'revendre d'la S Plus d'cinquante-milles ventes accumulées, pas besoin de tricher J'suis plus dans l'binks, non, je suis au dépose minute ou à l'hôtel Beaucoup moins d'soucis mais plus d'envieux et c'est ça l'thème Ils disent que j'ai changé parce que j'fume avec eux Et que je récup' en patates Et souvent je me dis que peut-être que tout finira demain Est-ce que tu t'en rappelles ? À la base c'était ton pied, mon pied Maintenant même pas un regard, j'sais pas pourquoi Juste un deux roues, une arme à feux, une somme dérisoire, pour t'éteindre Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra La selha, la selha, kalash ila bdat la guerra La selha, la selha, kalash ila bdat la guerra4</t>
+          <t>Koll nhar kayen blan fuck, dima m3ettel skur Kayen un souci, j'suis dans l'appart Kantsenna l'appel, kantsenna floussi J'suis dans la caisse, chouf lweqt ki dayez F darna ma bqitch kangles, ma kayench plan B, hey Lil w nhar kanrappi, m3a morra khassna nsoviw F dherna kaydwiw, ch7al men wa7ed kankmi Kolla nhar, c'est pas la peine tdwi Kantsennak t'verser, ma kayench retard J'ai pas la tête, ouais Kbert west les plaquettes, tba3o kter m lbtata Comment t'appelles-tu ? J'te mets d'accord wakha ma 3arefnich ga3 f ach kandwi Yeah, yeah Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra Kandor f Bariz, kalash f idi, nseffi 7sabati, jay m favela Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la moula Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra La selha, la selha, kalash ila bdat la guerra La selha, la selha, kalash ila bdat la guerra J'suis dans l'bolide, quatre anneaux, quatre pétard J'fume d'la beuh d'Hollande et j'suis dans le sept ou j'suis dans la suite, j'ai sali toutes les serviettes Donne l'élastique, cinquante billets de 50 et cents de 20 Fini les garde à vues, j'suis sur l'Versace en velours J'ai pas choisi cette nouvelle vie Et j'reviens de 'kech et lendemain, showcase J'dépose, j'récupère, pas besoin d'revendre d'la S Plus d'cinquante-milles ventes accumulées, pas besoin de tricher J'suis plus dans l'binks, non, je suis au dépose minute ou à l'hôtel Beaucoup moins d'soucis mais plus d'envieux et c'est ça l'thème Ils disent que j'ai changé parce que j'fume avec eux Et que je récup' en patates Et souvent je me dis que peut-être que tout finira demain Est-ce que tu t'en rappelles ? À la base c'était ton pied, mon pied Maintenant même pas un regard, j'sais pas pourquoi Juste un deux roues, une arme à feux, une somme dérisoire, pour t'éteindre Mni kenna sghar m3a wlad derbi, 7lemna nbdaw nbibiw la selha J'suis dans le terrain, toujours prêt ila katqelleb 3a la guerra La selha, la selha, kalash ila bdat la guerra La selha, la selha, kalash ila bdat la guerra4</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Discographie - Gazo Mixtape - 20210226 Gazo - DRILL FR - 20220701 Gazo - KMT Single - 20120814 Bramsou - Freestyle Vidéo - 20151216 Bramsou - La monnaie m'appel - 20160829 Bramsou - Panda Freestyle Remix - 20160829 Bramsou - Freestyle - 20161202 Bramsou - Freestyle OKLMIMI - 20170512 Bramsou - À ma table - 20170816 Bramsou - M.G.B.Z - 20171215 Bramsou - Real Nigga - 20180802 Bramsou - Skeuleuh - 20180831 Bramsou - La repue - 20181109 Bramsou - Geushlard - 20190224 Bramsou - Bails sales - 20191010 Gazo - Drill FR 1 - 20191220 Gazo - Drill FR 2 - 20200221 Gazo - Drill FR 3 - 20200404 Gazo - Drill Time - 20200510 Gazo - Acte de Burberry - 20200617 Gazo - Drill FR 4 - 20200827 Gazo - Inceste - 20200927 Gazo - Freestyle WESH - 20201002 Gazo - DRILL FR 5 - 20201211 Gazo - TCHIN 2X - 20210114 Gazo - KASSAV - 20210219 Gazo - Booska Poignard - 20210225 Gazo - AAP - 20210324 Gazo - ON A - 20210429 Gazo - HAINESEX - 20210429 Gazo - INHUMAIN - 20210610 Gazo - Gazo sur Couvre Feu - 20211001 Gazo - Tmax - 20211008 Gazo - GROKUWA - 20211011 Gazo - Aluminium - 20211119 Gazo - MAUVAIS 2X - 20220511 Gazo - CELINE 3X - 20220530 Gazo - MOLLY - 20220628 Gazo - RAPPEL - 20221027 Gazo - HENNESSY You might also likeFeaturing - 20150308 Yayo - Maîtres du temps - 20171114 Z-17 - Connexion - 20190721 Suwoogang - Bomboclatt - 20191220 Pikos - Investit - 20200717 Jeff - LSD - 20200924 Dosseh - Place de l'Étoile - 20201008 Pa Salieu - Bang Out Kwes Darko Remix - 20201106 Ismo Z17 - Baby - 20201106 Gims - ORO JACKSON - 20201107 Django - LCQS - 20201218 Kaaris - Five O - 20201218 JuL - Dors on te piétin - 20210108 Mister V - Gas - 20210129 Dadinho - Sucré Dadi - 20210203 S.Pri Noir - AR Saison 999 - 20210205 Hamza - Spaghetti - 20210312 Kore - Mssage groupé - 20210318 ASHE 22 - X3 - 20210604 Tony Effe - Ke Lo Ke - 20210618 Koba LaD - Daddy chocolat - 20210618 Diaxal - Maracas - 20210621 Hache-P - Canon - 20210625 Frenetik - Armé et dangereux - 20210702 Unité - Kalitada - 20210716 HIMRA - Grrr pa - 20210723 Kalash - Tu le sais - 20210909 Joker MF - Fantastique - 20210910 Sam's - Validé II - 20211001 Cheu-B - Catch'Opps - 20211029 Leto - Big Meech - 20211105 Le Classico Organisé - Le classico organisé - 20211119 Tayc - B O N M A U V A I S - 20211126 Tiitof - M'en aller - 20211210 Kim - Love Lové - 20220128 Baby Gang - Shoot - 20220211 Timal - Filtré - 20220309 Rapi Sati - My Men - 20220310 Rsko - 100 Mi-Temps - 20220318 Kima - J'encaisse - 20220318 DA Uzi - On se reverra plus - 20220325 Franglish - Big Drip - 20220325 Russ Millions, SwitchOTR YV - One of a Kind Music Presents Reggae Calypso Remix - 20220401 Dadju - Picsou - 20220429 Kalash - Qwer - 20220519 Headie One - 22 Carats - 20220527 SEVEN 7oo - SPACCIATORE - 20220527 Tiakola - Mode AV - 20220603 Capo Plaza - Everyday Everynight - 20220617 Naps - Vamos - 20220930 Luciano - Moonlight - 20221104 Rondodasosa - KILLY DEMON - 20221125 Niska - R.A.S - 20221209 Ronisia - 200 KMH</t>
+          <t>Discographie - Gazo Mixtape - 20210226 Gazo - DRILL FR - 20220701 Gazo - KMT Single - 20120814 Bramsou - Freestyle Vidéo - 20151216 Bramsou - La monnaie m'appel - 20160829 Bramsou - Panda Freestyle Remix - 20160829 Bramsou - Freestyle - 20161202 Bramsou - Freestyle OKLMIMI - 20170512 Bramsou - À ma table - 20170816 Bramsou - M.G.B.Z - 20171215 Bramsou - Real Nigga - 20180802 Bramsou - Skeuleuh - 20180831 Bramsou - La repue - 20181109 Bramsou - Geushlard - 20190224 Bramsou - Bails sales - 20191010 Gazo - Drill FR 1 - 20191220 Gazo - Drill FR 2 - 20200221 Gazo - Drill FR 3 - 20200404 Gazo - Drill Time - 20200510 Gazo - Acte de Burberry - 20200617 Gazo - Drill FR 4 - 20200827 Gazo - Inceste - 20200927 Gazo - Freestyle WESH - 20201002 Gazo - DRILL FR 5 - 20201211 Gazo - TCHIN 2X - 20210114 Gazo - KASSAV - 20210219 Gazo - Booska Poignard - 20210225 Gazo - AAP - 20210324 Gazo - ON A - 20210429 Gazo - HAINESEX - 20210429 Gazo - INHUMAIN - 20210610 Gazo - Gazo sur Couvre Feu - 20211001 Gazo - Tmax - 20211008 Gazo - GROKUWA - 20211011 Gazo - Aluminium - 20211119 Gazo - MAUVAIS 2X - 20220511 Gazo - CELINE 3X - 20220530 Gazo - MOLLY - 20220628 Gazo - RAPPEL - 20221027 Gazo - HENNESSY Featuring - 20150308 Yayo - Maîtres du temps - 20171114 Z-17 - Connexion - 20190721 Suwoogang - Bomboclatt - 20191220 Pikos - Investit - 20200717 Jeff - LSD - 20200924 Dosseh - Place de l'Étoile - 20201008 Pa Salieu - Bang Out Kwes Darko Remix - 20201106 Ismo Z17 - Baby - 20201106 Gims - ORO JACKSON - 20201107 Django - LCQS - 20201218 Kaaris - Five O - 20201218 JuL - Dors on te piétin - 20210108 Mister V - Gas - 20210129 Dadinho - Sucré Dadi - 20210203 S.Pri Noir - AR Saison 999 - 20210205 Hamza - Spaghetti - 20210312 Kore - Mssage groupé - 20210318 ASHE 22 - X3 - 20210604 Tony Effe - Ke Lo Ke - 20210618 Koba LaD - Daddy chocolat - 20210618 Diaxal - Maracas - 20210621 Hache-P - Canon - 20210625 Frenetik - Armé et dangereux - 20210702 Unité - Kalitada - 20210716 HIMRA - Grrr pa - 20210723 Kalash - Tu le sais - 20210909 Joker MF - Fantastique - 20210910 Sam's - Validé II - 20211001 Cheu-B - Catch'Opps - 20211029 Leto - Big Meech - 20211105 Le Classico Organisé - Le classico organisé - 20211119 Tayc - B O N M A U V A I S - 20211126 Tiitof - M'en aller - 20211210 Kim - Love Lové - 20220128 Baby Gang - Shoot - 20220211 Timal - Filtré - 20220309 Rapi Sati - My Men - 20220310 Rsko - 100 Mi-Temps - 20220318 Kima - J'encaisse - 20220318 DA Uzi - On se reverra plus - 20220325 Franglish - Big Drip - 20220325 Russ Millions, SwitchOTR YV - One of a Kind Music Presents Reggae Calypso Remix - 20220401 Dadju - Picsou - 20220429 Kalash - Qwer - 20220519 Headie One - 22 Carats - 20220527 SEVEN 7oo - SPACCIATORE - 20220527 Tiakola - Mode AV - 20220603 Capo Plaza - Everyday Everynight - 20220617 Naps - Vamos - 20220930 Luciano - Moonlight - 20221104 Rondodasosa - KILLY DEMON - 20221125 Niska - R.A.S - 20221209 Ronisia - 200 KMH</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Et vu qu'j'ai commencé, c'est bon, je n'peux plus m'arrêter, revendre de la dope, coffré-coffré, réinvestir Faire des allers sur l'terrain et par mettre n'importe quel guetteur, l'obligé a v'nir à l'heure si il veut que j'le paye à l'heure D'la ppe-fra, deux virgule deux sur la pookie, on l'démarre, on l'démonte si tu pookie C'est moi qu'encaisse, les autres regardent, j'ai un échant', qu'est-ce t'en dis ? Tu prends ou pas ? L'illicite, ta vie, par l'même train de vie qu'auparavant, suis-moi si tu veux, rien n'est factice, non, tout est vrai Du pilon et d'la beuh, j'suis solo dans ma bulle, les vingt-deux, on les boule, ici, que des transac' en balle Plusieurs kilos, police va t'faire enculer, j'ai l'meilleur bédo, va pas les voir, ils vont t'quilla' Vu que je gère la mélo', la musique ramène des milliers J'ai mouillé l'maillot, j'ai trimé et maintenant j'ai des liasses de mille Aujourd'hui, j'ai un compte en banque, j'ai la dégaine toujours impec' Et vu qu'c'est moi qu'a la technique, le rap de c'est pute, c'est que d'me tacler Moi, j'suis serein qu'avec ma bande, vu qu'j'avance, les autres boudent Et belek, sois pas trop bête, plus tu manges des sous, plus t'auras d'nouveaux potes Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page You might also like J'ai commencé au gramme, maintenant, j'récup' des kilos, j'suis resté fidèle aux miens, j'ai pas bougé frère, t'inquiète Rabattue sans arrêt, j'ai postiché avant d'gérer et pour me faire respecter, j'ai dû rester dans les bagarres Tu peux essayer mais bon, t'es nul, ça sert a rien de forcer, t'auras niette Si t'écoute tous c'qu'il dise, pour toi, c'est mort, ils ont rien fait ses mythos Ses shlagues, j'te jure qu'ils mentent Des sous, des sapes, des meufs, j'fais même bosser la mi-f' La mi-f', la mi-f' Y a l'Seven, y a la Mafia, j't'éclate ta mère, m'en fous M'en fosu, m'en fous J'suis souvent sur le rrain-te, donc tous les jours, rien qu'ça rentre et si t'es pas des nôtres, sur la plaquette, j't'allume T'auras rien d'autre si j'nique des restes et à la fin, il en restera qu'un J'ai pas eu peur de prendre des risques, j'ai cassé la vitre, j'ai volé la montre J'ai rien gardé, j'ai tout revendue, plus vite tu vends, plus vite je suis payé Vois les keufs avant qu'ils t'vois, ça s'ra plus facile pour les esquiver J'gratte tout-par comme un rat, j'vais poser partout, part Du moment qu'ça tir-pa et qui paye son temps en tout et en heure Et si tu dois des dettes, surtout, si c'est le prix d'une dotes J'te parle pas de tête à tête, si tu v'-esqui les dates, c'est mort Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page</t>
+          <t>Et vu qu'j'ai commencé, c'est bon, je n'peux plus m'arrêter, revendre de la dope, coffré-coffré, réinvestir Faire des allers sur l'terrain et par mettre n'importe quel guetteur, l'obligé a v'nir à l'heure si il veut que j'le paye à l'heure D'la ppe-fra, deux virgule deux sur la pookie, on l'démarre, on l'démonte si tu pookie C'est moi qu'encaisse, les autres regardent, j'ai un échant', qu'est-ce t'en dis ? Tu prends ou pas ? L'illicite, ta vie, par l'même train de vie qu'auparavant, suis-moi si tu veux, rien n'est factice, non, tout est vrai Du pilon et d'la beuh, j'suis solo dans ma bulle, les vingt-deux, on les boule, ici, que des transac' en balle Plusieurs kilos, police va t'faire enculer, j'ai l'meilleur bédo, va pas les voir, ils vont t'quilla' Vu que je gère la mélo', la musique ramène des milliers J'ai mouillé l'maillot, j'ai trimé et maintenant j'ai des liasses de mille Aujourd'hui, j'ai un compte en banque, j'ai la dégaine toujours impec' Et vu qu'c'est moi qu'a la technique, le rap de c'est pute, c'est que d'me tacler Moi, j'suis serein qu'avec ma bande, vu qu'j'avance, les autres boudent Et belek, sois pas trop bête, plus tu manges des sous, plus t'auras d'nouveaux potes Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page J'ai commencé au gramme, maintenant, j'récup' des kilos, j'suis resté fidèle aux miens, j'ai pas bougé frère, t'inquiète Rabattue sans arrêt, j'ai postiché avant d'gérer et pour me faire respecter, j'ai dû rester dans les bagarres Tu peux essayer mais bon, t'es nul, ça sert a rien de forcer, t'auras niette Si t'écoute tous c'qu'il dise, pour toi, c'est mort, ils ont rien fait ses mythos Ses shlagues, j'te jure qu'ils mentent Des sous, des sapes, des meufs, j'fais même bosser la mi-f' La mi-f', la mi-f' Y a l'Seven, y a la Mafia, j't'éclate ta mère, m'en fous M'en fosu, m'en fous J'suis souvent sur le rrain-te, donc tous les jours, rien qu'ça rentre et si t'es pas des nôtres, sur la plaquette, j't'allume T'auras rien d'autre si j'nique des restes et à la fin, il en restera qu'un J'ai pas eu peur de prendre des risques, j'ai cassé la vitre, j'ai volé la montre J'ai rien gardé, j'ai tout revendue, plus vite tu vends, plus vite je suis payé Vois les keufs avant qu'ils t'vois, ça s'ra plus facile pour les esquiver J'gratte tout-par comme un rat, j'vais poser partout, part Du moment qu'ça tir-pa et qui paye son temps en tout et en heure Et si tu dois des dettes, surtout, si c'est le prix d'une dotes J'te parle pas de tête à tête, si tu v'-esqui les dates, c'est mort Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh Skrt Oh-oh-oh-oh Dany Synthé, que la SACEM, ouh! Bye, bye, bye, bye, bye, bye RS, j'suis sur l'trafic, han En RS, j'suis sur l'trafic, les deux-mille quatre, ils trafiquent, oh-oh En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'peux t'faire vivre un film d'horreur Horreur, comme un .44 ou un Sig Saueur Dans le Rovr, en 4x4, y a trop d'power, qui t'a dit qu'la plata faisait pas l'bonheur ? Plin d'commissions, ça bosse, j'suis comme Transporteur, j'ai tout mis dans l'coffre J'te commande, j'ai pas la force, c'est pas ces zemels qui remplissent ma poche Ouh, ouh Plavon, minimum 10K, j'te guette du coin d'l'il, Mona Lisa Ouh, j'prends des infos pour retourner chez toi Ciel étoilé dans tout l'habitacle Ah bon, tout c'qu'on raconte, c'est que du réel, j'les ai rodaves tous ces lokutas J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse You might also like En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'vais faire tourner l'biss' dans la tess mais les p'tits d'la tess ramènent les keufs à la tess Ces cons J'voulais jouer en Équipe de France mais regarde, j'suis en showcase partout dans la France Woh D'la beuh et du Jack pour la te-fê Pour la soirée, un papillon noir sur la sse-f' Eh-eh Elle est bonne, sa mère mais la baiser, c'est bof, .38 Spéc' pour les histoires de bouffons, putain d'merde Détér' comme un DZ, tu sais qu'j'suis un homme, si tu m'prends pas au sérieux, tu goûteras au chromé Ouh, ouh J'refais la déco', j'crame pas ma ganache, j'fais parler les bastos, j'finis tout en beauté Beauté Défoncé, dans la ville, j'fais des drifts Ouais, j'débranche mon p'tit pour des selfies J'ai tapé l'Polo, en plein Bériz, j'suis maudit, j'prie pour ma vie, j'me tue les poumons sous kheriz J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah Bye, bye, bye, bye, bye, bye, bye</t>
+          <t>Ouh, ouh, ouh Skrt Oh-oh-oh-oh Dany Synthé, que la SACEM, ouh! Bye, bye, bye, bye, bye, bye RS, j'suis sur l'trafic, han En RS, j'suis sur l'trafic, les deux-mille quatre, ils trafiquent, oh-oh En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'peux t'faire vivre un film d'horreur Horreur, comme un .44 ou un Sig Saueur Dans le Rovr, en 4x4, y a trop d'power, qui t'a dit qu'la plata faisait pas l'bonheur ? Plin d'commissions, ça bosse, j'suis comme Transporteur, j'ai tout mis dans l'coffre J'te commande, j'ai pas la force, c'est pas ces zemels qui remplissent ma poche Ouh, ouh Plavon, minimum 10K, j'te guette du coin d'l'il, Mona Lisa Ouh, j'prends des infos pour retourner chez toi Ciel étoilé dans tout l'habitacle Ah bon, tout c'qu'on raconte, c'est que du réel, j'les ai rodaves tous ces lokutas J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'vais faire tourner l'biss' dans la tess mais les p'tits d'la tess ramènent les keufs à la tess Ces cons J'voulais jouer en Équipe de France mais regarde, j'suis en showcase partout dans la France Woh D'la beuh et du Jack pour la te-fê Pour la soirée, un papillon noir sur la sse-f' Eh-eh Elle est bonne, sa mère mais la baiser, c'est bof, .38 Spéc' pour les histoires de bouffons, putain d'merde Détér' comme un DZ, tu sais qu'j'suis un homme, si tu m'prends pas au sérieux, tu goûteras au chromé Ouh, ouh J'refais la déco', j'crame pas ma ganache, j'fais parler les bastos, j'finis tout en beauté Beauté Défoncé, dans la ville, j'fais des drifts Ouais, j'débranche mon p'tit pour des selfies J'ai tapé l'Polo, en plein Bériz, j'suis maudit, j'prie pour ma vie, j'me tue les poumons sous kheriz J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah Bye, bye, bye, bye, bye, bye, bye</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>YassineBeats Tss, tss 3robi, ik race naar m'n doel, ik focus op tienen, ga stappen omhoog Très Balenciaga m'n schoen, ik ben op verdienen, wil kamers met dough Y-Y-Yassine B-B-Beats, pow Kan ook switchen van flow, ik kan ook switchen op iemand voor dough Mathafack Fissa mattie, ander land, chieba's geef ik platte hand Kankerchieba Ben op groen, vasteland, en ik heb geen vaste land Want je ziet me in Spain of Casablanca en we komen van pain Koppig mathafacker voor die koppen, al die fatomannen willen mij nu stoppen Ik bn niet te stoppen, mattie, wellou chauffeur Hah Zelfde patta, maar andere kleur, andere dag, andere geur Ander biljet, mattie, andere kleur, andere dag, andere deur We nemen over en je weet het gebeurt Let op je vrouw, want ik geef 'r een beurt Pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies You might also like En m'n stack, die gaat omhoog Hoog En je mannen, die gaan laag Laag En ik zie die vieze ogen, dus die fatoemannen die zeggen we, Dag Dag Zag honderdtachtig op de bank Op de bank Rij honderdtachtig op de weg Tss, tss Wellou permis, maar ik ga d'r vandoor Ik wil ook laag in die Aventador Op de sjans, in de avond kantoor Op de sjans, in de avond kantoor, pow Ik ben met goons en ze zijn ready Ja, rah Jonge Mocro's met die Kalash Kalash, tss Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Ah On n'a pas claqué des doigts, y a eu des déceptions Y a eu des perquis', des descentes, v'là les saisies Mais ça va, même si il fait moins dix, faut qu'ça vende Viens ici, j'vais t'montrer c'qu'on peut faire avec du savon Sur l'terrain, pour l'instant, je fais que d'coffrer, on verra Là, j'suis dans l'FeFe, gros bisous du vaurien En vrai, frère, laisse tomber la gentillesse, travaille ta force Crois-moi, frère, j'me suis fait khapta par mes potes d'enfance Koba du sept, boy, j'ai toujours pas bougé du bendo Sous rodave, j'ai roulé le plus gros bédo du pakat Ils prennent le seum quand ils m'voient pétardé en cas d'pétard À part une to-ph', mon p'tit gars, j'peux rien pour toi Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Gang, gang, gang Wa zebi, wa zebi, armé comme le KGB Par la maille, j'suis obsédé Ouais, d'la quali' dans l'OCB Elle m'croise, j'fais des rodéos Spow-pow-pow-pow Poursuivi par la Mondéo, ça hagar balance sous l'préau Elle croit que j'suis fou d'elle, mais poto, rien que j'la baise Les seules femmes qu'j'écoute c'est ma mère et celle du GPS Kilos, Zodiac, proche du , j'traverse la mif', fuck les douanes Sur son gros cul, j'fais du tam-tam, adresse du crime sur le TomTom On a faim, vaffanculo, t'as parlé, tu vas couler Cache-toi, va faire une colo', on va t'trouver et t'goumer Fuck brigades de stup', là puto, plus rien nous stoppe J'fous la merde et j'suis instable, ta grande gueule toi, viens on s'tape Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Spow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow, pow Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Ik sta paraat als een brother me belt Jij bent op bla, mattie, ik ben op geld En die honger geeft me power Pow, pow Jonge jongen, die wordt ouder SB, mathafack, pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow, pow YassineBeats Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Y-Y-Yassine B-B-Beats</t>
+          <t>YassineBeats Tss, tss 3robi, ik race naar m'n doel, ik focus op tienen, ga stappen omhoog Très Balenciaga m'n schoen, ik ben op verdienen, wil kamers met dough Y-Y-Yassine B-B-Beats, pow Kan ook switchen van flow, ik kan ook switchen op iemand voor dough Mathafack Fissa mattie, ander land, chieba's geef ik platte hand Kankerchieba Ben op groen, vasteland, en ik heb geen vaste land Want je ziet me in Spain of Casablanca en we komen van pain Koppig mathafacker voor die koppen, al die fatomannen willen mij nu stoppen Ik bn niet te stoppen, mattie, wellou chauffeur Hah Zelfde patta, maar andere kleur, andere dag, andere geur Ander biljet, mattie, andere kleur, andere dag, andere deur We nemen over en je weet het gebeurt Let op je vrouw, want ik geef 'r een beurt Pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies En m'n stack, die gaat omhoog Hoog En je mannen, die gaan laag Laag En ik zie die vieze ogen, dus die fatoemannen die zeggen we, Dag Dag Zag honderdtachtig op de bank Op de bank Rij honderdtachtig op de weg Tss, tss Wellou permis, maar ik ga d'r vandoor Ik wil ook laag in die Aventador Op de sjans, in de avond kantoor Op de sjans, in de avond kantoor, pow Ik ben met goons en ze zijn ready Ja, rah Jonge Mocro's met die Kalash Kalash, tss Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Ah On n'a pas claqué des doigts, y a eu des déceptions Y a eu des perquis', des descentes, v'là les saisies Mais ça va, même si il fait moins dix, faut qu'ça vende Viens ici, j'vais t'montrer c'qu'on peut faire avec du savon Sur l'terrain, pour l'instant, je fais que d'coffrer, on verra Là, j'suis dans l'FeFe, gros bisous du vaurien En vrai, frère, laisse tomber la gentillesse, travaille ta force Crois-moi, frère, j'me suis fait khapta par mes potes d'enfance Koba du sept, boy, j'ai toujours pas bougé du bendo Sous rodave, j'ai roulé le plus gros bédo du pakat Ils prennent le seum quand ils m'voient pétardé en cas d'pétard À part une to-ph', mon p'tit gars, j'peux rien pour toi Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Gang, gang, gang Wa zebi, wa zebi, armé comme le KGB Par la maille, j'suis obsédé Ouais, d'la quali' dans l'OCB Elle m'croise, j'fais des rodéos Spow-pow-pow-pow Poursuivi par la Mondéo, ça hagar balance sous l'préau Elle croit que j'suis fou d'elle, mais poto, rien que j'la baise Les seules femmes qu'j'écoute c'est ma mère et celle du GPS Kilos, Zodiac, proche du , j'traverse la mif', fuck les douanes Sur son gros cul, j'fais du tam-tam, adresse du crime sur le TomTom On a faim, vaffanculo, t'as parlé, tu vas couler Cache-toi, va faire une colo', on va t'trouver et t'goumer Fuck brigades de stup', là puto, plus rien nous stoppe J'fous la merde et j'suis instable, ta grande gueule toi, viens on s'tape Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Spow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow, pow Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Ik sta paraat als een brother me belt Jij bent op bla, mattie, ik ben op geld En die honger geeft me power Pow, pow Jonge jongen, die wordt ouder SB, mathafack, pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow, pow YassineBeats Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Y-Y-Yassine B-B-Beats</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Whey, whey, whey, whey Kodes La Barrière, Kodes La Barrière Riley Beatz, we do it better Chaud, chaud, eh-eh, ah-ah-ah-ah Whey Bébé, bienvenue dans le movie Whey Movie, whey Bébé, bienvenue dans le movie, whey Ah-ah, Kodes La Barrière, Kodes La Barrière, Kodes La Barrière, brr, okay On est grave impliqués, sa mère Tu sais, que pour des gros salaires Why J'viens d'commencer la boutille mais la baby a déjà les fesses à l'air Han-han Quand on vient, c'est pour salir Whey, la concu' crie Mince alors Ah-ah-ah, whey, whey Même ta daronne trouve ça lourd Okay Kodes La B, Papa Mélo' Kodes La B, Papa, whey, whey Deux pédales comme sur mon vélo Deux pédales comme sur mon, whey, whey La cagoule et puis, les gants Han-han, brr, la baby a donné l'go Sale pute J'suis dans le fond d'sa gorge et juste après, j'vais lui casser l'dos, bye, bye, bye, bye Un gros cul un lundi Paw, d'une pétasse qui prie tous les dimanches Rah Mes démons m'ont dit Prends-la en doggy Yeah Son pétard sur ma dick fait des pas d'danse Yeah, yeah En TN, en Jo'-Jo' Oh my God, tous les week-ends, j'encaisse comme un ministre Pah Le bruit de sa tte-cha crée des mélo', pendant les coups d'rein, elle crie Chocolat Daddy Ah-ah En conférence avec 2Pac et Biggie Ah, plus Sofar que Para Ah, plus Gucci que Fila Ah-ah J'peux faire la mala sur Paname, j'ai la vida Ah mais j'fais plus gonfler kichta que Prada Ouh J'préfère être du côté du calibre, pas celui qui visé, mon équipe a pas d'âme Eh S.A.N, Kodes La B-gué, les tipers se doigtent, y a le 7 dans les parages Okay You might also like Soyez prêts à courir, on arrive, sur les réseaux, préviens qu'on arrive À qui tu crois faire peur avec carabine ? J'ai les contacts, contacts pour sortir le Uzi Baby, bienvenue dans le movie, whey, eh Baby, bienvenue dans le movie, whey, whey J'sors du bloc avec un Uzi Paw, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'arrive avec ma cavalerie Whey, on t'attaque même dans les galeries Whey Que des négros super-méchants qui n'ont pas de peine, ni tiennent à la vie Whey, whey Armé avec bitchies Whey, on va faire une bêtise Whey Big vendetta sur ces putas, la sentence s'ra terrible, pétasse Ouais, la cité Cité, l'avocat porte la kipa Kipa Normal qu'on soit acquittés Eh-eh, trop collante, donc j'vais la quitter Eh-eh Ça bédave que de la djoba Fume, il s'lave pas avec le champi' Personne quand t'es bloqué en bas Pilao ou mataba Y a de la coka Oui, cannabis et du co'-co' T'as que la boca, j'suis ABP, j'mets le co'-co' J'fais pas parti de la concu' Oui, elle veut le faire, elle veut koké Salope La mentale dure comme une pookie, tu m'manques de respect, on te pookie Bicrave, tapage, vol, chien d'la casse, si j'ai pas, j'vole J'me mets pas en perte pour une folle, sous scellé, y a mon téléphone Qu'est-ce qu'elle est belle mais qu'est-ce qu'elle est conne J'voulais des thunes, j'ai quitté l'école J'ai mélangé les kichtas, du shit et d'la neige J'viens pas pour rigoler, j'viens pour récup' ma paie Y a qu'devant la daronne et le daron qu'j'me tais Fils de pute, quand y a ton intérêt, tu m'appelles J'vais leur baiser leurs mères, ils ont pillé mes terres Va sucer la bite à des propriétaires J'me suis fait courser, j'ai fait tomber mon teh Quinze minutes après, chargé sur l'R, j'suis OP J'sors du bloc avec un Uzi Whey, si y a heja, on les bousille Whey, whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey Il faut qu'j'mette fuite Il faut qu'j'mette fuite, sur le parking, j'ai vu la mu'-mu' Mu'-mu' J'm'en bats les couilles, j'suis connu Connu, pour des pesos, on peut t'mettre tout nu Tout nu Il faut qu'j'roule un p'tit, on va l'niquer s'il nous prend pour des p'tits S'il nous prend pour des p'tits Nouveau billet, j'investis, je sais pas, c'est comme ça ici, han Même à la sacoche, les p'tits, han, ils ont deux faces devant les filles, han Igo, on est tous à la tess et on s'éparpille à chaque fois qu'y a les flics, han Si tu veux pas d'histoire, igo, paye dans les temps, j'suis avec IDS sur l'deux temps Parler pour rien, c'est perte de temps, la pute, j'ai trop mougou, c'est bon, m'appelle, plus, j'ai plus l'temps RS3, gris Nardo, RS3 gris, Nardo, wow Bébé, j'ai mal au cur, bébé, j'ai mal au dos, wow J'ai l'fusil, j'suis pas gibier, j'suis d'vant, la balle au pied Devant, la balle au pied, rouler dans un bolide, j'ai l'fusil, j'suis pas gibier J'les calcule plus en c'moment, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants J'les calcule plus en c'moment Wow, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants Wow</t>
+          <t>Whey, whey, whey, whey Kodes La Barrière, Kodes La Barrière Riley Beatz, we do it better Chaud, chaud, eh-eh, ah-ah-ah-ah Whey Bébé, bienvenue dans le movie Whey Movie, whey Bébé, bienvenue dans le movie, whey Ah-ah, Kodes La Barrière, Kodes La Barrière, Kodes La Barrière, brr, okay On est grave impliqués, sa mère Tu sais, que pour des gros salaires Why J'viens d'commencer la boutille mais la baby a déjà les fesses à l'air Han-han Quand on vient, c'est pour salir Whey, la concu' crie Mince alors Ah-ah-ah, whey, whey Même ta daronne trouve ça lourd Okay Kodes La B, Papa Mélo' Kodes La B, Papa, whey, whey Deux pédales comme sur mon vélo Deux pédales comme sur mon, whey, whey La cagoule et puis, les gants Han-han, brr, la baby a donné l'go Sale pute J'suis dans le fond d'sa gorge et juste après, j'vais lui casser l'dos, bye, bye, bye, bye Un gros cul un lundi Paw, d'une pétasse qui prie tous les dimanches Rah Mes démons m'ont dit Prends-la en doggy Yeah Son pétard sur ma dick fait des pas d'danse Yeah, yeah En TN, en Jo'-Jo' Oh my God, tous les week-ends, j'encaisse comme un ministre Pah Le bruit de sa tte-cha crée des mélo', pendant les coups d'rein, elle crie Chocolat Daddy Ah-ah En conférence avec 2Pac et Biggie Ah, plus Sofar que Para Ah, plus Gucci que Fila Ah-ah J'peux faire la mala sur Paname, j'ai la vida Ah mais j'fais plus gonfler kichta que Prada Ouh J'préfère être du côté du calibre, pas celui qui visé, mon équipe a pas d'âme Eh S.A.N, Kodes La B-gué, les tipers se doigtent, y a le 7 dans les parages Okay Soyez prêts à courir, on arrive, sur les réseaux, préviens qu'on arrive À qui tu crois faire peur avec carabine ? J'ai les contacts, contacts pour sortir le Uzi Baby, bienvenue dans le movie, whey, eh Baby, bienvenue dans le movie, whey, whey J'sors du bloc avec un Uzi Paw, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'arrive avec ma cavalerie Whey, on t'attaque même dans les galeries Whey Que des négros super-méchants qui n'ont pas de peine, ni tiennent à la vie Whey, whey Armé avec bitchies Whey, on va faire une bêtise Whey Big vendetta sur ces putas, la sentence s'ra terrible, pétasse Ouais, la cité Cité, l'avocat porte la kipa Kipa Normal qu'on soit acquittés Eh-eh, trop collante, donc j'vais la quitter Eh-eh Ça bédave que de la djoba Fume, il s'lave pas avec le champi' Personne quand t'es bloqué en bas Pilao ou mataba Y a de la coka Oui, cannabis et du co'-co' T'as que la boca, j'suis ABP, j'mets le co'-co' J'fais pas parti de la concu' Oui, elle veut le faire, elle veut koké Salope La mentale dure comme une pookie, tu m'manques de respect, on te pookie Bicrave, tapage, vol, chien d'la casse, si j'ai pas, j'vole J'me mets pas en perte pour une folle, sous scellé, y a mon téléphone Qu'est-ce qu'elle est belle mais qu'est-ce qu'elle est conne J'voulais des thunes, j'ai quitté l'école J'ai mélangé les kichtas, du shit et d'la neige J'viens pas pour rigoler, j'viens pour récup' ma paie Y a qu'devant la daronne et le daron qu'j'me tais Fils de pute, quand y a ton intérêt, tu m'appelles J'vais leur baiser leurs mères, ils ont pillé mes terres Va sucer la bite à des propriétaires J'me suis fait courser, j'ai fait tomber mon teh Quinze minutes après, chargé sur l'R, j'suis OP J'sors du bloc avec un Uzi Whey, si y a heja, on les bousille Whey, whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey Il faut qu'j'mette fuite Il faut qu'j'mette fuite, sur le parking, j'ai vu la mu'-mu' Mu'-mu' J'm'en bats les couilles, j'suis connu Connu, pour des pesos, on peut t'mettre tout nu Tout nu Il faut qu'j'roule un p'tit, on va l'niquer s'il nous prend pour des p'tits S'il nous prend pour des p'tits Nouveau billet, j'investis, je sais pas, c'est comme ça ici, han Même à la sacoche, les p'tits, han, ils ont deux faces devant les filles, han Igo, on est tous à la tess et on s'éparpille à chaque fois qu'y a les flics, han Si tu veux pas d'histoire, igo, paye dans les temps, j'suis avec IDS sur l'deux temps Parler pour rien, c'est perte de temps, la pute, j'ai trop mougou, c'est bon, m'appelle, plus, j'ai plus l'temps RS3, gris Nardo, RS3 gris, Nardo, wow Bébé, j'ai mal au cur, bébé, j'ai mal au dos, wow J'ai l'fusil, j'suis pas gibier, j'suis d'vant, la balle au pied Devant, la balle au pied, rouler dans un bolide, j'ai l'fusil, j'suis pas gibier J'les calcule plus en c'moment, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants J'les calcule plus en c'moment Wow, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants Wow</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>C'est Marwa Loud Eh-eh-eh-eh-eh-eh Koba LaD, ehh Koba LaD, D, D, D, D, D, D, D Ouais On s'accroche, on s'décroche même si j'tiens à toi J'peux te perdre par fierté, bébé Viens pas bomber le torse, l'Opinel la roue là va dégonfler Aujourd'hui j'suis dans l'AMG, et j'suis toujours en retard bébé Ouais c'est tout pour les miens Mais si je t'entretiens, tes galères ça devient les miens Même si y'a d'la confiance, c'est dur pour moi de te prendre au mot Si on installe une routine, au fil du temps bah j't'aimerais moins Fructifie l'argent caché, je joue et j'suis type ghetto Elle kiffe le bois d'argent et les sièges baquets du RS, bye bye bye J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi You might also like C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron J'sais que tu veux du temps mais bébé j'aime trop le zoo J'suis trop fou, j'crois il faut la camisou Toi tu veux un bisou, moi j'préfère mes bijoux J'vais pas te faire prendre la confiance, demain j'sais pas j'suis où J'les connais toutes, elles kiffent les soirées sur Bariz Tu payes deux trois verres, tu repars avec elle dans la valise Si on fait des sous c'est pas pour toi, c'est pour la miff, eh eh Deux trois mots doux et elle finit comme la tour de Pise, eh eh J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron</t>
+          <t>C'est Marwa Loud Eh-eh-eh-eh-eh-eh Koba LaD, ehh Koba LaD, D, D, D, D, D, D, D Ouais On s'accroche, on s'décroche même si j'tiens à toi J'peux te perdre par fierté, bébé Viens pas bomber le torse, l'Opinel la roue là va dégonfler Aujourd'hui j'suis dans l'AMG, et j'suis toujours en retard bébé Ouais c'est tout pour les miens Mais si je t'entretiens, tes galères ça devient les miens Même si y'a d'la confiance, c'est dur pour moi de te prendre au mot Si on installe une routine, au fil du temps bah j't'aimerais moins Fructifie l'argent caché, je joue et j'suis type ghetto Elle kiffe le bois d'argent et les sièges baquets du RS, bye bye bye J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron J'sais que tu veux du temps mais bébé j'aime trop le zoo J'suis trop fou, j'crois il faut la camisou Toi tu veux un bisou, moi j'préfère mes bijoux J'vais pas te faire prendre la confiance, demain j'sais pas j'suis où J'les connais toutes, elles kiffent les soirées sur Bariz Tu payes deux trois verres, tu repars avec elle dans la valise Si on fait des sous c'est pas pour toi, c'est pour la miff, eh eh Deux trois mots doux et elle finit comme la tour de Pise, eh eh J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Grr, paw Paw M.I.G moula, j'en suis sûr que tu connais Grr, paw Aye, aye aye, aye, aye, aye, aye, aye Grr Gros, là, j'suis fonce-dé dans Rotter', guette, au rond-point, ils font d'm'i-tour J'me perds, des fois, quand j'sépare les sous du te-shi, d'la be-her On supprimes les traces et les témoins, de base, j'lai fais pour m'arrêter Mais j'suis trop d'dans et ça m'permet d'coffrer les sous d'la musique J'ai fumé trente joints, j'suis trop pété Que d'la moula, que du filtré Et le rap, j'lui baise, sa mère la pute Avec tout c'qui va avec Gros, depuis, j'ai pris des tales, j'ai pris du kill' Y a eu des pertes mais c'est tranquille, c'est tranquille On fait du biff', on fait du biff' Même si j'suis trop quillé, on y va Woh, binks Sous Jacky, j'ai changer de niveau Woh, binks J'ai sortie le dernier RR du garage Woh, binks J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr You might also like 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures Même si j'suis trop quillé, on y va, on y va, on oublie pas les moments d'avants Rrah Même si j'suis trop quillé, on y va, on y va, sur eux, j'crois, j'ai un temps d'avance Toujours dans la Calle Toujours dans la Calle, rrah J'côtoie que des couilles J'côtoie que des couilles, grr, paw J'ai plus l'temps d'm'embrouiller, dans l'local, y a l'fusil à pompe et des douilles Ceux qui voulaient jouer les bandits, ils vont courir Plusieurs fois menotté dans l'Passat Rrah, identifié comme potentiel danger Grr Plusieurs fois, j'ai dormis chez les condés, j'pourrai jamais m'rappeler d'combien J'ai recompter, j'ai enfilé ma cagoule et j'me suis ganté Ta mère t'avais prévenu de pas nous fréquenter Bang, bang À midi, j'suis placer, nique sa mère le Passat Nique sa mère le passé, nique sa mère le passé Même si j'suis trop quillé, on y va Woh Sous Jacky, j'ai changer de niveau Woh J'ai sortie le dernier RR du garage Woh J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures1</t>
+          <t>Grr, paw Paw M.I.G moula, j'en suis sûr que tu connais Grr, paw Aye, aye aye, aye, aye, aye, aye, aye Grr Gros, là, j'suis fonce-dé dans Rotter', guette, au rond-point, ils font d'm'i-tour J'me perds, des fois, quand j'sépare les sous du te-shi, d'la be-her On supprimes les traces et les témoins, de base, j'lai fais pour m'arrêter Mais j'suis trop d'dans et ça m'permet d'coffrer les sous d'la musique J'ai fumé trente joints, j'suis trop pété Que d'la moula, que du filtré Et le rap, j'lui baise, sa mère la pute Avec tout c'qui va avec Gros, depuis, j'ai pris des tales, j'ai pris du kill' Y a eu des pertes mais c'est tranquille, c'est tranquille On fait du biff', on fait du biff' Même si j'suis trop quillé, on y va Woh, binks Sous Jacky, j'ai changer de niveau Woh, binks J'ai sortie le dernier RR du garage Woh, binks J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures Même si j'suis trop quillé, on y va, on y va, on oublie pas les moments d'avants Rrah Même si j'suis trop quillé, on y va, on y va, sur eux, j'crois, j'ai un temps d'avance Toujours dans la Calle Toujours dans la Calle, rrah J'côtoie que des couilles J'côtoie que des couilles, grr, paw J'ai plus l'temps d'm'embrouiller, dans l'local, y a l'fusil à pompe et des douilles Ceux qui voulaient jouer les bandits, ils vont courir Plusieurs fois menotté dans l'Passat Rrah, identifié comme potentiel danger Grr Plusieurs fois, j'ai dormis chez les condés, j'pourrai jamais m'rappeler d'combien J'ai recompter, j'ai enfilé ma cagoule et j'me suis ganté Ta mère t'avais prévenu de pas nous fréquenter Bang, bang À midi, j'suis placer, nique sa mère le Passat Nique sa mère le passé, nique sa mère le passé Même si j'suis trop quillé, on y va Woh Sous Jacky, j'ai changer de niveau Woh J'ai sortie le dernier RR du garage Woh J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yvens Beats Des liasses sont tassées, oublie pas l'passé, nous, on aime pas ça Nous, on aime pas ça, non Y a Suge et Kaza, FA2 et l'Prince, putain, j'ai trop mal Putain, j'ai trop mal, non J'suis à la casa, baiser des gros culs, là, j'vais me caser L'histoire est trop sale, l'histoire est trop sale, l'histoire est trop sale J'suis comme un robot, j'suis à Auber', au point B Le dernier gars d'tess, miskine, il s'est fait plomber J'ai laissé l'sche-Por dans l'mur mais bon, c'est pas grave J'ai racheté un M3, les airs pour ses clochards Normalement, j'suis dans l'onz de France mais nique sa mèr, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde, ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise You might also like J'le revends, j'achète un autre, j'sais même plus il coûte combien Ça c'joue à quelques millimètres, recommence pas, c'est pour ton bien J'sais plus y a combien sur la montre, j'sais plus y a combien sur ma Rollie Et tout ceux qui veulent m'la mettre, venez, vas-y, venez Liasses de dirham, euros, dollars, trop d'liasses, dans la sacoche J'mets d'la velours, j'prends d'la valeurs, j'veux m'écarter mais que tu t'accroches J'peux t'rebaisé mais j'ai pris mieux, bah, quand tu m'appelles, moi, je raccroches Si t'es avec moi, ma poches c'est t'as poches Normalement, j'suis dans l'onze de France mais nique sa mère, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? Zehma, c'est la rue, toi, tu baise</t>
+          <t>Yvens Beats Des liasses sont tassées, oublie pas l'passé, nous, on aime pas ça Nous, on aime pas ça, non Y a Suge et Kaza, FA2 et l'Prince, putain, j'ai trop mal Putain, j'ai trop mal, non J'suis à la casa, baiser des gros culs, là, j'vais me caser L'histoire est trop sale, l'histoire est trop sale, l'histoire est trop sale J'suis comme un robot, j'suis à Auber', au point B Le dernier gars d'tess, miskine, il s'est fait plomber J'ai laissé l'sche-Por dans l'mur mais bon, c'est pas grave J'ai racheté un M3, les airs pour ses clochards Normalement, j'suis dans l'onz de France mais nique sa mèr, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde, ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise J'le revends, j'achète un autre, j'sais même plus il coûte combien Ça c'joue à quelques millimètres, recommence pas, c'est pour ton bien J'sais plus y a combien sur la montre, j'sais plus y a combien sur ma Rollie Et tout ceux qui veulent m'la mettre, venez, vas-y, venez Liasses de dirham, euros, dollars, trop d'liasses, dans la sacoche J'mets d'la velours, j'prends d'la valeurs, j'veux m'écarter mais que tu t'accroches J'peux t'rebaisé mais j'ai pris mieux, bah, quand tu m'appelles, moi, je raccroches Si t'es avec moi, ma poches c'est t'as poches Normalement, j'suis dans l'onze de France mais nique sa mère, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? Zehma, c'est la rue, toi, tu baise</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Smoke the track Track, track Han, han Han Moi, j'me la pète pas, tu sais Pète pas, tu sais C'est Koba du 7 dans la crypto', les NFT Les NFT Qu'est-ce que c'est bon la vida mais j'suis trop victime d'mon succès Trop sur le T Dans les soucis, pour nous, impossible de sucer J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la You might also like Hey, m'appelle pas amigo si t'es prêt à m'trahir pour Tchikita Pour Tchikita J'aime trop la ne-zo, ça s'ra difficile d'être fan de toi Tu lahsa ou tu dégages, ce soir, j'ai la flemme qu'on se catchana Qu'on se catchana Pas besoin d'éteindre la lumière, ton gros boule, j'le vois même dans l'noir Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la</t>
+          <t>Smoke the track Track, track Han, han Han Moi, j'me la pète pas, tu sais Pète pas, tu sais C'est Koba du 7 dans la crypto', les NFT Les NFT Qu'est-ce que c'est bon la vida mais j'suis trop victime d'mon succès Trop sur le T Dans les soucis, pour nous, impossible de sucer J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Hey, m'appelle pas amigo si t'es prêt à m'trahir pour Tchikita Pour Tchikita J'aime trop la ne-zo, ça s'ra difficile d'être fan de toi Tu lahsa ou tu dégages, ce soir, j'ai la flemme qu'on se catchana Qu'on se catchana Pas besoin d'éteindre la lumière, ton gros boule, j'le vois même dans l'noir Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais You might also like À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
+          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>So le Flem Ah-ah Shiruken Music J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Ah-ah, ah-ah Après minuit, c'est les heures de pointes Les heures de pointes, ça va sortir les armes de poing On bougeait, on connaissait pas les dangers, aujourd'hui, c'est n'importe quoi J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Car c'est l'un des suls qui m'aura fait manger Bât' mais bon, c'est une prte de temps, j'ai ma paire de gants Big fumée nocive Nocive, aqua, dernier engin Han Nous, on croque la vie La vie, viens-voir la putain d'jungle Han Et la musique J'vais pas t'mentir, c'était pas l'plan A Nan La street est sûre de moi, j'suis précis comme sniper sur le toit J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux, on lance une guerre, cousin, c'est au cardio' qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles You might also like Les histoires de schnecks, ça fait mal à la tête La tête, ça fait mal à la tête Toujours la même chose à la fin d'la quête, toujours la même boule au ventre avant tête à tête Tu peux continuer à jurer sur l'Coran d'la Mecque L'Coran d'la Mecque, sur le Coran d'la Mecque On procède autrement si y a des contraintes, on procède autrement si y a des contraintes Auto' toute la saison, kichta à la maison, le procureur, il peut niquer sa mère 10K cellophané, 20K cellophané, dans ma sacoche, tout est trop bien rangé Ici, ça pue la merde, moi aussi, j'veux la vue sur la mer Vue sur la mer Et pour ramasser plus, j'ai inversé l'soleil et la lune J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux on lance une guerre, cousin, c'est au cardio qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Ah-ah, ah-ah</t>
+          <t>So le Flem Ah-ah Shiruken Music J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Ah-ah, ah-ah Après minuit, c'est les heures de pointes Les heures de pointes, ça va sortir les armes de poing On bougeait, on connaissait pas les dangers, aujourd'hui, c'est n'importe quoi J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Car c'est l'un des suls qui m'aura fait manger Bât' mais bon, c'est une prte de temps, j'ai ma paire de gants Big fumée nocive Nocive, aqua, dernier engin Han Nous, on croque la vie La vie, viens-voir la putain d'jungle Han Et la musique J'vais pas t'mentir, c'était pas l'plan A Nan La street est sûre de moi, j'suis précis comme sniper sur le toit J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux, on lance une guerre, cousin, c'est au cardio' qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Les histoires de schnecks, ça fait mal à la tête La tête, ça fait mal à la tête Toujours la même chose à la fin d'la quête, toujours la même boule au ventre avant tête à tête Tu peux continuer à jurer sur l'Coran d'la Mecque L'Coran d'la Mecque, sur le Coran d'la Mecque On procède autrement si y a des contraintes, on procède autrement si y a des contraintes Auto' toute la saison, kichta à la maison, le procureur, il peut niquer sa mère 10K cellophané, 20K cellophané, dans ma sacoche, tout est trop bien rangé Ici, ça pue la merde, moi aussi, j'veux la vue sur la mer Vue sur la mer Et pour ramasser plus, j'ai inversé l'soleil et la lune J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux on lance une guerre, cousin, c'est au cardio qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Ah-ah, ah-ah</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Black Stone Ouh Heureusement qu'j'ai des couilles parce que j'crois qu'dans c'bât', on est maudits Mais j'dois rester fort, y a d'quoi être fier Suge il m'a dit Dis-leur qu'tout va bien, montre pas ta tristesse, ils profiteront Mais de toute façon, le premier qui t'teste, bah, il est mort Eux, c'est des clochards qui portent l'il, j'fais des sous, j'suis béni regarde Sept VHR et c'est quinze balles la demi-heure J'suis avec Dixon, avec sur le parking d'la tour ouais, ouais J'suis dans la S3, posé pas loin du four ouais, ouais Et là tout d'suite, à l'heure où j'te parle, j'pense à Kaza et Suge mes frères Pas d'camel, sandwichs de kefta, dessert tiramisu Paire de Cartier, C.P, Company, plaque dans la cellule IPhone 10, grosse plaquette de cons', en place dans Bois d'Arcy Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks You might also like À l'époque où j'partais en cours, j'avais pas de cahier, pas de stylo j'avais rien Paire de TN, paire de shocks, t'as capté, c'est comme ça qu'j'suis stylé té-ma l'flow Toujours j'suis posé à la Pagode, si tu m'cherches, tu sais où mtrouver allez, viens, viens, viens, viens, viens J'ai bicrave par nécessité, allez, casse toi, moi, j'ai rien à t'prouver enculé Ça fait longtemps qu'j'ai plus peur des coups, va dans la déco', là, y a trop de cas ah ouais ? Ces fils de pute veulent en découdre, il a indiqué, les frères ont dit quoi Les coups d'mes frères m'ont endurci ah ouais ? On a souvent eu des problèmes, on a fini avec des sursis Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Dedans, on s'est mis sans savoir qu'un jour, on allait finir par être connus Des pétasses qui jouissent en bougeant nos locks, c'est plus facile d'enlever leurs tenues Regarde-nous aujourd'hui, toujours les mêmes mais avec trois fois plus de soucis Trois fois plus d'oseille aussi, c'est en TN qu'on va chercher Louis Je sais sur qui compter si y a 'brouille-em c'est pas tout l'monde qui assume jusqu'au bout J'connais des mecs au début bouillants, mais le pétard les mettra à genoux Des carrières devant les meufs mais ici, on les connait pas connait pas Seules les putes qui parlent aux putes, pour cela qu'on est plus potes À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks</t>
+          <t>Black Stone Ouh Heureusement qu'j'ai des couilles parce que j'crois qu'dans c'bât', on est maudits Mais j'dois rester fort, y a d'quoi être fier Suge il m'a dit Dis-leur qu'tout va bien, montre pas ta tristesse, ils profiteront Mais de toute façon, le premier qui t'teste, bah, il est mort Eux, c'est des clochards qui portent l'il, j'fais des sous, j'suis béni regarde Sept VHR et c'est quinze balles la demi-heure J'suis avec Dixon, avec sur le parking d'la tour ouais, ouais J'suis dans la S3, posé pas loin du four ouais, ouais Et là tout d'suite, à l'heure où j'te parle, j'pense à Kaza et Suge mes frères Pas d'camel, sandwichs de kefta, dessert tiramisu Paire de Cartier, C.P, Company, plaque dans la cellule IPhone 10, grosse plaquette de cons', en place dans Bois d'Arcy Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks À l'époque où j'partais en cours, j'avais pas de cahier, pas de stylo j'avais rien Paire de TN, paire de shocks, t'as capté, c'est comme ça qu'j'suis stylé té-ma l'flow Toujours j'suis posé à la Pagode, si tu m'cherches, tu sais où mtrouver allez, viens, viens, viens, viens, viens J'ai bicrave par nécessité, allez, casse toi, moi, j'ai rien à t'prouver enculé Ça fait longtemps qu'j'ai plus peur des coups, va dans la déco', là, y a trop de cas ah ouais ? Ces fils de pute veulent en découdre, il a indiqué, les frères ont dit quoi Les coups d'mes frères m'ont endurci ah ouais ? On a souvent eu des problèmes, on a fini avec des sursis Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Dedans, on s'est mis sans savoir qu'un jour, on allait finir par être connus Des pétasses qui jouissent en bougeant nos locks, c'est plus facile d'enlever leurs tenues Regarde-nous aujourd'hui, toujours les mêmes mais avec trois fois plus de soucis Trois fois plus d'oseille aussi, c'est en TN qu'on va chercher Louis Je sais sur qui compter si y a 'brouille-em c'est pas tout l'monde qui assume jusqu'au bout J'connais des mecs au début bouillants, mais le pétard les mettra à genoux Des carrières devant les meufs mais ici, on les connait pas connait pas Seules les putes qui parlent aux putes, pour cela qu'on est plus potes À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Noxious il pour il, dent pour dent, j'rentre ta reum dans l'histoire Tac-tac, boum-boum d'vant ta porte si tu dois D'la gue-dro, des mes-ar, d'la peur derrière les stores Derrière les stores, ils ont peur et on l'voit J'reste là même si ça tire, j'reste là même si ça tire Bi-turbo, gros moteur, gros moteur rempli d'bandits Trente piges dans la RS6, trop d'années dans l'RS6 Pour Kadaf, pour ses caisses, pour trop d'trucs, j'peux pas tout dire Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom You might also like Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Ils rêvent que j'bé-tom, chaque jour sur l'béton J'passe à la maison, coffré les cadeaux aujourd'hui Et aujourd'hui, Gucci, Fendi Vie de bandit, frères en condi' Te-ma les bails, te-ma les bails, on n'a plus aucun ennemi Te-ma les bails, te-ma les bails, cagoulé sur l'deux et demi Te-ma les bails, te-ma les bails, j'suis dans l'bât' en pleine nuit Te-ma les bails, te-ma les bails, l'argent, la drogue, ils ont tout saisi Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom</t>
+          <t>Noxious il pour il, dent pour dent, j'rentre ta reum dans l'histoire Tac-tac, boum-boum d'vant ta porte si tu dois D'la gue-dro, des mes-ar, d'la peur derrière les stores Derrière les stores, ils ont peur et on l'voit J'reste là même si ça tire, j'reste là même si ça tire Bi-turbo, gros moteur, gros moteur rempli d'bandits Trente piges dans la RS6, trop d'années dans l'RS6 Pour Kadaf, pour ses caisses, pour trop d'trucs, j'peux pas tout dire Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Ils rêvent que j'bé-tom, chaque jour sur l'béton J'passe à la maison, coffré les cadeaux aujourd'hui Et aujourd'hui, Gucci, Fendi Vie de bandit, frères en condi' Te-ma les bails, te-ma les bails, on n'a plus aucun ennemi Te-ma les bails, te-ma les bails, cagoulé sur l'deux et demi Te-ma les bails, te-ma les bails, j'suis dans l'bât' en pleine nuit Te-ma les bails, te-ma les bails, l'argent, la drogue, ils ont tout saisi Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu You might also like Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
+          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>D'la beuh, du te-sh', ouin ouin D'la beuh, du te-sh', ouin Y a d'l'amnésia, de la beldia Y a d'l'amnésia pour ceux qui s'la jouent rasta Y a d'l'amnésia, de la beldia De la beldia pour ceux qui aiment le shit gras Un vicieux, un p'tit enculé hey et ça d'puis l'époque d'la PlayStation portable hey Capuché, un jogging troué, en bas d'la gare à l'affût sur les portables Casier plein, compliqué quand j'voyage, y a trafic de stup', jugé pour port d'armes trente-cinq J'signe des autographes à la douane, j'ai rien calé, ils m'contrôlent pas Dans l'berceau, l'argent m'a bercé, j'rêvais pas d'Bercy, j'voulais pas percer Plus Jr, un peu comme Disney, moi, j'ai dealé avant d'baiser ouais J'voulais la même paire de Nike que Deuspi, la même voiture qu'il y a dans K-2000 la même voiture qu'il y a dans K-2000 Ils allaient au foot en salle, moi, j'cherchais des ients-cli Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rentre tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe, c'est Audi Audi Et minimum V8, minimum vingt, 2018 You might also like Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin Mon joint fait la taille de la pipe à ton papi, j'ai enlevé l'collant, j'ai laissé que le papier Que d'la-d'la beuh jusqu'au filtre, j'tiens pas vingt secondes si j'ai pas mon briquet Regarde-le où j'en suis, j'peux même plus douter, même si le quart d'entre eux pense qu'à porter l'il Si on vient dans ta boite C'est pas pour dépenser, c'est pour récupérer une kitchta grosse J'suis dans la kitchen, j'ai mal à l'épaule, une heure, un kilo ça pue la gue-dro Le 'rrain-'rrain de beugeuh, commence à te-comp, les anciens viennent per-cho le terrain de beugeuh Y a que de la bogonne et pour les cinquante, des plantes et des grinders que pour les cinquante La plupart du temps, quand elle est bien sec, mais des fois elle est humide elle est sec Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rend tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin</t>
+          <t>D'la beuh, du te-sh', ouin ouin D'la beuh, du te-sh', ouin Y a d'l'amnésia, de la beldia Y a d'l'amnésia pour ceux qui s'la jouent rasta Y a d'l'amnésia, de la beldia De la beldia pour ceux qui aiment le shit gras Un vicieux, un p'tit enculé hey et ça d'puis l'époque d'la PlayStation portable hey Capuché, un jogging troué, en bas d'la gare à l'affût sur les portables Casier plein, compliqué quand j'voyage, y a trafic de stup', jugé pour port d'armes trente-cinq J'signe des autographes à la douane, j'ai rien calé, ils m'contrôlent pas Dans l'berceau, l'argent m'a bercé, j'rêvais pas d'Bercy, j'voulais pas percer Plus Jr, un peu comme Disney, moi, j'ai dealé avant d'baiser ouais J'voulais la même paire de Nike que Deuspi, la même voiture qu'il y a dans K-2000 la même voiture qu'il y a dans K-2000 Ils allaient au foot en salle, moi, j'cherchais des ients-cli Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rentre tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe, c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin Mon joint fait la taille de la pipe à ton papi, j'ai enlevé l'collant, j'ai laissé que le papier Que d'la-d'la beuh jusqu'au filtre, j'tiens pas vingt secondes si j'ai pas mon briquet Regarde-le où j'en suis, j'peux même plus douter, même si le quart d'entre eux pense qu'à porter l'il Si on vient dans ta boite C'est pas pour dépenser, c'est pour récupérer une kitchta grosse J'suis dans la kitchen, j'ai mal à l'épaule, une heure, un kilo ça pue la gue-dro Le 'rrain-'rrain de beugeuh, commence à te-comp, les anciens viennent per-cho le terrain de beugeuh Y a que de la bogonne et pour les cinquante, des plantes et des grinders que pour les cinquante La plupart du temps, quand elle est bien sec, mais des fois elle est humide elle est sec Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rend tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Hier j'étais trop daga jai bédave trop de beugeuh J'ai oublié des caleçon dans les affaires d'ma pute Un bon coup 10 bagale et tout le monde est heureux Charbonne comme un taré mais motivé comme un hero Jsuis dans le 4 pétard feux éteint sur l'parking On r'connaît la teté des yencli par coeur Et pose toi prêt du préaux coco monte le paro courir Et jette pas le détail par peur Tu sera déduit par les traitres Bon qu'a porter l'il mais en vrai c'est rien Ça tartine sa mere et a minuit j'me rend On r'connaît la frappe rien quà lodeur J'suis A 45 en mode rien ça crapote Et jsuis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et jsuis daga sous beugeuh et j'suis daga sous beugeuh eh You might also likeVient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh J'me sens pas mal maintenant je peut me taillé quand je veut Une nouvelle bagnole avec les même survêtement qu'avant Les autres me demandent ce que je fait ici Me disent que si ils avaient ma vie Ils se sont tiré très loin d'ici avec des salopes a claqué tout leurs sous J'reste avec suge j'en ai marre d'être trahi par la meute Une amitié d'enfance dure peut vite finir en miettes C'est b c'est b mais nique sa mère j'ai du blé En France au bled un peu partout j'ai des biens Sur le terrain un 50 acheté égale un 10 donné c'est plus rentable si vous venez à 2 Mais faites vite c'est 48h après ya plus rien Nous on en a trop la défaite fait pas le moine Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh</t>
+          <t>Hier j'étais trop daga jai bédave trop de beugeuh J'ai oublié des caleçon dans les affaires d'ma pute Un bon coup 10 bagale et tout le monde est heureux Charbonne comme un taré mais motivé comme un hero Jsuis dans le 4 pétard feux éteint sur l'parking On r'connaît la teté des yencli par coeur Et pose toi prêt du préaux coco monte le paro courir Et jette pas le détail par peur Tu sera déduit par les traitres Bon qu'a porter l'il mais en vrai c'est rien Ça tartine sa mere et a minuit j'me rend On r'connaît la frappe rien quà lodeur J'suis A 45 en mode rien ça crapote Et jsuis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et jsuis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh J'me sens pas mal maintenant je peut me taillé quand je veut Une nouvelle bagnole avec les même survêtement qu'avant Les autres me demandent ce que je fait ici Me disent que si ils avaient ma vie Ils se sont tiré très loin d'ici avec des salopes a claqué tout leurs sous J'reste avec suge j'en ai marre d'être trahi par la meute Une amitié d'enfance dure peut vite finir en miettes C'est b c'est b mais nique sa mère j'ai du blé En France au bled un peu partout j'ai des biens Sur le terrain un 50 acheté égale un 10 donné c'est plus rentable si vous venez à 2 Mais faites vite c'est 48h après ya plus rien Nous on en a trop la défaite fait pas le moine Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Je fume du shitYou might also like</t>
+          <t>Je fume du shit</t>
         </is>
       </c>
     </row>
@@ -2739,11 +2739,7 @@
           <t>bizness</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2758,7 +2754,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Layte Beats NouvlR, NouvlR, NouvlR NouvlR, NouvlR, NouvlR Ouais, quel bail, Morrossa ? Rah Tout plier, que j'la bibi Ouh, j'la bibi Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Ça tartine sec et fort, j'ai reçu d'la re-pu enfin Et mon meilleur cliquos, il veut qu'j'lui garde le bout d'la fin J'ai un peu calé ma faim mais j'crois qu'j'ai encore faim Deux millions, c'est des miettes, à partir de huit, ça m'suffit Ca-calibré dans l'auto' mais j'peux pas vous dire j'l'ai mis où Un peu parano depuis qu'on fait la guerre contre eux Ouais, j'le prends toujours sur moi même si je sais qu'c'est des putes Mais on sous-estime personne, un peu partout, y a des fous You might also like À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Quand j'détaille, j'suis concentré, faut qu'les cinquante soient parallèles J'suis congolais-manjak, Suge, c'est mon sin-cou par alliance C'est bon si j'l'ai au bigo, on laisse les femmes au parloir Bastos dans l'cur, encore un nitch qui fond un gramme Pour la ppe-fra, c'est par là, y a du noir qui colle Y a du filtré trois fois qui monte rapidement au crâne J'crois qu'j'vais vendre le S.V.R, j'négocie un RS4, j'vais foutre Koba sur la plaque À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh NouvlR, NouvlR, NouvlR Rah Tout plier, que j'la bibi</t>
+          <t>Layte Beats NouvlR, NouvlR, NouvlR NouvlR, NouvlR, NouvlR Ouais, quel bail, Morrossa ? Rah Tout plier, que j'la bibi Ouh, j'la bibi Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Ça tartine sec et fort, j'ai reçu d'la re-pu enfin Et mon meilleur cliquos, il veut qu'j'lui garde le bout d'la fin J'ai un peu calé ma faim mais j'crois qu'j'ai encore faim Deux millions, c'est des miettes, à partir de huit, ça m'suffit Ca-calibré dans l'auto' mais j'peux pas vous dire j'l'ai mis où Un peu parano depuis qu'on fait la guerre contre eux Ouais, j'le prends toujours sur moi même si je sais qu'c'est des putes Mais on sous-estime personne, un peu partout, y a des fous À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Quand j'détaille, j'suis concentré, faut qu'les cinquante soient parallèles J'suis congolais-manjak, Suge, c'est mon sin-cou par alliance C'est bon si j'l'ai au bigo, on laisse les femmes au parloir Bastos dans l'cur, encore un nitch qui fond un gramme Pour la ppe-fra, c'est par là, y a du noir qui colle Y a du filtré trois fois qui monte rapidement au crâne J'crois qu'j'vais vendre le S.V.R, j'négocie un RS4, j'vais foutre Koba sur la plaque À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh NouvlR, NouvlR, NouvlR Rah Tout plier, que j'la bibi</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2771,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Boumi' Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi, elle a vu l'calibre dans mon auto Si j'l'utilise, j'vais devoir le revendre dans l'état J'ai vu qu'y avait haja mais réclame juste un bout d'shit ouais Mais vas-y, tranquille, j'vais lui donner Trop parler, ça sert à rien, j'préfère rouler des joints J'préfère gonfler ma liasse et mettre mes locks dans son cul À la base, ton pied, mon pied, tu m'as trahi mais sans rancune mais bon, t'es qu'un bâtard Juste, depuis, j'ai pris du recul ouh J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess You might also like J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Putain, ouh, ouh, des fois, j'fais tomber mon bédo Des fois, j'fais tomber des billets mais j'fais pas exprès, c'était pour mettre du co'-co' C'est la galère sa mère, , moi j'tourne en rond C'est la galère sa mère, j'tourne en rond Regarde-bien t'es yeux, regarde-bien c'est d'l'or rose Et celle-là, c'est la même que mon J'suis dans l'bendo, j'suis dans la 'sique, dans la zep, j'suis dans la 'sique J'suis dans l'Range, dans la Ferrari, c'est ta pute que j'fais rêver Toi, aujourd'hui, tu parles mal mais toute ta vie, j't'ai dépanné Hein, tranquille J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess1</t>
+          <t>Boumi' Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi, elle a vu l'calibre dans mon auto Si j'l'utilise, j'vais devoir le revendre dans l'état J'ai vu qu'y avait haja mais réclame juste un bout d'shit ouais Mais vas-y, tranquille, j'vais lui donner Trop parler, ça sert à rien, j'préfère rouler des joints J'préfère gonfler ma liasse et mettre mes locks dans son cul À la base, ton pied, mon pied, tu m'as trahi mais sans rancune mais bon, t'es qu'un bâtard Juste, depuis, j'ai pris du recul ouh J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Putain, ouh, ouh, des fois, j'fais tomber mon bédo Des fois, j'fais tomber des billets mais j'fais pas exprès, c'était pour mettre du co'-co' C'est la galère sa mère, , moi j'tourne en rond C'est la galère sa mère, j'tourne en rond Regarde-bien t'es yeux, regarde-bien c'est d'l'or rose Et celle-là, c'est la même que mon J'suis dans l'bendo, j'suis dans la 'sique, dans la zep, j'suis dans la 'sique J'suis dans l'Range, dans la Ferrari, c'est ta pute que j'fais rêver Toi, aujourd'hui, tu parles mal mais toute ta vie, j't'ai dépanné Hein, tranquille J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess1</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2788,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Eh Booska VII T'es en haut du toit Ouais, Koba LaD, le bâtiment VII en direct de Booska-P Entrecôte, escalope, tout en Nike, impossible d'sentir sans ma skalape Y a d'la beugeu, d'la pasta, du seum Et la mentalité dure comme ciment Suis moi j'ai trouvé comment rentrer en soum J'suis au bif quand j'ai laissé la semoule Et depuis l'28 septembre, le reste de la concurrence est parti Première semaine et 18 000 ventes C'est-à-dire plus que ton rappeur préféré À la radio, mais toujours dans l'binks pourtant Et ta p'tite sur gratte une to-ph' Regarde, il ramasse plein d'bif Et y a rien d'mieux que de vivre la vie d'artiste J'suis dans ma caisse, fonce-dé dans l'fer Et ma génération trouve ça dégoûtant J'ai rien volé, Dieu m'a donné Prie et peut-être qu'un jour, toi aussi Futur millionnaire fonce-dé dans l'fer En train d'réfléchir à comment j'vais m'les faire Et pour qu'elle se pose pas b'soin d'faire d'effort Le contenu de ma sacoche va tout faire J'suis dans l'pillon, la selha, la beugeu Sinon, c'est ta sur que j'aurais fait tapiner Avant d'faire partir, en gros j'ai saigné le rrain-té Les temps pleins portent malchance j'me suis trop fait péter Mais l'point d'vente a tourné, j'suis devenu le gérant, enculé Les potes à mon petit reuf ont bossé, rebossé Prend 70 pour la journée, j'faisais rentrer bien avant d'rapper Et j'vais pas te faire de dessin Faut qu'tu descendes, qu'tu désapes, desserres ton string Faut qu'tu m'suces sans les dents, j'veux pas être déçu Y a ma bave et mon sperme qui coulent sur tes seins J'ai pris mes distances, ils m'détestent tous Mon buzz attise rien d'autre que la haine Ils ont démarré ici du dix au dix Et que maintenant, j'parle en sommes à six chiffres Dans l'fond du tieks, en haut du VII En train d'recompter l'argent de la semaine En attendant que le pe-ra paye de zipette Un flow intact, tout droit d'Namek, c'est c'que les extra-terrestres détectent Et quand j'ai capté la tactique tôt, j'ai passé l'tit-pe en haut d'une tour du VII You might also like Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu1</t>
+          <t>Eh Booska VII T'es en haut du toit Ouais, Koba LaD, le bâtiment VII en direct de Booska-P Entrecôte, escalope, tout en Nike, impossible d'sentir sans ma skalape Y a d'la beugeu, d'la pasta, du seum Et la mentalité dure comme ciment Suis moi j'ai trouvé comment rentrer en soum J'suis au bif quand j'ai laissé la semoule Et depuis l'28 septembre, le reste de la concurrence est parti Première semaine et 18 000 ventes C'est-à-dire plus que ton rappeur préféré À la radio, mais toujours dans l'binks pourtant Et ta p'tite sur gratte une to-ph' Regarde, il ramasse plein d'bif Et y a rien d'mieux que de vivre la vie d'artiste J'suis dans ma caisse, fonce-dé dans l'fer Et ma génération trouve ça dégoûtant J'ai rien volé, Dieu m'a donné Prie et peut-être qu'un jour, toi aussi Futur millionnaire fonce-dé dans l'fer En train d'réfléchir à comment j'vais m'les faire Et pour qu'elle se pose pas b'soin d'faire d'effort Le contenu de ma sacoche va tout faire J'suis dans l'pillon, la selha, la beugeu Sinon, c'est ta sur que j'aurais fait tapiner Avant d'faire partir, en gros j'ai saigné le rrain-té Les temps pleins portent malchance j'me suis trop fait péter Mais l'point d'vente a tourné, j'suis devenu le gérant, enculé Les potes à mon petit reuf ont bossé, rebossé Prend 70 pour la journée, j'faisais rentrer bien avant d'rapper Et j'vais pas te faire de dessin Faut qu'tu descendes, qu'tu désapes, desserres ton string Faut qu'tu m'suces sans les dents, j'veux pas être déçu Y a ma bave et mon sperme qui coulent sur tes seins J'ai pris mes distances, ils m'détestent tous Mon buzz attise rien d'autre que la haine Ils ont démarré ici du dix au dix Et que maintenant, j'parle en sommes à six chiffres Dans l'fond du tieks, en haut du VII En train d'recompter l'argent de la semaine En attendant que le pe-ra paye de zipette Un flow intact, tout droit d'Namek, c'est c'que les extra-terrestres détectent Et quand j'ai capté la tactique tôt, j'ai passé l'tit-pe en haut d'une tour du VII Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu1</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2805,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Et j'me rappelle quand Et jme rappelle quand on voulait pas d'moi On voulait pas d'moi Et javais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Et jme rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on mla poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Nourrit pas la salade, la farine, le pain, j'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps, j'ai appris à me lever tôt et j'savais pour qui baisser les prix J'détaillais à part égale et la plus grosse barrette, nique sa grand-mère, j'la prenais comme cons' Nous aussi, on a connu les perte, les deux Skoda grise, le Berlingo, le Mandeo black Un paquet d'clope, un paquet d'feuilles et un she-fla en fin d'journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui, c'est rare quand j'suis pâta-retard, si j'suis en retard un mois sur la paye Et toi, tu me parle d'argent facile mais si je me gaffe, c'est d'la prison ferme Faut qu'j l'a récupère et ensuite, j'me repose Demain, j'dois tout détaille, la livrer au tit-pe Et une fois qu'l'petit aura tout fait partir Il faut qu'j'aille voir Deuspi pour qu'il distribue les paye, yeah yeah You might also like Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Capo, Koba, v'la la paire, fait renter le caba, les pochons d'herbes J'suis dans les finance, j'ai plus confiance, AK-47 dans l'Golf 7R Marseille, c'est violent, y a rien d'étonnant, découpe, découpe les kilos, oh X-ADV sur le rrain-te, le négro est casqué, esquive les gyro', oh Ta go fait la fraiche, miskina, elle viens chez moi tout les jours faire le ménage Merde J'me lève à quinze heure, je suis khapta, j'prend le jetski Yamaha à Samena Merde Six heure du mat', ça fait Pah-pah-pah, tout est chez la nourrice, ah-ah-ah Patek Philippe à 100K-K-K, j'mange du caviars en-cas cas-cas-cas I'm sorry, y a mon son dans ta story L'été sera torride, fait pas d'grimace a un Gorille Y a d'la p'tite, j'fais croquer mon fils Kylli' Dit leurs que c'est pas fini, de la piwi au deux et demi Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Eh, eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Eh ,eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Et j'me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette, on me la poussait pas Mais je crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure</t>
+          <t>Et j'me rappelle quand Et jme rappelle quand on voulait pas d'moi On voulait pas d'moi Et javais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Et jme rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on mla poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Nourrit pas la salade, la farine, le pain, j'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps, j'ai appris à me lever tôt et j'savais pour qui baisser les prix J'détaillais à part égale et la plus grosse barrette, nique sa grand-mère, j'la prenais comme cons' Nous aussi, on a connu les perte, les deux Skoda grise, le Berlingo, le Mandeo black Un paquet d'clope, un paquet d'feuilles et un she-fla en fin d'journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui, c'est rare quand j'suis pâta-retard, si j'suis en retard un mois sur la paye Et toi, tu me parle d'argent facile mais si je me gaffe, c'est d'la prison ferme Faut qu'j l'a récupère et ensuite, j'me repose Demain, j'dois tout détaille, la livrer au tit-pe Et une fois qu'l'petit aura tout fait partir Il faut qu'j'aille voir Deuspi pour qu'il distribue les paye, yeah yeah Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Capo, Koba, v'la la paire, fait renter le caba, les pochons d'herbes J'suis dans les finance, j'ai plus confiance, AK-47 dans l'Golf 7R Marseille, c'est violent, y a rien d'étonnant, découpe, découpe les kilos, oh X-ADV sur le rrain-te, le négro est casqué, esquive les gyro', oh Ta go fait la fraiche, miskina, elle viens chez moi tout les jours faire le ménage Merde J'me lève à quinze heure, je suis khapta, j'prend le jetski Yamaha à Samena Merde Six heure du mat', ça fait Pah-pah-pah, tout est chez la nourrice, ah-ah-ah Patek Philippe à 100K-K-K, j'mange du caviars en-cas cas-cas-cas I'm sorry, y a mon son dans ta story L'été sera torride, fait pas d'grimace a un Gorille Y a d'la p'tite, j'fais croquer mon fils Kylli' Dit leurs que c'est pas fini, de la piwi au deux et demi Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Eh, eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Eh ,eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Et j'me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette, on me la poussait pas Mais je crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2822,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Mais je crois que ça a changé, Audemars Piguet Et jsort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Jcrois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Nourrit pas la salade, la farine, le pain J'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps j'ai appris à me lever tôt Et j'savais pour qui baisser les prix On détaillait à part égale Et la plus grosse barrette nique sa grand mère jla prenais comme cons Nous aussi on a connu les perte Et les contre la crise Un paquet d'clope, un paquet dfeuilles et un chouf-la en fin de journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui cest rare quand j'suis pas dans pâta-retard, si j'suis en retard la main sur la paye Toi tu me partage argent facile mais si je me gaffe c'est d'la prison ferme On l'a récupère, et ensuite j'me, repose demain j'dois tout détaille, la livrer au ti-peu Et une fois que l'petit aura tout fait parti Et faut que j'aille voir Despi pour qu'il distribue les paye, yeah yeah You might also like Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure</t>
+          <t>Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Mais je crois que ça a changé, Audemars Piguet Et jsort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Jcrois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Nourrit pas la salade, la farine, le pain J'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps j'ai appris à me lever tôt Et j'savais pour qui baisser les prix On détaillait à part égale Et la plus grosse barrette nique sa grand mère jla prenais comme cons Nous aussi on a connu les perte Et les contre la crise Un paquet d'clope, un paquet dfeuilles et un chouf-la en fin de journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui cest rare quand j'suis pas dans pâta-retard, si j'suis en retard la main sur la paye Toi tu me partage argent facile mais si je me gaffe c'est d'la prison ferme On l'a récupère, et ensuite j'me, repose demain j'dois tout détaille, la livrer au ti-peu Et une fois que l'petit aura tout fait parti Et faut que j'aille voir Despi pour qu'il distribue les paye, yeah yeah Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Black Stone, Black Stone, Black Stone J'viens reprendre le contrôle comme Bumpy Pas d'sourire aux lèvres Sur l'épaule j'ai le pe-pom, ils jouent les voyous, c'est des putains salope Mes grands-pères faisaient peur au Maréchal Pétain Quand je dis quelque chose, tu me crois eh Et dans le coin, je suis craint Joue au con si t'as du cran J'enfonce une 'teille dans ton cul Si j'dégaine un pétard, c'est pour que vous mourrez J'ai ds liasses de cinq-cent dans mon jan Amiri J'rallume un toca' comme un gars d'Amérique han, han J'suis dans la Caille, j'suis posé dans ma rue han, han Kodes la barrière, les méchants, les pirates Viens pas nous faire l'ancien, on connait tout Paris Nous, ça va très bien, en vrai j'sais pas pour eux Quand c'était tendu, y en a plein qui séparaient By-by-by-bye You might also like Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye , j'dois savoir à qui je serre la main Appelle-moi Bakari ou Souleymane, revendeur de mort comme un sale humain S'pé-ta comme des animaux dans la cité, c'est la loi de la jungle Pétard allumé au chalumeau, c'est pas qu'le 14 qu'on fait la guérilla On a l'respect avant le seize, c'est pour ça que personne ne nous achète J'suis dans l'four, j'suis dans les bagayes, j'me suis fait pister, je change de cachette encore Y a plus d'pochtard, faut que t'en rachètes J'ai des sous, j'ai du buzz et j'ai d'la chatte j'ai du sous, j'ai des buzz et j'ai d'la chatte sa mère Et c'est sa copine, j'voulais chette Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye J'suis là-bas toute la semaine mais bon, j'peux v'nir t'enculer, p'tit con Le préféré des bacqueux quand ils m'contrôlent, j'dis plus olala Ça vole, olala, pas du olala, Djamso elle m'capte Venez, on lcrosse sa mère parce que c'est trolala C'est du 7, enfoiré, tu connais déjà, bâtiment 7 connu comme le cul à Mila Dans la Caille, revendais le taga et tous ces enculés, on les a bien gué-lar On les a bien gué-lar et tous ces tocards n'ont même pas un dollar Rafale, j'ai la guitare, y a toute mon équipe, négro, j'suis en pétard</t>
+          <t>Black Stone, Black Stone, Black Stone J'viens reprendre le contrôle comme Bumpy Pas d'sourire aux lèvres Sur l'épaule j'ai le pe-pom, ils jouent les voyous, c'est des putains salope Mes grands-pères faisaient peur au Maréchal Pétain Quand je dis quelque chose, tu me crois eh Et dans le coin, je suis craint Joue au con si t'as du cran J'enfonce une 'teille dans ton cul Si j'dégaine un pétard, c'est pour que vous mourrez J'ai ds liasses de cinq-cent dans mon jan Amiri J'rallume un toca' comme un gars d'Amérique han, han J'suis dans la Caille, j'suis posé dans ma rue han, han Kodes la barrière, les méchants, les pirates Viens pas nous faire l'ancien, on connait tout Paris Nous, ça va très bien, en vrai j'sais pas pour eux Quand c'était tendu, y en a plein qui séparaient By-by-by-bye Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye , j'dois savoir à qui je serre la main Appelle-moi Bakari ou Souleymane, revendeur de mort comme un sale humain S'pé-ta comme des animaux dans la cité, c'est la loi de la jungle Pétard allumé au chalumeau, c'est pas qu'le 14 qu'on fait la guérilla On a l'respect avant le seize, c'est pour ça que personne ne nous achète J'suis dans l'four, j'suis dans les bagayes, j'me suis fait pister, je change de cachette encore Y a plus d'pochtard, faut que t'en rachètes J'ai des sous, j'ai du buzz et j'ai d'la chatte j'ai du sous, j'ai des buzz et j'ai d'la chatte sa mère Et c'est sa copine, j'voulais chette Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye J'suis là-bas toute la semaine mais bon, j'peux v'nir t'enculer, p'tit con Le préféré des bacqueux quand ils m'contrôlent, j'dis plus olala Ça vole, olala, pas du olala, Djamso elle m'capte Venez, on lcrosse sa mère parce que c'est trolala C'est du 7, enfoiré, tu connais déjà, bâtiment 7 connu comme le cul à Mila Dans la Caille, revendais le taga et tous ces enculés, on les a bien gué-lar On les a bien gué-lar et tous ces tocards n'ont même pas un dollar Rafale, j'ai la guitare, y a toute mon équipe, négro, j'suis en pétard</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tu connais, moi, c'est trop la Calle Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Le neuf a pâter les condés, le gros est tombé pour Kada Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Tu parles trop, décidément J'mets tempête, ils sont trop lentYou might also like</t>
+          <t>Tu connais, moi, c'est trop la Calle Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Le neuf a pâter les condés, le gros est tombé pour Kada Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Tu parles trop, décidément J'mets tempête, ils sont trop lent</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Rim's on the b- J'ai souvent été trahi Trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- Un trou d'boulette dans l'C63, sa mère Sa mère, j'dois mettre mal en semi, tirer Regarde Et les autres plus bas que terres, écoute pas les mecs qu'on pas plus d'argent qu'toi Rappeur, producteur, c'est moi Puff LaD, je voulais pas mais bon, j'suis dedans Dégaine de voyou, mentale d'un voyou, gamos de voyou, j'suis pas un voyou Ah-ah-ah-ah J'peux même pas lui dire combien coûte mes chaussures, c'st peut-être le prix d sa gov' Clio 3 Et quand j'repenses à ma liasse, que j'dois recompter, j'en oublie de reprendre l'élastique L'élastique À deux cent cinquante, que des appels de eux, tout est noir dans le Lamborghini Vroum, vroum, vroum J'suis à Miami sous beuh dans un club, sur moi, une mexicaine qui bouge ses fesses C'est cette vie Même à travers d'fumer d'ppe-fra, j'y vois net J'y vois net, j'la vends à Maxime, Benoît, Antoinette Eh J'suis dans l'bendo avec les autres et même fonce-dé, j'en roule un autre J'en roule un autre, j'en roule un autre J'm'en fou, j'fais plus d'argent qu'un proxénète Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit You might also like Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Souvent été trahi, en vrai, rien de nouveau, te dire à quel point je l'ai haï, frérot, j'ai pas les mots J'ai pas les mots Sois ma reine, je serai ton cavaliero, j'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine Je suis la haine, j'ai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Mieux que Fresnes, même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin Moulin, moulin, au moulin, ma tchoin saute le caramel Caramel PGP branché, je te rappelle, coño, j'suis sur des zones parallèles Parallèles Ils ne nous invitent plus, ils disent qu'on va gâcher la fête Gâcher la fête, pourtant, c'est eux qui ont créé la bête Quelques sociétés, quelques dettes Quelques dettes, elle croit qu'j'vais la rappeler, qu'est-ce qu'elle est bête Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ?</t>
+          <t>Rim's on the b- J'ai souvent été trahi Trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- Un trou d'boulette dans l'C63, sa mère Sa mère, j'dois mettre mal en semi, tirer Regarde Et les autres plus bas que terres, écoute pas les mecs qu'on pas plus d'argent qu'toi Rappeur, producteur, c'est moi Puff LaD, je voulais pas mais bon, j'suis dedans Dégaine de voyou, mentale d'un voyou, gamos de voyou, j'suis pas un voyou Ah-ah-ah-ah J'peux même pas lui dire combien coûte mes chaussures, c'st peut-être le prix d sa gov' Clio 3 Et quand j'repenses à ma liasse, que j'dois recompter, j'en oublie de reprendre l'élastique L'élastique À deux cent cinquante, que des appels de eux, tout est noir dans le Lamborghini Vroum, vroum, vroum J'suis à Miami sous beuh dans un club, sur moi, une mexicaine qui bouge ses fesses C'est cette vie Même à travers d'fumer d'ppe-fra, j'y vois net J'y vois net, j'la vends à Maxime, Benoît, Antoinette Eh J'suis dans l'bendo avec les autres et même fonce-dé, j'en roule un autre J'en roule un autre, j'en roule un autre J'm'en fou, j'fais plus d'argent qu'un proxénète Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Souvent été trahi, en vrai, rien de nouveau, te dire à quel point je l'ai haï, frérot, j'ai pas les mots J'ai pas les mots Sois ma reine, je serai ton cavaliero, j'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine Je suis la haine, j'ai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Mieux que Fresnes, même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin Moulin, moulin, au moulin, ma tchoin saute le caramel Caramel PGP branché, je te rappelle, coño, j'suis sur des zones parallèles Parallèles Ils ne nous invitent plus, ils disent qu'on va gâcher la fête Gâcher la fête, pourtant, c'est eux qui ont créé la bête Quelques sociétés, quelques dettes Quelques dettes, elle croit qu'j'vais la rappeler, qu'est-ce qu'elle est bête Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ?</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Saydiq Il veut la bagarre donc on va le niquer, aujourdhui, je ne sors pas broliqué Toi, tu veux ça, lui, il veut ça, allez vendre du sale et communiquer Je suis avec Kobs, à la cité, la cité nous a cité Je vi-ser, je me casse aussitôt, on prend les cagoules et on prend tout tir Toujours pas fait defforts, faire du sale, cest mon métier Une poucave, baveux, tu sortais le son, tes ma moitié Crois-moi que ça va aller, s'il y a la brigade sur le rain-té Cest le seven aller, aller, aller, aller, aller Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité, on a tout fait pour cette cité Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité Oh, tout pour le four, tout pour le four, midi-minuit, ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment You might also like Je suis dans le Benz 500 et la plaque est allemande Deux quarante sur la A6, cest mon C, je me masse le dos Là je suis fonce-dé sous beuh, derrière mes locks, je vois plus ses yeux bleus Et là, jai tout détail, dans les échant', rajoute un peu, juste un petit peu, ça va partir Jai pété mon fournisseur et en ce moment, cest chaud Avant-hier, ils ont tèj 300 kil' dans leau Malgré tout, on est là, de midi jusquà laube On compte pas cher-lâ même si ça devient che-lou Tout pour le four, tout pour le four, nique sa mère, il y a rien à faire, plaque pour le four Recompte va faire des efforts, on bouge pas du four, il y a que les keufs qui nous font fuir Oh, tout pour le four, tout pour le four, midi-minuit ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tout pour le four, tout pour le four, oh, tout pour le four Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment</t>
+          <t>Saydiq Il veut la bagarre donc on va le niquer, aujourdhui, je ne sors pas broliqué Toi, tu veux ça, lui, il veut ça, allez vendre du sale et communiquer Je suis avec Kobs, à la cité, la cité nous a cité Je vi-ser, je me casse aussitôt, on prend les cagoules et on prend tout tir Toujours pas fait defforts, faire du sale, cest mon métier Une poucave, baveux, tu sortais le son, tes ma moitié Crois-moi que ça va aller, s'il y a la brigade sur le rain-té Cest le seven aller, aller, aller, aller, aller Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité, on a tout fait pour cette cité Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité Oh, tout pour le four, tout pour le four, midi-minuit, ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Je suis dans le Benz 500 et la plaque est allemande Deux quarante sur la A6, cest mon C, je me masse le dos Là je suis fonce-dé sous beuh, derrière mes locks, je vois plus ses yeux bleus Et là, jai tout détail, dans les échant', rajoute un peu, juste un petit peu, ça va partir Jai pété mon fournisseur et en ce moment, cest chaud Avant-hier, ils ont tèj 300 kil' dans leau Malgré tout, on est là, de midi jusquà laube On compte pas cher-lâ même si ça devient che-lou Tout pour le four, tout pour le four, nique sa mère, il y a rien à faire, plaque pour le four Recompte va faire des efforts, on bouge pas du four, il y a que les keufs qui nous font fuir Oh, tout pour le four, tout pour le four, midi-minuit ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tout pour le four, tout pour le four, oh, tout pour le four Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2907,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hello, it's ToM! J'veux pas finir comme Micky et Poppy mais on sait jamais car tous les jours, ça prends des risques Dans la rue, à toute heure, ça trottine, à force d'être filmés, les méchants font tout pour qu'on glisse Tu sais, c'est pas tout l'monde qu'est solides, suffit d'une cigarette et quelques noms sont données À force de faire confiance, y en a qui sont tombés, faut revoir la fiabilité des équipiers, hey On veut tous partir loin du bendazi, j'ai rêver qu'j'avais katchana Pamela Mais en vrai, j'suis vers Porte d'Italie, avec une pétasse de la France d'en bas Vive la vida mais le passé nous rattrape J'veux plus jamais sentir le goût du froid, donc j'ai acheter une doudoune a plus d'20K, hey J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander You might also like J'vais pas finir comme 2Pac et Biggie ou d'me faire rafale en concert J'ai trop l'seum, moi, j'voulais trop la quer-ni, pourtant, sur Insta', elle avait l'air d'être coincé Tu connais le pilon déclasser mais à cause du froid, il sait cassé Dans le fond du coin, j'me suis coincé et j'savais qu'j'allais pas revoir tout mes gars sûr Mais sur l'terrain, on se donne trop d'mal Mal, j'sais pas si ça vaut la peine J'vois plus mes reufs, ça va faire un an Un an, j'sais pas si ça vaut la peine Et j'pense à Suge et j'pense à Kaz' et des fois, j'pense à laisser la drogue Et des fois, j'pense à laisser la stup' Mais nique sa mère, en vrai de vrais, dis-moi, à quoi bon ? J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander</t>
+          <t>Hello, it's ToM! J'veux pas finir comme Micky et Poppy mais on sait jamais car tous les jours, ça prends des risques Dans la rue, à toute heure, ça trottine, à force d'être filmés, les méchants font tout pour qu'on glisse Tu sais, c'est pas tout l'monde qu'est solides, suffit d'une cigarette et quelques noms sont données À force de faire confiance, y en a qui sont tombés, faut revoir la fiabilité des équipiers, hey On veut tous partir loin du bendazi, j'ai rêver qu'j'avais katchana Pamela Mais en vrai, j'suis vers Porte d'Italie, avec une pétasse de la France d'en bas Vive la vida mais le passé nous rattrape J'veux plus jamais sentir le goût du froid, donc j'ai acheter une doudoune a plus d'20K, hey J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander J'vais pas finir comme 2Pac et Biggie ou d'me faire rafale en concert J'ai trop l'seum, moi, j'voulais trop la quer-ni, pourtant, sur Insta', elle avait l'air d'être coincé Tu connais le pilon déclasser mais à cause du froid, il sait cassé Dans le fond du coin, j'me suis coincé et j'savais qu'j'allais pas revoir tout mes gars sûr Mais sur l'terrain, on se donne trop d'mal Mal, j'sais pas si ça vaut la peine J'vois plus mes reufs, ça va faire un an Un an, j'sais pas si ça vaut la peine Et j'pense à Suge et j'pense à Kaz' et des fois, j'pense à laisser la drogue Et des fois, j'pense à laisser la stup' Mais nique sa mère, en vrai de vrais, dis-moi, à quoi bon ? J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A-A Si tu payes pas maintenant, c'est mort Si tu payes pas maintenant, c'est mort AWA the mafia, my nigga! Han, j'en veux pas, là, j'lui dis Nan, je fume un pétard en dînant, on se finira sur le divan, han Aujourd'hui, c'est non Aujourd'hui, c'est non, là, j'sors du ciment Du ciment, j'y retournerais pas, c'est non Poto Bloqué dans le binks, ça tire des grosses barres sur la ganja Ouais, sur la drogue Ils s'demandent de quoi je rêve car les grosses sommes, j'les ai déjà Oui, oui, oui Cent et quelques euros le plein Niou, fini les sandwichs au pain Fini Nan, j'les calcule pas, ils font la street, ils plaintent Nan, nan Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han Han Han, aujourd'hui, c'est non Non, elle veut v'nir à l'hôtel à la fin du showcase mais c'est mort mais c'est mort Han C'coup ci, j'ai pas l'temps Nan, j'ai l'avion l'matin et j'suis pas sûr d'te ken, donc c'est mort Sors une tête, sors une tête, sors une tête Tête, tête, un coup d'langue, j'la déchire et j'le pète Ça va péter, peut-être mais j'me prends pas la tête Nan, j'dépasse à deux-vingt, soit ça passe ou c'est dead Ou j'suis mort ou j'suis mort You might also like T'es trop che-lou, t'es trop dans une quête T'es trop relou, rodave au feu rouge, j'suis pas loin des keufs J'accélère J'demande au Bon Dieu d'm'éloigner des traîtres Dans mes prières, parce que l'prochain coup d'pute, j'vais pas l'supporter J'vais l'allumer Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han</t>
+          <t>A-A Si tu payes pas maintenant, c'est mort Si tu payes pas maintenant, c'est mort AWA the mafia, my nigga! Han, j'en veux pas, là, j'lui dis Nan, je fume un pétard en dînant, on se finira sur le divan, han Aujourd'hui, c'est non Aujourd'hui, c'est non, là, j'sors du ciment Du ciment, j'y retournerais pas, c'est non Poto Bloqué dans le binks, ça tire des grosses barres sur la ganja Ouais, sur la drogue Ils s'demandent de quoi je rêve car les grosses sommes, j'les ai déjà Oui, oui, oui Cent et quelques euros le plein Niou, fini les sandwichs au pain Fini Nan, j'les calcule pas, ils font la street, ils plaintent Nan, nan Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han Han Han, aujourd'hui, c'est non Non, elle veut v'nir à l'hôtel à la fin du showcase mais c'est mort mais c'est mort Han C'coup ci, j'ai pas l'temps Nan, j'ai l'avion l'matin et j'suis pas sûr d'te ken, donc c'est mort Sors une tête, sors une tête, sors une tête Tête, tête, un coup d'langue, j'la déchire et j'le pète Ça va péter, peut-être mais j'me prends pas la tête Nan, j'dépasse à deux-vingt, soit ça passe ou c'est dead Ou j'suis mort ou j'suis mort T'es trop che-lou, t'es trop dans une quête T'es trop relou, rodave au feu rouge, j'suis pas loin des keufs J'accélère J'demande au Bon Dieu d'm'éloigner des traîtres Dans mes prières, parce que l'prochain coup d'pute, j'vais pas l'supporter J'vais l'allumer Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C'est réel ma gueule, vérifie Et réfléchis avant que tu te confies Après leffort le réconfort Je sors avant midi, je rentre après minuit Écouter la concu ça devient lassant Enlève tes bracelets ta ceinture tes lacets Y'en a qui vont se donner à la salle Je nettoie trop mon flingue il est jamais sale Moi, j'ai laissé tomber le foot Pour ouvrir un terrain de fou Des kils, des armes à feu Du pilon de la beuh et même de la schnouf Et regarde, depuis que je perce Jai de la chance je rebaise mon ex, eh Elle me retrouve super mignon Elle me dit que y'a que moi qui l'apaise Je suis toujours postiche avec mes gars Avec nous évite les sujets délicats Koba LaD, la même dégaine de délinquant Je suis toujours au top, gamin revois tes lacunes Et là, je dois niquer qui ? Je dois enculer laquelle ? Ton buzz, tu vas le tenir... Mais dis-moi jusqu'à quand ? You might also likeCapuché dans ton bal masqué On a volé ton buzz et tes meufs miskine Koba LaD prépare un massacre Dans mon verre y'a ton sang et des morceaux de sucre Je suis arrivé jusqu'ici sans cé-su Poto rien a changé je vis pour les sous J'ai compris que je devais faire du sale Téma mon équipe de fou je suis pas seul A ta gueule ça se voit que t'as mal Jai un 9mm venez même à mille Soit tes dans notre sens ou bien on te mêle J'ai mouillé le maillot, jai des liasses de mille Je prends du terrain, les autres régressent Grâce au four mon ventre s'engraisse Pour l'instant mes disquettes glissent Le petit il sait qu'elle me suce comme sa glace Le joint de beuh part en carotte Et le block devient un potager Et crois-moi quil est faux ton pote si c'bâtard veut pas partager Et les keufs sont à mes trousses Je me faufile dans l'appart à G Ça sert à rien de faire du bruit Je le prends, je le démarre en aparté Mais putain c'est quoi cette dope ? Là j'ai grave besoin d'un parachute Ils sont là quand tout va bien Mais y'a plus personne pour ta chute J'ai mes fréros avec moi dans les bons comme dans les coups durs Et putain c'est quoi tes gars ? Tes négros sont des putes C'est bien de porter du Gucci, Louis V' Au final toi dans les poches t'as nada Eux ils se prennent pour des gangsters Mais quand nous on débarque rien qu'ils décalent Je fume que de la frappe seulement Tu sais, je n'ai que de la frappe sur oim Ouais je vends que de la frappe seulement Tu sais, je n'ai que de la frappe sur moi</t>
+          <t>C'est réel ma gueule, vérifie Et réfléchis avant que tu te confies Après leffort le réconfort Je sors avant midi, je rentre après minuit Écouter la concu ça devient lassant Enlève tes bracelets ta ceinture tes lacets Y'en a qui vont se donner à la salle Je nettoie trop mon flingue il est jamais sale Moi, j'ai laissé tomber le foot Pour ouvrir un terrain de fou Des kils, des armes à feu Du pilon de la beuh et même de la schnouf Et regarde, depuis que je perce Jai de la chance je rebaise mon ex, eh Elle me retrouve super mignon Elle me dit que y'a que moi qui l'apaise Je suis toujours postiche avec mes gars Avec nous évite les sujets délicats Koba LaD, la même dégaine de délinquant Je suis toujours au top, gamin revois tes lacunes Et là, je dois niquer qui ? Je dois enculer laquelle ? Ton buzz, tu vas le tenir... Mais dis-moi jusqu'à quand ? Capuché dans ton bal masqué On a volé ton buzz et tes meufs miskine Koba LaD prépare un massacre Dans mon verre y'a ton sang et des morceaux de sucre Je suis arrivé jusqu'ici sans cé-su Poto rien a changé je vis pour les sous J'ai compris que je devais faire du sale Téma mon équipe de fou je suis pas seul A ta gueule ça se voit que t'as mal Jai un 9mm venez même à mille Soit tes dans notre sens ou bien on te mêle J'ai mouillé le maillot, jai des liasses de mille Je prends du terrain, les autres régressent Grâce au four mon ventre s'engraisse Pour l'instant mes disquettes glissent Le petit il sait qu'elle me suce comme sa glace Le joint de beuh part en carotte Et le block devient un potager Et crois-moi quil est faux ton pote si c'bâtard veut pas partager Et les keufs sont à mes trousses Je me faufile dans l'appart à G Ça sert à rien de faire du bruit Je le prends, je le démarre en aparté Mais putain c'est quoi cette dope ? Là j'ai grave besoin d'un parachute Ils sont là quand tout va bien Mais y'a plus personne pour ta chute J'ai mes fréros avec moi dans les bons comme dans les coups durs Et putain c'est quoi tes gars ? Tes négros sont des putes C'est bien de porter du Gucci, Louis V' Au final toi dans les poches t'as nada Eux ils se prennent pour des gangsters Mais quand nous on débarque rien qu'ils décalent Je fume que de la frappe seulement Tu sais, je n'ai que de la frappe sur oim Ouais je vends que de la frappe seulement Tu sais, je n'ai que de la frappe sur moi</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2958,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bellek track Et y a, et y a, et y a un drôle d'équipage à bord du vaisseau Un drôle de mélange au fond d'la vessie, j'ai v'là les casseroles, j'dois faire la vaisselle Un coulis d'amnésia au dessert, un euro, logiquement c'est l'désert C'est dur de combattre tous ses désirs, les galères, c'est devenu un plaisir On surmontera l'usure quand y en aura plusieurs, traîne pas trop dans Roubaix, c'est neigeux, c'st pluvieux Traîne pas trop dans Roubaix, c'est nigeux, c'est pluvieux J'cassais des carreaux comme à Joliot à Saint-Denis J'me suis fait mêler comme au bât' 7 à Evry Normal qu'j'sois la fierté, pour ma ville, j'ai uvré J'essayerai d'remettre dedans le shlag qui veut s'sevrer le shlag qui veut s'sevrer Nous, c'est casse-vitrine, pas lèche-vitrine pas lèche-vitrine La hagra paye que pour les victimes Y a du filtré, plein d'superpouvoirs X-Men qui font muter ZK Dexter, encore une prod' innocente que j'ai buté À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche You might also like Ici, on change pas l'tarot des affaires, garanti, j'te la lâche la G13 J'crois qu'j'suis plus apprécié à l'étranger, dans l'rétro, j'ai les ailes de Batman J'suis dans les airs, j'ai même pas fait exprès, eh, BM, c'est d'la bombe, j'accélère Et l'équation d'ma vie, elle se résolue sur la feuille de pte-com J'reviens d'Rotter', j'ai trouvé un filon pour des voitures à cash J'suis avec Landy, j'suis avec ZKR, c'est Bellek à la prod' Y a, y a gue-dro à fois qui tourne à 7.5, pour le four, c'est rentable Ma vie, c'est un film, j'appuie sur tous les boutons comme Michel Sale bâtard, j'vais t'sortir un brolique pah, pah, pah, pah, pah, pah À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche À vouloir chercher l'or, on fini par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir</t>
+          <t>Bellek track Et y a, et y a, et y a un drôle d'équipage à bord du vaisseau Un drôle de mélange au fond d'la vessie, j'ai v'là les casseroles, j'dois faire la vaisselle Un coulis d'amnésia au dessert, un euro, logiquement c'est l'désert C'est dur de combattre tous ses désirs, les galères, c'est devenu un plaisir On surmontera l'usure quand y en aura plusieurs, traîne pas trop dans Roubaix, c'est neigeux, c'st pluvieux Traîne pas trop dans Roubaix, c'est nigeux, c'est pluvieux J'cassais des carreaux comme à Joliot à Saint-Denis J'me suis fait mêler comme au bât' 7 à Evry Normal qu'j'sois la fierté, pour ma ville, j'ai uvré J'essayerai d'remettre dedans le shlag qui veut s'sevrer le shlag qui veut s'sevrer Nous, c'est casse-vitrine, pas lèche-vitrine pas lèche-vitrine La hagra paye que pour les victimes Y a du filtré, plein d'superpouvoirs X-Men qui font muter ZK Dexter, encore une prod' innocente que j'ai buté À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche Ici, on change pas l'tarot des affaires, garanti, j'te la lâche la G13 J'crois qu'j'suis plus apprécié à l'étranger, dans l'rétro, j'ai les ailes de Batman J'suis dans les airs, j'ai même pas fait exprès, eh, BM, c'est d'la bombe, j'accélère Et l'équation d'ma vie, elle se résolue sur la feuille de pte-com J'reviens d'Rotter', j'ai trouvé un filon pour des voitures à cash J'suis avec Landy, j'suis avec ZKR, c'est Bellek à la prod' Y a, y a gue-dro à fois qui tourne à 7.5, pour le four, c'est rentable Ma vie, c'est un film, j'appuie sur tous les boutons comme Michel Sale bâtard, j'vais t'sortir un brolique pah, pah, pah, pah, pah, pah À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche À vouloir chercher l'or, on fini par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2975,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oy, oy, oy Et la façon dont tu comptes en dit long en dit long, j'avais pas d'me-sper à mon premier deal mon premier deal Et ça débite ça débite et ça débite, pour gonfler l'bénéfice, faut faire des sacrifices Il faut privilégier les blocs, diminuer les dix, les bonbonnes diminuent, la liasse grossit la liasse grossit Il fait trop froid il fait trop froid, taga durci, j'arrive plus à rouler, faut qu'j'aille dans la voiture Si t'es mon reuf, c'est mieux que j'te pousse rien, vaut mieux pas qu'l'argent s'met entre toi et moi entre toi et moi, sinon, c'est foutu Parce que, si tu me paies pas, on va faire comment ? De base, t'es mon frère, de base, t'es mon sang mon sang, en plus, ma daronne aime beaucoup ta daronne en plus, ma daronne aime beaucoup ta daronne Mais je vais pas hésiter à sonner chez toi oy, oy J'barode dans mon fer, xenon sont les feux, quand j'démarre, c'est bleu, je grille tous les feux J'passe devant la gare, j'excite toutes les folles, j'fais plus de bruit qu'les gamos d'Fast and Furious À chaque nouveau clip, une nouvelle pétasse, à la même adresse, j'suis au Novotel J'suis dans l'avion, j'm'endors capuché, au cas où si un fan me prend en photo J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnementYou might also like</t>
+          <t>Oy, oy, oy Et la façon dont tu comptes en dit long en dit long, j'avais pas d'me-sper à mon premier deal mon premier deal Et ça débite ça débite et ça débite, pour gonfler l'bénéfice, faut faire des sacrifices Il faut privilégier les blocs, diminuer les dix, les bonbonnes diminuent, la liasse grossit la liasse grossit Il fait trop froid il fait trop froid, taga durci, j'arrive plus à rouler, faut qu'j'aille dans la voiture Si t'es mon reuf, c'est mieux que j'te pousse rien, vaut mieux pas qu'l'argent s'met entre toi et moi entre toi et moi, sinon, c'est foutu Parce que, si tu me paies pas, on va faire comment ? De base, t'es mon frère, de base, t'es mon sang mon sang, en plus, ma daronne aime beaucoup ta daronne en plus, ma daronne aime beaucoup ta daronne Mais je vais pas hésiter à sonner chez toi oy, oy J'barode dans mon fer, xenon sont les feux, quand j'démarre, c'est bleu, je grille tous les feux J'passe devant la gare, j'excite toutes les folles, j'fais plus de bruit qu'les gamos d'Fast and Furious À chaque nouveau clip, une nouvelle pétasse, à la même adresse, j'suis au Novotel J'suis dans l'avion, j'm'endors capuché, au cas où si un fan me prend en photo J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>N.A.Z.A, tu connais le name La bagarre La bagarre Pas dans la fitness Pas dans la fitness, y a que des mecs infréquentables Un boulot vite ait-f Un boulot vite ait-f mais le shooteur vient t'faire en balle J'ai tous mes rides Ouh, ouh, si j'dois refaire, je fais normal Toujours en business Business, business mais j'oublie pas que j'viens d'en bas Noir est l'anneau, rien qu'on est deux sur la bécane Bécane J'suis dans une salade, j'dois payer l'avocat 'vocat Outils dans l garage, pour travaux, j'fais un vocal Ouh Moi, j'suis trop dedans Ouh La Kalash' est sombr, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Ah, ah, ah, comme ça Ah, ah, ah, comme ça Petit Ah, ah, ah, comme ça Ah, ah, ah You might also like La petite kiff quand j'la prends comme ça, quand j'accélère comme ça Le bénéfice est intéressant mais on s'ra tous enterrés sans À la base, j'voyais pas tout ça mais au fil du temps, j'ai dû prendre sur moi J'ai dû prendre sur moi et Hamdou'-dou', tout va mieux Des fois, c'est comme ça, j'ai préféré la bimbo J'ai préféré ses tatouages, j'ai préféré cracher-gué sur son dos On voit que son cavu sur la moto, elle galère trop pour monter C'est trop, quand j'regarde son dos, j'ai toujours une envie d'la démonter Démonter Noir est l'anneau, rien qu'on est deux sur la bécane Deux sur la bécane J'suis dans une salade, j'dois payer l'avocat J'dois khalass l'avocat Outils dans le garage, pour travaux, j'fais un vocal Ah Moi, j'suis trop dedans Ouh La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Comme ça Comme a-ç, comme a-ç, négro Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah La bagarre La bagarre La bagarre La bagarre</t>
+          <t>N.A.Z.A, tu connais le name La bagarre La bagarre Pas dans la fitness Pas dans la fitness, y a que des mecs infréquentables Un boulot vite ait-f Un boulot vite ait-f mais le shooteur vient t'faire en balle J'ai tous mes rides Ouh, ouh, si j'dois refaire, je fais normal Toujours en business Business, business mais j'oublie pas que j'viens d'en bas Noir est l'anneau, rien qu'on est deux sur la bécane Bécane J'suis dans une salade, j'dois payer l'avocat 'vocat Outils dans l garage, pour travaux, j'fais un vocal Ouh Moi, j'suis trop dedans Ouh La Kalash' est sombr, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Ah, ah, ah, comme ça Ah, ah, ah, comme ça Petit Ah, ah, ah, comme ça Ah, ah, ah La petite kiff quand j'la prends comme ça, quand j'accélère comme ça Le bénéfice est intéressant mais on s'ra tous enterrés sans À la base, j'voyais pas tout ça mais au fil du temps, j'ai dû prendre sur moi J'ai dû prendre sur moi et Hamdou'-dou', tout va mieux Des fois, c'est comme ça, j'ai préféré la bimbo J'ai préféré ses tatouages, j'ai préféré cracher-gué sur son dos On voit que son cavu sur la moto, elle galère trop pour monter C'est trop, quand j'regarde son dos, j'ai toujours une envie d'la démonter Démonter Noir est l'anneau, rien qu'on est deux sur la bécane Deux sur la bécane J'suis dans une salade, j'dois payer l'avocat J'dois khalass l'avocat Outils dans le garage, pour travaux, j'fais un vocal Ah Moi, j'suis trop dedans Ouh La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Comme ça Comme a-ç, comme a-ç, négro Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah La bagarre La bagarre La bagarre La bagarre</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais Adieu les berlingos, j'roule un bédo sur un lingot C'est fou comme je parais plus beau, plus j'fais des sous plus j'fais des go Je vie ma meilleur life, nouveau gamos, nouvelle wife Chaîne en iamant tout de ice-ice-ice-ice-ice Boss, Adieu boloss J'ai deux Porches sur le torse, tu parles chinois j'parle en Rolls Roys Je ne fais plus de choix, j'prends les deux C'que j'aime pas j'la mettrais qu'une fois J'suis toujours le même pour tout ce qui me connaissent J'ai fais c'qu'il fallait le ciel me comprend Un jour viendra mon heure sur ma Rolex en diamant Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais You might also like La Grinta gère les terrains comme les Pogba Transac', 20 kilos bim-bam-boum Nou ka fé lajan mwaka moon, et on vas s'armer à la tomber de la Lune J'veux la plus grosse coupe, la meilleur ceinture Et sa d'puis l'époque du sainté Depuis Deuspi l'avait senti, toi tu croyais qu'on disait des sottises J'ai pas changé j'suis toujours le même, toujours la même date, toujours la même niak Mais imaginé y'a des kilomètres tout est millier, j'm'approche du million Et vers ici bah c'est nous on gère, toujours d'la peufra, toujours d'la pasta J'ai d'la beuh qui brille, mon shit c'est d'la mousse Et sous CR c'est mon sin-cou Mès Et la haine prend l'dessus sur le M J'fais la une sans l'vouloir tu vas me voir Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais J'suis sur le rain-té, baissez les vitres teintées comme un été J'suis frais et beau comme un bébé, les mamas veulent m'allaiter Je me couche mais je n'ai pas sommeil J'attends la fin des pleurs qui c'est les levé de soleil Police la ka tounin yo pa sav sa pou fè Lè yo tchébé en nwè yo bizwen fè'y wè misè Réisit en nèg sé sa ka fè yo soufè Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais</t>
+          <t>Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais Adieu les berlingos, j'roule un bédo sur un lingot C'est fou comme je parais plus beau, plus j'fais des sous plus j'fais des go Je vie ma meilleur life, nouveau gamos, nouvelle wife Chaîne en iamant tout de ice-ice-ice-ice-ice Boss, Adieu boloss J'ai deux Porches sur le torse, tu parles chinois j'parle en Rolls Roys Je ne fais plus de choix, j'prends les deux C'que j'aime pas j'la mettrais qu'une fois J'suis toujours le même pour tout ce qui me connaissent J'ai fais c'qu'il fallait le ciel me comprend Un jour viendra mon heure sur ma Rolex en diamant Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais La Grinta gère les terrains comme les Pogba Transac', 20 kilos bim-bam-boum Nou ka fé lajan mwaka moon, et on vas s'armer à la tomber de la Lune J'veux la plus grosse coupe, la meilleur ceinture Et sa d'puis l'époque du sainté Depuis Deuspi l'avait senti, toi tu croyais qu'on disait des sottises J'ai pas changé j'suis toujours le même, toujours la même date, toujours la même niak Mais imaginé y'a des kilomètres tout est millier, j'm'approche du million Et vers ici bah c'est nous on gère, toujours d'la peufra, toujours d'la pasta J'ai d'la beuh qui brille, mon shit c'est d'la mousse Et sous CR c'est mon sin-cou Mès Et la haine prend l'dessus sur le M J'fais la une sans l'vouloir tu vas me voir Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais J'suis sur le rain-té, baissez les vitres teintées comme un été J'suis frais et beau comme un bébé, les mamas veulent m'allaiter Je me couche mais je n'ai pas sommeil J'attends la fin des pleurs qui c'est les levé de soleil Police la ka tounin yo pa sav sa pou fè Lè yo tchébé en nwè yo bizwen fè'y wè misè Réisit en nèg sé sa ka fè yo soufè Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3026,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TrYou might also like</t>
+          <t>Tr</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Hum, hum, hum Hum, hum, hum Xavii Ouh, ouais Hum, hum, hum J'ai vu des démons dans la nuit Dans la nuit, j'les ai vu prendre mes amis Mes amis, mes amis J'les ai vu prendre mes amis, ne jamais m'les ramener sans demander mon avis Mon avis J'suis né pas loin de Paris Paris mais si loin du cur de la ville La ville J'suis tellement passé par des choses, des fois, j'ai l'impression d'avoir vécu deux vies Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangèr, c'est p't-être le passé qui vut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer J'récup' d'la vodka et des ballons Ciroc pêche et des bombonnes, pour une pute qui maitrise dix langues Gracias, c'est en espagnol J'paye tout en euros, en dollars En dollars, en dine' En dine', 'ros Grah, j'sors un appart', j'sors mes bilans Comme mon agent, il m'oblige Ma putain d'Skeleton, c'est l'prix d'une Merco Bâtard, elle m'voit trop comme un narco' Ah -ah C'est plus l'époque des grecs à quatre Han, des barrodes en voiture péta Han Un Araï, un X-ADV ADV, armé à ton RDV RDV, y a personne pour répliquer Ah-ah You might also like On est pas dans les signes de gang, nous Pas dans les trucs de ah-ah mais dans Wesh, mon pote, ça vient d'où ? Ton bigo, ta casquette J'vais pas t'raconter mes embrouilles J'vais pas t'raconter mes problèmes Suce-moi la bite, fais-moi des papouilles Han, han, han, han, han, han J'ai vu des démons dans la nuit La night, j'les ai vu prendre mes amis Mes potes J'les ai vu prendre mes amis Yeah, ne jamais m'les ramener sans demander mon avis Yeah, yeah, yeah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Il m'ont traité d'fou mais pas d'menteur Yeah, pensif à la station quand j'remplie l'moteur J'ai sorti l'T-MAX, j'fais pas l'signes des motards, y en a marre des bleus, faut qu'tu payes en moutarde Me casse pas les couilles, soit tu payes, soit tu pars, on s'croise en vrai mais c'est après qu'il parle Ça s'entend plus quand les métaux froids parlent Fah, fah, fah, j't'ai croisé en vrai, fils de pute et c'est maintenant qu'tu parles Négro, j'suis fidèle à mort, I got a Gucci, Dior Dior, j'ai d'jà claqué la kichta d'hier, j'étais là quand t'étais seul dehors Yeah On avait le même sac, les mêmes paires Yeah, on ressemble à des sins-c' dans les airs Sins-c' dans les airs Prie pour moi si je m'en sors Si je m'en sors, j'prierai pour toi si j'm'en sers Grr, pah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Han, han, han, han, han, han Han, han, han, han, han Han, han, han, han, han</t>
+          <t>Hum, hum, hum Hum, hum, hum Xavii Ouh, ouais Hum, hum, hum J'ai vu des démons dans la nuit Dans la nuit, j'les ai vu prendre mes amis Mes amis, mes amis J'les ai vu prendre mes amis, ne jamais m'les ramener sans demander mon avis Mon avis J'suis né pas loin de Paris Paris mais si loin du cur de la ville La ville J'suis tellement passé par des choses, des fois, j'ai l'impression d'avoir vécu deux vies Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangèr, c'est p't-être le passé qui vut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer J'récup' d'la vodka et des ballons Ciroc pêche et des bombonnes, pour une pute qui maitrise dix langues Gracias, c'est en espagnol J'paye tout en euros, en dollars En dollars, en dine' En dine', 'ros Grah, j'sors un appart', j'sors mes bilans Comme mon agent, il m'oblige Ma putain d'Skeleton, c'est l'prix d'une Merco Bâtard, elle m'voit trop comme un narco' Ah -ah C'est plus l'époque des grecs à quatre Han, des barrodes en voiture péta Han Un Araï, un X-ADV ADV, armé à ton RDV RDV, y a personne pour répliquer Ah-ah On est pas dans les signes de gang, nous Pas dans les trucs de ah-ah mais dans Wesh, mon pote, ça vient d'où ? Ton bigo, ta casquette J'vais pas t'raconter mes embrouilles J'vais pas t'raconter mes problèmes Suce-moi la bite, fais-moi des papouilles Han, han, han, han, han, han J'ai vu des démons dans la nuit La night, j'les ai vu prendre mes amis Mes potes J'les ai vu prendre mes amis Yeah, ne jamais m'les ramener sans demander mon avis Yeah, yeah, yeah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Il m'ont traité d'fou mais pas d'menteur Yeah, pensif à la station quand j'remplie l'moteur J'ai sorti l'T-MAX, j'fais pas l'signes des motards, y en a marre des bleus, faut qu'tu payes en moutarde Me casse pas les couilles, soit tu payes, soit tu pars, on s'croise en vrai mais c'est après qu'il parle Ça s'entend plus quand les métaux froids parlent Fah, fah, fah, j't'ai croisé en vrai, fils de pute et c'est maintenant qu'tu parles Négro, j'suis fidèle à mort, I got a Gucci, Dior Dior, j'ai d'jà claqué la kichta d'hier, j'étais là quand t'étais seul dehors Yeah On avait le même sac, les mêmes paires Yeah, on ressemble à des sins-c' dans les airs Sins-c' dans les airs Prie pour moi si je m'en sors Si je m'en sors, j'prierai pour toi si j'm'en sers Grr, pah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Han, han, han, han, han, han Han, han, han, han, han Han, han, han, han, han</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3060,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Des kilos, d'la monnaie Du taga, d'la beu'her Et mets pas ton nez dans nos affaires Il va se retrouver dans notre farine Tu connais déjà nos vies J'vis, j'dors j'recompte le bif Tu connais déjà nos vies J'récupère, j'détaille, j'rentabilise Eh eh, RK Koba la D On nique le game on t'parle après Et nous a la base on était pour La revendre quitte à finir en perte Eh, nous teté cramé dans l'four Toi t'écoute mais tu fais l'sourd Ils ont l'seum depuis qu'on enquête Le quartier est mieux faut qu'je gagne des sous Eh, eh téma l'train d'vie Ils sont remplis d'vices You might also like Koba récup 5 kil' Détaille et fait partir J'donne corps et âme pour pas être à sec RK va te passer l'sac-eu C'est Bang bang, c'est B7 La getta armé au 357 Moi j'sais c'que j'te raconte En vrai si tu bétom c'est qu'tes con Les potos m'ont dit fonce La vie d'artiste c'est vraiment cool Mais la c'est cuit, y'a gentil despi en sécu' D'la rue au stud on est passés des kil' au biz' Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la pastèque on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta</t>
+          <t>Tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Des kilos, d'la monnaie Du taga, d'la beu'her Et mets pas ton nez dans nos affaires Il va se retrouver dans notre farine Tu connais déjà nos vies J'vis, j'dors j'recompte le bif Tu connais déjà nos vies J'récupère, j'détaille, j'rentabilise Eh eh, RK Koba la D On nique le game on t'parle après Et nous a la base on était pour La revendre quitte à finir en perte Eh, nous teté cramé dans l'four Toi t'écoute mais tu fais l'sourd Ils ont l'seum depuis qu'on enquête Le quartier est mieux faut qu'je gagne des sous Eh, eh téma l'train d'vie Ils sont remplis d'vices Koba récup 5 kil' Détaille et fait partir J'donne corps et âme pour pas être à sec RK va te passer l'sac-eu C'est Bang bang, c'est B7 La getta armé au 357 Moi j'sais c'que j'te raconte En vrai si tu bétom c'est qu'tes con Les potos m'ont dit fonce La vie d'artiste c'est vraiment cool Mais la c'est cuit, y'a gentil despi en sécu' D'la rue au stud on est passés des kil' au biz' Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la pastèque on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont ap ti-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps, 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets on va te monter en l'air You might also like Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une Kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille1</t>
+          <t>Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont ap ti-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps, 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets on va te monter en l'air Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une Kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille1</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DuckYou might also like</t>
+          <t>Duck</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3111,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>J'ai les keufs sur mon dos, j'ai mon bébé dans son ventre Ah-ah-ah Ouais J'ai les keufs sur mon dos Han, j'ai mon bébé dans son ventre Han, j'ai ma zipette dans son dos Dans son dos Au début, c'était bien mais tu connais, au fil du temps, ça devient de plus en plus chaud Nan, j't'ai pas menti, j'ai toujours été sincère Sincère à chaque fois, toujours calibré, dans l'RS3, j'm'insère J'suis dans les affaires Ffaires-a, j'ai un seul pied dans la 'sique, l'autre, dans les affaires Donc si demain, ça marche plus, j'sais c'qu'il m'reste à faire J'ai charbonné d'puis cinq années pour en arriver là, pas changé d'équipe, c'est toujours les mêmes Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi You might also like J'fais monter les kich' en un coup d'fil Coup d'fil, bah ouais, j'fais d'la magie Ouh Tu sais qu'j'ai ma gratte sur la Blue Magic Ouh, ouh, j'compte pas qu'sur la 'sique, j'peux pas finir fauché C'est mort Tu sais qu'j'suis précis comme un gaucher, gaucher, les balles font qu'des ricochets, 'cochets Sur le terrain, virgule, crochet, bébé, j'peux pas m'accrocher, 'ccrocher Et j'ai fait des dingueries pour le papel Bah, j'ai fini la bouteille, j'suis pété comme Marley Comme Biggie Le statut a changé, tous ceux qui bombaient, ils s'mettent à sucer Mais j'suis habitué J'fais confiance qu'au Très-Haut, ta dernière vision, ce s'ra la moto Non Dans tous les faits divers, j'fais couler l'averse, j'me fais discret sur la photo Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les bleh mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi1</t>
+          <t>J'ai les keufs sur mon dos, j'ai mon bébé dans son ventre Ah-ah-ah Ouais J'ai les keufs sur mon dos Han, j'ai mon bébé dans son ventre Han, j'ai ma zipette dans son dos Dans son dos Au début, c'était bien mais tu connais, au fil du temps, ça devient de plus en plus chaud Nan, j't'ai pas menti, j'ai toujours été sincère Sincère à chaque fois, toujours calibré, dans l'RS3, j'm'insère J'suis dans les affaires Ffaires-a, j'ai un seul pied dans la 'sique, l'autre, dans les affaires Donc si demain, ça marche plus, j'sais c'qu'il m'reste à faire J'ai charbonné d'puis cinq années pour en arriver là, pas changé d'équipe, c'est toujours les mêmes Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi J'fais monter les kich' en un coup d'fil Coup d'fil, bah ouais, j'fais d'la magie Ouh Tu sais qu'j'ai ma gratte sur la Blue Magic Ouh, ouh, j'compte pas qu'sur la 'sique, j'peux pas finir fauché C'est mort Tu sais qu'j'suis précis comme un gaucher, gaucher, les balles font qu'des ricochets, 'cochets Sur le terrain, virgule, crochet, bébé, j'peux pas m'accrocher, 'ccrocher Et j'ai fait des dingueries pour le papel Bah, j'ai fini la bouteille, j'suis pété comme Marley Comme Biggie Le statut a changé, tous ceux qui bombaient, ils s'mettent à sucer Mais j'suis habitué J'fais confiance qu'au Très-Haut, ta dernière vision, ce s'ra la moto Non Dans tous les faits divers, j'fais couler l'averse, j'me fais discret sur la photo Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les bleh mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi1</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FeFe à Marseille Regarde l'RS6, regarde l'SVR, regarde bien, ta mère, c'est les même sur Insta Heureusement qu'j'ai suivie mon instinct putain, mais de toute façon, c'est mon destin Elle aimerai m'avoir qu'un instant, c'est mort, s'est folles c'est que vole-morts J'suis trop au quartier, j'suis trop au quartier, j'm'en bat les couilles de connaître les rues de Panam Entrain d'lui parler, j'essaie d'la dragur, elle sait pas que dans ma sacoche j'ai une me-ar Si j'te parle encore, c'est qu't'es un bon, sinon, j'taurais laisser comme les autres fils de putes J'suis plus trop à la tess', maintenant, c'est mon p'tit frère qui assure ma réput' D'la zipette, il en reste encore, me parle pas pour en prendre Si tu m'as fait déplacer, la vie d'ma reum', tu la prends J'ai une touche sur la beughi, pour pas plus d'48 C'est d'la frappa d'Hollande qu'on réceptionne d'la BelgiqueYou might also like</t>
+          <t>FeFe à Marseille Regarde l'RS6, regarde l'SVR, regarde bien, ta mère, c'est les même sur Insta Heureusement qu'j'ai suivie mon instinct putain, mais de toute façon, c'est mon destin Elle aimerai m'avoir qu'un instant, c'est mort, s'est folles c'est que vole-morts J'suis trop au quartier, j'suis trop au quartier, j'm'en bat les couilles de connaître les rues de Panam Entrain d'lui parler, j'essaie d'la dragur, elle sait pas que dans ma sacoche j'ai une me-ar Si j'te parle encore, c'est qu't'es un bon, sinon, j'taurais laisser comme les autres fils de putes J'suis plus trop à la tess', maintenant, c'est mon p'tit frère qui assure ma réput' D'la zipette, il en reste encore, me parle pas pour en prendre Si tu m'as fait déplacer, la vie d'ma reum', tu la prends J'ai une touche sur la beughi, pour pas plus d'48 C'est d'la frappa d'Hollande qu'on réceptionne d'la Belgique</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Paroles provenant d'un extrait J'ai que du fair-play, t'inquiète, j'fais fumer Mais pas tout le monde, elle reviens chère la 'quête Que des appels de gaze, des appels de gaze Et sur le dos-dos, j'ai niqué ma paire Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond j'tourne en rond Avec mes pneus arrières, j'fait des ronds En c'moment j'me fait rares, en c'moment j'm fait rares P'tit frère, la pillave c'st d'la merde , j'fume une clope sur l'balcon Des fois j'suis au dépôtYou might also like</t>
+          <t>Paroles provenant d'un extrait J'ai que du fair-play, t'inquiète, j'fais fumer Mais pas tout le monde, elle reviens chère la 'quête Que des appels de gaze, des appels de gaze Et sur le dos-dos, j'ai niqué ma paire Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond j'tourne en rond Avec mes pneus arrières, j'fait des ronds En c'moment j'me fait rares, en c'moment j'm fait rares P'tit frère, la pillave c'st d'la merde , j'fume une clope sur l'balcon Des fois j'suis au dépôt</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3162,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Paroles provenant d'un extrait Les manuvres, j'suis l'noir préférer de Jean-Pierre et Manu, gros ouais c'est son nez Regard froid, menaçant, si sa monte pas cette été yah, yah, yah, yah, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si le r' coule j'ai d'jà percer dans tous les cas tous les cas Le mal dans tout, tout les rond-coins, y a pas d'bagaille, j'ai tout guetter pour le terrain Moi, j'suis pas un radin, mais c'est la pénurie, même un kilo j'peux même pas dépanner aux autres Deux beugeuh différentes, deux beuh différentes, pour passer la, crois-moi que la meilleur c'est l'autre c'est l'autre C'est trop mon pote, moi j'suis pas beau wouho Mais bon, mes thunes et l'odeur d'ma beuh wouho fait que, j'peux baiser qui j'veux Mais non, c'est mort, c'est follasse, sont toutes rrés-bou J'suis sur l'terrain, j'veux suis pas forcer, c'est un choix que j'ai décider de faire tout seul de faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous, mais j'en veux encore encore Entre nous 1 millions d'écart Le cur lourd, assombri par la rancur cur', mais s'adoucit quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre, mais y a du biff, faut que j'résiste faut que j'résisteYou might also like</t>
+          <t>Paroles provenant d'un extrait Les manuvres, j'suis l'noir préférer de Jean-Pierre et Manu, gros ouais c'est son nez Regard froid, menaçant, si sa monte pas cette été yah, yah, yah, yah, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si le r' coule j'ai d'jà percer dans tous les cas tous les cas Le mal dans tout, tout les rond-coins, y a pas d'bagaille, j'ai tout guetter pour le terrain Moi, j'suis pas un radin, mais c'est la pénurie, même un kilo j'peux même pas dépanner aux autres Deux beugeuh différentes, deux beuh différentes, pour passer la, crois-moi que la meilleur c'est l'autre c'est l'autre C'est trop mon pote, moi j'suis pas beau wouho Mais bon, mes thunes et l'odeur d'ma beuh wouho fait que, j'peux baiser qui j'veux Mais non, c'est mort, c'est follasse, sont toutes rrés-bou J'suis sur l'terrain, j'veux suis pas forcer, c'est un choix que j'ai décider de faire tout seul de faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous, mais j'en veux encore encore Entre nous 1 millions d'écart Le cur lourd, assombri par la rancur cur', mais s'adoucit quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre, mais y a du biff, faut que j'résiste faut que j'résiste</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3179,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hey Eh, eh Alors, yes bébé, alors, oh Yes bébé, alors, il reste d'la zipette près du port J'ressors de showcase, j'ai trentre fois l'salaire de ta pute Fonce-dé au boum-boum avec P, ça tire ta feumeu au laser Glocké, j'reste peace, j'fais tomber kichta dans la caisse Yo, turn, yo This Lamborghini got a two seats Woo I'm speedin' 'round and I'm in Dubee Woo Monogram print, I can't see through the Louis She can't get to know the true me Bro from South got a pack for a works and I told him to introduce me He wanna phone me when it's time to war, but when it's bread, he won't include me C'est comme ça, c'est un choix de vie, souvent obligé d'te mentir Même si j'voulais, j'peux pas tout dire, même si j'voulais, j'peux pas tout dire Même si ça va, qu'nous deux c'est cool, à la longue, moi ça va m'lasser Donc je compte, j'recompte des sous et je regarde le temps passer Turn, yo You see me in Paris, I'm faded, I feel like I'm Little Boosie This bad B think that I made it, I ain't tryna bring all my goons in Yo, I wanna pull up to Tape, I wish I could bring all my boots in Uh, on Broadwater estate, the police wanna be a nuisance Harbat selek, condés Turn, turn, turn Une hasba d'litrons, bénef' Turn, turn, they told me turn Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Suh, suh-suh-suh, turn up, turn up You might also like doet z'n best, uh Bless 'em, ik geef 'm een fooitje M'n paps zitten lang in de prison of spang bij de bank en ik laat het ontdooien Ze kijken naar mij en ze willen destroyen, proberen m'n doelen te stoppen, net Nooijer Jij joint de andere kant in de hoop dat de andere kant je gaat joinen Ben met je bitch en ik ben niet eens pooier , doe haar in de sauna Shawty weet niet hoeveel geld ik bezit, nee, ze voelt het gewoon aan m'n aura Manager belt mij, hij wilt voor me storten, maar ik ben op stacken, dus ik zeg 'm Hou maar Ik kon allang zijn waar ik ben, maar moet zorgen dat ik niet dezelfde fout maak Harbat selek, condés Woeh, shit Une hasba d'litrons, bénef' Glah, glah, glah, glah Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Turn, turn, turn, turn, turn up Okay Ayy, that's how we're startin' tings proper out here Some international business, you hear what I'm sayin'? Keepin' it proper out here, mate And we just warmin' up Okay, round two Wow, wow, wow Woo M1OnTheBeat Let's get it, bro Ey, ey, ey Zehn von zehn Brüdern zu echt, heh Neun von zehn Brüdern sind da, ah Und meine Feelings sind dead, heh Weil ich nie Liebe bekam, ey Niggas bewaffnet mit TECs, heh Nicht nur die Messer sind scharf, ah Alle Gesichter verdeckt, heh Weil Bullen kennen die Nam'n Egal, was sie sagen, ey Nein, es gibt keine Liebe, ey Demons, sie flüstern mir täglich in mein Ohr Ja, ich seh' sie im Spiegel, ey Ja, my nigga, sind täglich depressed, heh Weil ich die Schmerzen so mag, ah Und deshalb holen wir jetzt, hm Was von uns keiner bekam, ja Ey, Feelings dead, nein, ich fühl' mich lost Zu viele ging'n hops, keine Minijobs Viel zu viele Gs und zu wenig Cops Hah, Roli-Watch, Diamanten-Rocks Springe aus dem Balkon, wenn es wieder klopft Im Hosenbund 'ne scharfe Millimeter-Glock Stellen uns vor jeden, knien nur vor Gott Mich liebt der Block, ich lieb' den Block Ah, viele tot, doch ich weine nicht Denn auch mir geht es schlecht, doch ich zeig' es nicht Ah, weil ein Mann in mein'n Augen, der Bizzy mit Liebe vertauscht, einfach peinlich ist, heh Und ich kann niemand trauen, der Karten mit Liebe vertuscht, also eigentlich, heh Kann ich niemanden trauen, der nicht mit 'ner Maske rumläuft, zeigen kein Gesicht, ah Kein Vertrau'n Zu all den Fotzen, deshalb bleibe ich alone Wahre Liebe wird es niemals geben, also nicht mit einer Thottie, heute stell' ich lieber alles über Hoes Ah, für die Bros Denn nur sie, Mann, können uns sagen, wir sind close Lügt mir in die Fresse, ja, sie redet mir von Liebe Alles Shows, Baby, sag mir, würdst du bleiben, bin ich broke? Ey, sie will nur Sonne wie Hollywood, ey Gucke dir tief in die Waffe und greif' nach der Waffe wie'n Die kleine Bitch fragt nach mei'm Bodycount Ich lasse sie dann an mei'm Body kau'n Und Bitch-Niggas reden von Packets, sie woll'n sich nicht messen, ich schicke dein'n Body hoch, ey Ey, Stockholm, Sweden, pow Ey, ey, ey Jag vissla från cellen, det ingen som svarar, avdelningen är död Nyss jag kom ifrån arren, brottsplatsen är fortfarande röd Min grabb, han är på sin demon time, sa till han, Du har mitt fulla stöd, kör Vart än vi går, vi ställer till med en scen, scen, scen Fint folk kommer alltid försent, jag är snart vid entrén, säg till väktarna, Öppna Fem anstalter på mindre än ett år Min sverigeturné den har redan Nordvästra Stockholm, skottdrama, folk här, de är skjutglada Minns du när man gjorde hans bil till en skjutbana? Nu han springer runt påtänd Med en rostig pistol, han vill utmana Studiovan, det ingen ny vana Jag har en Mastercard, redo betala Kom, vi går fingerpulla kortläsaren i Prada Sponsorer inte sponsrade, musikvideorna är påkostade En klocka upp för de som kå-kåkade, bam, bam Yes Come on, know they miss Charlie, man Ayy, we out here, bro, we ain't messin' about today All over Europe, man We in Paris right now My guys in the buildin', you know, compilation, you know What? Tape comin' this week Headie, yeah? Come on, ASAP, ASAP Man gettin' hot in here, have to back off the jacket Gettin' hot in here, bruv, aight We ain't done yet My guy, Pajel Can't be us, it's crazy M1OnTheBeat My brudda, you know Ayy Let's get 'em, bro Ay Okay Keep it runnin' Charlie, keep it runnin' Ayy, you gonna go? You gonna go? Yeah, I'm gonna go crazy, let's go, yo Get 'em, Headie Turn Fuckin' hell, yo, yo Came in the scene with a mainstream bootin' Didn't wanna end up famous An opp boy ran up to bine and slept in O, now we still gotta praise his braveness They beefin' babies, the ambulance took him away in a manger The bores that I pushed in Scotland, I could be playin' for Rangers The workers dem needed the payment I'm Liam Neeson if the pack got taken And now we're sleepin', it's a nightshift, dayshift Had to to reason if a man touched flavours Yo, I said the little bro's run down shh and they gotta make that an anthem Don't know why they gotta free big A, he got recalled, he got shaved by the mandem I see you, Headie First time it's been done The best rappers from all around Europe in one place Hardest out here, right now And we ain't done yet, we ain't done Woo Yo, know the vibe, jheeze Feel special right now M1OnTheBeat You ain't seen this before Yo, turn Ayy, take up the Church, Headie Grew in my seabass, grew in my salmon Uptown, I pulled up with a Ghost, I'm feelin' like Angelina Valdes You know This bad B got it on bank, she don't need no allowance Uh-uh See me jewelled up in a casual day, that's minimum sixty thousand Yeah Shorty don't wanna do nothin' today, take some selfies and sit there poutin' Diamonds dancin', all you see is water Water You ain't gotta go Prada and bat man No I like my shorty natural, I ain't gotta tell her to mind the Calvin's I'm at home sippin' Magnum's, I need me a hundred racks in Altham I ain't smokin' my friend when I say I put arms on gangnem No How you think shh got set alight when you done him just like a lantern? Bo-bo Yo, bro just scored, Geronimo, now he wanna eat at Amazonico with a hand ting with the longest nose Longer than Pinocchio Uh, uh Yo, extreme opposites in my portfolio 'cah we really bring BRIT awards Ever seen a crack fiend overdose? You ever been in curfew time tryna whip it up and go your home? Twenty-one seconds to go, I'm still tryna' get it all done like Romeo Ayy, right now, I'm in Pari' Bro just phone for the ends, they were talkin' 'bout shh then he got turned Cali' G Lock field up to the brim, doin' laps 'round like we're in Lee Valley Got my jewels shinin' in the trenches, posted with that big fat swammy D-T-B, I'm old-school like Nani We still take to the park and test them I ain't got time impress them Side-by-side in the ride with my best friend Can't forget Ramz, always tryna go kweff them F them, I'll cheff them They love talk on my name, God bless them Probably my diamond wrist that stressed them Yo, two man, four shanks, only big boy tanks When I'm on them sides, hella man do planks I ain't pullin' no stunts, live corn, no blanks When shush got, it was more than bants I had a hood bitch just like Ms Banks, she kept my grub safe, so I gotta give thanks They say I can't mix pleasure with business, but I'll still slip my D through her Mention my name, then you better have fifty Sorry, I hit his habibti D2B, man done it so swiftly You ain't made a .9 bell go so quickly Still livin' life risky T house really got tricky I heard a cat called me by my rap name, imagine, it could've got sticky I just bought dings, bring that burner out, bap, bap, bap, bap, bap Bap Corn woke up all the neighbours, I knew walalo let it ring, no doubt OFB, we just always about, even when them times, we had waps on drought Had his sister all at my mum's bit throwin' it back when she wanted some clout I'm in then I'm out We went from babies straight to men Push me to the end, that's my life on the line tryna' whoosh one of them Oh no, I can't go jail go again, already been there once, but I'll still reoffend Darlin', no need to pretend, when there's no makeup, you still look ten-ten M1OnTheBeat Woo You know, you know Come on then Live Some history stuff in the buildin' right now Feels special, it feels right Feel like the whole of Europe's comin' together right now Someone in the studio said, Mm, I ain't even need them man in the U.S. no more Aight, mad out here And we ain't done yet man M1OnTheBeat Let's run some game on it, Headie Yo I was upsee sofa surfin', now it's two waps, could've bought a Birkin Thought I got a drop, but it weren't him Guess Rev really was reversin' And Oscar hold corn than more than worthy Smoke filled up with bine, press hood of dirty It was three for two-five and four for thirty Now it's chandeliers, my shorts are Burberry Tell me, who wanna hold a gurney? Five blocks squished makes the four-door goin' Free Kash, he was doin' up coleine, now he's fresh home, it's a cause for commotion Both wrist covered in Evian, 'course two smokes in a ride got normal Yeah I ain't tryna' go on a memorial, bro got one in his head, that's protocol You know They run down shh, run down shh All now, we up here, run 'round further Heard them boy from the 9 not score, sound rare, two ones like Timo Werner Twinnin' I see an old friend turn opp, so I'm tryna' allocate to the L like Jürgen And bro just patterned two lockster, make sure he manage them man for certain Everyone wanna link up to a bullyin' man then the links a burden I heard shh-shh linked up for a shoot, the video shoot ended up in curtains These boots expensive, I bought them Louis, Gucci, Burberry Funny how shh went sleep from a boot, it was cheap like one from Dorothy Perkins It's all a façade, why they all tryna' act hard? Before you started in road I was live in the trench when you was just at yard They like, Dezz', how you beat that murder? Say I don't know, so I just gotta thank God Spent twenty-one on my wrist, now these barbies wanna come trouble my bankcard I swear if this .44 bangs off, you're gonna see bells spin around like dandruff I still get assists even though that I'm hands-off Nah, they can't buck bro when he slams off Uh, last time someone got kwenged, where was the intention to blow some bands off? Now this time somethin' gets touched, I'm gonna bring gyal to the nizz with pants off Jail, don't fake, don't fake, I'm up in the club with copper till late Yo, don't bake, no break, I was sat in that T with grub on my plate Uh-du-du, uh-du-du, uh-uh, uh-uh, and I also ate Yeah, come on then Yeah, yeah Ik hoor je, tellie op maan, shh, niet storen Stack die pap, cash lang, net toren Vraag je ams om de location Zet d'r in m'n collection, ze is lost, net Dora Wie's die boy met de drip like Gunna? Wie's die boy in de whip met dollars? Wie's die boy met de, yo Black tracksuit op m'n Air Force ones Bad boy tune, it's a bad boy song Bitch, ik curve, zet mezelf op first Zet shawty last, last, net Stefflon Don Jij denkt nog steeds dat ik rap voor fun Dom, euro's of count in pond, pound Man, this ass is rond, maar je mag niet slaan, want je bent nog jong So far, uno, dos, tres Die Henney maakt een nigga gek, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt Shit, woah, sorry, schat, ik ben gehackt, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt, uh Spenden het minst, maar we maken het meest Vraag je m'n pap, zeg ik zakelijk nee Hebben in je goals, want ze klagen op m'n G's Hoeveel , we praten Ghanees Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor, woah Sheesh, come on then Ayy, how you comin' up in here, do you wanna come on it? Yo, woo X10, sheesh Uh, Mm M1OnTheBeat Let's get it in, let's go, man We in Paris right now Quatro Kom in die ollo, hoef niet te betalen met doekoe, nee, blacka, betaalt met gezicht Die mannen willen me stoppen, m'n goonie net Harry Potter als hij komt met die stick Ben met je bitch, ze geeft top in de whip, ze is net een banaan als je ziet hoe ze split Gooi d'r op adu en adu op no man en daarna op mij, jongen, wat een assist Ik laat die mannetjes zweten, net Zlatan, maak het heet onder voeten, geen satan Money is long en , heb ik grond, in m'n city, ik voel me net Haaland Drip die is koud alsof ik op de maan land Jij kan proberen, weet niet of je aan kan Je mannen beperkt, het is niet eens herfst, maar toch doe je weer als een bla man Jij bent een prater, ik de dader Zoek je beef, kom ik over als slager Die bitch vraagt me of ik kom slapen En ik ben een JJ hoe ik d'r belazer Zakken gaan dik, vroeger waren we mager Suiker met brood en een klein beetje water Voeger waren we mager Suiker met brood en een klein beetje water Come on then, Chivv in the buildin', yeah Ayy, we doin' tings properly now, international takeover stuff That tape's about to drop, you need it in your life M1OnTheBeat Ayy, Dezzie Are you not tryna' do it go after him, bro? Come on then X10 Live, you know the ting already, fired up HL8 Yo At that carnival function, bro spotted him Dropped him, so we all hopped in You should've saw the way that a one chopped him Man cook up this beef, like DSavv try take off his head, pumpkin Out here doin' school bunkin' This G17 had thugs pumpin' Whoosh, gang just done a dumpin' Nah, I don't fistfight like T-N-A, it ain't processed in my DNA Fuck verbal, CBA It's due timin', so we'll meet, one day Yeah, I'm from O'Block, not GDK Said they got big guns, must be GTA Jump out, let it beat, Senseii Don't get yourself shot, like Danny Pressplay Everythin' nice, got me covered in ice Now your hand on my wrist, so your boyfriend Kitchen knife does more than slice, if I take his life, sorry, Jesus Christ Fresh from 'Ville, zim zimma Who took this key for this bruck down bimmer? Slow down, B, gyal way too inner Tell your barbie, just, yo Grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle I said grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle We in Paris right now, charged up Charged up showin' the world what's good, you know Ayy, this one's mad, Beats by Weez, turn, yo Ayy, you're makin' history Let's go on Headie, let's go If we're dead or alive, I'm never tryna' miss another summer They're still two glizzies on a sunna I seen my aunt the other day and she ain't done nothin' for me on the come up Catherine tell me I remind her of my mother She don't know that was enough 'cah in the trenches, no one teach you self love I been out there with two rambos and a puffer Now this Nike one we used to call a bomber We was lookin' up to hustlers, we weren't lookin' up to President Obama Come from nothin' Gettin' power from a shot, wasn't a llama Studied dramas and after school we had to handle dramas Took a chase with me and Brad', we had to hop like fifty gardens Jakes tryna' hunt us down, like Osama Bin Laden I end up incarcerated and I missed three birthdays, wish me happy belated I got my old friends mad at me because I treat my friends like my family Yes, we were related Probation think I'm gang affiliated It's the last one, but I ain't on my last legs I really used to dream that I could be rappin' in past tense 'cah I was on eagle when the mandem was on Partridge Behind bars when everyone went to Bath Fest' And we was doin' burglaries and car thefts listenin' to Giggs when he was talkin' the hardest My pops always said I had a hard head I'm tryna' turn this eight ball of light into naan bread I didn't get to wash my armpits I got body odour trappin' off this Motorola No way I hit this crack fiend if I didn't know her You couldn't catch an oppa, but you caught his older He got done up and he might need an organ donor It's hard to see these old niggas turn to vultures And they ain't comin' back, they like Ole Gunnar Solskjær Whoo, whoo, whoo Whoo Ruthless, ruthless We ain't done yet It feels like a special moment, feels like a moment in time Fire in the Booth in the buildin' Amsterdam, 4011 M1OnTheBeat What you tellin' me, Charlie? Let's go, my guy, yeah It's all about the love and blessings, you done know Big shout out to the Headie One Amsterdam, UK, link up, you get me? Uh, ik zag mannen me voorbij gaan, maar ik had geduld Ik bleef voor effe humble, m'n zakken waren op nul Je vriend heeft niet gestackt, hij geeft corona nu de schuld Maar je kan zoveel meer bereiken als je plannen niet onthuld We moven in silence, het is m'n buit die geluid maakt Als je me niet gunt, moet je niet huilen bij m'n uitvaart Flessen in de club, maar post geen foto's als ik uit ga Gek genoeg geniet ik wanneer m'n telefoon uit staat Maar fattoemannen doen het meest, willen hangen om te zeggen dat ze met je zijn geweest Als ik niet beter wist, dan zou ik zeggen Het zijn gays Maar deze tijd wordt je gecanceld, dus we spelen het op safe Het leven is niet weten, 't is maar hoe je het bekeek Wil je rijden in Ferarri's die money van een Range? Wil je rijden in de Range met die money van een hoopty? Op beiden kan je niet bouwen, want je stopt het niet een steen, dat is roekeloos Woah, en deze tijd moet je niet vragen om te linken, want ik zeg je dat ik kom, maar ik verschijn niet Huh En neem die shit niet te persoonlijk, want je bent een toffe gozer, maar heb simpelweg die tijd niet, 't is blacka Big shout, uh, Fire in the Booth, Chivv Charlie, you get me? My brother My brother them, trust me, it's love And we keep it goin' No borders, we out here We ain't done yet Feels like a real moment out here, man I see what you're doin' Headie, I see what you're doin', my guy And it continues Ayy Yeah, drippar i Louis Vuitton och en Cartier bustdown klocka Drippar i Louis Vuitton och en Cartier bustdown, ayy Lyssna, Stockholm, Sweden, back Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar Gud jag ber dig få mig inte att krocka igen Hon säger hon behöver mina bars, det torka Hur ska en rappare orka? Folk dem ber till Gud Jag ber dig, kan han inte dö eller torska? Jag kukade strapen imorse innan jag ens borsta Studiobanditen han är ingen brådska Lämnade hylsor, säger till polisen och plocka igen, plocka igen Kukmätningar med Glocks, häll i lite koks, där har du en soppa igen Går jag igång i en vers, jag går inte och stoppa igen Scenen är min, jag går upp, jag är hög som fan, jag hör hur dem skriker Det 2022 nu, fuck vad du gjorde 21 för det är gamla meriter Jag rullar en grammis, skit i en gala Rökt tills lungorna sviker Jag håller inte koll på debatter, håll mig utanför politiken Stenarna dansar på klockan som en tonåring på TikTok Ser du hur långt vi har kommit från jobbiga plitar, KV-kläder och flip-flops? Jag och Polismyndigheten har svårt för varann, vi kan aldrig bli sams Hatad av dem som ändå aldrig älskade mig, sånt kliar inte mig nånstans Mitt liv är en film, denna skiten är HD Två superkrafter, AD och HD Namnet på gunnen jag bär den har två T Tro inte jag pratar om Lipton Helgood Rolle, hade lätt kunnat få roller i Simpsons Flexar med pengar i Aldrig vart bunden till någon, jag klarar mig själv så vad vill dem? Hata på mig nu, don't love me later Typ som en häftapparat, I stick to my paper Mig på en feature, ger dig en buzz, men Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar, yeah-yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah No borders, rest in peace, Byn Block, we out here, man Ey Yasin in the buildin' Rinkeby for life Rest in peace Franky, min fucking bror Okay, I see what you man are dealin' with, now, I see what you're dealin' with History in the makin' Yo La mia bitch mi chiede Louis V, Prada, Gucci, ha un ass curvy Dior, Fendi, Celine, Chanel, vuole whip nel mio garage I miei street 247 come beef, come Ghost Rider Quaggiù nessuno è mai salvo, ops, questa è Milano Preghiere son vane, non ti basta un Amen, yo Abbiamo svariate entrate, West sulle collane, yo La mia tasca si fa grande come avessi un tablet, yo Tu vuoi il beef, non mangio carne, specie se è d'infame, yo Rolls-Royce nero, coca in table, cash, no PayPal No more label, nel mio grammo J-Lo, J-Lo Tu fai home run come nel baseball Cabrio, sto con Headie come in WWE Sì, impellicolavo weed, mo firmo sopra i CD Ha, ha, ha, ha Turn Questa merda si fa deep Ho comprato un'auto a mamma Audi Sport e guarda IG Mentre Ago ha fatto un figlio compro a Thiago nuovo drip Questa è west side a Paris, ehi Come on then Come on then Ayy, No Borders, the tape Makin' sure there's no borders to this ting And that right there was a real, legendary moment Fire in the Booth The hottest from the hardest, the hardest from the hottest Doin' tings proper out here, you know what I'm sayin'? Some real legendary stuff History bein' made You ain't ever seen this shit before, No Borders Headie, I see you, my guy, woo Let's go Charlie, deya1</t>
+          <t>Hey Eh, eh Alors, yes bébé, alors, oh Yes bébé, alors, il reste d'la zipette près du port J'ressors de showcase, j'ai trentre fois l'salaire de ta pute Fonce-dé au boum-boum avec P, ça tire ta feumeu au laser Glocké, j'reste peace, j'fais tomber kichta dans la caisse Yo, turn, yo This Lamborghini got a two seats Woo I'm speedin' 'round and I'm in Dubee Woo Monogram print, I can't see through the Louis She can't get to know the true me Bro from South got a pack for a works and I told him to introduce me He wanna phone me when it's time to war, but when it's bread, he won't include me C'est comme ça, c'est un choix de vie, souvent obligé d'te mentir Même si j'voulais, j'peux pas tout dire, même si j'voulais, j'peux pas tout dire Même si ça va, qu'nous deux c'est cool, à la longue, moi ça va m'lasser Donc je compte, j'recompte des sous et je regarde le temps passer Turn, yo You see me in Paris, I'm faded, I feel like I'm Little Boosie This bad B think that I made it, I ain't tryna bring all my goons in Yo, I wanna pull up to Tape, I wish I could bring all my boots in Uh, on Broadwater estate, the police wanna be a nuisance Harbat selek, condés Turn, turn, turn Une hasba d'litrons, bénef' Turn, turn, they told me turn Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Suh, suh-suh-suh, turn up, turn up doet z'n best, uh Bless 'em, ik geef 'm een fooitje M'n paps zitten lang in de prison of spang bij de bank en ik laat het ontdooien Ze kijken naar mij en ze willen destroyen, proberen m'n doelen te stoppen, net Nooijer Jij joint de andere kant in de hoop dat de andere kant je gaat joinen Ben met je bitch en ik ben niet eens pooier , doe haar in de sauna Shawty weet niet hoeveel geld ik bezit, nee, ze voelt het gewoon aan m'n aura Manager belt mij, hij wilt voor me storten, maar ik ben op stacken, dus ik zeg 'm Hou maar Ik kon allang zijn waar ik ben, maar moet zorgen dat ik niet dezelfde fout maak Harbat selek, condés Woeh, shit Une hasba d'litrons, bénef' Glah, glah, glah, glah Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Turn, turn, turn, turn, turn up Okay Ayy, that's how we're startin' tings proper out here Some international business, you hear what I'm sayin'? Keepin' it proper out here, mate And we just warmin' up Okay, round two Wow, wow, wow Woo M1OnTheBeat Let's get it, bro Ey, ey, ey Zehn von zehn Brüdern zu echt, heh Neun von zehn Brüdern sind da, ah Und meine Feelings sind dead, heh Weil ich nie Liebe bekam, ey Niggas bewaffnet mit TECs, heh Nicht nur die Messer sind scharf, ah Alle Gesichter verdeckt, heh Weil Bullen kennen die Nam'n Egal, was sie sagen, ey Nein, es gibt keine Liebe, ey Demons, sie flüstern mir täglich in mein Ohr Ja, ich seh' sie im Spiegel, ey Ja, my nigga, sind täglich depressed, heh Weil ich die Schmerzen so mag, ah Und deshalb holen wir jetzt, hm Was von uns keiner bekam, ja Ey, Feelings dead, nein, ich fühl' mich lost Zu viele ging'n hops, keine Minijobs Viel zu viele Gs und zu wenig Cops Hah, Roli-Watch, Diamanten-Rocks Springe aus dem Balkon, wenn es wieder klopft Im Hosenbund 'ne scharfe Millimeter-Glock Stellen uns vor jeden, knien nur vor Gott Mich liebt der Block, ich lieb' den Block Ah, viele tot, doch ich weine nicht Denn auch mir geht es schlecht, doch ich zeig' es nicht Ah, weil ein Mann in mein'n Augen, der Bizzy mit Liebe vertauscht, einfach peinlich ist, heh Und ich kann niemand trauen, der Karten mit Liebe vertuscht, also eigentlich, heh Kann ich niemanden trauen, der nicht mit 'ner Maske rumläuft, zeigen kein Gesicht, ah Kein Vertrau'n Zu all den Fotzen, deshalb bleibe ich alone Wahre Liebe wird es niemals geben, also nicht mit einer Thottie, heute stell' ich lieber alles über Hoes Ah, für die Bros Denn nur sie, Mann, können uns sagen, wir sind close Lügt mir in die Fresse, ja, sie redet mir von Liebe Alles Shows, Baby, sag mir, würdst du bleiben, bin ich broke? Ey, sie will nur Sonne wie Hollywood, ey Gucke dir tief in die Waffe und greif' nach der Waffe wie'n Die kleine Bitch fragt nach mei'm Bodycount Ich lasse sie dann an mei'm Body kau'n Und Bitch-Niggas reden von Packets, sie woll'n sich nicht messen, ich schicke dein'n Body hoch, ey Ey, Stockholm, Sweden, pow Ey, ey, ey Jag vissla från cellen, det ingen som svarar, avdelningen är död Nyss jag kom ifrån arren, brottsplatsen är fortfarande röd Min grabb, han är på sin demon time, sa till han, Du har mitt fulla stöd, kör Vart än vi går, vi ställer till med en scen, scen, scen Fint folk kommer alltid försent, jag är snart vid entrén, säg till väktarna, Öppna Fem anstalter på mindre än ett år Min sverigeturné den har redan Nordvästra Stockholm, skottdrama, folk här, de är skjutglada Minns du när man gjorde hans bil till en skjutbana? Nu han springer runt påtänd Med en rostig pistol, han vill utmana Studiovan, det ingen ny vana Jag har en Mastercard, redo betala Kom, vi går fingerpulla kortläsaren i Prada Sponsorer inte sponsrade, musikvideorna är påkostade En klocka upp för de som kå-kåkade, bam, bam Yes Come on, know they miss Charlie, man Ayy, we out here, bro, we ain't messin' about today All over Europe, man We in Paris right now My guys in the buildin', you know, compilation, you know What? Tape comin' this week Headie, yeah? Come on, ASAP, ASAP Man gettin' hot in here, have to back off the jacket Gettin' hot in here, bruv, aight We ain't done yet My guy, Pajel Can't be us, it's crazy M1OnTheBeat My brudda, you know Ayy Let's get 'em, bro Ay Okay Keep it runnin' Charlie, keep it runnin' Ayy, you gonna go? You gonna go? Yeah, I'm gonna go crazy, let's go, yo Get 'em, Headie Turn Fuckin' hell, yo, yo Came in the scene with a mainstream bootin' Didn't wanna end up famous An opp boy ran up to bine and slept in O, now we still gotta praise his braveness They beefin' babies, the ambulance took him away in a manger The bores that I pushed in Scotland, I could be playin' for Rangers The workers dem needed the payment I'm Liam Neeson if the pack got taken And now we're sleepin', it's a nightshift, dayshift Had to to reason if a man touched flavours Yo, I said the little bro's run down shh and they gotta make that an anthem Don't know why they gotta free big A, he got recalled, he got shaved by the mandem I see you, Headie First time it's been done The best rappers from all around Europe in one place Hardest out here, right now And we ain't done yet, we ain't done Woo Yo, know the vibe, jheeze Feel special right now M1OnTheBeat You ain't seen this before Yo, turn Ayy, take up the Church, Headie Grew in my seabass, grew in my salmon Uptown, I pulled up with a Ghost, I'm feelin' like Angelina Valdes You know This bad B got it on bank, she don't need no allowance Uh-uh See me jewelled up in a casual day, that's minimum sixty thousand Yeah Shorty don't wanna do nothin' today, take some selfies and sit there poutin' Diamonds dancin', all you see is water Water You ain't gotta go Prada and bat man No I like my shorty natural, I ain't gotta tell her to mind the Calvin's I'm at home sippin' Magnum's, I need me a hundred racks in Altham I ain't smokin' my friend when I say I put arms on gangnem No How you think shh got set alight when you done him just like a lantern? Bo-bo Yo, bro just scored, Geronimo, now he wanna eat at Amazonico with a hand ting with the longest nose Longer than Pinocchio Uh, uh Yo, extreme opposites in my portfolio 'cah we really bring BRIT awards Ever seen a crack fiend overdose? You ever been in curfew time tryna whip it up and go your home? Twenty-one seconds to go, I'm still tryna' get it all done like Romeo Ayy, right now, I'm in Pari' Bro just phone for the ends, they were talkin' 'bout shh then he got turned Cali' G Lock field up to the brim, doin' laps 'round like we're in Lee Valley Got my jewels shinin' in the trenches, posted with that big fat swammy D-T-B, I'm old-school like Nani We still take to the park and test them I ain't got time impress them Side-by-side in the ride with my best friend Can't forget Ramz, always tryna go kweff them F them, I'll cheff them They love talk on my name, God bless them Probably my diamond wrist that stressed them Yo, two man, four shanks, only big boy tanks When I'm on them sides, hella man do planks I ain't pullin' no stunts, live corn, no blanks When shush got, it was more than bants I had a hood bitch just like Ms Banks, she kept my grub safe, so I gotta give thanks They say I can't mix pleasure with business, but I'll still slip my D through her Mention my name, then you better have fifty Sorry, I hit his habibti D2B, man done it so swiftly You ain't made a .9 bell go so quickly Still livin' life risky T house really got tricky I heard a cat called me by my rap name, imagine, it could've got sticky I just bought dings, bring that burner out, bap, bap, bap, bap, bap Bap Corn woke up all the neighbours, I knew walalo let it ring, no doubt OFB, we just always about, even when them times, we had waps on drought Had his sister all at my mum's bit throwin' it back when she wanted some clout I'm in then I'm out We went from babies straight to men Push me to the end, that's my life on the line tryna' whoosh one of them Oh no, I can't go jail go again, already been there once, but I'll still reoffend Darlin', no need to pretend, when there's no makeup, you still look ten-ten M1OnTheBeat Woo You know, you know Come on then Live Some history stuff in the buildin' right now Feels special, it feels right Feel like the whole of Europe's comin' together right now Someone in the studio said, Mm, I ain't even need them man in the U.S. no more Aight, mad out here And we ain't done yet man M1OnTheBeat Let's run some game on it, Headie Yo I was upsee sofa surfin', now it's two waps, could've bought a Birkin Thought I got a drop, but it weren't him Guess Rev really was reversin' And Oscar hold corn than more than worthy Smoke filled up with bine, press hood of dirty It was three for two-five and four for thirty Now it's chandeliers, my shorts are Burberry Tell me, who wanna hold a gurney? Five blocks squished makes the four-door goin' Free Kash, he was doin' up coleine, now he's fresh home, it's a cause for commotion Both wrist covered in Evian, 'course two smokes in a ride got normal Yeah I ain't tryna' go on a memorial, bro got one in his head, that's protocol You know They run down shh, run down shh All now, we up here, run 'round further Heard them boy from the 9 not score, sound rare, two ones like Timo Werner Twinnin' I see an old friend turn opp, so I'm tryna' allocate to the L like Jürgen And bro just patterned two lockster, make sure he manage them man for certain Everyone wanna link up to a bullyin' man then the links a burden I heard shh-shh linked up for a shoot, the video shoot ended up in curtains These boots expensive, I bought them Louis, Gucci, Burberry Funny how shh went sleep from a boot, it was cheap like one from Dorothy Perkins It's all a façade, why they all tryna' act hard? Before you started in road I was live in the trench when you was just at yard They like, Dezz', how you beat that murder? Say I don't know, so I just gotta thank God Spent twenty-one on my wrist, now these barbies wanna come trouble my bankcard I swear if this .44 bangs off, you're gonna see bells spin around like dandruff I still get assists even though that I'm hands-off Nah, they can't buck bro when he slams off Uh, last time someone got kwenged, where was the intention to blow some bands off? Now this time somethin' gets touched, I'm gonna bring gyal to the nizz with pants off Jail, don't fake, don't fake, I'm up in the club with copper till late Yo, don't bake, no break, I was sat in that T with grub on my plate Uh-du-du, uh-du-du, uh-uh, uh-uh, and I also ate Yeah, come on then Yeah, yeah Ik hoor je, tellie op maan, shh, niet storen Stack die pap, cash lang, net toren Vraag je ams om de location Zet d'r in m'n collection, ze is lost, net Dora Wie's die boy met de drip like Gunna? Wie's die boy in de whip met dollars? Wie's die boy met de, yo Black tracksuit op m'n Air Force ones Bad boy tune, it's a bad boy song Bitch, ik curve, zet mezelf op first Zet shawty last, last, net Stefflon Don Jij denkt nog steeds dat ik rap voor fun Dom, euro's of count in pond, pound Man, this ass is rond, maar je mag niet slaan, want je bent nog jong So far, uno, dos, tres Die Henney maakt een nigga gek, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt Shit, woah, sorry, schat, ik ben gehackt, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt, uh Spenden het minst, maar we maken het meest Vraag je m'n pap, zeg ik zakelijk nee Hebben in je goals, want ze klagen op m'n G's Hoeveel , we praten Ghanees Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor, woah Sheesh, come on then Ayy, how you comin' up in here, do you wanna come on it? Yo, woo X10, sheesh Uh, Mm M1OnTheBeat Let's get it in, let's go, man We in Paris right now Quatro Kom in die ollo, hoef niet te betalen met doekoe, nee, blacka, betaalt met gezicht Die mannen willen me stoppen, m'n goonie net Harry Potter als hij komt met die stick Ben met je bitch, ze geeft top in de whip, ze is net een banaan als je ziet hoe ze split Gooi d'r op adu en adu op no man en daarna op mij, jongen, wat een assist Ik laat die mannetjes zweten, net Zlatan, maak het heet onder voeten, geen satan Money is long en , heb ik grond, in m'n city, ik voel me net Haaland Drip die is koud alsof ik op de maan land Jij kan proberen, weet niet of je aan kan Je mannen beperkt, het is niet eens herfst, maar toch doe je weer als een bla man Jij bent een prater, ik de dader Zoek je beef, kom ik over als slager Die bitch vraagt me of ik kom slapen En ik ben een JJ hoe ik d'r belazer Zakken gaan dik, vroeger waren we mager Suiker met brood en een klein beetje water Voeger waren we mager Suiker met brood en een klein beetje water Come on then, Chivv in the buildin', yeah Ayy, we doin' tings properly now, international takeover stuff That tape's about to drop, you need it in your life M1OnTheBeat Ayy, Dezzie Are you not tryna' do it go after him, bro? Come on then X10 Live, you know the ting already, fired up HL8 Yo At that carnival function, bro spotted him Dropped him, so we all hopped in You should've saw the way that a one chopped him Man cook up this beef, like DSavv try take off his head, pumpkin Out here doin' school bunkin' This G17 had thugs pumpin' Whoosh, gang just done a dumpin' Nah, I don't fistfight like T-N-A, it ain't processed in my DNA Fuck verbal, CBA It's due timin', so we'll meet, one day Yeah, I'm from O'Block, not GDK Said they got big guns, must be GTA Jump out, let it beat, Senseii Don't get yourself shot, like Danny Pressplay Everythin' nice, got me covered in ice Now your hand on my wrist, so your boyfriend Kitchen knife does more than slice, if I take his life, sorry, Jesus Christ Fresh from 'Ville, zim zimma Who took this key for this bruck down bimmer? Slow down, B, gyal way too inner Tell your barbie, just, yo Grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle I said grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle We in Paris right now, charged up Charged up showin' the world what's good, you know Ayy, this one's mad, Beats by Weez, turn, yo Ayy, you're makin' history Let's go on Headie, let's go If we're dead or alive, I'm never tryna' miss another summer They're still two glizzies on a sunna I seen my aunt the other day and she ain't done nothin' for me on the come up Catherine tell me I remind her of my mother She don't know that was enough 'cah in the trenches, no one teach you self love I been out there with two rambos and a puffer Now this Nike one we used to call a bomber We was lookin' up to hustlers, we weren't lookin' up to President Obama Come from nothin' Gettin' power from a shot, wasn't a llama Studied dramas and after school we had to handle dramas Took a chase with me and Brad', we had to hop like fifty gardens Jakes tryna' hunt us down, like Osama Bin Laden I end up incarcerated and I missed three birthdays, wish me happy belated I got my old friends mad at me because I treat my friends like my family Yes, we were related Probation think I'm gang affiliated It's the last one, but I ain't on my last legs I really used to dream that I could be rappin' in past tense 'cah I was on eagle when the mandem was on Partridge Behind bars when everyone went to Bath Fest' And we was doin' burglaries and car thefts listenin' to Giggs when he was talkin' the hardest My pops always said I had a hard head I'm tryna' turn this eight ball of light into naan bread I didn't get to wash my armpits I got body odour trappin' off this Motorola No way I hit this crack fiend if I didn't know her You couldn't catch an oppa, but you caught his older He got done up and he might need an organ donor It's hard to see these old niggas turn to vultures And they ain't comin' back, they like Ole Gunnar Solskjær Whoo, whoo, whoo Whoo Ruthless, ruthless We ain't done yet It feels like a special moment, feels like a moment in time Fire in the Booth in the buildin' Amsterdam, 4011 M1OnTheBeat What you tellin' me, Charlie? Let's go, my guy, yeah It's all about the love and blessings, you done know Big shout out to the Headie One Amsterdam, UK, link up, you get me? Uh, ik zag mannen me voorbij gaan, maar ik had geduld Ik bleef voor effe humble, m'n zakken waren op nul Je vriend heeft niet gestackt, hij geeft corona nu de schuld Maar je kan zoveel meer bereiken als je plannen niet onthuld We moven in silence, het is m'n buit die geluid maakt Als je me niet gunt, moet je niet huilen bij m'n uitvaart Flessen in de club, maar post geen foto's als ik uit ga Gek genoeg geniet ik wanneer m'n telefoon uit staat Maar fattoemannen doen het meest, willen hangen om te zeggen dat ze met je zijn geweest Als ik niet beter wist, dan zou ik zeggen Het zijn gays Maar deze tijd wordt je gecanceld, dus we spelen het op safe Het leven is niet weten, 't is maar hoe je het bekeek Wil je rijden in Ferarri's die money van een Range? Wil je rijden in de Range met die money van een hoopty? Op beiden kan je niet bouwen, want je stopt het niet een steen, dat is roekeloos Woah, en deze tijd moet je niet vragen om te linken, want ik zeg je dat ik kom, maar ik verschijn niet Huh En neem die shit niet te persoonlijk, want je bent een toffe gozer, maar heb simpelweg die tijd niet, 't is blacka Big shout, uh, Fire in the Booth, Chivv Charlie, you get me? My brother My brother them, trust me, it's love And we keep it goin' No borders, we out here We ain't done yet Feels like a real moment out here, man I see what you're doin' Headie, I see what you're doin', my guy And it continues Ayy Yeah, drippar i Louis Vuitton och en Cartier bustdown klocka Drippar i Louis Vuitton och en Cartier bustdown, ayy Lyssna, Stockholm, Sweden, back Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar Gud jag ber dig få mig inte att krocka igen Hon säger hon behöver mina bars, det torka Hur ska en rappare orka? Folk dem ber till Gud Jag ber dig, kan han inte dö eller torska? Jag kukade strapen imorse innan jag ens borsta Studiobanditen han är ingen brådska Lämnade hylsor, säger till polisen och plocka igen, plocka igen Kukmätningar med Glocks, häll i lite koks, där har du en soppa igen Går jag igång i en vers, jag går inte och stoppa igen Scenen är min, jag går upp, jag är hög som fan, jag hör hur dem skriker Det 2022 nu, fuck vad du gjorde 21 för det är gamla meriter Jag rullar en grammis, skit i en gala Rökt tills lungorna sviker Jag håller inte koll på debatter, håll mig utanför politiken Stenarna dansar på klockan som en tonåring på TikTok Ser du hur långt vi har kommit från jobbiga plitar, KV-kläder och flip-flops? Jag och Polismyndigheten har svårt för varann, vi kan aldrig bli sams Hatad av dem som ändå aldrig älskade mig, sånt kliar inte mig nånstans Mitt liv är en film, denna skiten är HD Två superkrafter, AD och HD Namnet på gunnen jag bär den har två T Tro inte jag pratar om Lipton Helgood Rolle, hade lätt kunnat få roller i Simpsons Flexar med pengar i Aldrig vart bunden till någon, jag klarar mig själv så vad vill dem? Hata på mig nu, don't love me later Typ som en häftapparat, I stick to my paper Mig på en feature, ger dig en buzz, men Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar, yeah-yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah No borders, rest in peace, Byn Block, we out here, man Ey Yasin in the buildin' Rinkeby for life Rest in peace Franky, min fucking bror Okay, I see what you man are dealin' with, now, I see what you're dealin' with History in the makin' Yo La mia bitch mi chiede Louis V, Prada, Gucci, ha un ass curvy Dior, Fendi, Celine, Chanel, vuole whip nel mio garage I miei street 247 come beef, come Ghost Rider Quaggiù nessuno è mai salvo, ops, questa è Milano Preghiere son vane, non ti basta un Amen, yo Abbiamo svariate entrate, West sulle collane, yo La mia tasca si fa grande come avessi un tablet, yo Tu vuoi il beef, non mangio carne, specie se è d'infame, yo Rolls-Royce nero, coca in table, cash, no PayPal No more label, nel mio grammo J-Lo, J-Lo Tu fai home run come nel baseball Cabrio, sto con Headie come in WWE Sì, impellicolavo weed, mo firmo sopra i CD Ha, ha, ha, ha Turn Questa merda si fa deep Ho comprato un'auto a mamma Audi Sport e guarda IG Mentre Ago ha fatto un figlio compro a Thiago nuovo drip Questa è west side a Paris, ehi Come on then Come on then Ayy, No Borders, the tape Makin' sure there's no borders to this ting And that right there was a real, legendary moment Fire in the Booth The hottest from the hardest, the hardest from the hottest Doin' tings proper out here, you know what I'm sayin'? Some real legendary stuff History bein' made You ain't ever seen this shit before, No Borders Headie, I see you, my guy, woo Let's go Charlie, deya1</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3196,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>On a des si des flingues et des coups d'mains dur le bon Dieu m'a donné j'ai pas donnéYou might also like1</t>
+          <t>On a des si des flingues et des coups d'mains dur le bon Dieu m'a donné j'ai pas donné1</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3213,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Binks Oh, y'a même Shotas wallah Jconnais la valeur d'la drogue comme j'connais la chambre de ta sur Koba LaD, Seven Binks, revendeur de stups et khabateur On connait les tête-à-tête, les seul coups de poing qui stermine en hagar Le shit c'est rentable, j'ai acheté mes sapes avec l'argent des plaques Eh gamin, si comme moi, tu charbonne pour t'en sortir Viens me voir, qu'on s'arrange, j'te lâche la plaquette à 36 Si tu veux ton argent vite, fait partir le détaille vite Avec le bénéfice du demi, jai fini au demi kil J'ai fait pleuré ta daronne jai taclé à la gorge ton pote Espèce de con, en plus t'as rien dans les poches Avachi côté passager, pénard, fonce-dé devant le volant Lossa roule le dernier teh, j'recompte la liasse en souriant Le charbon c'est mieux que rien, jguette le ient-cli dans l'rouge des yeux Il sait que j'fume d'la frappe, tu veux ton 10 donne le billet rose Koba LaD, Seven Binks Fenzo, Shotas derrière moi Lapince cherche un couteau Flo-cka khabat sous Jack Da' Bienvenue au P.A.L Peu d'amour, beaucoup d'haine Koba du 7, j'ai ta nièce en levrette Y'a dl'a beuh, du bon shit Si tu grattes, j'te bousille Beleck au barrette, si tu casses c'est moins 10 You might also like J'connais la valeur d'la drogue comme je connais la ce-for d'mes gars Koba du Binks Pour de l'argent je découpe et j'emballe J'ai plus de cerveau, trop fumé, faut qu'on maille 2x Avachi en haut du 7 2 heures passé, j'en peux plus j'suis trop die, là j'suis flex Avachi, là j'suis trop die, là j'suis flex 3x</t>
+          <t>Binks Oh, y'a même Shotas wallah Jconnais la valeur d'la drogue comme j'connais la chambre de ta sur Koba LaD, Seven Binks, revendeur de stups et khabateur On connait les tête-à-tête, les seul coups de poing qui stermine en hagar Le shit c'est rentable, j'ai acheté mes sapes avec l'argent des plaques Eh gamin, si comme moi, tu charbonne pour t'en sortir Viens me voir, qu'on s'arrange, j'te lâche la plaquette à 36 Si tu veux ton argent vite, fait partir le détaille vite Avec le bénéfice du demi, jai fini au demi kil J'ai fait pleuré ta daronne jai taclé à la gorge ton pote Espèce de con, en plus t'as rien dans les poches Avachi côté passager, pénard, fonce-dé devant le volant Lossa roule le dernier teh, j'recompte la liasse en souriant Le charbon c'est mieux que rien, jguette le ient-cli dans l'rouge des yeux Il sait que j'fume d'la frappe, tu veux ton 10 donne le billet rose Koba LaD, Seven Binks Fenzo, Shotas derrière moi Lapince cherche un couteau Flo-cka khabat sous Jack Da' Bienvenue au P.A.L Peu d'amour, beaucoup d'haine Koba du 7, j'ai ta nièce en levrette Y'a dl'a beuh, du bon shit Si tu grattes, j'te bousille Beleck au barrette, si tu casses c'est moins 10 J'connais la valeur d'la drogue comme je connais la ce-for d'mes gars Koba du Binks Pour de l'argent je découpe et j'emballe J'ai plus de cerveau, trop fumé, faut qu'on maille 2x Avachi en haut du 7 2 heures passé, j'en peux plus j'suis trop die, là j'suis flex Avachi, là j'suis trop die, là j'suis flex 3x</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3230,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote le big-leu a perdu lil gauche Et sous hachich ou guash, on dit que j'suis pechu On charbonne pour le cash, le plus p'tit gars fait bien les choses Eh salope, enlève tes dents, salope 9 millimètres, toi t'es vert, toi, galope C'est plus pareil, nan, les tits-pe ont grandi Import-export, et dans mon sac, y a dix kil' Quand j'suis solo sur l'terrain, j'repense à toute ma vie, à mes investissements, quand j'vois un ient-cli, bah, j'souris Postiche avec mes khey, et qui vivra verra Faut que le terrain tourne comme celui de Gomorra Dans ma che-po la recette, maint'nant passez, elle est finit la quette' Critical dans la massa, j'ai mon billet pour rejoindre Namek Sous l'effet du cannabis, on va t'niquer ta mère, t'as beau prier La Mecque La bibi ou ta mère, on va t'shooter, en même temps insulter ton père J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote a perdu son il gauche Un coup d'bâton dans l'crane, ton pote a perdu son il gauche J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binksYou might also like</t>
+          <t>J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote le big-leu a perdu lil gauche Et sous hachich ou guash, on dit que j'suis pechu On charbonne pour le cash, le plus p'tit gars fait bien les choses Eh salope, enlève tes dents, salope 9 millimètres, toi t'es vert, toi, galope C'est plus pareil, nan, les tits-pe ont grandi Import-export, et dans mon sac, y a dix kil' Quand j'suis solo sur l'terrain, j'repense à toute ma vie, à mes investissements, quand j'vois un ient-cli, bah, j'souris Postiche avec mes khey, et qui vivra verra Faut que le terrain tourne comme celui de Gomorra Dans ma che-po la recette, maint'nant passez, elle est finit la quette' Critical dans la massa, j'ai mon billet pour rejoindre Namek Sous l'effet du cannabis, on va t'niquer ta mère, t'as beau prier La Mecque La bibi ou ta mère, on va t'shooter, en même temps insulter ton père J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote a perdu son il gauche Un coup d'bâton dans l'crane, ton pote a perdu son il gauche J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'souris à ma vie Ma liasse pour plus vite que mes veu-che A coup dbâton dans l'crâne Ton pote le bigleux a perdu l'oeil gauche Et sur un chichon dpoche, OG kush j'suis té-chou On charbonne pour le cash, le critical fait bien les choses Eh salope, enlève tes dents salope 9mm toi et tes frères galopent C'est plus pareil, non les ti-pe ont grandis Import, export et dans mon sac ya 10 kil Quand j'suis solo sur l'terrain, j'repense à tout ma vie A mes investissement, quand j'vois un iencli ben j'souris Postiche avec mes kheys et qui vivra verra Faut que le terrain tourne comme celui de Gomora Dans ma tion-po la recette, maintenant passez, allez finir la quette Critical dans la massa, jai mon billet pour rejoindre namek Sous l'effet du cannabis on va tniquer ta mère, t'as beau prier La Mecque Là ??? ta mère, on va t'shooter, en même temps insulter ton père Et j'souris à ma vie, ma liasse pousse plus vite que mes veuches x2 Un coup de bâton dans lcrane, ton pote a perdu son oeil gauche x2 J'suis tous les jours dans l'binks x8You might also like</t>
+          <t>J'souris à ma vie Ma liasse pour plus vite que mes veu-che A coup dbâton dans l'crâne Ton pote le bigleux a perdu l'oeil gauche Et sur un chichon dpoche, OG kush j'suis té-chou On charbonne pour le cash, le critical fait bien les choses Eh salope, enlève tes dents salope 9mm toi et tes frères galopent C'est plus pareil, non les ti-pe ont grandis Import, export et dans mon sac ya 10 kil Quand j'suis solo sur l'terrain, j'repense à tout ma vie A mes investissement, quand j'vois un iencli ben j'souris Postiche avec mes kheys et qui vivra verra Faut que le terrain tourne comme celui de Gomora Dans ma tion-po la recette, maintenant passez, allez finir la quette Critical dans la massa, jai mon billet pour rejoindre namek Sous l'effet du cannabis on va tniquer ta mère, t'as beau prier La Mecque Là ??? ta mère, on va t'shooter, en même temps insulter ton père Et j'souris à ma vie, ma liasse pousse plus vite que mes veuches x2 Un coup de bâton dans lcrane, ton pote a perdu son oeil gauche x2 J'suis tous les jours dans l'binks x8</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>La rue a fait d'moi un homme Elle m'a dépucelé étant môme Ce mode de vie inquiète maman Et dans la rue faut qu'au pèses tes mots La rue me ramène du fric, des fois les keuf mais plus souvent du fric Y'a que le travail qui paie, là grâce à Dieu, nique ta mère et ta chance J'ai pas encore percé, j'ai pas encore signé J'vais les démarrer, j'attend juste le bon signal L'buzz monte crescendo pendant qu'ils crachent sur mon dos Mais moi j'm'en bats les yeuc, je fais plus d'argent qu'eux J'ai plusieurs choses à dire, j'suis pas un gars d'la street non c'est moi la street Le thème c'est de prendre l'oseille, moi je veux des tunes pas d'nouveaux amis Et c'est qui qui parle qu'on le tabasse Et à chaque freestyle rien qu'ils s'abaissent Quand j'galère j'ramène des bolosses, et Quand j'détaille j'ramène ma balance Tout c'que j'fumes gros j'le vend, c'est d'la frappe frère t'inquiète J'ai l'taga adéquat, nouveau tampon, nouveau kil' Je suis l'chemin de l'argent, j'ai pas besoin de boussole La frappe de Ketama, bien chée-ca dans l'sous-sol À l'ancienne j'avais pas d'argent, j'volais même des sucettes Ce soir je détaille, j'récupère, et aujourd'hui c'est moi qui gère J'transforme cette dope en thune et j'réinvestis avec Koba LaD, Seven Binks, c'est l'fin du game le freestyle7You might also like</t>
+          <t>La rue a fait d'moi un homme Elle m'a dépucelé étant môme Ce mode de vie inquiète maman Et dans la rue faut qu'au pèses tes mots La rue me ramène du fric, des fois les keuf mais plus souvent du fric Y'a que le travail qui paie, là grâce à Dieu, nique ta mère et ta chance J'ai pas encore percé, j'ai pas encore signé J'vais les démarrer, j'attend juste le bon signal L'buzz monte crescendo pendant qu'ils crachent sur mon dos Mais moi j'm'en bats les yeuc, je fais plus d'argent qu'eux J'ai plusieurs choses à dire, j'suis pas un gars d'la street non c'est moi la street Le thème c'est de prendre l'oseille, moi je veux des tunes pas d'nouveaux amis Et c'est qui qui parle qu'on le tabasse Et à chaque freestyle rien qu'ils s'abaissent Quand j'galère j'ramène des bolosses, et Quand j'détaille j'ramène ma balance Tout c'que j'fumes gros j'le vend, c'est d'la frappe frère t'inquiète J'ai l'taga adéquat, nouveau tampon, nouveau kil' Je suis l'chemin de l'argent, j'ai pas besoin de boussole La frappe de Ketama, bien chée-ca dans l'sous-sol À l'ancienne j'avais pas d'argent, j'volais même des sucettes Ce soir je détaille, j'récupère, et aujourd'hui c'est moi qui gère J'transforme cette dope en thune et j'réinvestis avec Koba LaD, Seven Binks, c'est l'fin du game le freestyle7</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3281,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF J'suis content, l'zinc est sorti d'taule Trop de me-ar dans la piaule Tout en haut dans la boule Ta meuf c'est comme mon teh elle m'colle Mais zin-cou remontes des tonnes Tartine sous éthanol C'qu'on peut faire pour des talles, donc on s'couche tard, on s'lève à l'aube J'suis pas dans les blerni, j'arrive, j'récupère mes talbins et j'me taille vite Quand j'sais pas ta fe-meu, rien qu'elle crit Quand j'fais partir le BM tout l'monde crit Tu connais c'est la BMF, tout en BMF j'ai des sous du merch Toute l'année ça tartine à fond, j'ti-sor une Patek avec le bénéf' Putain d'merde J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse You might also like J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse Quand j'la baise, j'ai un snus dans la bouche 3.8.0 auto la cartouche Toi trimard t'as finis sur la touche, Toi trimard t'as finis sur la touche Peut-être que si ma daronne avait un peu de blé j'aurais pas tenu le sac de push Et cale sur le R, j'ai les sourcils froncés Tu vas payer ton truc si tu l'touches Un peu de beuh-R, un peu de cash J'guette la moitié du benef à que-che T'as d'la chance qu'on est pas à tes trousses, fils de pute on connaît d'jà tes cachettes C'était trop facile pour moi de tourner la page, j'ai des sous, j'ai des meufs, j'ai la pêche Comme la plus part du temps j'suis sous piche Pour les grosses décisions j'appelle Suge J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse</t>
+          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF J'suis content, l'zinc est sorti d'taule Trop de me-ar dans la piaule Tout en haut dans la boule Ta meuf c'est comme mon teh elle m'colle Mais zin-cou remontes des tonnes Tartine sous éthanol C'qu'on peut faire pour des talles, donc on s'couche tard, on s'lève à l'aube J'suis pas dans les blerni, j'arrive, j'récupère mes talbins et j'me taille vite Quand j'sais pas ta fe-meu, rien qu'elle crit Quand j'fais partir le BM tout l'monde crit Tu connais c'est la BMF, tout en BMF j'ai des sous du merch Toute l'année ça tartine à fond, j'ti-sor une Patek avec le bénéf' Putain d'merde J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse Quand j'la baise, j'ai un snus dans la bouche 3.8.0 auto la cartouche Toi trimard t'as finis sur la touche, Toi trimard t'as finis sur la touche Peut-être que si ma daronne avait un peu de blé j'aurais pas tenu le sac de push Et cale sur le R, j'ai les sourcils froncés Tu vas payer ton truc si tu l'touches Un peu de beuh-R, un peu de cash J'guette la moitié du benef à que-che T'as d'la chance qu'on est pas à tes trousses, fils de pute on connaît d'jà tes cachettes C'était trop facile pour moi de tourner la page, j'ai des sous, j'ai des meufs, j'ai la pêche Comme la plus part du temps j'suis sous piche Pour les grosses décisions j'appelle Suge J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3298,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF Que des remontés en 2-2 Personne petav mais ça pue la beuh J'la baise tout seul elle croit qu'on est 3 J'l'ai terminé à 4 pattes J'viens pas à 5, j'en ai mis 6 ? J'investis 15 pour l'camembert De mon putain de Glock 17 Wesh moi J'suis plus dans ces bêtises Mais j'suis le best de toutes ces pétasses Millionaire mais tu connais j'stresse vite J stresse vite quand y'a la passad J'l'ai trop baisé j'en ai marre d'cette meuf Donc j'ai fait la passe à mon p'tit reuf J'ai rayé la jante et la rolex C'est pas ma faute j'étais défoncé You might also like J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire Expert comptable gère toutes les finances Le contrôle, laisse entrer les dépenses Il m'a déconseillé d'me fillance' Il m'a déconseillé d'me fillance' J'arrive en retard à ? Des fois c'est j'ai mes cheveux devant mes yeux J'ai toujours refusé la gamelle Apres mon tacos j'vais manger un snickers J'aime trop quand tu toques tu bouges tes fesses J'aime trop quand tu toques tu bouges tes fesses La coquine elle veut que ma be-teu J'vais la laisser croire que j'suis teubé Elle a arrêté de s' ? ? ? va dire à la surveillante J'vais la baiser si elle remontre ses fesses J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire</t>
+          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF Que des remontés en 2-2 Personne petav mais ça pue la beuh J'la baise tout seul elle croit qu'on est 3 J'l'ai terminé à 4 pattes J'viens pas à 5, j'en ai mis 6 ? J'investis 15 pour l'camembert De mon putain de Glock 17 Wesh moi J'suis plus dans ces bêtises Mais j'suis le best de toutes ces pétasses Millionaire mais tu connais j'stresse vite J stresse vite quand y'a la passad J'l'ai trop baisé j'en ai marre d'cette meuf Donc j'ai fait la passe à mon p'tit reuf J'ai rayé la jante et la rolex C'est pas ma faute j'étais défoncé J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire Expert comptable gère toutes les finances Le contrôle, laisse entrer les dépenses Il m'a déconseillé d'me fillance' Il m'a déconseillé d'me fillance' J'arrive en retard à ? Des fois c'est j'ai mes cheveux devant mes yeux J'ai toujours refusé la gamelle Apres mon tacos j'vais manger un snickers J'aime trop quand tu toques tu bouges tes fesses J'aime trop quand tu toques tu bouges tes fesses La coquine elle veut que ma be-teu J'vais la laisser croire que j'suis teubé Elle a arrêté de s' ? ? ? va dire à la surveillante J'vais la baiser si elle remontre ses fesses J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3315,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Taylor 'bout to fucking flex C'est nous la rue, la vraie, j'suis en avance ou bien à l'heure Souvent les plus blindés, c'est ceux qui en ont pas l'air Et puis j'ai remarqué que mes ex deviennent tous des catins Elles se mettent tous à 4 pattes en pensant Mais j'suis occupé à faire du biff-e, même si c'est moi le fardeau de la miff' Et dans la vie, faut que tu te méfies des poètes, des raconteurs de fables des comédiens Faut qu'tu saches mon ami, que pour sauver l'honneur faut qu'j'le fasse J'aime quand elle bouge ses grosses fesses, quand elle continue à m'sucer même quand j'crache Faites attention, mes démons s'agitent, faut déconseiller aux personnes âgées Nous, c'est ta p'tite sur qu'on fait rougir pendant que toi et ton équipe, vous faites rager eh J'suis dans l'bolide teinté, garé au fond d'l'allée, mec Attends, j'finis d'rouler et on reprend la route, frère Je n'ai pas fini d'vous faire baver et dans mon couplet zéro bavures Et pour c'plavon, j'prévois mon baveux J'veux pas ber-tom, la liberté, c'est trop bavon Et j'suis toujours dans le même binks, mes reufs je les aime, cela va d'soi Jamais je vais retourner ma veste et j'avance avec les mêmes depuis l'bac à sable ba- bye bacYou might also like</t>
+          <t>Taylor 'bout to fucking flex C'est nous la rue, la vraie, j'suis en avance ou bien à l'heure Souvent les plus blindés, c'est ceux qui en ont pas l'air Et puis j'ai remarqué que mes ex deviennent tous des catins Elles se mettent tous à 4 pattes en pensant Mais j'suis occupé à faire du biff-e, même si c'est moi le fardeau de la miff' Et dans la vie, faut que tu te méfies des poètes, des raconteurs de fables des comédiens Faut qu'tu saches mon ami, que pour sauver l'honneur faut qu'j'le fasse J'aime quand elle bouge ses grosses fesses, quand elle continue à m'sucer même quand j'crache Faites attention, mes démons s'agitent, faut déconseiller aux personnes âgées Nous, c'est ta p'tite sur qu'on fait rougir pendant que toi et ton équipe, vous faites rager eh J'suis dans l'bolide teinté, garé au fond d'l'allée, mec Attends, j'finis d'rouler et on reprend la route, frère Je n'ai pas fini d'vous faire baver et dans mon couplet zéro bavures Et pour c'plavon, j'prévois mon baveux J'veux pas ber-tom, la liberté, c'est trop bavon Et j'suis toujours dans le même binks, mes reufs je les aime, cela va d'soi Jamais je vais retourner ma veste et j'avance avec les mêmes depuis l'bac à sable ba- bye bac</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3332,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Couvre Feu ! We Voicetags Mwaka Flex ,Flex fait nous Flex -- Le 7 Le 7 Le 7 We We ya Haja t'inquiéte on est la La concurrence c'est de l'eau Sur le feu on rajoute de l'huile Et dans ton équipe vous manquez de lait J'ai pas percer Jsui dans le bando Des barettes et des claquettes Qu'est du croyais Jsui pas parti Et pour le re-gué Sache qu'on est partant Ya dop ya meme dixon AK dans la tchop pas besoin d'tre a douze Jai verser mon taga qui fait la diff Et si t'en met trop la fumer t'étouffer Faut pas venir déranger Nos affaires Ici on va te montrer que t'est pas fort Et les médias en raffole Ils savent que c'est moi le chouchou de la foule You might also like......... Et plus rien nous canalisent Moi je veux pas d'amis Jveux que de la money -- Eh t'entend pas ou quoi On a dis couvre feu</t>
+          <t>Couvre Feu ! We Voicetags Mwaka Flex ,Flex fait nous Flex -- Le 7 Le 7 Le 7 We We ya Haja t'inquiéte on est la La concurrence c'est de l'eau Sur le feu on rajoute de l'huile Et dans ton équipe vous manquez de lait J'ai pas percer Jsui dans le bando Des barettes et des claquettes Qu'est du croyais Jsui pas parti Et pour le re-gué Sache qu'on est partant Ya dop ya meme dixon AK dans la tchop pas besoin d'tre a douze Jai verser mon taga qui fait la diff Et si t'en met trop la fumer t'étouffer Faut pas venir déranger Nos affaires Ici on va te montrer que t'est pas fort Et les médias en raffole Ils savent que c'est moi le chouchou de la foule ......... Et plus rien nous canalisent Moi je veux pas d'amis Jveux que de la money -- Eh t'entend pas ou quoi On a dis couvre feu</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3349,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>J'suis dans l'pilon, la selha, la beugeu Sinon c'est ta sur que j'aurais fais tapiner Avant de faire partir en gros, j'ai saigné le rainté Les temps pleins portent malchance , j'me suis trop fait pété Mais le point de vente a tourné , j'suis devenu le gérant enculé Les potes à mon p'tit Reuf, on bossé, re bossé Tien 70 pour la journée J'faisais d'rentrer bien avant d'rapper Viens pas t'faire de dessin, faut que tu descende Tu te dessape desserre ton string J'veux que tu m'suce sans les dents, J'veux pas être déçu Y'a ma baves et mon sperm qui coule sur tes seins J'ai pris mes distances, il me déteste tous Mon buzz atise, rien d'autre que la haine Il envie ma réussite du dix au disque Et que maintenant je parle en somme à 6chiffre Dans l'fond du tiek's, en haut du 7 Entrain de recompter l'argent de la semaine, en attendant que le peura paie Suge fait bosser la puce de zipette Un flow intacte, tout droit de Namek C'est ce que les extraterrestre détecte Et comme j'ai capté la tactique tôt, j'ai placé le tipeu en haut du toit du SevenBinks Et j'suis dans l'bink's, j'roule un autre binger Et cette fois ci, j'met plus de taga dans la Massa L'argent rend bête, et tout mon avenir dans une bague Mon boumara m'as dit que dans peu de temps je serais la tête Toujours implique dans mon four l'argent on l'as fait, et on saura l'refaire C'est le manque d'argent qui nous rendent fou Et y'a que les keuf qui arrive à nous faire fuir Et dans les teuk, on fait pas de faute Tout le jour de paye, on te feras ta fête Ce qui ne te tue pas te rend plus fort J'ai des blessure de guerre, mon entourage est fier Et j'suis dans l'bail, et j'ravitaille et ravitaille et ravitaille et ravitaille Koba la D mec, et tout la concu à la traîne Le but c'est de multiplier l'benef plus de 3 fois Fait moi confiance, calcul pas les gens La rue n'aime pas que tu parle, préfère quand t'agis mec Faut des conseils au personnes agées, j'suis fonc-dé dans l'fer, t'en ouvre en dernière gente Si tu nous cherche tu viens en face, j'suis en concert, j'suis dans la fosse On se déplace pour le bénéfice, et quand sa vaut le coup pour sa paire de fesse Ah ba-ban-bang You might also like Du biff du biff du biff, avant d'en avoir La vie m'as mis des baffes Ma montrer que les plus grand bluff Et que la plus part, se faisait des couilles par des pouff Avant d'parler d'la rue, faut y être Gérer la pression, calmer la boule au ventre Avoir des principes des valeurs enculé Et ne pas laissé tomber à terre t'es couilles Ils ont plus rien à dire, j'ai déjà tout dis Ici c'est il pour il et dents pour dents Et maintenant c'est moi l'chouchou ta racli Le reste de la concu, entre paranthese J'ai ramener le bat 7, jusqu'à Namek Y'a une barrette pour chacun Koba la D morse ou miel, et tire toutes les petasse à la fin de la teuf Kob'z, kiff sossa, des sous et moin de soucis Showcawe, Sacem, et moin de sous sale Et le soir je m'endors de moin en moin seul Et regarde tout ces biglass, pourtant J'visser peu trop de boloss Le 6.35 est chargé, pd, stuveu ramene tes grand frère C'est trop facile d'écrire, j'dead ça avec du cran Elle croit que j'm'attache, si j'trouve un autre gros cul Et bah j'la tej, en vrai j'm'en fou d'ces putes Moi j'suis precé, d'finir cette recharge On a pas le même train de vie, on bicrave Et c'est pauvre con s'bicrave - Train de Vie J'me rappelle j'avais rien, j'traînais tous les jours dans l'bât 7 J'enchaînais joint sur joint, quand j'étais chaud j'allais voler En cours j'étais plutôt violent, en aucun cas j'me laissais faire J'avais toujours c'qu'il faut, souvent apprécié par toutes les filles Matrixé par The Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi, pour qu'il me pousse du shit Il m'a dit fais partir, ramène vingt-six et garde le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Et regarde j'ai tout compris J'ai grandi, j'ai appris, que faire du bénéfice, coffrer nan c'est pas si facile Tout l'temps ma mère me répète de faire attention à mes potes La plupart c'est des putes quand ils pourront ils t'la mettront dans l'cul Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye J'suis passé d'plaquettes aux kilos, police va t'faire enculer Si tu t'soucies du regard des gens, tu vas jamais y arriver En peu d'temps j'leur ai tré-mon Et regarde ma nouvelle montre C'est à mon buzz qu'elle s'agrippe Cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Du bénéf' beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça des sapes toutes neuves Plus de boloss, plus de billets Plus de billets, plus de gue-dro En plus de ça c'est que d'la pefra, guette ça les attire tous Et finir ici personne balance Breva sur mon joint, mes gants Pas d'flaque donc pas d'empreintes Et pas d'empreintes donc pas de preuves Moi plus rien ne m'étonne Et plus rien n'peut m'atteindre Compte pas sur moi pour t'attendre Si je t'attends j'vais perdre d'l'argent Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye</t>
+          <t>J'suis dans l'pilon, la selha, la beugeu Sinon c'est ta sur que j'aurais fais tapiner Avant de faire partir en gros, j'ai saigné le rainté Les temps pleins portent malchance , j'me suis trop fait pété Mais le point de vente a tourné , j'suis devenu le gérant enculé Les potes à mon p'tit Reuf, on bossé, re bossé Tien 70 pour la journée J'faisais d'rentrer bien avant d'rapper Viens pas t'faire de dessin, faut que tu descende Tu te dessape desserre ton string J'veux que tu m'suce sans les dents, J'veux pas être déçu Y'a ma baves et mon sperm qui coule sur tes seins J'ai pris mes distances, il me déteste tous Mon buzz atise, rien d'autre que la haine Il envie ma réussite du dix au disque Et que maintenant je parle en somme à 6chiffre Dans l'fond du tiek's, en haut du 7 Entrain de recompter l'argent de la semaine, en attendant que le peura paie Suge fait bosser la puce de zipette Un flow intacte, tout droit de Namek C'est ce que les extraterrestre détecte Et comme j'ai capté la tactique tôt, j'ai placé le tipeu en haut du toit du SevenBinks Et j'suis dans l'bink's, j'roule un autre binger Et cette fois ci, j'met plus de taga dans la Massa L'argent rend bête, et tout mon avenir dans une bague Mon boumara m'as dit que dans peu de temps je serais la tête Toujours implique dans mon four l'argent on l'as fait, et on saura l'refaire C'est le manque d'argent qui nous rendent fou Et y'a que les keuf qui arrive à nous faire fuir Et dans les teuk, on fait pas de faute Tout le jour de paye, on te feras ta fête Ce qui ne te tue pas te rend plus fort J'ai des blessure de guerre, mon entourage est fier Et j'suis dans l'bail, et j'ravitaille et ravitaille et ravitaille et ravitaille Koba la D mec, et tout la concu à la traîne Le but c'est de multiplier l'benef plus de 3 fois Fait moi confiance, calcul pas les gens La rue n'aime pas que tu parle, préfère quand t'agis mec Faut des conseils au personnes agées, j'suis fonc-dé dans l'fer, t'en ouvre en dernière gente Si tu nous cherche tu viens en face, j'suis en concert, j'suis dans la fosse On se déplace pour le bénéfice, et quand sa vaut le coup pour sa paire de fesse Ah ba-ban-bang Du biff du biff du biff, avant d'en avoir La vie m'as mis des baffes Ma montrer que les plus grand bluff Et que la plus part, se faisait des couilles par des pouff Avant d'parler d'la rue, faut y être Gérer la pression, calmer la boule au ventre Avoir des principes des valeurs enculé Et ne pas laissé tomber à terre t'es couilles Ils ont plus rien à dire, j'ai déjà tout dis Ici c'est il pour il et dents pour dents Et maintenant c'est moi l'chouchou ta racli Le reste de la concu, entre paranthese J'ai ramener le bat 7, jusqu'à Namek Y'a une barrette pour chacun Koba la D morse ou miel, et tire toutes les petasse à la fin de la teuf Kob'z, kiff sossa, des sous et moin de soucis Showcawe, Sacem, et moin de sous sale Et le soir je m'endors de moin en moin seul Et regarde tout ces biglass, pourtant J'visser peu trop de boloss Le 6.35 est chargé, pd, stuveu ramene tes grand frère C'est trop facile d'écrire, j'dead ça avec du cran Elle croit que j'm'attache, si j'trouve un autre gros cul Et bah j'la tej, en vrai j'm'en fou d'ces putes Moi j'suis precé, d'finir cette recharge On a pas le même train de vie, on bicrave Et c'est pauvre con s'bicrave - Train de Vie J'me rappelle j'avais rien, j'traînais tous les jours dans l'bât 7 J'enchaînais joint sur joint, quand j'étais chaud j'allais voler En cours j'étais plutôt violent, en aucun cas j'me laissais faire J'avais toujours c'qu'il faut, souvent apprécié par toutes les filles Matrixé par The Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi, pour qu'il me pousse du shit Il m'a dit fais partir, ramène vingt-six et garde le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Et regarde j'ai tout compris J'ai grandi, j'ai appris, que faire du bénéfice, coffrer nan c'est pas si facile Tout l'temps ma mère me répète de faire attention à mes potes La plupart c'est des putes quand ils pourront ils t'la mettront dans l'cul Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye J'suis passé d'plaquettes aux kilos, police va t'faire enculer Si tu t'soucies du regard des gens, tu vas jamais y arriver En peu d'temps j'leur ai tré-mon Et regarde ma nouvelle montre C'est à mon buzz qu'elle s'agrippe Cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Du bénéf' beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça des sapes toutes neuves Plus de boloss, plus de billets Plus de billets, plus de gue-dro En plus de ça c'est que d'la pefra, guette ça les attire tous Et finir ici personne balance Breva sur mon joint, mes gants Pas d'flaque donc pas d'empreintes Et pas d'empreintes donc pas de preuves Moi plus rien ne m'étonne Et plus rien n'peut m'atteindre Compte pas sur moi pour t'attendre Si je t'attends j'vais perdre d'l'argent Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3366,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hum Ouh Layte Beats J'ai la SACEM qui tombe Hun, hun J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Vers chez nous, c'est rare les refus, la première preuve toutes les références Fuck les fédéraux, là, j'suis au bar avec El Jefe Aucun regret, si on doit l'refaire, on l'refait Grosse caisse comme le président, j'ai de quoi faire baver les envieux T'as pas d'coffret, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le shit à vendre P'tit pédé, reste concentré, tu va nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde qu'j'ai dû péter Eh, j'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex m'dit de les éviter, qu'on prendra d'la valeur au fil du temps Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter, qu'on prendra d'la valeur au fil du temps You might also like J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Ma Rolex me dit qu'on prendra d'la valeur au fil du temps</t>
+          <t>Hum Ouh Layte Beats J'ai la SACEM qui tombe Hun, hun J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Vers chez nous, c'est rare les refus, la première preuve toutes les références Fuck les fédéraux, là, j'suis au bar avec El Jefe Aucun regret, si on doit l'refaire, on l'refait Grosse caisse comme le président, j'ai de quoi faire baver les envieux T'as pas d'coffret, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le shit à vendre P'tit pédé, reste concentré, tu va nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde qu'j'ai dû péter Eh, j'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex m'dit de les éviter, qu'on prendra d'la valeur au fil du temps Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter, qu'on prendra d'la valeur au fil du temps J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Ma Rolex me dit qu'on prendra d'la valeur au fil du temps</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3400,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cartier Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran À midi tapante, faut être sûr l'terrain ou sinon, on saute ton tour Les pochtons gé-char, ah mon gars, t'as peur Peur, faut qu'le rrain-te tourne, donc faut tout faire pour Pour Tout faire pour Pour, premier boom, l'p'tit les renvoyais rabattre dans toute la ville La ville Midi-minuit Minuit, midi-minuit Minuit, j'suis tout l'temps dehors comme les rats d'la ville J'baises trop depuis qu'j'ai l'permis J'ai l'permis, j'suis dans l'S3 ABT ABT, ABT, ABT, ma voiture va plus vite que celle de Batman De Batman Elle m'parles de patin, me parles de s'poser De s'poser, de base, moi, je voulais que la baiser De la baiser, de la baiser, de la baiser Mais maintenant, sa fille m'appelles Mon papa Mon papa Bon vendeur, dans les comptes, j'utilises bloc-notes, pour ça, j'ai les chiffres de c'que tu m'dois net Hier, au gris, j'parlais avec un mec Un mec qui a tombé pour plus d'une tonne Tu peux pas calmer ma faim, j'suis assoiffé d'thunes, j'suis avec dealers qui parlent en mètres Mais au moins, j'peux dire à ma mère qu'j'suis une star du net Net À la cité, à la cool, jus d'pomme et gros, deux pots d'beuh à la main À la main Survêt' et paire de TN, t'inquiète, y a le double platine chez moi Chez moi C'est moi, le p'tit renoi C'est moi d'la tess qui fait du bruit avec sa voiture Vroum, vroum, vroum La Cigale, l'Olympia, c'est pour les p'tits bites Les p'tites bites, j'suis en train d'boucler la tournée dès cette nuit Faut venir le voir pour qu'tu puisses me croire sinon, tu vas m'prendre pour un gros menteur Y a mon reuf masqué Masqué, ça fait dix ans qu'il tourne, sa mère, mon sin-c' dans des histoires de meurtres On se plaint pas, nous, on se dit qu'y a toujours pire et quoi qu'il arrive, c'est la vie C'est pas toujours facile Eh, y a les pénuries d'shit Eh, en hiver, les descentes surprises Aïe, aïe, aïe You might also like Concert, après, showcase, j'peux pas dormir, demain, j'voyage Putain, tu vas prendre une que-cla si tu t'endors sur le terrain On est cramé par les baqueux, j'vois les sirènes, j'mets le mode S Et j'mets le mode S, j'mets le mode S, vas-y, venez bande de bâtards Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs C'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé</t>
+          <t>Cartier Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran À midi tapante, faut être sûr l'terrain ou sinon, on saute ton tour Les pochtons gé-char, ah mon gars, t'as peur Peur, faut qu'le rrain-te tourne, donc faut tout faire pour Pour Tout faire pour Pour, premier boom, l'p'tit les renvoyais rabattre dans toute la ville La ville Midi-minuit Minuit, midi-minuit Minuit, j'suis tout l'temps dehors comme les rats d'la ville J'baises trop depuis qu'j'ai l'permis J'ai l'permis, j'suis dans l'S3 ABT ABT, ABT, ABT, ma voiture va plus vite que celle de Batman De Batman Elle m'parles de patin, me parles de s'poser De s'poser, de base, moi, je voulais que la baiser De la baiser, de la baiser, de la baiser Mais maintenant, sa fille m'appelles Mon papa Mon papa Bon vendeur, dans les comptes, j'utilises bloc-notes, pour ça, j'ai les chiffres de c'que tu m'dois net Hier, au gris, j'parlais avec un mec Un mec qui a tombé pour plus d'une tonne Tu peux pas calmer ma faim, j'suis assoiffé d'thunes, j'suis avec dealers qui parlent en mètres Mais au moins, j'peux dire à ma mère qu'j'suis une star du net Net À la cité, à la cool, jus d'pomme et gros, deux pots d'beuh à la main À la main Survêt' et paire de TN, t'inquiète, y a le double platine chez moi Chez moi C'est moi, le p'tit renoi C'est moi d'la tess qui fait du bruit avec sa voiture Vroum, vroum, vroum La Cigale, l'Olympia, c'est pour les p'tits bites Les p'tites bites, j'suis en train d'boucler la tournée dès cette nuit Faut venir le voir pour qu'tu puisses me croire sinon, tu vas m'prendre pour un gros menteur Y a mon reuf masqué Masqué, ça fait dix ans qu'il tourne, sa mère, mon sin-c' dans des histoires de meurtres On se plaint pas, nous, on se dit qu'y a toujours pire et quoi qu'il arrive, c'est la vie C'est pas toujours facile Eh, y a les pénuries d'shit Eh, en hiver, les descentes surprises Aïe, aïe, aïe Concert, après, showcase, j'peux pas dormir, demain, j'voyage Putain, tu vas prendre une que-cla si tu t'endors sur le terrain On est cramé par les baqueux, j'vois les sirènes, j'mets le mode S Et j'mets le mode S, j'mets le mode S, vas-y, venez bande de bâtards Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs C'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3417,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Layte Beats Oh-oh Le terrain ouvre, bats les couilles, qu'c'est miné C'est miné, j'fais les livraisons après minuit Minuit Trois points par jour, milles euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Qu'on a tenu Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros Même ma nièce, elle s'ennuie Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros Okay, okay J'récupère les sous, j'ai d'jà la feuille d compte, si le R coule, j'ai d'jà prcé dans tous les cas Tous les cas Le mal dans tous, dans tous les recoins, y a pas d'bagailles Hey, j'ai tout guetté pour le terrain Hey Frère, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres Deux beugeuh, deux beuh différentes, prends pas celle-là, crois-moi que la meilleure, c'est l'autre C'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon Hum, mes thunes et l'odeur d'ma beuh Hum Fais-que, j'peux baiser qui j'veux mais non Hum, c'est mort Hum, ces folles, elles sont toutes rrées-bou Hum J'suis sur l'terrain, j'me suis pas forcé, c'est un choix que j'ai décidé d'faire tout seul De faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore Encore, entre nous, un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste Faut que j'résiste Tout près d'moi, j'garde mon oseille et la mi-ff Tout est fignoler, tout est peaufiner, même la dep' a du mal à nous filoche Tout est posé, tout est compter, la pression du stade quand j'tiens la sacoche Appelle mon sin-c' au cas où ils m'pètent et sur l'terrain, dépendant du PU Tout est fignoler, tout est peaufiner, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner Tout est fignoler, tout est peaufiner Hum, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufinerYou might also like1</t>
+          <t>Layte Beats Oh-oh Le terrain ouvre, bats les couilles, qu'c'est miné C'est miné, j'fais les livraisons après minuit Minuit Trois points par jour, milles euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Qu'on a tenu Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros Même ma nièce, elle s'ennuie Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros Okay, okay J'récupère les sous, j'ai d'jà la feuille d compte, si le R coule, j'ai d'jà prcé dans tous les cas Tous les cas Le mal dans tous, dans tous les recoins, y a pas d'bagailles Hey, j'ai tout guetté pour le terrain Hey Frère, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres Deux beugeuh, deux beuh différentes, prends pas celle-là, crois-moi que la meilleure, c'est l'autre C'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon Hum, mes thunes et l'odeur d'ma beuh Hum Fais-que, j'peux baiser qui j'veux mais non Hum, c'est mort Hum, ces folles, elles sont toutes rrées-bou Hum J'suis sur l'terrain, j'me suis pas forcé, c'est un choix que j'ai décidé d'faire tout seul De faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore Encore, entre nous, un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste Faut que j'résiste Tout près d'moi, j'garde mon oseille et la mi-ff Tout est fignoler, tout est peaufiner, même la dep' a du mal à nous filoche Tout est posé, tout est compter, la pression du stade quand j'tiens la sacoche Appelle mon sin-c' au cas où ils m'pètent et sur l'terrain, dépendant du PU Tout est fignoler, tout est peaufiner, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner Tout est fignoler, tout est peaufiner Hum, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner1</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3434,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Sku, sku, et tu peux m'trouver dans l'fond du binks Ou dans la schnek à ta nièce et tu veux même voir ma tête sur Deezer Ils font pas tout c'qui disent, y'a les 22 à dix heues Cinq cents euros, sur cent grammes et petit, prends-en d'la graine Hé, police, on t'encule, des big liasses et des kilos Pas d'remords, j'ai plus d'cur, peu m'importe tant qu'le liquide coule Et pour qu'le liquide coule, il faut qu'la bonbonne, tu la cales Sois sérieux, fais pas l'con, ne lui donne pas n'importe laquelle Et beaucoup maudit sur ma vie, depuis, je vis plus la même vie qu'avant Ramasser, ramasser, c'est toute ma vie mais cette pute pense qu'à me faire des morveux Démarre vite, on détaille, on recharge vite et je les rattrape tous à vive allure Et maint'nant, c'est Koba qui vous donne l'heure, balade dans la street la bite à l'air Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout You might also like Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Koba du 7, numéro uno, c'est moi qui fait la une, le préféré des internautes Mon buzz attise la haine et j'garde la tête sur les épaules Et gros, oublie pas d'où tu viens ou tu t'mettras les tiens à dos Ici, c'est tout ou rien, j'gratte partout comme un rat Y a pas d'pause, pas d'arrêt, y a pas d'triche, pas d'faute, pas d'arbitre On bannit les poucaves, tous ceux qui parlent aux keufs Y a ceux qu'acceptent la crise et d'autres qui font sauter ton compte Et j'vis-ser pour ves-qui la hess Et l'bénef', on grossira donc dix pièces de frappe pour qu'j'fasse le taff' Et c'est ici, la rue, la vraie et c'est ici la rue la vrai Et j'recompte avant d'partir, et j're-recompte posé dans l'bat' Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule</t>
+          <t>Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Sku, sku, et tu peux m'trouver dans l'fond du binks Ou dans la schnek à ta nièce et tu veux même voir ma tête sur Deezer Ils font pas tout c'qui disent, y'a les 22 à dix heues Cinq cents euros, sur cent grammes et petit, prends-en d'la graine Hé, police, on t'encule, des big liasses et des kilos Pas d'remords, j'ai plus d'cur, peu m'importe tant qu'le liquide coule Et pour qu'le liquide coule, il faut qu'la bonbonne, tu la cales Sois sérieux, fais pas l'con, ne lui donne pas n'importe laquelle Et beaucoup maudit sur ma vie, depuis, je vis plus la même vie qu'avant Ramasser, ramasser, c'est toute ma vie mais cette pute pense qu'à me faire des morveux Démarre vite, on détaille, on recharge vite et je les rattrape tous à vive allure Et maint'nant, c'est Koba qui vous donne l'heure, balade dans la street la bite à l'air Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Koba du 7, numéro uno, c'est moi qui fait la une, le préféré des internautes Mon buzz attise la haine et j'garde la tête sur les épaules Et gros, oublie pas d'où tu viens ou tu t'mettras les tiens à dos Ici, c'est tout ou rien, j'gratte partout comme un rat Y a pas d'pause, pas d'arrêt, y a pas d'triche, pas d'faute, pas d'arbitre On bannit les poucaves, tous ceux qui parlent aux keufs Y a ceux qu'acceptent la crise et d'autres qui font sauter ton compte Et j'vis-ser pour ves-qui la hess Et l'bénef', on grossira donc dix pièces de frappe pour qu'j'fasse le taff' Et c'est ici, la rue, la vraie et c'est ici la rue la vrai Et j'recompte avant d'partir, et j're-recompte posé dans l'bat' Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3468,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A-A Ouh On m'fait des fucks puis, des coucous, elle pense que j'suis son doudou Ouh A-A Elle veut m'ralentir, elle fait tout pour Ouh AWA the mafia, my nigga! Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer J'arrive dans une caisse sombre, bre-som, j'fais l'même travail que Trey Songz Oh-oh, j'laisse ça, j'touche plus ça, j'essaie d'fuir mes addictions Oh-oh Toujours dans mes calculs, addition et soustraction et merde alors, j'crois qu'Iblis veut nuir mes ambitions Aye, aye, aye, aye Test, vas-y, essayes, la BMF va t'chopper, pressé mais précis, j'découpe la S en chap-chap Aye, aye, aye, aye J'garde ma peine pour moi mais quelques fois, ça m'échappe, j'garde ma peine pour moi mais quelques fois, ça m'échappe J'viens d'régler un problème, j'me remets dans une galère Dans la merde, j'retiens jamais la leçon, j'refais tous les jours pareil Toujours pareil J'te nique ta mère avec du style, grosse balayette laser, j'viens d'niquer ma paire d'LV Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer, skrt Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet, skrt Le goudron nique ma santé Sa mère et la peine me nique ma santé Ça fait longtemps qu'on s'fait la guerre et on sait même plus pourquoi, pourtant, de base, c'était Kob'z, wesh, bien ou quoi ? J'me roule un putain d'joint et j'lui dit Fume avec moi, elle veut pas, elle veut d'la C et un paquet d'Philip Mo' Ouais, t'inquiètes, c'est gratuit, tu payes avec ton âme, ouais, tête dur, il a dealé, volé mais à cause d'une dame Babe, ouais, à cause d'un tard-pé, il a perdu sa tête, déçu, blessé, il fait des pompes solo sur le synthé' You might also like Et p't-être que c'est que dans ma tête que je n'suis pas fais pour quelqu'un J'pull up dans ta té-c' et j'espère que j'ratte les enfants Laissez-moi, j'veux remplir la caisse J'mets une cagoule car j'suis quelqu'un, j'te nique avec du style, tâche de sang sur ma Requin Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet Le goudron nique ma santé Sa mère et la peine me nique ma santé Ouh, ouh On m'fait des fucks puis des coucous, elle pense que j'suis son doudou Ouh Elle veut m'ralentir, elle fait tout pour Ouh, ah</t>
+          <t>A-A Ouh On m'fait des fucks puis, des coucous, elle pense que j'suis son doudou Ouh A-A Elle veut m'ralentir, elle fait tout pour Ouh AWA the mafia, my nigga! Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer J'arrive dans une caisse sombre, bre-som, j'fais l'même travail que Trey Songz Oh-oh, j'laisse ça, j'touche plus ça, j'essaie d'fuir mes addictions Oh-oh Toujours dans mes calculs, addition et soustraction et merde alors, j'crois qu'Iblis veut nuir mes ambitions Aye, aye, aye, aye Test, vas-y, essayes, la BMF va t'chopper, pressé mais précis, j'découpe la S en chap-chap Aye, aye, aye, aye J'garde ma peine pour moi mais quelques fois, ça m'échappe, j'garde ma peine pour moi mais quelques fois, ça m'échappe J'viens d'régler un problème, j'me remets dans une galère Dans la merde, j'retiens jamais la leçon, j'refais tous les jours pareil Toujours pareil J'te nique ta mère avec du style, grosse balayette laser, j'viens d'niquer ma paire d'LV Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer, skrt Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet, skrt Le goudron nique ma santé Sa mère et la peine me nique ma santé Ça fait longtemps qu'on s'fait la guerre et on sait même plus pourquoi, pourtant, de base, c'était Kob'z, wesh, bien ou quoi ? J'me roule un putain d'joint et j'lui dit Fume avec moi, elle veut pas, elle veut d'la C et un paquet d'Philip Mo' Ouais, t'inquiètes, c'est gratuit, tu payes avec ton âme, ouais, tête dur, il a dealé, volé mais à cause d'une dame Babe, ouais, à cause d'un tard-pé, il a perdu sa tête, déçu, blessé, il fait des pompes solo sur le synthé' Et p't-être que c'est que dans ma tête que je n'suis pas fais pour quelqu'un J'pull up dans ta té-c' et j'espère que j'ratte les enfants Laissez-moi, j'veux remplir la caisse J'mets une cagoule car j'suis quelqu'un, j'te nique avec du style, tâche de sang sur ma Requin Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet Le goudron nique ma santé Sa mère et la peine me nique ma santé Ouh, ouh On m'fait des fucks puis des coucous, elle pense que j'suis son doudou Ouh Elle veut m'ralentir, elle fait tout pour Ouh, ah</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3485,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais You might also like À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
+          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3502,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Premier du binks, boy Hey Cartel volume 2, Koba À tout moment, gros, ça peut péter Ah, ah, ah J'voulais acheter un Fe-Fe mais dans la ne-zo, y a trop d'jaloux J'veux sortir mon flingue mais y a trop de gens, faut que j'jauge Avec mes putes, je jongle, c'est la loi d'la jungle Ils m'connaissent pas mais ces gros bâtards, rien qu'ils m'jugent Faut que j'réponde de mes actes, faut qu'j'en visser un autre Avec le temps, moi, j'm'habitue à mon mal être La lumière, ça m'fait mal aux yeux, nous, on est trop des rates-pi d'en-d'ssous D'en bas Moi, j'pouvais dead mais nique sa grand-mère, ils m'ont déçu J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper You might also like J'suis la seule étoile qui n'est pas dans l'ciel, imbécile, c'qu'on envoie, c'est des étincelles Wouh Té-ma mon cur, faut pas t'approcher, dans ma tête, on est trois comme Cell J'suis à fond sur le périph', ma boîte, elle est séquentielle Rah, tah, tah Dans la boîte à gants, y a du vert, y a un arc-en-ciel Wouh Fils, quitte le terrain, deux-trois sociétés au pays J'suis connu jusqu'à Babi', j'suis connu jusqu'à Cali Le tit-pe qu'était timide aujourd'hui, c'est lui qu'à l'calibre Y a zéro timinik, ça t'élimine en deux minutes J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Cartel volume 2, Koba</t>
+          <t>Premier du binks, boy Hey Cartel volume 2, Koba À tout moment, gros, ça peut péter Ah, ah, ah J'voulais acheter un Fe-Fe mais dans la ne-zo, y a trop d'jaloux J'veux sortir mon flingue mais y a trop de gens, faut que j'jauge Avec mes putes, je jongle, c'est la loi d'la jungle Ils m'connaissent pas mais ces gros bâtards, rien qu'ils m'jugent Faut que j'réponde de mes actes, faut qu'j'en visser un autre Avec le temps, moi, j'm'habitue à mon mal être La lumière, ça m'fait mal aux yeux, nous, on est trop des rates-pi d'en-d'ssous D'en bas Moi, j'pouvais dead mais nique sa grand-mère, ils m'ont déçu J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper J'suis la seule étoile qui n'est pas dans l'ciel, imbécile, c'qu'on envoie, c'est des étincelles Wouh Té-ma mon cur, faut pas t'approcher, dans ma tête, on est trois comme Cell J'suis à fond sur le périph', ma boîte, elle est séquentielle Rah, tah, tah Dans la boîte à gants, y a du vert, y a un arc-en-ciel Wouh Fils, quitte le terrain, deux-trois sociétés au pays J'suis connu jusqu'à Babi', j'suis connu jusqu'à Cali Le tit-pe qu'était timide aujourd'hui, c'est lui qu'à l'calibre Y a zéro timinik, ça t'élimine en deux minutes J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Cartel volume 2, Koba</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3519,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ouais J'suis dans l'bendo J'suis dans l'bendo, j'suis trop cramé Ouais, eh J'suis dans l'bendo, j'suis trop cramé Ouh, plein d'billets roses, j'ai les yeux rouges Ouh J'fais que d'compter toute la journée, j'en attrape même des crampes aux pouces Un peu partout j'ramène mon neuf, depuis, gros, moi, j'ai trop faim Ouais Pas b'soin d'sniffer pour te fumer, pas b'soin d'sniffer pour te fumer Même pas c'qu'on raconte, j'suis l'numéro un mais y a toujours mes affaires sur le terrain Me fait pas jurer sur la vie d'ma mère Ma mère, me fait pas jurer sur la vie d'ma mère Ma mère Un peu nerveux, un peu tendue Tendue, un peu bourré sur le cadi En jean quand j'vais bicrave sur Paris, en jean quand j'vais bicrave sur Paris J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente You might also like Déjà une heure passé Passé, les bacqueux viennent juste de partir Partir Pour faire des sous, moi, j'suis partant Partant, j'enfile des gants et ma parka Dans un cavu dans l'hélico' Oui, là, j'suis pas là, j'suis au repos Oui J'suis dans l'te-hô, y a dix étoiles Oui, j'suis dans l'te-hô, y a dix étoiles Pas besoin d'pesette, t'inquiète, c'est la frappe qui parle Qui parle Et pour gonfler l'terrain, j'ai ramener d'la selha De la coke Y a d'la beuh qui t'embouche un coin Qui t'embouche un coin, qui t'embouche un coin D'la beugih qui t'embouche un coin Ouais J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente</t>
+          <t>Ouais J'suis dans l'bendo J'suis dans l'bendo, j'suis trop cramé Ouais, eh J'suis dans l'bendo, j'suis trop cramé Ouh, plein d'billets roses, j'ai les yeux rouges Ouh J'fais que d'compter toute la journée, j'en attrape même des crampes aux pouces Un peu partout j'ramène mon neuf, depuis, gros, moi, j'ai trop faim Ouais Pas b'soin d'sniffer pour te fumer, pas b'soin d'sniffer pour te fumer Même pas c'qu'on raconte, j'suis l'numéro un mais y a toujours mes affaires sur le terrain Me fait pas jurer sur la vie d'ma mère Ma mère, me fait pas jurer sur la vie d'ma mère Ma mère Un peu nerveux, un peu tendue Tendue, un peu bourré sur le cadi En jean quand j'vais bicrave sur Paris, en jean quand j'vais bicrave sur Paris J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente Déjà une heure passé Passé, les bacqueux viennent juste de partir Partir Pour faire des sous, moi, j'suis partant Partant, j'enfile des gants et ma parka Dans un cavu dans l'hélico' Oui, là, j'suis pas là, j'suis au repos Oui J'suis dans l'te-hô, y a dix étoiles Oui, j'suis dans l'te-hô, y a dix étoiles Pas besoin d'pesette, t'inquiète, c'est la frappe qui parle Qui parle Et pour gonfler l'terrain, j'ai ramener d'la selha De la coke Y a d'la beuh qui t'embouche un coin Qui t'embouche un coin, qui t'embouche un coin D'la beugih qui t'embouche un coin Ouais J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3536,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah You might also like Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
+          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3553,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tratos con José Antonio Shaylou Tratos con José Antonio Oh-oh, oh-oh Tratos con José Antonio Ah-ah, ah-ah Tratos con José Antonio y paquetes que son de otoño Tratas con el demonio y acabas cogiendo insomnio Y es que mira, espera, la verdad no es que pensara Grupo mío 9amara, la L raja tu cara Una pistola que dice que dispara, si-si la mano tiene fría Tú tiene' un grupo pero no son nada, po-por la droga tú lo hacía Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, jai niqué lSVR Por la droga tú lo hacía' You might also like Holà mamacita, nous, cest la cité, tu sais, tu connais le cartel d'Évry Fallait pas qu'je perds si tôt, tout pour la santé, bébé, ici, tu connais les sentences J'peux sortir un six coups, sortir un siete trente-cinq, jpeux même sortir un bazooka Han J'sors une Kala' de mon sac-à-dos, six étoiles, c'est GTA J'suis trop bourré avec mes brigands Yeah, avec mes cabrons, mes hermanos Yeah Si j'ai trop tisé, j'suis dans l'RS tres, j'repense à la pétasse d'hier soir Wow-wow J'visser un boloss, j'visser deux boloss, faut pas qu'une pédale va me balance Ah J'suis rempli d'platine, j'suis rempli d'ro'-ro' mais putain d'sa mère, j'aime trop la drogue Ah Voiture pé-ta, la fimbi sait même pas Woin, woin Elle tremble, elle flippe, à l'instant, les baqueux nous chassent J'remplis tous mes cartons d'chaussures depuis qu'j'fais des showcases T'avanceras p't-être un peu mais faut qu't'oublies la chance Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere' un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, j'ai niqué les VR Por la droga tú lo hacía'</t>
+          <t>Tratos con José Antonio Shaylou Tratos con José Antonio Oh-oh, oh-oh Tratos con José Antonio Ah-ah, ah-ah Tratos con José Antonio y paquetes que son de otoño Tratas con el demonio y acabas cogiendo insomnio Y es que mira, espera, la verdad no es que pensara Grupo mío 9amara, la L raja tu cara Una pistola que dice que dispara, si-si la mano tiene fría Tú tiene' un grupo pero no son nada, po-por la droga tú lo hacía Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, jai niqué lSVR Por la droga tú lo hacía' Holà mamacita, nous, cest la cité, tu sais, tu connais le cartel d'Évry Fallait pas qu'je perds si tôt, tout pour la santé, bébé, ici, tu connais les sentences J'peux sortir un six coups, sortir un siete trente-cinq, jpeux même sortir un bazooka Han J'sors une Kala' de mon sac-à-dos, six étoiles, c'est GTA J'suis trop bourré avec mes brigands Yeah, avec mes cabrons, mes hermanos Yeah Si j'ai trop tisé, j'suis dans l'RS tres, j'repense à la pétasse d'hier soir Wow-wow J'visser un boloss, j'visser deux boloss, faut pas qu'une pédale va me balance Ah J'suis rempli d'platine, j'suis rempli d'ro'-ro' mais putain d'sa mère, j'aime trop la drogue Ah Voiture pé-ta, la fimbi sait même pas Woin, woin Elle tremble, elle flippe, à l'instant, les baqueux nous chassent J'remplis tous mes cartons d'chaussures depuis qu'j'fais des showcases T'avanceras p't-être un peu mais faut qu't'oublies la chance Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere' un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, j'ai niqué les VR Por la droga tú lo hacía'</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Junior Alaprod Zanmi Ah-ah-ah-ah-ah-ah-ah-ah Nardey, c'est chaud, ça, ah-ah Koba, Leto dans ton bendo, mets le son à fond, coupe le bédo Merci Range Rover, c'est le bateau, on prend toutes les parts du gâteau Ouh Les faires, c'est du gâteau Hein-hein, Winterfell Mafia Château Hein-hein Porte de Saint-Ouen, côté Nord du périph', si tu nous dois, ça peut monter chez toi Boum Rien n'a changé à part ça Non, les boloss défilent comme des mannequins Ouh Classique comm une paire de rquin Hein-hein, c'est Paname, là, c'est pas les 'ricains Tou-tou-touh J'arrive à bord d'une grosse allemande Skrt, c'est pas un vrai si il crache dans ton dos T'as fauté, tu t'manges une sale amende, j'retire ma queue, j'ai craché sur son dos Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Oh-oh-oh-oh, eh, by-bye, by-bye You might also like Moi, par défaut, j'ai grandi dans la street Moi, par défaut, j'ai tout appris dans l'hall, les bagarres, les descentes, la beuh, le stresse C'est l'bédo ou la Game Boy, donc dehors, à onze heures trente, j'coupe la 'quette de frappe en tranche, j'sers bolosses à tour de rôles J'ai trop bossé, j'ai trop géré, seize ans, j'dégaine ma première loc' Minuit, je ferme, je récupère, je compte, j'rejoins mes 'sins-c à Mantes Dans mon village, à Mantes-La-Jolie J'fais une croix dessus pour la coupé en deux, j'roulais sans la clim' dans la Clio 2, maintenant, j'ai les sièges qui chauffent dans la GT Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Secteurs Junior Alaprod Zanmi Nardey, c'est chaud, ça, ah-ah</t>
+          <t>Junior Alaprod Zanmi Ah-ah-ah-ah-ah-ah-ah-ah Nardey, c'est chaud, ça, ah-ah Koba, Leto dans ton bendo, mets le son à fond, coupe le bédo Merci Range Rover, c'est le bateau, on prend toutes les parts du gâteau Ouh Les faires, c'est du gâteau Hein-hein, Winterfell Mafia Château Hein-hein Porte de Saint-Ouen, côté Nord du périph', si tu nous dois, ça peut monter chez toi Boum Rien n'a changé à part ça Non, les boloss défilent comme des mannequins Ouh Classique comm une paire de rquin Hein-hein, c'est Paname, là, c'est pas les 'ricains Tou-tou-touh J'arrive à bord d'une grosse allemande Skrt, c'est pas un vrai si il crache dans ton dos T'as fauté, tu t'manges une sale amende, j'retire ma queue, j'ai craché sur son dos Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Oh-oh-oh-oh, eh, by-bye, by-bye Moi, par défaut, j'ai grandi dans la street Moi, par défaut, j'ai tout appris dans l'hall, les bagarres, les descentes, la beuh, le stresse C'est l'bédo ou la Game Boy, donc dehors, à onze heures trente, j'coupe la 'quette de frappe en tranche, j'sers bolosses à tour de rôles J'ai trop bossé, j'ai trop géré, seize ans, j'dégaine ma première loc' Minuit, je ferme, je récupère, je compte, j'rejoins mes 'sins-c à Mantes Dans mon village, à Mantes-La-Jolie J'fais une croix dessus pour la coupé en deux, j'roulais sans la clim' dans la Clio 2, maintenant, j'ai les sièges qui chauffent dans la GT Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Secteurs Junior Alaprod Zanmi Nardey, c'est chaud, ça, ah-ah</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3587,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Riley Beatz, we do it better we do it better Eh, eh, eh, eh Jack'O, Jack'O, oh, Jack, boy, Jack'O, Jack'O Pas de fric, pas de pute, pas de monnaie J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, eh ouais Pas d'fric, pas de pute mmh Dans mon verre, y a du Jack y a du Jack, y a du Jack'O Fonce-dé, j'ai tout fait, j'suis fonce-dé j'ai tout fait tomber J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round J'dois assumer le cinquième round, han J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Dans mes contacts, j'ai la même, tous les jours, elle m'appelle Pour que j'la doggy, doggy, doggy, elle m'harcèle Pour que j'la doggy, elle m'harcèle, j'fais partie des sept princes Dans mon hall, dans mon binks, j'ai ton adresse Les sept princes, tout l'monde nous connait Succès mérité et arrêtez d'dire qu'on l'a volé La Rolex est fausse, oui, la Rolex est fausse, oui Le LV est faux, oui, LV est faux, oui Le dernier RS6, RS6, vroum, vroum J'suis en haut d'la montagne, récupérer du shit des bails Des gros culs comme à London Vers ici, t'as pas d'locks, t'es démodé Mmh, pas les mêmes pétards qu'on tape, boy Plusieurs couleurs dans la kich', on est démarqués Et ça fume d'la putain d'beuhgi, elle vient de California Sous ballon, j'la doggy, comme Landy sur pe-Sna Mi-rappeur, mi-bandit, libérez Kaz' et Suge Ça fume d'la putain d'beuhgi, pas n'importe quel gandja, boy Maintenant, la cynophile enquête, cynophile enquête, 'quête, 'quête, 'quête, faut qu'on benda C'est la municipale qui est d'vant ma porte Bye, bye, bye, bye, bye, faut qu'on benda You might also like Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O T'as pas d'fric, pas d'meuf, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'pute, monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O</t>
+          <t>Riley Beatz, we do it better we do it better Eh, eh, eh, eh Jack'O, Jack'O, oh, Jack, boy, Jack'O, Jack'O Pas de fric, pas de pute, pas de monnaie J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, eh ouais Pas d'fric, pas de pute mmh Dans mon verre, y a du Jack y a du Jack, y a du Jack'O Fonce-dé, j'ai tout fait, j'suis fonce-dé j'ai tout fait tomber J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round J'dois assumer le cinquième round, han J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Dans mes contacts, j'ai la même, tous les jours, elle m'appelle Pour que j'la doggy, doggy, doggy, elle m'harcèle Pour que j'la doggy, elle m'harcèle, j'fais partie des sept princes Dans mon hall, dans mon binks, j'ai ton adresse Les sept princes, tout l'monde nous connait Succès mérité et arrêtez d'dire qu'on l'a volé La Rolex est fausse, oui, la Rolex est fausse, oui Le LV est faux, oui, LV est faux, oui Le dernier RS6, RS6, vroum, vroum J'suis en haut d'la montagne, récupérer du shit des bails Des gros culs comme à London Vers ici, t'as pas d'locks, t'es démodé Mmh, pas les mêmes pétards qu'on tape, boy Plusieurs couleurs dans la kich', on est démarqués Et ça fume d'la putain d'beuhgi, elle vient de California Sous ballon, j'la doggy, comme Landy sur pe-Sna Mi-rappeur, mi-bandit, libérez Kaz' et Suge Ça fume d'la putain d'beuhgi, pas n'importe quel gandja, boy Maintenant, la cynophile enquête, cynophile enquête, 'quête, 'quête, 'quête, faut qu'on benda C'est la municipale qui est d'vant ma porte Bye, bye, bye, bye, bye, faut qu'on benda Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O T'as pas d'fric, pas d'meuf, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'pute, monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3604,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fire J'ai rien dans le nose, j'fais du sale et sans cause Ça tire pas d'balle en mousse, d'mande à Baber et Mouss Des fois, j'prends des news, mes reufs au ballon, ils sont mieux qu'à la tess mieux qu'à la cité, hein J'suis bordélique, des fois, gros, j'nettoie pas la presse comme une pute quand j'l'ai quitté, hein Dix kil' côté passager, R.I.P.R.O dans la caisse Qu'est-ce que c'est trop bon la vie d'artiste, toujours dans l'bénéf', j'sns pas la crise J'ai branché ta fe-meu, j'ai mis la pris, j'ai oublié mon calibre, j'ai pris la tise J'prends pas la musique comme job, j'écris solo dans ma tchop Bourré dans le Range Rov', des fois, j'fais tomber ma kichta comme Jolve Dans la kichta, c'est que du mauve, j'fais pas d'cinéma, j'fais que des loves Un ou deux lourds, la putain d'tes morts, j'disparais d'Paname en deux-trois moves Toujours en coste-La, pas d'peau d'lézard, j'entends des échos, des trucs bizarres J'décide du re-sor d'tous ces bâtards, le pouce à l'envers comme Jules César Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine You might also like J'suis plus trop dans l'binks, j'suis dans une grosse villa, j'suis dans un 4x4 J'ai deux-trois caisses et dans chacune d'entre elles, au cas où, j'laisse un flingue Là, j'rétrograde, rrah-pah-pah-pah-pah, c'est nerveux au virage J'suis avec une 'tasse, elle a un cul comme ça mais elle a plus Insta' J'suis dans un bolide, si j'veux, j'mets tempête au GTI Toi, tu sais qu'parler aux filles, moi, j'étais là mais j't'ai pas vu Bande d'imbéciles, la moitié d'ces rappeurs, c'est des comiques oui Moi-même, j'serais pas connu, la moitié, j'les aurai soulevé On a fait trop d'bagarres, on a fait trop d'descentes, on a vu trop d'décès J'ai perdu v'là des sous, tu m'dis qu't'es là pour moi mais nique ta mère la pute Tu m'dis qu't'es là pour moi mais nique ta mère la pute, ouais Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Eh, yeah, eh, yeah, eh, racaille comme les rues de Barbès Yeah, eh, yeah, eh, elle a tatoué mon blase sur ses fesses Yeah, eh, yeah, eh, fils de pute, réponds-moi au bigo Yeah, eh, yeah, eh, j'démarre l'Lambo' devant l'comico Yeah, eh, j'arrive en grosse équipe, t'as même pas idée J'te baise, comment veux-tu n'pas aimer ? Vérité t'allumes que ton briquet, l'argent du sang vient du Paraguay On a chourave des ques-s' à même pas neuf ans, pour le système, j'étais turbulent À part moi-même, personne m'a sauvé, c'que je gagne, y a que Dieu qui peut m'l'enlever Que des fous alliés dans le bâtiment, un fusil à pompe, c'est le châtiment J'lui parle de levrette, elle, de sentiments, quand j'lui dis vient sucer, j'lui parle gentiment Y a le fast qui veut balayer, motherfuck, barillet Fils de putes, ils font des dépôts, j'en ai mis six dans le barillet Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine1</t>
+          <t>Fire J'ai rien dans le nose, j'fais du sale et sans cause Ça tire pas d'balle en mousse, d'mande à Baber et Mouss Des fois, j'prends des news, mes reufs au ballon, ils sont mieux qu'à la tess mieux qu'à la cité, hein J'suis bordélique, des fois, gros, j'nettoie pas la presse comme une pute quand j'l'ai quitté, hein Dix kil' côté passager, R.I.P.R.O dans la caisse Qu'est-ce que c'est trop bon la vie d'artiste, toujours dans l'bénéf', j'sns pas la crise J'ai branché ta fe-meu, j'ai mis la pris, j'ai oublié mon calibre, j'ai pris la tise J'prends pas la musique comme job, j'écris solo dans ma tchop Bourré dans le Range Rov', des fois, j'fais tomber ma kichta comme Jolve Dans la kichta, c'est que du mauve, j'fais pas d'cinéma, j'fais que des loves Un ou deux lourds, la putain d'tes morts, j'disparais d'Paname en deux-trois moves Toujours en coste-La, pas d'peau d'lézard, j'entends des échos, des trucs bizarres J'décide du re-sor d'tous ces bâtards, le pouce à l'envers comme Jules César Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine J'suis plus trop dans l'binks, j'suis dans une grosse villa, j'suis dans un 4x4 J'ai deux-trois caisses et dans chacune d'entre elles, au cas où, j'laisse un flingue Là, j'rétrograde, rrah-pah-pah-pah-pah, c'est nerveux au virage J'suis avec une 'tasse, elle a un cul comme ça mais elle a plus Insta' J'suis dans un bolide, si j'veux, j'mets tempête au GTI Toi, tu sais qu'parler aux filles, moi, j'étais là mais j't'ai pas vu Bande d'imbéciles, la moitié d'ces rappeurs, c'est des comiques oui Moi-même, j'serais pas connu, la moitié, j'les aurai soulevé On a fait trop d'bagarres, on a fait trop d'descentes, on a vu trop d'décès J'ai perdu v'là des sous, tu m'dis qu't'es là pour moi mais nique ta mère la pute Tu m'dis qu't'es là pour moi mais nique ta mère la pute, ouais Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Eh, yeah, eh, yeah, eh, racaille comme les rues de Barbès Yeah, eh, yeah, eh, elle a tatoué mon blase sur ses fesses Yeah, eh, yeah, eh, fils de pute, réponds-moi au bigo Yeah, eh, yeah, eh, j'démarre l'Lambo' devant l'comico Yeah, eh, j'arrive en grosse équipe, t'as même pas idée J'te baise, comment veux-tu n'pas aimer ? Vérité t'allumes que ton briquet, l'argent du sang vient du Paraguay On a chourave des ques-s' à même pas neuf ans, pour le système, j'étais turbulent À part moi-même, personne m'a sauvé, c'que je gagne, y a que Dieu qui peut m'l'enlever Que des fous alliés dans le bâtiment, un fusil à pompe, c'est le châtiment J'lui parle de levrette, elle, de sentiments, quand j'lui dis vient sucer, j'lui parle gentiment Y a le fast qui veut balayer, motherfuck, barillet Fils de putes, ils font des dépôts, j'en ai mis six dans le barillet Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine1</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3621,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais Elikya Trafic Gianni, Koba, c'est gang, ganja You know, I don't like to do that! 2.13.0, c'est la ville Premiers du binks, boy Hein Dans la surface comme Rome' Lukaku Si la 'sique ça l'fait plus, j'en filerai les gants en cuir J'en filerai les gants en cuir Le trafic n'a plus rien à prouver, ça va trop vite, donc ces putes veulent ralentir Ces putes veulent ralentir Le PGR 23, sacoche italienne, le soir, avec l'Albanais, j'baraude dans l'Cayenne Fuck tous cs rageux qui racontent des bobards, un dégaine de bandit, la p'tite me trouve beau gar' La rue, c'est un mode de vie, c'est pas une mode Dehors, trop d'faux en peurs d'presser la gâchette Wow On s'fait du fric, mon négro et on soulève des meufs sur qui tu fantasmes en cachette Que du bénéf', faut pas faire de perte Jamais, j'viens d'BXL, j'ai pas peur de perdre D'mande à Gotti Maras, le trafic les dépasse Y a ceux qui s'donnent à fond et ceux qui donnent des blases H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye You might also like La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Paire de TN sur le béton Le bitume, RS sur le bouton Jean Ami' Et l'pétard de ma pétasse Ma pétasse prend toute la place Toute la place dans ma voiture Suge et Kaza qui vient d'bé-tom Au dépôt, LV sur le bouton Ma chemise Quand j'suis fonce-dé dans l'trou noir Dans l'trou noir, l'A.P diamants m'sert de lampe torche 500 000 euros dans l'garage, j'ai pas besoin de m'la péter J'ai-j'ai l'RS6, j'ai l'SVR, bientôt j'tis-sor une Bugatti En plus, rapper, c'est trop facile J'm'en bats les couilles, j'écris même plus, j'm'en bats les couilles, j'écris même plus J'finis mon texte avant l'instru' Ba-ba-bay H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o molinga Yeah, yeah J'suis toujours pas refait, mon re-frè, sentier des murs comme un chat noir Chat noir R.I.P Ilévia comme Chino Chino, à 6B, j'sors avec des kilos Ouais J'suis dans le game avec Gino Gino,ça livre plus de co-'co' que Deliveroo Mal Luné, broliqué dans l'Clio, on verra, le buteur de la tour est sous les verrous Gros, ma villa est verte, j'passe par Evry, bourré dans l'parking, pas dans l'carré VIP Rue d'Grande Armée, j'la fais miauler, avec ma mmh, j'lui mets des gifles Et si ça foire, autrement, j'fais du chiffre, j'revends la beuh, c'est chaud Elle m'parle de ses chaînes, passe à la T pour l'shit, les schmitts font chier H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Premiers du binks, boy Poh, poh, poh, poh, poh</t>
+          <t>Ouais, ouais, ouais Elikya Trafic Gianni, Koba, c'est gang, ganja You know, I don't like to do that! 2.13.0, c'est la ville Premiers du binks, boy Hein Dans la surface comme Rome' Lukaku Si la 'sique ça l'fait plus, j'en filerai les gants en cuir J'en filerai les gants en cuir Le trafic n'a plus rien à prouver, ça va trop vite, donc ces putes veulent ralentir Ces putes veulent ralentir Le PGR 23, sacoche italienne, le soir, avec l'Albanais, j'baraude dans l'Cayenne Fuck tous cs rageux qui racontent des bobards, un dégaine de bandit, la p'tite me trouve beau gar' La rue, c'est un mode de vie, c'est pas une mode Dehors, trop d'faux en peurs d'presser la gâchette Wow On s'fait du fric, mon négro et on soulève des meufs sur qui tu fantasmes en cachette Que du bénéf', faut pas faire de perte Jamais, j'viens d'BXL, j'ai pas peur de perdre D'mande à Gotti Maras, le trafic les dépasse Y a ceux qui s'donnent à fond et ceux qui donnent des blases H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Paire de TN sur le béton Le bitume, RS sur le bouton Jean Ami' Et l'pétard de ma pétasse Ma pétasse prend toute la place Toute la place dans ma voiture Suge et Kaza qui vient d'bé-tom Au dépôt, LV sur le bouton Ma chemise Quand j'suis fonce-dé dans l'trou noir Dans l'trou noir, l'A.P diamants m'sert de lampe torche 500 000 euros dans l'garage, j'ai pas besoin de m'la péter J'ai-j'ai l'RS6, j'ai l'SVR, bientôt j'tis-sor une Bugatti En plus, rapper, c'est trop facile J'm'en bats les couilles, j'écris même plus, j'm'en bats les couilles, j'écris même plus J'finis mon texte avant l'instru' Ba-ba-bay H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o molinga Yeah, yeah J'suis toujours pas refait, mon re-frè, sentier des murs comme un chat noir Chat noir R.I.P Ilévia comme Chino Chino, à 6B, j'sors avec des kilos Ouais J'suis dans le game avec Gino Gino,ça livre plus de co-'co' que Deliveroo Mal Luné, broliqué dans l'Clio, on verra, le buteur de la tour est sous les verrous Gros, ma villa est verte, j'passe par Evry, bourré dans l'parking, pas dans l'carré VIP Rue d'Grande Armée, j'la fais miauler, avec ma mmh, j'lui mets des gifles Et si ça foire, autrement, j'fais du chiffre, j'revends la beuh, c'est chaud Elle m'parle de ses chaînes, passe à la T pour l'shit, les schmitts font chier H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Premiers du binks, boy Poh, poh, poh, poh, poh</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3638,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Takeshi-San Han-han-han Ah-ah, ah-ah Franglish, Koba Yeah, let's get it Comment j'veux trop la ken, là Oui, eh, j'sais qu'elle va trop parler Miskine, ça sert à rien mais j'la fais espérer P'tite tisse-mé bien chargée, j'veux trop la ken, tu sais La ken, tu sais Ah mais nique, ça va parler J'suis dans mes pensées au feu rouge Oui, j'suis fonce-dé dans Dubaï J'suis en Ferrari, j'fais du rallye, que des coups d'frein d'vant l'radar J'me suis gavé, y a plus d'petit Petit, Sugy sur un buddy Un buddy Écoute pas, c'est ds bitches, c'est des bitchs, c'est des bitches On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la lo,i désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle You might also like Devant moi, elle va se cambrer Oui, si j'reste là, ses jambes vont trembler Ah Mauvais garçon, là, j'suis tenté Ouh, rre-ve dans la main, j'sirotais Oui Petit à petit, je la rends bête Ah, elle me demandera un tête-à-tête Oh Lui faire du le-sa, j'ai la recette Oh, lui faire du le-sa, j'ai la recette Let's get it J'suis rentré dans la son-mai Ouh, j'vois la concu' s'affoler Bah oui Au poignet, j'ai ton loyer Bling, aux pieds, j'ai l'prix d'ton foyer Ah Tu vas rien faire du tout, que des grands gestes, ils font qu'aboyer Bah oui Tu vas rien faire du tout, wow Let's get it On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Yeah Let's go On sort de la Calle Mmh, bientôt On sort de la Calle Eh, hey, let's go On sort de la Calle Ouais, bientôt On sort de la Calle</t>
+          <t>Takeshi-San Han-han-han Ah-ah, ah-ah Franglish, Koba Yeah, let's get it Comment j'veux trop la ken, là Oui, eh, j'sais qu'elle va trop parler Miskine, ça sert à rien mais j'la fais espérer P'tite tisse-mé bien chargée, j'veux trop la ken, tu sais La ken, tu sais Ah mais nique, ça va parler J'suis dans mes pensées au feu rouge Oui, j'suis fonce-dé dans Dubaï J'suis en Ferrari, j'fais du rallye, que des coups d'frein d'vant l'radar J'me suis gavé, y a plus d'petit Petit, Sugy sur un buddy Un buddy Écoute pas, c'est ds bitches, c'est des bitchs, c'est des bitches On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la lo,i désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Devant moi, elle va se cambrer Oui, si j'reste là, ses jambes vont trembler Ah Mauvais garçon, là, j'suis tenté Ouh, rre-ve dans la main, j'sirotais Oui Petit à petit, je la rends bête Ah, elle me demandera un tête-à-tête Oh Lui faire du le-sa, j'ai la recette Oh, lui faire du le-sa, j'ai la recette Let's get it J'suis rentré dans la son-mai Ouh, j'vois la concu' s'affoler Bah oui Au poignet, j'ai ton loyer Bling, aux pieds, j'ai l'prix d'ton foyer Ah Tu vas rien faire du tout, que des grands gestes, ils font qu'aboyer Bah oui Tu vas rien faire du tout, wow Let's get it On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Yeah Let's go On sort de la Calle Mmh, bientôt On sort de la Calle Eh, hey, let's go On sort de la Calle Ouais, bientôt On sort de la Calle</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3655,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nan, nan, nan, nan Woo Ouais Bleu, ouais Bleu C'est nous les patrons d'la ville, toi t'es qu'un te-traî qu'on a crossé La matière grise nous fait maigrir, mais l'patron d'la boite nous fait grossir Les 20K faut qu'tu les sors ou Banda manmanw Gros moteur, Range Rover, j'suis trop frais mama J'fais confiance au flair, j'ai toujours l'instinct animal On a appris à se lever tôt et puis à manier le métal Les tits-pe ils entendent pas, maintenant ouais c'est Pop Champagne J'suis grave dans l'bât', j'suis pas le tit-peu de la campagne Tu connais ton boug, j'fais confiance au flair Je vi-sser pas si j'sens pas Et si nous on t'sent pas, bah on sera sans tié-pi Grosse ne-chai, grosse pétasse, gros brolique bien gé-char Tarpé, couteau gars, tarpé, couteau gars On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh You might also like Ce soir j'suis pas prêt d'rentrer, c'est nous les mal-fréquentés Pas besoin d'faire des gros débats, la guitare fait des gros dégâts J'essaie d'garder la santé et ne pas finir ganté Beretta pièce en sale état, nigga ça tire on volait pas J'suis dans l'viano, j'suis dans J'détaille la coke, j'suis dans la cave J'suis au tel-hô, j'baise pas d'pétasse Renoi, j'fais bosser ta reu-seu Si j'me retrouve dans l'réseau P'tit frère c'est qu'j'avais mes raisons Demande pardon au bon Dieu Mais ici-bas gros c'est trop dur Tu connais l'équipe, Criminel League Tu sais déjà SD, c'est magique Tireur d'élite, j'suis l'meilleur joueur Vas-y viens regarder les statistiques C'est Medellin, si mes frères sont bourrés Y aura des balistiques, j'suis sous la lean J'suis très bien entouré et j'trouve ça magnifique On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh À la cité on a tout fait À la cité on a tout fait À la cité on a tout fait Gang, ouais Bleu</t>
+          <t>Nan, nan, nan, nan Woo Ouais Bleu, ouais Bleu C'est nous les patrons d'la ville, toi t'es qu'un te-traî qu'on a crossé La matière grise nous fait maigrir, mais l'patron d'la boite nous fait grossir Les 20K faut qu'tu les sors ou Banda manmanw Gros moteur, Range Rover, j'suis trop frais mama J'fais confiance au flair, j'ai toujours l'instinct animal On a appris à se lever tôt et puis à manier le métal Les tits-pe ils entendent pas, maintenant ouais c'est Pop Champagne J'suis grave dans l'bât', j'suis pas le tit-peu de la campagne Tu connais ton boug, j'fais confiance au flair Je vi-sser pas si j'sens pas Et si nous on t'sent pas, bah on sera sans tié-pi Grosse ne-chai, grosse pétasse, gros brolique bien gé-char Tarpé, couteau gars, tarpé, couteau gars On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh Ce soir j'suis pas prêt d'rentrer, c'est nous les mal-fréquentés Pas besoin d'faire des gros débats, la guitare fait des gros dégâts J'essaie d'garder la santé et ne pas finir ganté Beretta pièce en sale état, nigga ça tire on volait pas J'suis dans l'viano, j'suis dans J'détaille la coke, j'suis dans la cave J'suis au tel-hô, j'baise pas d'pétasse Renoi, j'fais bosser ta reu-seu Si j'me retrouve dans l'réseau P'tit frère c'est qu'j'avais mes raisons Demande pardon au bon Dieu Mais ici-bas gros c'est trop dur Tu connais l'équipe, Criminel League Tu sais déjà SD, c'est magique Tireur d'élite, j'suis l'meilleur joueur Vas-y viens regarder les statistiques C'est Medellin, si mes frères sont bourrés Y aura des balistiques, j'suis sous la lean J'suis très bien entouré et j'trouve ça magnifique On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh À la cité on a tout fait À la cité on a tout fait À la cité on a tout fait Gang, ouais Bleu</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3672,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ouais, on n'a pas fini d'tout niquer là L'Affranchi, 19 avril, Rapelite On a pris des sous, on a fait des déçus mais toujours autant indécis J'suis en haut d'la pente en RS et le reste de la concurrence est en-d'ssous J'ai une Rolex rolex ! toute en or en or ! et elle s'accorde avec mon disque en or ! Tout niquer, c'est la seule devise mais diviser les devis, ça nous divise J'suis cagoulé, j'suis cagoulé 'goulé dans ta baraque sur la pointe des pieds des pieds Quand j'en ramène, quand j'en ramène la frappe, bah tous tes grands viennent me supplier c'est vrai J'suis avec mes gars mes gars, avec mes gants mes gants et quoi qu'il arrive, faut qu'tu fermes ta gueule t'es mort Dans l'Seven binks, avec mon gang dans l'binks, y a l'neuf millimètre qui fait fuir ta bande t'es mort Et viens pour onze heures quarante, à cinquante, j'te ramène les affaires Binks open à midi o'clock, première patrouille après treize heures Y a d'la beugueu, y a du taga et d'la coke que sur demande Prends-en d'la graine, viens à Evry, j'suis l'plus blindé d'ma génération J'suis dans les bails, bails, bails bails, bails, bails et j'lui ai mis dans son cavu, j'savais pas J'étais die die die die die die, donne-moi vite ton adresse, j'te prends un Uber et puis bye, bye, bye bye, bye, bye Elle veut mon buzz ou bien ma caisse ou ma drogue ou mes talles, talles, talles talles, talles, talles, talles, talles, talles, talles, talles, talles Disque de platine, moi, j'suis plus un môme un môme En vrai, y a qu'mon argent qui m'aime qui m'aime Deux millions, c'est grand minimum J'ai ramassé des miettes puis, j'ai r'vendu les pains oh les pains oh Même pas un rond, c'est des teurs-men eux teur-mens eux Bat' 7 le nouveau monument, un p'tit moment que j'demande plus rien à maman Si tu penses me la mettre, tu vas manger l'amende 'mende S'te plaît, dis-moi qui l'a fait, ouais qui l'a fait, ouais, un projet, déjà quatre trophées, ouais ah bon ? La Grinta Records qui triomphe, on est fait on l'a fait avec la dalle d'un fauve Les yeux plissés dans l'SQ5 et ouais, y a Suge à la passe et y a ZZ et ouais J'fais crier le moteur du 400 chevaux, y a eu ce sur la passe en I sur l'YZYou might also like</t>
+          <t>Ouais, on n'a pas fini d'tout niquer là L'Affranchi, 19 avril, Rapelite On a pris des sous, on a fait des déçus mais toujours autant indécis J'suis en haut d'la pente en RS et le reste de la concurrence est en-d'ssous J'ai une Rolex rolex ! toute en or en or ! et elle s'accorde avec mon disque en or ! Tout niquer, c'est la seule devise mais diviser les devis, ça nous divise J'suis cagoulé, j'suis cagoulé 'goulé dans ta baraque sur la pointe des pieds des pieds Quand j'en ramène, quand j'en ramène la frappe, bah tous tes grands viennent me supplier c'est vrai J'suis avec mes gars mes gars, avec mes gants mes gants et quoi qu'il arrive, faut qu'tu fermes ta gueule t'es mort Dans l'Seven binks, avec mon gang dans l'binks, y a l'neuf millimètre qui fait fuir ta bande t'es mort Et viens pour onze heures quarante, à cinquante, j'te ramène les affaires Binks open à midi o'clock, première patrouille après treize heures Y a d'la beugueu, y a du taga et d'la coke que sur demande Prends-en d'la graine, viens à Evry, j'suis l'plus blindé d'ma génération J'suis dans les bails, bails, bails bails, bails, bails et j'lui ai mis dans son cavu, j'savais pas J'étais die die die die die die, donne-moi vite ton adresse, j'te prends un Uber et puis bye, bye, bye bye, bye, bye Elle veut mon buzz ou bien ma caisse ou ma drogue ou mes talles, talles, talles talles, talles, talles, talles, talles, talles, talles, talles, talles Disque de platine, moi, j'suis plus un môme un môme En vrai, y a qu'mon argent qui m'aime qui m'aime Deux millions, c'est grand minimum J'ai ramassé des miettes puis, j'ai r'vendu les pains oh les pains oh Même pas un rond, c'est des teurs-men eux teur-mens eux Bat' 7 le nouveau monument, un p'tit moment que j'demande plus rien à maman Si tu penses me la mettre, tu vas manger l'amende 'mende S'te plaît, dis-moi qui l'a fait, ouais qui l'a fait, ouais, un projet, déjà quatre trophées, ouais ah bon ? La Grinta Records qui triomphe, on est fait on l'a fait avec la dalle d'un fauve Les yeux plissés dans l'SQ5 et ouais, y a Suge à la passe et y a ZZ et ouais J'fais crier le moteur du 400 chevaux, y a eu ce sur la passe en I sur l'YZ</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3689,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bienvenue sur Studytracks Ah Stan-E Music, bonjour Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 8h00 8h00 oh, Sire, voilà l'heure Sire, voilà l'heure Le Roi est réveillé, lavé, peigné t rasé Peigné et rasé c'est l petit lever, bientôt, le grand lever Le Roi déjeune d'un bouillon, il est déjà habillé Environ cent assistants masculins, c'matin, sont admis Oh à observer cette cérémonie 10h00 le Roi traverse la galerie devant la foule en liesse Jusqu'à la chapelle royale pour assister à la messe 11h00 de retour dans son appartement Appartement Le Roi tient conseil, comme d'habitude, y a pas de week-end Pour tous les jours d'la semaine, bah ça sera pareil Cinq ou six ministres travaillent avec le Roi qui parle peu Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh You might also like 13h00 dans sa chambre, bah c'est tout seul que mange le Roi Mais le repas n'est pas si privé qu'ça devant les hommes qui n's'assoient pas Trois services sont proposés, de cinq à sept plats 14h00 moment d'détente en fonction des ordres donnés le matin Une chasse dans le parc ou en forêt Ouh, une promenade dans les jardins en LV 18h00 le Roi signe de nombreuses lettres et notifications 20h00 un dossier dans les apparts de Madame de Maintenon Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Il attire le regard et recueille hommages du public 22h00 dans l'antichambre de l'il de buf, la foule va affluer Affluer Au souper du Grand Couvert, elle va assister À table, entouré par la mif royale, le Roi s'assied Il s'rend dans le salon pour saluer les dames de la Cour après s'être restauré Enfin, il rejoint ses proches dans son cabinet pour profiter 23h30 le coucher est un rituel public où dans sa chambre, le Roi va pouvoir se retirer-gué Ça va s'dérouler selon un processus inversé Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Ah Ah</t>
+          <t>Bienvenue sur Studytracks Ah Stan-E Music, bonjour Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 8h00 8h00 oh, Sire, voilà l'heure Sire, voilà l'heure Le Roi est réveillé, lavé, peigné t rasé Peigné et rasé c'est l petit lever, bientôt, le grand lever Le Roi déjeune d'un bouillon, il est déjà habillé Environ cent assistants masculins, c'matin, sont admis Oh à observer cette cérémonie 10h00 le Roi traverse la galerie devant la foule en liesse Jusqu'à la chapelle royale pour assister à la messe 11h00 de retour dans son appartement Appartement Le Roi tient conseil, comme d'habitude, y a pas de week-end Pour tous les jours d'la semaine, bah ça sera pareil Cinq ou six ministres travaillent avec le Roi qui parle peu Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 13h00 dans sa chambre, bah c'est tout seul que mange le Roi Mais le repas n'est pas si privé qu'ça devant les hommes qui n's'assoient pas Trois services sont proposés, de cinq à sept plats 14h00 moment d'détente en fonction des ordres donnés le matin Une chasse dans le parc ou en forêt Ouh, une promenade dans les jardins en LV 18h00 le Roi signe de nombreuses lettres et notifications 20h00 un dossier dans les apparts de Madame de Maintenon Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Il attire le regard et recueille hommages du public 22h00 dans l'antichambre de l'il de buf, la foule va affluer Affluer Au souper du Grand Couvert, elle va assister À table, entouré par la mif royale, le Roi s'assied Il s'rend dans le salon pour saluer les dames de la Cour après s'être restauré Enfin, il rejoint ses proches dans son cabinet pour profiter 23h30 le coucher est un rituel public où dans sa chambre, le Roi va pouvoir se retirer-gué Ça va s'dérouler selon un processus inversé Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Ah Ah</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3706,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Oy, putain Eh, là, c'est l'9-1 qui t'parle, mon pote Ouais chacal, Denzo trop atroce À seize ans, j'ouvre le four à neuf heures, j'vois la mort, j'ressens plus les douleurs Perquis' fait paniquer la re-su, chien renifle patate, beuhgueu J'ai mis la main à la pâte la main à la pâte En touchant le crack, pas le cellophane, impliqué voit de quoi je parle Couteau chauffé, le te-shi qui crame, coupe bien pesée, faut pas laisser de grammes Le bosseur vient perturber dans ta liasse donc annuler le resto, la foumas Un bon vendeur doit connaître son produit, sortir les crocs pour niquer la survie Les gens sont décevants, leur donner l'heure, c'est une perte de temps Du four au pe-ra, j'ai mis l'clignotant, résultat me plaît dans le compte en banque Bagarre, le coup d'cur te rend hésitant, première boulette, t'encaisses évidemment Les rendez-vous attirent des flaques de sang Mon pe-ra, c'est comme mon miroir seul lui connait ma face cachée Désolé baby, je veux plus t'voir, levrette vient de me faire cracher Guetteur, vendeur, ssiste-gro, ravitailleur Partout dans la ne-zo, gyro', hélico' Y a du ne-jau, Nueve Uno, ravitailleur Partout dans la ne-zo, gyro', hélico' Nueve Uno You might also like Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'peux t'ramener des p'tits qui veulent guetter, des p'tits qui veulent bicrave Pas d'demi, que des TP, TP, c'est beaucoup plus rentable Viens voir, y a l'adresse sur les pochtars, y a mon num' dans les pochtars J'te parle pas d'rap, j'te parle de grosses têtes de beuh et cinquante dans le bocal Putain, faut qu'mes projets aboutissent faut qu'mes projets aboutissent En attendant, que d'la ppe-f' dans la sacoche que d'la ppe-f' dans la sacoche J'te l'dis, c'est pas l'argent qui nous fait, c'est nous, on fait l'argent Fallait des couilles, fallait d'la beuhgeu, du te-sh', avec les gues-sh', être indulgent J'ai pas fait comme eux, j'ai fait la pince, j'ai coffré ouais, j'ai coffré C'est moi l'capitaine, j'tire penaltys et coups-francs tous les coups-francs Encore sur l'terrain, j'vais pas vous dire qu'j'ai réussi J'récupère la recette, le taga est dans l'RS7 dans l'RS7, oy, oy, oy Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche</t>
+          <t>Oy, putain Eh, là, c'est l'9-1 qui t'parle, mon pote Ouais chacal, Denzo trop atroce À seize ans, j'ouvre le four à neuf heures, j'vois la mort, j'ressens plus les douleurs Perquis' fait paniquer la re-su, chien renifle patate, beuhgueu J'ai mis la main à la pâte la main à la pâte En touchant le crack, pas le cellophane, impliqué voit de quoi je parle Couteau chauffé, le te-shi qui crame, coupe bien pesée, faut pas laisser de grammes Le bosseur vient perturber dans ta liasse donc annuler le resto, la foumas Un bon vendeur doit connaître son produit, sortir les crocs pour niquer la survie Les gens sont décevants, leur donner l'heure, c'est une perte de temps Du four au pe-ra, j'ai mis l'clignotant, résultat me plaît dans le compte en banque Bagarre, le coup d'cur te rend hésitant, première boulette, t'encaisses évidemment Les rendez-vous attirent des flaques de sang Mon pe-ra, c'est comme mon miroir seul lui connait ma face cachée Désolé baby, je veux plus t'voir, levrette vient de me faire cracher Guetteur, vendeur, ssiste-gro, ravitailleur Partout dans la ne-zo, gyro', hélico' Y a du ne-jau, Nueve Uno, ravitailleur Partout dans la ne-zo, gyro', hélico' Nueve Uno Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'peux t'ramener des p'tits qui veulent guetter, des p'tits qui veulent bicrave Pas d'demi, que des TP, TP, c'est beaucoup plus rentable Viens voir, y a l'adresse sur les pochtars, y a mon num' dans les pochtars J'te parle pas d'rap, j'te parle de grosses têtes de beuh et cinquante dans le bocal Putain, faut qu'mes projets aboutissent faut qu'mes projets aboutissent En attendant, que d'la ppe-f' dans la sacoche que d'la ppe-f' dans la sacoche J'te l'dis, c'est pas l'argent qui nous fait, c'est nous, on fait l'argent Fallait des couilles, fallait d'la beuhgeu, du te-sh', avec les gues-sh', être indulgent J'ai pas fait comme eux, j'ai fait la pince, j'ai coffré ouais, j'ai coffré C'est moi l'capitaine, j'tire penaltys et coups-francs tous les coups-francs Encore sur l'terrain, j'vais pas vous dire qu'j'ai réussi J'récupère la recette, le taga est dans l'RS7 dans l'RS7, oy, oy, oy Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3723,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Oh nan, nan, nan, nan Lil Lil Ben Ben Oh nan, nan, nan, nan Binks, eyah Il m'reste même pas l'trois-quart de mes potes De mes potes, j'crois qu'c'est moi qu'est mal-aimé Han mais bon, c'est pas grave Han Si j'veux, demain, je tis-sor un Fe-Fe, un RR, j'n'ai pas d'caution Moi, j'aime trop mon terrain mais j'me crame plus trop Nique sa mère, nique sa mère À part pour faire des pub' sinon, j'suis pas là J'suis au Melia, vingtième étage, avec une pétasse du Canada Avant midi, bousillé sous buzz Buzz, au tiek, on n'fait pas la bise Moi, j'aime trop mon biff et Deuspi m'a dit Plus t'auras du buzz, plus t'auras du biff C'st nous les cités, viens faire un tour, c soir, j'suis aux 4T J'suis avec Uzi, on fait un gros clip, sortez les bécanes et les calibres Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres You might also like La VDA, le tempo, j'suis dans les 4T avec Koba, on a la grinta, c'est des mecs wo, c'est Uzave qui va te tuer Pas d'mano contre mano, on s'fait la rre-gue On s'fait la rre-gue Ils mettront la cagoule pendant qu'j'ferais des mapesas Ah Après l'pétard, gros décollage, j'suis pas les jeunes de ton âge J'ai dispatché des kil' et des kil', j'ai brûlé la zone, j'ai fait des gardes à v', pas des après-m' Y a d'l'oseille, tu peux vérifier Han, les ennemis, on les élimine Han Transporte bédo, cash, télécommande, j'ai un SIG-Sauer comme au Tennessee Hey, y a d'la zip' à vingt-sept Han, j'suis venu faire un bordel, moi Moi J'les vois carrément bête, j'suis avec mes gars juste en bas du terrain J'ai ramené l'ro'-ro' dans la tess mais putain d'merde, j'avais rien demandé J'ai ramené l'ro'-ro' dans la cité, putain d'merde J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres</t>
+          <t>Oh nan, nan, nan, nan Lil Lil Ben Ben Oh nan, nan, nan, nan Binks, eyah Il m'reste même pas l'trois-quart de mes potes De mes potes, j'crois qu'c'est moi qu'est mal-aimé Han mais bon, c'est pas grave Han Si j'veux, demain, je tis-sor un Fe-Fe, un RR, j'n'ai pas d'caution Moi, j'aime trop mon terrain mais j'me crame plus trop Nique sa mère, nique sa mère À part pour faire des pub' sinon, j'suis pas là J'suis au Melia, vingtième étage, avec une pétasse du Canada Avant midi, bousillé sous buzz Buzz, au tiek, on n'fait pas la bise Moi, j'aime trop mon biff et Deuspi m'a dit Plus t'auras du buzz, plus t'auras du biff C'st nous les cités, viens faire un tour, c soir, j'suis aux 4T J'suis avec Uzi, on fait un gros clip, sortez les bécanes et les calibres Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres La VDA, le tempo, j'suis dans les 4T avec Koba, on a la grinta, c'est des mecs wo, c'est Uzave qui va te tuer Pas d'mano contre mano, on s'fait la rre-gue On s'fait la rre-gue Ils mettront la cagoule pendant qu'j'ferais des mapesas Ah Après l'pétard, gros décollage, j'suis pas les jeunes de ton âge J'ai dispatché des kil' et des kil', j'ai brûlé la zone, j'ai fait des gardes à v', pas des après-m' Y a d'l'oseille, tu peux vérifier Han, les ennemis, on les élimine Han Transporte bédo, cash, télécommande, j'ai un SIG-Sauer comme au Tennessee Hey, y a d'la zip' à vingt-sept Han, j'suis venu faire un bordel, moi Moi J'les vois carrément bête, j'suis avec mes gars juste en bas du terrain J'ai ramené l'ro'-ro' dans la tess mais putain d'merde, j'avais rien demandé J'ai ramené l'ro'-ro' dans la cité, putain d'merde J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>C'est exactement c'que m'disais l'ancien J'te jure qu'il m'avait dit d'le faire, merde Putain Que tout l'reste, c'est des freins Hum, y a qu'un seul chemin, prend pas ce raccourci Un peu têtu mais Un peu têtu j'vais pas m'louper ce coup ci J'ai pas fait la moitié d'ma route Ma route, c'que j'ai d'jà, j'le mérite Le poids vrille, là, de trop, du citron pressé sur la shoes J'suis à l'arrière d'la caisse, un peu en fumette, j'baiss pas trop ma f'nêtre On est dans la ville, j'vais trop d'photos J'vais fair trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter Moche mais c'est ça la vie J'entends crier par la fenêtre, y a les moteurs qui sont éteins, dans la de-mer et dans l'pétrin J'traîne avec de vrais allumées Han, han, han, han Grandie comme un oukthy, c'est pas la mort qui va m'changer C'est pas la mort qui va m'changer J'guette les étoiles, j'crois qu'ils m'parlent, j'embrasse, j'embrasse maman quand faut y aller You might also like J'vais faire trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter C'est moche mais c'est ça la vie, il faut s'adapter Oh-oh-oh-oh-oh, eh Oh-oh-oh-oh-oh, eh</t>
+          <t>C'est exactement c'que m'disais l'ancien J'te jure qu'il m'avait dit d'le faire, merde Putain Que tout l'reste, c'est des freins Hum, y a qu'un seul chemin, prend pas ce raccourci Un peu têtu mais Un peu têtu j'vais pas m'louper ce coup ci J'ai pas fait la moitié d'ma route Ma route, c'que j'ai d'jà, j'le mérite Le poids vrille, là, de trop, du citron pressé sur la shoes J'suis à l'arrière d'la caisse, un peu en fumette, j'baiss pas trop ma f'nêtre On est dans la ville, j'vais trop d'photos J'vais fair trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter Moche mais c'est ça la vie J'entends crier par la fenêtre, y a les moteurs qui sont éteins, dans la de-mer et dans l'pétrin J'traîne avec de vrais allumées Han, han, han, han Grandie comme un oukthy, c'est pas la mort qui va m'changer C'est pas la mort qui va m'changer J'guette les étoiles, j'crois qu'ils m'parlent, j'embrasse, j'embrasse maman quand faut y aller J'vais faire trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter C'est moche mais c'est ça la vie, il faut s'adapter Oh-oh-oh-oh-oh, eh Oh-oh-oh-oh-oh, eh</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bienvenue sur Studytrakcs Oh, aïe aïe aïe Studytracks Oh, aïe aïe aïe Koba La D Oh Stan-E Music, bonjour Un atome est constitué d'un noyau chargé positivement Autour du noyau des électrons chargés, en mouvement Sont en mouvement, chargés négativement Noyau est constitué de nuéclons neutrons et protons Pas de charge pour les neutrons Pas de charge pour les neutrons Chargés positivement sont les protons Un atome possède un nombre de protons et d'électrons équivalent L'atome est donc neutre électriquement D'atomes, la matière est constituée Une molécule et formée par des atomes liés You might also like Deux atomes d'hydrogène, un atome d'oxygène H2O, c'est la molécule d'eau Un atome est représenté par son symbole Qui indique son nom Qui indique son nom Par son numéro atomique Z, c'est le nombre de protons Et par son nombre de masse A, c'est le nombre de nucléons On classe les 118 éléments différents dans un tableau appelé Classification périodique des éléments Ils sont rangés par numéro atomique Z croissant Ils sont rangés par numéro atomique Z croissant D'atomes la matière est constituée Une molécule est formée par des atomes liés Deux atomes d'oxygène, un atome de carbone CO2, c'est la molécule de dioxyde de carbone Un ion, un particule chargée électriquement Positivement ou négativement Un ion positif est appelé cation Il est issu d'un atome ayant perdu un électron Un ion négatif est appelé anion Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons D'atomes la matière est constituée Une molécule est formée par des atomes liés Un atome de chlore, deux atomes d'hydrogène HCl, c'est la molécule de chlorure d'hydrogène</t>
+          <t>Bienvenue sur Studytrakcs Oh, aïe aïe aïe Studytracks Oh, aïe aïe aïe Koba La D Oh Stan-E Music, bonjour Un atome est constitué d'un noyau chargé positivement Autour du noyau des électrons chargés, en mouvement Sont en mouvement, chargés négativement Noyau est constitué de nuéclons neutrons et protons Pas de charge pour les neutrons Pas de charge pour les neutrons Chargés positivement sont les protons Un atome possède un nombre de protons et d'électrons équivalent L'atome est donc neutre électriquement D'atomes, la matière est constituée Une molécule et formée par des atomes liés Deux atomes d'hydrogène, un atome d'oxygène H2O, c'est la molécule d'eau Un atome est représenté par son symbole Qui indique son nom Qui indique son nom Par son numéro atomique Z, c'est le nombre de protons Et par son nombre de masse A, c'est le nombre de nucléons On classe les 118 éléments différents dans un tableau appelé Classification périodique des éléments Ils sont rangés par numéro atomique Z croissant Ils sont rangés par numéro atomique Z croissant D'atomes la matière est constituée Une molécule est formée par des atomes liés Deux atomes d'oxygène, un atome de carbone CO2, c'est la molécule de dioxyde de carbone Un ion, un particule chargée électriquement Positivement ou négativement Un ion positif est appelé cation Il est issu d'un atome ayant perdu un électron Un ion négatif est appelé anion Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons D'atomes la matière est constituée Une molécule est formée par des atomes liés Un atome de chlore, deux atomes d'hydrogène HCl, c'est la molécule de chlorure d'hydrogène</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3774,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vi, y a trop d'ennemis, je souhait Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Eh, ça détaille comme à Charlie D, j'passe plus par affinité T'as cru faire carrière dans la stup' ? La rue t'auras piétiné Le médecin pourra plus m'aider, sur la chaise, kilos d'cocaïne On a d'la notoriété, je tasse le dispositif Et tout est Smurf You might also like Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'cité Eh, eh, putain d'merde J'suis dans l'bendo, sa mère la pute, mes bras ont pris du galbé mais mes poches aussi Aussi J'suis dans l'bendo, sa mère la pute, quelques amis d'enfance font pleurer, c'est des putes Des putes J'suis dans l'bendo, sa mère la pute La pute, toujours dans l'hall où ça pue la pisse La pisse Ou j'vais fonde-dé à l'hôtel avec tain-p' qui vas m'sucer tout l'trajet Sucer tout l'trajet À vrai dire, y a trop d'trucs qu'ont changer et je pensais pas en arriver là Ah Je côtoie que depuis qu'j'ai percer, avec les femmes, j'ai l'embarras du choix Nique sa mère Et si j'aurais pas percer, nique sa grand-mère, la drogue, ça rapporte aussi Eh J'suis dans l'site avec Skaodi et Deus' me pénave pour un autre los-ki S'embrouilles pour des grosses folles, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor</t>
+          <t>Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vi, y a trop d'ennemis, je souhait Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Eh, ça détaille comme à Charlie D, j'passe plus par affinité T'as cru faire carrière dans la stup' ? La rue t'auras piétiné Le médecin pourra plus m'aider, sur la chaise, kilos d'cocaïne On a d'la notoriété, je tasse le dispositif Et tout est Smurf Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'cité Eh, eh, putain d'merde J'suis dans l'bendo, sa mère la pute, mes bras ont pris du galbé mais mes poches aussi Aussi J'suis dans l'bendo, sa mère la pute, quelques amis d'enfance font pleurer, c'est des putes Des putes J'suis dans l'bendo, sa mère la pute La pute, toujours dans l'hall où ça pue la pisse La pisse Ou j'vais fonde-dé à l'hôtel avec tain-p' qui vas m'sucer tout l'trajet Sucer tout l'trajet À vrai dire, y a trop d'trucs qu'ont changer et je pensais pas en arriver là Ah Je côtoie que depuis qu'j'ai percer, avec les femmes, j'ai l'embarras du choix Nique sa mère Et si j'aurais pas percer, nique sa grand-mère, la drogue, ça rapporte aussi Eh J'suis dans l'site avec Skaodi et Deus' me pénave pour un autre los-ki S'embrouilles pour des grosses folles, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3791,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks En vrai t'avais raison de pas vouloir m'connaître, j'suis d'la catégorie des négros mal-honnêtes J'vends d'la drogue et j'fume moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, comptr, détaille Tu veux qu'j'arrête l business, tu veux qu'j't'arrose de pétales Mais si j'laisse cette vie comment veux-tu qu'j'enlève cette dague ? Et comment j'm'habille l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compares pas à mes potes C'est toi que j'compte marier mais avec eux que j'croque Prends pas la tête, ce soir j'rentre tard j'récupère des sous M'envoie pas d'message, j'éteins mon tel j'suis fonce-dé, tu m'saoules J'peux pas arrêter c'que j'fais, tu m'as connu dans les affaires Chérie t'inquiètes je gère, c'est ton mari qui tient la gare Non plus personne t'embête mais pas quand j'paye les biens Te prends pas la tête, financièrement tu s'ras prête C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? You might also like Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose, j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte Fais-moi mes gosses et on est quitte, babe Te fies pas à ma tchatche, c'est p't'être que des bobards, j'suis p't'être là pour ta chatte Dieu merci j'ai d'la chance, dans un monde de timp, j'reste fidèle qu'à mon cash1</t>
+          <t>Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks En vrai t'avais raison de pas vouloir m'connaître, j'suis d'la catégorie des négros mal-honnêtes J'vends d'la drogue et j'fume moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, comptr, détaille Tu veux qu'j'arrête l business, tu veux qu'j't'arrose de pétales Mais si j'laisse cette vie comment veux-tu qu'j'enlève cette dague ? Et comment j'm'habille l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compares pas à mes potes C'est toi que j'compte marier mais avec eux que j'croque Prends pas la tête, ce soir j'rentre tard j'récupère des sous M'envoie pas d'message, j'éteins mon tel j'suis fonce-dé, tu m'saoules J'peux pas arrêter c'que j'fais, tu m'as connu dans les affaires Chérie t'inquiètes je gère, c'est ton mari qui tient la gare Non plus personne t'embête mais pas quand j'paye les biens Te prends pas la tête, financièrement tu s'ras prête C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose, j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte Fais-moi mes gosses et on est quitte, babe Te fies pas à ma tchatche, c'est p't'être que des bobards, j'suis p't'être là pour ta chatte Dieu merci j'ai d'la chance, dans un monde de timp, j'reste fidèle qu'à mon cash1</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3808,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Lève pas trop la main, tu crois qu'tu parles à qui ? Marrakech, gros bolide, au volant, c'est de-spee, ma gueule Plein d'nouveaux habits, pas d'nouveaux amis amis J'suis au cinquantième, j'mange aussi la vie Calé dans l'tiroir, 9.3, zone à risque Absent lors des défaites mais tu snappes mes victoires p'tit profiteurs Et quand j'signais des chèques, t'étais sur le té-c', tu suçais des bites Tu connais quand tu m'croises dans ta rue, fais ta to-ph', nashave, j'suis fatigué j'suis bien Hier, j'me suis fait contrôler, la mu'-mu' d'la ne-zo sont trop énervés Toute la nuit, j'l'ai retourné, son nom, j'm'en souviens plus J'pense à Chadli, au Z, au V, j'pense à Kaza et Suge On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit J'vends plus trop d'shit, j'ai tout laissé aux p'tits, la ce-pu et le Snap' J'ai pris trop d'thune mais tu connais, dans c'jeu, les jaloux aiment pas ça J'me la pète pas, si j'veux, dans un d'mes clips, j'sors 100 000 en liquide en espèce Au fond, j'm'en bats les couilles mais c'est léger, logique T'as tiré sur lui lui, malheureusement, tu l'as loupé tu t'en veux On est revenus gantés, calibrés sur le T, pour une histoire de fierté bang, bang, bang Là, sur moi, j'ai 10K, toute la carte, tu peux la commander J'suis un mec d'la 'bre, gros trimards, à tout moment, j'peux t'barbé, c'est léger You might also like On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit</t>
+          <t>Lève pas trop la main, tu crois qu'tu parles à qui ? Marrakech, gros bolide, au volant, c'est de-spee, ma gueule Plein d'nouveaux habits, pas d'nouveaux amis amis J'suis au cinquantième, j'mange aussi la vie Calé dans l'tiroir, 9.3, zone à risque Absent lors des défaites mais tu snappes mes victoires p'tit profiteurs Et quand j'signais des chèques, t'étais sur le té-c', tu suçais des bites Tu connais quand tu m'croises dans ta rue, fais ta to-ph', nashave, j'suis fatigué j'suis bien Hier, j'me suis fait contrôler, la mu'-mu' d'la ne-zo sont trop énervés Toute la nuit, j'l'ai retourné, son nom, j'm'en souviens plus J'pense à Chadli, au Z, au V, j'pense à Kaza et Suge On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit J'vends plus trop d'shit, j'ai tout laissé aux p'tits, la ce-pu et le Snap' J'ai pris trop d'thune mais tu connais, dans c'jeu, les jaloux aiment pas ça J'me la pète pas, si j'veux, dans un d'mes clips, j'sors 100 000 en liquide en espèce Au fond, j'm'en bats les couilles mais c'est léger, logique T'as tiré sur lui lui, malheureusement, tu l'as loupé tu t'en veux On est revenus gantés, calibrés sur le T, pour une histoire de fierté bang, bang, bang Là, sur moi, j'ai 10K, toute la carte, tu peux la commander J'suis un mec d'la 'bre, gros trimards, à tout moment, j'peux t'barbé, c'est léger On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Pas encore de paroleYou might also like</t>
+          <t>Pas encore de parole</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3842,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Han-han-han-han-han Bien ou bien ? Weshi, wesha Han-han-han-han-han Bien ou bien ? Ok Wesh, les humains ? Weshi, wesha C'est comment ? Bien ou quoi ? Bien ou bien ? Grinta Binks, société gérée par gérants d'terrains d'gains Pah-pah Wesh ? Mon sin-cou, tu dis-quoi ? Moi, j'ai plus d'une barrette dans mon sac Merde, j'suis un p'tit peu pressé Vite fait, j'vais voir un mec, on s'revoit après, merde J'ai tout repris à fond, comme Ron', avant qu'on m'défonce la porte, cache tout Véhicule d'Instagram, j'suis dans un Range, c'est les bails, j'nique cata, n'importent quel trou J'ai-j'ai-j'ai d'la buh mais y a plus d'zippette-pett-pette, il faut qu'j'en pète Et si j'ai pas mon feu, j'ai mon bip, bip, bip, donc j'peux pas perdre Ve-venez voir, ici, ça ment pas, si ça parle d'RS c'est que la patate, y en a Viens-viens-viens-voir, c'est carrément gang, LaD qui fait des dérapages en M3 Pour qu'il parle bien, gère le frein à main, elle, j'peut la ken mais là, j'ai la flemme Ils croit qu'j'sais pas tout c'qu'il dit sur moi, lui, j'peux l'gifler mais ça sert à rien You might also like Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis serein, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Oh, la bouteille, j'la descends solo, Jack au re-pu, zéro coupure J'suis dans l'bâtiment, dans un bolide, dans un maxi boulard grave connu Filme ton cul d'derrière Hum, but mais j'frôle le poteau Poteau rentrant J'ai la poisse, j'fais que d'tomber sur des putains Putains, d'putains Faites pas les gues-din, zahma, vous êtes déterminés comme jamais Devant la fête, il faudra courir, ça va tirer-gué comme à L.A J'pourrais les croire mais c'est des mythos Mythos, des gros mythos Mythos Des gros mythos mais bon, j'vais les laisser kill' On les baise encore une fois, jamais deux sans trois S.A.N.K, Kobz LaD, les autres sont calidas On les baise tout les jours, rebelote, rebelote, rebelote J'vais pas la désapés, moi, j'vais juste décaler sa culotte Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis sereins, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch, j'suis dans une grosse caisse, dans un maxi boule1</t>
+          <t>Han-han-han-han-han Bien ou bien ? Weshi, wesha Han-han-han-han-han Bien ou bien ? Ok Wesh, les humains ? Weshi, wesha C'est comment ? Bien ou quoi ? Bien ou bien ? Grinta Binks, société gérée par gérants d'terrains d'gains Pah-pah Wesh ? Mon sin-cou, tu dis-quoi ? Moi, j'ai plus d'une barrette dans mon sac Merde, j'suis un p'tit peu pressé Vite fait, j'vais voir un mec, on s'revoit après, merde J'ai tout repris à fond, comme Ron', avant qu'on m'défonce la porte, cache tout Véhicule d'Instagram, j'suis dans un Range, c'est les bails, j'nique cata, n'importent quel trou J'ai-j'ai-j'ai d'la buh mais y a plus d'zippette-pett-pette, il faut qu'j'en pète Et si j'ai pas mon feu, j'ai mon bip, bip, bip, donc j'peux pas perdre Ve-venez voir, ici, ça ment pas, si ça parle d'RS c'est que la patate, y en a Viens-viens-viens-voir, c'est carrément gang, LaD qui fait des dérapages en M3 Pour qu'il parle bien, gère le frein à main, elle, j'peut la ken mais là, j'ai la flemme Ils croit qu'j'sais pas tout c'qu'il dit sur moi, lui, j'peux l'gifler mais ça sert à rien Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis serein, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Oh, la bouteille, j'la descends solo, Jack au re-pu, zéro coupure J'suis dans l'bâtiment, dans un bolide, dans un maxi boulard grave connu Filme ton cul d'derrière Hum, but mais j'frôle le poteau Poteau rentrant J'ai la poisse, j'fais que d'tomber sur des putains Putains, d'putains Faites pas les gues-din, zahma, vous êtes déterminés comme jamais Devant la fête, il faudra courir, ça va tirer-gué comme à L.A J'pourrais les croire mais c'est des mythos Mythos, des gros mythos Mythos Des gros mythos mais bon, j'vais les laisser kill' On les baise encore une fois, jamais deux sans trois S.A.N.K, Kobz LaD, les autres sont calidas On les baise tout les jours, rebelote, rebelote, rebelote J'vais pas la désapés, moi, j'vais juste décaler sa culotte Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis sereins, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch, j'suis dans une grosse caisse, dans un maxi boule1</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3859,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Mmh, mmh Ouh oh, oh J'ai le RS3 le RS3 J'ai l'RS3, vitesse éclair ouais, là j'baise, j't'appelle t'à l'heure J'ai eu raison de suivre mon flair, maintenant, sans rien faire, j'prends du flouze Il faut v'nir découper mes fraises et ma grosse liasse te fout la frousse, j'ai l'RS3, vitesse éclair Et j'dois récupérer ma meuf, elle sait pas qu'ma caisse est chargée Des millions d'auditeurs, c'est pas pour autant qu'j'vais changer Toi, arrête de faire rodave, arrête de snapper l'AMG, salope On change les prix que si le produit a changé On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi You might also like Bon investissement, mon chiffre d'affaires, que la foudre sur le four Crois-moi, l'union fait pas la force, ils vont sûrement venir par te faire Tes mort dans l'film, si tu flippes, prends tes deux mains et porte tes couilles, salope prends tes deux mains et porte tes couilles Crois-moi, l'union fait pas la force En c'moment, l'quartier il est éteint il est éteint, y a les condés tout autour Ça fait partir les clickos, c'est la tour, rien qu'j'les attire On a la meilleure beuh, la meilleure beuh, le meilleur shit d'la zone le meilleur shit On roule avec les plus grosses caisses d'la zone On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Le 6.35, j'l'ai dans mes mains, moi J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Mmh, mmh Mmh, mmh Mmh, mmh Mmh, mmh</t>
+          <t>Mmh, mmh Ouh oh, oh J'ai le RS3 le RS3 J'ai l'RS3, vitesse éclair ouais, là j'baise, j't'appelle t'à l'heure J'ai eu raison de suivre mon flair, maintenant, sans rien faire, j'prends du flouze Il faut v'nir découper mes fraises et ma grosse liasse te fout la frousse, j'ai l'RS3, vitesse éclair Et j'dois récupérer ma meuf, elle sait pas qu'ma caisse est chargée Des millions d'auditeurs, c'est pas pour autant qu'j'vais changer Toi, arrête de faire rodave, arrête de snapper l'AMG, salope On change les prix que si le produit a changé On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Bon investissement, mon chiffre d'affaires, que la foudre sur le four Crois-moi, l'union fait pas la force, ils vont sûrement venir par te faire Tes mort dans l'film, si tu flippes, prends tes deux mains et porte tes couilles, salope prends tes deux mains et porte tes couilles Crois-moi, l'union fait pas la force En c'moment, l'quartier il est éteint il est éteint, y a les condés tout autour Ça fait partir les clickos, c'est la tour, rien qu'j'les attire On a la meilleure beuh, la meilleure beuh, le meilleur shit d'la zone le meilleur shit On roule avec les plus grosses caisses d'la zone On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Le 6.35, j'l'ai dans mes mains, moi J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Mmh, mmh Mmh, mmh Mmh, mmh Mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3876,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>J'suis millionnaire, j'suis visionnaire Et j'tire pas d'pétasse après l'showcase, elle est d'jà à l'hôtel, wshYou might also like1</t>
+          <t>J'suis millionnaire, j'suis visionnaire Et j'tire pas d'pétasse après l'showcase, elle est d'jà à l'hôtel, wsh1</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Uh Solo a mi madre Solo a mi madre Solo a mi madre Solo a mi madre Shay Nunca pensé que traicionase Aunque si ya fuese, amigos se me giran Oh, oh Hermano mío aunque viese lo que nunca quise Nunca te lo haría Oh, oh, oh A cambio no dirán que no diese Oh Amigo, dime, por qué me la haces? Haces Amigo no es familia que tú eliges Tú decides si tú también la escoges Es verdad que me han pasado cosas To' lo malo, pero bueno, todo eso pasé Pasé Soledad que a mí m enamora Esta vez me djaron pasar solo, lo sé Losé Lo de que te ayudan cuando las cosas le interesan Ese discurso ya yo me la sé Ah-ah Y la hace como no la veo, pero sí las veo, y hago al revés Revés You might also like Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Elle fait trop la caïd, elle croit qu'elle a tout vu Mais ma chérie, t'es loin d'avoir tout vu Ton ex faisait l'caïd mais il devait trop d'sous Il t'a menti, imbécile, tu l'as cru La coke sur la pesette, moi, j'l'ai toujours chargée T'as fini d'faire la tain-p', maintenant tu m'parles de causer Elle veut m'voir à la cité vu qu'j'suis dans la cité Elle veut qu'j'l'emmène au restau vu qu'j'l'emmène dans ma suite Mais j'suis toujours dans l'bloc, j'suis toujours dans l'bloc Elle kiffe quand j'attache mes ch'veux, quand j'le mets dans l'froc Faut rester dans l'semblant mais quand ça va m'lasser J'peux en serrer une autre mais ça va r'commencer J'y repense dans l'Audi, j'suis pété, j'suis pété Relation ça m'fait peur, on en reparle t'à l'heure J'y repense dans l'Audi, j'suis pété, j'suis pété Relation ça m'fait peur, on en reparle t'à l'heure Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai</t>
+          <t>Uh Solo a mi madre Solo a mi madre Solo a mi madre Solo a mi madre Shay Nunca pensé que traicionase Aunque si ya fuese, amigos se me giran Oh, oh Hermano mío aunque viese lo que nunca quise Nunca te lo haría Oh, oh, oh A cambio no dirán que no diese Oh Amigo, dime, por qué me la haces? Haces Amigo no es familia que tú eliges Tú decides si tú también la escoges Es verdad que me han pasado cosas To' lo malo, pero bueno, todo eso pasé Pasé Soledad que a mí m enamora Esta vez me djaron pasar solo, lo sé Losé Lo de que te ayudan cuando las cosas le interesan Ese discurso ya yo me la sé Ah-ah Y la hace como no la veo, pero sí las veo, y hago al revés Revés Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Elle fait trop la caïd, elle croit qu'elle a tout vu Mais ma chérie, t'es loin d'avoir tout vu Ton ex faisait l'caïd mais il devait trop d'sous Il t'a menti, imbécile, tu l'as cru La coke sur la pesette, moi, j'l'ai toujours chargée T'as fini d'faire la tain-p', maintenant tu m'parles de causer Elle veut m'voir à la cité vu qu'j'suis dans la cité Elle veut qu'j'l'emmène au restau vu qu'j'l'emmène dans ma suite Mais j'suis toujours dans l'bloc, j'suis toujours dans l'bloc Elle kiffe quand j'attache mes ch'veux, quand j'le mets dans l'froc Faut rester dans l'semblant mais quand ça va m'lasser J'peux en serrer une autre mais ça va r'commencer J'y repense dans l'Audi, j'suis pété, j'suis pété Relation ça m'fait peur, on en reparle t'à l'heure J'y repense dans l'Audi, j'suis pété, j'suis pété Relation ça m'fait peur, on en reparle t'à l'heure Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Solo mi madre Solo a mi madre Solo mi madre Solo a mi madre La confianza solo me queda, solo mi madre Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai Des kichtas, d'la money, des pesos, des pesos J'suis trop cramé partout, faut qu'on s'taille de la zone Des kichtas, d'la money, des pesos, des pesos J'suis refait, j'ai refait la son-mai</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Oh my God! Et encore une affaire sans suite Louis Effrayé Kronos is king Ah Yah, yah Encore une affaire sans suite Encore, encore une pute dans ma suite Encore Encore un contrôle banale qui va s'finir en délit d'fuite Comme d'hab' Effrayé par son tigné, j'la bouffe toute la matinée 'tinée Et comme j'suis un congolais, j'vais la balder juste après-gué Et juste par précaution, calibré dans l'studio, calibré dans l'restau' C'est encore moi, fonce-dé dans l'fond du bus, cagoulé dans l'appart' J'ai l'métal froid, j'ressens touts tes battements, je ressens même ta peur J'me barre de là bientôt, j'peux pas bouger, faut que j'finisse ma part Impliquée jusqu'au cou Au cou, elle s'arrête à ma queue Ma queue Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Pas grave Comme ma pute, j'les encule Dans l'fion, bien profond dans leurs culs Bien loin Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Ah-ah, ah-ah You might also like J'fais les tes-comp dans l'bât', il est minuit moins dix et il m'en reste encore Impliquée jusqu'au cou, je caille On s'pose de minuit à midi, j'suis sur la fin du pain, faut que j'détaille, encore Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission, yeah, yeah Le z-en dans les problèmes Hey, j'ai l'regard plutôt violent quand j'allume ce cône d'herbe Quand j'allume ce cône d'herbe, yah-yah Rien qu'ça m'v'-esqui, peur déteindre, faut recanaliser ma haine J'les dépasse, la vie d'avant, c'est bien loin, c'est dans mon buzz qu'elle m'aime J'ai ce fer au studio, dans l'auto, j'les encule, c'est des faux djo J'implique Tu-tu-tum, que ça, tiré sur toi, j'veux la vie comme ça, han Elle s'accroche à ma queue Brr, j'les baise, j'suis plus fort qu'eux Des flockos, madame, c'est mes ennemies Koba LaD, Green'Zer, 92i, han, yeah, yeah Impliquée jusqu'au cou Au cou, elle s'arrête à ma queue Ma queue Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Pas grave Comme ma pute, j'les encule Dans l'fion, bien profond dans leurs culs Bien loin Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Ah, ah Impliquée jusqu'au cou, je caille, j'vais pas perde mon temps Additionne les médailles, yeah, yeah Les médailles, yeah, yeah À l'heure où j'recommande, le sac est vide, encore Pour l'moment, pète un gros fer, yah Pète un gros fer, yah Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission</t>
+          <t>Oh my God! Et encore une affaire sans suite Louis Effrayé Kronos is king Ah Yah, yah Encore une affaire sans suite Encore, encore une pute dans ma suite Encore Encore un contrôle banale qui va s'finir en délit d'fuite Comme d'hab' Effrayé par son tigné, j'la bouffe toute la matinée 'tinée Et comme j'suis un congolais, j'vais la balder juste après-gué Et juste par précaution, calibré dans l'studio, calibré dans l'restau' C'est encore moi, fonce-dé dans l'fond du bus, cagoulé dans l'appart' J'ai l'métal froid, j'ressens touts tes battements, je ressens même ta peur J'me barre de là bientôt, j'peux pas bouger, faut que j'finisse ma part Impliquée jusqu'au cou Au cou, elle s'arrête à ma queue Ma queue Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Pas grave Comme ma pute, j'les encule Dans l'fion, bien profond dans leurs culs Bien loin Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Ah-ah, ah-ah J'fais les tes-comp dans l'bât', il est minuit moins dix et il m'en reste encore Impliquée jusqu'au cou, je caille On s'pose de minuit à midi, j'suis sur la fin du pain, faut que j'détaille, encore Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission, yeah, yeah Le z-en dans les problèmes Hey, j'ai l'regard plutôt violent quand j'allume ce cône d'herbe Quand j'allume ce cône d'herbe, yah-yah Rien qu'ça m'v'-esqui, peur déteindre, faut recanaliser ma haine J'les dépasse, la vie d'avant, c'est bien loin, c'est dans mon buzz qu'elle m'aime J'ai ce fer au studio, dans l'auto, j'les encule, c'est des faux djo J'implique Tu-tu-tum, que ça, tiré sur toi, j'veux la vie comme ça, han Elle s'accroche à ma queue Brr, j'les baise, j'suis plus fort qu'eux Des flockos, madame, c'est mes ennemies Koba LaD, Green'Zer, 92i, han, yeah, yeah Impliquée jusqu'au cou Au cou, elle s'arrête à ma queue Ma queue Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Pas grave Comme ma pute, j'les encule Dans l'fion, bien profond dans leurs culs Bien loin Et moi, j'ai rien fait pour mais j'crois qu'le succès à fait que Ah, ah Impliquée jusqu'au cou, je caille, j'vais pas perde mon temps Additionne les médailles, yeah, yeah Les médailles, yeah, yeah À l'heure où j'recommande, le sac est vide, encore Pour l'moment, pète un gros fer, yah Pète un gros fer, yah Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission Faut j'récupère c'que j'ai misé Faut j'récupère c'que j'ai misé Là, j'suis pas là, j'suis en mission Là, j'suis pas là, j'suis en mission</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3927,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Wouh, ouh, ouh Ah, ah, ah Pour ça, j'suis broliqué Tu connais, le BMG Jozii Méchant, Jozii Cartel volume 2 Ça pète, Cartel volume 2 Na ta bête, toi Méchant Ou ja konèt boug'ou, toujours un peu dans le crime, j'suis calibré comme un timal Force à Timata, force à Sugy et Kaza, ça me casse les couilles les mandats J'suis daye dans l'appart' et ma pétasse détaille mes kilos C'est pas du dancehalle, c'est Tarpez, couto Ma Rolex fait Tic et Tac, tu m'vois sur Tik et Tok J'suis trop griller, du coup, j'en mets un peu, dans l'cul Tu connais, gros, j'survole toute la ville et j'baise Aladin J'fais pas d'l'entraînments, non, j'crois qu'j'ai un don Fonce-dé avec Jozii, Jozii, l joint d'beuh est dosé, dosé Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé J'suis matrixé, j'bouge mes locks comme en Martinique J'fais tomber le Toka', pendant qu'elle enlève sa tunique You might also like Mon bébé, faut pas t'inquiéter, c'est quadrillé Tarpez L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Tah-tah-tah-tah, j'peux danser, j'suis broliqué En vré ? Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser J'suis dans l'carré, j'peux pas danser, j'peux danser, j'suis broliqué J'peux pas danser, j'suis broliqué Si ça parle cash, tu sais, on est prêts, une connexion, ça les effraies Tarpez, couto, Koba LaD, appelle-nous si le plan est concret Me parle pas si t'es pas V2V Me parle pas si t'es pas vrai Pa mandé mwen ba yo piess coup d'main, ils étaient où quand on avait rien ? V2V, tu sais d'où je viens, me tchek pas par intérêt 97200, sé la Man soti, la bonne coca' des Antilles J'ai des crimis qui purgent leur peine, lavi nous rèd an tcho problèm Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé J'suis matrixé, j'bouge mes locks comme en Martinique J'fais tomber le Toka', pendant qu'elle enlève sa tunique Mon bébé, faut pas t'inquiéter, c'est quadrillé Tard-pé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Nan, bouh-bouh-bouh-bouh-bouh, j'peux danser, j'suis broliqué Bouh-bouh-bouh-bouh-bouh Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Tu connais le BMG, j'peux danser, j'suis broliqué Méchant Lâcher mes BMG, Tarpez et mes AMB J'ai des collègues colombien, Dakar block, mes africains Moi, j'suis un antillais, tu connais, toujours zoutillé V2V, le Seven Binks Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser Bouh-bouh-bouh-bouh-bouh-bouh, j'peux danser, j'suis broliqué J'suis dans l'carré, j'suis broliqué Mon bébé, faut pas t'inquiéter Nan, c'est quadrillé Ouais L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser J'suis dans l'carré, j'suis calibré, j'peux danser, j'suis broliqué J'suis dans l'carré, j'suis broliqué Méchant</t>
+          <t>Wouh, ouh, ouh Ah, ah, ah Pour ça, j'suis broliqué Tu connais, le BMG Jozii Méchant, Jozii Cartel volume 2 Ça pète, Cartel volume 2 Na ta bête, toi Méchant Ou ja konèt boug'ou, toujours un peu dans le crime, j'suis calibré comme un timal Force à Timata, force à Sugy et Kaza, ça me casse les couilles les mandats J'suis daye dans l'appart' et ma pétasse détaille mes kilos C'est pas du dancehalle, c'est Tarpez, couto Ma Rolex fait Tic et Tac, tu m'vois sur Tik et Tok J'suis trop griller, du coup, j'en mets un peu, dans l'cul Tu connais, gros, j'survole toute la ville et j'baise Aladin J'fais pas d'l'entraînments, non, j'crois qu'j'ai un don Fonce-dé avec Jozii, Jozii, l joint d'beuh est dosé, dosé Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé J'suis matrixé, j'bouge mes locks comme en Martinique J'fais tomber le Toka', pendant qu'elle enlève sa tunique Mon bébé, faut pas t'inquiéter, c'est quadrillé Tarpez L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Tah-tah-tah-tah, j'peux danser, j'suis broliqué En vré ? Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser J'suis dans l'carré, j'peux pas danser, j'peux danser, j'suis broliqué J'peux pas danser, j'suis broliqué Si ça parle cash, tu sais, on est prêts, une connexion, ça les effraies Tarpez, couto, Koba LaD, appelle-nous si le plan est concret Me parle pas si t'es pas V2V Me parle pas si t'es pas vrai Pa mandé mwen ba yo piess coup d'main, ils étaient où quand on avait rien ? V2V, tu sais d'où je viens, me tchek pas par intérêt 97200, sé la Man soti, la bonne coca' des Antilles J'ai des crimis qui purgent leur peine, lavi nous rèd an tcho problèm Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé Fonce-dé avec Jozii, Jozii, le joint d'beuh est dosé, dosé J'suis matrixé, j'bouge mes locks comme en Martinique J'fais tomber le Toka', pendant qu'elle enlève sa tunique Mon bébé, faut pas t'inquiéter, c'est quadrillé Tard-pé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Nan, bouh-bouh-bouh-bouh-bouh, j'peux danser, j'suis broliqué Bouh-bouh-bouh-bouh-bouh Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle Nan J'suis dans l'carré, j'peux pas danser Tu connais le BMG, j'peux danser, j'suis broliqué Méchant Lâcher mes BMG, Tarpez et mes AMB J'ai des collègues colombien, Dakar block, mes africains Moi, j'suis un antillais, tu connais, toujours zoutillé V2V, le Seven Binks Mon bébé, faut pas t'inquiéter, c'est quadrillé L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser Bouh-bouh-bouh-bouh-bouh-bouh, j'peux danser, j'suis broliqué J'suis dans l'carré, j'suis broliqué Mon bébé, faut pas t'inquiéter Nan, c'est quadrillé Ouais L'officielle, ce s'ra la plus belle, toi, t'es même pas belle J'suis dans l'carré, j'peux pas danser J'suis dans l'carré, j'suis calibré, j'peux danser, j'suis broliqué J'suis dans l'carré, j'suis broliqué Méchant</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Et bye, bye, bye, bye, bye, bye eh, l'enculé là Hahaha Eh, cest l'bâtiment 7, frère eh Seven Binks, le Seven Binks Eh, tu vois nous ? On s'est connus avant la musique, hein Tout cqu'on dit, c'est réel, Wallaye Billaye On reprend le contrôle des opérations han, han et pas avec modération Le fusil est léger, t'inquiète pas pour mes bras grr, j'ai pas besoin d'pousser la fonte pa-pa-pa-paw C'est nous les méchants, gestu' accroupie, cest tous les copies, jme fais ta groupie Kodes la barrière, Kodes la barrière Et tous ces rappeurs racontent des broutilles eh bye, bye, bye, bye, ouh, ouh J'marche serein solo dans la ville dans la ville, jsuis armé comme dans les films dans les films Et tu vas percer si on fait un feat' et tu vas percer si on fait un feat', négro J'ai acheté ldernier RSQ3 sa mère, j'l'ai cartonne sa mère Mais bon, nique sa mère, j'l'ai r'vendu, j'ai acheté un autre fer sa mère J'ai des thunes, j'ai des tchoins, j'ai du buzz, j'ai du flow, maintenant, j'suis écouté par mes ennemis Sankhara, c'est mon blase, elle m'a dit mets-la-moi quand elle a vu ma tê-te sur Trace TV C'est grave terrible grave terrible Même si j'dépense, j'pourrais pas toucher le bout de mon plafond, trop d'money money, money Plus de place dans la bre-cham, j'ai coffré le reste sur bé-ton You might also like Keusty, Pal, j'sais qu'tu m'as r'connu, dièse 31 dièse, appelle en inconnu On enchaine les délits, v'-esqui les gardes à vue, les descentes d'la BAC sur le terrain, t'as pas connu Le 7 est passé des clichés à la télé, du bât' 7 au tel-hô, c'est l'Bât' 7, enculé enculé, hey Du bât' 7 au tel-hô, c'est l'Bât' 7, enculé Et j'suis dans l'bloc et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock Gang, gang, gang, gang, gang okay, okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument seven okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument On n'a pas qu'une seule vie, on a qu'une seule mort tu-tu, pa-pa-paw Mental en or comme le frérot Omar Je suis déter', j'suis debout dès l'aurore Pour faire de l'argent, il n'y a pas d'horaire jamais Le Roi 2zé oui, j'v'-esqui la disette oui Des kil' par dizaines, j'revends tout ça dans l'bât' 7 Je le sens, tu le sais, tu me suis mais oui, t'es le sang, on le fait et on fuit Encore nous, c'est le bâtiment 7, y a les filles, y a le buzz, elle veut toucher mon sexe la pute Elle a mouillé, j'ai pas bandé ah, maintenant, j'ai compris pourquoi la fille, elle se vexe Salope, drogue, pute, armes, merde, dis-moi c'est quoi cette vie-là ? J'ai grandi, j'ai appris appris, gang, c'était tous des faux, zebi zebi, gang J'préfère avoir du ffe-bi ffe-bi, shu qu'avoir des faux amis Merlich, regarde, j'suis toujours là okay, et King me dit prépare l'combat, mais oui J'veux être le tron-pa, au Sud, poser avec Koba On va t'niquer ton père bah oui, on va t'baiser ta mère On va t'laisser au sol, on va prendre tes affaires J'ai pas d'grands frère, moi, y a l'Opinel qu'est là si tu dois des affaires Un coup d'bat', ça sa l'a couché, tu touches un d'mes reufs si tu m'as touché RS4, Djemso, postiché, moi, j'suis dans l'seven, bien accompagné Et j'suis dans l'bloc et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock Gang, gang, gang, gang, gang okay, okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument seven okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument C'est le monument, c'est le monument seven, seven, seven C'est le monument, c'est le monument okay, okay, okay C'est le monument, c'est le monument seven, seven, seven C'est le monument, c'est le monument bye, bye, bye</t>
+          <t>Et bye, bye, bye, bye, bye, bye eh, l'enculé là Hahaha Eh, cest l'bâtiment 7, frère eh Seven Binks, le Seven Binks Eh, tu vois nous ? On s'est connus avant la musique, hein Tout cqu'on dit, c'est réel, Wallaye Billaye On reprend le contrôle des opérations han, han et pas avec modération Le fusil est léger, t'inquiète pas pour mes bras grr, j'ai pas besoin d'pousser la fonte pa-pa-pa-paw C'est nous les méchants, gestu' accroupie, cest tous les copies, jme fais ta groupie Kodes la barrière, Kodes la barrière Et tous ces rappeurs racontent des broutilles eh bye, bye, bye, bye, ouh, ouh J'marche serein solo dans la ville dans la ville, jsuis armé comme dans les films dans les films Et tu vas percer si on fait un feat' et tu vas percer si on fait un feat', négro J'ai acheté ldernier RSQ3 sa mère, j'l'ai cartonne sa mère Mais bon, nique sa mère, j'l'ai r'vendu, j'ai acheté un autre fer sa mère J'ai des thunes, j'ai des tchoins, j'ai du buzz, j'ai du flow, maintenant, j'suis écouté par mes ennemis Sankhara, c'est mon blase, elle m'a dit mets-la-moi quand elle a vu ma tê-te sur Trace TV C'est grave terrible grave terrible Même si j'dépense, j'pourrais pas toucher le bout de mon plafond, trop d'money money, money Plus de place dans la bre-cham, j'ai coffré le reste sur bé-ton Keusty, Pal, j'sais qu'tu m'as r'connu, dièse 31 dièse, appelle en inconnu On enchaine les délits, v'-esqui les gardes à vue, les descentes d'la BAC sur le terrain, t'as pas connu Le 7 est passé des clichés à la télé, du bât' 7 au tel-hô, c'est l'Bât' 7, enculé enculé, hey Du bât' 7 au tel-hô, c'est l'Bât' 7, enculé Et j'suis dans l'bloc et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock Gang, gang, gang, gang, gang okay, okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument seven okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument On n'a pas qu'une seule vie, on a qu'une seule mort tu-tu, pa-pa-paw Mental en or comme le frérot Omar Je suis déter', j'suis debout dès l'aurore Pour faire de l'argent, il n'y a pas d'horaire jamais Le Roi 2zé oui, j'v'-esqui la disette oui Des kil' par dizaines, j'revends tout ça dans l'bât' 7 Je le sens, tu le sais, tu me suis mais oui, t'es le sang, on le fait et on fuit Encore nous, c'est le bâtiment 7, y a les filles, y a le buzz, elle veut toucher mon sexe la pute Elle a mouillé, j'ai pas bandé ah, maintenant, j'ai compris pourquoi la fille, elle se vexe Salope, drogue, pute, armes, merde, dis-moi c'est quoi cette vie-là ? J'ai grandi, j'ai appris appris, gang, c'était tous des faux, zebi zebi, gang J'préfère avoir du ffe-bi ffe-bi, shu qu'avoir des faux amis Merlich, regarde, j'suis toujours là okay, et King me dit prépare l'combat, mais oui J'veux être le tron-pa, au Sud, poser avec Koba On va t'niquer ton père bah oui, on va t'baiser ta mère On va t'laisser au sol, on va prendre tes affaires J'ai pas d'grands frère, moi, y a l'Opinel qu'est là si tu dois des affaires Un coup d'bat', ça sa l'a couché, tu touches un d'mes reufs si tu m'as touché RS4, Djemso, postiché, moi, j'suis dans l'seven, bien accompagné Et j'suis dans l'bloc et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock et j'suis dans l'bloc J'ai laissé tomber l'entraînement, j'ai acheté un Glock j'ai acheté un Glock Ceinture Gucci pour l'froc Et si j'en n'ai pas, j'fais tomber mon Glock Gang, gang, gang, gang, gang okay, okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument seven okay, okay, okay J'suis dans l'blow, blow, blow, blow, seven seven, seven J'suis dans l'monu', monu', monu', monument C'est le monument, c'est le monument seven, seven, seven C'est le monument, c'est le monument okay, okay, okay C'est le monument, c'est le monument seven, seven, seven C'est le monument, c'est le monument bye, bye, bye</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ballin' since I was a jit Way before Oakland and filmin' the skits, I had a goal to get rich Momma was strugglin' paying the rent I couldn't help her with shit Hate that I'm feelin' so stuck in this bitch Devo, this shit hard Car broke down, can't fix that shit I cried at night, I'll admit that shit O2, old, I'll whip that bitch She left me 'lone but I miss that bitch If she text right now, I'll hit that bitch Old friends like How you get that lit? Same old me but they think I switched Fuck old friends I don't know that bitch Racks too big, can't fold that shit Hand get numb when I hold that shit Momma I told you we gon' be okay Whippin' that Benz and she live in L.A Tryna thank God but don't know what to say Mais si j'raconte tout, ils vont croire que j'ai pas de vie Que j'ai des regrets aussi mais pas du tout Même si des fois c'était dur, regarde-moi, rien n'est impossible Fallait que je deal pour manger, que je deal pour m'habiller, que j'redeal pour remanger J'suis plus dans l'deal mais c'est moi qui vient t'livrer, si y a moyen de gratter Ça a déjà crié PU avant qu'la porte latéral droite, elle s'ouvre, mon frère, han, han You might also like Mm, I feel like Michael Jackson Moonwalkin' through the Calabasas Louis bag gotta hold the ratchet Just in case a nigga want some action Mm, got some millions but it's just a fraction Spendin' money for my satisfaction Benjamin's, we don't fuck with Jackson's Bet when I drop, they don't post that shit Yeah, yeah, yeah All good though, I'ma note that shit When I blow you'll owe me bitch Humble ass nigga but I know I'm rich Yeah, rich as fuck Fuck that shit I know I'm lit If we beef I fuck your bitch All of the niggas I beef on the internet I hit up all of they bitches and get 'em wet Call her a Uber, I hit 'em and send 'em back Do it in silence cause players' ain't in to that No, oh, I hit his bitch on the low, oh She said your dick game was so-so And she had told me your broke That's tough Et j'crois qu'mon p'tit con d'frère fume en scred J'ai grave la haine, tout l'monde va dire qu'c'est d'ma faute Il faut qu'j'le nique mais nique sa mère, t'façon, ça va rien changer Il comprendra plus tard que toutes ces merdes, c'est pour les schlags Et un appel manqué d'mon ex Eh, eh, hun Spent four hunnid on beanies, easy She want dick, she needy, freaky I like Wraiths, no Lamborghini She off X, she sleepy, sleepy, yeah Make me a wish no genie, genie Vanish on niggas just like Houdini Mm, I feel like Michael Jackson Moonwalkin' through the Calabasas Louie bag gotta hold the ratchet Just in case a nigga want some action Mm, got some millions but it's just a fraction Spendin' money for my satisfaction Benjamin's, we don't fuck with Jackson's Benjamin's, we don't fuck with Jackson's I feel like Michael Jackson Moonwalkin' through the Calabasas</t>
+          <t>Ballin' since I was a jit Way before Oakland and filmin' the skits, I had a goal to get rich Momma was strugglin' paying the rent I couldn't help her with shit Hate that I'm feelin' so stuck in this bitch Devo, this shit hard Car broke down, can't fix that shit I cried at night, I'll admit that shit O2, old, I'll whip that bitch She left me 'lone but I miss that bitch If she text right now, I'll hit that bitch Old friends like How you get that lit? Same old me but they think I switched Fuck old friends I don't know that bitch Racks too big, can't fold that shit Hand get numb when I hold that shit Momma I told you we gon' be okay Whippin' that Benz and she live in L.A Tryna thank God but don't know what to say Mais si j'raconte tout, ils vont croire que j'ai pas de vie Que j'ai des regrets aussi mais pas du tout Même si des fois c'était dur, regarde-moi, rien n'est impossible Fallait que je deal pour manger, que je deal pour m'habiller, que j'redeal pour remanger J'suis plus dans l'deal mais c'est moi qui vient t'livrer, si y a moyen de gratter Ça a déjà crié PU avant qu'la porte latéral droite, elle s'ouvre, mon frère, han, han Mm, I feel like Michael Jackson Moonwalkin' through the Calabasas Louis bag gotta hold the ratchet Just in case a nigga want some action Mm, got some millions but it's just a fraction Spendin' money for my satisfaction Benjamin's, we don't fuck with Jackson's Bet when I drop, they don't post that shit Yeah, yeah, yeah All good though, I'ma note that shit When I blow you'll owe me bitch Humble ass nigga but I know I'm rich Yeah, rich as fuck Fuck that shit I know I'm lit If we beef I fuck your bitch All of the niggas I beef on the internet I hit up all of they bitches and get 'em wet Call her a Uber, I hit 'em and send 'em back Do it in silence cause players' ain't in to that No, oh, I hit his bitch on the low, oh She said your dick game was so-so And she had told me your broke That's tough Et j'crois qu'mon p'tit con d'frère fume en scred J'ai grave la haine, tout l'monde va dire qu'c'est d'ma faute Il faut qu'j'le nique mais nique sa mère, t'façon, ça va rien changer Il comprendra plus tard que toutes ces merdes, c'est pour les schlags Et un appel manqué d'mon ex Eh, eh, hun Spent four hunnid on beanies, easy She want dick, she needy, freaky I like Wraiths, no Lamborghini She off X, she sleepy, sleepy, yeah Make me a wish no genie, genie Vanish on niggas just like Houdini Mm, I feel like Michael Jackson Moonwalkin' through the Calabasas Louie bag gotta hold the ratchet Just in case a nigga want some action Mm, got some millions but it's just a fraction Spendin' money for my satisfaction Benjamin's, we don't fuck with Jackson's Benjamin's, we don't fuck with Jackson's I feel like Michael Jackson Moonwalkin' through the Calabasas</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3978,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège deYou might also like</t>
+          <t>Paroles issues d'un extrait J'ai toujours le mouvement, Soixante a le mouvement AK-47, doucement, tu vas t'faire allumer par mes gars Dis à tes copines que j'suis occupé, que je dois compter, qu'à midi, j'me lève Cortège de</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3995,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Hey, ouais, ouais, ouais, ouais Hi, hi, wouh, wouh Hey, hey, hey, hey, hey J'ai les yeux rougis sur un jet-ski avec le bon vieux J'ai d'la beuhgi, la boule noir sur l'té-cô J'ai des montres, j'ai des flingues, j'ai des pétasses Cent-milles euros, juste pour la déco' Bébé, s'te plaît, j'veux une escalope, j'la désape pas, j'décale sa culotte Eh, eh, bye J'vais t'sortir une Kala', tu m'parles de 6.35 C'est pas pour la gloire que j'lai fais mais j'crois que le vic de ces salopes, il m'a u Ses putes J'regrette pas d'l'avoir laisser en vie Mais p't-être t'en mettre une dans les bes'-j, j'aurai dû, fils de pute Fils de pute, va Ma chérie, s'te plaît, vient m'voir Nan, ne boude pas Ne boude pas Il m'faut des bisous, des câlins J'ai un brolique, bâtard, j'suis plus un neu-je Et quand j'te parle, tu m'regardes dans les yeux Et quand j'te parle, tu m'regard dans les yeux Une te-tar, direct et tu vas rien faire J'ai un brolique, bâtard, j'suis plus un neu-je Et quand j'te parle, tu m'regardes dans les yeux Et quand j'te parle, tu m'regard dans les yeux Une te-tar, direct et tu vas rien faire You might also like Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle-elle vas jamais m'quitter même si j'suis un négro dur à vivre Oh my God Oh, oh Bye, bye, wouh Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Ça s'voit trop bon qu'tu fait semblant, faut qu'tu masque t'es émotions Tout l'monde qui devient fou ou j'crois, c'est moi qui vieillit ? Tu m'as trahi mais sans rancune Mais depuis, j'ai pris du recule Los Angeles ou même, New-York mais la salope, j'la sans plus À leurs soirée, moi, j'vais pas là-bas Y a que des michtos, des vois-moi Y a que des michtos, des vois-moi Oh, oh J'suis trop fonce-dé sur le retour et la patrouille me fait faire un détours Il fait trop tard, c'est mort, il faut qu'j'me rentrent Tu l'as toucher, c'est mort, y a pas d'retours Snapper, llons-ba, llons-ba Tu parle trop Perquis', dépôt, voilà Dépôt, voilà, t'as vu Si ça en valait l'coup ? Moi, j'sais pas Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre</t>
+          <t>Hey, ouais, ouais, ouais, ouais Hi, hi, wouh, wouh Hey, hey, hey, hey, hey J'ai les yeux rougis sur un jet-ski avec le bon vieux J'ai d'la beuhgi, la boule noir sur l'té-cô J'ai des montres, j'ai des flingues, j'ai des pétasses Cent-milles euros, juste pour la déco' Bébé, s'te plaît, j'veux une escalope, j'la désape pas, j'décale sa culotte Eh, eh, bye J'vais t'sortir une Kala', tu m'parles de 6.35 C'est pas pour la gloire que j'lai fais mais j'crois que le vic de ces salopes, il m'a u Ses putes J'regrette pas d'l'avoir laisser en vie Mais p't-être t'en mettre une dans les bes'-j, j'aurai dû, fils de pute Fils de pute, va Ma chérie, s'te plaît, vient m'voir Nan, ne boude pas Ne boude pas Il m'faut des bisous, des câlins J'ai un brolique, bâtard, j'suis plus un neu-je Et quand j'te parle, tu m'regardes dans les yeux Et quand j'te parle, tu m'regard dans les yeux Une te-tar, direct et tu vas rien faire J'ai un brolique, bâtard, j'suis plus un neu-je Et quand j'te parle, tu m'regardes dans les yeux Et quand j'te parle, tu m'regard dans les yeux Une te-tar, direct et tu vas rien faire Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle-elle vas jamais m'quitter même si j'suis un négro dur à vivre Oh my God Oh, oh Bye, bye, wouh Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Ça s'voit trop bon qu'tu fait semblant, faut qu'tu masque t'es émotions Tout l'monde qui devient fou ou j'crois, c'est moi qui vieillit ? Tu m'as trahi mais sans rancune Mais depuis, j'ai pris du recule Los Angeles ou même, New-York mais la salope, j'la sans plus À leurs soirée, moi, j'vais pas là-bas Y a que des michtos, des vois-moi Y a que des michtos, des vois-moi Oh, oh J'suis trop fonce-dé sur le retour et la patrouille me fait faire un détours Il fait trop tard, c'est mort, il faut qu'j'me rentrent Tu l'as toucher, c'est mort, y a pas d'retours Snapper, llons-ba, llons-ba Tu parle trop Perquis', dépôt, voilà Dépôt, voilà, t'as vu Si ça en valait l'coup ? Moi, j'sais pas Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre Là, j'roule mon pét' dans l'sens du vent M Power, ça va vite Elle vas jamais m'quitter même si j'suis un négro dure à vivre</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4012,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>J'pense au rap et ce qu'il y a devantle future J'me branle en repansant a tout sur l'divancanapé J'repense a ma pute qui s'appel Yvanpute négre J'dégaine mon flingue comme Gazo sa fait PAN PANYou might also like</t>
+          <t>J'pense au rap et ce qu'il y a devantle future J'me branle en repansant a tout sur l'divancanapé J'repense a ma pute qui s'appel Yvanpute négre J'dégaine mon flingue comme Gazo sa fait PAN PAN</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4029,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Si j'veux, j'kick sur du Koba LaD J'ai pété mon oint-j comme un timal 11.43 ne va pas t'rater AK-47 comme un Polak AK-47 comme un Polak J'suis au hebs, un requin dans un bocal Quand j'avais besoin d'toi, t'étais pas là J'suis payé par la boîte, tu t'fais recale J'ai du sang sur les mains et des balafres J'vise pas les pieds, pare-balles habillé Gros, j'suis pas nia, j'ai mon barillet rempli comme Minaj Eh, gé-char, gé-char, gé-char Remplis comme Minaj J'ai toujours traîné qu'avec plus grands, toujours traité qu'avec les plus grands J'volais des tel' pour revendre aux plus grands Dans les bagarres, j'me bats avec les plus grands Mes démons sont de sortie quand le Soleil alterne avec la Lune J'ai d'la beuh plus forte que d'la codéïne de lune Eh gamin, ne nous critique pas, c'est pas d'la chance, c'est du travail J'suis encore plus riche que la veille et la moitié d'mes potes, rien qu'ils m'en veulent J'sais pas pourquoi ils m'envient tous, mais ma daronne m'a dit Mon fils, c'est pas grave On a guetté, on a dealé, maintenant, on fait partir des litrons d'beuh 2019, j'ai 19 balais, et tes rappeurs me sucent la queue Hé, p'tit con, va bien t'renseigner, y a que moi qui fait pas comme eux Cet été, j'fais le tour du Monde, au moins 500 000 euros J'ai coffré un bout et j'ai mis des diamants sur toute ma montre On bouge pas pour rien, on perd pas notre temps Tout pour les miens et puis fuck les tiens J'suis à Namek, là, à la salle du temps et j'vais roder seul avec une tonne Nuage de fumée derrière les vitres teintées, dans l'RS7, j'roule mon septième teh Si Dieu le veut, j'suis là pour longtemps, j'suis en bas d'la tess et d'dope You might also like J'casse un tour avant d'ouvrir l'four Avant j'pète Maes vers Sevran J'casse un tour avant d'ouvrir l'four Avant j'pète Maes vers Sevran</t>
+          <t>Si j'veux, j'kick sur du Koba LaD J'ai pété mon oint-j comme un timal 11.43 ne va pas t'rater AK-47 comme un Polak AK-47 comme un Polak J'suis au hebs, un requin dans un bocal Quand j'avais besoin d'toi, t'étais pas là J'suis payé par la boîte, tu t'fais recale J'ai du sang sur les mains et des balafres J'vise pas les pieds, pare-balles habillé Gros, j'suis pas nia, j'ai mon barillet rempli comme Minaj Eh, gé-char, gé-char, gé-char Remplis comme Minaj J'ai toujours traîné qu'avec plus grands, toujours traité qu'avec les plus grands J'volais des tel' pour revendre aux plus grands Dans les bagarres, j'me bats avec les plus grands Mes démons sont de sortie quand le Soleil alterne avec la Lune J'ai d'la beuh plus forte que d'la codéïne de lune Eh gamin, ne nous critique pas, c'est pas d'la chance, c'est du travail J'suis encore plus riche que la veille et la moitié d'mes potes, rien qu'ils m'en veulent J'sais pas pourquoi ils m'envient tous, mais ma daronne m'a dit Mon fils, c'est pas grave On a guetté, on a dealé, maintenant, on fait partir des litrons d'beuh 2019, j'ai 19 balais, et tes rappeurs me sucent la queue Hé, p'tit con, va bien t'renseigner, y a que moi qui fait pas comme eux Cet été, j'fais le tour du Monde, au moins 500 000 euros J'ai coffré un bout et j'ai mis des diamants sur toute ma montre On bouge pas pour rien, on perd pas notre temps Tout pour les miens et puis fuck les tiens J'suis à Namek, là, à la salle du temps et j'vais roder seul avec une tonne Nuage de fumée derrière les vitres teintées, dans l'RS7, j'roule mon septième teh Si Dieu le veut, j'suis là pour longtemps, j'suis en bas d'la tess et d'dope J'casse un tour avant d'ouvrir l'four Avant j'pète Maes vers Sevran J'casse un tour avant d'ouvrir l'four Avant j'pète Maes vers Sevran</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4046,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Woh, oh, oh, oh Démarrer dans l'bât' Hum, hum J'suis démarré dans l'bât', j'pense à un avenir meilleur mais bon Elle croit que j'vais l'assumer mais j'vais m'v'-esqui comme le daron Elle mise sur ma tenue, j'mise sur son gros cul D'la verte, du jaune mais c'est tout mort, j'suis dans l'trou noir Et j'suis encore posé dans l'bloc, bébé, si tu l'acceptes pas, c'est mort, tant pis J'suis calibré dans un gros bolide que j'ai dû cartonner au coin d'la rue Faut qu'tu sois carré quand tu nous payes, on recompte tout d'suite mais pas après On vient d'lui mettre en plein tête comme l'auraient fait Dallas ou bin CZ C'est moi l'prince de la vill, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 C'est moi l'prince de la ville D'la ville, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit You might also like Mais j'crois qu'elle a vraiment rodave, sa mère, ça puait la beugeuh devant la 'bre Une convoc' chez les bleus, y avait les condés d'vant son bahut Une grosse caisse, une grosse montre, une grosse chaîne remplie d'diamants Du ro-ro, du platine, ton p'tit kho veut tout comme toi J'suis fonce-dé dans la Fe-Fe, j'suis obligé d'y penser Souvent d'mauvaise humeur mais l'filtré m'emmène ailleurs Le pilon, la zipette et bientôt, j'ouvre un garage Ils vont rien t'faire, si c'est moi, j'me fais l'plavon C'est moi l'prince de la ville D'la ville, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 C'est moi l'prince de la ville, j'marche souvent tout seul J'ai des shooters d'l'autre côté d'la A13 J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit1</t>
+          <t>Woh, oh, oh, oh Démarrer dans l'bât' Hum, hum J'suis démarré dans l'bât', j'pense à un avenir meilleur mais bon Elle croit que j'vais l'assumer mais j'vais m'v'-esqui comme le daron Elle mise sur ma tenue, j'mise sur son gros cul D'la verte, du jaune mais c'est tout mort, j'suis dans l'trou noir Et j'suis encore posé dans l'bloc, bébé, si tu l'acceptes pas, c'est mort, tant pis J'suis calibré dans un gros bolide que j'ai dû cartonner au coin d'la rue Faut qu'tu sois carré quand tu nous payes, on recompte tout d'suite mais pas après On vient d'lui mettre en plein tête comme l'auraient fait Dallas ou bin CZ C'est moi l'prince de la vill, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 C'est moi l'prince de la ville D'la ville, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit Mais j'crois qu'elle a vraiment rodave, sa mère, ça puait la beugeuh devant la 'bre Une convoc' chez les bleus, y avait les condés d'vant son bahut Une grosse caisse, une grosse montre, une grosse chaîne remplie d'diamants Du ro-ro, du platine, ton p'tit kho veut tout comme toi J'suis fonce-dé dans la Fe-Fe, j'suis obligé d'y penser Souvent d'mauvaise humeur mais l'filtré m'emmène ailleurs Le pilon, la zipette et bientôt, j'ouvre un garage Ils vont rien t'faire, si c'est moi, j'me fais l'plavon C'est moi l'prince de la ville D'la ville, j'marche souvent tout seul Tout seul J'ai des shooters d'l'autre côté d'la A13 C'est moi l'prince de la ville, j'marche souvent tout seul J'ai des shooters d'l'autre côté d'la A13 J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit J'ai grave le seum, sa mère quand j'pense à mes res-frè au shtar Y a l'autre conne enceinte, j'sais plus quoi faire, ça m'fout les j'tons Y a d'la prom' au quartier une d'offerte pour cinq d'achetées J'crois que ma daronne a rodave qu'mon frère vend du shit1</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Hey Spectra Gros vendeurs de coco' comme un gars des States Bientôt, j'vais investir dans la méth' Bientôt, j'vais investir dans la méth' Faut un bolide noir mate, teinté noir, avec plusieurs chevaux sous le capot J'v-esqui les photos, des condés revendeurs de pilon, revendeurs de coco Gros vendeurs de co'-co' comme un gars des States, bientôt, j'vais investir dans la méth' M'force même pas pour les uer-t, on multipli, j'ai que les billets dans ma têt Comme Snoop, j'ai que les billets dans ma te-tê, Keusty fait P2 si l'begeu fait d'l'effet T'inquiète, j'fais P2 si l'begeu fait d'l'effet, t'façon, j'ai la même qu'à Meuda dans les coffee La caisse est enfumée comme dans un coffee, j'sens pas coriandre, que ça s'défonce comme à Kingston J'suis posé dans l'parking seul, on va les faire trembler comme Parkinson Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah You might also like Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Eh, Shotas, faut qu'j'te parle d'un bail, yah, on peut gracier, on est pas débiles On est pas débiles, regarde nos deux boules et en gros gamos, comme ça qu'on déboule En vrai, y a pas besoin, y a d'jà nos p'tits, si on déboule, ils l'auront dans l'cul Et là, on sort de Marrakech, on a passé la douane, demi' dans ton cul Au studio, j'suis défoncé 'foncé, au shit, là j'suis touché touché Ne viens pas recommencer, parle-moi français sinon j'vais t'faire défoncer J'ai arrêté d'picoler, ça, ça freine toutes mes pensées Massage, salopes, finition ah bon ?, c'est comme ça qu'nous finissons Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok</t>
+          <t>Hey Spectra Gros vendeurs de coco' comme un gars des States Bientôt, j'vais investir dans la méth' Bientôt, j'vais investir dans la méth' Faut un bolide noir mate, teinté noir, avec plusieurs chevaux sous le capot J'v-esqui les photos, des condés revendeurs de pilon, revendeurs de coco Gros vendeurs de co'-co' comme un gars des States, bientôt, j'vais investir dans la méth' M'force même pas pour les uer-t, on multipli, j'ai que les billets dans ma têt Comme Snoop, j'ai que les billets dans ma te-tê, Keusty fait P2 si l'begeu fait d'l'effet T'inquiète, j'fais P2 si l'begeu fait d'l'effet, t'façon, j'ai la même qu'à Meuda dans les coffee La caisse est enfumée comme dans un coffee, j'sens pas coriandre, que ça s'défonce comme à Kingston J'suis posé dans l'parking seul, on va les faire trembler comme Parkinson Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Eh, Shotas, faut qu'j'te parle d'un bail, yah, on peut gracier, on est pas débiles On est pas débiles, regarde nos deux boules et en gros gamos, comme ça qu'on déboule En vrai, y a pas besoin, y a d'jà nos p'tits, si on déboule, ils l'auront dans l'cul Et là, on sort de Marrakech, on a passé la douane, demi' dans ton cul Au studio, j'suis défoncé 'foncé, au shit, là j'suis touché touché Ne viens pas recommencer, parle-moi français sinon j'vais t'faire défoncer J'ai arrêté d'picoler, ça, ça freine toutes mes pensées Massage, salopes, finition ah bon ?, c'est comme ça qu'nous finissons Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on arrose, on arrose on arrose On arrose, on a- yeah, yah Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok Mmh, mmh, on a sorti les guitares ok Ça va dégainer fort ok, oui, ça va dégainer fort ok</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Hello, it's ToM Tu connais, moi, c'est trop la calle Et tu connais, comme c'est trop la calle, j'traîne qu'avec des mecs d'la calle Le maire a braqué les condés, le gros est tombé pour cadavres Et tu connais, comme c'est trop la calle, j'traîne qu'avec des mecs d'la calle Tu parles trop, décidément, j'mets tempête, ils sont trop lents 2022, Bât' 7, t'inquiète, j'suis un fils de si j'mens Si j'veux, j'sors un Fe'-Fe', si j'veux, j'sors un Uzi, ils sont trop lents J'crois qu'j'ai plus rien dans mon cur, j'vous l'dis en toute sincérité Un pot, calibre neuf millimètres n guise de sécurité Là, j'crois qu't'as fâché mes négros, ils sont remontés à bloc J'fais courir des négros, c'est moi calibré dans l'bloc On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi Hey, hey, hey, okay Défoncé mais j'pense à toi J'sais pas pourquoi on s'aimait, on fait semblant On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé mais j'pense à toi You might also like Rien que j'fais rentrer des sous, mon amour et mon entourage est miné C'est Koba LaD, Kodes, elle dit à sa pote Attends dix minutes J'suis allongé dans l'avion, j'repense à mes années midi-minuit Et si j'ai pas mon pétard, bah, nique sa mère, j'le fais à mains nues On l'a vraiment fait, on fait pas genre, elle a donné son cul l'premier jour On recharge, on décharge un G, toi, tu vas rien faire, tu fais que rager On a perdu des proches, on reste debout On a perdu des proches, on reste debout C'est trop bien l'amour avant l'dégoût, eh Et j'les vois parler dans mon dos, parlez mais ça rempli pas mon frigo Han, han Elle m'a sucé pendant une heure, n3ar Shei', j'en ai fait tomber mon bigo Brr, brr Kodes la Barrière, enculé, si c'est la famille, on laissera pas couler À deux-cent, j'me prends pour un pilote, j'suis avec celui qui ramène les kilos On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi Défoncé mais j'pense à toi J'sais pas pourquoi on s'aime mais on fait semblant On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé mais j'pense à toi</t>
+          <t>Hello, it's ToM Tu connais, moi, c'est trop la calle Et tu connais, comme c'est trop la calle, j'traîne qu'avec des mecs d'la calle Le maire a braqué les condés, le gros est tombé pour cadavres Et tu connais, comme c'est trop la calle, j'traîne qu'avec des mecs d'la calle Tu parles trop, décidément, j'mets tempête, ils sont trop lents 2022, Bât' 7, t'inquiète, j'suis un fils de si j'mens Si j'veux, j'sors un Fe'-Fe', si j'veux, j'sors un Uzi, ils sont trop lents J'crois qu'j'ai plus rien dans mon cur, j'vous l'dis en toute sincérité Un pot, calibre neuf millimètres n guise de sécurité Là, j'crois qu't'as fâché mes négros, ils sont remontés à bloc J'fais courir des négros, c'est moi calibré dans l'bloc On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi Hey, hey, hey, okay Défoncé mais j'pense à toi J'sais pas pourquoi on s'aimait, on fait semblant On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé mais j'pense à toi Rien que j'fais rentrer des sous, mon amour et mon entourage est miné C'est Koba LaD, Kodes, elle dit à sa pote Attends dix minutes J'suis allongé dans l'avion, j'repense à mes années midi-minuit Et si j'ai pas mon pétard, bah, nique sa mère, j'le fais à mains nues On l'a vraiment fait, on fait pas genre, elle a donné son cul l'premier jour On recharge, on décharge un G, toi, tu vas rien faire, tu fais que rager On a perdu des proches, on reste debout On a perdu des proches, on reste debout C'est trop bien l'amour avant l'dégoût, eh Et j'les vois parler dans mon dos, parlez mais ça rempli pas mon frigo Han, han Elle m'a sucé pendant une heure, n3ar Shei', j'en ai fait tomber mon bigo Brr, brr Kodes la Barrière, enculé, si c'est la famille, on laissera pas couler À deux-cent, j'me prends pour un pilote, j'suis avec celui qui ramène les kilos On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi On fait ça, on fait ça bien, on s'aime mais fait semblant Défoncé, j'repense à toi, défoncé, j'repense à toi Défoncé mais j'pense à toi J'sais pas pourquoi on s'aime mais on fait semblant On fait ça, on fait ça bien, on s'aime mais on fait semblant Défoncé mais j'pense à toi</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Noxious Ah, c'est incroyable ! Comment il arrive à faire ça ? Eh, eh Des kich' de toutes les couleurs, là on s'est compris El mundo, eh Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Eh Fils de pute, t'es rempli d'vices, t'as pas parlé, j'l'ai vu dans tes yeuz Là, y a l'soleil qui tape, sous Cristal, j'la mets en veilleuse Pour les papiers, on a veillé, pas étonnant qu'ça a payé Plaque, transit m'a dit l'Réix, y a la 5008 au péage Han-han Et j'la v'-esqui tranquille, bébé, j'arrive dans dix minutes Ils connaissent quoi d'ma vie ? J'fais plus rentrer qu'un four de stup' Fais belek, y a des Tokarev, dans la sacoche, y a plus qu'un rêve Y a personne quand j'suis à la dérive, y a que des vautours, que des traîtres, frère, -ère Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Ah, faut des tales Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Aïe, aïe, aïe, aïe You might also like En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain, oh-oh RSQ gris, elle sent plus son cur Elle sent plus son cur, j'suis un peu touché J'suis un peu touché Ça sort des mauvais secteurs Des mauvais secteurs, ma ganache sur les clichés Tous les clichés Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Il m'faut un couteau sans dent pour la cata La cata, une soupe de fou pour la catin La catin Gardez vos couteaux, j'le mange tout seul l'gâteau ou j'partage avec mon équipe On resserre l'étau quand ça d'vient délicat, ma raquette est toujours au placard Tu m'as menti depuis tout c'temps, fils de pute, au fond, j'sais même pas qui t'es Fils de pute, au fond, j'sais même pas qui t'es Qui t'es ?, c'est moi, c'est pas elle qui m'a quitté M'a quitté On se retrouve en Martinique, au Maroc, à BX ou vers Alicante CZ et Kaza, on pose sur le quatre temps Quatre temps, tous les mariages, c'est la cata Tout, tout, tout On est tous broliqués, donc on fout l'camp Bye, bye, bye, bye Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Ah, faut des tales Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Aïe, aïe, aïe, aïe En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain, oh-oh RSQ gris, elle sent plus son cur Elle sent plus son cur, j'suis un peu touché J'suis un peu touché Ça sort des mauvais secteurs Des mauvais secteurs, ma ganache sur les clichés Tous les clichés Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri</t>
+          <t>Noxious Ah, c'est incroyable ! Comment il arrive à faire ça ? Eh, eh Des kich' de toutes les couleurs, là on s'est compris El mundo, eh Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Eh Fils de pute, t'es rempli d'vices, t'as pas parlé, j'l'ai vu dans tes yeuz Là, y a l'soleil qui tape, sous Cristal, j'la mets en veilleuse Pour les papiers, on a veillé, pas étonnant qu'ça a payé Plaque, transit m'a dit l'Réix, y a la 5008 au péage Han-han Et j'la v'-esqui tranquille, bébé, j'arrive dans dix minutes Ils connaissent quoi d'ma vie ? J'fais plus rentrer qu'un four de stup' Fais belek, y a des Tokarev, dans la sacoche, y a plus qu'un rêve Y a personne quand j'suis à la dérive, y a que des vautours, que des traîtres, frère, -ère Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Ah, faut des tales Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Aïe, aïe, aïe, aïe En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain, oh-oh RSQ gris, elle sent plus son cur Elle sent plus son cur, j'suis un peu touché J'suis un peu touché Ça sort des mauvais secteurs Des mauvais secteurs, ma ganache sur les clichés Tous les clichés Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Il m'faut un couteau sans dent pour la cata La cata, une soupe de fou pour la catin La catin Gardez vos couteaux, j'le mange tout seul l'gâteau ou j'partage avec mon équipe On resserre l'étau quand ça d'vient délicat, ma raquette est toujours au placard Tu m'as menti depuis tout c'temps, fils de pute, au fond, j'sais même pas qui t'es Fils de pute, au fond, j'sais même pas qui t'es Qui t'es ?, c'est moi, c'est pas elle qui m'a quitté M'a quitté On se retrouve en Martinique, au Maroc, à BX ou vers Alicante CZ et Kaza, on pose sur le quatre temps Quatre temps, tous les mariages, c'est la cata Tout, tout, tout On est tous broliqués, donc on fout l'camp Bye, bye, bye, bye Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Ah, faut des tales Là, j'suis en fuego, encore qué-blo, faut qu'j'me taille Ah, faut qu'j'me ter-sau Mes lauds-sa m'ont dit Fais-le, vas-y, fume-les, faut des tales Aïe, aïe, aïe, aïe En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain En Ferrari, j'ressemble à quelqu'un J'sors les crocs quand ils s'rapprochent d'mon pain, oh-oh RSQ gris, elle sent plus son cur Elle sent plus son cur, j'suis un peu touché J'suis un peu touché Ça sort des mauvais secteurs Des mauvais secteurs, ma ganache sur les clichés Tous les clichés Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri Des kich' de toutes les couleurs, là, on s'est compris Pour péter, j'vois même plus l'heure, libérez l'cous' en son-pri</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4131,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Let's face facts my hommie, I always stay true Do better everyday that's always my day rule Stick to your hustle they call you a fucking, lame fool But right now that's really, really my aim dude High school where it began let me take you back I started preforming, I was scared of girls and nigga fans And all the ladies were looking deeply at me Like they were window shopping maybe And then later, a nigga did the shit better They see me on tv i must be rally getting famous My dm's looking lit I'm feeling like i'm way up Way uuu-p On my way up, bout to make a day light On my way up, taking all this papr On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us Yeah we started on ABC Please nigga don't envy me, Ey I put that grind, man I'll put the grind till i get a mill How about Ace of Spades How about lately Benz How about me and my bros, going around till we lost in space, yeah Toast tonight, we on top of dimes, we on that A List All these faces Yeah we made it All these phases How amazing You might also likeI remember all the times when I used stay up I remember when my mom, always had to wake up Now I'm chasing on my time, yeah they gotta pay up Yeah, I'm always on the grind, yeah they gotta pay up I remember all the times when I used stay up I remember when my mom, always had to wake up Now I'm chasing on my time, yeah they gotta pay up Yeah, I'm always on the grind, yeah they gotta pay up On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us Yeah yeah Auto Muscle Best describes elevation, never had a major problem It's just all about controlling yeah Yeah just bring the past days Then came mistakes, but then lessons took over I had to out maneuver Aside with my brothers We finna had to unite Success became the ruler I had to loose all negativity within me Became cooler everything I say is nasty Became hotter everything I touch just detonates Bring some war my nigga we gonna retaliate Me and ma niggas we boss up and make some niggas hate It's all true ma nigga, we don't just speculate On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us</t>
+          <t>Let's face facts my hommie, I always stay true Do better everyday that's always my day rule Stick to your hustle they call you a fucking, lame fool But right now that's really, really my aim dude High school where it began let me take you back I started preforming, I was scared of girls and nigga fans And all the ladies were looking deeply at me Like they were window shopping maybe And then later, a nigga did the shit better They see me on tv i must be rally getting famous My dm's looking lit I'm feeling like i'm way up Way uuu-p On my way up, bout to make a day light On my way up, taking all this papr On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us Yeah we started on ABC Please nigga don't envy me, Ey I put that grind, man I'll put the grind till i get a mill How about Ace of Spades How about lately Benz How about me and my bros, going around till we lost in space, yeah Toast tonight, we on top of dimes, we on that A List All these faces Yeah we made it All these phases How amazing I remember all the times when I used stay up I remember when my mom, always had to wake up Now I'm chasing on my time, yeah they gotta pay up Yeah, I'm always on the grind, yeah they gotta pay up I remember all the times when I used stay up I remember when my mom, always had to wake up Now I'm chasing on my time, yeah they gotta pay up Yeah, I'm always on the grind, yeah they gotta pay up On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us Yeah yeah Auto Muscle Best describes elevation, never had a major problem It's just all about controlling yeah Yeah just bring the past days Then came mistakes, but then lessons took over I had to out maneuver Aside with my brothers We finna had to unite Success became the ruler I had to loose all negativity within me Became cooler everything I say is nasty Became hotter everything I touch just detonates Bring some war my nigga we gonna retaliate Me and ma niggas we boss up and make some niggas hate It's all true ma nigga, we don't just speculate On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us On my way up, bout to make a day light On my way up, taking all this paper On my way up, making sure they pay up On my way up, making sure they hear us</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Yo, jamais, jamais, jamais ouh Or Noir, PLR Ah, ah, ah, showtime Or Noir, PLR Jamais, jamais, jamais, jamais ouh Ouh ouh, ouais Ouh ouais, ouh ouais Jamais j'te laisserai tomber, jamais, t'es mon sang, on va s'refaire ensemble Faut qu'on soit forts, qu'on soit solides, j'suis avec toi, t'es pas tout seul Jamais, mais y a trop d'gens à qui faire du sale Putain, y avait d'la merde dans mon bac à sable Bâtard, on doit s'couvrir, si y a chose-quel', on doit tout s'dire On doit tout s'dire et on met pas d'pute entre nous Et y a pas d'fierté entre nous, pas d'fierté entre nous Hendek, c'est des jaloux Putain, sin-cou, c'est la merde, en c'moment, laisse tomber Une racli plein d'principes, peut-être que j'serais plus stable Putain, sin-cou, c'est la merde, en c'moment, laisse tomber J'suis un peu fonce-dé, j'te dirais tout demain Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche You might also like Dans l'Audi ou le 4Matic, toujours une place pour oi-t, semi-automatique, on bombarde dans l'auto J'ai capté l'truc, igo, faut prendre le monde et faut qu'j'arrête le rap J'fais signer toute la zone et faire le producteur Même si y a pas ton blase, t'inquiète, j'ai d'jà coffré ta part Quand j'bois, j'suis bizarre, depuis qu'ma moitié est au shtar Mais bon, ça va, t'inquiète, j'l'ai en FaceTime, sur Signal Il m'reste Curtis et Chacal, putain Putain, sin-cou, c'est la merde, en c'moment, laisse tomber Une racli plein d'principes, peut-être que j'serais plus stable Putain, sin-cou, c'est la merde, en c'moment, laisse tomber J'suis un peu fonce-dé, j'te dirais tout demain Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Jamais, jamais, jamais, jamais Bye bye, bye bye, bye bye</t>
+          <t>Yo, jamais, jamais, jamais ouh Or Noir, PLR Ah, ah, ah, showtime Or Noir, PLR Jamais, jamais, jamais, jamais ouh Ouh ouh, ouais Ouh ouais, ouh ouais Jamais j'te laisserai tomber, jamais, t'es mon sang, on va s'refaire ensemble Faut qu'on soit forts, qu'on soit solides, j'suis avec toi, t'es pas tout seul Jamais, mais y a trop d'gens à qui faire du sale Putain, y avait d'la merde dans mon bac à sable Bâtard, on doit s'couvrir, si y a chose-quel', on doit tout s'dire On doit tout s'dire et on met pas d'pute entre nous Et y a pas d'fierté entre nous, pas d'fierté entre nous Hendek, c'est des jaloux Putain, sin-cou, c'est la merde, en c'moment, laisse tomber Une racli plein d'principes, peut-être que j'serais plus stable Putain, sin-cou, c'est la merde, en c'moment, laisse tomber J'suis un peu fonce-dé, j'te dirais tout demain Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Dans l'Audi ou le 4Matic, toujours une place pour oi-t, semi-automatique, on bombarde dans l'auto J'ai capté l'truc, igo, faut prendre le monde et faut qu'j'arrête le rap J'fais signer toute la zone et faire le producteur Même si y a pas ton blase, t'inquiète, j'ai d'jà coffré ta part Quand j'bois, j'suis bizarre, depuis qu'ma moitié est au shtar Mais bon, ça va, t'inquiète, j'l'ai en FaceTime, sur Signal Il m'reste Curtis et Chacal, putain Putain, sin-cou, c'est la merde, en c'moment, laisse tomber Une racli plein d'principes, peut-être que j'serais plus stable Putain, sin-cou, c'est la merde, en c'moment, laisse tomber J'suis un peu fonce-dé, j'te dirais tout demain Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Faut qu'on récup' le terrain, calibré au cas où J'sais pas si ça vaut l'coup mais j'suis serein quand j'le touche Jamais, jamais, jamais, jamais Bye bye, bye bye, bye bye</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2K on the track bitch! Yakes Eux, j'les connais, ils vont s'chier d'ssus J'les connais, j'les connais, ils vont s'chier d'ssus J'les connais Encore une histoire de sous Han-han, j'rentre par en d'ssous, j'ressors au d'ssus Han Avec Kossovo à B.D Au placard, j'ti-sor, j'récup' une avance Un billet J'ai bédave toutes mes vacances Ouais, j'ai baisé toutes mes vacances Yeah J'ai pris son Snap' pour rigoler Eh, sans faire exprès, j'étais bourré Eh C'fils de putain Eh, j'peux l'tirer d'ssus si mes émotions prends l'dessus Sur un punchy, j'ai la pêche La patate, j'la dégomme comme un pauvre Un bâtard Quand j'rétrograd, ça pète Oh, woh, woh, j'sais plus y a combien d'chevaux Si j'rtourne pas au hebs, j'sors un projet en fin d'année Han-han, han-han J'gonfle mon pécule moi-même, j'ai fait 500K cette été Han-han Fallait pas qu'j'le nique mais c'est trop tard Fallait pas qu'j'le nique mais c'est dada P'tit sourire aux lèvres devant les shtars Devant les flics, devant les shtars, oh, oh, oh J'décapote Ouais, j'sors une clope Ouais, ma Rolex s'allume au soleil Cinq litrons Ouais, dix litrons Ouh, plusieurs drogues, plusieurs cachettes Ouh Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah J'décapote S.E, j'sors une clope S.E, ma Rolex s'allume au soleil 2.7 Cinq litrons, dix litrons, plusieurs drogues, plusieurs cachettes Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey You might also like La capacité du chargeur est au max Moula, j'suis frais comme à Phuket en T-Max S.E J'ai fini les travaux comme Lafarge S.E, j'transporte la beuh dans la classe, grand large 2.7 Je serai en Lambo', en full Lanvin, depuis le début, j'connais la fin Ouais Ma pétasse est guapa, la transaction est tellement rapide que le Diable ne me voit pas Pute, pute, pute Tu vois qu'le canon, comme dans Call of Warfare, c'est pas parce que j'te respecte que j'te doigte pas Pute Tu vois qu'le canon, comme dans Call of Warfare, c'est pas parce que j'te respecte que j'te doigte pas Pute Je sais comment leur mettre la crème, quand j'les vois en train d'canner, je streame Hey On sait où t'es posté en bas d'la tour, belek si mon guidon fait demi-tour 2.7 Si j'sors pas mon jou'-jou', ces fils de tain-p' vont faire les fous Vont faire les fous Je sais combien y a d'thunes et j'sais à combien l'terrain tourne Le terrain tourne Si j'sors un brolique, gros, c'est trop tard Gros, c'est trop tard P'tit sourire aux lèvres devant les shtars Devant les shtars, pute, pute, pute, pute, ouais, ouais, ouais J'décapote Ouais, j'sors une clope Ouais, ma Rolex s'allume au soleil Cinq litrons Ouais, dix litrons Ouh, plusieurs drogues, plusieurs cachettes Ouh Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah J'décapote S.E, j'sors une clope S.E, ma Rolex s'allume au soleil 2.7 Cinq litrons, dix litrons, plusieurs drogues, plusieurs cachettes Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Ouh, ouh, ouh C'est la B.A, c'est la BMF, c'est la B.A, c'est la B.A, c'est la BMF Ouh, ouh, ouh, ouh, ouh 2K on the track bitch! Bitch</t>
+          <t>2K on the track bitch! Yakes Eux, j'les connais, ils vont s'chier d'ssus J'les connais, j'les connais, ils vont s'chier d'ssus J'les connais Encore une histoire de sous Han-han, j'rentre par en d'ssous, j'ressors au d'ssus Han Avec Kossovo à B.D Au placard, j'ti-sor, j'récup' une avance Un billet J'ai bédave toutes mes vacances Ouais, j'ai baisé toutes mes vacances Yeah J'ai pris son Snap' pour rigoler Eh, sans faire exprès, j'étais bourré Eh C'fils de putain Eh, j'peux l'tirer d'ssus si mes émotions prends l'dessus Sur un punchy, j'ai la pêche La patate, j'la dégomme comme un pauvre Un bâtard Quand j'rétrograd, ça pète Oh, woh, woh, j'sais plus y a combien d'chevaux Si j'rtourne pas au hebs, j'sors un projet en fin d'année Han-han, han-han J'gonfle mon pécule moi-même, j'ai fait 500K cette été Han-han Fallait pas qu'j'le nique mais c'est trop tard Fallait pas qu'j'le nique mais c'est dada P'tit sourire aux lèvres devant les shtars Devant les flics, devant les shtars, oh, oh, oh J'décapote Ouais, j'sors une clope Ouais, ma Rolex s'allume au soleil Cinq litrons Ouais, dix litrons Ouh, plusieurs drogues, plusieurs cachettes Ouh Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah J'décapote S.E, j'sors une clope S.E, ma Rolex s'allume au soleil 2.7 Cinq litrons, dix litrons, plusieurs drogues, plusieurs cachettes Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey La capacité du chargeur est au max Moula, j'suis frais comme à Phuket en T-Max S.E J'ai fini les travaux comme Lafarge S.E, j'transporte la beuh dans la classe, grand large 2.7 Je serai en Lambo', en full Lanvin, depuis le début, j'connais la fin Ouais Ma pétasse est guapa, la transaction est tellement rapide que le Diable ne me voit pas Pute, pute, pute Tu vois qu'le canon, comme dans Call of Warfare, c'est pas parce que j'te respecte que j'te doigte pas Pute Tu vois qu'le canon, comme dans Call of Warfare, c'est pas parce que j'te respecte que j'te doigte pas Pute Je sais comment leur mettre la crème, quand j'les vois en train d'canner, je streame Hey On sait où t'es posté en bas d'la tour, belek si mon guidon fait demi-tour 2.7 Si j'sors pas mon jou'-jou', ces fils de tain-p' vont faire les fous Vont faire les fous Je sais combien y a d'thunes et j'sais à combien l'terrain tourne Le terrain tourne Si j'sors un brolique, gros, c'est trop tard Gros, c'est trop tard P'tit sourire aux lèvres devant les shtars Devant les shtars, pute, pute, pute, pute, ouais, ouais, ouais J'décapote Ouais, j'sors une clope Ouais, ma Rolex s'allume au soleil Cinq litrons Ouais, dix litrons Ouh, plusieurs drogues, plusieurs cachettes Ouh Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah Pangara rangé dans la cache Ah-ah, j'fais comme j'peux, des fois, y a pas l'choix Ah-ah J'décapote S.E, j'sors une clope S.E, ma Rolex s'allume au soleil 2.7 Cinq litrons, dix litrons, plusieurs drogues, plusieurs cachettes Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Pangara rangé dans la cache Hey, j'fais comme j'peux, des fois, j'ai pas l'choix Hey Ouh, ouh, ouh C'est la B.A, c'est la BMF, c'est la B.A, c'est la B.A, c'est la BMF Ouh, ouh, ouh, ouh, ouh 2K on the track bitch! Bitch</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4182,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Truth A-A Ouais, la BMF AWA the mafia, my nigga La B.A, la B.A Un peu parano dans ma te-tê, tu connais, j'ai pris du recul, j'préfère la vue d'ensemble J'f'rai plus confiance, j'suis navré A-A Un peu souvent menotté, beaucoup trop d'fois pris en flag' J'ai trop fait pour cette p'tite monnaie, j'ai trop fait pour ces p'tits bâtards Malgré les coups durs, on a foi en Dieu, les couteaux dans l'dos, j'les ai pas rendu J'les ai pas rendu, j'suis resté têtu, j'sais qu'j'aurais pas du mais j'ai recommencé J'ai fait comme Kaz', Bibi, j'suis venu, j'ai pris, j'ai taillé, bébé, faut pas m'brusquer, la plaie n'a pas cicatrisé Han-han J'fais toujours semblant mais en vrai, j'suis yomb J'suis yomb, semblant mais en vrai, j'suis yomb J'suis yomb J'souris quand la kichta tombe Elle tombe, quand un sin-cou sort de taule Je n'sais pas, mais j'espère passer toute l'année On part au charbon, on r'vient, les roses ont fané On recompte c'qu'on a gagné et regrette ce qu'on a perdu Parano la nuit, parano, je fume la verdure You might also like Un peu parano dans ma te-tê Un peu paro dans ma te-tê Tu connais, j'ai pris du recul Du recul, j'préfère la vue d'ensemble D'ensemble J'f'rais plus confiance, j'suis navré J'f'rais plus confiance, j'suis navré, j'suis navré Au fond d'moi, j'suis trop déçu Déçu, j'croyais qu'on était ensemble Sale bâtard Encore un décès Oh, coup d'couteau dans la descente La bagarre J'vais pas t'faire d'dessin Nan, c'est que nous dans l'Parisien C'est que nous Oh putain d'merde, c'est pas vrai Oh, putain d'merde, c'est pas vrai J'peux plus rev'nir dans l'passé J'peux plus rev'nir dans l'passé, le passé Elle m'dit qu'c'est pas une pute, c'est juste le monde qui est p'tit Yea, yeah À c'qui p', d'elle, j'peux faire c'que j'veux, pourtant, elle est prise Prise J'reçois d'l'amour, okay, mais pour cette putain d'haine, heureusement qu'on m'paie Il m'faut qu'on soigne mes plaies, eh J'veux des kichtas d'bâtard, avant qu'ça bloque mon tiroir Un passé d'poissard, jovial le miroir J'recompte le papelard, plus vingt balles dans l'armoire Tellement j'suis sombre, ils disent que j'verse des larmes noires Je n'sais pas, mais j'espère passer toute l'année On part au charbon, on r'vient, les roses ont fané On recompte c'qu'on a gagné et regrette ce qu'on a perdu Parano la nuit, parano, je fume la verdure Un peu parano dans ma te-tê Un peu paro dans ma te-tê Tu connais, j'ai pris du recul Du recul, j'préfère la vue d'ensemble D'ensemble J'f'rais plus confiance, j'suis navré J'f'rais plus confiance, j'suis navré, j'suis navré Au fond d'moi, j'suis trop déçu Déçu, j'croyais qu'on était ensemble Sale bâtard Encore un décès Oh, coup d'couteau dans la descente La bagarre J'vais pas t'faire d'dessin Nan, c'est que nous dans l'Parisien C'est que nous Oh putain d'merde, c'est pas vrai Oh, putain d'merde, c'est pas vrai J'peux plus rev'nir dans l'passé J'peux plus rev'nir dans l'passé, le passé Han-han-han Han-han-han Han-han-han</t>
+          <t>Truth A-A Ouais, la BMF AWA the mafia, my nigga La B.A, la B.A Un peu parano dans ma te-tê, tu connais, j'ai pris du recul, j'préfère la vue d'ensemble J'f'rai plus confiance, j'suis navré A-A Un peu souvent menotté, beaucoup trop d'fois pris en flag' J'ai trop fait pour cette p'tite monnaie, j'ai trop fait pour ces p'tits bâtards Malgré les coups durs, on a foi en Dieu, les couteaux dans l'dos, j'les ai pas rendu J'les ai pas rendu, j'suis resté têtu, j'sais qu'j'aurais pas du mais j'ai recommencé J'ai fait comme Kaz', Bibi, j'suis venu, j'ai pris, j'ai taillé, bébé, faut pas m'brusquer, la plaie n'a pas cicatrisé Han-han J'fais toujours semblant mais en vrai, j'suis yomb J'suis yomb, semblant mais en vrai, j'suis yomb J'suis yomb J'souris quand la kichta tombe Elle tombe, quand un sin-cou sort de taule Je n'sais pas, mais j'espère passer toute l'année On part au charbon, on r'vient, les roses ont fané On recompte c'qu'on a gagné et regrette ce qu'on a perdu Parano la nuit, parano, je fume la verdure Un peu parano dans ma te-tê Un peu paro dans ma te-tê Tu connais, j'ai pris du recul Du recul, j'préfère la vue d'ensemble D'ensemble J'f'rais plus confiance, j'suis navré J'f'rais plus confiance, j'suis navré, j'suis navré Au fond d'moi, j'suis trop déçu Déçu, j'croyais qu'on était ensemble Sale bâtard Encore un décès Oh, coup d'couteau dans la descente La bagarre J'vais pas t'faire d'dessin Nan, c'est que nous dans l'Parisien C'est que nous Oh putain d'merde, c'est pas vrai Oh, putain d'merde, c'est pas vrai J'peux plus rev'nir dans l'passé J'peux plus rev'nir dans l'passé, le passé Elle m'dit qu'c'est pas une pute, c'est juste le monde qui est p'tit Yea, yeah À c'qui p', d'elle, j'peux faire c'que j'veux, pourtant, elle est prise Prise J'reçois d'l'amour, okay, mais pour cette putain d'haine, heureusement qu'on m'paie Il m'faut qu'on soigne mes plaies, eh J'veux des kichtas d'bâtard, avant qu'ça bloque mon tiroir Un passé d'poissard, jovial le miroir J'recompte le papelard, plus vingt balles dans l'armoire Tellement j'suis sombre, ils disent que j'verse des larmes noires Je n'sais pas, mais j'espère passer toute l'année On part au charbon, on r'vient, les roses ont fané On recompte c'qu'on a gagné et regrette ce qu'on a perdu Parano la nuit, parano, je fume la verdure Un peu parano dans ma te-tê Un peu paro dans ma te-tê Tu connais, j'ai pris du recul Du recul, j'préfère la vue d'ensemble D'ensemble J'f'rais plus confiance, j'suis navré J'f'rais plus confiance, j'suis navré, j'suis navré Au fond d'moi, j'suis trop déçu Déçu, j'croyais qu'on était ensemble Sale bâtard Encore un décès Oh, coup d'couteau dans la descente La bagarre J'vais pas t'faire d'dessin Nan, c'est que nous dans l'Parisien C'est que nous Oh putain d'merde, c'est pas vrai Oh, putain d'merde, c'est pas vrai J'peux plus rev'nir dans l'passé J'peux plus rev'nir dans l'passé, le passé Han-han-han Han-han-han Han-han-han</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Ehi Ehi Ho-ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No, no A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore Rimango sveglio per ore, baby, tu non sei come tante Fuck you, non stai sulle tue gambe, devi ancora mangiarne carne Plaza in giro ormai da anni, io non vi piaccio, manco voi a me L'Italia è piccola e vedo in grande, scappo all'estero insieme a te Queste putt parlano e basta, quello lo appendo e nobody know' Nessuno sa niente ma proprio niente, aprono la bocca solo per sport E fanculo il rischio, con te ho rischiato troppo da un po' Troppe pare, un po' troppo alcol, non mi pago case col flow, ah-ah Prima ti chiaman brother, uomini come puttane Infami, come Ciro è immortale, ah-ah Ho imparato ad incassare, ah-ah Solo come un cane muoio Vieni, vuoi puntare al podio Oro come Marcell, Tokyo, ah Il-Il cuore è freddo, ghiacciato, troppo veleno Non sembra vero, nessuno è stato sincero Io c'ho rimesso, se torno indietro Se torno indietro Farei comunque lo stesso, non me ne pento Non me ne pento Farei comunque lo stesso, non me ne pento You might also like Ho il cuore freddo ghiacciato, no, non ti credo A volte sembra sprofondo, perdo terreno Uno, due, tre puttane non danno un cazzo Se con te so-solamente mi sento vero Ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No, no A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore Ma baby, j'pourrais tout t'donner mais toi, t'aime trop l'argent La pute P't-être, t'aime bien, j'sais pas, un truc comme ça mais toi, t'aime trop l'argent Mais comment veux-tu qu'on avance si moi-même, j'aime trop l'argent ? Tes seuls sujets d'discussions, sont tes faux cils et l'argent Et chez moi, y a pleins d'disques, plusieurs en platines et d'autres en diamants J'ai pleins d'shit, pas c'lui qui casse les couilles, c'lui qui colle à mort La Beldi' s'mélange à Philip, jamais sans Morris, sans oignons Un Coca Cherry dans la Ferrari Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' StarfAllah, si j'tombe à terre, j'que-bra les p'tits, j'récup' le rrain-te, j'récup' le rrain-te Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' Ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo No Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore</t>
+          <t>Ehi Ehi Ho-ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No, no A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore Rimango sveglio per ore, baby, tu non sei come tante Fuck you, non stai sulle tue gambe, devi ancora mangiarne carne Plaza in giro ormai da anni, io non vi piaccio, manco voi a me L'Italia è piccola e vedo in grande, scappo all'estero insieme a te Queste putt parlano e basta, quello lo appendo e nobody know' Nessuno sa niente ma proprio niente, aprono la bocca solo per sport E fanculo il rischio, con te ho rischiato troppo da un po' Troppe pare, un po' troppo alcol, non mi pago case col flow, ah-ah Prima ti chiaman brother, uomini come puttane Infami, come Ciro è immortale, ah-ah Ho imparato ad incassare, ah-ah Solo come un cane muoio Vieni, vuoi puntare al podio Oro come Marcell, Tokyo, ah Il-Il cuore è freddo, ghiacciato, troppo veleno Non sembra vero, nessuno è stato sincero Io c'ho rimesso, se torno indietro Se torno indietro Farei comunque lo stesso, non me ne pento Non me ne pento Farei comunque lo stesso, non me ne pento Ho il cuore freddo ghiacciato, no, non ti credo A volte sembra sprofondo, perdo terreno Uno, due, tre puttane non danno un cazzo Se con te so-solamente mi sento vero Ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No, no A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore Ma baby, j'pourrais tout t'donner mais toi, t'aime trop l'argent La pute P't-être, t'aime bien, j'sais pas, un truc comme ça mais toi, t'aime trop l'argent Mais comment veux-tu qu'on avance si moi-même, j'aime trop l'argent ? Tes seuls sujets d'discussions, sont tes faux cils et l'argent Et chez moi, y a pleins d'disques, plusieurs en platines et d'autres en diamants J'ai pleins d'shit, pas c'lui qui casse les couilles, c'lui qui colle à mort La Beldi' s'mélange à Philip, jamais sans Morris, sans oignons Un Coca Cherry dans la Ferrari Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' StarfAllah, si j'tombe à terre, j'que-bra les p'tits, j'récup' le rrain-te, j'récup' le rrain-te Quand c'est khalass, on retire, de base, j'étais un raté Maintenant, j'fait aller-retour Dubaï-Espagne, Paris-Rotter' Ho il cuore freddo ghiacciato, no, non ti credo No, non ti credo No A volte sembra sprofondo, perdo terreno Perdo terreno Grr Uno, due, tre putt non danno un cazzo Non danno un cazzo No Se con te so-solamente mi sento vero Vero, vero Yeah Ah, ma quante paranoie Sto con l'acqua alla gola Bugiardi, infami e troie Troie, troie Ah, ah, ma quante paranoie Yah, yah Le vivo proprio ora Ora Rimango sveglio ore</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Ok, daddy, daddy Gros, la drogue c'est rentable, depuis midi, que des passages RS3, ligne akra, j'suis pas flashé par les radars Et là, comme d'hab', j'suis sous she-fla mais dans l'business, on est rodés Si y a plus rien, j'deviens radin, si tu pénaves, j'dois t'éradiquer Dans la gue-dro, dans la musique, le manager a le bras long Encore un trou d'boulette, pour les raclis, y a du boulot Appels contre appels, j'attends ma chance, elle vient pas mais j'suis démarquer Si elle vient, c'est un miracle, il m'suffit deux-trois marqueurs Putain d'merde, le Clio 2, toit ouvrant, ça c'était avant Maintenant, j'suis dans l'dernier RS6, 2020, mon frère J'y croyais quand j'étais plus p'tit mais j'gamberge depuis qu'j'ai grandi Avant, elles m'voyaient comme un fou, maintenant, elles ont la fouffe en feu Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant grrr, po, po, po, po Tout l'monde danse quand la guitare chante You might also like 4000 avec un trou d'B, armé, pas b'soin de taper la démarche Des fois, je m'endors cagoulé, ganté, défoncé comme un gros bâtard Criminalité élevée c'est Parc aux Lièvres, c'est pas Brooklyn Des gens à qui il manque des doigts, gros, y a plein d'trucs que j't'ai pas dit Showcase tout-par, concert tout-par, j'suis écouté jusqu'à Pékin j'suis écouté jusqu'à L.A Toi, t'es trop nul, t'es comme Krilin Igo, j'vois tout en direct, gros, j'vois tout en direct Pas comme ces voyous du net, bon qu'à snapper d'vant la fenêtre Putain d'merde, les descentes d'vant ton lycée, ça c'était avant Maintenant, on va venir en T, t'allumer en bas d'chez toi J'y croyais quand j'étais plus p'tit mais j'gamberge depuis qu'j'ai grandi Putain d'merde, ma vie c'est un film difficile, mais y a l'vert aussi Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant vroom, po, po, po, po Tout l'monde danse quand la guitare chante Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant vroom, po, po, po, po Tout l'monde danse quand la guitare chante1</t>
+          <t>Ok, daddy, daddy Gros, la drogue c'est rentable, depuis midi, que des passages RS3, ligne akra, j'suis pas flashé par les radars Et là, comme d'hab', j'suis sous she-fla mais dans l'business, on est rodés Si y a plus rien, j'deviens radin, si tu pénaves, j'dois t'éradiquer Dans la gue-dro, dans la musique, le manager a le bras long Encore un trou d'boulette, pour les raclis, y a du boulot Appels contre appels, j'attends ma chance, elle vient pas mais j'suis démarquer Si elle vient, c'est un miracle, il m'suffit deux-trois marqueurs Putain d'merde, le Clio 2, toit ouvrant, ça c'était avant Maintenant, j'suis dans l'dernier RS6, 2020, mon frère J'y croyais quand j'étais plus p'tit mais j'gamberge depuis qu'j'ai grandi Avant, elles m'voyaient comme un fou, maintenant, elles ont la fouffe en feu Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant grrr, po, po, po, po Tout l'monde danse quand la guitare chante 4000 avec un trou d'B, armé, pas b'soin de taper la démarche Des fois, je m'endors cagoulé, ganté, défoncé comme un gros bâtard Criminalité élevée c'est Parc aux Lièvres, c'est pas Brooklyn Des gens à qui il manque des doigts, gros, y a plein d'trucs que j't'ai pas dit Showcase tout-par, concert tout-par, j'suis écouté jusqu'à Pékin j'suis écouté jusqu'à L.A Toi, t'es trop nul, t'es comme Krilin Igo, j'vois tout en direct, gros, j'vois tout en direct Pas comme ces voyous du net, bon qu'à snapper d'vant la fenêtre Putain d'merde, les descentes d'vant ton lycée, ça c'était avant Maintenant, on va venir en T, t'allumer en bas d'chez toi J'y croyais quand j'étais plus p'tit mais j'gamberge depuis qu'j'ai grandi Putain d'merde, ma vie c'est un film difficile, mais y a l'vert aussi Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant vroom, po, po, po, po Tout l'monde danse quand la guitare chante Mais ça, gros, c'était avant, y a plus d'grand, plus d'p'tit, dorénavant Eh, y a les palettes au volant vroom, po, po, po, po Tout l'monde danse quand la guitare chante1</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Pa-la-la-la Ouh oui Pa-la-la-la Han Yeah, Purple Beatz Pa-la-la-la Pa-la-la-la Ouais La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner Mais j'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner Mais j'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han Avant l'appel, faut la paye, y a Kylian Mbappé, on a déchiré ton corps pour du papier Maman, n'aies pas peur, j'prends la place à papa, j'pars pas mais j'ai remis mon pare-balles On en a commis des fautes en restant les mêmes depuis l'époque Au pied du mur, un peu comme mes potes Ouais, quand ils meurent, tu connais les codes Ouais T'as deux équipes sur les côtes Ouais et pour t'faire, ils ont les métaux, la méthode J'suis mal luné, envie d'les allumer, j'ai franchi l'pallier Elle m'a contaminé, envie d'la câliner Elle m'a dit J't'aime plus que l'or, elle m'a dit J't'aime plus qu'un heureux Si tout s'passe bien, j't'emmène loin d'ici, faut ma villa et ma piscine Dis pas qu'c'est mort, j'vais refaire l'histoire, avoir une vie de star Avoir une vie de star, ce soir, j'suis rentré tard La monnaie m'appelle, j'suis plus là, j'ouvre l'trésor comme un pirate On n'y croit plus au miracle, on va vous la mettre comme Chirac Pa-la-la-la Seul, j'pense aux millions, j'essaye d'faire l'nécessaire pour faire manger toute la mif' Elle m'dit C'est ni pour l'rap, ni pour ton fric, moi, j'te trouve mignon Elle m'a dit Même dans l'mal, je s'rais là pour faire la diff' You might also like La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han J'ai reçu d'la beugui, c'est d'la bonne Bonne Tombe pas amoureux, j'l'ai déjà ken, c'est pas la bonne Bonne Ici, ça pue la merde La merde, y a que des carottes, des bananes Bananes Y a d'la coke à mort et j'ai la frappe à Mbappé Ouh, j'ai la frappe à Mbappé Ouh Et j'ai fait l'con, au lieu d'partir en cours Cours, moi, j'suis parti en couille Couille Dans la tchop, j'bouge un peu partout 'tout, le canon frotte mes couilles Couilles J'suis bourré, j'suis un peu stressé Ouh, d'vant les keufs, j'vais caler Ouh J'suis bourré, j'suis un peu stressé Ouh, d'vant les keufs, j'vais caler J'suis dans la ne-zo des trafiquantes, des ghettos Des trafiquantes, des ghettos J'ai laissé l'bédo mais j'suis toujours dans le bendo Dans le bendo On n'est pas bête, j'ai d'jà coffré max de butin J'ai d'jà coffré Un p'tit ciné, un p'tit resto, bébé, boude plus Eh-eh La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han Seul, j'pense aux millions, j'essaye d'faire l'nécessaire pour faire manger toute la mif'</t>
+          <t>Pa-la-la-la Ouh oui Pa-la-la-la Han Yeah, Purple Beatz Pa-la-la-la Pa-la-la-la Ouais La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner Mais j'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner Mais j'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han Avant l'appel, faut la paye, y a Kylian Mbappé, on a déchiré ton corps pour du papier Maman, n'aies pas peur, j'prends la place à papa, j'pars pas mais j'ai remis mon pare-balles On en a commis des fautes en restant les mêmes depuis l'époque Au pied du mur, un peu comme mes potes Ouais, quand ils meurent, tu connais les codes Ouais T'as deux équipes sur les côtes Ouais et pour t'faire, ils ont les métaux, la méthode J'suis mal luné, envie d'les allumer, j'ai franchi l'pallier Elle m'a contaminé, envie d'la câliner Elle m'a dit J't'aime plus que l'or, elle m'a dit J't'aime plus qu'un heureux Si tout s'passe bien, j't'emmène loin d'ici, faut ma villa et ma piscine Dis pas qu'c'est mort, j'vais refaire l'histoire, avoir une vie de star Avoir une vie de star, ce soir, j'suis rentré tard La monnaie m'appelle, j'suis plus là, j'ouvre l'trésor comme un pirate On n'y croit plus au miracle, on va vous la mettre comme Chirac Pa-la-la-la Seul, j'pense aux millions, j'essaye d'faire l'nécessaire pour faire manger toute la mif' Elle m'dit C'est ni pour l'rap, ni pour ton fric, moi, j'te trouve mignon Elle m'a dit Même dans l'mal, je s'rais là pour faire la diff' La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han J'ai reçu d'la beugui, c'est d'la bonne Bonne Tombe pas amoureux, j'l'ai déjà ken, c'est pas la bonne Bonne Ici, ça pue la merde La merde, y a que des carottes, des bananes Bananes Y a d'la coke à mort et j'ai la frappe à Mbappé Ouh, j'ai la frappe à Mbappé Ouh Et j'ai fait l'con, au lieu d'partir en cours Cours, moi, j'suis parti en couille Couille Dans la tchop, j'bouge un peu partout 'tout, le canon frotte mes couilles Couilles J'suis bourré, j'suis un peu stressé Ouh, d'vant les keufs, j'vais caler Ouh J'suis bourré, j'suis un peu stressé Ouh, d'vant les keufs, j'vais caler J'suis dans la ne-zo des trafiquantes, des ghettos Des trafiquantes, des ghettos J'ai laissé l'bédo mais j'suis toujours dans le bendo Dans le bendo On n'est pas bête, j'ai d'jà coffré max de butin J'ai d'jà coffré Un p'tit ciné, un p'tit resto, bébé, boude plus Eh-eh La monnaie m'appelle, j'suis plus là, pour faire la paye, faut charbonner J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Ouh La monnaie m'appelle, j'suis plus là Ouh, pour faire la paye, faut charbonner Ouh J'fais partie d'la pire des races Ouh mais j'demande à Dieu de m'pardonner J'demande à Dieu d'me pardonner mais j'sais qu'c'est dur J'sais qu'c'est dur J'revends la mort, j'ai grave la poisse mais c'est la rue, man Han Seul, j'pense aux millions, j'essaye d'faire l'nécessaire pour faire manger toute la mif'</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2000 Squad Guapo Ma réussite, j'la dois aussi à mes deux p'tits frères Matt et Sorel, grâce à eux, j'deviens plus fort Même si ils s'prenaient des coups quand ils enlevaient la clé sur la porte Jamais mes frères m'ont laissé dormir dehors La rue la rue a remplacé l'absence du daron Les murs du bloc alterne avec les barreaux La juge la juge a augmenté les tarots Et la mu'-mu' a quadrillé Jean Rostand À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent You might also like J'me fais plus trop d'soucis, c'est d'jà des bonhommes d'jà des bonhommes Et puis, quand ils traînent à deux, c'est l'meilleur binôme Ma daronne peut être fière, elle a fait des vrais gars des vrais gars Pour se mettre entre nous, j'te jure qu'y a dégun Quand j'compte l'argent maudit maudit J'suis dans l'Audi, j'remarque pas qu'le temps passe vite passe vite Rien que j'm'enfume, ici-bas, y a l'vice des folles y a des folles Et l'vice du flouze, j'remarque pas qu'le temps passe vite passe vite Rien que j'm'enfume À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent</t>
+          <t>2000 Squad Guapo Ma réussite, j'la dois aussi à mes deux p'tits frères Matt et Sorel, grâce à eux, j'deviens plus fort Même si ils s'prenaient des coups quand ils enlevaient la clé sur la porte Jamais mes frères m'ont laissé dormir dehors La rue la rue a remplacé l'absence du daron Les murs du bloc alterne avec les barreaux La juge la juge a augmenté les tarots Et la mu'-mu' a quadrillé Jean Rostand À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent J'me fais plus trop d'soucis, c'est d'jà des bonhommes d'jà des bonhommes Et puis, quand ils traînent à deux, c'est l'meilleur binôme Ma daronne peut être fière, elle a fait des vrais gars des vrais gars Pour se mettre entre nous, j'te jure qu'y a dégun Quand j'compte l'argent maudit maudit J'suis dans l'Audi, j'remarque pas qu'le temps passe vite passe vite Rien que j'm'enfume, ici-bas, y a l'vice des folles y a des folles Et l'vice du flouze, j'remarque pas qu'le temps passe vite passe vite Rien que j'm'enfume À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent À Georges Sand, il s'passe des trucs des fous Les années passent et les pages du livre défilent Traficanté déguisé en rappeur C'est le manque d'argent qui a ligoté ma peur Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Qui va m'relever si j'tombe de haut ? Pourtant, là j'peux pas être plus bas Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent Depuis, j'ai mal à la vie, rien n's'améliore Mes p'tits frères grandissent mais tous mes souvenirs s'effacent</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4267,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>C'est NuDeal shit, yeah Wesh les p'tits, abusez pas, doucement quand ça bicrave en bas Y a les mamans qui passent par là, et toi, fais pas trop l'scarla J'suis v'nu dans c'game en Piwi, on m'a proposé l'R8 J'veux qu'mes gosses mangent des kiwis, j'ai opté pour le i8 Le réchauffement climatique, à la cité, c'est depuis Mes refrés tombent comme Inouits, 'cravent de midi à minuit La BST, elle tourne, envie d'leur faire l'amour Ils ont détruit la tour, faut remonter le four Le détail est sous la caisse, hamdoullah, pas dans la veste Ils peuvent pas m'attraper avec, j'ai millions d'euros dans la tête Quand le produit est bien noté, que ces bâtards m'ont pas sauté J'peux repenser à ma beauté, à l'oseille que j'ai mis d'côté Oui, le cash est bien loti, j'veux ma villa sur pilotis Tout ça part d'un kilo d'shit, khoya, la hess, ça motive Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête Tu peux toujours courir, tu peux toujours courir Tu peux toujours courir, gros porc, tu peux toujours courir You might also like Ouais, bande d'enculés, j'ai percé, bande d'enculés J'me contente plus d'ma place de gérant depuis qu'j'passe à la télé Depuis qu'j'passe à la télé, depuis, j'dors plus au tel-hô Une grande chambre, un lit double, souvent membré, je la déglingue En vrai, y a plus d'grands, y a plus d'minots, c'est l'plus armé, le plus dominant Comme j'suis l'meilleur dans mon domaine, les plus grands m'ont dit d'me munir d'un 9 milli' J'me rapproche du disque d'or, sans tricher sans vous mentir Dans la cour des grands, j'suis plus avec les amateurs, dans la vie, c'est chacun son tour Les traîtres, les lâches, les fils de pute, entre autres, reviennent depuis que la roue tourne J'suis en train d'le faire, maintenant, ma maman est fière son p'tit garçon, c'est le plus fort Ouais Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête Millions d'euros dans la cabessa, j'suis là pour l'khalissi Et dans le cul d'la Khaleesi, j'ai calé ça en aller simple Des millions d'vues, des millions d'euros qui tournent dans ma tête En feat' avec Lartiste, la concu' en train de coller la p'tite Mais t'inquiète, p'tit frère, tu vas tous les faire, une question de time Une question de titre, une question de kil', une question de grammes Et si on en croit les films, un beau jour, l'élève dépassera le maître À condition qu'on reste niais et qu'on allume celui qui veut nous la mettre Tu peux toujours courir, tu peux toujours courir Tu peux toujours courir, gros porc, tu peux toujours courir Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête</t>
+          <t>C'est NuDeal shit, yeah Wesh les p'tits, abusez pas, doucement quand ça bicrave en bas Y a les mamans qui passent par là, et toi, fais pas trop l'scarla J'suis v'nu dans c'game en Piwi, on m'a proposé l'R8 J'veux qu'mes gosses mangent des kiwis, j'ai opté pour le i8 Le réchauffement climatique, à la cité, c'est depuis Mes refrés tombent comme Inouits, 'cravent de midi à minuit La BST, elle tourne, envie d'leur faire l'amour Ils ont détruit la tour, faut remonter le four Le détail est sous la caisse, hamdoullah, pas dans la veste Ils peuvent pas m'attraper avec, j'ai millions d'euros dans la tête Quand le produit est bien noté, que ces bâtards m'ont pas sauté J'peux repenser à ma beauté, à l'oseille que j'ai mis d'côté Oui, le cash est bien loti, j'veux ma villa sur pilotis Tout ça part d'un kilo d'shit, khoya, la hess, ça motive Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête Tu peux toujours courir, tu peux toujours courir Tu peux toujours courir, gros porc, tu peux toujours courir Ouais, bande d'enculés, j'ai percé, bande d'enculés J'me contente plus d'ma place de gérant depuis qu'j'passe à la télé Depuis qu'j'passe à la télé, depuis, j'dors plus au tel-hô Une grande chambre, un lit double, souvent membré, je la déglingue En vrai, y a plus d'grands, y a plus d'minots, c'est l'plus armé, le plus dominant Comme j'suis l'meilleur dans mon domaine, les plus grands m'ont dit d'me munir d'un 9 milli' J'me rapproche du disque d'or, sans tricher sans vous mentir Dans la cour des grands, j'suis plus avec les amateurs, dans la vie, c'est chacun son tour Les traîtres, les lâches, les fils de pute, entre autres, reviennent depuis que la roue tourne J'suis en train d'le faire, maintenant, ma maman est fière son p'tit garçon, c'est le plus fort Ouais Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête Millions d'euros dans la cabessa, j'suis là pour l'khalissi Et dans le cul d'la Khaleesi, j'ai calé ça en aller simple Des millions d'vues, des millions d'euros qui tournent dans ma tête En feat' avec Lartiste, la concu' en train de coller la p'tite Mais t'inquiète, p'tit frère, tu vas tous les faire, une question de time Une question de titre, une question de kil', une question de grammes Et si on en croit les films, un beau jour, l'élève dépassera le maître À condition qu'on reste niais et qu'on allume celui qui veut nous la mettre Tu peux toujours courir, tu peux toujours courir Tu peux toujours courir, gros porc, tu peux toujours courir Millions d'euros dans la tête, les shmits sont derrière moi, j'me fait courser dans la tess Je sais qu'la mama s'inquiète mais l'avenir est devant moi, et moi, personne m'arrête</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4284,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Un pétard au fond d'la cave, j'allumerai tous ceux qui voudront ma part Grah, grah J'ai jamais demandé pour que j'mange, la recette j'ai dû voler pour l'avoir Yeah, yeah, yeah On a dû voler pour l'avoir, aujourd'hui, ça vend même sur les plateformes Han, han, han Coquina, coquina veut pas d'love, coquina veut seulement voir comment j'performe Oui, oui, oui Pétasse, pétasse, suce-moi sans stress Sans stress, j'recompte billets, billets dans l'binks Dans l'binks Après avoir coupé, coupé, j'visser J'visser, kichtas, cello', cello' épaisses Rah Minimum million, bah ouais Bah ouais, pour la sécu' en ftal, bah ouais Boum Même si tu t'entraînes au fitness Bah ouais, dis Bonjour au bang-bang, bah ouais Bah ouais S.A.N.K.H, j'aime quand les billets forment un rond, donc paye en cash Hey, hey, hey Le temps, c'est de l'or, on peut t'niquer ta grand-mère, si tu crois nous endormir, paye en cash N.K.H, j'aime quand les billets forment un rond, donc paye en cash Pah, pah, pah, pah, pah, pah, pah, okay Plan cash, plan sous, t'emportes en rien Attention aux antenne à bigo, parle pas au téléphone Les armes, on a sorti, bang-bang-bang, voiture, j'décapote Vingt-deux, Fresh Douille, LaD, S.A.N, big boys Seven Binks, pétasse, le Sud, 9.1, 9.4 Fusil à pompe, tu t'écartes Paw, sur l'mauvais ch'min, on s'égare J'ai pas joué toutes mes cartes Hey, tu sais qu'on n'a pas d'âme Ça vient d'Paname Hey, tu sais qu'on n'a pas d'âme You might also like T'as pas honte ? Ton pote, il tourne, t'envoies pas d'mandats, d'mande au gros, j'ai besoin d'personne pour m'aider J'ai fait des délits, parfois j'régalais mes gars, en détention, j'en ai pas vu beaucoup m'aider Dans la galère, j'la côtoie beaucoup quand j'suis seul, les mains dans l'sale et la stup' bloquée dans l'sous-sol Salope T'as capté, moi, j'suis toujours incognito, si c'est qu'du détail, gros, tu passes dans la cité Du pilon, j'me vois pas sous CR, ça v'-esqui toutes les patrouilles, v'-esqui la CR Des temps pleins dès midi, t'inquiète pas qu'on sait faire, c'est quand j'étais tit-pe que j'les ai sser-er Tu connais, quand c'est cash, j'suis concentré, un bon TP et tu r'pars récompensé Quand j'entends l'gyro', j'détalle, j'suis déconcentré, audition, c'est bouche cousue même quand on sait Impliqué, j'suis dans la planque, on fait les comptes, ça dit Sors le fer seulement si tu joues au con J'connais l'secteur, donc j'vais pas visser aux cons, j'récupère dix G, calés, j'passe devant l'maton Incognito, tu comptes sur tes grands, moi quand j'avais faim, j'comptais pas sur tous ces gens On sait qui est qui, tu les écoutes ter-chan, après, tu les suces comme si c'était des légendes Ouh Pétasse Mmh, trois fois Mmh, tu m'reconnais depuis la MS J'sens même plus mes courbatures Mmh, ma pétasse est devenue masseuse Ta re-s se fait né-tour comme le terrain, au rond point, y a les baqueux qui font d'mi-tour D'mi-tour J'suis dans le SVR tout terrain, j'peux rouler partout, y a rien qui crève les roues Ah J'sais très bien, moi, qu'elle peut dead mais j'ai pas trop l'temps pour me poser Mmh J'achète maison, j'achète appart', allô ? Deuspi, j'crois qu'y a une affaire Elle veut pas trop me laisser chez elle, si je reste chez elle, j'vais baiser sa sur Mais bon, quand même, j'ai mon ange de gauche, il va vouloir me dire de pas la cheb J'voulais que être millionnaire Ouais mais depuis qu'j'le suis, j'ai beaucoup d'problèmes Et nanani, nananère, j'ai laissé 100K juste pour faire ma chaîne J'vais dans la cave, j'vais récup' du shit, j'ai laissé ma cons' dans l'appart' d'une chienne Ouh Et j'laisse le refrain à mon sin-c' Bolé' Plan cash, plan sous, t'emportes en rien Attention aux antenne à bigo, parle pas au téléphone Les armes, on a sorti, bang-bang-bang, voiture, j'décapote Vingt-deux, Fresh Douille, LaD, S.A.N, big boys Seven Binks, pétasse, le Sud, 9.1, 9.4 Fusil à pompe, tu t'écartes Paw, sur l'mauvais ch'min, on s'égare J'ai pas joué toutes mes cartes Hey, tu sais qu'on n'a pas d'âme Ça vient d'Paname Hey, tu sais qu'on n'a pas d'âme</t>
+          <t>Yeah, yeah, yeah Un pétard au fond d'la cave, j'allumerai tous ceux qui voudront ma part Grah, grah J'ai jamais demandé pour que j'mange, la recette j'ai dû voler pour l'avoir Yeah, yeah, yeah On a dû voler pour l'avoir, aujourd'hui, ça vend même sur les plateformes Han, han, han Coquina, coquina veut pas d'love, coquina veut seulement voir comment j'performe Oui, oui, oui Pétasse, pétasse, suce-moi sans stress Sans stress, j'recompte billets, billets dans l'binks Dans l'binks Après avoir coupé, coupé, j'visser J'visser, kichtas, cello', cello' épaisses Rah Minimum million, bah ouais Bah ouais, pour la sécu' en ftal, bah ouais Boum Même si tu t'entraînes au fitness Bah ouais, dis Bonjour au bang-bang, bah ouais Bah ouais S.A.N.K.H, j'aime quand les billets forment un rond, donc paye en cash Hey, hey, hey Le temps, c'est de l'or, on peut t'niquer ta grand-mère, si tu crois nous endormir, paye en cash N.K.H, j'aime quand les billets forment un rond, donc paye en cash Pah, pah, pah, pah, pah, pah, pah, okay Plan cash, plan sous, t'emportes en rien Attention aux antenne à bigo, parle pas au téléphone Les armes, on a sorti, bang-bang-bang, voiture, j'décapote Vingt-deux, Fresh Douille, LaD, S.A.N, big boys Seven Binks, pétasse, le Sud, 9.1, 9.4 Fusil à pompe, tu t'écartes Paw, sur l'mauvais ch'min, on s'égare J'ai pas joué toutes mes cartes Hey, tu sais qu'on n'a pas d'âme Ça vient d'Paname Hey, tu sais qu'on n'a pas d'âme T'as pas honte ? Ton pote, il tourne, t'envoies pas d'mandats, d'mande au gros, j'ai besoin d'personne pour m'aider J'ai fait des délits, parfois j'régalais mes gars, en détention, j'en ai pas vu beaucoup m'aider Dans la galère, j'la côtoie beaucoup quand j'suis seul, les mains dans l'sale et la stup' bloquée dans l'sous-sol Salope T'as capté, moi, j'suis toujours incognito, si c'est qu'du détail, gros, tu passes dans la cité Du pilon, j'me vois pas sous CR, ça v'-esqui toutes les patrouilles, v'-esqui la CR Des temps pleins dès midi, t'inquiète pas qu'on sait faire, c'est quand j'étais tit-pe que j'les ai sser-er Tu connais, quand c'est cash, j'suis concentré, un bon TP et tu r'pars récompensé Quand j'entends l'gyro', j'détalle, j'suis déconcentré, audition, c'est bouche cousue même quand on sait Impliqué, j'suis dans la planque, on fait les comptes, ça dit Sors le fer seulement si tu joues au con J'connais l'secteur, donc j'vais pas visser aux cons, j'récupère dix G, calés, j'passe devant l'maton Incognito, tu comptes sur tes grands, moi quand j'avais faim, j'comptais pas sur tous ces gens On sait qui est qui, tu les écoutes ter-chan, après, tu les suces comme si c'était des légendes Ouh Pétasse Mmh, trois fois Mmh, tu m'reconnais depuis la MS J'sens même plus mes courbatures Mmh, ma pétasse est devenue masseuse Ta re-s se fait né-tour comme le terrain, au rond point, y a les baqueux qui font d'mi-tour D'mi-tour J'suis dans le SVR tout terrain, j'peux rouler partout, y a rien qui crève les roues Ah J'sais très bien, moi, qu'elle peut dead mais j'ai pas trop l'temps pour me poser Mmh J'achète maison, j'achète appart', allô ? Deuspi, j'crois qu'y a une affaire Elle veut pas trop me laisser chez elle, si je reste chez elle, j'vais baiser sa sur Mais bon, quand même, j'ai mon ange de gauche, il va vouloir me dire de pas la cheb J'voulais que être millionnaire Ouais mais depuis qu'j'le suis, j'ai beaucoup d'problèmes Et nanani, nananère, j'ai laissé 100K juste pour faire ma chaîne J'vais dans la cave, j'vais récup' du shit, j'ai laissé ma cons' dans l'appart' d'une chienne Ouh Et j'laisse le refrain à mon sin-c' Bolé' Plan cash, plan sous, t'emportes en rien Attention aux antenne à bigo, parle pas au téléphone Les armes, on a sorti, bang-bang-bang, voiture, j'décapote Vingt-deux, Fresh Douille, LaD, S.A.N, big boys Seven Binks, pétasse, le Sud, 9.1, 9.4 Fusil à pompe, tu t'écartes Paw, sur l'mauvais ch'min, on s'égare J'ai pas joué toutes mes cartes Hey, tu sais qu'on n'a pas d'âme Ça vient d'Paname Hey, tu sais qu'on n'a pas d'âme</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Heey, hey, hey, heey Heey, hey, hey, heey Heey, hey, hey, heey Finir riche à trente piges, c'est ça l'thème, revendeur de stup à la base Je n'peux pas retourner ma veste, on s'est juré d'gagner et de ve-esqui la BAC On vit pas au jour le jour, on pense au long terme, j'mets tout mon cur pour mon terrain Elle s'est tatoué un papillon sur son terma, elle veut qu'j'la retourne Qu'j'la baise Mon taga fait de l'effet j'les effraie et je sais que ton corps a des effets néfastes Je les baise, c'est un fait, en effet et celui qui s'oppose, c'est celui qu'on efface Koba LaD, regard du boss la mentalité du four fait que j'en veux toujours plus C'est l'humain qui fait l'argent et moi j'ai du hagar pour faire ma place J'suis à Nigray avec Juicy P, les maisons d'disques font que d'appeler Le jour de paye, j'manque pas l'appel et depuis mes billets s'empilent T'arriveras à rien si tu ne fais pas d'effort, xénon, c'est les phares Et j'fais des millions de vues, ma daronne est fière, elle croit que j'me suis rangé, que j'ai laissé mon four Je sais que mon taga les décapite et j'ai plus de chambres depuis que j'décapote Elle veut que j'la baise, elle veut que j'la pine, j'peux pas faire grand chose si j'ai pas d'capote J'suis toujours le même avec toute ma clique, tu n'f'ras pas d'thunes si tu n'as pas d'couilles J'suis meilleur dans les coups d'pute, j'rabate tes ients-cli, j'me réjouis d'ta chute Pour la yaska cours plus vite que les balles bang bang bang bang Pour la yaska cours plus vite que les balles bang bang bang bang C'est la peine maximale ou la pierre tombale ouais Et si des bâtard veulent ma part, pan pan pan Dans Le bâtiment 7 avec Juicy P, les grands s'mélangent avec les p'tits Traînent et font qu'gérer un terrain à deux où y'a de la cc du pilon et d'la beuh À 22 heures, tout l'monde dans le binks, c'est dimanche le jour de paye Tout en Nike, paire de TN noire, c'est pareil du bat 7 jusqu'à Nigray You might also like À 22 heures, tout l'monde dans l'bloc Heure de pointe , vla les Ienckle Sur le rain-té everyday all day Tout ceux qui coupent poto c'est faire la paix Cassez pas les couilles si t'es pas concret Ya que dieu qu'on craint Putain d'cran darrêt dans ta grand mère Tout mes négros sont deter' et ont des gros FER On tombe dans l'bloc et on s'blunt le veau-cer Les ient-cli ont vi-ser on dogyne ta tiper Azelai 91 Zer même quand j'ai perdu J'me perçoit pas comme un looser Big Meech, Larry Hoover Les hommes sont fatal Danny Glover Cours plus vite que les balles pour cette putain de yaska Ska ska ska donne moi 500 meuge ont feras du ski Tant qu'il neigera du chocolat on sera toujours en bas Du bat à prendre nos parts si tu veux notre part On l'a fera à la Escobar, raaa Pour la yaska cours plus vite que les balles bang bang bang bang Pour la yaska cours plus vite que les balles bang bang bang bang C'est la peine maximale ou la pierre tombale ouais Et si des bâtard veulent ma part pan pan pan Dans Le bâtiment 7 avec Juicy P Les grands s'mélangent avec les petits Traînent et font qu'gérer un terrain à deux Où y'a de la cc du pilon et de la beuh A 22 heures tout le monde dans le binks C'est dimanche le jour de paye Tout en Nike, paire de TN noire C'est pareil du bat 7 jusqu'à Nigray1</t>
+          <t>Heey, hey, hey, heey Heey, hey, hey, heey Heey, hey, hey, heey Finir riche à trente piges, c'est ça l'thème, revendeur de stup à la base Je n'peux pas retourner ma veste, on s'est juré d'gagner et de ve-esqui la BAC On vit pas au jour le jour, on pense au long terme, j'mets tout mon cur pour mon terrain Elle s'est tatoué un papillon sur son terma, elle veut qu'j'la retourne Qu'j'la baise Mon taga fait de l'effet j'les effraie et je sais que ton corps a des effets néfastes Je les baise, c'est un fait, en effet et celui qui s'oppose, c'est celui qu'on efface Koba LaD, regard du boss la mentalité du four fait que j'en veux toujours plus C'est l'humain qui fait l'argent et moi j'ai du hagar pour faire ma place J'suis à Nigray avec Juicy P, les maisons d'disques font que d'appeler Le jour de paye, j'manque pas l'appel et depuis mes billets s'empilent T'arriveras à rien si tu ne fais pas d'effort, xénon, c'est les phares Et j'fais des millions de vues, ma daronne est fière, elle croit que j'me suis rangé, que j'ai laissé mon four Je sais que mon taga les décapite et j'ai plus de chambres depuis que j'décapote Elle veut que j'la baise, elle veut que j'la pine, j'peux pas faire grand chose si j'ai pas d'capote J'suis toujours le même avec toute ma clique, tu n'f'ras pas d'thunes si tu n'as pas d'couilles J'suis meilleur dans les coups d'pute, j'rabate tes ients-cli, j'me réjouis d'ta chute Pour la yaska cours plus vite que les balles bang bang bang bang Pour la yaska cours plus vite que les balles bang bang bang bang C'est la peine maximale ou la pierre tombale ouais Et si des bâtard veulent ma part, pan pan pan Dans Le bâtiment 7 avec Juicy P, les grands s'mélangent avec les p'tits Traînent et font qu'gérer un terrain à deux où y'a de la cc du pilon et d'la beuh À 22 heures, tout l'monde dans le binks, c'est dimanche le jour de paye Tout en Nike, paire de TN noire, c'est pareil du bat 7 jusqu'à Nigray À 22 heures, tout l'monde dans l'bloc Heure de pointe , vla les Ienckle Sur le rain-té everyday all day Tout ceux qui coupent poto c'est faire la paix Cassez pas les couilles si t'es pas concret Ya que dieu qu'on craint Putain d'cran darrêt dans ta grand mère Tout mes négros sont deter' et ont des gros FER On tombe dans l'bloc et on s'blunt le veau-cer Les ient-cli ont vi-ser on dogyne ta tiper Azelai 91 Zer même quand j'ai perdu J'me perçoit pas comme un looser Big Meech, Larry Hoover Les hommes sont fatal Danny Glover Cours plus vite que les balles pour cette putain de yaska Ska ska ska donne moi 500 meuge ont feras du ski Tant qu'il neigera du chocolat on sera toujours en bas Du bat à prendre nos parts si tu veux notre part On l'a fera à la Escobar, raaa Pour la yaska cours plus vite que les balles bang bang bang bang Pour la yaska cours plus vite que les balles bang bang bang bang C'est la peine maximale ou la pierre tombale ouais Et si des bâtard veulent ma part pan pan pan Dans Le bâtiment 7 avec Juicy P Les grands s'mélangent avec les petits Traînent et font qu'gérer un terrain à deux Où y'a de la cc du pilon et de la beuh A 22 heures tout le monde dans le binks C'est dimanche le jour de paye Tout en Nike, paire de TN noire C'est pareil du bat 7 jusqu'à Nigray1</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Wouh, wouh Ceci n'est pas pour les enfants Oh, oh, oh, oh Eh, c'est moi, l'locksé C'est moi au volant du RSQ, qui t'jette ta paye Paye Pilon couleurs miel, j'attire les cliquos, les abeilles J'dois lutter jours, on charge en balle, nous, on montre pas trop nos balles Mais j'sais qu'ils ont les boules quand ils entendent le bruit du bolide On a trop donner, sa mère sans jamais rien attendre en retour Non, rien On a trop couru, sa mère, fallait bien qu'nos projet marche un jours Un jours Maintnant, c'est à nous À nous mais on est les mêms Les mêmes Et avec le temps Le temps, j'me suis rendu compte que la famille n'est qu'un mot N'est qu'un mot Tu veux bosser ? Nous, on t'force pas Non mais si tu bosse, y a des contraintes Si t'arrive à l'heure, tu ferme à l'heure, si t'en rate un, j'prends ta paye Mort On connaît très bien l'terrain, les descentes, le manque de détail Mais c'est un choix d'vie et si sa pète, au moins, on aura essayer Wouh Trafic prends ta paye En roues arrières prends ta paye Et tout les jours prends ta paye Monsieur l'agent prends ta paye Même sous ta gare prends ta paye Du Nords au Sud prends ta paye J'fais du shopping prends ta paye Monsieur l'agent Faut des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah Que des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah You might also like Comme les petits au feux-rouge, on prends ta paye, de Saint-Denis à Évry, on prends ta paye J'ai des gars dans le Nords et des gars d'Marseille, qui m'envois des selfie avec ta paye Brr, brah Oui, la musique, le rap, ça paye, que du Gucci, du Versace Elle a kiffer, le négro est bien sapé, regardes mes shoes c'est l'prix d'ta paye C'est moi que tu veux Ouh ou tout les putains d'zéros qui y a sur ma paye ? On fait le sale boulot, que-que du violet, les hommes en bleu ne s'ont pas prêts Devenir proprio', faut ma villa, j'peux pas finir locataire Tu crois qu'c'est nouveau ? Eh Sa fait déjà des années que nous, on l'a fait Massa', bédo Bédo, même fonce-dé sous vodka, j'prends ta paye Si ça parle seille-o Seille-o, ta mon num' sur ton bigo, tu m'appel Massa', bédo Bédo, même fonce-dé sous vodka, j'prends ta paye Si ça parle seille-o Wouh, ta mon num' sur ton bigo, tu m'appel Trafic prends ta paye En roues arrières prends ta paye Et tout les jours prends ta paye Monsieur l'agent prends ta paye Même sous ta gare prends ta paye Du Nords au Sud prends ta paye J'fais du shopping prends ta paye Monsieur l'agent Faut des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah Que des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah1</t>
+          <t>Wouh, wouh Ceci n'est pas pour les enfants Oh, oh, oh, oh Eh, c'est moi, l'locksé C'est moi au volant du RSQ, qui t'jette ta paye Paye Pilon couleurs miel, j'attire les cliquos, les abeilles J'dois lutter jours, on charge en balle, nous, on montre pas trop nos balles Mais j'sais qu'ils ont les boules quand ils entendent le bruit du bolide On a trop donner, sa mère sans jamais rien attendre en retour Non, rien On a trop couru, sa mère, fallait bien qu'nos projet marche un jours Un jours Maintnant, c'est à nous À nous mais on est les mêms Les mêmes Et avec le temps Le temps, j'me suis rendu compte que la famille n'est qu'un mot N'est qu'un mot Tu veux bosser ? Nous, on t'force pas Non mais si tu bosse, y a des contraintes Si t'arrive à l'heure, tu ferme à l'heure, si t'en rate un, j'prends ta paye Mort On connaît très bien l'terrain, les descentes, le manque de détail Mais c'est un choix d'vie et si sa pète, au moins, on aura essayer Wouh Trafic prends ta paye En roues arrières prends ta paye Et tout les jours prends ta paye Monsieur l'agent prends ta paye Même sous ta gare prends ta paye Du Nords au Sud prends ta paye J'fais du shopping prends ta paye Monsieur l'agent Faut des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah Que des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah Comme les petits au feux-rouge, on prends ta paye, de Saint-Denis à Évry, on prends ta paye J'ai des gars dans le Nords et des gars d'Marseille, qui m'envois des selfie avec ta paye Brr, brah Oui, la musique, le rap, ça paye, que du Gucci, du Versace Elle a kiffer, le négro est bien sapé, regardes mes shoes c'est l'prix d'ta paye C'est moi que tu veux Ouh ou tout les putains d'zéros qui y a sur ma paye ? On fait le sale boulot, que-que du violet, les hommes en bleu ne s'ont pas prêts Devenir proprio', faut ma villa, j'peux pas finir locataire Tu crois qu'c'est nouveau ? Eh Sa fait déjà des années que nous, on l'a fait Massa', bédo Bédo, même fonce-dé sous vodka, j'prends ta paye Si ça parle seille-o Seille-o, ta mon num' sur ton bigo, tu m'appel Massa', bédo Bédo, même fonce-dé sous vodka, j'prends ta paye Si ça parle seille-o Wouh, ta mon num' sur ton bigo, tu m'appel Trafic prends ta paye En roues arrières prends ta paye Et tout les jours prends ta paye Monsieur l'agent prends ta paye Même sous ta gare prends ta paye Du Nords au Sud prends ta paye J'fais du shopping prends ta paye Monsieur l'agent Faut des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah Que des zéros, zéros, zéros, zéros, zéros, j'suis refait J'suis refait Zéros, zéros, zéros, zéros, zéros, j'suis refait Brr, brah1</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4335,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Tu m'aurais fréquenté, si j'avais rien dans les poches ? J'ai dû quitté l'quartier, pour qu'tes yeux sur moi se posent Besoin d'sonne-per pour l'sale boulot pour l'sale boulot Pour Chanel, Bal', j'ai fait c'qu'il faut j'ai fait c'qu'il faut De mes doutes c'est toi l'bourreau c'est toi l'bourreau J'ai le cur en mandat d'dépôt en mandat d'dépôt Bébé moi j'ai plus rien à perdre bébé moi j'ai plus rien à perdre Ici-bas sans toi ça d'vient la merde, oh Bébé moi j'ai plus rien à perdre, oh Ton sourire avant la tempête, oh Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Avec toi j'f'rai le tour du monde Il suffira de quatre secondes Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes You might also like Mon bébé, moi j'ai rien à perdre On nique ta grand-mère si tu mens Laisse tomber, c'est mort, si j'apprends qu't'as djà fait la tain-p' On peut faire le tour du globe, on peut exaucer tous tes vux On verra tes ch'veux déborder du toit du Féfé Mais faut qu'tu m'fasses un minimum confiance On n'ira pas loin si t'écoutes les gens Il faut qu'tu m'fasses un minimum confiance Hum, si t'écoutes les gens Bébé moi j'ai plus rien à perdre bébé moi j'ai plus rien à perdre Ici-bas sans toi ça d'vient la merde, oh ça devient la merde Bébé moi j'ai plus rien à perdre, oh bébé moi j'ai plus rien à perdre Ton sourire avant la tempête, oh avant la tempête oh, oh, oh Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes seulement J'voulais seulement viser la, viser la Lune Mais j'me retrouve six pieds sous terre J'voulais seulement viser la, viser la Lune viser la Lune, viser la Lune J'voulais seulement viser la, viser la Lune viser la, viser la Lune Mais j'me retrouve six pieds sous terre J'voulais seulement viser la, viser la Lune viser la, viser la Lune Mais j'me retrouve six pieds sous terre1</t>
+          <t>Tu m'aurais fréquenté, si j'avais rien dans les poches ? J'ai dû quitté l'quartier, pour qu'tes yeux sur moi se posent Besoin d'sonne-per pour l'sale boulot pour l'sale boulot Pour Chanel, Bal', j'ai fait c'qu'il faut j'ai fait c'qu'il faut De mes doutes c'est toi l'bourreau c'est toi l'bourreau J'ai le cur en mandat d'dépôt en mandat d'dépôt Bébé moi j'ai plus rien à perdre bébé moi j'ai plus rien à perdre Ici-bas sans toi ça d'vient la merde, oh Bébé moi j'ai plus rien à perdre, oh Ton sourire avant la tempête, oh Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Avec toi j'f'rai le tour du monde Il suffira de quatre secondes Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes Mon bébé, moi j'ai rien à perdre On nique ta grand-mère si tu mens Laisse tomber, c'est mort, si j'apprends qu't'as djà fait la tain-p' On peut faire le tour du globe, on peut exaucer tous tes vux On verra tes ch'veux déborder du toit du Féfé Mais faut qu'tu m'fasses un minimum confiance On n'ira pas loin si t'écoutes les gens Il faut qu'tu m'fasses un minimum confiance Hum, si t'écoutes les gens Bébé moi j'ai plus rien à perdre bébé moi j'ai plus rien à perdre Ici-bas sans toi ça d'vient la merde, oh ça devient la merde Bébé moi j'ai plus rien à perdre, oh bébé moi j'ai plus rien à perdre Ton sourire avant la tempête, oh avant la tempête oh, oh, oh Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Toi t'es pas comme les autres, tu maquilles mes défauts Sans toi j'remets l'moteur à zéro Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes Avec toi j'f'rai le tour du monde le tour du monde Il suffira de quatre secondes seulement J'voulais seulement viser la, viser la Lune Mais j'me retrouve six pieds sous terre J'voulais seulement viser la, viser la Lune viser la Lune, viser la Lune J'voulais seulement viser la, viser la Lune viser la, viser la Lune Mais j'me retrouve six pieds sous terre J'voulais seulement viser la, viser la Lune viser la, viser la Lune Mais j'me retrouve six pieds sous terre1</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Han, han Dave Han, han Quel bail ? J'parle de tout et d'rien han Beaucoup d'euros han Quel bail ? Dis-moi tout han Le Seven me rapporte beaucoup d'euros Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Mes locks devinnent lourdes, j'suis torse nu sur la scèn sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène J'fais mon lacet, sinon, mon flingue be-tom du froc mon flingue be-tom du froc Deux pattes de chienne de chienne tatouées sur ses deux fesses tatouées sur ses fesses Y a les keufs, je m'évapore, RS3, j'passe les rapports Viens chez nous, on n'a pas peur, j'peux pas t'aider si toi, tu dors Si mon flingue bé-tom du froc, le deuxième fera l'affaire Munitions cachées dans le bloc, prêts pour ceux qui veulent faire J'suis vers le P9, pilon beugeuh Fume et fais-moi P2, Cris si y a les 22 You might also like C'était nous en bas du blo', les autres, j'les voyais pas C'était nous en bas du blo', les autres, j'les voyais pas Toujours les mêmes qu'au début, ce s'ra comme ça jusqu'à la fin J'les vois jalouser au loin depuis qu'les miens font d'la maille Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène</t>
+          <t>Han, han Dave Han, han Quel bail ? J'parle de tout et d'rien han Beaucoup d'euros han Quel bail ? Dis-moi tout han Le Seven me rapporte beaucoup d'euros Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Mes locks devinnent lourdes, j'suis torse nu sur la scèn sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène J'fais mon lacet, sinon, mon flingue be-tom du froc mon flingue be-tom du froc Deux pattes de chienne de chienne tatouées sur ses deux fesses tatouées sur ses fesses Y a les keufs, je m'évapore, RS3, j'passe les rapports Viens chez nous, on n'a pas peur, j'peux pas t'aider si toi, tu dors Si mon flingue bé-tom du froc, le deuxième fera l'affaire Munitions cachées dans le bloc, prêts pour ceux qui veulent faire J'suis vers le P9, pilon beugeuh Fume et fais-moi P2, Cris si y a les 22 C'était nous en bas du blo', les autres, j'les voyais pas C'était nous en bas du blo', les autres, j'les voyais pas Toujours les mêmes qu'au début, ce s'ra comme ça jusqu'à la fin J'les vois jalouser au loin depuis qu'les miens font d'la maille Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Quel bail ? Dis-moi tout han J'parle de tout et d'rien, le Seven me rapporte beaucoup d'euros han Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène Mes locks deviennent lourdes, j'suis torse nu sur la scène</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4369,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Okay Oookay Oookay J'reste le même, j'ai pas changé mais dorénavant, j'récup' plus de cash La journée découpe des plaquettes, en showcase, je récupère trois salaires Ne le fais pas si tu l'sens pas, te plains pas, y'aura toujours pire ouais De la revente de drogues, j'suis pour, qui t'a dit qu'on dépendait du peu-ra mec ? R'garde à quel point je les démonte, au moment des faits, y'a zéro témoin Dans le pocheton 10 balles un peu moins d'deux grammes, posé dans l'fond du bât' quand ça graille Et même si elle est calée dans mon cul, si y'a les condés, moi, j'décale Moi, j'sais pas ils sont v'nu pour qui et j'ai pas b'soin d'savoir ils sont v'nu pour quoi M'en veut pas, c'est Dieu qui donne et t'iras nul part si tu m'envies Regarde, y'a personne sur ma route et j'mange encore l'argent du rrain-te moi Y'a qu'les ients-cli qu'on accueille, j'donne c'que j'ai dans mes couilles Et si y'a les keufs, c'est cuit, j'sais pas pour toi, en tout cas, moi, je cours x2 On récupère tous les jours, le week-end ça s'multiplie par les showcases Et tout est pesé, compté, des pocheton de critique, y'en aura un pour chaque Et j'kiffe quand elle secoue ses fesses, quand elle continue même quand je crache Quand cette salope plie son dos en quatre, quand elle crache sur ma bite quand elle me suce Dans la ville, c'est nous les plus forts, Seven Binks tout en haut d'l'affiche En showcase, on excite la foule, le patron me paie dans les toilettes Dans l'équipe, y'a aucune tapette, de toute manière, j'ai mon six trente-cinq Le pétard fait la taille de ma main mais y'a cette bastos en moi Que du réel, pas d'trucs factices et j'ai ta sur en FaceTime Maintenant, j'récupère une tonne une tonne, c'est un paquet d'thunes Ténébreux 4 au bout d'l'antenne, millions de vues sur le net Le bénéf' de la semaine, en plus de la SACEM Regarde, j'avance, rien qu'je monte et la concu' me té-ma Et moi, je rigole tout seul et les managers m'ont dit d'faire du sale En vrai de vrai, c'est facile, en moins dun an, je ramasse Je ramasse, j'ai reramasse, j'ai compté, j'ai compté tout mon khaliss You might also like x2 On récupère tous les jours, le week-end ça s'multiplie par les showcases Et tout est pesé, compté, des pocheton de critique, y'en aura un pour chaque Et j'kiffe quand elle secoue ses fesses, quand elle continue même quand je crache Quand cette salope plie son dos en quatre, quand elle crache sur ma bite quand elle me suce</t>
+          <t>Okay Oookay Oookay J'reste le même, j'ai pas changé mais dorénavant, j'récup' plus de cash La journée découpe des plaquettes, en showcase, je récupère trois salaires Ne le fais pas si tu l'sens pas, te plains pas, y'aura toujours pire ouais De la revente de drogues, j'suis pour, qui t'a dit qu'on dépendait du peu-ra mec ? R'garde à quel point je les démonte, au moment des faits, y'a zéro témoin Dans le pocheton 10 balles un peu moins d'deux grammes, posé dans l'fond du bât' quand ça graille Et même si elle est calée dans mon cul, si y'a les condés, moi, j'décale Moi, j'sais pas ils sont v'nu pour qui et j'ai pas b'soin d'savoir ils sont v'nu pour quoi M'en veut pas, c'est Dieu qui donne et t'iras nul part si tu m'envies Regarde, y'a personne sur ma route et j'mange encore l'argent du rrain-te moi Y'a qu'les ients-cli qu'on accueille, j'donne c'que j'ai dans mes couilles Et si y'a les keufs, c'est cuit, j'sais pas pour toi, en tout cas, moi, je cours x2 On récupère tous les jours, le week-end ça s'multiplie par les showcases Et tout est pesé, compté, des pocheton de critique, y'en aura un pour chaque Et j'kiffe quand elle secoue ses fesses, quand elle continue même quand je crache Quand cette salope plie son dos en quatre, quand elle crache sur ma bite quand elle me suce Dans la ville, c'est nous les plus forts, Seven Binks tout en haut d'l'affiche En showcase, on excite la foule, le patron me paie dans les toilettes Dans l'équipe, y'a aucune tapette, de toute manière, j'ai mon six trente-cinq Le pétard fait la taille de ma main mais y'a cette bastos en moi Que du réel, pas d'trucs factices et j'ai ta sur en FaceTime Maintenant, j'récupère une tonne une tonne, c'est un paquet d'thunes Ténébreux 4 au bout d'l'antenne, millions de vues sur le net Le bénéf' de la semaine, en plus de la SACEM Regarde, j'avance, rien qu'je monte et la concu' me té-ma Et moi, je rigole tout seul et les managers m'ont dit d'faire du sale En vrai de vrai, c'est facile, en moins dun an, je ramasse Je ramasse, j'ai reramasse, j'ai compté, j'ai compté tout mon khaliss x2 On récupère tous les jours, le week-end ça s'multiplie par les showcases Et tout est pesé, compté, des pocheton de critique, y'en aura un pour chaque Et j'kiffe quand elle secoue ses fesses, quand elle continue même quand je crache Quand cette salope plie son dos en quatre, quand elle crache sur ma bite quand elle me suce</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4386,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Smoke the track Track, track Oh-oh, oh Allô ? Rim'K, j'suis au tel-hô, s'te-plaît Aïe, aïe Allô ? Rim'K, j'suis au tel-hô, s'te-plaît, envoie d'la beuh, j'suis avec une tasse-pé Une tasse-pé J'suis sérieux, t'as pas vu son tard-pé mais faut qu'j'la fasse fumer, ce soir, j'peux pas m'louper L'amitié d'enfance, frère, c'est pas une garantie et y a des fois, des sous, j'me sens baisé C'est grave Donne jamais ta confiance aveuglément, à la fin, t'auras qu'tes petits yeux pour plurer L'objectif dans la vie, c'st pas d'aller plus vite, petit fils, c'est d'coffrer l'bénéfice à la fin Faire en sorte que la mille-fa manque de rien, même si des fois, faut tarter le tartin Le tartin Même si des fois, faut tarter le tartin Le tartin, même si faut perdre des frères en cours de ch'min Frères en cours de ch'min C'est l'butin, c'est réel C'est réel, j'suis congolais Mandjak, j'suis algérien Elle a rayé la porte en montant dans la gova Elle abuse, wesh, ah À la dégaine, ça fait gangsta Ça fait gangster, sa mère Et ton décolleté fait trop grossir Wesh, wesh, wesh Tout bien, former, trop d'biens pour m'amuser Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras répondeur au bout du fil Brr Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil Shoo T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras répondeur au bout du fil Brr You might also like Entrecôte en or sur le plateau, aucune délicatesse comme Lukaku Faut que j'nourrisse la bête sous le capot, j'suis nulle part, j'suis partout, c'est pas nous à Bétis Sur la A6, la capuche est sur le caillou, pendant qu'j'conduis, elle me fait des papouilles L'amitié, c'est fragile, des proches, des jaloux, ils vont m'faire la peau au prochain rendez-vous On n'a plus d'âme, y a que d'la drogue à vendre, tout l'monde se chie dessus, on arrive en bande Le king de Hassan, Gelato spatiale, y a rien à gratter à part une faciale Faubourg Saint-Honoré, j'fais des emplètes, j'suis garé tout près du bâtiment sept On fume, on rit fort, on cherche les emmerdes, on peut aussi déterrer des ancêtres Elle a rayé la porte en montant dans la gova Elle abuse, wesh, ah À la dégaine, ça fait gangsta Ça fait gangster, sa mère Et ton décolleté fait trop grossir Wesh, wesh, wesh Tout bien, former, trop d'biens pour m'amuser Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras l'répondeur au bout du fil Brr Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil Shoo T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras l'répondeur au bout du fil Brr Hey, hey</t>
+          <t>Smoke the track Track, track Oh-oh, oh Allô ? Rim'K, j'suis au tel-hô, s'te-plaît Aïe, aïe Allô ? Rim'K, j'suis au tel-hô, s'te-plaît, envoie d'la beuh, j'suis avec une tasse-pé Une tasse-pé J'suis sérieux, t'as pas vu son tard-pé mais faut qu'j'la fasse fumer, ce soir, j'peux pas m'louper L'amitié d'enfance, frère, c'est pas une garantie et y a des fois, des sous, j'me sens baisé C'est grave Donne jamais ta confiance aveuglément, à la fin, t'auras qu'tes petits yeux pour plurer L'objectif dans la vie, c'st pas d'aller plus vite, petit fils, c'est d'coffrer l'bénéfice à la fin Faire en sorte que la mille-fa manque de rien, même si des fois, faut tarter le tartin Le tartin Même si des fois, faut tarter le tartin Le tartin, même si faut perdre des frères en cours de ch'min Frères en cours de ch'min C'est l'butin, c'est réel C'est réel, j'suis congolais Mandjak, j'suis algérien Elle a rayé la porte en montant dans la gova Elle abuse, wesh, ah À la dégaine, ça fait gangsta Ça fait gangster, sa mère Et ton décolleté fait trop grossir Wesh, wesh, wesh Tout bien, former, trop d'biens pour m'amuser Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras répondeur au bout du fil Brr Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil Shoo T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras répondeur au bout du fil Brr Entrecôte en or sur le plateau, aucune délicatesse comme Lukaku Faut que j'nourrisse la bête sous le capot, j'suis nulle part, j'suis partout, c'est pas nous à Bétis Sur la A6, la capuche est sur le caillou, pendant qu'j'conduis, elle me fait des papouilles L'amitié, c'est fragile, des proches, des jaloux, ils vont m'faire la peau au prochain rendez-vous On n'a plus d'âme, y a que d'la drogue à vendre, tout l'monde se chie dessus, on arrive en bande Le king de Hassan, Gelato spatiale, y a rien à gratter à part une faciale Faubourg Saint-Honoré, j'fais des emplètes, j'suis garé tout près du bâtiment sept On fume, on rit fort, on cherche les emmerdes, on peut aussi déterrer des ancêtres Elle a rayé la porte en montant dans la gova Elle abuse, wesh, ah À la dégaine, ça fait gangsta Ça fait gangster, sa mère Et ton décolleté fait trop grossir Wesh, wesh, wesh Tout bien, former, trop d'biens pour m'amuser Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras l'répondeur au bout du fil Brr Elle kiffe quand j'l'appelle Chérie nangai Elle sait pas qu'tout tient sur un p'tit fil Shoo T'es ma sur, t'es ma meuf, t'es mon gars Mais t'auras l'répondeur au bout du fil Brr Hey, hey</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4403,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Couplet 1 C'est pas l'argent qui nous fait, c'est nous on l'fait ensuite on lui claque sa grand-mère C'est grâce à moi si le terrain il a tourné, c'est grâce à Dieu si on t'a pas déjà démarré Abasourdi par l'bruit du moteur Tu sais pas tout c'qu'il y a dans ma tête Combien y en a dans l'barillet Ni combien j'ai mis dans une boite à chaussures Et j'peux plus la baiser, j'me suis fait cramer mais pour la calmer j'sors un élastique Pour les deux pétasse j'ai la même tactique, on voudrait aller loin mais t'es une vois moi Mes zin-cou recherchés, les deux autres en prison J'me rappelle on s'disait Qu'est-ce qu'on ferait dans dix ans ? sa mère Qu'est-ce qu'on ferait dans dix ans ? sa mère Refrain Qu'est-ce qu'on ferait dans dix ans ? j'sais plus, là pour l'instant j'suis au studio Elle est bien loin l'époque où j'devais la couper aux ciseaux, requins usés Même pas midi déjà épuisé J'fais quatre fois l'rond-point pour guetter si j'me fais pister Quand j'commence à cogiter j'sors une cons', j'sors une feuille Et si personne le fait, t'inquiète pas j'vais le faire Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas You might also likeCouplet 2 J'connais l'terrain comme ma che-po Mon glock comme sa te-cha Mais bon fin ça, j'envois du gent-ar au pays C'était pas moi, si t'as pas vu un gros bolide Elle veut qu'on s'aime elle veut qu'on s'aime, elle m'l'a dit juste après l'shopping Y'a du bon shit, y a d'la beuh-r, y a d'la frappe si tu veux dealer Et t'façon tous les liens se délient Oh oh oh Et t'façon tous les liens se délient Refrain Qu'est-ce qu'on ferait dans dix ans ? j'sais plus, là pour l'instant j'suis au studio Elle est bien loin l'époque où j'devais la couper aux ciseaux, requins usés Même pas midi déjà épuisé, j'fais quatre fois l'rond-point pour guetter si j'me fais pister Et quand j'commence à cogiter j'sors une cons', j'sors une feuille Et si personne le fait, t'inquiète pas j'vais le faire Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas</t>
+          <t>Couplet 1 C'est pas l'argent qui nous fait, c'est nous on l'fait ensuite on lui claque sa grand-mère C'est grâce à moi si le terrain il a tourné, c'est grâce à Dieu si on t'a pas déjà démarré Abasourdi par l'bruit du moteur Tu sais pas tout c'qu'il y a dans ma tête Combien y en a dans l'barillet Ni combien j'ai mis dans une boite à chaussures Et j'peux plus la baiser, j'me suis fait cramer mais pour la calmer j'sors un élastique Pour les deux pétasse j'ai la même tactique, on voudrait aller loin mais t'es une vois moi Mes zin-cou recherchés, les deux autres en prison J'me rappelle on s'disait Qu'est-ce qu'on ferait dans dix ans ? sa mère Qu'est-ce qu'on ferait dans dix ans ? sa mère Refrain Qu'est-ce qu'on ferait dans dix ans ? j'sais plus, là pour l'instant j'suis au studio Elle est bien loin l'époque où j'devais la couper aux ciseaux, requins usés Même pas midi déjà épuisé J'fais quatre fois l'rond-point pour guetter si j'me fais pister Quand j'commence à cogiter j'sors une cons', j'sors une feuille Et si personne le fait, t'inquiète pas j'vais le faire Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas Couplet 2 J'connais l'terrain comme ma che-po Mon glock comme sa te-cha Mais bon fin ça, j'envois du gent-ar au pays C'était pas moi, si t'as pas vu un gros bolide Elle veut qu'on s'aime elle veut qu'on s'aime, elle m'l'a dit juste après l'shopping Y'a du bon shit, y a d'la beuh-r, y a d'la frappe si tu veux dealer Et t'façon tous les liens se délient Oh oh oh Et t'façon tous les liens se délient Refrain Qu'est-ce qu'on ferait dans dix ans ? j'sais plus, là pour l'instant j'suis au studio Elle est bien loin l'époque où j'devais la couper aux ciseaux, requins usés Même pas midi déjà épuisé, j'fais quatre fois l'rond-point pour guetter si j'me fais pister Et quand j'commence à cogiter j'sors une cons', j'sors une feuille Et si personne le fait, t'inquiète pas j'vais le faire Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas Quand j'commence à cogiter j'sors une cons', j'sors une feuille Ça commence à faire long et j'm'habitue pas Et si personne le fait, t'inquiète pas j'vais le faire Ça commence à faire long et j'm'habitue pas</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4437,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Si on en vient à c'que j'insulte tout tes morts C'est qu'tu l'a cherché sur la vie de ma mère Parce que tu m'dois, c'est des mecs comme toi qui fout les nerfs Les locks ont poussé d'un cran Imagine la taille de la liasse mon gros Toute la nuit frère, j'peux t'témoigner de c'qu'on a fait On a dealé, volé, mais mise à part ça y'a rien d'méchant Frérot tout c'qu'on voulait c'était d'pas finir comme eux en chien Avance sur le tec' comme un libéro, visser tous chacun son tour Appart 1 à tour de rôle, ça s'arrêt pas depuis 4 ans Rien à fêter sa mèr J'suis dans une baraque à 3 étages, mon frère Bientôt j'reçois l'RS6, 2020, 0Km J'suis au studio le soir de mon anniversaire J'ai 20 ans mon frère, ils s'demandent si j'suis millionnaire Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser You might also like Midi minuit, solo, ça m'arrive d'parler tout seul Les décentes d'condés ça m'fait plus courir qu'au foot en salle J'me balade sur Paname le soir, j'suis avec Sug'ou tout seul Elle va plus vite que la lumière J'm'en bats les couilles qu'elle soit sale Bienvenue chez nous, y'a plus de rrain-te que d'terrain Qui sait transformer en drogue, découper et faire partir Ici, c'est l'Essonne Angeles, y'a d'la beuh d'Los Angeles Qui défonce comme C.G Rien à fêter sa mère J'suis dans une baraque à 3 étages, mon frère Bientôt j'reçois l'RS6, 2020, 0Km J'suis au studio le soir de mon anniversaire J'ai 20 ans mon frère, ils s'demandent si j'suis millionnaire Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser</t>
+          <t>Si on en vient à c'que j'insulte tout tes morts C'est qu'tu l'a cherché sur la vie de ma mère Parce que tu m'dois, c'est des mecs comme toi qui fout les nerfs Les locks ont poussé d'un cran Imagine la taille de la liasse mon gros Toute la nuit frère, j'peux t'témoigner de c'qu'on a fait On a dealé, volé, mais mise à part ça y'a rien d'méchant Frérot tout c'qu'on voulait c'était d'pas finir comme eux en chien Avance sur le tec' comme un libéro, visser tous chacun son tour Appart 1 à tour de rôle, ça s'arrêt pas depuis 4 ans Rien à fêter sa mèr J'suis dans une baraque à 3 étages, mon frère Bientôt j'reçois l'RS6, 2020, 0Km J'suis au studio le soir de mon anniversaire J'ai 20 ans mon frère, ils s'demandent si j'suis millionnaire Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser Midi minuit, solo, ça m'arrive d'parler tout seul Les décentes d'condés ça m'fait plus courir qu'au foot en salle J'me balade sur Paname le soir, j'suis avec Sug'ou tout seul Elle va plus vite que la lumière J'm'en bats les couilles qu'elle soit sale Bienvenue chez nous, y'a plus de rrain-te que d'terrain Qui sait transformer en drogue, découper et faire partir Ici, c'est l'Essonne Angeles, y'a d'la beuh d'Los Angeles Qui défonce comme C.G Rien à fêter sa mère J'suis dans une baraque à 3 étages, mon frère Bientôt j'reçois l'RS6, 2020, 0Km J'suis au studio le soir de mon anniversaire J'ai 20 ans mon frère, ils s'demandent si j'suis millionnaire Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser Midi minuit, midi minuit, ça va pas m'lasser C'est moi l'petit bandit, 'taille dans l'Audi, qui tartine la C' Faire du midi minuit, midi minuit, ça va pas m'lasser</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4454,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SHK, SHK N-N-N-Narcos Normalement, j'suis pas dans celle-là Han Normalement, j'suis pas dans celle-là Normalement, j'me fais trop vieux mais j'l'ai ken et mon p'tit frère aussi V'là la chiennasse Juste un joint d'beuh, juste une massa D'la be-her, d'la gue-dro, pour qu'j'leur tre-mon un truc qui traumatise Putain d'merde, la vida va vite C'est trop chaud, en Première Classe, que j'transite En avion On vient à six, on r'part à six Là, c'est bon, soit en after, soit en son-pri J'bédav plus trop mais j'bois tellement Hum, hum, j'n baise tellement, j'en baise tellement Hum, hum Encore un autre bénéficiaire, j'valide Manu pour les virements J'valide Manu pour les virements Pour un rien, ça fronce les sourcils Là, j'suis dans un bourbier, dans une pussy, rempli d'soucis Pah, pah Wesh ? Wesh ? Wesh, fais voir une garette-ci, wesh ? Ma gueule Oui, aller-retour Marseille-Fleury Les bleus aussi, on les fuck Fuck, pussy boy, ramenez vos potes Vos potes Roulette russe avec un Glock Yeah, roulette russe avec un Glock Eh, eh Si elle veut, elle peut niquer ma vie Elle peut tout niquer, un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct Un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct, un coup d'gyro', j'fais tomber mon spliff Eh Une chiennasse sous BBL LL, c'est sûr qu'j'lui fait pas d'bébé, elle Elle, elle J'sonne comme un 6.3 sur le BPM Han, un plaqué FR, pas un plaqué PL PL Diamants sur les teeths, j'souris comme un BN, long pénis, quand personne n'y touche, ça fait des nuds La prière nous sauve car personne n'exauce les vux, extinct', arme de poing, j'me trimballe avec les deux Liaks, racks, liasses, plus épaisses que la Bible, han, cagoule, han, premier quand le négro, il s'abime T'as pas fini d'fermer la f'nêtre et j'suis déjà à cent, j'vois ma kichta monter jusqu'à mon plafond sniff, sniff, sniff, sniff c'est quoi c'produit d'merde ? J'achète pas ça Y a les années de shtar, balance si il décide de fouiller la baraque Yeah, yeah, starfoullah, c'que je serais devenu si je n'avais pas rappé C'est pas la mu'-mu' qui va m'palper Oui, la BMF, Truth qui ont pacté Han Les contrats, les deals, ils sont actés, t'imagines pas l'avance qu'on va becter Yeah, yeah You might also like Les bleus aussi, on les fuck Fuck, pussy boy, ramenez vos potes Vos potes Roulette russe avec un Glock Yeah, roulette russe avec un Glock Eh, eh Si elle veut, elle peut niquer ma vie Elle peut tout niquer, un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct Un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct, un coup d'gyro', j'fais tomber mon spliff Eh</t>
+          <t>SHK, SHK N-N-N-Narcos Normalement, j'suis pas dans celle-là Han Normalement, j'suis pas dans celle-là Normalement, j'me fais trop vieux mais j'l'ai ken et mon p'tit frère aussi V'là la chiennasse Juste un joint d'beuh, juste une massa D'la be-her, d'la gue-dro, pour qu'j'leur tre-mon un truc qui traumatise Putain d'merde, la vida va vite C'est trop chaud, en Première Classe, que j'transite En avion On vient à six, on r'part à six Là, c'est bon, soit en after, soit en son-pri J'bédav plus trop mais j'bois tellement Hum, hum, j'n baise tellement, j'en baise tellement Hum, hum Encore un autre bénéficiaire, j'valide Manu pour les virements J'valide Manu pour les virements Pour un rien, ça fronce les sourcils Là, j'suis dans un bourbier, dans une pussy, rempli d'soucis Pah, pah Wesh ? Wesh ? Wesh, fais voir une garette-ci, wesh ? Ma gueule Oui, aller-retour Marseille-Fleury Les bleus aussi, on les fuck Fuck, pussy boy, ramenez vos potes Vos potes Roulette russe avec un Glock Yeah, roulette russe avec un Glock Eh, eh Si elle veut, elle peut niquer ma vie Elle peut tout niquer, un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct Un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct, un coup d'gyro', j'fais tomber mon spliff Eh Une chiennasse sous BBL LL, c'est sûr qu'j'lui fait pas d'bébé, elle Elle, elle J'sonne comme un 6.3 sur le BPM Han, un plaqué FR, pas un plaqué PL PL Diamants sur les teeths, j'souris comme un BN, long pénis, quand personne n'y touche, ça fait des nuds La prière nous sauve car personne n'exauce les vux, extinct', arme de poing, j'me trimballe avec les deux Liaks, racks, liasses, plus épaisses que la Bible, han, cagoule, han, premier quand le négro, il s'abime T'as pas fini d'fermer la f'nêtre et j'suis déjà à cent, j'vois ma kichta monter jusqu'à mon plafond sniff, sniff, sniff, sniff c'est quoi c'produit d'merde ? J'achète pas ça Y a les années de shtar, balance si il décide de fouiller la baraque Yeah, yeah, starfoullah, c'que je serais devenu si je n'avais pas rappé C'est pas la mu'-mu' qui va m'palper Oui, la BMF, Truth qui ont pacté Han Les contrats, les deals, ils sont actés, t'imagines pas l'avance qu'on va becter Yeah, yeah Les bleus aussi, on les fuck Fuck, pussy boy, ramenez vos potes Vos potes Roulette russe avec un Glock Yeah, roulette russe avec un Glock Eh, eh Si elle veut, elle peut niquer ma vie Elle peut tout niquer, un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct Un coup d'gyro', j'suis pris de panique J'ai coffré l'feu, direct, un coup d'gyro', j'fais tomber mon spliff Eh</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4471,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sans regretter, la vie, c'est un choix un choix, j'regrette pas c'que j'ai fait ou j's'rais pas où j'suis où j'suis Et nique la grand-mère à ton vieux bout-mara, j'suis télépathie avec Shatarra Et La C et Sosso sont sur la bécane bécane et Gaucho qui roule un royal royaleYou might also like</t>
+          <t>Sans regretter, la vie, c'est un choix un choix, j'regrette pas c'que j'ai fait ou j's'rais pas où j'suis où j'suis Et nique la grand-mère à ton vieux bout-mara, j'suis télépathie avec Shatarra Et La C et Sosso sont sur la bécane bécane et Gaucho qui roule un royal royale</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4488,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, ouh Mbraah la famille, eh Mbraah la famille Ouh, ouh Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que ds pommes Si j'sors ma be-teu, j'vais la braqur Shoot Poh, shoot Poh, shoot Poh, shoot Poh Shoot Poh, shoot Poh, shoot Poh, shoot Poh Le Soleil se lève, j'la sens même pas, que des frayeurs sur le quatre-temps Que des frayeurs sur le quatre-temps mais bon, ça va, j'ai l'frein dur J'me prends pour Tony et l'autre Pablo, eux, ils prennent les gens pour des cons Ouais, ouais J'les ai rodave mais bon, tranquille On prend tout au second degré mais moi, depuis, j'vais faire remise Depuis tout p'tit, j'veux faire mon biff, depuis tout p'tit, j'veux vendre du shit You might also like Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer À la base, moi, j'vendais mais j'me suis mis à fumer J'me retrouve à chanter mais Deuspi me dit qu'ça compense Un peu K.O pendant l'audience même navette qui mène la danse On tartine à l'essence, 98 Sans Plomb Oui, oui, oui Et sur l'parking, on n'aime pas trop les bruits d'couloir Nan, nan, nan, après minuit, c'est cool, man Pas les même pots, les mêmes chevaux ni même la même couleur Poh, poh, poh Toi, c'est une remontée Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Ah</t>
+          <t>Ouh, ouh, ouh, ouh Mbraah la famille, eh Mbraah la famille Ouh, ouh Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que ds pommes Si j'sors ma be-teu, j'vais la braqur Shoot Poh, shoot Poh, shoot Poh, shoot Poh Shoot Poh, shoot Poh, shoot Poh, shoot Poh Le Soleil se lève, j'la sens même pas, que des frayeurs sur le quatre-temps Que des frayeurs sur le quatre-temps mais bon, ça va, j'ai l'frein dur J'me prends pour Tony et l'autre Pablo, eux, ils prennent les gens pour des cons Ouais, ouais J'les ai rodave mais bon, tranquille On prend tout au second degré mais moi, depuis, j'vais faire remise Depuis tout p'tit, j'veux faire mon biff, depuis tout p'tit, j'veux vendre du shit Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer À la base, moi, j'vendais mais j'me suis mis à fumer J'me retrouve à chanter mais Deuspi me dit qu'ça compense Un peu K.O pendant l'audience même navette qui mène la danse On tartine à l'essence, 98 Sans Plomb Oui, oui, oui Et sur l'parking, on n'aime pas trop les bruits d'couloir Nan, nan, nan, après minuit, c'est cool, man Pas les même pots, les mêmes chevaux ni même la même couleur Poh, poh, poh Toi, c'est une remontée Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Fonce-dé à l'arrière du bloc, j'ai oublié mon Glock Faut qu'j'sois bourré pour qu'j'la drague, j'pue la pillave et la drogue Et la pe-stu T'as vu, de mes poches, des billets bés-tom Que des pommes, que des pommes Si j'sors ma be-teu, j'vais la braquer Ah</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Eh, eh, eh Big Doze, Doze Kobz, Kobz, Kobz Je sors de 96 heures en GÀV, j'récupère ma kichta, mes affaires J'suis un loup solitaire, quand ça rer-ti, j'les vois tous à terre, j'connais la rue, sa mère et son père Le litron de ppe-f', j'le touche à 26, j'suis avec Koba, j'suis sur BDD Le RS6, les vitres sont teintées, on a porté nos couilles, ils veulent porter plainte Plus tu doutes et moins t'es précis, j'dois faire billets d'cent pour ça qu'j'suis pressé Agressif, imbécile, j'suis dans la stup' depuis tout petit 9.1, on aime la bagarre et le wari, chérie, il serait temps qu'on fasse nos valises Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Pour boire un verre, juste pour boire un verre Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser You might also like Avenue de la Croisette, le clochard d'ennemi peut pas m'croiser J'suis pas là, j'suis dans la FeFe ou en croisière avec de la beugeuh qui creuse Toi, j'vais te montrer que j'peux tenir, Schumacher à 3.10, faut qu'j'l'enlève mes locks devant mes yeux J'baise le rap français et le blanc de blanc est de dilué par les Non, j'ai pas percé, peut-être un p'tit peu, en tout cas, j'suis toujours en bas d'chez moi En c'moment, c'est B, peut-être que j'suis fou, mais j'crois que tous les traîtres reviennent vers moi Ils ont dit qu'j'étais maudit, j'peux enlever tout le toit du M8 Défoncé sur le périph' et la daronne à Théo me sourit Des ffaires-a, des sous, en c'moment, y a tout qui rentre, y a tout qui rentre Ça rentre à fond et la paie, faut que j'la sorte, que j'la sorte Que j'fasse des dérapages dans tout l'quartier, toit enlevé Et si j'monte à 300, mes locks vont s'enlever Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Pour boire un verre, juste pour boire un verre Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser</t>
+          <t>Eh, eh, eh Big Doze, Doze Kobz, Kobz, Kobz Je sors de 96 heures en GÀV, j'récupère ma kichta, mes affaires J'suis un loup solitaire, quand ça rer-ti, j'les vois tous à terre, j'connais la rue, sa mère et son père Le litron de ppe-f', j'le touche à 26, j'suis avec Koba, j'suis sur BDD Le RS6, les vitres sont teintées, on a porté nos couilles, ils veulent porter plainte Plus tu doutes et moins t'es précis, j'dois faire billets d'cent pour ça qu'j'suis pressé Agressif, imbécile, j'suis dans la stup' depuis tout petit 9.1, on aime la bagarre et le wari, chérie, il serait temps qu'on fasse nos valises Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Pour boire un verre, juste pour boire un verre Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser Avenue de la Croisette, le clochard d'ennemi peut pas m'croiser J'suis pas là, j'suis dans la FeFe ou en croisière avec de la beugeuh qui creuse Toi, j'vais te montrer que j'peux tenir, Schumacher à 3.10, faut qu'j'l'enlève mes locks devant mes yeux J'baise le rap français et le blanc de blanc est de dilué par les Non, j'ai pas percé, peut-être un p'tit peu, en tout cas, j'suis toujours en bas d'chez moi En c'moment, c'est B, peut-être que j'suis fou, mais j'crois que tous les traîtres reviennent vers moi Ils ont dit qu'j'étais maudit, j'peux enlever tout le toit du M8 Défoncé sur le périph' et la daronne à Théo me sourit Des ffaires-a, des sous, en c'moment, y a tout qui rentre, y a tout qui rentre Ça rentre à fond et la paie, faut que j'la sorte, que j'la sorte Que j'fasse des dérapages dans tout l'quartier, toit enlevé Et si j'monte à 300, mes locks vont s'enlever Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Si le monde est à moi, ma jolie, dis pas qu'c'est à nous C'est vrai qu'l'amour rend fou, j'suis tombé love du billet vert Monte dans l'fer, j't'emmène sur les Champs-Élysées pour boire un verre Pour boire un verre, juste pour boire un verre Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser Elle est là pour moi, moi j'suis là pour elle, et tous ses rêves, je peux les réaliser réaliser On va pas s'marier sinon la salope voudra m'baiser</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Hey, hmm, hmm Général, Général, Général Je suis dans le game et je n'arrête pas de me balader Chaque fois que j'apparais, je fais de la D Voir c'est quand on dirait que je fume de la beuh J'suis dans la Bentley, je roule sur London Général Un poto footeux minvite voir le match, hey J'envoie d'la patate comme dans Snatch, hey J'me sens léger dans l'chemise Versace Trop de beuh découpé dans le sachet, gros cul de twerk sur le stage Plus rien a foutre de ce quon retire J'aime pas les histoires que racontent mes cicatrices Si tu veux changer ta life, j'te conseille de bien choisir ta wife Bientôt le quatrième reich, négro j'vais pas devenir riche à larrache Délire à la Dababy Rien de sérieux entre nous, mon bébé Aujourd'hui, ce monde me paraît débile Nique la vérité, j'préfère lire une BD général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas général, général, général, général Qui parlent des langues que je comprends même pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général, général, général, général You might also like Je baise des femmes qui ne m'aiment pas, qui parlent des langues avec un accent de bâtard Arrête de parler que tu dindon, que tu dindin, de toute façon c'est trop tard Je suis en te-boi ma poche est gonflée, je suis cagoulé, tenu de motard Tenue de motard, tenue de bandit Psahtek t'as bien grail, maintenant c'est mon tour Tu sais pas où je trampe dans de sales affaires J'dors dans des beaux draps Où tu te fais monter si t'en fais trop Le go donné par sa pote la grosse Y a trop d'ingras, j'aime quand c'est gras J'aime quand c'est gras, j'aime quand mon sperme s'mélange à sa bave J'aime pas quand j'suis die, j'ai envie d'vomir, après ché-cra Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas général, général, général, général Qui parlent des langues que je comprends même pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général, général, général, général</t>
+          <t>Hey, hmm, hmm Général, Général, Général Je suis dans le game et je n'arrête pas de me balader Chaque fois que j'apparais, je fais de la D Voir c'est quand on dirait que je fume de la beuh J'suis dans la Bentley, je roule sur London Général Un poto footeux minvite voir le match, hey J'envoie d'la patate comme dans Snatch, hey J'me sens léger dans l'chemise Versace Trop de beuh découpé dans le sachet, gros cul de twerk sur le stage Plus rien a foutre de ce quon retire J'aime pas les histoires que racontent mes cicatrices Si tu veux changer ta life, j'te conseille de bien choisir ta wife Bientôt le quatrième reich, négro j'vais pas devenir riche à larrache Délire à la Dababy Rien de sérieux entre nous, mon bébé Aujourd'hui, ce monde me paraît débile Nique la vérité, j'préfère lire une BD général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas général, général, général, général Qui parlent des langues que je comprends même pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général, général, général, général Je baise des femmes qui ne m'aiment pas, qui parlent des langues avec un accent de bâtard Arrête de parler que tu dindon, que tu dindin, de toute façon c'est trop tard Je suis en te-boi ma poche est gonflée, je suis cagoulé, tenu de motard Tenue de motard, tenue de bandit Psahtek t'as bien grail, maintenant c'est mon tour Tu sais pas où je trampe dans de sales affaires J'dors dans des beaux draps Où tu te fais monter si t'en fais trop Le go donné par sa pote la grosse Y a trop d'ingras, j'aime quand c'est gras J'aime quand c'est gras, j'aime quand mon sperme s'mélange à sa bave J'aime pas quand j'suis die, j'ai envie d'vomir, après ché-cra Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baise des femmes qui ne m'aiment pas Je baise des femmes qui ne m'aiment pas Général Je baise des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas général, général, général, général Qui parlent des langues que je comprends même pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Je baisse des femmes qui ne m'aiment pas Qui parlent des langues que je comprends même pas général, général, général, général</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>On a des sous et des flingues et des couilles bien dures Bien dures, le bon Dieu m'a donné, jai pas sucé d'bites Regarde, vos rappeurs, pour percer, sucent des bites Des bites, j'ai percer, jai pas changer, j'ai plus de biff Et j'ai plus de biff et j'ai tellement d'biff que maintenant, bah, c'est moi l'plus grand d'ma famille Laisse pas ta meuf, Suge et Dix, ils vont la pine La pine, tout en Nike, bourré, jm'endors dans lCarré VIP J'recompte mes billets sur Pluton Oh ouais, ils essayent encore de viser la lune Viser la lune Ces mange pierres, moi, j'leur tends la main mais ils regardent les diamants qu'y a sur ma montre Agis sans regretter, la vie, cest un choix Un choix, j'regrette pas tout c'que j'ai fait ou j's'rais pas où j'suis Où j'suis Et nique la grand-mère à ton vieux bout-mara, j'suis en télépathie avec Shatarra Et La C et Soss' en i sur la bécane Bécane et Gaucho qui roule un royal Royal Ils faut que j'aille au détaille, dix-huit heures passées, il me reste qu'un vingt balles Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci tant que le liquide coule Liquide coule Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci tant que le liquide coule Liquide coule On veut plus baigner dans le crime à grosse dose Brah, tout est noir comme les vitres de la Rolls-Royce Prends le cash et puis, démarre le Hornet Shh, j'mets la tête si t'envoie bien le corner Shh, shh Réinvestie le sale dans la crypto' Shh et on te brise les membres à la Klitschko Raah J'me réveille dans une grosse Berline allemande Shh, je sais plus combien y a du beau fisco' Shh, shh On te raye de la famille si ta menti Ta menti, dans la vie, y a qu'la mort qui est garantie Garantie On porte du Louis V', pas du Valentino, ils me regardent comme le dernier Tarantino J'veux des dizaines, des centaines, des milliers Milliers, l'argent, c'est le moteur, pas le pilier Dans ce pays raciste comme Alabama Brr, la vérité, découpe comme un Katana You might also like J'arrive et j'leurs faits manger ma banana Banana 2-2, j'suis pas banale Pas banale 2-2, Koba LaD Shh, shh, j'cours très vite pour pas m'faire péter Shh J'ai du mal à faire des sons d'été Shh, j'veux l'R8, j'veux pas l'Audi TT J'bois pas d'alcool D'alcool mais en peux quand-même fêter Shh Brr, brr, brr, brr Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci, tant que le liquide coule Liquide coule Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci, tant que le liquide coule Liquide coule</t>
+          <t>On a des sous et des flingues et des couilles bien dures Bien dures, le bon Dieu m'a donné, jai pas sucé d'bites Regarde, vos rappeurs, pour percer, sucent des bites Des bites, j'ai percer, jai pas changer, j'ai plus de biff Et j'ai plus de biff et j'ai tellement d'biff que maintenant, bah, c'est moi l'plus grand d'ma famille Laisse pas ta meuf, Suge et Dix, ils vont la pine La pine, tout en Nike, bourré, jm'endors dans lCarré VIP J'recompte mes billets sur Pluton Oh ouais, ils essayent encore de viser la lune Viser la lune Ces mange pierres, moi, j'leur tends la main mais ils regardent les diamants qu'y a sur ma montre Agis sans regretter, la vie, cest un choix Un choix, j'regrette pas tout c'que j'ai fait ou j's'rais pas où j'suis Où j'suis Et nique la grand-mère à ton vieux bout-mara, j'suis en télépathie avec Shatarra Et La C et Soss' en i sur la bécane Bécane et Gaucho qui roule un royal Royal Ils faut que j'aille au détaille, dix-huit heures passées, il me reste qu'un vingt balles Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci tant que le liquide coule Liquide coule Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci tant que le liquide coule Liquide coule On veut plus baigner dans le crime à grosse dose Brah, tout est noir comme les vitres de la Rolls-Royce Prends le cash et puis, démarre le Hornet Shh, j'mets la tête si t'envoie bien le corner Shh, shh Réinvestie le sale dans la crypto' Shh et on te brise les membres à la Klitschko Raah J'me réveille dans une grosse Berline allemande Shh, je sais plus combien y a du beau fisco' Shh, shh On te raye de la famille si ta menti Ta menti, dans la vie, y a qu'la mort qui est garantie Garantie On porte du Louis V', pas du Valentino, ils me regardent comme le dernier Tarantino J'veux des dizaines, des centaines, des milliers Milliers, l'argent, c'est le moteur, pas le pilier Dans ce pays raciste comme Alabama Brr, la vérité, découpe comme un Katana J'arrive et j'leurs faits manger ma banana Banana 2-2, j'suis pas banale Pas banale 2-2, Koba LaD Shh, shh, j'cours très vite pour pas m'faire péter Shh J'ai du mal à faire des sons d'été Shh, j'veux l'R8, j'veux pas l'Audi TT J'bois pas d'alcool D'alcool mais en peux quand-même fêter Shh Brr, brr, brr, brr Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci, tant que le liquide coule Liquide coule Oh, dis-moi, y a qui là Qui là ? T'inquiète pas, moi, j'suis là J'suis là Dans le Merco Benz, à la cité, un nuage de fumée pour pas changer Récupe et distribue des kilos Kilos, rancunier comme un enculé 'culé Et moi, tout va bien, tout est cool Est cool et Dieu merci, tant que le liquide coule Liquide coule</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4556,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah, yeah Ah-ah Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah J'suis sur Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Wesh les enfoirés, alors, ça dit quoi dans la zone ? Wesh les gars dans la zone Mais pourquoi ? Pourquoi tu nous joues l'agressif mon coco ? Mon coco Marche avec ferraille tous les jours, crois pas qu'on mitonne Qu'on mitonne Et comme j'suis connu, connu, j'cours plus quand y a la po'-po' Ça dit rin dans la ne-zo mais j'en ai encor pour ton ze-n Ton ze-n, ton ze-n Et j'sais pas si tu m'as vu mais j'suis gé-char comme son cavu Cavu, cavu J'suis là à midi pétante Pétante, mes couilles, c'est boules de pétanque Pétanque Mais là, ça d'vient chaud, putain, j'suis en train d'kiffer ma pétasse Pétasse Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense You might also like J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Ouais Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Chaque week-end, j'suis booké Booké, gros bisous aux bookeurs Ouais J'm'endors dans une drôle de booking, kichta balaise comme un bouquin Toi, arrête de dire que j'dé-dé-débite Arrête, arrête, dans ta bande, que des débutants Débutants Fallait qu'j'ché- dans sa bou-bouche Ouh, on va t'oublier comme Bambi Si on veut, on t'élimine, voiture téléguidée, je manie le guidon Tout c'qu'on fait, c'est pas téléphoné, riche à la vingtaine, j'peux me saper en Vuitton Et bientôt, j'fête mon deuxième million, le troisième dans leur maman Elle veut m'te-j' mais j'suis trop mignon, elle veut qu'j'la cata comme un daron Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Paname Paname Oh, c'est bon là</t>
+          <t>Yeah, yeah, yeah, yeah, yeah Ah-ah Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah Yeah, yeah J'suis sur Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Wesh les enfoirés, alors, ça dit quoi dans la zone ? Wesh les gars dans la zone Mais pourquoi ? Pourquoi tu nous joues l'agressif mon coco ? Mon coco Marche avec ferraille tous les jours, crois pas qu'on mitonne Qu'on mitonne Et comme j'suis connu, connu, j'cours plus quand y a la po'-po' Ça dit rin dans la ne-zo mais j'en ai encor pour ton ze-n Ton ze-n, ton ze-n Et j'sais pas si tu m'as vu mais j'suis gé-char comme son cavu Cavu, cavu J'suis là à midi pétante Pétante, mes couilles, c'est boules de pétanque Pétanque Mais là, ça d'vient chaud, putain, j'suis en train d'kiffer ma pétasse Pétasse Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Ouais Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Chaque week-end, j'suis booké Booké, gros bisous aux bookeurs Ouais J'm'endors dans une drôle de booking, kichta balaise comme un bouquin Toi, arrête de dire que j'dé-dé-débite Arrête, arrête, dans ta bande, que des débutants Débutants Fallait qu'j'ché- dans sa bou-bouche Ouh, on va t'oublier comme Bambi Si on veut, on t'élimine, voiture téléguidée, je manie le guidon Tout c'qu'on fait, c'est pas téléphoné, riche à la vingtaine, j'peux me saper en Vuitton Et bientôt, j'fête mon deuxième million, le troisième dans leur maman Elle veut m'te-j' mais j'suis trop mignon, elle veut qu'j'la cata comme un daron Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense Au quartier, c'est la teuf, j'ai récup' d'la zipette à donf J'suis un peu dead mais c'est moi qui gère la défense J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD J'suis sur Paname Paname, vers les Trocadé' Papa Mélo', Puissanci, j'éteins tout avec boy LaD Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Chaque week-end, j'récup' un salaire, oh, c'est bon Là En feat' avec le succès et Bo'-Bo' Paname Paname Oh, c'est bon là</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Bye, bye, bye Ouh Layte Beats Au quartier, ils sont bêtes mais tu connais, j'les baise Et vive la BMF et vive la BMF, oh Millionnaire en taule, ça bouge pas Non, non, mon pécule les laisse bouche-bée Ouais J'ai quatre iPhone dans ma grotte, j'reçois des nudes d'un peu partout Oh, putain Le BM' pattine un peu Vroum, j'favorise le RS Break Dans l'virage, je contre-braque, ma meuf me saoûle, j'veux fair un break Pah Tais toi, t'es con T'es con, qu'st-ce tu crois ? En promenade, j'suis grave serein Mais les CR, ça zehef Ouh, zehef comme sur CRF Oh-oh Koba LaD, gros, j'ai l'bras long, le surveillant, c'est moi, j'le gronde Eh J'paye tout cash, j'mets pas d'acompte Ah ouais, j'paye tout cash, j'mets d'acompte Ah ouais Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar On a tapé Ouh, retapé Ouh, j'suis déféré après l'dépôt, putain Ouais, ah-ah On refourgue tout, d'la douce à la drogue de synthèse Ouais, ouais Toi, tu fais que des flops, ta carrière entre parenthèses Ouais, aye, aye, aye Au quartier, y en a qui sont B Sont B, ouais mais tu connais, j'les baise J'les baise Mais tu connais, j'les baise J'les baise, ouais et vive la BMF BMF, ouais, ouais On refourgue tout, d'la douce à la drogue de synthèse Oui Toi, tu fais que des flops, ta carrière entre parenthèses Oui Au quartier, y en a qui sont B Sont B mais tu connais, j'les baise J'les baise, hein Mais tu connais, j'les baise J'les baise, hein et vive la BMF BMF, ouais, ouais You might also like Dans ma te-tê, ça tourne pas rond Pas rond, la taule, ça rend paro' Ouais J'fais un gros câlin à Suge, super fort comme j'serre le lasso Ouais, ouais Fourchette au bout du cerf volant Ouais, ouais, ouais, l'olive rend l'cerveau lent Ouais Deux-quarante, j'serre le volant Aye, aye, deux-quarante, j'serre le volant Aye, aye, aye La Santé, Bois d'Arcy, Fleury, Mauroy, Nanterre et Fresnes Partout, y a un d'mes sins-c', partout, y a une entrée d'hesses Okay dans le paquet d'purée Purée, j't'envoie ça à la gamelle La gamelle Et si l'auxi', il chipote, cette fois-ci, j'vais l'monter en l'air En l'air, ouais Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar On a tapé Ouh, retapé Ouh, j'suis déféré après l'dépôt, putain Ouais, ah-ah On refourgue tout, d'la douce à la drogue de synthèse Ouais, ouais, toi, tu fais que des flops, ta carrière entre parenthèses Ouais, aye, aye, aye Au quartier, y en a qui sont B Sont B, ouais mais tu connais, j'les baise J'les baise Mais tu connais, j'les baise J'les baise, ouais et vive la BMF BMF, ouais, ouais On refourgue tout, d'la douce à la drogue de synthèse Oui, toi, tu fais que des flops, ta carrière entre parenthèses Oui Au quartier, y en a qui sont B Sont B mais tu connais, j'les baise J'les baise, hein Mais tu connais, j'les baise J'les baise, hein et vive la BMF BMF, ouais, ouais Au quartier, ils sont bêtes mais tu connais, j'les baise Et vive la BMF</t>
+          <t>Bye, bye, bye Ouh Layte Beats Au quartier, ils sont bêtes mais tu connais, j'les baise Et vive la BMF et vive la BMF, oh Millionnaire en taule, ça bouge pas Non, non, mon pécule les laisse bouche-bée Ouais J'ai quatre iPhone dans ma grotte, j'reçois des nudes d'un peu partout Oh, putain Le BM' pattine un peu Vroum, j'favorise le RS Break Dans l'virage, je contre-braque, ma meuf me saoûle, j'veux fair un break Pah Tais toi, t'es con T'es con, qu'st-ce tu crois ? En promenade, j'suis grave serein Mais les CR, ça zehef Ouh, zehef comme sur CRF Oh-oh Koba LaD, gros, j'ai l'bras long, le surveillant, c'est moi, j'le gronde Eh J'paye tout cash, j'mets pas d'acompte Ah ouais, j'paye tout cash, j'mets d'acompte Ah ouais Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar On a tapé Ouh, retapé Ouh, j'suis déféré après l'dépôt, putain Ouais, ah-ah On refourgue tout, d'la douce à la drogue de synthèse Ouais, ouais Toi, tu fais que des flops, ta carrière entre parenthèses Ouais, aye, aye, aye Au quartier, y en a qui sont B Sont B, ouais mais tu connais, j'les baise J'les baise Mais tu connais, j'les baise J'les baise, ouais et vive la BMF BMF, ouais, ouais On refourgue tout, d'la douce à la drogue de synthèse Oui Toi, tu fais que des flops, ta carrière entre parenthèses Oui Au quartier, y en a qui sont B Sont B mais tu connais, j'les baise J'les baise, hein Mais tu connais, j'les baise J'les baise, hein et vive la BMF BMF, ouais, ouais Dans ma te-tê, ça tourne pas rond Pas rond, la taule, ça rend paro' Ouais J'fais un gros câlin à Suge, super fort comme j'serre le lasso Ouais, ouais Fourchette au bout du cerf volant Ouais, ouais, ouais, l'olive rend l'cerveau lent Ouais Deux-quarante, j'serre le volant Aye, aye, deux-quarante, j'serre le volant Aye, aye, aye La Santé, Bois d'Arcy, Fleury, Mauroy, Nanterre et Fresnes Partout, y a un d'mes sins-c', partout, y a une entrée d'hesses Okay dans le paquet d'purée Purée, j't'envoie ça à la gamelle La gamelle Et si l'auxi', il chipote, cette fois-ci, j'vais l'monter en l'air En l'air, ouais Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar Putain d'merde, Babti a plainté, ils m'ont soulevé, j'étais au shtar On a tapé Ouh, retapé Ouh, j'suis déféré après l'dépôt, putain Ouais, ah-ah On refourgue tout, d'la douce à la drogue de synthèse Ouais, ouais, toi, tu fais que des flops, ta carrière entre parenthèses Ouais, aye, aye, aye Au quartier, y en a qui sont B Sont B, ouais mais tu connais, j'les baise J'les baise Mais tu connais, j'les baise J'les baise, ouais et vive la BMF BMF, ouais, ouais On refourgue tout, d'la douce à la drogue de synthèse Oui, toi, tu fais que des flops, ta carrière entre parenthèses Oui Au quartier, y en a qui sont B Sont B mais tu connais, j'les baise J'les baise, hein Mais tu connais, j'les baise J'les baise, hein et vive la BMF BMF, ouais, ouais Au quartier, ils sont bêtes mais tu connais, j'les baise Et vive la BMF</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4590,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ouh, wouh Han, han, han, han Guapo Han, han Et c'est moi sur le T-Max en casque, j'suis sûrement calibré Dégoûté, bébé Pour la cynophile, c'est mort, ils peuvent pas m'attraper C'est mort Et tu peux m'croiser vers le Vieux-Port, dans la suite, défoncé Comme d'hab' Sa grand-mère, j'suis tombé encore mais bon, c'est la cité Wesh, le S, c'est comment ? Comment ? Mais bloque une cons' Un peu Il m'reste un joint Un joint dans l'fond d'la capsule Tranquille, j'vais rien dire Rien dire, eux, c'est des cons Ds cons Si j'leurs réponds ils vont m'dire que j'abus Et ce soir, le S, jte jure qucest mort, il m'faut un cul du Sud Te casse pas la tête, te casse pas la tête Et t'façon, quand tu montes sur Paname, j'te passe un cul d'Paname Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés Là, j'ai rangé l'T-Max, là, j'ai rangé le teum-teum J'ai sorti l'RS4, j'suis en bandite en RS3 You might also like Du Bât' 7 à Notre-Dame, Dame, Dame, Dame, Dame J'ai mis sur une roue l'teum-teum, teum, teum, teum, teum J'picole et j'fume des grammes, grammes, grammes, grammes, grammes Koba, c'est le dum, dum, dum, dum, dum Avec Koba, on sort l'python si t'fais l'cobra Ils font les gros bras, ils donnent des info' à la koda Ça dit Moi, j'ai plus un plans mais ça fait lovers aux dalleuses J'étais encore en chien à vingt-ans, donc maintenant, je ne laisse pas l'os Et ce soir, le S, jte jure qucest mort, il m'faut un cul du Sud Te casse pas la tête, te casse pas la tête Et t'façon, quand tu montes sur Paname, j'te passe un cul d'Paname Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés Là, j'ai rangé l'T-Max, là, j'ai rangé le teum-teum J'ai sorti l'RS4, j'suis en bandite en RS3 Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés</t>
+          <t>Ouh, wouh Han, han, han, han Guapo Han, han Et c'est moi sur le T-Max en casque, j'suis sûrement calibré Dégoûté, bébé Pour la cynophile, c'est mort, ils peuvent pas m'attraper C'est mort Et tu peux m'croiser vers le Vieux-Port, dans la suite, défoncé Comme d'hab' Sa grand-mère, j'suis tombé encore mais bon, c'est la cité Wesh, le S, c'est comment ? Comment ? Mais bloque une cons' Un peu Il m'reste un joint Un joint dans l'fond d'la capsule Tranquille, j'vais rien dire Rien dire, eux, c'est des cons Ds cons Si j'leurs réponds ils vont m'dire que j'abus Et ce soir, le S, jte jure qucest mort, il m'faut un cul du Sud Te casse pas la tête, te casse pas la tête Et t'façon, quand tu montes sur Paname, j'te passe un cul d'Paname Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés Là, j'ai rangé l'T-Max, là, j'ai rangé le teum-teum J'ai sorti l'RS4, j'suis en bandite en RS3 Du Bât' 7 à Notre-Dame, Dame, Dame, Dame, Dame J'ai mis sur une roue l'teum-teum, teum, teum, teum, teum J'picole et j'fume des grammes, grammes, grammes, grammes, grammes Koba, c'est le dum, dum, dum, dum, dum Avec Koba, on sort l'python si t'fais l'cobra Ils font les gros bras, ils donnent des info' à la koda Ça dit Moi, j'ai plus un plans mais ça fait lovers aux dalleuses J'étais encore en chien à vingt-ans, donc maintenant, je ne laisse pas l'os Et ce soir, le S, jte jure qucest mort, il m'faut un cul du Sud Te casse pas la tête, te casse pas la tête Et t'façon, quand tu montes sur Paname, j'te passe un cul d'Paname Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés Là, j'ai rangé l'T-Max, là, j'ai rangé le teum-teum J'ai sorti l'RS4, j'suis en bandite en RS3 Jusquà Paname, y a des beautés, jusquà Paname, y a des beautés</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, hey Hey Hey, ça dit quoi vous ? Moi, comme d'hab', y a rien de nouveau J'suis à la tess, et là, Big Dope m'a demandé de kicker comme au départ J'démarre ma caisse, juste au bruit du moteur, ma daronne, elle prend peur À 2.8, les condés peuvent pas suivre, c'est la poisse dans l'rétro' C'est nous on gère, c'est nous même on contrôle, nous même on restitue On s'est restrint, c'est l'bénéf' qui m'trotte, qui m'dérange dans ma têt La feuille de compte, je shoote les keufs, les putes, les passes, les pertes et tout Faut l'savoir ou par manque d'intention que mon vieux m'a mis d'dans J'suis avec Kaz et Chiiko des muro dans l'Cayenne mal garé J'viens d'recevoir d'la beugeuh en gros, une pute va tout garder Qu'est-ce que tu crois ? En 2020 ou pas, on compte encore les grammes La rage de vaincre, motivé par les sous, l'alcool, la Therésa wow, wow, wow, wow Dans l'fond du binks, c'est le néant, y a que des grosses têtes de beuh comme ton nez Y a du shit jaune, y a d'la beuh violet, tu peux venir pécho, c'est pas l'trou noir On est plus des p'tits, nous, on tient l'quartier, c'est Coco qui décide qui va bosser Prends l'vélo, rabats tout l'monde, même les boloss du terrain d'à-côté J'suis dans le BM dernier cri, j'retire le plafond en reculant, j'retire le plafond en reculant Et j'tartine comme si j'me fais ser-cour Il reste un 100 G' à 6.5, c'est cello' dessus, y a des cristaux c'est cello' dessus, y a des cristaux Ouais, l'odeur d'la beuh nous a rodave You might also like On les a fracasser, Monsieur, on est trop dangereux C'qu'on arrange, il faut le ranger Moula bien jaune en provenance de Tanger Si j'peux, je t'arrange sinon je te péta comme tout l'monde Même si tu prends pas, ça va partir Moula bien jaune en provenance de Tanger Si j'coule demain, j'refais des T.P mais pour l'instant, ça va pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions J'suis vers Saint-Denis et j'vais pété Chadli, on va rejoindre le V Avec Mess, intérieur Velours pour monter la valeur Si j'coule demain, j'refais des T.P mais pour l'instant, ça va pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions J'suis vers Saint-Denis et j'vais pété Chadli, on va rejoindre le V Avec Mess, intérieur Velours pour monter la valeur Si j'coule demain, j'refais des TP mais pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions Mais pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions Eh, bye, bye, bye Bye, bye, bye, bye, bye, bye</t>
+          <t>Hey, hey, hey, hey Hey Hey, ça dit quoi vous ? Moi, comme d'hab', y a rien de nouveau J'suis à la tess, et là, Big Dope m'a demandé de kicker comme au départ J'démarre ma caisse, juste au bruit du moteur, ma daronne, elle prend peur À 2.8, les condés peuvent pas suivre, c'est la poisse dans l'rétro' C'est nous on gère, c'est nous même on contrôle, nous même on restitue On s'est restrint, c'est l'bénéf' qui m'trotte, qui m'dérange dans ma têt La feuille de compte, je shoote les keufs, les putes, les passes, les pertes et tout Faut l'savoir ou par manque d'intention que mon vieux m'a mis d'dans J'suis avec Kaz et Chiiko des muro dans l'Cayenne mal garé J'viens d'recevoir d'la beugeuh en gros, une pute va tout garder Qu'est-ce que tu crois ? En 2020 ou pas, on compte encore les grammes La rage de vaincre, motivé par les sous, l'alcool, la Therésa wow, wow, wow, wow Dans l'fond du binks, c'est le néant, y a que des grosses têtes de beuh comme ton nez Y a du shit jaune, y a d'la beuh violet, tu peux venir pécho, c'est pas l'trou noir On est plus des p'tits, nous, on tient l'quartier, c'est Coco qui décide qui va bosser Prends l'vélo, rabats tout l'monde, même les boloss du terrain d'à-côté J'suis dans le BM dernier cri, j'retire le plafond en reculant, j'retire le plafond en reculant Et j'tartine comme si j'me fais ser-cour Il reste un 100 G' à 6.5, c'est cello' dessus, y a des cristaux c'est cello' dessus, y a des cristaux Ouais, l'odeur d'la beuh nous a rodave On les a fracasser, Monsieur, on est trop dangereux C'qu'on arrange, il faut le ranger Moula bien jaune en provenance de Tanger Si j'peux, je t'arrange sinon je te péta comme tout l'monde Même si tu prends pas, ça va partir Moula bien jaune en provenance de Tanger Si j'coule demain, j'refais des T.P mais pour l'instant, ça va pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions J'suis vers Saint-Denis et j'vais pété Chadli, on va rejoindre le V Avec Mess, intérieur Velours pour monter la valeur Si j'coule demain, j'refais des T.P mais pour l'instant, ça va pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions J'suis vers Saint-Denis et j'vais pété Chadli, on va rejoindre le V Avec Mess, intérieur Velours pour monter la valeur Si j'coule demain, j'refais des TP mais pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions Mais pour l'instant, ça va En plus, depuis que j'rappe, j'ai plus de connexions Eh, bye, bye, bye Bye, bye, bye, bye, bye, bye</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4624,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Rims on the beat Rims on the Ces bâtards n'ont pas crû en moi mais aujourd'hui, je vends des CD Et ta pétasse écarte les jambes, elle veut qu'j'la remplisse comme le Zénith On a cassé des portes, on a cogné, nous, notre place, on l'a pas volée Fils d'immigrés, on a quitté la hess et aujourd'hui, je suis riche et célèbre Rajoute du Jack, de la potion, du jaune, du vert dans les pochetons Deux-trois pétasses dans le Phantom, ouais, j'suis fucked up Elle veut mon biff, elle veut m'faire un gosse dans l'dos Un gosse dans l'dos J'ai la pote-ca, bébé, oublie la pension Oublie la pension On a vendu des grammes dans le bendo, v'-esqui les douanes et les chando Oui, l'argent sale, ça paye plus que le taf, donc forcément, je remplis le sac, eh J'suis sur l'périph, t'inquiète, j'arrive, chérie Recherché par l'shérif, train d'vie très, très pénible Ils veulent ma peau, bébé, c'est pas des lol Brolique dans la ste-ve, t'inquiète, on les fuck Et y a le bigo qui résonne Donc, j'remets la cagoule et les gants, oh You might also like Et j'suis dans l'tier-quar, y a mon bigo qui résonne Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite, il faut qu'on s'sauve J'contrôle le réseau, un peu comme Microsoft, oh, oh Et j'suis dans l'tier-quar, y a mon bigo qui résonne Eh, yah, yah, yah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite, il faut qu'on s'sauve Eh J'contrôle le réseau, un peu comme Microsoft, oh, oh Regarde mes jantes, regarde mes quatre pétards, regarde mes étriers J'ai que dix-neuf ans, mais comme j'ai des sous, bâtard, ta grande sur veut s'poser J'suis dans un hôtel avec trop d'étoiles, avec une méga pétasse Ou dans un F1 pour découper d'la selha, déposer sur l'terrain J'fais plus d'argent que ton grand frère Grand frère, c'est moi l'préféré de ma mère Ma mère Et comme j'suis devenu le boss de chez moi, je peux péter mon joint par la fenêtre J'ai une liasse de billets bien coffrée tellement grande qui fait à peu près la taille de ma nièce Ma nièce En livraison sur Paname, par précaution on fume pas de bédo dans la caisse On reçoit des cargaisons, des cartons remplis d'gue-dro Et si t'as peur de t'mouiller, gamin, tu vas jamais brasser Sous mon capot, 400 chevaux, j'sais que j'fais peur sur l'périph' J'suis plus un petit rappeur, j'suis dans l'album d'ton favori J'suis dans l'GTD LE, j'ai tout dealé J'ai tout dealé Pour mon flingue, les Turcs m'ont trouvé une cachette Trouvé une cachette Et y a mon bigo qui résonne Donc, j'enfile la cagoule et les gants, ouais Et j'suis dans l'tier-quar, y a mon bigo qui résonne Eh, yah, yah, yah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite il faut qu'on s'sauve Eh J'contrôle le réseau, un peu comme Microsoft Et j'suis dans l'tier-quar, y a mon bigo qui résonne Ah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite il faut qu'on s'sauve J'contrôle le réseau, un peu comme Microsoft</t>
+          <t>Rims on the beat Rims on the Ces bâtards n'ont pas crû en moi mais aujourd'hui, je vends des CD Et ta pétasse écarte les jambes, elle veut qu'j'la remplisse comme le Zénith On a cassé des portes, on a cogné, nous, notre place, on l'a pas volée Fils d'immigrés, on a quitté la hess et aujourd'hui, je suis riche et célèbre Rajoute du Jack, de la potion, du jaune, du vert dans les pochetons Deux-trois pétasses dans le Phantom, ouais, j'suis fucked up Elle veut mon biff, elle veut m'faire un gosse dans l'dos Un gosse dans l'dos J'ai la pote-ca, bébé, oublie la pension Oublie la pension On a vendu des grammes dans le bendo, v'-esqui les douanes et les chando Oui, l'argent sale, ça paye plus que le taf, donc forcément, je remplis le sac, eh J'suis sur l'périph, t'inquiète, j'arrive, chérie Recherché par l'shérif, train d'vie très, très pénible Ils veulent ma peau, bébé, c'est pas des lol Brolique dans la ste-ve, t'inquiète, on les fuck Et y a le bigo qui résonne Donc, j'remets la cagoule et les gants, oh Et j'suis dans l'tier-quar, y a mon bigo qui résonne Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite, il faut qu'on s'sauve J'contrôle le réseau, un peu comme Microsoft, oh, oh Et j'suis dans l'tier-quar, y a mon bigo qui résonne Eh, yah, yah, yah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite, il faut qu'on s'sauve Eh J'contrôle le réseau, un peu comme Microsoft, oh, oh Regarde mes jantes, regarde mes quatre pétards, regarde mes étriers J'ai que dix-neuf ans, mais comme j'ai des sous, bâtard, ta grande sur veut s'poser J'suis dans un hôtel avec trop d'étoiles, avec une méga pétasse Ou dans un F1 pour découper d'la selha, déposer sur l'terrain J'fais plus d'argent que ton grand frère Grand frère, c'est moi l'préféré de ma mère Ma mère Et comme j'suis devenu le boss de chez moi, je peux péter mon joint par la fenêtre J'ai une liasse de billets bien coffrée tellement grande qui fait à peu près la taille de ma nièce Ma nièce En livraison sur Paname, par précaution on fume pas de bédo dans la caisse On reçoit des cargaisons, des cartons remplis d'gue-dro Et si t'as peur de t'mouiller, gamin, tu vas jamais brasser Sous mon capot, 400 chevaux, j'sais que j'fais peur sur l'périph' J'suis plus un petit rappeur, j'suis dans l'album d'ton favori J'suis dans l'GTD LE, j'ai tout dealé J'ai tout dealé Pour mon flingue, les Turcs m'ont trouvé une cachette Trouvé une cachette Et y a mon bigo qui résonne Donc, j'enfile la cagoule et les gants, ouais Et j'suis dans l'tier-quar, y a mon bigo qui résonne Eh, yah, yah, yah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite il faut qu'on s'sauve Eh J'contrôle le réseau, un peu comme Microsoft Et j'suis dans l'tier-quar, y a mon bigo qui résonne Ah, yah Et j'suis dans l'tier-quar, y a mon bigo qui résonne J'crois qu'ils veulent ma peau, vite il faut qu'on s'sauve J'contrôle le réseau, un peu comme Microsoft</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4641,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>C'est qui qui va m'relever si j'tombe à terre ? À terre C'est qui qui va m'relever si j'tombe à terre ? Même si j'l'aime à mort, j'commets l'adultère J'ai pas trop d'gens, j'ai pas d'repairs, ouais Bye, bye, bye, bye, bye C'est qui qui va m'relever si j'tombe à terre À terre ? Même si j'l'aime à mort, j'commets l'adultère C'est mort J'ai pas trop d'gens, j'ai pas d'repairs À mort et viens voir, ma mère, c'est mon père Ma mère Té-ma la dég', té-ma l'appart' Ouais, j'paye les restes en cash, on mets pas d'apports Ouais Les seules fois où j'ai trop peur, c'est quand y a les porcs juste devant ma porte C'est sois, j'enfile une cagoule et j'le démonte, sois, j'envoie mon p'tit reuf pour le ter-mon Sois, j'vais manger une balle dans la te-tê, sois, j'vais canner au prochain tonneau Sois, chemise en soie, cela va d'soi, j'ai payer l'hôtel, faut qu'j'la démonte, sale Tellement trop sale, tellement trop sale, j'arrive plus péter des meufs J'aime trop, j'aime trop quand elle s'cambre, j'la bombarde, tellement, j'ai deux concombres, oh Ah-ah J'la bombarde, tellement, j'ai deux concombres J'aime trop, j'aime trop quand elle s'cambre, j'ai laissé tous mes gosses sur sa langue, j'ai laissé tous mes gosses sur sa langue Pas d'fils de putes, pas d'enfants dans l'dos J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye You might also like Toi, tu m'connais, moi, j'te connais pas Nan, nan, toi, tu m'connais, moi, j'te connais pas Nan, nan Même si tu connais un d'mes cousins Essaye, tu peux forcer, gros, ça sert à rien Essaye J'suis dans les bagarres de quartiers, arracher d'bigos et les hagras dans l'bus J'suis dans les bagarres de quartiers, arracher d'bigos et les hagras dans l'bus Y a du pilon, be-her, sel3ha, cke-cra et j'sais qu'ta pétasse, elle que-cra C'est mort, on peut pas t'faire quer-cro, missionnaire, elle fait que d'crier Ouais C'est pas Disney, ici, Donnatello et son terrain d'beugeuh, j'suis dans l'désert, produit d'Qatar, entrain d'foutre la merde en buggy J'aime trop, j'aime trop quand elle s'cambre, j'la bombarde, tellement, j'ai deux concombres, oh Ah-ah J'la bombarde, tellement, j'ai deux concombres J'aime trop, j'aime trop quand elle s'cambre, j'ai laissé tous mes gosses sur sa langue, j'ai laissé tous mes gosses sur sa langue Pas d'fils de putes, pas d'enfants dans l'dos J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde, hein Aye, aye, aye, aye</t>
+          <t>C'est qui qui va m'relever si j'tombe à terre ? À terre C'est qui qui va m'relever si j'tombe à terre ? Même si j'l'aime à mort, j'commets l'adultère J'ai pas trop d'gens, j'ai pas d'repairs, ouais Bye, bye, bye, bye, bye C'est qui qui va m'relever si j'tombe à terre À terre ? Même si j'l'aime à mort, j'commets l'adultère C'est mort J'ai pas trop d'gens, j'ai pas d'repairs À mort et viens voir, ma mère, c'est mon père Ma mère Té-ma la dég', té-ma l'appart' Ouais, j'paye les restes en cash, on mets pas d'apports Ouais Les seules fois où j'ai trop peur, c'est quand y a les porcs juste devant ma porte C'est sois, j'enfile une cagoule et j'le démonte, sois, j'envoie mon p'tit reuf pour le ter-mon Sois, j'vais manger une balle dans la te-tê, sois, j'vais canner au prochain tonneau Sois, chemise en soie, cela va d'soi, j'ai payer l'hôtel, faut qu'j'la démonte, sale Tellement trop sale, tellement trop sale, j'arrive plus péter des meufs J'aime trop, j'aime trop quand elle s'cambre, j'la bombarde, tellement, j'ai deux concombres, oh Ah-ah J'la bombarde, tellement, j'ai deux concombres J'aime trop, j'aime trop quand elle s'cambre, j'ai laissé tous mes gosses sur sa langue, j'ai laissé tous mes gosses sur sa langue Pas d'fils de putes, pas d'enfants dans l'dos J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye Toi, tu m'connais, moi, j'te connais pas Nan, nan, toi, tu m'connais, moi, j'te connais pas Nan, nan Même si tu connais un d'mes cousins Essaye, tu peux forcer, gros, ça sert à rien Essaye J'suis dans les bagarres de quartiers, arracher d'bigos et les hagras dans l'bus J'suis dans les bagarres de quartiers, arracher d'bigos et les hagras dans l'bus Y a du pilon, be-her, sel3ha, cke-cra et j'sais qu'ta pétasse, elle que-cra C'est mort, on peut pas t'faire quer-cro, missionnaire, elle fait que d'crier Ouais C'est pas Disney, ici, Donnatello et son terrain d'beugeuh, j'suis dans l'désert, produit d'Qatar, entrain d'foutre la merde en buggy J'aime trop, j'aime trop quand elle s'cambre, j'la bombarde, tellement, j'ai deux concombres, oh Ah-ah J'la bombarde, tellement, j'ai deux concombres J'aime trop, j'aime trop quand elle s'cambre, j'ai laissé tous mes gosses sur sa langue, j'ai laissé tous mes gosses sur sa langue Pas d'fils de putes, pas d'enfants dans l'dos J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde Aye, aye, aye, aye J'suis dans l'bendo, nique sa grand-frère TikTok Ouais, j'ai plusieurs tech', plusieurs tactiques, j'suis Tic et Tac Et tu m'connais, j'baise que des bombes Des bombes, sans divulguer mes biens Mes biens Faut qu'j'fume une blonde Ouais, là, j'viens d'finir une blonde, hein Aye, aye, aye, aye</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4658,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Mmh, mmh Hun, hun Noxious Mmh, mmh Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain, c'est chaud, descente de keufs, donc faut que j'bendaka Il caille sa mère la pute, il fait trop froid, j'vais pas rouler dehors Visser dans l'fond, reste capuché, matrixé par la f'nêtre Et fin d'semaines, j'reçois du jaune mais faut qu'on paye le transporteur Fonce-dé dans la gova mais on parle pas dedans, fonce-dé dans la go-va, à 200, pas d'accident J'ai tout en argent, le reste de la push, j'l'ai mis dedans J'côtoie des négros qui peuvent v'nir te rafale en deux temps You might also like Fin d'la journée, j'ai l'sourire au bec vu que l'four fait que d'ramasser Bénéf' max, faut multiplier, compteur, compter, palper, billets J'ai l'sourire au bec, fin d'journée, j'ai fait 3K et j'aurais fais plus si les condés s'raient pas v'nu Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain c'est chaud, descente de keufs, donc faut que j'bendaka Ouh il faut que j'bendaka, quelques keufs me pointent du doigt J'comptais sur deux-trois boys mais ces fils de tain-p' derrière parlent sur moi Posé sur l'parking la Pagode La Pagode, tu m'verras pas ailleurs Pas ailleurs C'est les même qui sont là tous les jours Hey, pas de nouvelles têtes dans mon ganga Go-va, on parle pas dedans Dedans, T-Max, un casque intégral 'tégral Il peut pas tter-gra Tter-gra, il connaît d'jà la sentence Ton pire ennemi peut être ton ami d'enfance ton ami d'enfance Fin d'la journée, j'ai l'sourire au bec vu que l'four fait que d'ramasser Bénéf' max, faut multiplier, compteur, compter, palper, billets J'ai l'sourire au bec, fin d'journée, j'ai fais 3K et j'aurais fais plus si les condés seraient pas venu Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain, c'est chaud, descente de keufs, donc faut que j'bendaka1</t>
+          <t>Mmh, mmh Hun, hun Noxious Mmh, mmh Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain, c'est chaud, descente de keufs, donc faut que j'bendaka Il caille sa mère la pute, il fait trop froid, j'vais pas rouler dehors Visser dans l'fond, reste capuché, matrixé par la f'nêtre Et fin d'semaines, j'reçois du jaune mais faut qu'on paye le transporteur Fonce-dé dans la gova mais on parle pas dedans, fonce-dé dans la go-va, à 200, pas d'accident J'ai tout en argent, le reste de la push, j'l'ai mis dedans J'côtoie des négros qui peuvent v'nir te rafale en deux temps Fin d'la journée, j'ai l'sourire au bec vu que l'four fait que d'ramasser Bénéf' max, faut multiplier, compteur, compter, palper, billets J'ai l'sourire au bec, fin d'journée, j'ai fait 3K et j'aurais fais plus si les condés s'raient pas v'nu Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain c'est chaud, descente de keufs, donc faut que j'bendaka Ouh il faut que j'bendaka, quelques keufs me pointent du doigt J'comptais sur deux-trois boys mais ces fils de tain-p' derrière parlent sur moi Posé sur l'parking la Pagode La Pagode, tu m'verras pas ailleurs Pas ailleurs C'est les même qui sont là tous les jours Hey, pas de nouvelles têtes dans mon ganga Go-va, on parle pas dedans Dedans, T-Max, un casque intégral 'tégral Il peut pas tter-gra Tter-gra, il connaît d'jà la sentence Ton pire ennemi peut être ton ami d'enfance ton ami d'enfance Fin d'la journée, j'ai l'sourire au bec vu que l'four fait que d'ramasser Bénéf' max, faut multiplier, compteur, compter, palper, billets J'ai l'sourire au bec, fin d'journée, j'ai fais 3K et j'aurais fais plus si les condés seraient pas venu Moi aussi, j'suis passé par là, plus de putes que de gava sûre En embrouilles, ça s'mettait sur l'té-cô pendant qu'on s'battait comme Tookie Quand j'étais pas là, j'faisais des sous, des miens qui m'ont déçu C'est pas une nana mais un proche qui peut t'doogy À cause du four, j'suis cramé moi, surveillé par caméras J'attend pas l'guetteur, j'vais bendaka avant qu'il crie akha À cause du buzz, j'suis cramé moi, surveillé par caméras Sur l'terrain, c'est chaud, descente de keufs, donc faut que j'bendaka1</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4675,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Dave Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrièr moi Ce monde est immond est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Fuck le vent d'hiver car j'me réchauffe dans la tour Ou sur le parking, dans une grosse caisse caisse Pendant les quatre saisons, j'ai les flics aux pattes Peut importe pour les TN, nous, c'est pas sûr qu'dehors, on reste Woh, oh, oh, oh, oh, oh, oh You might also like Mon Toka' t'élimine, dans ma liasse, pas d'timinik Moi, ma Rolex m'illumine, toi, ta sacoche t'humilie J'oublie d'le faire, alors maman prie pour moi J'suis dans les blèmes-pro, woh, oh, oh, oh, oh, oh, oh J'ai eu des paires, des balafres, des frères partis en cavale Le cur trahi, ça fait mal, le mal y est le mal y est Des frères trahis, ça fait mal, j'reprends les affaires en balle Car enterré dans le bât', j'suis validé Oh nan Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi J'suis dans un mood, j'suis dans un monde, j'suis dans ma folie j'suis dans ma folie J'ai des paroles, faut que j'm'envole, du sale, c'est promis Si demain, j'coule, je vais en full, j'remets un bonnet j'remets un bonnet J'suis trop borné, j'suis trop têtu, j'suis trop impoli Et comme ce monde est immonde, ma peuf', faut qu'j'la garde pour moi J'ai trouvé un filon en six mois, j'fais quatre millions J'ai rendez-vous avec le vieux dans un appart' à 400 balles J'm'endors à deux pas d'la plage, mon ex qui pourrit au shtar Aïe, mauvais garçon, la tétine m'a pas calmé Biberon rempli d'protéines depuis enfant, têtu, bête, fêlé Bête et fêlé, bête et fêlé, j'suis dans mon sept, mon block à ghenda, boy Locksé son cur qui pense qu'à mailler mailler, mailler, boy Oh nan Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi</t>
+          <t>Dave Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrièr moi Ce monde est immond est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Fuck le vent d'hiver car j'me réchauffe dans la tour Ou sur le parking, dans une grosse caisse caisse Pendant les quatre saisons, j'ai les flics aux pattes Peut importe pour les TN, nous, c'est pas sûr qu'dehors, on reste Woh, oh, oh, oh, oh, oh, oh Mon Toka' t'élimine, dans ma liasse, pas d'timinik Moi, ma Rolex m'illumine, toi, ta sacoche t'humilie J'oublie d'le faire, alors maman prie pour moi J'suis dans les blèmes-pro, woh, oh, oh, oh, oh, oh, oh J'ai eu des paires, des balafres, des frères partis en cavale Le cur trahi, ça fait mal, le mal y est le mal y est Des frères trahis, ça fait mal, j'reprends les affaires en balle Car enterré dans le bât', j'suis validé Oh nan Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi J'suis dans un mood, j'suis dans un monde, j'suis dans ma folie j'suis dans ma folie J'ai des paroles, faut que j'm'envole, du sale, c'est promis Si demain, j'coule, je vais en full, j'remets un bonnet j'remets un bonnet J'suis trop borné, j'suis trop têtu, j'suis trop impoli Et comme ce monde est immonde, ma peuf', faut qu'j'la garde pour moi J'ai trouvé un filon en six mois, j'fais quatre millions J'ai rendez-vous avec le vieux dans un appart' à 400 balles J'm'endors à deux pas d'la plage, mon ex qui pourrit au shtar Aïe, mauvais garçon, la tétine m'a pas calmé Biberon rempli d'protéines depuis enfant, têtu, bête, fêlé Bête et fêlé, bête et fêlé, j'suis dans mon sept, mon block à ghenda, boy Locksé son cur qui pense qu'à mailler mailler, mailler, boy Oh nan Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Dans la ville, respecté comme dans Top Boy Au fond, ce monde est immonde pue sa mère J'comprends plus rien j'comprends plus rien J'suis au feu rouge, d'un coup, l'Mondéo derrière moi Suffit d'un rien pour tout niquer pour tout niquer Pour qu'on t'démarre On va rien faire, sinon, c'est nous les mecs pas bien Au fond, ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi Ce monde est immonde est immonde J'comprends plus rien j'comprends plus rien J'suis au feu rouge, les bacqueux s'mettent derrière moi</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ah, c'est incroyable ! Comment il arrive à faire ça ? Ouais, la BMF Noxious La B.A, la BMF, han Gros, nique sa mère le passé Ouais, j'me concentre sur le présent À fond J'suis rodave par ta fe-meu Ah ouais, j'suis rodave par la Passat Merde Il est vite fait mon passe-temps, j'dois juste mettre à l'aise les passants Les ients-cli La dégaine qui passe partout, j'mets un jean pour mieux les rabattres Ouais, ouais, ouais, ouais Le soir, j'me pose des questions À fond, l soir, j'me pose des qustions Ouais Tout c'que j'pourrais faire pour eux Ouais, est-ce qu'ils ont f'ront autant ? Grâce à Dieu, là, ça va mieux Hum mais bon, j'sais pas jusqu'à quand J'récup' encore un accompte, j'recompte et j'rigole en même temps Temps La vie d'ma mère, ça fait trop mal Ça fait trop mal, quand toi, tu comptes trop sur eux mais eux, te tourne le dos Mis à part ça, c'est la routine, hein, plus j'avance dans ma vie, j'ai d'moins en moins d'amis Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié Le cercle est d'jà fermé You might also like Le cercle est d'jà fermé, verrouilé depuis bien longtemps, les pétasses de showcases, la prison, c'est qu'une perte de temps Et quand elle m'engueule tout l'temps, alors, j'la trompe tout l'temps Là, j'me fais chier ici, j'vais t'tailler, j'sais pas qu'est-ce j'attends Han, han Et comme j'ai un bon cur et que j'prie, j'fais que d'pardonner mais tu connais, moi, j'suis eloigné ou ils vont recommencer On veut brasser, brasser, brasser, ne pas replonger On veut brasser, brasser, brasser, ne pas replonger La vie d'ma mère, ça fait trop mal Ça fait trop mal, quand toi, tu comptes trop sur eux mais eux, te tourne le dos Mis à part ça, c'est la routine, hein, plus j'avance dans ma vie, j'ai d'moins en moins d'amis Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé</t>
+          <t>Ah, c'est incroyable ! Comment il arrive à faire ça ? Ouais, la BMF Noxious La B.A, la BMF, han Gros, nique sa mère le passé Ouais, j'me concentre sur le présent À fond J'suis rodave par ta fe-meu Ah ouais, j'suis rodave par la Passat Merde Il est vite fait mon passe-temps, j'dois juste mettre à l'aise les passants Les ients-cli La dégaine qui passe partout, j'mets un jean pour mieux les rabattres Ouais, ouais, ouais, ouais Le soir, j'me pose des questions À fond, l soir, j'me pose des qustions Ouais Tout c'que j'pourrais faire pour eux Ouais, est-ce qu'ils ont f'ront autant ? Grâce à Dieu, là, ça va mieux Hum mais bon, j'sais pas jusqu'à quand J'récup' encore un accompte, j'recompte et j'rigole en même temps Temps La vie d'ma mère, ça fait trop mal Ça fait trop mal, quand toi, tu comptes trop sur eux mais eux, te tourne le dos Mis à part ça, c'est la routine, hein, plus j'avance dans ma vie, j'ai d'moins en moins d'amis Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié Le cercle est d'jà fermé Le cercle est d'jà fermé, verrouilé depuis bien longtemps, les pétasses de showcases, la prison, c'est qu'une perte de temps Et quand elle m'engueule tout l'temps, alors, j'la trompe tout l'temps Là, j'me fais chier ici, j'vais t'tailler, j'sais pas qu'est-ce j'attends Han, han Et comme j'ai un bon cur et que j'prie, j'fais que d'pardonner mais tu connais, moi, j'suis eloigné ou ils vont recommencer On veut brasser, brasser, brasser, ne pas replonger On veut brasser, brasser, brasser, ne pas replonger La vie d'ma mère, ça fait trop mal Ça fait trop mal, quand toi, tu comptes trop sur eux mais eux, te tourne le dos Mis à part ça, c'est la routine, hein, plus j'avance dans ma vie, j'ai d'moins en moins d'amis Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi Gros, ça va trop vite, c'est réél, tu meurs qu'une fois, donc j'garde mon brolique, ma famille, mes sous près d'moi J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé J'suis toujours là mais j'suis un peu fuyant, un peu restreint, j'veux pas d'ton amitié, le cercle est d'jà fermé</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Hood Star Beats Eh, gamin, ne nous critique pas nan, c'est pas d'la chance, c'est du travail travail J'suis encore plus riche que la veille et la moitié d'mes potes d'enfance, ils m'en veulent J'sais pas pourquoi, ils m'envient tous mais ma daronne m'a dit Mon fils, c'est pas grave On a guetté, on a dealé, maintenant, on fait partir des litrons d'beuh À vingt piges, j'suis double platine et tes rappeurs me sucent la queue Eh, p'tit con, va bien t'renseigner regarde, y a que moi qui fait pas comme eux comme eux Cet été, j'fais le tour du monde, au moins, deux-cent milles euros deux-cent milles euros J'ai coffré un bout et j'ai mis des diamants sur toute ma montre On se déplace pas pour rien, on perd pas notre temps, tout pour les miens et puis, fuck les tiens J'suis à Namek, à la salle du temps et j'vais rôder sur l'terrain avec une tonne Nuage de fumée derrière les vitres teintées, dans l'RS très, j'roule mon dixième teh Si Dieu le veut, j'suis là pour longtemps, j'retourne dans la cuisine chauffer l'couteau Hum, j'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' J'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' You might also like Et lundi, j'ouvre le four le four et mardi, j'ouvre le four le four Mercredi, j'ouvre le four encore et jeudi, j'ouvre le four le four Vendredi, j'ouvre le four le four et samedi, j'ouvre le four encore Et dimanche, j'ouvre le four le four Tous les jours, j'ouvre le four toujours T'étais pas là quand j'tenais la sacoche, y a un truc qui cloche, donc on s'arrache Et je m'arrache, la pute veut m'galoche, c'est fini l'époque des vols à l'étalage Tu vas respecter la race noire, on a subi quatre cents ans d'esclavage imbécile La daronne, elle se met en peignoir alors que j'ai même pas son âge Faut arrêter quand le rap, c'est cool ah bon ? Tu dis nan, y a beaucoup de soucis j'te jure Avant, quand j'sortais la cagoule ouh, y avait personne qui venait sucer C'est vrai, j'ai des défauts ah ouais ? Et j'refuse pas d'défis jamais Et j'attaque et puis, j'défends toujours, toi, t'es che-lou, donc je me méfie dégage Pour le succès, toi, tu t'suicides c'est bon, nique ta mère, tu pars en sucette Toi, t'es pas content d'ma réussite ah ouais ? Ça sert à rien de venir sucer t'as vu J'vais charbonner, tu vas pas m'pousser c'est bon, y a les condés, donc remballe tout ça je pêche Le pilon, c'est d'la frappe, t'as toussé ah bon ? Et de rancunier, ça, c'est nous, ça c'est bon Hum, j'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' J'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra Et lundi, j'ouvre le four le four et mardi, j'ouvre le four le four Mercredi, j'ouvre le four encore et jeudi, j'ouvre le four le four Vendredi, j'ouvre le four le four et samedi, j'ouvre le four encore Et dimanche, j'ouvre le four le four Tous les jours, j'ouvre le four toujours Le four Toujours</t>
+          <t>Hood Star Beats Eh, gamin, ne nous critique pas nan, c'est pas d'la chance, c'est du travail travail J'suis encore plus riche que la veille et la moitié d'mes potes d'enfance, ils m'en veulent J'sais pas pourquoi, ils m'envient tous mais ma daronne m'a dit Mon fils, c'est pas grave On a guetté, on a dealé, maintenant, on fait partir des litrons d'beuh À vingt piges, j'suis double platine et tes rappeurs me sucent la queue Eh, p'tit con, va bien t'renseigner regarde, y a que moi qui fait pas comme eux comme eux Cet été, j'fais le tour du monde, au moins, deux-cent milles euros deux-cent milles euros J'ai coffré un bout et j'ai mis des diamants sur toute ma montre On se déplace pas pour rien, on perd pas notre temps, tout pour les miens et puis, fuck les tiens J'suis à Namek, à la salle du temps et j'vais rôder sur l'terrain avec une tonne Nuage de fumée derrière les vitres teintées, dans l'RS très, j'roule mon dixième teh Si Dieu le veut, j'suis là pour longtemps, j'retourne dans la cuisine chauffer l'couteau Hum, j'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' J'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' Et lundi, j'ouvre le four le four et mardi, j'ouvre le four le four Mercredi, j'ouvre le four encore et jeudi, j'ouvre le four le four Vendredi, j'ouvre le four le four et samedi, j'ouvre le four encore Et dimanche, j'ouvre le four le four Tous les jours, j'ouvre le four toujours T'étais pas là quand j'tenais la sacoche, y a un truc qui cloche, donc on s'arrache Et je m'arrache, la pute veut m'galoche, c'est fini l'époque des vols à l'étalage Tu vas respecter la race noire, on a subi quatre cents ans d'esclavage imbécile La daronne, elle se met en peignoir alors que j'ai même pas son âge Faut arrêter quand le rap, c'est cool ah bon ? Tu dis nan, y a beaucoup de soucis j'te jure Avant, quand j'sortais la cagoule ouh, y avait personne qui venait sucer C'est vrai, j'ai des défauts ah ouais ? Et j'refuse pas d'défis jamais Et j'attaque et puis, j'défends toujours, toi, t'es che-lou, donc je me méfie dégage Pour le succès, toi, tu t'suicides c'est bon, nique ta mère, tu pars en sucette Toi, t'es pas content d'ma réussite ah ouais ? Ça sert à rien de venir sucer t'as vu J'vais charbonner, tu vas pas m'pousser c'est bon, y a les condés, donc remballe tout ça je pêche Le pilon, c'est d'la frappe, t'as toussé ah bon ? Et de rancunier, ça, c'est nous, ça c'est bon Hum, j'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra' J'casse un tour avant d'ouvrir l'four Avant, j'pète Carbozo aux Pyra Et lundi, j'ouvre le four le four et mardi, j'ouvre le four le four Mercredi, j'ouvre le four encore et jeudi, j'ouvre le four le four Vendredi, j'ouvre le four le four et samedi, j'ouvre le four encore Et dimanche, j'ouvre le four le four Tous les jours, j'ouvre le four toujours Le four Toujours</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mbrrah la famille Ba-bay, eh, eh Ouh, ouh, ouh Aye, oh, oh, oh, oh J'suis dans l'bendo, j'suis sur l'pavé Pavé, du crack qui fait baver Baver Toujours avec mes bon vieux Oh oui, j'sors de G.À.V, j'tcheck le baveux Baveux Que-que des gamos garée mais j'peux pas t'louer le Range Rov' Non J'é-j'étais un peu pété Pété, j'me suis fais lahssa par la grosse J'suis millionnaire en euros, nique sa grand-mère, j'devais pas l'dire Il est trois heures sur ma Rollie', il est trois heures sur ma Rollie' Rollie' Sapés comme à London À London, brolique comme à London Gé-char dans ma sacoche, c'est Évry, hood, c'est pas les states Sans l'vouloir, j'suis dans l'paraître et l'RS6, il est préparé Vroum, vroum Ici, c'est la vie d'Paris, si t'as peur, bah, t'es mal barré Et dois d'l'argent à déguns Jamais, si tu t'approches, on dégaine Toujours dans les bon coups Bon coups et ces chacals pour les dégâts J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille You might also like J'ai plaqué skalape sur son tigné Tigné, sale pute, faut qu'tu dorme toute nue Ah, ah Du sperme dans mon caleçon mais j'ai du sang sur mes TN Gros vendeur de bédo mais j'passe quand-même à la télé' Télé' À c'qui-p', j'suis remplie d'talents Talent, aventurier comme Tintin Le joint qui tourne, ma puce qui tourne, t'as sur qui tourne, l'monde est méchant Début d'soirée éméché, le plus couilleux s'fait amocher Faut-faut que j'trouve un transport, pour transporter d'la machin Dans la te-boî, c'est les ballons qui attire les michtos J'aime les grosses liasses et les gros boules, d'vant les cages, que des boulets Un coup d'fil, on déboule, un nouveau Glock que j'déballe J'déballe Vétéran dans les streams, vétéran dans le débit, gars Nique sa mère, j'mets pas les gants, si j't'allume, bah, j'repars avec J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille</t>
+          <t>Mbrrah la famille Ba-bay, eh, eh Ouh, ouh, ouh Aye, oh, oh, oh, oh J'suis dans l'bendo, j'suis sur l'pavé Pavé, du crack qui fait baver Baver Toujours avec mes bon vieux Oh oui, j'sors de G.À.V, j'tcheck le baveux Baveux Que-que des gamos garée mais j'peux pas t'louer le Range Rov' Non J'é-j'étais un peu pété Pété, j'me suis fais lahssa par la grosse J'suis millionnaire en euros, nique sa grand-mère, j'devais pas l'dire Il est trois heures sur ma Rollie', il est trois heures sur ma Rollie' Rollie' Sapés comme à London À London, brolique comme à London Gé-char dans ma sacoche, c'est Évry, hood, c'est pas les states Sans l'vouloir, j'suis dans l'paraître et l'RS6, il est préparé Vroum, vroum Ici, c'est la vie d'Paris, si t'as peur, bah, t'es mal barré Et dois d'l'argent à déguns Jamais, si tu t'approches, on dégaine Toujours dans les bon coups Bon coups et ces chacals pour les dégâts J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'ai plaqué skalape sur son tigné Tigné, sale pute, faut qu'tu dorme toute nue Ah, ah Du sperme dans mon caleçon mais j'ai du sang sur mes TN Gros vendeur de bédo mais j'passe quand-même à la télé' Télé' À c'qui-p', j'suis remplie d'talents Talent, aventurier comme Tintin Le joint qui tourne, ma puce qui tourne, t'as sur qui tourne, l'monde est méchant Début d'soirée éméché, le plus couilleux s'fait amocher Faut-faut que j'trouve un transport, pour transporter d'la machin Dans la te-boî, c'est les ballons qui attire les michtos J'aime les grosses liasses et les gros boules, d'vant les cages, que des boulets Un coup d'fil, on déboule, un nouveau Glock que j'déballe J'déballe Vétéran dans les streams, vétéran dans le débit, gars Nique sa mère, j'mets pas les gants, si j't'allume, bah, j'repars avec J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille J'suis trop responsable maintenant, c'est l'trafic qui nous maintiens Mbrrah la famille</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4743,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Moi, j'connais v'là les mecs Hood Star Beats Moi, j'connais v'là les mecs, han Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs qui rappent la rue mais n'ont même pas d'cité Ouais N'ont même pas d'couilles Ouais, n'ont pas d'équipe Ouais, préfèrent s'cacher Ouais qu'aller tirer ouais Dans l'fond du tieks, j'suis dans un Porsche Macan, j'cours plus quand y a les porcs Bah nan Ça s'améliore petit à petit Regarde et tout passe mieux avec un pét' La beuh J'crois qu'c'est mon succès ou les TP qui font que j'ai grandi Grandi Une meuf de la zon et de la suce vut me faire un bébé La pute Gros, pour moi, rien n'a changé mais une nouvelle page vient d'se tourner Vient d'se tourner J'suis dans l'quartier et mon p'tit frère gère le rrain-te Y a que d'la ppe-fra dans la sacoche mais j'suis rempli d'or et platine Han Maman s'endort tranquille, méga kichta avant d'partir Partir Avenir prometteur comme la drogue et l'immobilier Elle s'endort tranquille Ouais, méga kichta avant d'partir Partir You might also like Et moi, j'suis trop dedans Pas mon buzz, c'est pas mon buzz qui va m'faire partir Jamais Avenir prometteur mais incertain, j'suis là pourtant Tu choisis pas ton passé Non, mais c'est toi qui crée ton avenir Ouais, ouais J'suis sur l'terrain, TN, TP, C4, 6.3, grosse tempête Moi, j'suis trop dedans, les embrouilles de la cité Pah Auditionné, j'squattais l'banc d'la GÀV Moi, j'suis trop dedans, cellophane conditionné Ah, ah J'rêve de monnaie Ah, ah, moi, j'suis trop dedans Ah Personne me donne des leçons, j'insultais mes prof' Oh, oh, comme Notorious, j'suis le talent du bloc Y a pas qu'au Ramadan que l'on vit la nuit, j'fais de l'argent donc j'ai des ennemis Pilon de Tanger, j'suis dans le danger, bas de l'étage, j'bibi les sachets J'déborde de seum quand j'repense à hier, mes potes se font claquer après la CR Les voisins nous pistent, regardent par la fenêtre Pour devenir un boss, faut dresser les maîtres Ouais, le cur déchiré en miettes Eh J'ai connu les vrais et les traîtres Ouais, des potes ont voulu me la mettre Y a que d'la ppe-fra dans la sacoche mais j'suis rempli d'or et platine Han Maman s'endort tranquille, méga kichta avant d'partir Partir Avenir prometteur comme la drogue et l'immobilier Elle s'endort tranquille Ouais, méga kichta avant d'partir Partir Et moi, j'suis trop dedans Pas mon buzz, c'est pas mon buzz qui va m'faire partir Jamais Avenir prometteur mais incertain, j'suis là pourtant Tu choisis pas ton passé Non, mais c'est toi qui crée ton avenir Ouais, ouais J'suis sur l'terrain, TN, TP, C4, 6.3, grosse tempête Moi, j'suis trop dedans, les embrouilles de la cité Pah Auditionné, j'squattais l'banc d'la GÀV Moi, j'suis trop dedans, cellophane conditionné Ah, ah J'rêve de monnaie Ah, ah, moi, j'suis trop dedans Personne me donne des leçons Moi, j'connais v'là les mecs Personne me donne des leçons Moi, j'connais v'là les mecs1</t>
+          <t>Moi, j'connais v'là les mecs Hood Star Beats Moi, j'connais v'là les mecs, han Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs Moi, j'connais v'là les mecs qui rappent la rue mais n'ont même pas d'cité Ouais N'ont même pas d'couilles Ouais, n'ont pas d'équipe Ouais, préfèrent s'cacher Ouais qu'aller tirer ouais Dans l'fond du tieks, j'suis dans un Porsche Macan, j'cours plus quand y a les porcs Bah nan Ça s'améliore petit à petit Regarde et tout passe mieux avec un pét' La beuh J'crois qu'c'est mon succès ou les TP qui font que j'ai grandi Grandi Une meuf de la zon et de la suce vut me faire un bébé La pute Gros, pour moi, rien n'a changé mais une nouvelle page vient d'se tourner Vient d'se tourner J'suis dans l'quartier et mon p'tit frère gère le rrain-te Y a que d'la ppe-fra dans la sacoche mais j'suis rempli d'or et platine Han Maman s'endort tranquille, méga kichta avant d'partir Partir Avenir prometteur comme la drogue et l'immobilier Elle s'endort tranquille Ouais, méga kichta avant d'partir Partir Et moi, j'suis trop dedans Pas mon buzz, c'est pas mon buzz qui va m'faire partir Jamais Avenir prometteur mais incertain, j'suis là pourtant Tu choisis pas ton passé Non, mais c'est toi qui crée ton avenir Ouais, ouais J'suis sur l'terrain, TN, TP, C4, 6.3, grosse tempête Moi, j'suis trop dedans, les embrouilles de la cité Pah Auditionné, j'squattais l'banc d'la GÀV Moi, j'suis trop dedans, cellophane conditionné Ah, ah J'rêve de monnaie Ah, ah, moi, j'suis trop dedans Ah Personne me donne des leçons, j'insultais mes prof' Oh, oh, comme Notorious, j'suis le talent du bloc Y a pas qu'au Ramadan que l'on vit la nuit, j'fais de l'argent donc j'ai des ennemis Pilon de Tanger, j'suis dans le danger, bas de l'étage, j'bibi les sachets J'déborde de seum quand j'repense à hier, mes potes se font claquer après la CR Les voisins nous pistent, regardent par la fenêtre Pour devenir un boss, faut dresser les maîtres Ouais, le cur déchiré en miettes Eh J'ai connu les vrais et les traîtres Ouais, des potes ont voulu me la mettre Y a que d'la ppe-fra dans la sacoche mais j'suis rempli d'or et platine Han Maman s'endort tranquille, méga kichta avant d'partir Partir Avenir prometteur comme la drogue et l'immobilier Elle s'endort tranquille Ouais, méga kichta avant d'partir Partir Et moi, j'suis trop dedans Pas mon buzz, c'est pas mon buzz qui va m'faire partir Jamais Avenir prometteur mais incertain, j'suis là pourtant Tu choisis pas ton passé Non, mais c'est toi qui crée ton avenir Ouais, ouais J'suis sur l'terrain, TN, TP, C4, 6.3, grosse tempête Moi, j'suis trop dedans, les embrouilles de la cité Pah Auditionné, j'squattais l'banc d'la GÀV Moi, j'suis trop dedans, cellophane conditionné Ah, ah J'rêve de monnaie Ah, ah, moi, j'suis trop dedans Personne me donne des leçons Moi, j'connais v'là les mecs Personne me donne des leçons Moi, j'connais v'là les mecs1</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4760,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>A-A SHK AWA the mafia, my nigga Yeah, yeah Ma sacoche de luxe est remplie d'billets d'banque Han, si c'est pas l'cas, même pas je rentre Yeah J'sais pas c'que c'est les papillons dans l'ventre Han, nique sa mère si j'échoue, au moins, je tente Elle a fait des kilomètres sur des zizis mais c'est avec toi qu'elle fait la sainte C'est toujours l'même nigga qu'elle veut, poto, méfis-toi quand elle s'absent Méfies-toi J'mets du ketchup sur les opps Grr, poto, ça change pas, j'peux pas m'saquer les cops Le cul d'ta foumasse déborde derrière mon cross, j'achète et j'demande pas combien ça cost J'achète et j'demande pas combien ça cost, pétasse, j'suis glissant, c'est mieux qu'tu t'accroches pas Rah, rah, ça déborde de billets dans ma sacoche Montagne de billets coffré, j'peux pas compter, j'sors la machine Grr J'peux plus remettre ce suvêt', en GAV avec, il est maudit T'avais tes raisons d'partir Han, dis-moi, pourquoi t'es revenu ? J'me revois niquer sa mère pour un putain d'malentendu Quand j'sors, c'est pour un billet C'est pour un putain d'billet J'men bats les couilles d'être bien habillé J'm'en bats les couilles, c'est pour du fric Des bijoux pour mon bébé Des bijoux pour ma babe, j'le garde sur moi pour nous protéger Hum Et p't-être que j'serais pas Koba si j'avais pas dealé et p't-être que j'l'aurais pas baisé si j'étais pas bourré J'mélange la vodka, Redbull Ah ouais, j'me sens si bien dans ma bulle J'me sens Un peu loin d'ces fils de pute, beaucoup d'haine, beaucoup d'rancune Je sais que le dernier rre-ve peut vraiment tout gâcher Ah ouais, ma baby peut tout gâcher, rendez-vous peut tout gâcher C'est la merde, j'ai pris deux baveux, c'est pour tous mes problèmes Beaucoup d'cash, beaucoup d'oseilles, beaucoup d'cash, beaucoup d'oseilles Montagne de billets coffré, j'peux pas compter, j'sors la machine Grr J'peux plus remettre ce suvêt', en GAV avec, il est maudit T'avais tes raisons d'partir Han, dis-moi, pourquoi t'es revenu ? J'me revois niquer sa mère pour un putain d'malentendu Quand j'sors, c'est pour un billet C'est pour un putain d'billet J'men bats les couilles d'être bien habillé J'm'en bats les couilles, c'est pour du fric Des bijoux pour mon bébé Des bijoux pour ma babe, j'le garde sur moi pour nous protéger Yeah, yeah, yeah Yeah, yeah, yeahYou might also like1</t>
+          <t>A-A SHK AWA the mafia, my nigga Yeah, yeah Ma sacoche de luxe est remplie d'billets d'banque Han, si c'est pas l'cas, même pas je rentre Yeah J'sais pas c'que c'est les papillons dans l'ventre Han, nique sa mère si j'échoue, au moins, je tente Elle a fait des kilomètres sur des zizis mais c'est avec toi qu'elle fait la sainte C'est toujours l'même nigga qu'elle veut, poto, méfis-toi quand elle s'absent Méfies-toi J'mets du ketchup sur les opps Grr, poto, ça change pas, j'peux pas m'saquer les cops Le cul d'ta foumasse déborde derrière mon cross, j'achète et j'demande pas combien ça cost J'achète et j'demande pas combien ça cost, pétasse, j'suis glissant, c'est mieux qu'tu t'accroches pas Rah, rah, ça déborde de billets dans ma sacoche Montagne de billets coffré, j'peux pas compter, j'sors la machine Grr J'peux plus remettre ce suvêt', en GAV avec, il est maudit T'avais tes raisons d'partir Han, dis-moi, pourquoi t'es revenu ? J'me revois niquer sa mère pour un putain d'malentendu Quand j'sors, c'est pour un billet C'est pour un putain d'billet J'men bats les couilles d'être bien habillé J'm'en bats les couilles, c'est pour du fric Des bijoux pour mon bébé Des bijoux pour ma babe, j'le garde sur moi pour nous protéger Hum Et p't-être que j'serais pas Koba si j'avais pas dealé et p't-être que j'l'aurais pas baisé si j'étais pas bourré J'mélange la vodka, Redbull Ah ouais, j'me sens si bien dans ma bulle J'me sens Un peu loin d'ces fils de pute, beaucoup d'haine, beaucoup d'rancune Je sais que le dernier rre-ve peut vraiment tout gâcher Ah ouais, ma baby peut tout gâcher, rendez-vous peut tout gâcher C'est la merde, j'ai pris deux baveux, c'est pour tous mes problèmes Beaucoup d'cash, beaucoup d'oseilles, beaucoup d'cash, beaucoup d'oseilles Montagne de billets coffré, j'peux pas compter, j'sors la machine Grr J'peux plus remettre ce suvêt', en GAV avec, il est maudit T'avais tes raisons d'partir Han, dis-moi, pourquoi t'es revenu ? J'me revois niquer sa mère pour un putain d'malentendu Quand j'sors, c'est pour un billet C'est pour un putain d'billet J'men bats les couilles d'être bien habillé J'm'en bats les couilles, c'est pour du fric Des bijoux pour mon bébé Des bijoux pour ma babe, j'le garde sur moi pour nous protéger Yeah, yeah, yeah Yeah, yeah, yeah1</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4777,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Han-han Hello, it's ToM Han-han Layte Beats Ouh, ouh, ouh, ouh Ah, ah, ah, ah, ah Ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh Tu m'reconnais, c'est Koba LaD, en vrai, j'sais même pas pourquoi j'suis d'dans J'ai trop la dalle, j'peux pas quitter YouTube, ça m'a ramené des 'tasses et des tales J'crois qu'y a les baqueux juste à té-cô, ils pensaient que je resserre l'étau Ma chérie, faut pas s'inquiéter, j'ai passé la huitième, ils voient que la fumée Toujours un il sur le terrain d'beuh, même quand j'suis pas là Que quand j'ché-cra sur ses veux-ch' que j'suis mal poli Piouh, piouh Quelqus traces sur l'polo Polo, quelques tracs sur l'polo Polo J'brasse plus que toi, tu peux plus m'appeler mon poulain Il est minuit passé mais du détail, il m'en reste encore J'appelle une meuf pour qu'elle me ramène en livraison Ouais, c'est moi qui rappe la rue, même les anciens, j'les ai mis d'accord Disque de platine, je dépose kichta à la maison, ouais You might also like Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Souvent sous pillave mais tu connais, c'est la street, mon tard-pé est toujours chargé Souvent, on dit Nan, souvent, j'suis avec des putes, souvent, j'suis fonce-dé dans l'hôtel Jamais sur le banc, c'est moi au milieu d'terrain, décisif sur les tirs au but Jamais sans mes gants, té-ma dans la boîte à gants, si il faut, j'irai jusqu'au bout Trop d'appels manqués d'puis qu'j'ai percé, j'viens d'trouver un filon, pour d'la C.C, pour du pilon C'est trop d'puis qu'j'ai percé mais j'viens d'trouver un filon, pour d'la C.C, pour du pilon Il est minuit passé mais du détail, il m'en reste encore J'appelle une meuf pour qu'elle me ramène en livraison Ouais, c'est moi qui rappe la rue, même les anciens, j'les ai mis d'accord Disque de platine, je dépose kichta à la maison, ouais Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes</t>
+          <t>Han-han Hello, it's ToM Han-han Layte Beats Ouh, ouh, ouh, ouh Ah, ah, ah, ah, ah Ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh Ouh, ouh, ouh, ouh Tu m'reconnais, c'est Koba LaD, en vrai, j'sais même pas pourquoi j'suis d'dans J'ai trop la dalle, j'peux pas quitter YouTube, ça m'a ramené des 'tasses et des tales J'crois qu'y a les baqueux juste à té-cô, ils pensaient que je resserre l'étau Ma chérie, faut pas s'inquiéter, j'ai passé la huitième, ils voient que la fumée Toujours un il sur le terrain d'beuh, même quand j'suis pas là Que quand j'ché-cra sur ses veux-ch' que j'suis mal poli Piouh, piouh Quelqus traces sur l'polo Polo, quelques tracs sur l'polo Polo J'brasse plus que toi, tu peux plus m'appeler mon poulain Il est minuit passé mais du détail, il m'en reste encore J'appelle une meuf pour qu'elle me ramène en livraison Ouais, c'est moi qui rappe la rue, même les anciens, j'les ai mis d'accord Disque de platine, je dépose kichta à la maison, ouais Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Souvent sous pillave mais tu connais, c'est la street, mon tard-pé est toujours chargé Souvent, on dit Nan, souvent, j'suis avec des putes, souvent, j'suis fonce-dé dans l'hôtel Jamais sur le banc, c'est moi au milieu d'terrain, décisif sur les tirs au but Jamais sans mes gants, té-ma dans la boîte à gants, si il faut, j'irai jusqu'au bout Trop d'appels manqués d'puis qu'j'ai percé, j'viens d'trouver un filon, pour d'la C.C, pour du pilon C'est trop d'puis qu'j'ai percé mais j'viens d'trouver un filon, pour d'la C.C, pour du pilon Il est minuit passé mais du détail, il m'en reste encore J'appelle une meuf pour qu'elle me ramène en livraison Ouais, c'est moi qui rappe la rue, même les anciens, j'les ai mis d'accord Disque de platine, je dépose kichta à la maison, ouais Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes Elle est trop bonne sa mère, faut que j'la baise, faut qu'j'tire mon coup J'veux pas traîner avec eux, j'préfère rester dans mon coin À mes anciens potos, des fois, j'y pense un peu En vrai de vrai, à quoi bon ? Nique sa mère, c'est des putes</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4794,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2.7.0 Koba LaD Kaaris Nardey c'est chaud ça, ah-ah SE, SE, SE Scar 2.7 K Double A, Koba Koba, si c'est chaud, j'sors un pétard Si tu crois qu'j'suis un rappeur, j'vais venir te niquer dans la boite Direct Rêve plus trop, j'fume même plus Même plus, ça fait qu'j'suis un nervax Nerveux Trou du cul Trou du cul, ta sécu Ta sécu Elle s'fait hagar par deux potes Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'achète des nouveaux habits, j'achète un nouveau fusil Un peu près cinq cent chevaux, que quand j'suis bourré que j'vais vite Aïe-aïe, aïe-aïe J'sors du hbs mais t'inquiètes, Suge il s'occupe ds affaires À fond Un million On, deux millions On, la mama vient t'kill au bled À fond Arrête tes bleh cousine Arrête, arrête tes bleh cousine Arrête Elle veut la montre, elle veut la gov', elle veut le jacuzzi Sche-por, Lamborghini, en Fendi, Burberry Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'recompte un peu, j'mets de côté, j'prends un autre élastique You might also like Sur la route du succès, j'ai merdé, là j'suis menotté Oh, merde J'vais pas t'ramener la lune, soit tu suces ou rentre chez ta mère On fait l'salaire du Barca, on fait rentrer plus d'300k 300 J'donne tout aux ents-cli, j'vais rien garder pour ses lopes-sa Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre K deux A, 2.7.0 2.7, j'sors la Kala' comme Koba 2.7 T'es une tchoin, un flocko, tu vas pas nous apprendre c'qu'on sait déjà S, S, SE, SE J'prends ta sur et l'gros moteur, t'as capté, j'suis né sans cur Mes poches sont remplies de sous, les diamants dansent sur mon cou Bah-bah, bah-bah J'cuisine la dope toute la night, j'suis en slip comme Walter White Pas l'time pour les un contre un, t'as vu, c'est l'9.3, 9.1 S.E J'fais les mélanges comme un chimiste, j'vide deux-trois chargeurs comme Ramis J'veux les grosses têtes de me-da, ça sent les porcs faut mé-da Arrête tes bleh cousine Arrête, arrête tes bleh cousine Arrête Elle veut la montre, elle veut la gov', elle veut le jacuzzi Sche-por, Lamborghini, en Fendi, Burberry Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'recompte un peu, j'mets de côté, j'prends un autre élastique Sur la route du succès, j'ai merdé, là j'suis menotté Oh, merde J'vais pas t'ramener la Lune, soit tu suces ou rentre chez ta mère On fait l'salaire du Barça, on fait rentrer plus d'300k 300 J'donne tout aux ents-cli, j'vais rien garder pour ses lopes-sa Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre1</t>
+          <t>2.7.0 Koba LaD Kaaris Nardey c'est chaud ça, ah-ah SE, SE, SE Scar 2.7 K Double A, Koba Koba, si c'est chaud, j'sors un pétard Si tu crois qu'j'suis un rappeur, j'vais venir te niquer dans la boite Direct Rêve plus trop, j'fume même plus Même plus, ça fait qu'j'suis un nervax Nerveux Trou du cul Trou du cul, ta sécu Ta sécu Elle s'fait hagar par deux potes Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'achète des nouveaux habits, j'achète un nouveau fusil Un peu près cinq cent chevaux, que quand j'suis bourré que j'vais vite Aïe-aïe, aïe-aïe J'sors du hbs mais t'inquiètes, Suge il s'occupe ds affaires À fond Un million On, deux millions On, la mama vient t'kill au bled À fond Arrête tes bleh cousine Arrête, arrête tes bleh cousine Arrête Elle veut la montre, elle veut la gov', elle veut le jacuzzi Sche-por, Lamborghini, en Fendi, Burberry Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'recompte un peu, j'mets de côté, j'prends un autre élastique Sur la route du succès, j'ai merdé, là j'suis menotté Oh, merde J'vais pas t'ramener la lune, soit tu suces ou rentre chez ta mère On fait l'salaire du Barca, on fait rentrer plus d'300k 300 J'donne tout aux ents-cli, j'vais rien garder pour ses lopes-sa Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre K deux A, 2.7.0 2.7, j'sors la Kala' comme Koba 2.7 T'es une tchoin, un flocko, tu vas pas nous apprendre c'qu'on sait déjà S, S, SE, SE J'prends ta sur et l'gros moteur, t'as capté, j'suis né sans cur Mes poches sont remplies de sous, les diamants dansent sur mon cou Bah-bah, bah-bah J'cuisine la dope toute la night, j'suis en slip comme Walter White Pas l'time pour les un contre un, t'as vu, c'est l'9.3, 9.1 S.E J'fais les mélanges comme un chimiste, j'vide deux-trois chargeurs comme Ramis J'veux les grosses têtes de me-da, ça sent les porcs faut mé-da Arrête tes bleh cousine Arrête, arrête tes bleh cousine Arrête Elle veut la montre, elle veut la gov', elle veut le jacuzzi Sche-por, Lamborghini, en Fendi, Burberry Aïe-aïe-aïe, aïe-aïe, aïe-aïe J'recompte un peu, j'mets de côté, j'prends un autre élastique Sur la route du succès, j'ai merdé, là j'suis menotté Oh, merde J'vais pas t'ramener la Lune, soit tu suces ou rentre chez ta mère On fait l'salaire du Barça, on fait rentrer plus d'300k 300 J'donne tout aux ents-cli, j'vais rien garder pour ses lopes-sa Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre Même quand j'suis saoul, j'm'en sers un autre Même quand j'suis saoul, j'm'en sers un autre Et quand elle m'saoule, j'en baise une autre Et quand elle m'saoule, j'en baise une autre1</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4811,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Bellek track Oh-oh-oh Hey, j'y pense à fond dans l'Velar La plupart d'ceux qui jalousent, ces gros bouffons ne valent rien J'ai dû virer les tes-trai, recréer d'autres sociétés J'ai dû virer les tes-trai, recréer d'autres sociétés Clique paw, babe ton cur que j'touche Une clope, une mass', j'dégaine ma OG Kush D'temps en temps j'change de cachette J'nettoie la gâchette et j'récupère un peu de cash Moi j'sais très bien qu'elle bluff quand elle parle d'être l'élu d'mon cur Putain, j'peux pas lui dire, j'aime trop sa degz' et son odeur Moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé Oh-oh-oh, oh-oh-oh J'préfère qu'on s'dise les choses Un peu d'sexe, un peu d'amour J'finirais pas d'faire du mal, d'ramasser à la p'tite cuillère Dix heures du mat' au tel-hô, position cuillère Oh-oh-oh, oh-oh-oh You might also like J'ai que fais d'donner, donner, j'suis trop souvent dans l'déni Hagrah gratuit pour toutes ces putes qui dénigrent Et l'autre boloss de zipette veut sa coca', veut faire d'la luge Trois heures et d'mi du sbah dans ma cellule, j'reçois qu'des nudes C'est p't-être mieux d'essayer d'pardonner Ça pourrait p't-être m'apaiser, ça pourrait p't-être m'apaiser J'récup' mon cur en morceaux, c'est ça d'rester trop entier J'récup' mon cur en morceaux, c'est ça d'rester trop entier Moi j'sais très bien qu'elle bluff quand elle parle d'être l'élu d'mon cur Putain, j'peux pas lui dire, j'aime trop sa degz' et son odeur Et moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé Oh-oh-oh, oh-oh-oh J'préfère qu'on s'dise les choses Un peu d'sexe, un peu d'amour J'finirais pas d'faire du mal, d'ramasser à la p'tite cuillère Dix heures du mat' au tel-hô, position cuillère Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé</t>
+          <t>Bellek track Oh-oh-oh Hey, j'y pense à fond dans l'Velar La plupart d'ceux qui jalousent, ces gros bouffons ne valent rien J'ai dû virer les tes-trai, recréer d'autres sociétés J'ai dû virer les tes-trai, recréer d'autres sociétés Clique paw, babe ton cur que j'touche Une clope, une mass', j'dégaine ma OG Kush D'temps en temps j'change de cachette J'nettoie la gâchette et j'récupère un peu de cash Moi j'sais très bien qu'elle bluff quand elle parle d'être l'élu d'mon cur Putain, j'peux pas lui dire, j'aime trop sa degz' et son odeur Moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé Oh-oh-oh, oh-oh-oh J'préfère qu'on s'dise les choses Un peu d'sexe, un peu d'amour J'finirais pas d'faire du mal, d'ramasser à la p'tite cuillère Dix heures du mat' au tel-hô, position cuillère Oh-oh-oh, oh-oh-oh J'ai que fais d'donner, donner, j'suis trop souvent dans l'déni Hagrah gratuit pour toutes ces putes qui dénigrent Et l'autre boloss de zipette veut sa coca', veut faire d'la luge Trois heures et d'mi du sbah dans ma cellule, j'reçois qu'des nudes C'est p't-être mieux d'essayer d'pardonner Ça pourrait p't-être m'apaiser, ça pourrait p't-être m'apaiser J'récup' mon cur en morceaux, c'est ça d'rester trop entier J'récup' mon cur en morceaux, c'est ça d'rester trop entier Moi j'sais très bien qu'elle bluff quand elle parle d'être l'élu d'mon cur Putain, j'peux pas lui dire, j'aime trop sa degz' et son odeur Et moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé Oh-oh-oh, oh-oh-oh J'préfère qu'on s'dise les choses Un peu d'sexe, un peu d'amour J'finirais pas d'faire du mal, d'ramasser à la p'tite cuillère Dix heures du mat' au tel-hô, position cuillère Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Moi de base, j'voulais que briller Mais putain d'merde, la canine ils m'ont grillé</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4828,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Oh, oh hey Oh oh, yeah oh Oh, yeah Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah J'barode à fond dans la ville et dans l'Audi, ça pue l'herbe eh eh Curly, gros boule et yeux verts, j'ai dû faire une marche arrière eh eh Excuse-moi, copine, t'es très charmante, pourquoi tu marches, dis-moi tu vas où ? Oh, ça tombe bah, vas-y, monte, j'te dépose, c'est sur ma route Et elle s'tape le tableau de bord, avec tous les boutons qu'il y a, on dirait un hélicoptère Mademoiselle, n'aie pas peur, si y'a les keufs, pète une clope Excuse-moi s'te plaît c'est quoi ton blase ? On dirait qu't'ai croisé quelque part Ou surement j'ai vu ton Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles You might also like Yeah Une tonne de messages, ça a commencé d'Insta' eh eh Mais comme c'est trop mé-cra, j'ai dû t'rajouter sur Snap' eh eh À la base, c'était que pour la wet, comme j'ai du buzz, la fe-meu s'attache Et vu que j'lui mets super trop bien, quand elle , elle veut qu'j'lâche ça Elle croit que j'vais la marier parce qu'elle a l'plus gros tard-pé au monde, plutôt crever J'ai des principes, des valeurs, et ça, j'peux pas les changer yeah Maintenant ,je sais c'est quoi ton blase, c'est toi qui tourne dans toutes les caves Hier, on m'a parlé de toi Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles</t>
+          <t>Oh, oh hey Oh oh, yeah oh Oh, yeah Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah J'barode à fond dans la ville et dans l'Audi, ça pue l'herbe eh eh Curly, gros boule et yeux verts, j'ai dû faire une marche arrière eh eh Excuse-moi, copine, t'es très charmante, pourquoi tu marches, dis-moi tu vas où ? Oh, ça tombe bah, vas-y, monte, j'te dépose, c'est sur ma route Et elle s'tape le tableau de bord, avec tous les boutons qu'il y a, on dirait un hélicoptère Mademoiselle, n'aie pas peur, si y'a les keufs, pète une clope Excuse-moi s'te plaît c'est quoi ton blase ? On dirait qu't'ai croisé quelque part Ou surement j'ai vu ton Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah Une tonne de messages, ça a commencé d'Insta' eh eh Mais comme c'est trop mé-cra, j'ai dû t'rajouter sur Snap' eh eh À la base, c'était que pour la wet, comme j'ai du buzz, la fe-meu s'attache Et vu que j'lui mets super trop bien, quand elle , elle veut qu'j'lâche ça Elle croit que j'vais la marier parce qu'elle a l'plus gros tard-pé au monde, plutôt crever J'ai des principes, des valeurs, et ça, j'peux pas les changer yeah Maintenant ,je sais c'est quoi ton blase, c'est toi qui tourne dans toutes les caves Hier, on m'a parlé de toi Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4845,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Oh, oh hey Oh oh, yeah oh Oh, yeah Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah J'barode à fond dans la ville et dans l'Audi, ça pue l'herbe eh eh Curly, gros boule et yeux verts, j'ai dû faire une marche arrière eh eh Excuse-moi, copine, t'es très charmante, pourquoi tu marches, dis-moi tu vas où ? Oh, ça tombe bah, vas-y, monte, j'te dépose, c'est sur ma route Et elle s'tape le tableau de bord, avec tous les boutons qu'il y a, on dirait un hélicoptère Mademoiselle, n'aie pas peur, si y'a les keufs, pète une clope Excuse-moi s'te plaît c'est quoi ton blase ? On dirait qu't'ai croisé quelque part Ou surement j'ai vu ton Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles You might also like Yeah Une tonne de messages, ça a commencé d'Insta' eh eh Mais comme c'est trop mé-cra, j'ai dû t'rajouter sur Snap' eh eh À la base, c'était que pour la wet, comme j'ai du buzz, la fe-meu s'attache Et vu que j'lui mets super trop bien, quand elle , elle veut qu'j'lâche ça Elle croit que j'vais la marier parce qu'elle a l'plus gros tard-pé au monde, plutôt crever J'ai des principes, des valeurs, et ça, j'peux pas les changer yeah Maintenant ,je sais c'est quoi ton blase, c'est toi qui tourne dans toutes les caves Hier, on m'a parlé de toi Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles</t>
+          <t>Oh, oh hey Oh oh, yeah oh Oh, yeah Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah J'barode à fond dans la ville et dans l'Audi, ça pue l'herbe eh eh Curly, gros boule et yeux verts, j'ai dû faire une marche arrière eh eh Excuse-moi, copine, t'es très charmante, pourquoi tu marches, dis-moi tu vas où ? Oh, ça tombe bah, vas-y, monte, j'te dépose, c'est sur ma route Et elle s'tape le tableau de bord, avec tous les boutons qu'il y a, on dirait un hélicoptère Mademoiselle, n'aie pas peur, si y'a les keufs, pète une clope Excuse-moi s'te plaît c'est quoi ton blase ? On dirait qu't'ai croisé quelque part Ou surement j'ai vu ton Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles Yeah Une tonne de messages, ça a commencé d'Insta' eh eh Mais comme c'est trop mé-cra, j'ai dû t'rajouter sur Snap' eh eh À la base, c'était que pour la wet, comme j'ai du buzz, la fe-meu s'attache Et vu que j'lui mets super trop bien, quand elle , elle veut qu'j'lâche ça Elle croit que j'vais la marier parce qu'elle a l'plus gros tard-pé au monde, plutôt crever J'ai des principes, des valeurs, et ça, j'peux pas les changer yeah Maintenant ,je sais c'est quoi ton blase, c'est toi qui tourne dans toutes les caves Hier, on m'a parlé de toi Et comme dans l'game j'suis validé, elle voudrait se poser Mais à vrai dire j'ai pas son temps, faut qu'j'récupère des lovés Et que j'm'en bat les couilles du love, être millionnaire c'est mon seul vu C'est fini l'époque du collège, on s'cachait dans les toilettes J'te suppliais ouais, ouais, ouais Tous les soirs, j'suis au studio ou j'suis en classe affaire j'm'allonge tout près des étoiles</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4862,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Hum Boumi' I know, you don't like to do this! Han, han, yeah, yeah Elle est montée dans l'Viano en soirée, le lendemain, elle pense que c'est ma go Go J'sais pas pourquoi au pénave, ces bitchs me repère, attend qu'on fait des saltos Hey, hey, hey, hey Pénard en Californie, j'ai la mallette, le bénéf' du patron Même si j'éternue sur l'bail, cette pétasse m'a quand même dit Pardon Elle voulait le Louis Vuitton, lle voit que j'suis trop dedans Hy J'écrivais assis sur un banc, cette follasse a choisi la vengeance Bijoux, elle a posé pour Chanel, elle enfumé la Cali ensemble Oui Te-tê du réseau, j'ai fait saturer la Lyca' Mon p'tit bigo Pour que j'la charcle un peu d'coco, un pot d'lis-co Et la moitié d'la concu', j'les vois trop comme des cons Ces trous du cul J'l'ai juste effrayé, j'l'aurais fumé dans un autre cas On fait pas trop durer l'suspens Jamais, la dégaine du suspect Toujours Elle est pas si bonne que ça mais bon, tranquille, elle suce, elle baise J'la tte-je cette go À deux-cent quatre-vingt, au bout du virage, y a la poilasse Deux balles de bénéf' dans la pocket après la bagasse You might also like J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop Elle m'a demandé d'rester plus longtemps Elle m'a demandé, obligé qu'j'lui mets Elle sait très bien qu'j'suis pas là tout l'temps J'suis en concert, après, l'showcase J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop J'voulais la garder auprès d'moi mais c'est difficile 'fficile Les flics me mettent en déficit Pas d'sin-cou, tape bise Pas d'bise, rajoute un stick, ouais Carbo' depuis l'époque des Clique C'est la douleur qu'on atténue Quoi ? Elle a pas su qu'on la tenait Woah Le patron, le gangster, à qui elle appartenait ? To-to-to-toh Mes rimes sont légendaires, j'ai sorti mon épée, j'suis grand comme au Parthénon Quoi ? Elle croit qu'on va tartiner, ce soir, on va rien faire à part dîner Cette femme a des secrets à pardonner, à la base, elle pond, maintenant, elle a vu VVS, appartements, elle a rien pu faire à part ter-mon Elle a rien pu faire, à part ter-mon, son cul, j'le baffe, deux-cent fois J'l'ai mé-cra, il fume de la beuh sans moi, c'est Koba, Resval, alors détends-toi Yah, yah, détends-toi Elle veut sa vidange et okay, j'sors mon engin Sa schneck, je la mange, oui, c'est étanche Elle crie C'est étrange quand je tire sa frange Royales sont les chaussures, j'défile pour Lanvin Rentre dans la danse, enfoiré, monte J'écris mes pensées J'écris, j'écris mes pensées Quoi ? Missiles comme Lex Luthor Lex, missiles J'envoie des missiles comme Lex Luthor Quoi ? Quoi ? Tu fais d'la mala, on sait qu'tu dors Elle veut d'la romance, on lui jette une rose Yah, yah Tu fais d'la mala, on sait qu'tu dors J'voulais la garder auprès d'moi mais c'est difficile 'fficile Les flics me mettent en déficit Pas d'sin-cou, tape bise Pas d'bise, rajoute un stick, ouais Carbo' depuis l'époque des Clique J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop Elle m'a demandé d'rester plus longtemps Elle m'a demandé, obligé qu'j'lui mets Elle sait très bien qu'j'suis pas là tout l'temps J'suis en concert, après, showcase J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop</t>
+          <t>Hum Boumi' I know, you don't like to do this! Han, han, yeah, yeah Elle est montée dans l'Viano en soirée, le lendemain, elle pense que c'est ma go Go J'sais pas pourquoi au pénave, ces bitchs me repère, attend qu'on fait des saltos Hey, hey, hey, hey Pénard en Californie, j'ai la mallette, le bénéf' du patron Même si j'éternue sur l'bail, cette pétasse m'a quand même dit Pardon Elle voulait le Louis Vuitton, lle voit que j'suis trop dedans Hy J'écrivais assis sur un banc, cette follasse a choisi la vengeance Bijoux, elle a posé pour Chanel, elle enfumé la Cali ensemble Oui Te-tê du réseau, j'ai fait saturer la Lyca' Mon p'tit bigo Pour que j'la charcle un peu d'coco, un pot d'lis-co Et la moitié d'la concu', j'les vois trop comme des cons Ces trous du cul J'l'ai juste effrayé, j'l'aurais fumé dans un autre cas On fait pas trop durer l'suspens Jamais, la dégaine du suspect Toujours Elle est pas si bonne que ça mais bon, tranquille, elle suce, elle baise J'la tte-je cette go À deux-cent quatre-vingt, au bout du virage, y a la poilasse Deux balles de bénéf' dans la pocket après la bagasse J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop Elle m'a demandé d'rester plus longtemps Elle m'a demandé, obligé qu'j'lui mets Elle sait très bien qu'j'suis pas là tout l'temps J'suis en concert, après, l'showcase J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop J'voulais la garder auprès d'moi mais c'est difficile 'fficile Les flics me mettent en déficit Pas d'sin-cou, tape bise Pas d'bise, rajoute un stick, ouais Carbo' depuis l'époque des Clique C'est la douleur qu'on atténue Quoi ? Elle a pas su qu'on la tenait Woah Le patron, le gangster, à qui elle appartenait ? To-to-to-toh Mes rimes sont légendaires, j'ai sorti mon épée, j'suis grand comme au Parthénon Quoi ? Elle croit qu'on va tartiner, ce soir, on va rien faire à part dîner Cette femme a des secrets à pardonner, à la base, elle pond, maintenant, elle a vu VVS, appartements, elle a rien pu faire à part ter-mon Elle a rien pu faire, à part ter-mon, son cul, j'le baffe, deux-cent fois J'l'ai mé-cra, il fume de la beuh sans moi, c'est Koba, Resval, alors détends-toi Yah, yah, détends-toi Elle veut sa vidange et okay, j'sors mon engin Sa schneck, je la mange, oui, c'est étanche Elle crie C'est étrange quand je tire sa frange Royales sont les chaussures, j'défile pour Lanvin Rentre dans la danse, enfoiré, monte J'écris mes pensées J'écris, j'écris mes pensées Quoi ? Missiles comme Lex Luthor Lex, missiles J'envoie des missiles comme Lex Luthor Quoi ? Quoi ? Tu fais d'la mala, on sait qu'tu dors Elle veut d'la romance, on lui jette une rose Yah, yah Tu fais d'la mala, on sait qu'tu dors J'voulais la garder auprès d'moi mais c'est difficile 'fficile Les flics me mettent en déficit Pas d'sin-cou, tape bise Pas d'bise, rajoute un stick, ouais Carbo' depuis l'époque des Clique J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop Elle m'a demandé d'rester plus longtemps Elle m'a demandé, obligé qu'j'lui mets Elle sait très bien qu'j'suis pas là tout l'temps J'suis en concert, après, showcase J'l'ai trop baisé mais elle voulait trop J'l'ai trop baisé mais elle voulait trop</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4879,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Hmm, la BMF, la BMF, hmm, la BMF Ah-Ah-Ah Ouh Ah-Ah-Ah Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ah Tu peux parler, j'saurai t'faire taire Ah-Ah-Ah Déters puis élémentaires Ah-Ah-Ah La repu, y a pas d'secrets Y'a pas d'secrets, la repu, y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ça r'ssemble à un trafic, les p'tits bleus, ils pistent Me demande pas, tu sais bien sûr qui j'pisse J'fais pas la fêt quand j'récupère une kich' Il fait la machine, il fait l Mitch Mais va tout seule et une teuch Beuh dans l'équipe, pas b'soin d'plus Pas b'soin d'ces pédés le violet on pense à la puse, faut beaucoup d'puse Pris dans le courant, le retour en coursi Fichier dans ta que-ban, j'connais c'lui qu'à tout pris J'connais celle qui bosse, celle qui tourne comme une toupie Une bombonne à bord, attention, bébé fragile Les vilains dehors qui essaient de nous pièger, qu'ils prend ta porte, c'est pas l' Jette pas les preuves, nous on brûle les déchets On fait pas de pranks, des trucs près d'l'abdomen You might also like Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete faut qu'j'arrete J'veski mais ça m'rattrape Veski, veski, veski, veski J'veski mais ça m'rattrape Ah Tu peux parler, j'saurai t'faire taire Déters puis élémentaires Élémentaires La rue pue, y a pas d'secrets Y'a pas d'secrets, la rue pue y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ah-Ah-Ah J'veski mais ça m'rattrape sa mère la pute, comme les poucaves, les balles dans l'but Dans l'but Moi, j'aimerais bien avancer sans rancune mais j'suis rodave par l'biss' de stup À SNO, j'aimerais tout lui donner donner, mais j'suis rempli de putes, de Jack Honey Oh-oh J'aimerais tout lui donner Ah, mais j'suis rempli de putes, de Jack Honey J'arrive en bas du stud', j'essaie de rallumer mon coliba J'avoue là, j'ai fait l'con, j'avais pas rodave les keufs derrière moi J'lui donne des papiers à mon nom C'fils de pute m'dit, il dit qu'il veut me ram'ner en G.A.V Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete c'est encore il faut qu'j'arrete J'veski mais ça m'rattrape J'veski mais ça m'rattrape Tu peux parler, j'saurai t'faire taire Ah-Ah-Ah Déters puis élémentaires Élémentaires La rue pue, y a pas d'secrets Y'a pas d'secrets, la rue pue y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape</t>
+          <t>Hmm, la BMF, la BMF, hmm, la BMF Ah-Ah-Ah Ouh Ah-Ah-Ah Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ah Tu peux parler, j'saurai t'faire taire Ah-Ah-Ah Déters puis élémentaires Ah-Ah-Ah La repu, y a pas d'secrets Y'a pas d'secrets, la repu, y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ça r'ssemble à un trafic, les p'tits bleus, ils pistent Me demande pas, tu sais bien sûr qui j'pisse J'fais pas la fêt quand j'récupère une kich' Il fait la machine, il fait l Mitch Mais va tout seule et une teuch Beuh dans l'équipe, pas b'soin d'plus Pas b'soin d'ces pédés le violet on pense à la puse, faut beaucoup d'puse Pris dans le courant, le retour en coursi Fichier dans ta que-ban, j'connais c'lui qu'à tout pris J'connais celle qui bosse, celle qui tourne comme une toupie Une bombonne à bord, attention, bébé fragile Les vilains dehors qui essaient de nous pièger, qu'ils prend ta porte, c'est pas l' Jette pas les preuves, nous on brûle les déchets On fait pas de pranks, des trucs près d'l'abdomen Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete faut qu'j'arrete J'veski mais ça m'rattrape Veski, veski, veski, veski J'veski mais ça m'rattrape Ah Tu peux parler, j'saurai t'faire taire Déters puis élémentaires Élémentaires La rue pue, y a pas d'secrets Y'a pas d'secrets, la rue pue y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape Ah-Ah-Ah J'veski mais ça m'rattrape sa mère la pute, comme les poucaves, les balles dans l'but Dans l'but Moi, j'aimerais bien avancer sans rancune mais j'suis rodave par l'biss' de stup À SNO, j'aimerais tout lui donner donner, mais j'suis rempli de putes, de Jack Honey Oh-oh J'aimerais tout lui donner Ah, mais j'suis rempli de putes, de Jack Honey J'arrive en bas du stud', j'essaie de rallumer mon coliba J'avoue là, j'ai fait l'con, j'avais pas rodave les keufs derrière moi J'lui donne des papiers à mon nom C'fils de pute m'dit, il dit qu'il veut me ram'ner en G.A.V Sommet d'la veille, c'est encore dans ma tête, il faut qu'j'arrete c'est encore il faut qu'j'arrete J'veski mais ça m'rattrape J'veski mais ça m'rattrape Tu peux parler, j'saurai t'faire taire Ah-Ah-Ah Déters puis élémentaires Élémentaires La rue pue, y a pas d'secrets Y'a pas d'secrets, la rue pue y a pas d'secrets J'veski mais ça m'rattrape J'veski mais ça m'rattrape</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Koba_La_D_songs.xlsx
+++ b/data/02_intermediate/cleaned_Koba_La_D_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Picsou</t>
+          <t>18 piges</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Discographie - Gazo Mixtape - 20210226 Gazo - DRILL FR - 20220701 Gazo - KMT Single - 20120814 Bramsou - Freestyle Vidéo - 20151216 Bramsou - La monnaie m'appel - 20160829 Bramsou - Panda Freestyle Remix - 20160829 Bramsou - Freestyle - 20161202 Bramsou - Freestyle OKLMIMI - 20170512 Bramsou - À ma table - 20170816 Bramsou - M.G.B.Z - 20171215 Bramsou - Real Nigga - 20180802 Bramsou - Skeuleuh - 20180831 Bramsou - La repue - 20181109 Bramsou - Geushlard - 20190224 Bramsou - Bails sales - 20191010 Gazo - Drill FR 1 - 20191220 Gazo - Drill FR 2 - 20200221 Gazo - Drill FR 3 - 20200404 Gazo - Drill Time - 20200510 Gazo - Acte de Burberry - 20200617 Gazo - Drill FR 4 - 20200827 Gazo - Inceste - 20200927 Gazo - Freestyle WESH - 20201002 Gazo - DRILL FR 5 - 20201211 Gazo - TCHIN 2X - 20210114 Gazo - KASSAV - 20210219 Gazo - Booska Poignard - 20210225 Gazo - AAP - 20210324 Gazo - ON A - 20210429 Gazo - HAINESEX - 20210429 Gazo - INHUMAIN - 20210610 Gazo - Gazo sur Couvre Feu - 20211001 Gazo - Tmax - 20211008 Gazo - GROKUWA - 20211011 Gazo - Aluminium - 20211119 Gazo - MAUVAIS 2X - 20220511 Gazo - CELINE 3X - 20220530 Gazo - MOLLY - 20220628 Gazo - RAPPEL - 20221027 Gazo - HENNESSY Featuring - 20150308 Yayo - Maîtres du temps - 20171114 Z-17 - Connexion - 20190721 Suwoogang - Bomboclatt - 20191220 Pikos - Investit - 20200717 Jeff - LSD - 20200924 Dosseh - Place de l'Étoile - 20201008 Pa Salieu - Bang Out Kwes Darko Remix - 20201106 Ismo Z17 - Baby - 20201106 Gims - ORO JACKSON - 20201107 Django - LCQS - 20201218 Kaaris - Five O - 20201218 JuL - Dors on te piétin - 20210108 Mister V - Gas - 20210129 Dadinho - Sucré Dadi - 20210203 S.Pri Noir - AR Saison 999 - 20210205 Hamza - Spaghetti - 20210312 Kore - Mssage groupé - 20210318 ASHE 22 - X3 - 20210604 Tony Effe - Ke Lo Ke - 20210618 Koba LaD - Daddy chocolat - 20210618 Diaxal - Maracas - 20210621 Hache-P - Canon - 20210625 Frenetik - Armé et dangereux - 20210702 Unité - Kalitada - 20210716 HIMRA - Grrr pa - 20210723 Kalash - Tu le sais - 20210909 Joker MF - Fantastique - 20210910 Sam's - Validé II - 20211001 Cheu-B - Catch'Opps - 20211029 Leto - Big Meech - 20211105 Le Classico Organisé - Le classico organisé - 20211119 Tayc - B O N M A U V A I S - 20211126 Tiitof - M'en aller - 20211210 Kim - Love Lové - 20220128 Baby Gang - Shoot - 20220211 Timal - Filtré - 20220309 Rapi Sati - My Men - 20220310 Rsko - 100 Mi-Temps - 20220318 Kima - J'encaisse - 20220318 DA Uzi - On se reverra plus - 20220325 Franglish - Big Drip - 20220325 Russ Millions, SwitchOTR YV - One of a Kind Music Presents Reggae Calypso Remix - 20220401 Dadju - Picsou - 20220429 Kalash - Qwer - 20220519 Headie One - 22 Carats - 20220527 SEVEN 7oo - SPACCIATORE - 20220527 Tiakola - Mode AV - 20220603 Capo Plaza - Everyday Everynight - 20220617 Naps - Vamos - 20220930 Luciano - Moonlight - 20221104 Rondodasosa - KILLY DEMON - 20221125 Niska - R.A.S - 20221209 Ronisia - 200 KMH</t>
+          <t>Et vu qu'j'ai commencé, c'est bon, je n'peux plus m'arrêter, revendre de la dope, coffré-coffré, réinvestir Faire des allers sur l'terrain et par mettre n'importe quel guetteur, l'obligé a v'nir à l'heure si il veut que j'le paye à l'heure D'la ppe-fra, deux virgule deux sur la pookie, on l'démarre, on l'démonte si tu pookie C'est moi qu'encaisse, les autres regardent, j'ai un échant', qu'est-ce t'en dis ? Tu prends ou pas ? L'illicite, ta vie, par l'même train de vie qu'auparavant, suis-moi si tu veux, rien n'est factice, non, tout est vrai Du pilon et d'la beuh, j'suis solo dans ma bulle, les vingt-deux, on les boule, ici, que des transac' en balle Plusieurs kilos, police va t'faire enculer, j'ai l'meilleur bédo, va pas les voir, ils vont t'quilla' Vu que je gère la mélo', la musique ramène des milliers J'ai mouillé l'maillot, j'ai trimé et maintenant j'ai des liasses de mille Aujourd'hui, j'ai un compte en banque, j'ai la dégaine toujours impec' Et vu qu'c'est moi qu'a la technique, le rap de c'est pute, c'est que d'me tacler Moi, j'suis serein qu'avec ma bande, vu qu'j'avance, les autres boudent Et belek, sois pas trop bête, plus tu manges des sous, plus t'auras d'nouveaux potes Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page J'ai commencé au gramme, maintenant, j'récup' des kilos, j'suis resté fidèle aux miens, j'ai pas bougé frère, t'inquiète Rabattue sans arrêt, j'ai postiché avant d'gérer et pour me faire respecter, j'ai dû rester dans les bagarres Tu peux essayer mais bon, t'es nul, ça sert a rien de forcer, t'auras niette Si t'écoute tous c'qu'il dise, pour toi, c'est mort, ils ont rien fait ses mythos Ses shlagues, j'te jure qu'ils mentent Des sous, des sapes, des meufs, j'fais même bosser la mi-f' La mi-f', la mi-f' Y a l'Seven, y a la Mafia, j't'éclate ta mère, m'en fous M'en fosu, m'en fous J'suis souvent sur le rrain-te, donc tous les jours, rien qu'ça rentre et si t'es pas des nôtres, sur la plaquette, j't'allume T'auras rien d'autre si j'nique des restes et à la fin, il en restera qu'un J'ai pas eu peur de prendre des risques, j'ai cassé la vitre, j'ai volé la montre J'ai rien gardé, j'ai tout revendue, plus vite tu vends, plus vite je suis payé Vois les keufs avant qu'ils t'vois, ça s'ra plus facile pour les esquiver J'gratte tout-par comme un rat, j'vais poser partout, part Du moment qu'ça tir-pa et qui paye son temps en tout et en heure Et si tu dois des dettes, surtout, si c'est le prix d'une dotes J'te parle pas de tête à tête, si tu v'-esqui les dates, c'est mort Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>18 piges</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Et vu qu'j'ai commencé, c'est bon, je n'peux plus m'arrêter, revendre de la dope, coffré-coffré, réinvestir Faire des allers sur l'terrain et par mettre n'importe quel guetteur, l'obligé a v'nir à l'heure si il veut que j'le paye à l'heure D'la ppe-fra, deux virgule deux sur la pookie, on l'démarre, on l'démonte si tu pookie C'est moi qu'encaisse, les autres regardent, j'ai un échant', qu'est-ce t'en dis ? Tu prends ou pas ? L'illicite, ta vie, par l'même train de vie qu'auparavant, suis-moi si tu veux, rien n'est factice, non, tout est vrai Du pilon et d'la beuh, j'suis solo dans ma bulle, les vingt-deux, on les boule, ici, que des transac' en balle Plusieurs kilos, police va t'faire enculer, j'ai l'meilleur bédo, va pas les voir, ils vont t'quilla' Vu que je gère la mélo', la musique ramène des milliers J'ai mouillé l'maillot, j'ai trimé et maintenant j'ai des liasses de mille Aujourd'hui, j'ai un compte en banque, j'ai la dégaine toujours impec' Et vu qu'c'est moi qu'a la technique, le rap de c'est pute, c'est que d'me tacler Moi, j'suis serein qu'avec ma bande, vu qu'j'avance, les autres boudent Et belek, sois pas trop bête, plus tu manges des sous, plus t'auras d'nouveaux potes Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page J'ai commencé au gramme, maintenant, j'récup' des kilos, j'suis resté fidèle aux miens, j'ai pas bougé frère, t'inquiète Rabattue sans arrêt, j'ai postiché avant d'gérer et pour me faire respecter, j'ai dû rester dans les bagarres Tu peux essayer mais bon, t'es nul, ça sert a rien de forcer, t'auras niette Si t'écoute tous c'qu'il dise, pour toi, c'est mort, ils ont rien fait ses mythos Ses shlagues, j'te jure qu'ils mentent Des sous, des sapes, des meufs, j'fais même bosser la mi-f' La mi-f', la mi-f' Y a l'Seven, y a la Mafia, j't'éclate ta mère, m'en fous M'en fosu, m'en fous J'suis souvent sur le rrain-te, donc tous les jours, rien qu'ça rentre et si t'es pas des nôtres, sur la plaquette, j't'allume T'auras rien d'autre si j'nique des restes et à la fin, il en restera qu'un J'ai pas eu peur de prendre des risques, j'ai cassé la vitre, j'ai volé la montre J'ai rien gardé, j'ai tout revendue, plus vite tu vends, plus vite je suis payé Vois les keufs avant qu'ils t'vois, ça s'ra plus facile pour les esquiver J'gratte tout-par comme un rat, j'vais poser partout, part Du moment qu'ça tir-pa et qui paye son temps en tout et en heure Et si tu dois des dettes, surtout, si c'est le prix d'une dotes J'te parle pas de tête à tête, si tu v'-esqui les dates, c'est mort Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Et au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page Dégaine des vingt, des dix, là-bas pour que les autres se taisent Pour que les autres se taisent Un teh, plus personne bouge et au long d'mes dix-huit piges Au long d'mes dix-huit piges C'est moi qui braque le game, on m'a dit de tout prendre On m'a dit de tout prendre Donc, j'vais rien leurs laissé et ensuite, tourné la page Et ensuite, tourné la page</t>
+          <t>Ouh, ouh, ouh Skrt Oh-oh-oh-oh Dany Synthé, que la SACEM, ouh! Bye, bye, bye, bye, bye, bye RS, j'suis sur l'trafic, han En RS, j'suis sur l'trafic, les deux-mille quatre, ils trafiquent, oh-oh En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'peux t'faire vivre un film d'horreur Horreur, comme un .44 ou un Sig Saueur Dans le Rovr, en 4x4, y a trop d'power, qui t'a dit qu'la plata faisait pas l'bonheur ? Plin d'commissions, ça bosse, j'suis comme Transporteur, j'ai tout mis dans l'coffre J'te commande, j'ai pas la force, c'est pas ces zemels qui remplissent ma poche Ouh, ouh Plavon, minimum 10K, j'te guette du coin d'l'il, Mona Lisa Ouh, j'prends des infos pour retourner chez toi Ciel étoilé dans tout l'habitacle Ah bon, tout c'qu'on raconte, c'est que du réel, j'les ai rodaves tous ces lokutas J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'vais faire tourner l'biss' dans la tess mais les p'tits d'la tess ramènent les keufs à la tess Ces cons J'voulais jouer en Équipe de France mais regarde, j'suis en showcase partout dans la France Woh D'la beuh et du Jack pour la te-fê Pour la soirée, un papillon noir sur la sse-f' Eh-eh Elle est bonne, sa mère mais la baiser, c'est bof, .38 Spéc' pour les histoires de bouffons, putain d'merde Détér' comme un DZ, tu sais qu'j'suis un homme, si tu m'prends pas au sérieux, tu goûteras au chromé Ouh, ouh J'refais la déco', j'crame pas ma ganache, j'fais parler les bastos, j'finis tout en beauté Beauté Défoncé, dans la ville, j'fais des drifts Ouais, j'débranche mon p'tit pour des selfies J'ai tapé l'Polo, en plein Bériz, j'suis maudit, j'prie pour ma vie, j'me tue les poumons sous kheriz J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah Bye, bye, bye, bye, bye, bye, bye</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>4 Tellies</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh Skrt Oh-oh-oh-oh Dany Synthé, que la SACEM, ouh! Bye, bye, bye, bye, bye, bye RS, j'suis sur l'trafic, han En RS, j'suis sur l'trafic, les deux-mille quatre, ils trafiquent, oh-oh En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'peux t'faire vivre un film d'horreur Horreur, comme un .44 ou un Sig Saueur Dans le Rovr, en 4x4, y a trop d'power, qui t'a dit qu'la plata faisait pas l'bonheur ? Plin d'commissions, ça bosse, j'suis comme Transporteur, j'ai tout mis dans l'coffre J'te commande, j'ai pas la force, c'est pas ces zemels qui remplissent ma poche Ouh, ouh Plavon, minimum 10K, j'te guette du coin d'l'il, Mona Lisa Ouh, j'prends des infos pour retourner chez toi Ciel étoilé dans tout l'habitacle Ah bon, tout c'qu'on raconte, c'est que du réel, j'les ai rodaves tous ces lokutas J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique J'vais faire tourner l'biss' dans la tess mais les p'tits d'la tess ramènent les keufs à la tess Ces cons J'voulais jouer en Équipe de France mais regarde, j'suis en showcase partout dans la France Woh D'la beuh et du Jack pour la te-fê Pour la soirée, un papillon noir sur la sse-f' Eh-eh Elle est bonne, sa mère mais la baiser, c'est bof, .38 Spéc' pour les histoires de bouffons, putain d'merde Détér' comme un DZ, tu sais qu'j'suis un homme, si tu m'prends pas au sérieux, tu goûteras au chromé Ouh, ouh J'refais la déco', j'crame pas ma ganache, j'fais parler les bastos, j'finis tout en beauté Beauté Défoncé, dans la ville, j'fais des drifts Ouais, j'débranche mon p'tit pour des selfies J'ai tapé l'Polo, en plein Bériz, j'suis maudit, j'prie pour ma vie, j'me tue les poumons sous kheriz J'ai fait les quatre cents coups, fallait bien qu'on brasse Connais, connais Sur l'bitume, en C.P, j'ai connu les galères et les coups d'crasses Aye, aye, aye, aye, aye, aye, aye Ça date pas d'hier qu'on brasse En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift Ouh M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Aye, aye, aye, aye, aye, aye, les kichtas, dans l'élastique En RS, j'suis sur l'trafic Trafic, les deux-mille quatre, ils trafiquent Trafiquent M Power, j'suis sous la pluie, sous pookie, à tout moment, j'pars en drift En drift M Power, j'suis sous la pluie, pluie Ouh, ouh, à tout moment, j'pars en drift En drift J'mets le produit sous le plastique Okay, les kichtas, dans l'élastique M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah M Power, j'suis sous la pluie, ça glisse, hein, ah-ah Bye, bye, bye, bye, bye, bye, bye</t>
+          <t>YassineBeats Tss, tss 3robi, ik race naar m'n doel, ik focus op tienen, ga stappen omhoog Très Balenciaga m'n schoen, ik ben op verdienen, wil kamers met dough Y-Y-Yassine B-B-Beats, pow Kan ook switchen van flow, ik kan ook switchen op iemand voor dough Mathafack Fissa mattie, ander land, chieba's geef ik platte hand Kankerchieba Ben op groen, vasteland, en ik heb geen vaste land Want je ziet me in Spain of Casablanca en we komen van pain Koppig mathafacker voor die koppen, al die fatomannen willen mij nu stoppen Ik bn niet te stoppen, mattie, wellou chauffeur Hah Zelfde patta, maar andere kleur, andere dag, andere geur Ander biljet, mattie, andere kleur, andere dag, andere deur We nemen over en je weet het gebeurt Let op je vrouw, want ik geef 'r een beurt Pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies En m'n stack, die gaat omhoog Hoog En je mannen, die gaan laag Laag En ik zie die vieze ogen, dus die fatoemannen die zeggen we, Dag Dag Zag honderdtachtig op de bank Op de bank Rij honderdtachtig op de weg Tss, tss Wellou permis, maar ik ga d'r vandoor Ik wil ook laag in die Aventador Op de sjans, in de avond kantoor Op de sjans, in de avond kantoor, pow Ik ben met goons en ze zijn ready Ja, rah Jonge Mocro's met die Kalash Kalash, tss Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Ah On n'a pas claqué des doigts, y a eu des déceptions Y a eu des perquis', des descentes, v'là les saisies Mais ça va, même si il fait moins dix, faut qu'ça vende Viens ici, j'vais t'montrer c'qu'on peut faire avec du savon Sur l'terrain, pour l'instant, je fais que d'coffrer, on verra Là, j'suis dans l'FeFe, gros bisous du vaurien En vrai, frère, laisse tomber la gentillesse, travaille ta force Crois-moi, frère, j'me suis fait khapta par mes potes d'enfance Koba du sept, boy, j'ai toujours pas bougé du bendo Sous rodave, j'ai roulé le plus gros bédo du pakat Ils prennent le seum quand ils m'voient pétardé en cas d'pétard À part une to-ph', mon p'tit gars, j'peux rien pour toi Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Gang, gang, gang Wa zebi, wa zebi, armé comme le KGB Par la maille, j'suis obsédé Ouais, d'la quali' dans l'OCB Elle m'croise, j'fais des rodéos Spow-pow-pow-pow Poursuivi par la Mondéo, ça hagar balance sous l'préau Elle croit que j'suis fou d'elle, mais poto, rien que j'la baise Les seules femmes qu'j'écoute c'est ma mère et celle du GPS Kilos, Zodiac, proche du , j'traverse la mif', fuck les douanes Sur son gros cul, j'fais du tam-tam, adresse du crime sur le TomTom On a faim, vaffanculo, t'as parlé, tu vas couler Cache-toi, va faire une colo', on va t'trouver et t'goumer Fuck brigades de stup', là puto, plus rien nous stoppe J'fous la merde et j'suis instable, ta grande gueule toi, viens on s'tape Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Spow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow, pow Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Ik sta paraat als een brother me belt Jij bent op bla, mattie, ik ben op geld En die honger geeft me power Pow, pow Jonge jongen, die wordt ouder SB, mathafack, pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow, pow YassineBeats Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Y-Y-Yassine B-B-Beats</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4 Tellies</t>
+          <t>7 Uzi</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>YassineBeats Tss, tss 3robi, ik race naar m'n doel, ik focus op tienen, ga stappen omhoog Très Balenciaga m'n schoen, ik ben op verdienen, wil kamers met dough Y-Y-Yassine B-B-Beats, pow Kan ook switchen van flow, ik kan ook switchen op iemand voor dough Mathafack Fissa mattie, ander land, chieba's geef ik platte hand Kankerchieba Ben op groen, vasteland, en ik heb geen vaste land Want je ziet me in Spain of Casablanca en we komen van pain Koppig mathafacker voor die koppen, al die fatomannen willen mij nu stoppen Ik bn niet te stoppen, mattie, wellou chauffeur Hah Zelfde patta, maar andere kleur, andere dag, andere geur Ander biljet, mattie, andere kleur, andere dag, andere deur We nemen over en je weet het gebeurt Let op je vrouw, want ik geef 'r een beurt Pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies En m'n stack, die gaat omhoog Hoog En je mannen, die gaan laag Laag En ik zie die vieze ogen, dus die fatoemannen die zeggen we, Dag Dag Zag honderdtachtig op de bank Op de bank Rij honderdtachtig op de weg Tss, tss Wellou permis, maar ik ga d'r vandoor Ik wil ook laag in die Aventador Op de sjans, in de avond kantoor Op de sjans, in de avond kantoor, pow Ik ben met goons en ze zijn ready Ja, rah Jonge Mocro's met die Kalash Kalash, tss Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Ah On n'a pas claqué des doigts, y a eu des déceptions Y a eu des perquis', des descentes, v'là les saisies Mais ça va, même si il fait moins dix, faut qu'ça vende Viens ici, j'vais t'montrer c'qu'on peut faire avec du savon Sur l'terrain, pour l'instant, je fais que d'coffrer, on verra Là, j'suis dans l'FeFe, gros bisous du vaurien En vrai, frère, laisse tomber la gentillesse, travaille ta force Crois-moi, frère, j'me suis fait khapta par mes potes d'enfance Koba du sept, boy, j'ai toujours pas bougé du bendo Sous rodave, j'ai roulé le plus gros bédo du pakat Ils prennent le seum quand ils m'voient pétardé en cas d'pétard À part une to-ph', mon p'tit gars, j'peux rien pour toi Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Gang, gang, gang Wa zebi, wa zebi, armé comme le KGB Par la maille, j'suis obsédé Ouais, d'la quali' dans l'OCB Elle m'croise, j'fais des rodéos Spow-pow-pow-pow Poursuivi par la Mondéo, ça hagar balance sous l'préau Elle croit que j'suis fou d'elle, mais poto, rien que j'la baise Les seules femmes qu'j'écoute c'est ma mère et celle du GPS Kilos, Zodiac, proche du , j'traverse la mif', fuck les douanes Sur son gros cul, j'fais du tam-tam, adresse du crime sur le TomTom On a faim, vaffanculo, t'as parlé, tu vas couler Cache-toi, va faire une colo', on va t'trouver et t'goumer Fuck brigades de stup', là puto, plus rien nous stoppe J'fous la merde et j'suis instable, ta grande gueule toi, viens on s'tape Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Spow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries Gekke sel3a voor die clannies Pow, pow, pow Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Ik sta paraat als een brother me belt Jij bent op bla, mattie, ik ben op geld En die honger geeft me power Pow, pow Jonge jongen, die wordt ouder SB, mathafack, pow, pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow Mattie, loesoe met die Merry Heel m'n leven is een rally Mannen hebben vier tellies Heel m'n leven is een rally Eerste patta's zijn die Airies en ik ben met loco drerries, gekke sel3a voor die clannies Pow, pow, pow YassineBeats Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Heel m'n leven is een rally Y-Y-Yassine B-B-Beats</t>
+          <t>Whey, whey, whey, whey Kodes La Barrière, Kodes La Barrière Riley Beatz, we do it better Chaud, chaud, eh-eh, ah-ah-ah-ah Whey Bébé, bienvenue dans le movie Whey Movie, whey Bébé, bienvenue dans le movie, whey Ah-ah, Kodes La Barrière, Kodes La Barrière, Kodes La Barrière, brr, okay On est grave impliqués, sa mère Tu sais, que pour des gros salaires Why J'viens d'commencer la boutille mais la baby a déjà les fesses à l'air Han-han Quand on vient, c'est pour salir Whey, la concu' crie Mince alors Ah-ah-ah, whey, whey Même ta daronne trouve ça lourd Okay Kodes La B, Papa Mélo' Kodes La B, Papa, whey, whey Deux pédales comme sur mon vélo Deux pédales comme sur mon, whey, whey La cagoule et puis, les gants Han-han, brr, la baby a donné l'go Sale pute J'suis dans le fond d'sa gorge et juste après, j'vais lui casser l'dos, bye, bye, bye, bye Un gros cul un lundi Paw, d'une pétasse qui prie tous les dimanches Rah Mes démons m'ont dit Prends-la en doggy Yeah Son pétard sur ma dick fait des pas d'danse Yeah, yeah En TN, en Jo'-Jo' Oh my God, tous les week-ends, j'encaisse comme un ministre Pah Le bruit de sa tte-cha crée des mélo', pendant les coups d'rein, elle crie Chocolat Daddy Ah-ah En conférence avec 2Pac et Biggie Ah, plus Sofar que Para Ah, plus Gucci que Fila Ah-ah J'peux faire la mala sur Paname, j'ai la vida Ah mais j'fais plus gonfler kichta que Prada Ouh J'préfère être du côté du calibre, pas celui qui visé, mon équipe a pas d'âme Eh S.A.N, Kodes La B-gué, les tipers se doigtent, y a le 7 dans les parages Okay Soyez prêts à courir, on arrive, sur les réseaux, préviens qu'on arrive À qui tu crois faire peur avec carabine ? J'ai les contacts, contacts pour sortir le Uzi Baby, bienvenue dans le movie, whey, eh Baby, bienvenue dans le movie, whey, whey J'sors du bloc avec un Uzi Paw, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'arrive avec ma cavalerie Whey, on t'attaque même dans les galeries Whey Que des négros super-méchants qui n'ont pas de peine, ni tiennent à la vie Whey, whey Armé avec bitchies Whey, on va faire une bêtise Whey Big vendetta sur ces putas, la sentence s'ra terrible, pétasse Ouais, la cité Cité, l'avocat porte la kipa Kipa Normal qu'on soit acquittés Eh-eh, trop collante, donc j'vais la quitter Eh-eh Ça bédave que de la djoba Fume, il s'lave pas avec le champi' Personne quand t'es bloqué en bas Pilao ou mataba Y a de la coka Oui, cannabis et du co'-co' T'as que la boca, j'suis ABP, j'mets le co'-co' J'fais pas parti de la concu' Oui, elle veut le faire, elle veut koké Salope La mentale dure comme une pookie, tu m'manques de respect, on te pookie Bicrave, tapage, vol, chien d'la casse, si j'ai pas, j'vole J'me mets pas en perte pour une folle, sous scellé, y a mon téléphone Qu'est-ce qu'elle est belle mais qu'est-ce qu'elle est conne J'voulais des thunes, j'ai quitté l'école J'ai mélangé les kichtas, du shit et d'la neige J'viens pas pour rigoler, j'viens pour récup' ma paie Y a qu'devant la daronne et le daron qu'j'me tais Fils de pute, quand y a ton intérêt, tu m'appelles J'vais leur baiser leurs mères, ils ont pillé mes terres Va sucer la bite à des propriétaires J'me suis fait courser, j'ai fait tomber mon teh Quinze minutes après, chargé sur l'R, j'suis OP J'sors du bloc avec un Uzi Whey, si y a heja, on les bousille Whey, whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey Il faut qu'j'mette fuite Il faut qu'j'mette fuite, sur le parking, j'ai vu la mu'-mu' Mu'-mu' J'm'en bats les couilles, j'suis connu Connu, pour des pesos, on peut t'mettre tout nu Tout nu Il faut qu'j'roule un p'tit, on va l'niquer s'il nous prend pour des p'tits S'il nous prend pour des p'tits Nouveau billet, j'investis, je sais pas, c'est comme ça ici, han Même à la sacoche, les p'tits, han, ils ont deux faces devant les filles, han Igo, on est tous à la tess et on s'éparpille à chaque fois qu'y a les flics, han Si tu veux pas d'histoire, igo, paye dans les temps, j'suis avec IDS sur l'deux temps Parler pour rien, c'est perte de temps, la pute, j'ai trop mougou, c'est bon, m'appelle, plus, j'ai plus l'temps RS3, gris Nardo, RS3 gris, Nardo, wow Bébé, j'ai mal au cur, bébé, j'ai mal au dos, wow J'ai l'fusil, j'suis pas gibier, j'suis d'vant, la balle au pied Devant, la balle au pied, rouler dans un bolide, j'ai l'fusil, j'suis pas gibier J'les calcule plus en c'moment, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants J'les calcule plus en c'moment Wow, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants Wow</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7 Uzi</t>
+          <t>8 ans de salaire</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Whey, whey, whey, whey Kodes La Barrière, Kodes La Barrière Riley Beatz, we do it better Chaud, chaud, eh-eh, ah-ah-ah-ah Whey Bébé, bienvenue dans le movie Whey Movie, whey Bébé, bienvenue dans le movie, whey Ah-ah, Kodes La Barrière, Kodes La Barrière, Kodes La Barrière, brr, okay On est grave impliqués, sa mère Tu sais, que pour des gros salaires Why J'viens d'commencer la boutille mais la baby a déjà les fesses à l'air Han-han Quand on vient, c'est pour salir Whey, la concu' crie Mince alors Ah-ah-ah, whey, whey Même ta daronne trouve ça lourd Okay Kodes La B, Papa Mélo' Kodes La B, Papa, whey, whey Deux pédales comme sur mon vélo Deux pédales comme sur mon, whey, whey La cagoule et puis, les gants Han-han, brr, la baby a donné l'go Sale pute J'suis dans le fond d'sa gorge et juste après, j'vais lui casser l'dos, bye, bye, bye, bye Un gros cul un lundi Paw, d'une pétasse qui prie tous les dimanches Rah Mes démons m'ont dit Prends-la en doggy Yeah Son pétard sur ma dick fait des pas d'danse Yeah, yeah En TN, en Jo'-Jo' Oh my God, tous les week-ends, j'encaisse comme un ministre Pah Le bruit de sa tte-cha crée des mélo', pendant les coups d'rein, elle crie Chocolat Daddy Ah-ah En conférence avec 2Pac et Biggie Ah, plus Sofar que Para Ah, plus Gucci que Fila Ah-ah J'peux faire la mala sur Paname, j'ai la vida Ah mais j'fais plus gonfler kichta que Prada Ouh J'préfère être du côté du calibre, pas celui qui visé, mon équipe a pas d'âme Eh S.A.N, Kodes La B-gué, les tipers se doigtent, y a le 7 dans les parages Okay Soyez prêts à courir, on arrive, sur les réseaux, préviens qu'on arrive À qui tu crois faire peur avec carabine ? J'ai les contacts, contacts pour sortir le Uzi Baby, bienvenue dans le movie, whey, eh Baby, bienvenue dans le movie, whey, whey J'sors du bloc avec un Uzi Paw, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'arrive avec ma cavalerie Whey, on t'attaque même dans les galeries Whey Que des négros super-méchants qui n'ont pas de peine, ni tiennent à la vie Whey, whey Armé avec bitchies Whey, on va faire une bêtise Whey Big vendetta sur ces putas, la sentence s'ra terrible, pétasse Ouais, la cité Cité, l'avocat porte la kipa Kipa Normal qu'on soit acquittés Eh-eh, trop collante, donc j'vais la quitter Eh-eh Ça bédave que de la djoba Fume, il s'lave pas avec le champi' Personne quand t'es bloqué en bas Pilao ou mataba Y a de la coka Oui, cannabis et du co'-co' T'as que la boca, j'suis ABP, j'mets le co'-co' J'fais pas parti de la concu' Oui, elle veut le faire, elle veut koké Salope La mentale dure comme une pookie, tu m'manques de respect, on te pookie Bicrave, tapage, vol, chien d'la casse, si j'ai pas, j'vole J'me mets pas en perte pour une folle, sous scellé, y a mon téléphone Qu'est-ce qu'elle est belle mais qu'est-ce qu'elle est conne J'voulais des thunes, j'ai quitté l'école J'ai mélangé les kichtas, du shit et d'la neige J'viens pas pour rigoler, j'viens pour récup' ma paie Y a qu'devant la daronne et le daron qu'j'me tais Fils de pute, quand y a ton intérêt, tu m'appelles J'vais leur baiser leurs mères, ils ont pillé mes terres Va sucer la bite à des propriétaires J'me suis fait courser, j'ai fait tomber mon teh Quinze minutes après, chargé sur l'R, j'suis OP J'sors du bloc avec un Uzi Whey, si y a heja, on les bousille Whey, whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey J'sors du bloc avec un Uzi Brr, si y a heja, on les bousille Whey Cigare, j'suis dans mon jacuzzi Whey, à côté d'moi, y a mon Uzi Whey, whey, whey, whey, whey Il faut qu'j'mette fuite Il faut qu'j'mette fuite, sur le parking, j'ai vu la mu'-mu' Mu'-mu' J'm'en bats les couilles, j'suis connu Connu, pour des pesos, on peut t'mettre tout nu Tout nu Il faut qu'j'roule un p'tit, on va l'niquer s'il nous prend pour des p'tits S'il nous prend pour des p'tits Nouveau billet, j'investis, je sais pas, c'est comme ça ici, han Même à la sacoche, les p'tits, han, ils ont deux faces devant les filles, han Igo, on est tous à la tess et on s'éparpille à chaque fois qu'y a les flics, han Si tu veux pas d'histoire, igo, paye dans les temps, j'suis avec IDS sur l'deux temps Parler pour rien, c'est perte de temps, la pute, j'ai trop mougou, c'est bon, m'appelle, plus, j'ai plus l'temps RS3, gris Nardo, RS3 gris, Nardo, wow Bébé, j'ai mal au cur, bébé, j'ai mal au dos, wow J'ai l'fusil, j'suis pas gibier, j'suis d'vant, la balle au pied Devant, la balle au pied, rouler dans un bolide, j'ai l'fusil, j'suis pas gibier J'les calcule plus en c'moment, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants J'les calcule plus en c'moment Wow, c'est chelou depuis longtemps Wow Trop chelou depuis longtemps, du sperme sur elle, sur mes diamants Wow</t>
+          <t>C'est Marwa Loud Eh-eh-eh-eh-eh-eh Koba LaD, ehh Koba LaD, D, D, D, D, D, D, D Ouais On s'accroche, on s'décroche même si j'tiens à toi J'peux te perdre par fierté, bébé Viens pas bomber le torse, l'Opinel la roue là va dégonfler Aujourd'hui j'suis dans l'AMG, et j'suis toujours en retard bébé Ouais c'est tout pour les miens Mais si je t'entretiens, tes galères ça devient les miens Même si y'a d'la confiance, c'est dur pour moi de te prendre au mot Si on installe une routine, au fil du temps bah j't'aimerais moins Fructifie l'argent caché, je joue et j'suis type ghetto Elle kiffe le bois d'argent et les sièges baquets du RS, bye bye bye J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron J'sais que tu veux du temps mais bébé j'aime trop le zoo J'suis trop fou, j'crois il faut la camisou Toi tu veux un bisou, moi j'préfère mes bijoux J'vais pas te faire prendre la confiance, demain j'sais pas j'suis où J'les connais toutes, elles kiffent les soirées sur Bariz Tu payes deux trois verres, tu repars avec elle dans la valise Si on fait des sous c'est pas pour toi, c'est pour la miff, eh eh Deux trois mots doux et elle finit comme la tour de Pise, eh eh J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>8 ans de salaire</t>
+          <t>91 c’est le binks</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>C'est Marwa Loud Eh-eh-eh-eh-eh-eh Koba LaD, ehh Koba LaD, D, D, D, D, D, D, D Ouais On s'accroche, on s'décroche même si j'tiens à toi J'peux te perdre par fierté, bébé Viens pas bomber le torse, l'Opinel la roue là va dégonfler Aujourd'hui j'suis dans l'AMG, et j'suis toujours en retard bébé Ouais c'est tout pour les miens Mais si je t'entretiens, tes galères ça devient les miens Même si y'a d'la confiance, c'est dur pour moi de te prendre au mot Si on installe une routine, au fil du temps bah j't'aimerais moins Fructifie l'argent caché, je joue et j'suis type ghetto Elle kiffe le bois d'argent et les sièges baquets du RS, bye bye bye J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron J'sais que tu veux du temps mais bébé j'aime trop le zoo J'suis trop fou, j'crois il faut la camisou Toi tu veux un bisou, moi j'préfère mes bijoux J'vais pas te faire prendre la confiance, demain j'sais pas j'suis où J'les connais toutes, elles kiffent les soirées sur Bariz Tu payes deux trois verres, tu repars avec elle dans la valise Si on fait des sous c'est pas pour toi, c'est pour la miff, eh eh Deux trois mots doux et elle finit comme la tour de Pise, eh eh J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on me connait mais toi je sais pas t'es d'où J'suis habituée à zoner à la rue j'suis abonnée Tu peux d'mander on m'connait, mais toi C'est vrai qu'elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait huit ans de salaire Elle est bonne sa mère, mais la te-té c'est chaud, bah ouais Donc pour la rendre belle sa mère, il faudrait 8 ans Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron Faudrait p'être huit ans de salaire ou bien le bénef d'un litron Avant d'signer ce contrat j'cogite comme Jimmy neutron</t>
+          <t>Grr, paw Paw M.I.G moula, j'en suis sûr que tu connais Grr, paw Aye, aye aye, aye, aye, aye, aye, aye Grr Gros, là, j'suis fonce-dé dans Rotter', guette, au rond-point, ils font d'm'i-tour J'me perds, des fois, quand j'sépare les sous du te-shi, d'la be-her On supprimes les traces et les témoins, de base, j'lai fais pour m'arrêter Mais j'suis trop d'dans et ça m'permet d'coffrer les sous d'la musique J'ai fumé trente joints, j'suis trop pété Que d'la moula, que du filtré Et le rap, j'lui baise, sa mère la pute Avec tout c'qui va avec Gros, depuis, j'ai pris des tales, j'ai pris du kill' Y a eu des pertes mais c'est tranquille, c'est tranquille On fait du biff', on fait du biff' Même si j'suis trop quillé, on y va Woh, binks Sous Jacky, j'ai changer de niveau Woh, binks J'ai sortie le dernier RR du garage Woh, binks J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures Même si j'suis trop quillé, on y va, on y va, on oublie pas les moments d'avants Rrah Même si j'suis trop quillé, on y va, on y va, sur eux, j'crois, j'ai un temps d'avance Toujours dans la Calle Toujours dans la Calle, rrah J'côtoie que des couilles J'côtoie que des couilles, grr, paw J'ai plus l'temps d'm'embrouiller, dans l'local, y a l'fusil à pompe et des douilles Ceux qui voulaient jouer les bandits, ils vont courir Plusieurs fois menotté dans l'Passat Rrah, identifié comme potentiel danger Grr Plusieurs fois, j'ai dormis chez les condés, j'pourrai jamais m'rappeler d'combien J'ai recompter, j'ai enfilé ma cagoule et j'me suis ganté Ta mère t'avais prévenu de pas nous fréquenter Bang, bang À midi, j'suis placer, nique sa mère le Passat Nique sa mère le passé, nique sa mère le passé Même si j'suis trop quillé, on y va Woh Sous Jacky, j'ai changer de niveau Woh J'ai sortie le dernier RR du garage Woh J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures1</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>91 c’est le binks</t>
+          <t>A l’aise</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Grr, paw Paw M.I.G moula, j'en suis sûr que tu connais Grr, paw Aye, aye aye, aye, aye, aye, aye, aye Grr Gros, là, j'suis fonce-dé dans Rotter', guette, au rond-point, ils font d'm'i-tour J'me perds, des fois, quand j'sépare les sous du te-shi, d'la be-her On supprimes les traces et les témoins, de base, j'lai fais pour m'arrêter Mais j'suis trop d'dans et ça m'permet d'coffrer les sous d'la musique J'ai fumé trente joints, j'suis trop pété Que d'la moula, que du filtré Et le rap, j'lui baise, sa mère la pute Avec tout c'qui va avec Gros, depuis, j'ai pris des tales, j'ai pris du kill' Y a eu des pertes mais c'est tranquille, c'est tranquille On fait du biff', on fait du biff' Même si j'suis trop quillé, on y va Woh, binks Sous Jacky, j'ai changer de niveau Woh, binks J'ai sortie le dernier RR du garage Woh, binks J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures Même si j'suis trop quillé, on y va, on y va, on oublie pas les moments d'avants Rrah Même si j'suis trop quillé, on y va, on y va, sur eux, j'crois, j'ai un temps d'avance Toujours dans la Calle Toujours dans la Calle, rrah J'côtoie que des couilles J'côtoie que des couilles, grr, paw J'ai plus l'temps d'm'embrouiller, dans l'local, y a l'fusil à pompe et des douilles Ceux qui voulaient jouer les bandits, ils vont courir Plusieurs fois menotté dans l'Passat Rrah, identifié comme potentiel danger Grr Plusieurs fois, j'ai dormis chez les condés, j'pourrai jamais m'rappeler d'combien J'ai recompter, j'ai enfilé ma cagoule et j'me suis ganté Ta mère t'avais prévenu de pas nous fréquenter Bang, bang À midi, j'suis placer, nique sa mère le Passat Nique sa mère le passé, nique sa mère le passé Même si j'suis trop quillé, on y va Woh Sous Jacky, j'ai changer de niveau Woh J'ai sortie le dernier RR du garage Woh J'ai même pas terminer mon rodage Rrah Même si j'suis trop quillé, on y va Ah J'veux lui montrer un niveau J'suis tout en haut du tel-hô, à té-cô d'la Eiffel Tour Grr 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures 9.1, c'est l'binks Woh ça traîne pas loin des boxes Comme des rats La phrase Ça vient d'où ?, elle fuse comme des snipeurs Mate, mate, renoi La mu'-mu' d'Evry Les bleus, la chatte à son rat Le rrain-te, ouvert, même après dix-huit heures Dix-huit heures1</t>
+          <t>Yvens Beats Des liasses sont tassées, oublie pas l'passé, nous, on aime pas ça Nous, on aime pas ça, non Y a Suge et Kaza, FA2 et l'Prince, putain, j'ai trop mal Putain, j'ai trop mal, non J'suis à la casa, baiser des gros culs, là, j'vais me caser L'histoire est trop sale, l'histoire est trop sale, l'histoire est trop sale J'suis comme un robot, j'suis à Auber', au point B Le dernier gars d'tess, miskine, il s'est fait plomber J'ai laissé l'sche-Por dans l'mur mais bon, c'est pas grave J'ai racheté un M3, les airs pour ses clochards Normalement, j'suis dans l'onz de France mais nique sa mèr, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde, ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise J'le revends, j'achète un autre, j'sais même plus il coûte combien Ça c'joue à quelques millimètres, recommence pas, c'est pour ton bien J'sais plus y a combien sur la montre, j'sais plus y a combien sur ma Rollie Et tout ceux qui veulent m'la mettre, venez, vas-y, venez Liasses de dirham, euros, dollars, trop d'liasses, dans la sacoche J'mets d'la velours, j'prends d'la valeurs, j'veux m'écarter mais que tu t'accroches J'peux t'rebaisé mais j'ai pris mieux, bah, quand tu m'appelles, moi, je raccroches Si t'es avec moi, ma poches c'est t'as poches Normalement, j'suis dans l'onze de France mais nique sa mère, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? Zehma, c'est la rue, toi, tu baise</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A l’aise</t>
+          <t>Amour et haine</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yvens Beats Des liasses sont tassées, oublie pas l'passé, nous, on aime pas ça Nous, on aime pas ça, non Y a Suge et Kaza, FA2 et l'Prince, putain, j'ai trop mal Putain, j'ai trop mal, non J'suis à la casa, baiser des gros culs, là, j'vais me caser L'histoire est trop sale, l'histoire est trop sale, l'histoire est trop sale J'suis comme un robot, j'suis à Auber', au point B Le dernier gars d'tess, miskine, il s'est fait plomber J'ai laissé l'sche-Por dans l'mur mais bon, c'est pas grave J'ai racheté un M3, les airs pour ses clochards Normalement, j'suis dans l'onz de France mais nique sa mèr, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde, ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise J'le revends, j'achète un autre, j'sais même plus il coûte combien Ça c'joue à quelques millimètres, recommence pas, c'est pour ton bien J'sais plus y a combien sur la montre, j'sais plus y a combien sur ma Rollie Et tout ceux qui veulent m'la mettre, venez, vas-y, venez Liasses de dirham, euros, dollars, trop d'liasses, dans la sacoche J'mets d'la velours, j'prends d'la valeurs, j'veux m'écarter mais que tu t'accroches J'peux t'rebaisé mais j'ai pris mieux, bah, quand tu m'appelles, moi, je raccroches Si t'es avec moi, ma poches c'est t'as poches Normalement, j'suis dans l'onze de France mais nique sa mère, pas dig On baise les mêmes pétasses du Sofitel J'ai pris conscience d'mon talent, donc t'as vie, j'vais faire des tales Regarde ta nièce, elle s'ambiance sur mes sons d'vant ta télé' J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Zehma, c'est la rue, toi, tu baise, dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, j'remets mes TN, j'suis à l'aise Dans le rap, dans la rue, on les baisent T'as dis quoi ? Hein ? J'démarre la bécane, j'suis à l'aise, dans l'rap, dans la rue, on les baisent Zehma, c'est la rue, toi, tu baise T'as dis quoi ? Hein ? Zehma, c'est la rue, toi, tu baise</t>
+          <t>Smoke the track Track, track Han, han Han Moi, j'me la pète pas, tu sais Pète pas, tu sais C'est Koba du 7 dans la crypto', les NFT Les NFT Qu'est-ce que c'est bon la vida mais j'suis trop victime d'mon succès Trop sur le T Dans les soucis, pour nous, impossible de sucer J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Hey, m'appelle pas amigo si t'es prêt à m'trahir pour Tchikita Pour Tchikita J'aime trop la ne-zo, ça s'ra difficile d'être fan de toi Tu lahsa ou tu dégages, ce soir, j'ai la flemme qu'on se catchana Qu'on se catchana Pas besoin d'éteindre la lumière, ton gros boule, j'le vois même dans l'noir Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Amour et haine</t>
+          <t>Am stram gram</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Smoke the track Track, track Han, han Han Moi, j'me la pète pas, tu sais Pète pas, tu sais C'est Koba du 7 dans la crypto', les NFT Les NFT Qu'est-ce que c'est bon la vida mais j'suis trop victime d'mon succès Trop sur le T Dans les soucis, pour nous, impossible de sucer J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main J'en reviens pas tout c'qu'elle a fait pour moi, j'lui file un coup d'main, elle m'file un coup d'main C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi Et moi, c'qu'on a pu se dire sous les draps C'est que toi et moi C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Hey, m'appelle pas amigo si t'es prêt à m'trahir pour Tchikita Pour Tchikita J'aime trop la ne-zo, ça s'ra difficile d'être fan de toi Tu lahsa ou tu dégages, ce soir, j'ai la flemme qu'on se catchana Qu'on se catchana Pas besoin d'éteindre la lumière, ton gros boule, j'le vois même dans l'noir Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille Aïe, aïe, aïe, aïe, aïe, presque booké tous les weeks Chaque date une nouvelle 'tasse, j'demande pas pour qu'elle se déshabille C'est que toi et moi mais j'suis trop caille-ra pour te dire Je t'aime Étant donné qu'avec moi, tu peux vite passer d'l'amour à la haine À la haine D'l'amour à la haine, on peut passer très rapidement Caille-ra, tu le sais qu'mon cur restera toujours caché sous mes vêtements Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la Le prix, j'demande pas, j'achète si j'aime bien, CB, cash J'débite, j'débite, j'débite, la-la-la-la-la Et je récupère ton pe'-Sna si j't'aime bien Mais tu connais, je supprime vite si j'vois qu'tu parles trop pour rien, ah la-la-la</t>
+          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Am stram gram</t>
+          <t>Aqua</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
+          <t>So le Flem Ah-ah Shiruken Music J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Ah-ah, ah-ah Après minuit, c'est les heures de pointes Les heures de pointes, ça va sortir les armes de poing On bougeait, on connaissait pas les dangers, aujourd'hui, c'est n'importe quoi J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Car c'est l'un des suls qui m'aura fait manger Bât' mais bon, c'est une prte de temps, j'ai ma paire de gants Big fumée nocive Nocive, aqua, dernier engin Han Nous, on croque la vie La vie, viens-voir la putain d'jungle Han Et la musique J'vais pas t'mentir, c'était pas l'plan A Nan La street est sûre de moi, j'suis précis comme sniper sur le toit J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux, on lance une guerre, cousin, c'est au cardio' qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Les histoires de schnecks, ça fait mal à la tête La tête, ça fait mal à la tête Toujours la même chose à la fin d'la quête, toujours la même boule au ventre avant tête à tête Tu peux continuer à jurer sur l'Coran d'la Mecque L'Coran d'la Mecque, sur le Coran d'la Mecque On procède autrement si y a des contraintes, on procède autrement si y a des contraintes Auto' toute la saison, kichta à la maison, le procureur, il peut niquer sa mère 10K cellophané, 20K cellophané, dans ma sacoche, tout est trop bien rangé Ici, ça pue la merde, moi aussi, j'veux la vue sur la mer Vue sur la mer Et pour ramasser plus, j'ai inversé l'soleil et la lune J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux on lance une guerre, cousin, c'est au cardio qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Ah-ah, ah-ah</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Aqua</t>
+          <t>Avant</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>So le Flem Ah-ah Shiruken Music J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Ah-ah, ah-ah Après minuit, c'est les heures de pointes Les heures de pointes, ça va sortir les armes de poing On bougeait, on connaissait pas les dangers, aujourd'hui, c'est n'importe quoi J'suis v'nu remonter les charts, je vends plus d'shit, j'remercie mon bâtiment Car c'est l'un des suls qui m'aura fait manger Bât' mais bon, c'est une prte de temps, j'ai ma paire de gants Big fumée nocive Nocive, aqua, dernier engin Han Nous, on croque la vie La vie, viens-voir la putain d'jungle Han Et la musique J'vais pas t'mentir, c'était pas l'plan A Nan La street est sûre de moi, j'suis précis comme sniper sur le toit J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux, on lance une guerre, cousin, c'est au cardio' qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Les histoires de schnecks, ça fait mal à la tête La tête, ça fait mal à la tête Toujours la même chose à la fin d'la quête, toujours la même boule au ventre avant tête à tête Tu peux continuer à jurer sur l'Coran d'la Mecque L'Coran d'la Mecque, sur le Coran d'la Mecque On procède autrement si y a des contraintes, on procède autrement si y a des contraintes Auto' toute la saison, kichta à la maison, le procureur, il peut niquer sa mère 10K cellophané, 20K cellophané, dans ma sacoche, tout est trop bien rangé Ici, ça pue la merde, moi aussi, j'veux la vue sur la mer Vue sur la mer Et pour ramasser plus, j'ai inversé l'soleil et la lune J'ai un truc en plus qui t'fait des putains d'trous dans l'corps Piou, piou On rentre sans faire de bruit chez toi, gamin, on sait qu'maman dort On sait qu'maman dort J'ai des gars dans l'sud, si ça suffit pas, j'ai des gars dans l'nord Boum Si tu veux on lance une guerre, cousin, c'est au cardio qu'on l'emporte C'est faux c'qu'ils disent, moi, j'ai pas changé, moi, j'ai pas changé J'suis bloqué au feu rouge, j'tape une pics avec étranger La Datejust est étanche, elle, j'l'ai trop ken, wesh Elle, j'l'ai trop baisé mais c'est elle qui m'voulait trop C'est faux c'qu'ils disent, j'ai pas changé, on prend des risques, en vérité Ouais Gris nardo, 4RS, mon pote, y a que ça qu'a changé Ah C'est vrai qu'j'ai l'sang chaud dans mes veines, on parle pas, on dégaine Re-noi, babtou, couleur ébène, on repart avec les plus belles Ah-ah, ah-ah</t>
+          <t>Black Stone Ouh Heureusement qu'j'ai des couilles parce que j'crois qu'dans c'bât', on est maudits Mais j'dois rester fort, y a d'quoi être fier Suge il m'a dit Dis-leur qu'tout va bien, montre pas ta tristesse, ils profiteront Mais de toute façon, le premier qui t'teste, bah, il est mort Eux, c'est des clochards qui portent l'il, j'fais des sous, j'suis béni regarde Sept VHR et c'est quinze balles la demi-heure J'suis avec Dixon, avec sur le parking d'la tour ouais, ouais J'suis dans la S3, posé pas loin du four ouais, ouais Et là tout d'suite, à l'heure où j'te parle, j'pense à Kaza et Suge mes frères Pas d'camel, sandwichs de kefta, dessert tiramisu Paire de Cartier, C.P, Company, plaque dans la cellule IPhone 10, grosse plaquette de cons', en place dans Bois d'Arcy Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks À l'époque où j'partais en cours, j'avais pas de cahier, pas de stylo j'avais rien Paire de TN, paire de shocks, t'as capté, c'est comme ça qu'j'suis stylé té-ma l'flow Toujours j'suis posé à la Pagode, si tu m'cherches, tu sais où mtrouver allez, viens, viens, viens, viens, viens J'ai bicrave par nécessité, allez, casse toi, moi, j'ai rien à t'prouver enculé Ça fait longtemps qu'j'ai plus peur des coups, va dans la déco', là, y a trop de cas ah ouais ? Ces fils de pute veulent en découdre, il a indiqué, les frères ont dit quoi Les coups d'mes frères m'ont endurci ah ouais ? On a souvent eu des problèmes, on a fini avec des sursis Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Dedans, on s'est mis sans savoir qu'un jour, on allait finir par être connus Des pétasses qui jouissent en bougeant nos locks, c'est plus facile d'enlever leurs tenues Regarde-nous aujourd'hui, toujours les mêmes mais avec trois fois plus de soucis Trois fois plus d'oseille aussi, c'est en TN qu'on va chercher Louis Je sais sur qui compter si y a 'brouille-em c'est pas tout l'monde qui assume jusqu'au bout J'connais des mecs au début bouillants, mais le pétard les mettra à genoux Des carrières devant les meufs mais ici, on les connait pas connait pas Seules les putes qui parlent aux putes, pour cela qu'on est plus potes À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Avant</t>
+          <t>Avion</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Black Stone Ouh Heureusement qu'j'ai des couilles parce que j'crois qu'dans c'bât', on est maudits Mais j'dois rester fort, y a d'quoi être fier Suge il m'a dit Dis-leur qu'tout va bien, montre pas ta tristesse, ils profiteront Mais de toute façon, le premier qui t'teste, bah, il est mort Eux, c'est des clochards qui portent l'il, j'fais des sous, j'suis béni regarde Sept VHR et c'est quinze balles la demi-heure J'suis avec Dixon, avec sur le parking d'la tour ouais, ouais J'suis dans la S3, posé pas loin du four ouais, ouais Et là tout d'suite, à l'heure où j'te parle, j'pense à Kaza et Suge mes frères Pas d'camel, sandwichs de kefta, dessert tiramisu Paire de Cartier, C.P, Company, plaque dans la cellule IPhone 10, grosse plaquette de cons', en place dans Bois d'Arcy Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks À l'époque où j'partais en cours, j'avais pas de cahier, pas de stylo j'avais rien Paire de TN, paire de shocks, t'as capté, c'est comme ça qu'j'suis stylé té-ma l'flow Toujours j'suis posé à la Pagode, si tu m'cherches, tu sais où mtrouver allez, viens, viens, viens, viens, viens J'ai bicrave par nécessité, allez, casse toi, moi, j'ai rien à t'prouver enculé Ça fait longtemps qu'j'ai plus peur des coups, va dans la déco', là, y a trop de cas ah ouais ? Ces fils de pute veulent en découdre, il a indiqué, les frères ont dit quoi Les coups d'mes frères m'ont endurci ah ouais ? On a souvent eu des problèmes, on a fini avec des sursis Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Dedans, on s'est mis sans savoir qu'un jour, on allait finir par être connus Des pétasses qui jouissent en bougeant nos locks, c'est plus facile d'enlever leurs tenues Regarde-nous aujourd'hui, toujours les mêmes mais avec trois fois plus de soucis Trois fois plus d'oseille aussi, c'est en TN qu'on va chercher Louis Je sais sur qui compter si y a 'brouille-em c'est pas tout l'monde qui assume jusqu'au bout J'connais des mecs au début bouillants, mais le pétard les mettra à genoux Des carrières devant les meufs mais ici, on les connait pas connait pas Seules les putes qui parlent aux putes, pour cela qu'on est plus potes À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone À la base, j'suis dans le bât' avec les autres avec les autres De chez nous viennent les RS qui font du bruit dans la zone dans la zone Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour des sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks Des sous, on en faisait avant, pas attendu la 'sique pour Pas attendu la 'sique pour les sous, y en avait avant Midi, les crapules sont dans l'binks, savent c'est qui qui tient l'four Han, ils savent c'est qui qui tient l'four, midi, on est tous dans l'binks</t>
+          <t>Noxious il pour il, dent pour dent, j'rentre ta reum dans l'histoire Tac-tac, boum-boum d'vant ta porte si tu dois D'la gue-dro, des mes-ar, d'la peur derrière les stores Derrière les stores, ils ont peur et on l'voit J'reste là même si ça tire, j'reste là même si ça tire Bi-turbo, gros moteur, gros moteur rempli d'bandits Trente piges dans la RS6, trop d'années dans l'RS6 Pour Kadaf, pour ses caisses, pour trop d'trucs, j'peux pas tout dire Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Ils rêvent que j'bé-tom, chaque jour sur l'béton J'passe à la maison, coffré les cadeaux aujourd'hui Et aujourd'hui, Gucci, Fendi Vie de bandit, frères en condi' Te-ma les bails, te-ma les bails, on n'a plus aucun ennemi Te-ma les bails, te-ma les bails, cagoulé sur l'deux et demi Te-ma les bails, te-ma les bails, j'suis dans l'bât' en pleine nuit Te-ma les bails, te-ma les bails, l'argent, la drogue, ils ont tout saisi Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Avion</t>
+          <t>Barrio</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Noxious il pour il, dent pour dent, j'rentre ta reum dans l'histoire Tac-tac, boum-boum d'vant ta porte si tu dois D'la gue-dro, des mes-ar, d'la peur derrière les stores Derrière les stores, ils ont peur et on l'voit J'reste là même si ça tire, j'reste là même si ça tire Bi-turbo, gros moteur, gros moteur rempli d'bandits Trente piges dans la RS6, trop d'années dans l'RS6 Pour Kadaf, pour ses caisses, pour trop d'trucs, j'peux pas tout dire Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Ils rêvent que j'bé-tom, chaque jour sur l'béton J'passe à la maison, coffré les cadeaux aujourd'hui Et aujourd'hui, Gucci, Fendi Vie de bandit, frères en condi' Te-ma les bails, te-ma les bails, on n'a plus aucun ennemi Te-ma les bails, te-ma les bails, cagoulé sur l'deux et demi Te-ma les bails, te-ma les bails, j'suis dans l'bât' en pleine nuit Te-ma les bails, te-ma les bails, l'argent, la drogue, ils ont tout saisi Maintenant, elle m'sé-cour pour ma Rollie LV, Chanel, Gucci, Fendi, Loubou', Hermès C'est pas la même qu'au début RS3, RS4, RS5, RS6, RS7, Fe-Fe, Lambo' C'est pas la même qu'au début J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes Sur le corner comme d'hab' comme d'hab', dehors à midi Trois mille par jour, y a d'la beuh, des plaquettes J'suis dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom Dans l'avion, que ça té-mon Faut pas qu'ça descende, rêvent que j'bé-tom</t>
+          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Barrio</t>
+          <t>Beldia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Han-ah Dany Synthé, que la SACEM, wow J'suis l'genre de c'type fonce-dé depuis tout p'tit, j'avais même pas treize piges D'la cons' à faire partir, capuché dans l'arène, capuché d'vant l'lycée Empreintes dans l'RSQ avec un autre gros cul Han J'ai relevé les relevés Han donc j'l'ai monté en l'air J'suis avec Coco Jojo et L.E.T.O T.O, Mistinguett, là, j'veux voir ton dos Ton dos Maman, j'ai arrêté l'bédo Bédo mais j'suis toujours dans le bédo Bédo Que du Coco Han, que du Coco Han, nouvelle kichta dans mon nouveau blouson Blouson Un jour ou l'autre, j'aurai ta peau, un jour ou l'autre, j'aurai ta peau On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pèt, on s'détend, pépère dans l'barrio Barrio Mistinguett vut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu Anakin, je les uer-t aussi vite que j'allume mon pét', t'as même pas d'pépettes, tu t'la pètes T'as rien J'suis Jet Lee quand j'coupe la 'quette, y a que de victoire qu'on est en quête Comme ça Welcome to the party, y a des flingues, de la be-her aussi Eh Je sais que t'as mal, cousin, frappe comme droite de Mike Tyson Boom, oh, va là-bas Ils sont morts, ils sont déjà morts Oh, ils sont dans la gov', mets ta cagoule et vas-y J'suis OP depuis tout p'tit, ils sont morts, ils sont déjà morts Ouh-ouh Argent, monnaie, papel, she-ca, argent, monnaie, papel Toi Toi, si tu m'apportes rien, tu vas voir mon blase en gris, gris Gris Si tu m'apportes R, tu vas prendre la porte, j't'en prie, prie Eh-eh-eh En vrai, ça fait un bail qu'on regarde Netflix, ta culotte, tu la baisses ou pas ? J'la lève en i, elle crie, crie, crie Crie, crie, tu veux mon cur et moi, le fric à Kyky Ça flingue fort Tu peux r'garder tout c'que tu veux, ma belle, si ça t'plaît, j'te mets un coup d'teu- Eux et nous, c'est différent On s'en pête, on fait toujours l'oseille dans l'barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Mistinguett veut faire la fête, elle kiffe le barrio Barrio On s'la pète, on s'détend, pépère dans l'barrio Barrio Un plan be-her avec du shit et un peu d'co'-co' J'fais augmenter le chiffre d'affaires en moins d'vingt-quatre heures Un p'tit peu gailleur mais jamais cocu J'suis l'genre de type qui crache dedans ou sur son cavu</t>
+          <t>D'la beuh, du te-sh', ouin ouin D'la beuh, du te-sh', ouin Y a d'l'amnésia, de la beldia Y a d'l'amnésia pour ceux qui s'la jouent rasta Y a d'l'amnésia, de la beldia De la beldia pour ceux qui aiment le shit gras Un vicieux, un p'tit enculé hey et ça d'puis l'époque d'la PlayStation portable hey Capuché, un jogging troué, en bas d'la gare à l'affût sur les portables Casier plein, compliqué quand j'voyage, y a trafic de stup', jugé pour port d'armes trente-cinq J'signe des autographes à la douane, j'ai rien calé, ils m'contrôlent pas Dans l'berceau, l'argent m'a bercé, j'rêvais pas d'Bercy, j'voulais pas percer Plus Jr, un peu comme Disney, moi, j'ai dealé avant d'baiser ouais J'voulais la même paire de Nike que Deuspi, la même voiture qu'il y a dans K-2000 la même voiture qu'il y a dans K-2000 Ils allaient au foot en salle, moi, j'cherchais des ients-cli Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rentre tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe, c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin Mon joint fait la taille de la pipe à ton papi, j'ai enlevé l'collant, j'ai laissé que le papier Que d'la-d'la beuh jusqu'au filtre, j'tiens pas vingt secondes si j'ai pas mon briquet Regarde-le où j'en suis, j'peux même plus douter, même si le quart d'entre eux pense qu'à porter l'il Si on vient dans ta boite C'est pas pour dépenser, c'est pour récupérer une kitchta grosse J'suis dans la kitchen, j'ai mal à l'épaule, une heure, un kilo ça pue la gue-dro Le 'rrain-'rrain de beugeuh, commence à te-comp, les anciens viennent per-cho le terrain de beugeuh Y a que de la bogonne et pour les cinquante, des plantes et des grinders que pour les cinquante La plupart du temps, quand elle est bien sec, mais des fois elle est humide elle est sec Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rend tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Beldia</t>
+          <t>Beugeuh</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>D'la beuh, du te-sh', ouin ouin D'la beuh, du te-sh', ouin Y a d'l'amnésia, de la beldia Y a d'l'amnésia pour ceux qui s'la jouent rasta Y a d'l'amnésia, de la beldia De la beldia pour ceux qui aiment le shit gras Un vicieux, un p'tit enculé hey et ça d'puis l'époque d'la PlayStation portable hey Capuché, un jogging troué, en bas d'la gare à l'affût sur les portables Casier plein, compliqué quand j'voyage, y a trafic de stup', jugé pour port d'armes trente-cinq J'signe des autographes à la douane, j'ai rien calé, ils m'contrôlent pas Dans l'berceau, l'argent m'a bercé, j'rêvais pas d'Bercy, j'voulais pas percer Plus Jr, un peu comme Disney, moi, j'ai dealé avant d'baiser ouais J'voulais la même paire de Nike que Deuspi, la même voiture qu'il y a dans K-2000 la même voiture qu'il y a dans K-2000 Ils allaient au foot en salle, moi, j'cherchais des ients-cli Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rentre tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe, c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin Mon joint fait la taille de la pipe à ton papi, j'ai enlevé l'collant, j'ai laissé que le papier Que d'la-d'la beuh jusqu'au filtre, j'tiens pas vingt secondes si j'ai pas mon briquet Regarde-le où j'en suis, j'peux même plus douter, même si le quart d'entre eux pense qu'à porter l'il Si on vient dans ta boite C'est pas pour dépenser, c'est pour récupérer une kitchta grosse J'suis dans la kitchen, j'ai mal à l'épaule, une heure, un kilo ça pue la gue-dro Le 'rrain-'rrain de beugeuh, commence à te-comp, les anciens viennent per-cho le terrain de beugeuh Y a que de la bogonne et pour les cinquante, des plantes et des grinders que pour les cinquante La plupart du temps, quand elle est bien sec, mais des fois elle est humide elle est sec Tu suces, tu baises, sinon tu sors, nous, on t'fait pas la cour la cour Rien qu'ça rend tous les jours Sous l'R, y a Julio qui les roule Julio 700 chevaux j'te l'dis, là, c'est pas Fe-Fe c'est Audi Audi Et minimum V8, minimum vingt, 2018 Y a d'l'amnésia d'la beuh, de la beldia du te-sh' Y a d'l'amnésia ouin pour ceux qui s'la jouent rasta ouin Y a d'l'amnésia d'la beuh, de la beldia du te-sh' De la beldia ouin pour ceux qui aiment le shit gras ouin</t>
+          <t>Hier j'étais trop daga jai bédave trop de beugeuh J'ai oublié des caleçon dans les affaires d'ma pute Un bon coup 10 bagale et tout le monde est heureux Charbonne comme un taré mais motivé comme un hero Jsuis dans le 4 pétard feux éteint sur l'parking On r'connaît la teté des yencli par coeur Et pose toi prêt du préaux coco monte le paro courir Et jette pas le détail par peur Tu sera déduit par les traitres Bon qu'a porter l'il mais en vrai c'est rien Ça tartine sa mere et a minuit j'me rend On r'connaît la frappe rien quà lodeur J'suis A 45 en mode rien ça crapote Et jsuis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et jsuis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh J'me sens pas mal maintenant je peut me taillé quand je veut Une nouvelle bagnole avec les même survêtement qu'avant Les autres me demandent ce que je fait ici Me disent que si ils avaient ma vie Ils se sont tiré très loin d'ici avec des salopes a claqué tout leurs sous J'reste avec suge j'en ai marre d'être trahi par la meute Une amitié d'enfance dure peut vite finir en miettes C'est b c'est b mais nique sa mère j'ai du blé En France au bled un peu partout j'ai des biens Sur le terrain un 50 acheté égale un 10 donné c'est plus rentable si vous venez à 2 Mais faites vite c'est 48h après ya plus rien Nous on en a trop la défaite fait pas le moine Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Beugeuh</t>
+          <t>Bim bam boum</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Hier j'étais trop daga jai bédave trop de beugeuh J'ai oublié des caleçon dans les affaires d'ma pute Un bon coup 10 bagale et tout le monde est heureux Charbonne comme un taré mais motivé comme un hero Jsuis dans le 4 pétard feux éteint sur l'parking On r'connaît la teté des yencli par coeur Et pose toi prêt du préaux coco monte le paro courir Et jette pas le détail par peur Tu sera déduit par les traitres Bon qu'a porter l'il mais en vrai c'est rien Ça tartine sa mere et a minuit j'me rend On r'connaît la frappe rien quà lodeur J'suis A 45 en mode rien ça crapote Et jsuis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et jsuis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh J'me sens pas mal maintenant je peut me taillé quand je veut Une nouvelle bagnole avec les même survêtement qu'avant Les autres me demandent ce que je fait ici Me disent que si ils avaient ma vie Ils se sont tiré très loin d'ici avec des salopes a claqué tout leurs sous J'reste avec suge j'en ai marre d'être trahi par la meute Une amitié d'enfance dure peut vite finir en miettes C'est b c'est b mais nique sa mère j'ai du blé En France au bled un peu partout j'ai des biens Sur le terrain un 50 acheté égale un 10 donné c'est plus rentable si vous venez à 2 Mais faites vite c'est 48h après ya plus rien Nous on en a trop la défaite fait pas le moine Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh Vient par ici ya de tout ya de la C aussi En dessous ya des armes v'la les sous aussi Et j'suis daga sous beugeuh et j'suis daga sous beugeuh eh et j'suis daga sous beugeuh</t>
+          <t>Je fume du shit</t>
         </is>
       </c>
     </row>
@@ -2719,14 +2719,10 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bim bam boum</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Je fume du shit</t>
-        </is>
-      </c>
+          <t>bizness</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2736,10 +2732,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bizness</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>Bonbon</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Layte Beats NouvlR, NouvlR, NouvlR NouvlR, NouvlR, NouvlR Ouais, quel bail, Morrossa ? Rah Tout plier, que j'la bibi Ouh, j'la bibi Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Ça tartine sec et fort, j'ai reçu d'la re-pu enfin Et mon meilleur cliquos, il veut qu'j'lui garde le bout d'la fin J'ai un peu calé ma faim mais j'crois qu'j'ai encore faim Deux millions, c'est des miettes, à partir de huit, ça m'suffit Ca-calibré dans l'auto' mais j'peux pas vous dire j'l'ai mis où Un peu parano depuis qu'on fait la guerre contre eux Ouais, j'le prends toujours sur moi même si je sais qu'c'est des putes Mais on sous-estime personne, un peu partout, y a des fous À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Quand j'détaille, j'suis concentré, faut qu'les cinquante soient parallèles J'suis congolais-manjak, Suge, c'est mon sin-cou par alliance C'est bon si j'l'ai au bigo, on laisse les femmes au parloir Bastos dans l'cur, encore un nitch qui fond un gramme Pour la ppe-fra, c'est par là, y a du noir qui colle Y a du filtré trois fois qui monte rapidement au crâne J'crois qu'j'vais vendre le S.V.R, j'négocie un RS4, j'vais foutre Koba sur la plaque À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh NouvlR, NouvlR, NouvlR Rah Tout plier, que j'la bibi</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Bonbon</t>
+          <t>Booska’Cartel</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Layte Beats NouvlR, NouvlR, NouvlR NouvlR, NouvlR, NouvlR Ouais, quel bail, Morrossa ? Rah Tout plier, que j'la bibi Ouh, j'la bibi Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Ça tartine sec et fort, j'ai reçu d'la re-pu enfin Et mon meilleur cliquos, il veut qu'j'lui garde le bout d'la fin J'ai un peu calé ma faim mais j'crois qu'j'ai encore faim Deux millions, c'est des miettes, à partir de huit, ça m'suffit Ca-calibré dans l'auto' mais j'peux pas vous dire j'l'ai mis où Un peu parano depuis qu'on fait la guerre contre eux Ouais, j'le prends toujours sur moi même si je sais qu'c'est des putes Mais on sous-estime personne, un peu partout, y a des fous À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Quand j'détaille, j'suis concentré, faut qu'les cinquante soient parallèles J'suis congolais-manjak, Suge, c'est mon sin-cou par alliance C'est bon si j'l'ai au bigo, on laisse les femmes au parloir Bastos dans l'cur, encore un nitch qui fond un gramme Pour la ppe-fra, c'est par là, y a du noir qui colle Y a du filtré trois fois qui monte rapidement au crâne J'crois qu'j'vais vendre le S.V.R, j'négocie un RS4, j'vais foutre Koba sur la plaque À dix heures, j'suis debout, vers onze heures trente, j'ouvre le four Après douze heures, on accepte plus trop les retards Et vers quinze heures, on entame la troisième recharge Me-chro, faux billets, gratte, négro, faim d'ça Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh Gros, tu peux parler, parler, parler mais on va t'oublier J'ai gagné plus de problèmes depuis que j'la bibi Dans un p'tit morceau d'sac poubelle ou bien un sachet d'bonbon Ou juste un peu de beuh-beuh NouvlR, NouvlR, NouvlR Rah Tout plier, que j'la bibi</t>
+          <t>Boumi' Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi, elle a vu l'calibre dans mon auto Si j'l'utilise, j'vais devoir le revendre dans l'état J'ai vu qu'y avait haja mais réclame juste un bout d'shit ouais Mais vas-y, tranquille, j'vais lui donner Trop parler, ça sert à rien, j'préfère rouler des joints J'préfère gonfler ma liasse et mettre mes locks dans son cul À la base, ton pied, mon pied, tu m'as trahi mais sans rancune mais bon, t'es qu'un bâtard Juste, depuis, j'ai pris du recul ouh J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Putain, ouh, ouh, des fois, j'fais tomber mon bédo Des fois, j'fais tomber des billets mais j'fais pas exprès, c'était pour mettre du co'-co' C'est la galère sa mère, , moi j'tourne en rond C'est la galère sa mère, j'tourne en rond Regarde-bien t'es yeux, regarde-bien c'est d'l'or rose Et celle-là, c'est la même que mon J'suis dans l'bendo, j'suis dans la 'sique, dans la zep, j'suis dans la 'sique J'suis dans l'Range, dans la Ferrari, c'est ta pute que j'fais rêver Toi, aujourd'hui, tu parles mal mais toute ta vie, j't'ai dépanné Hein, tranquille J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess1</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Booska’Cartel</t>
+          <t>Booska VII</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Boumi' Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi la miss s'inquiète pour moi Elle s'inquiète un peu pour moi, elle a vu l'calibre dans mon auto Si j'l'utilise, j'vais devoir le revendre dans l'état J'ai vu qu'y avait haja mais réclame juste un bout d'shit ouais Mais vas-y, tranquille, j'vais lui donner Trop parler, ça sert à rien, j'préfère rouler des joints J'préfère gonfler ma liasse et mettre mes locks dans son cul À la base, ton pied, mon pied, tu m'as trahi mais sans rancune mais bon, t'es qu'un bâtard Juste, depuis, j'ai pris du recul ouh J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Putain, ouh, ouh, des fois, j'fais tomber mon bédo Des fois, j'fais tomber des billets mais j'fais pas exprès, c'était pour mettre du co'-co' C'est la galère sa mère, , moi j'tourne en rond C'est la galère sa mère, j'tourne en rond Regarde-bien t'es yeux, regarde-bien c'est d'l'or rose Et celle-là, c'est la même que mon J'suis dans l'bendo, j'suis dans la 'sique, dans la zep, j'suis dans la 'sique J'suis dans l'Range, dans la Ferrari, c'est ta pute que j'fais rêver Toi, aujourd'hui, tu parles mal mais toute ta vie, j't'ai dépanné Hein, tranquille J'ai pris du recul, du recul, fils de pute, j'avais qu'des freins J'ai refait tous mes calculs, starfoulah, tous les mois, on fait des eu' C'est réel, gros, c'est un fait, c'est réel, gros, c'est un fait ah J'comprends pas, j'comprends pas, trop d'inconnus à la fête Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess J'suis fonce-dé, des fois, j'vais trop loin Mais j'suis qu'un négro Des fois, j'vais trop loin Mais j'suis qu'un négro Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess Une bastos dans ta mère, sur la MD, on est deux Ligne Akra', j'ai réveillé toute la tess1</t>
+          <t>Eh Booska VII T'es en haut du toit Ouais, Koba LaD, le bâtiment VII en direct de Booska-P Entrecôte, escalope, tout en Nike, impossible d'sentir sans ma skalape Y a d'la beugeu, d'la pasta, du seum Et la mentalité dure comme ciment Suis moi j'ai trouvé comment rentrer en soum J'suis au bif quand j'ai laissé la semoule Et depuis l'28 septembre, le reste de la concurrence est parti Première semaine et 18 000 ventes C'est-à-dire plus que ton rappeur préféré À la radio, mais toujours dans l'binks pourtant Et ta p'tite sur gratte une to-ph' Regarde, il ramasse plein d'bif Et y a rien d'mieux que de vivre la vie d'artiste J'suis dans ma caisse, fonce-dé dans l'fer Et ma génération trouve ça dégoûtant J'ai rien volé, Dieu m'a donné Prie et peut-être qu'un jour, toi aussi Futur millionnaire fonce-dé dans l'fer En train d'réfléchir à comment j'vais m'les faire Et pour qu'elle se pose pas b'soin d'faire d'effort Le contenu de ma sacoche va tout faire J'suis dans l'pillon, la selha, la beugeu Sinon, c'est ta sur que j'aurais fait tapiner Avant d'faire partir, en gros j'ai saigné le rrain-té Les temps pleins portent malchance j'me suis trop fait péter Mais l'point d'vente a tourné, j'suis devenu le gérant, enculé Les potes à mon petit reuf ont bossé, rebossé Prend 70 pour la journée, j'faisais rentrer bien avant d'rapper Et j'vais pas te faire de dessin Faut qu'tu descendes, qu'tu désapes, desserres ton string Faut qu'tu m'suces sans les dents, j'veux pas être déçu Y a ma bave et mon sperme qui coulent sur tes seins J'ai pris mes distances, ils m'détestent tous Mon buzz attise rien d'autre que la haine Ils ont démarré ici du dix au dix Et que maintenant, j'parle en sommes à six chiffres Dans l'fond du tieks, en haut du VII En train d'recompter l'argent de la semaine En attendant que le pe-ra paye de zipette Un flow intact, tout droit d'Namek, c'est c'que les extra-terrestres détectent Et quand j'ai capté la tactique tôt, j'ai passé l'tit-pe en haut d'une tour du VII Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu1</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Booska VII</t>
+          <t>Ça a changé</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Eh Booska VII T'es en haut du toit Ouais, Koba LaD, le bâtiment VII en direct de Booska-P Entrecôte, escalope, tout en Nike, impossible d'sentir sans ma skalape Y a d'la beugeu, d'la pasta, du seum Et la mentalité dure comme ciment Suis moi j'ai trouvé comment rentrer en soum J'suis au bif quand j'ai laissé la semoule Et depuis l'28 septembre, le reste de la concurrence est parti Première semaine et 18 000 ventes C'est-à-dire plus que ton rappeur préféré À la radio, mais toujours dans l'binks pourtant Et ta p'tite sur gratte une to-ph' Regarde, il ramasse plein d'bif Et y a rien d'mieux que de vivre la vie d'artiste J'suis dans ma caisse, fonce-dé dans l'fer Et ma génération trouve ça dégoûtant J'ai rien volé, Dieu m'a donné Prie et peut-être qu'un jour, toi aussi Futur millionnaire fonce-dé dans l'fer En train d'réfléchir à comment j'vais m'les faire Et pour qu'elle se pose pas b'soin d'faire d'effort Le contenu de ma sacoche va tout faire J'suis dans l'pillon, la selha, la beugeu Sinon, c'est ta sur que j'aurais fait tapiner Avant d'faire partir, en gros j'ai saigné le rrain-té Les temps pleins portent malchance j'me suis trop fait péter Mais l'point d'vente a tourné, j'suis devenu le gérant, enculé Les potes à mon petit reuf ont bossé, rebossé Prend 70 pour la journée, j'faisais rentrer bien avant d'rapper Et j'vais pas te faire de dessin Faut qu'tu descendes, qu'tu désapes, desserres ton string Faut qu'tu m'suces sans les dents, j'veux pas être déçu Y a ma bave et mon sperme qui coulent sur tes seins J'ai pris mes distances, ils m'détestent tous Mon buzz attise rien d'autre que la haine Ils ont démarré ici du dix au dix Et que maintenant, j'parle en sommes à six chiffres Dans l'fond du tieks, en haut du VII En train d'recompter l'argent de la semaine En attendant que le pe-ra paye de zipette Un flow intact, tout droit d'Namek, c'est c'que les extra-terrestres détectent Et quand j'ai capté la tactique tôt, j'ai passé l'tit-pe en haut d'une tour du VII Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh, Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Eh Booska VII, posté dans l'hall d'une tour choufo, choufo, choufo, choufo Chouf, chouf, chouf, chouf, ouais, ça passe Chouf, chouf, chouf, chouf, un peu Chouf, chouf, chouf, chouf, eh, ça passe, là Chouf, chouf, chouf, chouf, pu pu pu pu pu pu1</t>
+          <t>Et j'me rappelle quand Et jme rappelle quand on voulait pas d'moi On voulait pas d'moi Et javais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Et jme rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on mla poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Nourrit pas la salade, la farine, le pain, j'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps, j'ai appris à me lever tôt et j'savais pour qui baisser les prix J'détaillais à part égale et la plus grosse barrette, nique sa grand-mère, j'la prenais comme cons' Nous aussi, on a connu les perte, les deux Skoda grise, le Berlingo, le Mandeo black Un paquet d'clope, un paquet d'feuilles et un she-fla en fin d'journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui, c'est rare quand j'suis pâta-retard, si j'suis en retard un mois sur la paye Et toi, tu me parle d'argent facile mais si je me gaffe, c'est d'la prison ferme Faut qu'j l'a récupère et ensuite, j'me repose Demain, j'dois tout détaille, la livrer au tit-pe Et une fois qu'l'petit aura tout fait partir Il faut qu'j'aille voir Deuspi pour qu'il distribue les paye, yeah yeah Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Capo, Koba, v'la la paire, fait renter le caba, les pochons d'herbes J'suis dans les finance, j'ai plus confiance, AK-47 dans l'Golf 7R Marseille, c'est violent, y a rien d'étonnant, découpe, découpe les kilos, oh X-ADV sur le rrain-te, le négro est casqué, esquive les gyro', oh Ta go fait la fraiche, miskina, elle viens chez moi tout les jours faire le ménage Merde J'me lève à quinze heure, je suis khapta, j'prend le jetski Yamaha à Samena Merde Six heure du mat', ça fait Pah-pah-pah, tout est chez la nourrice, ah-ah-ah Patek Philippe à 100K-K-K, j'mange du caviars en-cas cas-cas-cas I'm sorry, y a mon son dans ta story L'été sera torride, fait pas d'grimace a un Gorille Y a d'la p'tite, j'fais croquer mon fils Kylli' Dit leurs que c'est pas fini, de la piwi au deux et demi Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Eh, eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Eh ,eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Et j'me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette, on me la poussait pas Mais je crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ça a changé</t>
+          <t>Ça a changé (Solo Demo)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Et j'me rappelle quand Et jme rappelle quand on voulait pas d'moi On voulait pas d'moi Et javais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Et jme rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on mla poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Nourrit pas la salade, la farine, le pain, j'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps, j'ai appris à me lever tôt et j'savais pour qui baisser les prix J'détaillais à part égale et la plus grosse barrette, nique sa grand-mère, j'la prenais comme cons' Nous aussi, on a connu les perte, les deux Skoda grise, le Berlingo, le Mandeo black Un paquet d'clope, un paquet d'feuilles et un she-fla en fin d'journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui, c'est rare quand j'suis pâta-retard, si j'suis en retard un mois sur la paye Et toi, tu me parle d'argent facile mais si je me gaffe, c'est d'la prison ferme Faut qu'j l'a récupère et ensuite, j'me repose Demain, j'dois tout détaille, la livrer au tit-pe Et une fois qu'l'petit aura tout fait partir Il faut qu'j'aille voir Deuspi pour qu'il distribue les paye, yeah yeah Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Capo, Koba, v'la la paire, fait renter le caba, les pochons d'herbes J'suis dans les finance, j'ai plus confiance, AK-47 dans l'Golf 7R Marseille, c'est violent, y a rien d'étonnant, découpe, découpe les kilos, oh X-ADV sur le rrain-te, le négro est casqué, esquive les gyro', oh Ta go fait la fraiche, miskina, elle viens chez moi tout les jours faire le ménage Merde J'me lève à quinze heure, je suis khapta, j'prend le jetski Yamaha à Samena Merde Six heure du mat', ça fait Pah-pah-pah, tout est chez la nourrice, ah-ah-ah Patek Philippe à 100K-K-K, j'mange du caviars en-cas cas-cas-cas I'm sorry, y a mon son dans ta story L'été sera torride, fait pas d'grimace a un Gorille Y a d'la p'tite, j'fais croquer mon fils Kylli' Dit leurs que c'est pas fini, de la piwi au deux et demi Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Eh, eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Eh ,eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Et j'me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette, on me la poussait pas Mais je crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure</t>
+          <t>Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Mais je crois que ça a changé, Audemars Piguet Et jsort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Jcrois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Nourrit pas la salade, la farine, le pain J'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps j'ai appris à me lever tôt Et j'savais pour qui baisser les prix On détaillait à part égale Et la plus grosse barrette nique sa grand mère jla prenais comme cons Nous aussi on a connu les perte Et les contre la crise Un paquet d'clope, un paquet dfeuilles et un chouf-la en fin de journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui cest rare quand j'suis pas dans pâta-retard, si j'suis en retard la main sur la paye Toi tu me partage argent facile mais si je me gaffe c'est d'la prison ferme On l'a récupère, et ensuite j'me, repose demain j'dois tout détaille, la livrer au ti-peu Et une fois que l'petit aura tout fait parti Et faut que j'aille voir Despi pour qu'il distribue les paye, yeah yeah Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ça a changé (Solo Demo)</t>
+          <t>Caché</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Mais je crois que ça a changé, Audemars Piguet Et jsort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas Jcrois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Nourrit pas la salade, la farine, le pain J'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps j'ai appris à me lever tôt Et j'savais pour qui baisser les prix On détaillait à part égale Et la plus grosse barrette nique sa grand mère jla prenais comme cons Nous aussi on a connu les perte Et les contre la crise Un paquet d'clope, un paquet dfeuilles et un chouf-la en fin de journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui cest rare quand j'suis pas dans pâta-retard, si j'suis en retard la main sur la paye Toi tu me partage argent facile mais si je me gaffe c'est d'la prison ferme On l'a récupère, et ensuite j'me, repose demain j'dois tout détaille, la livrer au ti-peu Et une fois que l'petit aura tout fait parti Et faut que j'aille voir Despi pour qu'il distribue les paye, yeah yeah Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Euuuh uuh uuh, Euuuh uuh uuh, Euuuh uuh uuuuh Et je me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette on me la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sort même plus mon IPhone pour regarder l'heure</t>
+          <t>Black Stone, Black Stone, Black Stone J'viens reprendre le contrôle comme Bumpy Pas d'sourire aux lèvres Sur l'épaule j'ai le pe-pom, ils jouent les voyous, c'est des putains salope Mes grands-pères faisaient peur au Maréchal Pétain Quand je dis quelque chose, tu me crois eh Et dans le coin, je suis craint Joue au con si t'as du cran J'enfonce une 'teille dans ton cul Si j'dégaine un pétard, c'est pour que vous mourrez J'ai ds liasses de cinq-cent dans mon jan Amiri J'rallume un toca' comme un gars d'Amérique han, han J'suis dans la Caille, j'suis posé dans ma rue han, han Kodes la barrière, les méchants, les pirates Viens pas nous faire l'ancien, on connait tout Paris Nous, ça va très bien, en vrai j'sais pas pour eux Quand c'était tendu, y en a plein qui séparaient By-by-by-bye Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye , j'dois savoir à qui je serre la main Appelle-moi Bakari ou Souleymane, revendeur de mort comme un sale humain S'pé-ta comme des animaux dans la cité, c'est la loi de la jungle Pétard allumé au chalumeau, c'est pas qu'le 14 qu'on fait la guérilla On a l'respect avant le seize, c'est pour ça que personne ne nous achète J'suis dans l'four, j'suis dans les bagayes, j'me suis fait pister, je change de cachette encore Y a plus d'pochtard, faut que t'en rachètes J'ai des sous, j'ai du buzz et j'ai d'la chatte j'ai du sous, j'ai des buzz et j'ai d'la chatte sa mère Et c'est sa copine, j'voulais chette Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye J'suis là-bas toute la semaine mais bon, j'peux v'nir t'enculer, p'tit con Le préféré des bacqueux quand ils m'contrôlent, j'dis plus olala Ça vole, olala, pas du olala, Djamso elle m'capte Venez, on lcrosse sa mère parce que c'est trolala C'est du 7, enfoiré, tu connais déjà, bâtiment 7 connu comme le cul à Mila Dans la Caille, revendais le taga et tous ces enculés, on les a bien gué-lar On les a bien gué-lar et tous ces tocards n'ont même pas un dollar Rafale, j'ai la guitare, y a toute mon équipe, négro, j'suis en pétard</t>
         </is>
       </c>
     </row>
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Caché</t>
+          <t>Calle*</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Black Stone, Black Stone, Black Stone J'viens reprendre le contrôle comme Bumpy Pas d'sourire aux lèvres Sur l'épaule j'ai le pe-pom, ils jouent les voyous, c'est des putains salope Mes grands-pères faisaient peur au Maréchal Pétain Quand je dis quelque chose, tu me crois eh Et dans le coin, je suis craint Joue au con si t'as du cran J'enfonce une 'teille dans ton cul Si j'dégaine un pétard, c'est pour que vous mourrez J'ai ds liasses de cinq-cent dans mon jan Amiri J'rallume un toca' comme un gars d'Amérique han, han J'suis dans la Caille, j'suis posé dans ma rue han, han Kodes la barrière, les méchants, les pirates Viens pas nous faire l'ancien, on connait tout Paris Nous, ça va très bien, en vrai j'sais pas pour eux Quand c'était tendu, y en a plein qui séparaient By-by-by-bye Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye , j'dois savoir à qui je serre la main Appelle-moi Bakari ou Souleymane, revendeur de mort comme un sale humain S'pé-ta comme des animaux dans la cité, c'est la loi de la jungle Pétard allumé au chalumeau, c'est pas qu'le 14 qu'on fait la guérilla On a l'respect avant le seize, c'est pour ça que personne ne nous achète J'suis dans l'four, j'suis dans les bagayes, j'me suis fait pister, je change de cachette encore Y a plus d'pochtard, faut que t'en rachètes J'ai des sous, j'ai du buzz et j'ai d'la chatte j'ai du sous, j'ai des buzz et j'ai d'la chatte sa mère Et c'est sa copine, j'voulais chette Viens chez nous, le Bât' 7 Bât' 7, c'est plus précieux que la Tour Eiffel, boy c'est plus précieux que la Tour Eiffel Les yeux rouges et on va t'fonce'-dé ta mère si tu joues l'bad boy J'suis dans un truc, dans un putain d'truc, j'baise que des gros culs J'ai réussi à voler jusqu'en G.A.V bye, bye, bye J'suis là-bas toute la semaine mais bon, j'peux v'nir t'enculer, p'tit con Le préféré des bacqueux quand ils m'contrôlent, j'dis plus olala Ça vole, olala, pas du olala, Djamso elle m'capte Venez, on lcrosse sa mère parce que c'est trolala C'est du 7, enfoiré, tu connais déjà, bâtiment 7 connu comme le cul à Mila Dans la Caille, revendais le taga et tous ces enculés, on les a bien gué-lar On les a bien gué-lar et tous ces tocards n'ont même pas un dollar Rafale, j'ai la guitare, y a toute mon équipe, négro, j'suis en pétard</t>
+          <t>Tu connais, moi, c'est trop la Calle Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Le neuf a pâter les condés, le gros est tombé pour Kada Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Tu parles trop, décidément J'mets tempête, ils sont trop lent</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Calle*</t>
+          <t>Cavaliero (Feat. Koba LaD</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tu connais, moi, c'est trop la Calle Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Le neuf a pâter les condés, le gros est tombé pour Kada Et tu connais, comme c'est trop la Calle, j'traîne qu'avec des mecs d'la Calle Tu parles trop, décidément J'mets tempête, ils sont trop lent</t>
+          <t>Rim's on the b- J'ai souvent été trahi Trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- Un trou d'boulette dans l'C63, sa mère Sa mère, j'dois mettre mal en semi, tirer Regarde Et les autres plus bas que terres, écoute pas les mecs qu'on pas plus d'argent qu'toi Rappeur, producteur, c'est moi Puff LaD, je voulais pas mais bon, j'suis dedans Dégaine de voyou, mentale d'un voyou, gamos de voyou, j'suis pas un voyou Ah-ah-ah-ah J'peux même pas lui dire combien coûte mes chaussures, c'st peut-être le prix d sa gov' Clio 3 Et quand j'repenses à ma liasse, que j'dois recompter, j'en oublie de reprendre l'élastique L'élastique À deux cent cinquante, que des appels de eux, tout est noir dans le Lamborghini Vroum, vroum, vroum J'suis à Miami sous beuh dans un club, sur moi, une mexicaine qui bouge ses fesses C'est cette vie Même à travers d'fumer d'ppe-fra, j'y vois net J'y vois net, j'la vends à Maxime, Benoît, Antoinette Eh J'suis dans l'bendo avec les autres et même fonce-dé, j'en roule un autre J'en roule un autre, j'en roule un autre J'm'en fou, j'fais plus d'argent qu'un proxénète Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Souvent été trahi, en vrai, rien de nouveau, te dire à quel point je l'ai haï, frérot, j'ai pas les mots J'ai pas les mots Sois ma reine, je serai ton cavaliero, j'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine Je suis la haine, j'ai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Mieux que Fresnes, même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin Moulin, moulin, au moulin, ma tchoin saute le caramel Caramel PGP branché, je te rappelle, coño, j'suis sur des zones parallèles Parallèles Ils ne nous invitent plus, ils disent qu'on va gâcher la fête Gâcher la fête, pourtant, c'est eux qui ont créé la bête Quelques sociétés, quelques dettes Quelques dettes, elle croit qu'j'vais la rappeler, qu'est-ce qu'elle est bête Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ?</t>
         </is>
       </c>
     </row>
@@ -2868,12 +2868,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cavaliero (Feat. Koba LaD</t>
+          <t>C’est comment</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Rim's on the b- J'ai souvent été trahi Trahi J'ai souvent été tra- Rim's on the b- J'ai souvent été tra- Un trou d'boulette dans l'C63, sa mère Sa mère, j'dois mettre mal en semi, tirer Regarde Et les autres plus bas que terres, écoute pas les mecs qu'on pas plus d'argent qu'toi Rappeur, producteur, c'est moi Puff LaD, je voulais pas mais bon, j'suis dedans Dégaine de voyou, mentale d'un voyou, gamos de voyou, j'suis pas un voyou Ah-ah-ah-ah J'peux même pas lui dire combien coûte mes chaussures, c'st peut-être le prix d sa gov' Clio 3 Et quand j'repenses à ma liasse, que j'dois recompter, j'en oublie de reprendre l'élastique L'élastique À deux cent cinquante, que des appels de eux, tout est noir dans le Lamborghini Vroum, vroum, vroum J'suis à Miami sous beuh dans un club, sur moi, une mexicaine qui bouge ses fesses C'est cette vie Même à travers d'fumer d'ppe-fra, j'y vois net J'y vois net, j'la vends à Maxime, Benoît, Antoinette Eh J'suis dans l'bendo avec les autres et même fonce-dé, j'en roule un autre J'en roule un autre, j'en roule un autre J'm'en fou, j'fais plus d'argent qu'un proxénète Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Souvent été trahi, en vrai, rien de nouveau, te dire à quel point je l'ai haï, frérot, j'ai pas les mots J'ai pas les mots Sois ma reine, je serai ton cavaliero, j'ai fait que quelques millions c'tte année, j'ai l'moral à zéro J'vous laisse être amour, je suis la haine Je suis la haine, j'ai détruit ton étoile, je suis la mienne Palace mieux que mansion, Fleury mieux que Fresnes Mieux que Fresnes, même si t'es calibré, vaut mieux que j'vienne J'suis au four, au moulin Moulin, moulin, au moulin, ma tchoin saute le caramel Caramel PGP branché, je te rappelle, coño, j'suis sur des zones parallèles Parallèles Ils ne nous invitent plus, ils disent qu'on va gâcher la fête Gâcher la fête, pourtant, c'est eux qui ont créé la bête Quelques sociétés, quelques dettes Quelques dettes, elle croit qu'j'vais la rappeler, qu'est-ce qu'elle est bête Poto, il est minuit treize, j'suis toujours entrain d'recompter La snitch Numéro sept sur le bat' et l'tampon d'la paquette La plaquette J'fais tellement d'lovés, tellement d'loves qu'ils disent que j'ai pacté J'ai pacté Là, j'viens d'rouler mais putain d'merde, j'ai perdu mon feu Perdu mon pit Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ? Ouais, c'est quoi les bails, Nit ? C'est quoi les bails, Nit ?</t>
+          <t>Saydiq Il veut la bagarre donc on va le niquer, aujourdhui, je ne sors pas broliqué Toi, tu veux ça, lui, il veut ça, allez vendre du sale et communiquer Je suis avec Kobs, à la cité, la cité nous a cité Je vi-ser, je me casse aussitôt, on prend les cagoules et on prend tout tir Toujours pas fait defforts, faire du sale, cest mon métier Une poucave, baveux, tu sortais le son, tes ma moitié Crois-moi que ça va aller, s'il y a la brigade sur le rain-té Cest le seven aller, aller, aller, aller, aller Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité, on a tout fait pour cette cité Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité Oh, tout pour le four, tout pour le four, midi-minuit, ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Je suis dans le Benz 500 et la plaque est allemande Deux quarante sur la A6, cest mon C, je me masse le dos Là je suis fonce-dé sous beuh, derrière mes locks, je vois plus ses yeux bleus Et là, jai tout détail, dans les échant', rajoute un peu, juste un petit peu, ça va partir Jai pété mon fournisseur et en ce moment, cest chaud Avant-hier, ils ont tèj 300 kil' dans leau Malgré tout, on est là, de midi jusquà laube On compte pas cher-lâ même si ça devient che-lou Tout pour le four, tout pour le four, nique sa mère, il y a rien à faire, plaque pour le four Recompte va faire des efforts, on bouge pas du four, il y a que les keufs qui nous font fuir Oh, tout pour le four, tout pour le four, midi-minuit ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tout pour le four, tout pour le four, oh, tout pour le four Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C’est comment</t>
+          <t>C’est doux</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Saydiq Il veut la bagarre donc on va le niquer, aujourdhui, je ne sors pas broliqué Toi, tu veux ça, lui, il veut ça, allez vendre du sale et communiquer Je suis avec Kobs, à la cité, la cité nous a cité Je vi-ser, je me casse aussitôt, on prend les cagoules et on prend tout tir Toujours pas fait defforts, faire du sale, cest mon métier Une poucave, baveux, tu sortais le son, tes ma moitié Crois-moi que ça va aller, s'il y a la brigade sur le rain-té Cest le seven aller, aller, aller, aller, aller Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité, on a tout fait pour cette cité Cur enfermé dans la cité, on fout la merde dans la cité On traine à deux à la cité Oh, tout pour le four, tout pour le four, midi-minuit, ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Je suis dans le Benz 500 et la plaque est allemande Deux quarante sur la A6, cest mon C, je me masse le dos Là je suis fonce-dé sous beuh, derrière mes locks, je vois plus ses yeux bleus Et là, jai tout détail, dans les échant', rajoute un peu, juste un petit peu, ça va partir Jai pété mon fournisseur et en ce moment, cest chaud Avant-hier, ils ont tèj 300 kil' dans leau Malgré tout, on est là, de midi jusquà laube On compte pas cher-lâ même si ça devient che-lou Tout pour le four, tout pour le four, nique sa mère, il y a rien à faire, plaque pour le four Recompte va faire des efforts, on bouge pas du four, il y a que les keufs qui nous font fuir Oh, tout pour le four, tout pour le four, midi-minuit ça débite Oh, tout pour le four, tout pour le four, dehors, jai fait ma réput Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tout pour le four, tout pour le four, oh, tout pour le four Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous, cest comment, tu me dois des sous, cest comment Tu me dois des sous cest comment, tu me dois des sous, cest comment</t>
+          <t>Hello, it's ToM! J'veux pas finir comme Micky et Poppy mais on sait jamais car tous les jours, ça prends des risques Dans la rue, à toute heure, ça trottine, à force d'être filmés, les méchants font tout pour qu'on glisse Tu sais, c'est pas tout l'monde qu'est solides, suffit d'une cigarette et quelques noms sont données À force de faire confiance, y en a qui sont tombés, faut revoir la fiabilité des équipiers, hey On veut tous partir loin du bendazi, j'ai rêver qu'j'avais katchana Pamela Mais en vrai, j'suis vers Porte d'Italie, avec une pétasse de la France d'en bas Vive la vida mais le passé nous rattrape J'veux plus jamais sentir le goût du froid, donc j'ai acheter une doudoune a plus d'20K, hey J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander J'vais pas finir comme 2Pac et Biggie ou d'me faire rafale en concert J'ai trop l'seum, moi, j'voulais trop la quer-ni, pourtant, sur Insta', elle avait l'air d'être coincé Tu connais le pilon déclasser mais à cause du froid, il sait cassé Dans le fond du coin, j'me suis coincé et j'savais qu'j'allais pas revoir tout mes gars sûr Mais sur l'terrain, on se donne trop d'mal Mal, j'sais pas si ça vaut la peine J'vois plus mes reufs, ça va faire un an Un an, j'sais pas si ça vaut la peine Et j'pense à Suge et j'pense à Kaz' et des fois, j'pense à laisser la drogue Et des fois, j'pense à laisser la stup' Mais nique sa mère, en vrai de vrais, dis-moi, à quoi bon ? J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>C’est doux</t>
+          <t>C’est non</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hello, it's ToM! J'veux pas finir comme Micky et Poppy mais on sait jamais car tous les jours, ça prends des risques Dans la rue, à toute heure, ça trottine, à force d'être filmés, les méchants font tout pour qu'on glisse Tu sais, c'est pas tout l'monde qu'est solides, suffit d'une cigarette et quelques noms sont données À force de faire confiance, y en a qui sont tombés, faut revoir la fiabilité des équipiers, hey On veut tous partir loin du bendazi, j'ai rêver qu'j'avais katchana Pamela Mais en vrai, j'suis vers Porte d'Italie, avec une pétasse de la France d'en bas Vive la vida mais le passé nous rattrape J'veux plus jamais sentir le goût du froid, donc j'ai acheter une doudoune a plus d'20K, hey J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander J'vais pas finir comme 2Pac et Biggie ou d'me faire rafale en concert J'ai trop l'seum, moi, j'voulais trop la quer-ni, pourtant, sur Insta', elle avait l'air d'être coincé Tu connais le pilon déclasser mais à cause du froid, il sait cassé Dans le fond du coin, j'me suis coincé et j'savais qu'j'allais pas revoir tout mes gars sûr Mais sur l'terrain, on se donne trop d'mal Mal, j'sais pas si ça vaut la peine J'vois plus mes reufs, ça va faire un an Un an, j'sais pas si ça vaut la peine Et j'pense à Suge et j'pense à Kaz' et des fois, j'pense à laisser la drogue Et des fois, j'pense à laisser la stup' Mais nique sa mère, en vrai de vrais, dis-moi, à quoi bon ? J'l'ai trop baisé mais elle voulait trop Encore, encore, elle voulait trop Elle m'a demandé d'rester plus longtemps Plus longtemps, elle voulait qu'je reste Elle sait très bien qu'j'suis pas là tout l'temps Tout l'temps, elle sait qu'j'suis pas là Et j'suis serein quand y a Bo'-Bo' J'suis plus serein quand y a Koba Lazo C'est nous les vrais voyous Oui, tout l'monde, il sait qu'c'est nous Et avec nous, personne fait les fous Non, c'est nous les vrais voyous Elle enlève tout parce que c'est doux Oui et je sais qu'elle a envie Elle enlève tout parce que c'est doux mais je vais pas la rappeler Elle enlève tout Elle enlève tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Elle enlève tout Tout, pourtant, j'ai rien demander Rien demander Elle enlève tout Tout, pourtant, j'ai rien demander</t>
+          <t>A-A Si tu payes pas maintenant, c'est mort Si tu payes pas maintenant, c'est mort AWA the mafia, my nigga! Han, j'en veux pas, là, j'lui dis Nan, je fume un pétard en dînant, on se finira sur le divan, han Aujourd'hui, c'est non Aujourd'hui, c'est non, là, j'sors du ciment Du ciment, j'y retournerais pas, c'est non Poto Bloqué dans le binks, ça tire des grosses barres sur la ganja Ouais, sur la drogue Ils s'demandent de quoi je rêve car les grosses sommes, j'les ai déjà Oui, oui, oui Cent et quelques euros le plein Niou, fini les sandwichs au pain Fini Nan, j'les calcule pas, ils font la street, ils plaintent Nan, nan Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han Han Han, aujourd'hui, c'est non Non, elle veut v'nir à l'hôtel à la fin du showcase mais c'est mort mais c'est mort Han C'coup ci, j'ai pas l'temps Nan, j'ai l'avion l'matin et j'suis pas sûr d'te ken, donc c'est mort Sors une tête, sors une tête, sors une tête Tête, tête, un coup d'langue, j'la déchire et j'le pète Ça va péter, peut-être mais j'me prends pas la tête Nan, j'dépasse à deux-vingt, soit ça passe ou c'est dead Ou j'suis mort ou j'suis mort T'es trop che-lou, t'es trop dans une quête T'es trop relou, rodave au feu rouge, j'suis pas loin des keufs J'accélère J'demande au Bon Dieu d'm'éloigner des traîtres Dans mes prières, parce que l'prochain coup d'pute, j'vais pas l'supporter J'vais l'allumer Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C’est non</t>
+          <t>C’est réel</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A-A Si tu payes pas maintenant, c'est mort Si tu payes pas maintenant, c'est mort AWA the mafia, my nigga! Han, j'en veux pas, là, j'lui dis Nan, je fume un pétard en dînant, on se finira sur le divan, han Aujourd'hui, c'est non Aujourd'hui, c'est non, là, j'sors du ciment Du ciment, j'y retournerais pas, c'est non Poto Bloqué dans le binks, ça tire des grosses barres sur la ganja Ouais, sur la drogue Ils s'demandent de quoi je rêve car les grosses sommes, j'les ai déjà Oui, oui, oui Cent et quelques euros le plein Niou, fini les sandwichs au pain Fini Nan, j'les calcule pas, ils font la street, ils plaintent Nan, nan Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han Han Han, aujourd'hui, c'est non Non, elle veut v'nir à l'hôtel à la fin du showcase mais c'est mort mais c'est mort Han C'coup ci, j'ai pas l'temps Nan, j'ai l'avion l'matin et j'suis pas sûr d'te ken, donc c'est mort Sors une tête, sors une tête, sors une tête Tête, tête, un coup d'langue, j'la déchire et j'le pète Ça va péter, peut-être mais j'me prends pas la tête Nan, j'dépasse à deux-vingt, soit ça passe ou c'est dead Ou j'suis mort ou j'suis mort T'es trop che-lou, t'es trop dans une quête T'es trop relou, rodave au feu rouge, j'suis pas loin des keufs J'accélère J'demande au Bon Dieu d'm'éloigner des traîtres Dans mes prières, parce que l'prochain coup d'pute, j'vais pas l'supporter J'vais l'allumer Elle suce dans l'Ghini ou dans l'rrari, j'te parle sérieux J'te parle sah, han-han Là, j'suis dans Paris, bourré dans l'carré, tu m'racontes ta vie Bla bla bla Elle a trop d'ces-vi, il le savait, fait comme si il savait pas, elle a trop d'ces-vi, il le savait Il se savait Elle est dans l'ce-vi et j'le savais Elle fait genre, dans l'ce-vi et j'le savais Elle fait genre Genre, zehma, elle veut s'poser La salope, de base, on d'vait que baiser Elle est dans l'ce-vi et j'le savais Elle fait blehni mais j'vais la uer-t, genre, zehma, elle veut s'poser Han, de base, on d'vait que baiser Han</t>
+          <t>C'est réel ma gueule, vérifie Et réfléchis avant que tu te confies Après leffort le réconfort Je sors avant midi, je rentre après minuit Écouter la concu ça devient lassant Enlève tes bracelets ta ceinture tes lacets Y'en a qui vont se donner à la salle Je nettoie trop mon flingue il est jamais sale Moi, j'ai laissé tomber le foot Pour ouvrir un terrain de fou Des kils, des armes à feu Du pilon de la beuh et même de la schnouf Et regarde, depuis que je perce Jai de la chance je rebaise mon ex, eh Elle me retrouve super mignon Elle me dit que y'a que moi qui l'apaise Je suis toujours postiche avec mes gars Avec nous évite les sujets délicats Koba LaD, la même dégaine de délinquant Je suis toujours au top, gamin revois tes lacunes Et là, je dois niquer qui ? Je dois enculer laquelle ? Ton buzz, tu vas le tenir... Mais dis-moi jusqu'à quand ? Capuché dans ton bal masqué On a volé ton buzz et tes meufs miskine Koba LaD prépare un massacre Dans mon verre y'a ton sang et des morceaux de sucre Je suis arrivé jusqu'ici sans cé-su Poto rien a changé je vis pour les sous J'ai compris que je devais faire du sale Téma mon équipe de fou je suis pas seul A ta gueule ça se voit que t'as mal Jai un 9mm venez même à mille Soit tes dans notre sens ou bien on te mêle J'ai mouillé le maillot, jai des liasses de mille Je prends du terrain, les autres régressent Grâce au four mon ventre s'engraisse Pour l'instant mes disquettes glissent Le petit il sait qu'elle me suce comme sa glace Le joint de beuh part en carotte Et le block devient un potager Et crois-moi quil est faux ton pote si c'bâtard veut pas partager Et les keufs sont à mes trousses Je me faufile dans l'appart à G Ça sert à rien de faire du bruit Je le prends, je le démarre en aparté Mais putain c'est quoi cette dope ? Là j'ai grave besoin d'un parachute Ils sont là quand tout va bien Mais y'a plus personne pour ta chute J'ai mes fréros avec moi dans les bons comme dans les coups durs Et putain c'est quoi tes gars ? Tes négros sont des putes C'est bien de porter du Gucci, Louis V' Au final toi dans les poches t'as nada Eux ils se prennent pour des gangsters Mais quand nous on débarque rien qu'ils décalent Je fume que de la frappe seulement Tu sais, je n'ai que de la frappe sur oim Ouais je vends que de la frappe seulement Tu sais, je n'ai que de la frappe sur moi</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C’est réel</t>
+          <t>Chercher l’or</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C'est réel ma gueule, vérifie Et réfléchis avant que tu te confies Après leffort le réconfort Je sors avant midi, je rentre après minuit Écouter la concu ça devient lassant Enlève tes bracelets ta ceinture tes lacets Y'en a qui vont se donner à la salle Je nettoie trop mon flingue il est jamais sale Moi, j'ai laissé tomber le foot Pour ouvrir un terrain de fou Des kils, des armes à feu Du pilon de la beuh et même de la schnouf Et regarde, depuis que je perce Jai de la chance je rebaise mon ex, eh Elle me retrouve super mignon Elle me dit que y'a que moi qui l'apaise Je suis toujours postiche avec mes gars Avec nous évite les sujets délicats Koba LaD, la même dégaine de délinquant Je suis toujours au top, gamin revois tes lacunes Et là, je dois niquer qui ? Je dois enculer laquelle ? Ton buzz, tu vas le tenir... Mais dis-moi jusqu'à quand ? Capuché dans ton bal masqué On a volé ton buzz et tes meufs miskine Koba LaD prépare un massacre Dans mon verre y'a ton sang et des morceaux de sucre Je suis arrivé jusqu'ici sans cé-su Poto rien a changé je vis pour les sous J'ai compris que je devais faire du sale Téma mon équipe de fou je suis pas seul A ta gueule ça se voit que t'as mal Jai un 9mm venez même à mille Soit tes dans notre sens ou bien on te mêle J'ai mouillé le maillot, jai des liasses de mille Je prends du terrain, les autres régressent Grâce au four mon ventre s'engraisse Pour l'instant mes disquettes glissent Le petit il sait qu'elle me suce comme sa glace Le joint de beuh part en carotte Et le block devient un potager Et crois-moi quil est faux ton pote si c'bâtard veut pas partager Et les keufs sont à mes trousses Je me faufile dans l'appart à G Ça sert à rien de faire du bruit Je le prends, je le démarre en aparté Mais putain c'est quoi cette dope ? Là j'ai grave besoin d'un parachute Ils sont là quand tout va bien Mais y'a plus personne pour ta chute J'ai mes fréros avec moi dans les bons comme dans les coups durs Et putain c'est quoi tes gars ? Tes négros sont des putes C'est bien de porter du Gucci, Louis V' Au final toi dans les poches t'as nada Eux ils se prennent pour des gangsters Mais quand nous on débarque rien qu'ils décalent Je fume que de la frappe seulement Tu sais, je n'ai que de la frappe sur oim Ouais je vends que de la frappe seulement Tu sais, je n'ai que de la frappe sur moi</t>
+          <t>Bellek track Et y a, et y a, et y a un drôle d'équipage à bord du vaisseau Un drôle de mélange au fond d'la vessie, j'ai v'là les casseroles, j'dois faire la vaisselle Un coulis d'amnésia au dessert, un euro, logiquement c'est l'désert C'est dur de combattre tous ses désirs, les galères, c'est devenu un plaisir On surmontera l'usure quand y en aura plusieurs, traîne pas trop dans Roubaix, c'est neigeux, c'st pluvieux Traîne pas trop dans Roubaix, c'est nigeux, c'est pluvieux J'cassais des carreaux comme à Joliot à Saint-Denis J'me suis fait mêler comme au bât' 7 à Evry Normal qu'j'sois la fierté, pour ma ville, j'ai uvré J'essayerai d'remettre dedans le shlag qui veut s'sevrer le shlag qui veut s'sevrer Nous, c'est casse-vitrine, pas lèche-vitrine pas lèche-vitrine La hagra paye que pour les victimes Y a du filtré, plein d'superpouvoirs X-Men qui font muter ZK Dexter, encore une prod' innocente que j'ai buté À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche Ici, on change pas l'tarot des affaires, garanti, j'te la lâche la G13 J'crois qu'j'suis plus apprécié à l'étranger, dans l'rétro, j'ai les ailes de Batman J'suis dans les airs, j'ai même pas fait exprès, eh, BM, c'est d'la bombe, j'accélère Et l'équation d'ma vie, elle se résolue sur la feuille de pte-com J'reviens d'Rotter', j'ai trouvé un filon pour des voitures à cash J'suis avec Landy, j'suis avec ZKR, c'est Bellek à la prod' Y a, y a gue-dro à fois qui tourne à 7.5, pour le four, c'est rentable Ma vie, c'est un film, j'appuie sur tous les boutons comme Michel Sale bâtard, j'vais t'sortir un brolique pah, pah, pah, pah, pah, pah À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche À vouloir chercher l'or, on fini par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chercher l’or</t>
+          <t>Code: La D du 7</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bellek track Et y a, et y a, et y a un drôle d'équipage à bord du vaisseau Un drôle de mélange au fond d'la vessie, j'ai v'là les casseroles, j'dois faire la vaisselle Un coulis d'amnésia au dessert, un euro, logiquement c'est l'désert C'est dur de combattre tous ses désirs, les galères, c'est devenu un plaisir On surmontera l'usure quand y en aura plusieurs, traîne pas trop dans Roubaix, c'est neigeux, c'st pluvieux Traîne pas trop dans Roubaix, c'est nigeux, c'est pluvieux J'cassais des carreaux comme à Joliot à Saint-Denis J'me suis fait mêler comme au bât' 7 à Evry Normal qu'j'sois la fierté, pour ma ville, j'ai uvré J'essayerai d'remettre dedans le shlag qui veut s'sevrer le shlag qui veut s'sevrer Nous, c'est casse-vitrine, pas lèche-vitrine pas lèche-vitrine La hagra paye que pour les victimes Y a du filtré, plein d'superpouvoirs X-Men qui font muter ZK Dexter, encore une prod' innocente que j'ai buté À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche Ici, on change pas l'tarot des affaires, garanti, j'te la lâche la G13 J'crois qu'j'suis plus apprécié à l'étranger, dans l'rétro, j'ai les ailes de Batman J'suis dans les airs, j'ai même pas fait exprès, eh, BM, c'est d'la bombe, j'accélère Et l'équation d'ma vie, elle se résolue sur la feuille de pte-com J'reviens d'Rotter', j'ai trouvé un filon pour des voitures à cash J'suis avec Landy, j'suis avec ZKR, c'est Bellek à la prod' Y a, y a gue-dro à fois qui tourne à 7.5, pour le four, c'est rentable Ma vie, c'est un film, j'appuie sur tous les boutons comme Michel Sale bâtard, j'vais t'sortir un brolique pah, pah, pah, pah, pah, pah À vouloir chercher l'or, on finit par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir Tellement d'soucis, des sous qui rentrent, tellement de peines Beaucoup d'envieux, c'est l'il des gens qu'j'dois éviter Tellement d'soucis, des sous qui rentrent, tellement de peines Des putains d'drive-by, j'dormais même plus la noche À vouloir chercher l'or, on fini par s'salir les mains J'dois endurer l'effort pour mettre à l'abri les miens Combien la boîte re-frè ? Combien les litrons les coups-ci ? Frère, viens pas du coin, eux ils veulent pas m'voir grossir</t>
+          <t>Oy, oy, oy Et la façon dont tu comptes en dit long en dit long, j'avais pas d'me-sper à mon premier deal mon premier deal Et ça débite ça débite et ça débite, pour gonfler l'bénéfice, faut faire des sacrifices Il faut privilégier les blocs, diminuer les dix, les bonbonnes diminuent, la liasse grossit la liasse grossit Il fait trop froid il fait trop froid, taga durci, j'arrive plus à rouler, faut qu'j'aille dans la voiture Si t'es mon reuf, c'est mieux que j'te pousse rien, vaut mieux pas qu'l'argent s'met entre toi et moi entre toi et moi, sinon, c'est foutu Parce que, si tu me paies pas, on va faire comment ? De base, t'es mon frère, de base, t'es mon sang mon sang, en plus, ma daronne aime beaucoup ta daronne en plus, ma daronne aime beaucoup ta daronne Mais je vais pas hésiter à sonner chez toi oy, oy J'barode dans mon fer, xenon sont les feux, quand j'démarre, c'est bleu, je grille tous les feux J'passe devant la gare, j'excite toutes les folles, j'fais plus de bruit qu'les gamos d'Fast and Furious À chaque nouveau clip, une nouvelle pétasse, à la même adresse, j'suis au Novotel J'suis dans l'avion, j'm'endors capuché, au cas où si un fan me prend en photo J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement</t>
         </is>
       </c>
     </row>
@@ -2970,12 +2970,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Code: La D du 7</t>
+          <t>Comme ça</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oy, oy, oy Et la façon dont tu comptes en dit long en dit long, j'avais pas d'me-sper à mon premier deal mon premier deal Et ça débite ça débite et ça débite, pour gonfler l'bénéfice, faut faire des sacrifices Il faut privilégier les blocs, diminuer les dix, les bonbonnes diminuent, la liasse grossit la liasse grossit Il fait trop froid il fait trop froid, taga durci, j'arrive plus à rouler, faut qu'j'aille dans la voiture Si t'es mon reuf, c'est mieux que j'te pousse rien, vaut mieux pas qu'l'argent s'met entre toi et moi entre toi et moi, sinon, c'est foutu Parce que, si tu me paies pas, on va faire comment ? De base, t'es mon frère, de base, t'es mon sang mon sang, en plus, ma daronne aime beaucoup ta daronne en plus, ma daronne aime beaucoup ta daronne Mais je vais pas hésiter à sonner chez toi oy, oy J'barode dans mon fer, xenon sont les feux, quand j'démarre, c'est bleu, je grille tous les feux J'passe devant la gare, j'excite toutes les folles, j'fais plus de bruit qu'les gamos d'Fast and Furious À chaque nouveau clip, une nouvelle pétasse, à la même adresse, j'suis au Novotel J'suis dans l'avion, j'm'endors capuché, au cas où si un fan me prend en photo J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement J'suis dans un bendo tout crade, tout sale, où y a des crachats partout par terre où y a des crachats partout par terre Mais on fait le même chiffre d'affaires que le Président Des mégots de partout, des bouteilles de Jack à côté d'l'ascenseur, ça pue la merde à côté de l'ascenseur, ça pue la merde Bienvenue dans le Bât' 7, mon environnement</t>
+          <t>N.A.Z.A, tu connais le name La bagarre La bagarre Pas dans la fitness Pas dans la fitness, y a que des mecs infréquentables Un boulot vite ait-f Un boulot vite ait-f mais le shooteur vient t'faire en balle J'ai tous mes rides Ouh, ouh, si j'dois refaire, je fais normal Toujours en business Business, business mais j'oublie pas que j'viens d'en bas Noir est l'anneau, rien qu'on est deux sur la bécane Bécane J'suis dans une salade, j'dois payer l'avocat 'vocat Outils dans l garage, pour travaux, j'fais un vocal Ouh Moi, j'suis trop dedans Ouh La Kalash' est sombr, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Ah, ah, ah, comme ça Ah, ah, ah, comme ça Petit Ah, ah, ah, comme ça Ah, ah, ah La petite kiff quand j'la prends comme ça, quand j'accélère comme ça Le bénéfice est intéressant mais on s'ra tous enterrés sans À la base, j'voyais pas tout ça mais au fil du temps, j'ai dû prendre sur moi J'ai dû prendre sur moi et Hamdou'-dou', tout va mieux Des fois, c'est comme ça, j'ai préféré la bimbo J'ai préféré ses tatouages, j'ai préféré cracher-gué sur son dos On voit que son cavu sur la moto, elle galère trop pour monter C'est trop, quand j'regarde son dos, j'ai toujours une envie d'la démonter Démonter Noir est l'anneau, rien qu'on est deux sur la bécane Deux sur la bécane J'suis dans une salade, j'dois payer l'avocat J'dois khalass l'avocat Outils dans le garage, pour travaux, j'fais un vocal Ah Moi, j'suis trop dedans Ouh La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Comme ça Comme a-ç, comme a-ç, négro Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah La bagarre La bagarre La bagarre La bagarre</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Comme ça</t>
+          <t>Comme jamais</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>N.A.Z.A, tu connais le name La bagarre La bagarre Pas dans la fitness Pas dans la fitness, y a que des mecs infréquentables Un boulot vite ait-f Un boulot vite ait-f mais le shooteur vient t'faire en balle J'ai tous mes rides Ouh, ouh, si j'dois refaire, je fais normal Toujours en business Business, business mais j'oublie pas que j'viens d'en bas Noir est l'anneau, rien qu'on est deux sur la bécane Bécane J'suis dans une salade, j'dois payer l'avocat 'vocat Outils dans l garage, pour travaux, j'fais un vocal Ouh Moi, j'suis trop dedans Ouh La Kalash' est sombr, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Ah, ah, ah, comme ça Ah, ah, ah, comme ça Petit Ah, ah, ah, comme ça Ah, ah, ah La petite kiff quand j'la prends comme ça, quand j'accélère comme ça Le bénéfice est intéressant mais on s'ra tous enterrés sans À la base, j'voyais pas tout ça mais au fil du temps, j'ai dû prendre sur moi J'ai dû prendre sur moi et Hamdou'-dou', tout va mieux Des fois, c'est comme ça, j'ai préféré la bimbo J'ai préféré ses tatouages, j'ai préféré cracher-gué sur son dos On voit que son cavu sur la moto, elle galère trop pour monter C'est trop, quand j'regarde son dos, j'ai toujours une envie d'la démonter Démonter Noir est l'anneau, rien qu'on est deux sur la bécane Deux sur la bécane J'suis dans une salade, j'dois payer l'avocat J'dois khalass l'avocat Outils dans le garage, pour travaux, j'fais un vocal Ah Moi, j'suis trop dedans Ouh La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa Petit, nazo mela nwa La Kalash' est sombre, c'est noir La Kalash' est sombre, c'est noir Le congo' de Sinaloa, petit, nazo mela nwa, comme ça Comme ça Comme a-ç, comme a-ç, négro Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah, comme ça Comme a-ç, comme a-ç, comme ça Ah, ah, ah La bagarre La bagarre La bagarre La bagarre</t>
+          <t>Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais Adieu les berlingos, j'roule un bédo sur un lingot C'est fou comme je parais plus beau, plus j'fais des sous plus j'fais des go Je vie ma meilleur life, nouveau gamos, nouvelle wife Chaîne en iamant tout de ice-ice-ice-ice-ice Boss, Adieu boloss J'ai deux Porches sur le torse, tu parles chinois j'parle en Rolls Roys Je ne fais plus de choix, j'prends les deux C'que j'aime pas j'la mettrais qu'une fois J'suis toujours le même pour tout ce qui me connaissent J'ai fais c'qu'il fallait le ciel me comprend Un jour viendra mon heure sur ma Rolex en diamant Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais La Grinta gère les terrains comme les Pogba Transac', 20 kilos bim-bam-boum Nou ka fé lajan mwaka moon, et on vas s'armer à la tomber de la Lune J'veux la plus grosse coupe, la meilleur ceinture Et sa d'puis l'époque du sainté Depuis Deuspi l'avait senti, toi tu croyais qu'on disait des sottises J'ai pas changé j'suis toujours le même, toujours la même date, toujours la même niak Mais imaginé y'a des kilomètres tout est millier, j'm'approche du million Et vers ici bah c'est nous on gère, toujours d'la peufra, toujours d'la pasta J'ai d'la beuh qui brille, mon shit c'est d'la mousse Et sous CR c'est mon sin-cou Mès Et la haine prend l'dessus sur le M J'fais la une sans l'vouloir tu vas me voir Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais J'suis sur le rain-té, baissez les vitres teintées comme un été J'suis frais et beau comme un bébé, les mamas veulent m'allaiter Je me couche mais je n'ai pas sommeil J'attends la fin des pleurs qui c'est les levé de soleil Police la ka tounin yo pa sav sa pou fè Lè yo tchébé en nwè yo bizwen fè'y wè misè Réisit en nèg sé sa ka fè yo soufè Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais</t>
         </is>
       </c>
     </row>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Comme jamais</t>
+          <t>Cool</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais Adieu les berlingos, j'roule un bédo sur un lingot C'est fou comme je parais plus beau, plus j'fais des sous plus j'fais des go Je vie ma meilleur life, nouveau gamos, nouvelle wife Chaîne en iamant tout de ice-ice-ice-ice-ice Boss, Adieu boloss J'ai deux Porches sur le torse, tu parles chinois j'parle en Rolls Roys Je ne fais plus de choix, j'prends les deux C'que j'aime pas j'la mettrais qu'une fois J'suis toujours le même pour tout ce qui me connaissent J'ai fais c'qu'il fallait le ciel me comprend Un jour viendra mon heure sur ma Rolex en diamant Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais La Grinta gère les terrains comme les Pogba Transac', 20 kilos bim-bam-boum Nou ka fé lajan mwaka moon, et on vas s'armer à la tomber de la Lune J'veux la plus grosse coupe, la meilleur ceinture Et sa d'puis l'époque du sainté Depuis Deuspi l'avait senti, toi tu croyais qu'on disait des sottises J'ai pas changé j'suis toujours le même, toujours la même date, toujours la même niak Mais imaginé y'a des kilomètres tout est millier, j'm'approche du million Et vers ici bah c'est nous on gère, toujours d'la peufra, toujours d'la pasta J'ai d'la beuh qui brille, mon shit c'est d'la mousse Et sous CR c'est mon sin-cou Mès Et la haine prend l'dessus sur le M J'fais la une sans l'vouloir tu vas me voir Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais J'suis sur le rain-té, baissez les vitres teintées comme un été J'suis frais et beau comme un bébé, les mamas veulent m'allaiter Je me couche mais je n'ai pas sommeil J'attends la fin des pleurs qui c'est les levé de soleil Police la ka tounin yo pa sav sa pou fè Lè yo tchébé en nwè yo bizwen fè'y wè misè Réisit en nèg sé sa ka fè yo soufè Des millions d'euros j'suis refait, Adieu la galère et les regrets Des fins de mois plus rien ne m'effraie, j'suis plus protégé que le préfets Aya-ya-ya-yaii J'suis dans la street frais comme jamais Aya-ya-ya-yaii J'suis dans la street frais comme jamais</t>
+          <t>Tr</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cool</t>
+          <t>Dans la nuit</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>Hum, hum, hum Hum, hum, hum Xavii Ouh, ouais Hum, hum, hum J'ai vu des démons dans la nuit Dans la nuit, j'les ai vu prendre mes amis Mes amis, mes amis J'les ai vu prendre mes amis, ne jamais m'les ramener sans demander mon avis Mon avis J'suis né pas loin de Paris Paris mais si loin du cur de la ville La ville J'suis tellement passé par des choses, des fois, j'ai l'impression d'avoir vécu deux vies Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangèr, c'est p't-être le passé qui vut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer J'récup' d'la vodka et des ballons Ciroc pêche et des bombonnes, pour une pute qui maitrise dix langues Gracias, c'est en espagnol J'paye tout en euros, en dollars En dollars, en dine' En dine', 'ros Grah, j'sors un appart', j'sors mes bilans Comme mon agent, il m'oblige Ma putain d'Skeleton, c'est l'prix d'une Merco Bâtard, elle m'voit trop comme un narco' Ah -ah C'est plus l'époque des grecs à quatre Han, des barrodes en voiture péta Han Un Araï, un X-ADV ADV, armé à ton RDV RDV, y a personne pour répliquer Ah-ah On est pas dans les signes de gang, nous Pas dans les trucs de ah-ah mais dans Wesh, mon pote, ça vient d'où ? Ton bigo, ta casquette J'vais pas t'raconter mes embrouilles J'vais pas t'raconter mes problèmes Suce-moi la bite, fais-moi des papouilles Han, han, han, han, han, han J'ai vu des démons dans la nuit La night, j'les ai vu prendre mes amis Mes potes J'les ai vu prendre mes amis Yeah, ne jamais m'les ramener sans demander mon avis Yeah, yeah, yeah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Il m'ont traité d'fou mais pas d'menteur Yeah, pensif à la station quand j'remplie l'moteur J'ai sorti l'T-MAX, j'fais pas l'signes des motards, y en a marre des bleus, faut qu'tu payes en moutarde Me casse pas les couilles, soit tu payes, soit tu pars, on s'croise en vrai mais c'est après qu'il parle Ça s'entend plus quand les métaux froids parlent Fah, fah, fah, j't'ai croisé en vrai, fils de pute et c'est maintenant qu'tu parles Négro, j'suis fidèle à mort, I got a Gucci, Dior Dior, j'ai d'jà claqué la kichta d'hier, j'étais là quand t'étais seul dehors Yeah On avait le même sac, les mêmes paires Yeah, on ressemble à des sins-c' dans les airs Sins-c' dans les airs Prie pour moi si je m'en sors Si je m'en sors, j'prierai pour toi si j'm'en sers Grr, pah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Han, han, han, han, han, han Han, han, han, han, han Han, han, han, han, han</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dans la nuit</t>
+          <t>D’la patate</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Hum, hum, hum Hum, hum, hum Xavii Ouh, ouais Hum, hum, hum J'ai vu des démons dans la nuit Dans la nuit, j'les ai vu prendre mes amis Mes amis, mes amis J'les ai vu prendre mes amis, ne jamais m'les ramener sans demander mon avis Mon avis J'suis né pas loin de Paris Paris mais si loin du cur de la ville La ville J'suis tellement passé par des choses, des fois, j'ai l'impression d'avoir vécu deux vies Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangèr, c'est p't-être le passé qui vut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer J'récup' d'la vodka et des ballons Ciroc pêche et des bombonnes, pour une pute qui maitrise dix langues Gracias, c'est en espagnol J'paye tout en euros, en dollars En dollars, en dine' En dine', 'ros Grah, j'sors un appart', j'sors mes bilans Comme mon agent, il m'oblige Ma putain d'Skeleton, c'est l'prix d'une Merco Bâtard, elle m'voit trop comme un narco' Ah -ah C'est plus l'époque des grecs à quatre Han, des barrodes en voiture péta Han Un Araï, un X-ADV ADV, armé à ton RDV RDV, y a personne pour répliquer Ah-ah On est pas dans les signes de gang, nous Pas dans les trucs de ah-ah mais dans Wesh, mon pote, ça vient d'où ? Ton bigo, ta casquette J'vais pas t'raconter mes embrouilles J'vais pas t'raconter mes problèmes Suce-moi la bite, fais-moi des papouilles Han, han, han, han, han, han J'ai vu des démons dans la nuit La night, j'les ai vu prendre mes amis Mes potes J'les ai vu prendre mes amis Yeah, ne jamais m'les ramener sans demander mon avis Yeah, yeah, yeah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Il m'ont traité d'fou mais pas d'menteur Yeah, pensif à la station quand j'remplie l'moteur J'ai sorti l'T-MAX, j'fais pas l'signes des motards, y en a marre des bleus, faut qu'tu payes en moutarde Me casse pas les couilles, soit tu payes, soit tu pars, on s'croise en vrai mais c'est après qu'il parle Ça s'entend plus quand les métaux froids parlent Fah, fah, fah, j't'ai croisé en vrai, fils de pute et c'est maintenant qu'tu parles Négro, j'suis fidèle à mort, I got a Gucci, Dior Dior, j'ai d'jà claqué la kichta d'hier, j'étais là quand t'étais seul dehors Yeah On avait le même sac, les mêmes paires Yeah, on ressemble à des sins-c' dans les airs Sins-c' dans les airs Prie pour moi si je m'en sors Si je m'en sors, j'prierai pour toi si j'm'en sers Grr, pah Dans l'étrangère, un étranger, il fume sur le pack, sur le 100G Yeah Il l'avoue, les lov' l'ont fait changer, j'le vois pas mais partout, y a du danger Dans l'côté passager d'l'étrangère, c'est p't-être son passé qui veut s'venger C'est p't-être son passé qui l'a forgé mais c'est pas ça qui va l'éliminer Han, han, han, han, han, han Han, han, han, han, han Han, han, han, han, han</t>
+          <t>Tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Des kilos, d'la monnaie Du taga, d'la beu'her Et mets pas ton nez dans nos affaires Il va se retrouver dans notre farine Tu connais déjà nos vies J'vis, j'dors j'recompte le bif Tu connais déjà nos vies J'récupère, j'détaille, j'rentabilise Eh eh, RK Koba la D On nique le game on t'parle après Et nous a la base on était pour La revendre quitte à finir en perte Eh, nous teté cramé dans l'four Toi t'écoute mais tu fais l'sourd Ils ont l'seum depuis qu'on enquête Le quartier est mieux faut qu'je gagne des sous Eh, eh téma l'train d'vie Ils sont remplis d'vices Koba récup 5 kil' Détaille et fait partir J'donne corps et âme pour pas être à sec RK va te passer l'sac-eu C'est Bang bang, c'est B7 La getta armé au 357 Moi j'sais c'que j'te raconte En vrai si tu bétom c'est qu'tes con Les potos m'ont dit fonce La vie d'artiste c'est vraiment cool Mais la c'est cuit, y'a gentil despi en sécu' D'la rue au stud on est passés des kil' au biz' Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la pastèque on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>D’la patate</t>
+          <t>Double D Kyoh</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Des kilos, d'la monnaie Du taga, d'la beu'her Et mets pas ton nez dans nos affaires Il va se retrouver dans notre farine Tu connais déjà nos vies J'vis, j'dors j'recompte le bif Tu connais déjà nos vies J'récupère, j'détaille, j'rentabilise Eh eh, RK Koba la D On nique le game on t'parle après Et nous a la base on était pour La revendre quitte à finir en perte Eh, nous teté cramé dans l'four Toi t'écoute mais tu fais l'sourd Ils ont l'seum depuis qu'on enquête Le quartier est mieux faut qu'je gagne des sous Eh, eh téma l'train d'vie Ils sont remplis d'vices Koba récup 5 kil' Détaille et fait partir J'donne corps et âme pour pas être à sec RK va te passer l'sac-eu C'est Bang bang, c'est B7 La getta armé au 357 Moi j'sais c'que j'te raconte En vrai si tu bétom c'est qu'tes con Les potos m'ont dit fonce La vie d'artiste c'est vraiment cool Mais la c'est cuit, y'a gentil despi en sécu' D'la rue au stud on est passés des kil' au biz' Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la patate on t'ramène d'la patate Si tu veux d'la pastèque on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta Si tu veux d'la patate on t'ramène d'la pasta</t>
+          <t>Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont ap ti-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps, 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets on va te monter en l'air Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une Kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille1</t>
         </is>
       </c>
     </row>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Double D Kyoh</t>
+          <t>Du</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille La vie c'est dur le rap c'est beaucoup plus facile Et je sais qu'j'les facine Moi c'est l'terrain qui gère mes finances J'ai toujours la même finesse C'est la street qui nous influence Regarde où ça nous mène On t'piétine pour de l'argent sale J'bicrave tout et n'importe quoi L'argent n'a pas d'odeur Mais ça se sent quand t'en as pas J'arrive toujours à l'heure Me parle pas si t'as pas d'gent-ar Nique la mu-mu, la nationale et les gendarmes Ces bâtards sont ap ti-gen Quand j'les vois j'cours j'veux rien savoir Numéro uno, j'suis la révélation d'l'année En 2 temps, 3 mouvements Moi j'ai éteint toute une géné' J'suis pas très généreux J'les bute pendant le générique Aujourd'hui j'suis l'gérant en gros Que des négros gainés, j'ai l'ticket gagnant J'suis très bien entouré, on nique ton entourage on nique toute ton équipe Et si t'as l'courage, de v'nir ici faut qu't'aies du jus Prend nous au sérieux, les armes qu'on a c'est pas des jouets on va te monter en l'air Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille C'est l'début d'la fin pour vous, le premier on l'a r'trouvé pendu Vous êtes morts bande de salopes vendues J'suis rev'nu mettre à l'heure les pendules Et c'est mort pour la concu' J'qué-bra l'game, j'le fais sans cagoule Pour l'instant personne m'calcule, bah maintenant j'vais v'nir mettre des claques Et vu qu'j'suis mort khabat, j'démarre l'enculé qui sépare Attendez vous au pire, j'vais rien laisser paraître J'vais rien laisser passer, celui qui parle mal on l'enterre Ça y est j'suis décidé faut j'perce Et moi c'est aux gros sous que j'pense Et pour l'instant ça s'passe vu qu'c'est moi qui détaille, j'recharge Et petit faut qu'tu saches que dormir c'est que pour les riches À l'heure où j'te parle j'pue la tise comme un gros bâtard Dans la cabine, mon flash j'le tiens comme une Kalash On crie c'que tu chuchotes Plus personne n'a les chocottes T'en perds tes chicots Toutes ces chiennasses on les chicote On doit v'nir chez qui ? Guette la dégaine de mes chacals Y a un pochton pour chaque, je sais qu'le critical les choque Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille Kobz' Double D La détaille ou la débrouille La détaille ou la débrouille1</t>
+          <t>Duck</t>
         </is>
       </c>
     </row>
@@ -3089,12 +3089,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Du</t>
+          <t>En Vérité</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Duck</t>
+          <t>J'ai les keufs sur mon dos, j'ai mon bébé dans son ventre Ah-ah-ah Ouais J'ai les keufs sur mon dos Han, j'ai mon bébé dans son ventre Han, j'ai ma zipette dans son dos Dans son dos Au début, c'était bien mais tu connais, au fil du temps, ça devient de plus en plus chaud Nan, j't'ai pas menti, j'ai toujours été sincère Sincère à chaque fois, toujours calibré, dans l'RS3, j'm'insère J'suis dans les affaires Ffaires-a, j'ai un seul pied dans la 'sique, l'autre, dans les affaires Donc si demain, ça marche plus, j'sais c'qu'il m'reste à faire J'ai charbonné d'puis cinq années pour en arriver là, pas changé d'équipe, c'est toujours les mêmes Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi J'fais monter les kich' en un coup d'fil Coup d'fil, bah ouais, j'fais d'la magie Ouh Tu sais qu'j'ai ma gratte sur la Blue Magic Ouh, ouh, j'compte pas qu'sur la 'sique, j'peux pas finir fauché C'est mort Tu sais qu'j'suis précis comme un gaucher, gaucher, les balles font qu'des ricochets, 'cochets Sur le terrain, virgule, crochet, bébé, j'peux pas m'accrocher, 'ccrocher Et j'ai fait des dingueries pour le papel Bah, j'ai fini la bouteille, j'suis pété comme Marley Comme Biggie Le statut a changé, tous ceux qui bombaient, ils s'mettent à sucer Mais j'suis habitué J'fais confiance qu'au Très-Haut, ta dernière vision, ce s'ra la moto Non Dans tous les faits divers, j'fais couler l'averse, j'me fais discret sur la photo Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les bleh mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi1</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>En Vérité</t>
+          <t>Extrait 1*</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>J'ai les keufs sur mon dos, j'ai mon bébé dans son ventre Ah-ah-ah Ouais J'ai les keufs sur mon dos Han, j'ai mon bébé dans son ventre Han, j'ai ma zipette dans son dos Dans son dos Au début, c'était bien mais tu connais, au fil du temps, ça devient de plus en plus chaud Nan, j't'ai pas menti, j'ai toujours été sincère Sincère à chaque fois, toujours calibré, dans l'RS3, j'm'insère J'suis dans les affaires Ffaires-a, j'ai un seul pied dans la 'sique, l'autre, dans les affaires Donc si demain, ça marche plus, j'sais c'qu'il m'reste à faire J'ai charbonné d'puis cinq années pour en arriver là, pas changé d'équipe, c'est toujours les mêmes Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi J'fais monter les kich' en un coup d'fil Coup d'fil, bah ouais, j'fais d'la magie Ouh Tu sais qu'j'ai ma gratte sur la Blue Magic Ouh, ouh, j'compte pas qu'sur la 'sique, j'peux pas finir fauché C'est mort Tu sais qu'j'suis précis comme un gaucher, gaucher, les balles font qu'des ricochets, 'cochets Sur le terrain, virgule, crochet, bébé, j'peux pas m'accrocher, 'ccrocher Et j'ai fait des dingueries pour le papel Bah, j'ai fini la bouteille, j'suis pété comme Marley Comme Biggie Le statut a changé, tous ceux qui bombaient, ils s'mettent à sucer Mais j'suis habitué J'fais confiance qu'au Très-Haut, ta dernière vision, ce s'ra la moto Non Dans tous les faits divers, j'fais couler l'averse, j'me fais discret sur la photo Elle veut qu'j'la ken mais j'sais qu'elle aime trop ça Elle veut qu'j'la démarre dans l'premier hôtel Elle fait les bleh mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille Quand j'sors de boîte, j'remonte dans la S3 Clim' à fond, j'fais chauffer la garri Elle fait les 'blèmes mais j'sais qu'elle aime trop ça Elle fait crari mais vas-y, tranquille En vérité, j'crois bien que j'suis pas fait pour elle, la street m'attire mais j'veux pas finir avec elle Non, j'vais pas hésiter si j'dois re-ti pour un d'mes frères, en vérité, j'crois bien que j'suis pas fait pour elle En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi Si j'me fait pét', elle va pas supporter Si j'me fait pét', à coup sûr, tu vas pleurer J'prends mes distances, j'évite de m'attacher Ou à la longue, tu diras qu'j'suis qu'un bâtard En vérité, j'suis même pas fait pour elle En vérité, bébé, j'suis pas fait pour toi1</t>
+          <t>FeFe à Marseille Regarde l'RS6, regarde l'SVR, regarde bien, ta mère, c'est les même sur Insta Heureusement qu'j'ai suivie mon instinct putain, mais de toute façon, c'est mon destin Elle aimerai m'avoir qu'un instant, c'est mort, s'est folles c'est que vole-morts J'suis trop au quartier, j'suis trop au quartier, j'm'en bat les couilles de connaître les rues de Panam Entrain d'lui parler, j'essaie d'la dragur, elle sait pas que dans ma sacoche j'ai une me-ar Si j'te parle encore, c'est qu't'es un bon, sinon, j'taurais laisser comme les autres fils de putes J'suis plus trop à la tess', maintenant, c'est mon p'tit frère qui assure ma réput' D'la zipette, il en reste encore, me parle pas pour en prendre Si tu m'as fait déplacer, la vie d'ma reum', tu la prends J'ai une touche sur la beughi, pour pas plus d'48 C'est d'la frappa d'Hollande qu'on réceptionne d'la Belgique</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Extrait 1*</t>
+          <t>Extrait 2*</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FeFe à Marseille Regarde l'RS6, regarde l'SVR, regarde bien, ta mère, c'est les même sur Insta Heureusement qu'j'ai suivie mon instinct putain, mais de toute façon, c'est mon destin Elle aimerai m'avoir qu'un instant, c'est mort, s'est folles c'est que vole-morts J'suis trop au quartier, j'suis trop au quartier, j'm'en bat les couilles de connaître les rues de Panam Entrain d'lui parler, j'essaie d'la dragur, elle sait pas que dans ma sacoche j'ai une me-ar Si j'te parle encore, c'est qu't'es un bon, sinon, j'taurais laisser comme les autres fils de putes J'suis plus trop à la tess', maintenant, c'est mon p'tit frère qui assure ma réput' D'la zipette, il en reste encore, me parle pas pour en prendre Si tu m'as fait déplacer, la vie d'ma reum', tu la prends J'ai une touche sur la beughi, pour pas plus d'48 C'est d'la frappa d'Hollande qu'on réceptionne d'la Belgique</t>
+          <t>Paroles provenant d'un extrait J'ai que du fair-play, t'inquiète, j'fais fumer Mais pas tout le monde, elle reviens chère la 'quête Que des appels de gaze, des appels de gaze Et sur le dos-dos, j'ai niqué ma paire Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond j'tourne en rond Avec mes pneus arrières, j'fait des ronds En c'moment j'me fait rares, en c'moment j'm fait rares P'tit frère, la pillave c'st d'la merde , j'fume une clope sur l'balcon Des fois j'suis au dépôt</t>
         </is>
       </c>
     </row>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Extrait 2*</t>
+          <t>Extrait Exclu 2020*</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Paroles provenant d'un extrait J'ai que du fair-play, t'inquiète, j'fais fumer Mais pas tout le monde, elle reviens chère la 'quête Que des appels de gaze, des appels de gaze Et sur le dos-dos, j'ai niqué ma paire Et comme j'galère sa grand-mère, dans l'bloc, j'tourne en rond j'tourne en rond Avec mes pneus arrières, j'fait des ronds En c'moment j'me fait rares, en c'moment j'm fait rares P'tit frère, la pillave c'st d'la merde , j'fume une clope sur l'balcon Des fois j'suis au dépôt</t>
+          <t>Paroles provenant d'un extrait Les manuvres, j'suis l'noir préférer de Jean-Pierre et Manu, gros ouais c'est son nez Regard froid, menaçant, si sa monte pas cette été yah, yah, yah, yah, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si le r' coule j'ai d'jà percer dans tous les cas tous les cas Le mal dans tout, tout les rond-coins, y a pas d'bagaille, j'ai tout guetter pour le terrain Moi, j'suis pas un radin, mais c'est la pénurie, même un kilo j'peux même pas dépanner aux autres Deux beugeuh différentes, deux beuh différentes, pour passer la, crois-moi que la meilleur c'est l'autre c'est l'autre C'est trop mon pote, moi j'suis pas beau wouho Mais bon, mes thunes et l'odeur d'ma beuh wouho fait que, j'peux baiser qui j'veux Mais non, c'est mort, c'est follasse, sont toutes rrés-bou J'suis sur l'terrain, j'veux suis pas forcer, c'est un choix que j'ai décider de faire tout seul de faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous, mais j'en veux encore encore Entre nous 1 millions d'écart Le cur lourd, assombri par la rancur cur', mais s'adoucit quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre, mais y a du biff, faut que j'résiste faut que j'résiste</t>
         </is>
       </c>
     </row>
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Extrait Exclu 2020*</t>
+          <t>Fire in the Booth “No Borders” Special</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Paroles provenant d'un extrait Les manuvres, j'suis l'noir préférer de Jean-Pierre et Manu, gros ouais c'est son nez Regard froid, menaçant, si sa monte pas cette été yah, yah, yah, yah, j'rajoute d'la C, gros J'récupère les sous, j'ai d'jà la feuille de compte, si le r' coule j'ai d'jà percer dans tous les cas tous les cas Le mal dans tout, tout les rond-coins, y a pas d'bagaille, j'ai tout guetter pour le terrain Moi, j'suis pas un radin, mais c'est la pénurie, même un kilo j'peux même pas dépanner aux autres Deux beugeuh différentes, deux beuh différentes, pour passer la, crois-moi que la meilleur c'est l'autre c'est l'autre C'est trop mon pote, moi j'suis pas beau wouho Mais bon, mes thunes et l'odeur d'ma beuh wouho fait que, j'peux baiser qui j'veux Mais non, c'est mort, c'est follasse, sont toutes rrés-bou J'suis sur l'terrain, j'veux suis pas forcer, c'est un choix que j'ai décider de faire tout seul de faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous, mais j'en veux encore encore Entre nous 1 millions d'écart Le cur lourd, assombri par la rancur cur', mais s'adoucit quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre, mais y a du biff, faut que j'résiste faut que j'résiste</t>
+          <t>Hey Eh, eh Alors, yes bébé, alors, oh Yes bébé, alors, il reste d'la zipette près du port J'ressors de showcase, j'ai trentre fois l'salaire de ta pute Fonce-dé au boum-boum avec P, ça tire ta feumeu au laser Glocké, j'reste peace, j'fais tomber kichta dans la caisse Yo, turn, yo This Lamborghini got a two seats Woo I'm speedin' 'round and I'm in Dubee Woo Monogram print, I can't see through the Louis She can't get to know the true me Bro from South got a pack for a works and I told him to introduce me He wanna phone me when it's time to war, but when it's bread, he won't include me C'est comme ça, c'est un choix de vie, souvent obligé d'te mentir Même si j'voulais, j'peux pas tout dire, même si j'voulais, j'peux pas tout dire Même si ça va, qu'nous deux c'est cool, à la longue, moi ça va m'lasser Donc je compte, j'recompte des sous et je regarde le temps passer Turn, yo You see me in Paris, I'm faded, I feel like I'm Little Boosie This bad B think that I made it, I ain't tryna bring all my goons in Yo, I wanna pull up to Tape, I wish I could bring all my boots in Uh, on Broadwater estate, the police wanna be a nuisance Harbat selek, condés Turn, turn, turn Une hasba d'litrons, bénef' Turn, turn, they told me turn Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Suh, suh-suh-suh, turn up, turn up doet z'n best, uh Bless 'em, ik geef 'm een fooitje M'n paps zitten lang in de prison of spang bij de bank en ik laat het ontdooien Ze kijken naar mij en ze willen destroyen, proberen m'n doelen te stoppen, net Nooijer Jij joint de andere kant in de hoop dat de andere kant je gaat joinen Ben met je bitch en ik ben niet eens pooier , doe haar in de sauna Shawty weet niet hoeveel geld ik bezit, nee, ze voelt het gewoon aan m'n aura Manager belt mij, hij wilt voor me storten, maar ik ben op stacken, dus ik zeg 'm Hou maar Ik kon allang zijn waar ik ben, maar moet zorgen dat ik niet dezelfde fout maak Harbat selek, condés Woeh, shit Une hasba d'litrons, bénef' Glah, glah, glah, glah Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Turn, turn, turn, turn, turn up Okay Ayy, that's how we're startin' tings proper out here Some international business, you hear what I'm sayin'? Keepin' it proper out here, mate And we just warmin' up Okay, round two Wow, wow, wow Woo M1OnTheBeat Let's get it, bro Ey, ey, ey Zehn von zehn Brüdern zu echt, heh Neun von zehn Brüdern sind da, ah Und meine Feelings sind dead, heh Weil ich nie Liebe bekam, ey Niggas bewaffnet mit TECs, heh Nicht nur die Messer sind scharf, ah Alle Gesichter verdeckt, heh Weil Bullen kennen die Nam'n Egal, was sie sagen, ey Nein, es gibt keine Liebe, ey Demons, sie flüstern mir täglich in mein Ohr Ja, ich seh' sie im Spiegel, ey Ja, my nigga, sind täglich depressed, heh Weil ich die Schmerzen so mag, ah Und deshalb holen wir jetzt, hm Was von uns keiner bekam, ja Ey, Feelings dead, nein, ich fühl' mich lost Zu viele ging'n hops, keine Minijobs Viel zu viele Gs und zu wenig Cops Hah, Roli-Watch, Diamanten-Rocks Springe aus dem Balkon, wenn es wieder klopft Im Hosenbund 'ne scharfe Millimeter-Glock Stellen uns vor jeden, knien nur vor Gott Mich liebt der Block, ich lieb' den Block Ah, viele tot, doch ich weine nicht Denn auch mir geht es schlecht, doch ich zeig' es nicht Ah, weil ein Mann in mein'n Augen, der Bizzy mit Liebe vertauscht, einfach peinlich ist, heh Und ich kann niemand trauen, der Karten mit Liebe vertuscht, also eigentlich, heh Kann ich niemanden trauen, der nicht mit 'ner Maske rumläuft, zeigen kein Gesicht, ah Kein Vertrau'n Zu all den Fotzen, deshalb bleibe ich alone Wahre Liebe wird es niemals geben, also nicht mit einer Thottie, heute stell' ich lieber alles über Hoes Ah, für die Bros Denn nur sie, Mann, können uns sagen, wir sind close Lügt mir in die Fresse, ja, sie redet mir von Liebe Alles Shows, Baby, sag mir, würdst du bleiben, bin ich broke? Ey, sie will nur Sonne wie Hollywood, ey Gucke dir tief in die Waffe und greif' nach der Waffe wie'n Die kleine Bitch fragt nach mei'm Bodycount Ich lasse sie dann an mei'm Body kau'n Und Bitch-Niggas reden von Packets, sie woll'n sich nicht messen, ich schicke dein'n Body hoch, ey Ey, Stockholm, Sweden, pow Ey, ey, ey Jag vissla från cellen, det ingen som svarar, avdelningen är död Nyss jag kom ifrån arren, brottsplatsen är fortfarande röd Min grabb, han är på sin demon time, sa till han, Du har mitt fulla stöd, kör Vart än vi går, vi ställer till med en scen, scen, scen Fint folk kommer alltid försent, jag är snart vid entrén, säg till väktarna, Öppna Fem anstalter på mindre än ett år Min sverigeturné den har redan Nordvästra Stockholm, skottdrama, folk här, de är skjutglada Minns du när man gjorde hans bil till en skjutbana? Nu han springer runt påtänd Med en rostig pistol, han vill utmana Studiovan, det ingen ny vana Jag har en Mastercard, redo betala Kom, vi går fingerpulla kortläsaren i Prada Sponsorer inte sponsrade, musikvideorna är påkostade En klocka upp för de som kå-kåkade, bam, bam Yes Come on, know they miss Charlie, man Ayy, we out here, bro, we ain't messin' about today All over Europe, man We in Paris right now My guys in the buildin', you know, compilation, you know What? Tape comin' this week Headie, yeah? Come on, ASAP, ASAP Man gettin' hot in here, have to back off the jacket Gettin' hot in here, bruv, aight We ain't done yet My guy, Pajel Can't be us, it's crazy M1OnTheBeat My brudda, you know Ayy Let's get 'em, bro Ay Okay Keep it runnin' Charlie, keep it runnin' Ayy, you gonna go? You gonna go? Yeah, I'm gonna go crazy, let's go, yo Get 'em, Headie Turn Fuckin' hell, yo, yo Came in the scene with a mainstream bootin' Didn't wanna end up famous An opp boy ran up to bine and slept in O, now we still gotta praise his braveness They beefin' babies, the ambulance took him away in a manger The bores that I pushed in Scotland, I could be playin' for Rangers The workers dem needed the payment I'm Liam Neeson if the pack got taken And now we're sleepin', it's a nightshift, dayshift Had to to reason if a man touched flavours Yo, I said the little bro's run down shh and they gotta make that an anthem Don't know why they gotta free big A, he got recalled, he got shaved by the mandem I see you, Headie First time it's been done The best rappers from all around Europe in one place Hardest out here, right now And we ain't done yet, we ain't done Woo Yo, know the vibe, jheeze Feel special right now M1OnTheBeat You ain't seen this before Yo, turn Ayy, take up the Church, Headie Grew in my seabass, grew in my salmon Uptown, I pulled up with a Ghost, I'm feelin' like Angelina Valdes You know This bad B got it on bank, she don't need no allowance Uh-uh See me jewelled up in a casual day, that's minimum sixty thousand Yeah Shorty don't wanna do nothin' today, take some selfies and sit there poutin' Diamonds dancin', all you see is water Water You ain't gotta go Prada and bat man No I like my shorty natural, I ain't gotta tell her to mind the Calvin's I'm at home sippin' Magnum's, I need me a hundred racks in Altham I ain't smokin' my friend when I say I put arms on gangnem No How you think shh got set alight when you done him just like a lantern? Bo-bo Yo, bro just scored, Geronimo, now he wanna eat at Amazonico with a hand ting with the longest nose Longer than Pinocchio Uh, uh Yo, extreme opposites in my portfolio 'cah we really bring BRIT awards Ever seen a crack fiend overdose? You ever been in curfew time tryna whip it up and go your home? Twenty-one seconds to go, I'm still tryna' get it all done like Romeo Ayy, right now, I'm in Pari' Bro just phone for the ends, they were talkin' 'bout shh then he got turned Cali' G Lock field up to the brim, doin' laps 'round like we're in Lee Valley Got my jewels shinin' in the trenches, posted with that big fat swammy D-T-B, I'm old-school like Nani We still take to the park and test them I ain't got time impress them Side-by-side in the ride with my best friend Can't forget Ramz, always tryna go kweff them F them, I'll cheff them They love talk on my name, God bless them Probably my diamond wrist that stressed them Yo, two man, four shanks, only big boy tanks When I'm on them sides, hella man do planks I ain't pullin' no stunts, live corn, no blanks When shush got, it was more than bants I had a hood bitch just like Ms Banks, she kept my grub safe, so I gotta give thanks They say I can't mix pleasure with business, but I'll still slip my D through her Mention my name, then you better have fifty Sorry, I hit his habibti D2B, man done it so swiftly You ain't made a .9 bell go so quickly Still livin' life risky T house really got tricky I heard a cat called me by my rap name, imagine, it could've got sticky I just bought dings, bring that burner out, bap, bap, bap, bap, bap Bap Corn woke up all the neighbours, I knew walalo let it ring, no doubt OFB, we just always about, even when them times, we had waps on drought Had his sister all at my mum's bit throwin' it back when she wanted some clout I'm in then I'm out We went from babies straight to men Push me to the end, that's my life on the line tryna' whoosh one of them Oh no, I can't go jail go again, already been there once, but I'll still reoffend Darlin', no need to pretend, when there's no makeup, you still look ten-ten M1OnTheBeat Woo You know, you know Come on then Live Some history stuff in the buildin' right now Feels special, it feels right Feel like the whole of Europe's comin' together right now Someone in the studio said, Mm, I ain't even need them man in the U.S. no more Aight, mad out here And we ain't done yet man M1OnTheBeat Let's run some game on it, Headie Yo I was upsee sofa surfin', now it's two waps, could've bought a Birkin Thought I got a drop, but it weren't him Guess Rev really was reversin' And Oscar hold corn than more than worthy Smoke filled up with bine, press hood of dirty It was three for two-five and four for thirty Now it's chandeliers, my shorts are Burberry Tell me, who wanna hold a gurney? Five blocks squished makes the four-door goin' Free Kash, he was doin' up coleine, now he's fresh home, it's a cause for commotion Both wrist covered in Evian, 'course two smokes in a ride got normal Yeah I ain't tryna' go on a memorial, bro got one in his head, that's protocol You know They run down shh, run down shh All now, we up here, run 'round further Heard them boy from the 9 not score, sound rare, two ones like Timo Werner Twinnin' I see an old friend turn opp, so I'm tryna' allocate to the L like Jürgen And bro just patterned two lockster, make sure he manage them man for certain Everyone wanna link up to a bullyin' man then the links a burden I heard shh-shh linked up for a shoot, the video shoot ended up in curtains These boots expensive, I bought them Louis, Gucci, Burberry Funny how shh went sleep from a boot, it was cheap like one from Dorothy Perkins It's all a façade, why they all tryna' act hard? Before you started in road I was live in the trench when you was just at yard They like, Dezz', how you beat that murder? Say I don't know, so I just gotta thank God Spent twenty-one on my wrist, now these barbies wanna come trouble my bankcard I swear if this .44 bangs off, you're gonna see bells spin around like dandruff I still get assists even though that I'm hands-off Nah, they can't buck bro when he slams off Uh, last time someone got kwenged, where was the intention to blow some bands off? Now this time somethin' gets touched, I'm gonna bring gyal to the nizz with pants off Jail, don't fake, don't fake, I'm up in the club with copper till late Yo, don't bake, no break, I was sat in that T with grub on my plate Uh-du-du, uh-du-du, uh-uh, uh-uh, and I also ate Yeah, come on then Yeah, yeah Ik hoor je, tellie op maan, shh, niet storen Stack die pap, cash lang, net toren Vraag je ams om de location Zet d'r in m'n collection, ze is lost, net Dora Wie's die boy met de drip like Gunna? Wie's die boy in de whip met dollars? Wie's die boy met de, yo Black tracksuit op m'n Air Force ones Bad boy tune, it's a bad boy song Bitch, ik curve, zet mezelf op first Zet shawty last, last, net Stefflon Don Jij denkt nog steeds dat ik rap voor fun Dom, euro's of count in pond, pound Man, this ass is rond, maar je mag niet slaan, want je bent nog jong So far, uno, dos, tres Die Henney maakt een nigga gek, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt Shit, woah, sorry, schat, ik ben gehackt, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt, uh Spenden het minst, maar we maken het meest Vraag je m'n pap, zeg ik zakelijk nee Hebben in je goals, want ze klagen op m'n G's Hoeveel , we praten Ghanees Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor, woah Sheesh, come on then Ayy, how you comin' up in here, do you wanna come on it? Yo, woo X10, sheesh Uh, Mm M1OnTheBeat Let's get it in, let's go, man We in Paris right now Quatro Kom in die ollo, hoef niet te betalen met doekoe, nee, blacka, betaalt met gezicht Die mannen willen me stoppen, m'n goonie net Harry Potter als hij komt met die stick Ben met je bitch, ze geeft top in de whip, ze is net een banaan als je ziet hoe ze split Gooi d'r op adu en adu op no man en daarna op mij, jongen, wat een assist Ik laat die mannetjes zweten, net Zlatan, maak het heet onder voeten, geen satan Money is long en , heb ik grond, in m'n city, ik voel me net Haaland Drip die is koud alsof ik op de maan land Jij kan proberen, weet niet of je aan kan Je mannen beperkt, het is niet eens herfst, maar toch doe je weer als een bla man Jij bent een prater, ik de dader Zoek je beef, kom ik over als slager Die bitch vraagt me of ik kom slapen En ik ben een JJ hoe ik d'r belazer Zakken gaan dik, vroeger waren we mager Suiker met brood en een klein beetje water Voeger waren we mager Suiker met brood en een klein beetje water Come on then, Chivv in the buildin', yeah Ayy, we doin' tings properly now, international takeover stuff That tape's about to drop, you need it in your life M1OnTheBeat Ayy, Dezzie Are you not tryna' do it go after him, bro? Come on then X10 Live, you know the ting already, fired up HL8 Yo At that carnival function, bro spotted him Dropped him, so we all hopped in You should've saw the way that a one chopped him Man cook up this beef, like DSavv try take off his head, pumpkin Out here doin' school bunkin' This G17 had thugs pumpin' Whoosh, gang just done a dumpin' Nah, I don't fistfight like T-N-A, it ain't processed in my DNA Fuck verbal, CBA It's due timin', so we'll meet, one day Yeah, I'm from O'Block, not GDK Said they got big guns, must be GTA Jump out, let it beat, Senseii Don't get yourself shot, like Danny Pressplay Everythin' nice, got me covered in ice Now your hand on my wrist, so your boyfriend Kitchen knife does more than slice, if I take his life, sorry, Jesus Christ Fresh from 'Ville, zim zimma Who took this key for this bruck down bimmer? Slow down, B, gyal way too inner Tell your barbie, just, yo Grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle I said grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle We in Paris right now, charged up Charged up showin' the world what's good, you know Ayy, this one's mad, Beats by Weez, turn, yo Ayy, you're makin' history Let's go on Headie, let's go If we're dead or alive, I'm never tryna' miss another summer They're still two glizzies on a sunna I seen my aunt the other day and she ain't done nothin' for me on the come up Catherine tell me I remind her of my mother She don't know that was enough 'cah in the trenches, no one teach you self love I been out there with two rambos and a puffer Now this Nike one we used to call a bomber We was lookin' up to hustlers, we weren't lookin' up to President Obama Come from nothin' Gettin' power from a shot, wasn't a llama Studied dramas and after school we had to handle dramas Took a chase with me and Brad', we had to hop like fifty gardens Jakes tryna' hunt us down, like Osama Bin Laden I end up incarcerated and I missed three birthdays, wish me happy belated I got my old friends mad at me because I treat my friends like my family Yes, we were related Probation think I'm gang affiliated It's the last one, but I ain't on my last legs I really used to dream that I could be rappin' in past tense 'cah I was on eagle when the mandem was on Partridge Behind bars when everyone went to Bath Fest' And we was doin' burglaries and car thefts listenin' to Giggs when he was talkin' the hardest My pops always said I had a hard head I'm tryna' turn this eight ball of light into naan bread I didn't get to wash my armpits I got body odour trappin' off this Motorola No way I hit this crack fiend if I didn't know her You couldn't catch an oppa, but you caught his older He got done up and he might need an organ donor It's hard to see these old niggas turn to vultures And they ain't comin' back, they like Ole Gunnar Solskjær Whoo, whoo, whoo Whoo Ruthless, ruthless We ain't done yet It feels like a special moment, feels like a moment in time Fire in the Booth in the buildin' Amsterdam, 4011 M1OnTheBeat What you tellin' me, Charlie? Let's go, my guy, yeah It's all about the love and blessings, you done know Big shout out to the Headie One Amsterdam, UK, link up, you get me? Uh, ik zag mannen me voorbij gaan, maar ik had geduld Ik bleef voor effe humble, m'n zakken waren op nul Je vriend heeft niet gestackt, hij geeft corona nu de schuld Maar je kan zoveel meer bereiken als je plannen niet onthuld We moven in silence, het is m'n buit die geluid maakt Als je me niet gunt, moet je niet huilen bij m'n uitvaart Flessen in de club, maar post geen foto's als ik uit ga Gek genoeg geniet ik wanneer m'n telefoon uit staat Maar fattoemannen doen het meest, willen hangen om te zeggen dat ze met je zijn geweest Als ik niet beter wist, dan zou ik zeggen Het zijn gays Maar deze tijd wordt je gecanceld, dus we spelen het op safe Het leven is niet weten, 't is maar hoe je het bekeek Wil je rijden in Ferarri's die money van een Range? Wil je rijden in de Range met die money van een hoopty? Op beiden kan je niet bouwen, want je stopt het niet een steen, dat is roekeloos Woah, en deze tijd moet je niet vragen om te linken, want ik zeg je dat ik kom, maar ik verschijn niet Huh En neem die shit niet te persoonlijk, want je bent een toffe gozer, maar heb simpelweg die tijd niet, 't is blacka Big shout, uh, Fire in the Booth, Chivv Charlie, you get me? My brother My brother them, trust me, it's love And we keep it goin' No borders, we out here We ain't done yet Feels like a real moment out here, man I see what you're doin' Headie, I see what you're doin', my guy And it continues Ayy Yeah, drippar i Louis Vuitton och en Cartier bustdown klocka Drippar i Louis Vuitton och en Cartier bustdown, ayy Lyssna, Stockholm, Sweden, back Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar Gud jag ber dig få mig inte att krocka igen Hon säger hon behöver mina bars, det torka Hur ska en rappare orka? Folk dem ber till Gud Jag ber dig, kan han inte dö eller torska? Jag kukade strapen imorse innan jag ens borsta Studiobanditen han är ingen brådska Lämnade hylsor, säger till polisen och plocka igen, plocka igen Kukmätningar med Glocks, häll i lite koks, där har du en soppa igen Går jag igång i en vers, jag går inte och stoppa igen Scenen är min, jag går upp, jag är hög som fan, jag hör hur dem skriker Det 2022 nu, fuck vad du gjorde 21 för det är gamla meriter Jag rullar en grammis, skit i en gala Rökt tills lungorna sviker Jag håller inte koll på debatter, håll mig utanför politiken Stenarna dansar på klockan som en tonåring på TikTok Ser du hur långt vi har kommit från jobbiga plitar, KV-kläder och flip-flops? Jag och Polismyndigheten har svårt för varann, vi kan aldrig bli sams Hatad av dem som ändå aldrig älskade mig, sånt kliar inte mig nånstans Mitt liv är en film, denna skiten är HD Två superkrafter, AD och HD Namnet på gunnen jag bär den har två T Tro inte jag pratar om Lipton Helgood Rolle, hade lätt kunnat få roller i Simpsons Flexar med pengar i Aldrig vart bunden till någon, jag klarar mig själv så vad vill dem? Hata på mig nu, don't love me later Typ som en häftapparat, I stick to my paper Mig på en feature, ger dig en buzz, men Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar, yeah-yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah No borders, rest in peace, Byn Block, we out here, man Ey Yasin in the buildin' Rinkeby for life Rest in peace Franky, min fucking bror Okay, I see what you man are dealin' with, now, I see what you're dealin' with History in the makin' Yo La mia bitch mi chiede Louis V, Prada, Gucci, ha un ass curvy Dior, Fendi, Celine, Chanel, vuole whip nel mio garage I miei street 247 come beef, come Ghost Rider Quaggiù nessuno è mai salvo, ops, questa è Milano Preghiere son vane, non ti basta un Amen, yo Abbiamo svariate entrate, West sulle collane, yo La mia tasca si fa grande come avessi un tablet, yo Tu vuoi il beef, non mangio carne, specie se è d'infame, yo Rolls-Royce nero, coca in table, cash, no PayPal No more label, nel mio grammo J-Lo, J-Lo Tu fai home run come nel baseball Cabrio, sto con Headie come in WWE Sì, impellicolavo weed, mo firmo sopra i CD Ha, ha, ha, ha Turn Questa merda si fa deep Ho comprato un'auto a mamma Audi Sport e guarda IG Mentre Ago ha fatto un figlio compro a Thiago nuovo drip Questa è west side a Paris, ehi Come on then Come on then Ayy, No Borders, the tape Makin' sure there's no borders to this ting And that right there was a real, legendary moment Fire in the Booth The hottest from the hardest, the hardest from the hottest Doin' tings proper out here, you know what I'm sayin'? Some real legendary stuff History bein' made You ain't ever seen this shit before, No Borders Headie, I see you, my guy, woo Let's go Charlie, deya1</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fire in the Booth “No Borders” Special</t>
+          <t>Freestyle 1 Deluxe</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hey Eh, eh Alors, yes bébé, alors, oh Yes bébé, alors, il reste d'la zipette près du port J'ressors de showcase, j'ai trentre fois l'salaire de ta pute Fonce-dé au boum-boum avec P, ça tire ta feumeu au laser Glocké, j'reste peace, j'fais tomber kichta dans la caisse Yo, turn, yo This Lamborghini got a two seats Woo I'm speedin' 'round and I'm in Dubee Woo Monogram print, I can't see through the Louis She can't get to know the true me Bro from South got a pack for a works and I told him to introduce me He wanna phone me when it's time to war, but when it's bread, he won't include me C'est comme ça, c'est un choix de vie, souvent obligé d'te mentir Même si j'voulais, j'peux pas tout dire, même si j'voulais, j'peux pas tout dire Même si ça va, qu'nous deux c'est cool, à la longue, moi ça va m'lasser Donc je compte, j'recompte des sous et je regarde le temps passer Turn, yo You see me in Paris, I'm faded, I feel like I'm Little Boosie This bad B think that I made it, I ain't tryna bring all my goons in Yo, I wanna pull up to Tape, I wish I could bring all my boots in Uh, on Broadwater estate, the police wanna be a nuisance Harbat selek, condés Turn, turn, turn Une hasba d'litrons, bénef' Turn, turn, they told me turn Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Suh, suh-suh-suh, turn up, turn up doet z'n best, uh Bless 'em, ik geef 'm een fooitje M'n paps zitten lang in de prison of spang bij de bank en ik laat het ontdooien Ze kijken naar mij en ze willen destroyen, proberen m'n doelen te stoppen, net Nooijer Jij joint de andere kant in de hoop dat de andere kant je gaat joinen Ben met je bitch en ik ben niet eens pooier , doe haar in de sauna Shawty weet niet hoeveel geld ik bezit, nee, ze voelt het gewoon aan m'n aura Manager belt mij, hij wilt voor me storten, maar ik ben op stacken, dus ik zeg 'm Hou maar Ik kon allang zijn waar ik ben, maar moet zorgen dat ik niet dezelfde fout maak Harbat selek, condés Woeh, shit Une hasba d'litrons, bénef' Glah, glah, glah, glah Faut qu'j'serre bien ma ceinture ou à cause de Glock, le jean va tomber Turn, turn, turn, turn, turn up Okay Ayy, that's how we're startin' tings proper out here Some international business, you hear what I'm sayin'? Keepin' it proper out here, mate And we just warmin' up Okay, round two Wow, wow, wow Woo M1OnTheBeat Let's get it, bro Ey, ey, ey Zehn von zehn Brüdern zu echt, heh Neun von zehn Brüdern sind da, ah Und meine Feelings sind dead, heh Weil ich nie Liebe bekam, ey Niggas bewaffnet mit TECs, heh Nicht nur die Messer sind scharf, ah Alle Gesichter verdeckt, heh Weil Bullen kennen die Nam'n Egal, was sie sagen, ey Nein, es gibt keine Liebe, ey Demons, sie flüstern mir täglich in mein Ohr Ja, ich seh' sie im Spiegel, ey Ja, my nigga, sind täglich depressed, heh Weil ich die Schmerzen so mag, ah Und deshalb holen wir jetzt, hm Was von uns keiner bekam, ja Ey, Feelings dead, nein, ich fühl' mich lost Zu viele ging'n hops, keine Minijobs Viel zu viele Gs und zu wenig Cops Hah, Roli-Watch, Diamanten-Rocks Springe aus dem Balkon, wenn es wieder klopft Im Hosenbund 'ne scharfe Millimeter-Glock Stellen uns vor jeden, knien nur vor Gott Mich liebt der Block, ich lieb' den Block Ah, viele tot, doch ich weine nicht Denn auch mir geht es schlecht, doch ich zeig' es nicht Ah, weil ein Mann in mein'n Augen, der Bizzy mit Liebe vertauscht, einfach peinlich ist, heh Und ich kann niemand trauen, der Karten mit Liebe vertuscht, also eigentlich, heh Kann ich niemanden trauen, der nicht mit 'ner Maske rumläuft, zeigen kein Gesicht, ah Kein Vertrau'n Zu all den Fotzen, deshalb bleibe ich alone Wahre Liebe wird es niemals geben, also nicht mit einer Thottie, heute stell' ich lieber alles über Hoes Ah, für die Bros Denn nur sie, Mann, können uns sagen, wir sind close Lügt mir in die Fresse, ja, sie redet mir von Liebe Alles Shows, Baby, sag mir, würdst du bleiben, bin ich broke? Ey, sie will nur Sonne wie Hollywood, ey Gucke dir tief in die Waffe und greif' nach der Waffe wie'n Die kleine Bitch fragt nach mei'm Bodycount Ich lasse sie dann an mei'm Body kau'n Und Bitch-Niggas reden von Packets, sie woll'n sich nicht messen, ich schicke dein'n Body hoch, ey Ey, Stockholm, Sweden, pow Ey, ey, ey Jag vissla från cellen, det ingen som svarar, avdelningen är död Nyss jag kom ifrån arren, brottsplatsen är fortfarande röd Min grabb, han är på sin demon time, sa till han, Du har mitt fulla stöd, kör Vart än vi går, vi ställer till med en scen, scen, scen Fint folk kommer alltid försent, jag är snart vid entrén, säg till väktarna, Öppna Fem anstalter på mindre än ett år Min sverigeturné den har redan Nordvästra Stockholm, skottdrama, folk här, de är skjutglada Minns du när man gjorde hans bil till en skjutbana? Nu han springer runt påtänd Med en rostig pistol, han vill utmana Studiovan, det ingen ny vana Jag har en Mastercard, redo betala Kom, vi går fingerpulla kortläsaren i Prada Sponsorer inte sponsrade, musikvideorna är påkostade En klocka upp för de som kå-kåkade, bam, bam Yes Come on, know they miss Charlie, man Ayy, we out here, bro, we ain't messin' about today All over Europe, man We in Paris right now My guys in the buildin', you know, compilation, you know What? Tape comin' this week Headie, yeah? Come on, ASAP, ASAP Man gettin' hot in here, have to back off the jacket Gettin' hot in here, bruv, aight We ain't done yet My guy, Pajel Can't be us, it's crazy M1OnTheBeat My brudda, you know Ayy Let's get 'em, bro Ay Okay Keep it runnin' Charlie, keep it runnin' Ayy, you gonna go? You gonna go? Yeah, I'm gonna go crazy, let's go, yo Get 'em, Headie Turn Fuckin' hell, yo, yo Came in the scene with a mainstream bootin' Didn't wanna end up famous An opp boy ran up to bine and slept in O, now we still gotta praise his braveness They beefin' babies, the ambulance took him away in a manger The bores that I pushed in Scotland, I could be playin' for Rangers The workers dem needed the payment I'm Liam Neeson if the pack got taken And now we're sleepin', it's a nightshift, dayshift Had to to reason if a man touched flavours Yo, I said the little bro's run down shh and they gotta make that an anthem Don't know why they gotta free big A, he got recalled, he got shaved by the mandem I see you, Headie First time it's been done The best rappers from all around Europe in one place Hardest out here, right now And we ain't done yet, we ain't done Woo Yo, know the vibe, jheeze Feel special right now M1OnTheBeat You ain't seen this before Yo, turn Ayy, take up the Church, Headie Grew in my seabass, grew in my salmon Uptown, I pulled up with a Ghost, I'm feelin' like Angelina Valdes You know This bad B got it on bank, she don't need no allowance Uh-uh See me jewelled up in a casual day, that's minimum sixty thousand Yeah Shorty don't wanna do nothin' today, take some selfies and sit there poutin' Diamonds dancin', all you see is water Water You ain't gotta go Prada and bat man No I like my shorty natural, I ain't gotta tell her to mind the Calvin's I'm at home sippin' Magnum's, I need me a hundred racks in Altham I ain't smokin' my friend when I say I put arms on gangnem No How you think shh got set alight when you done him just like a lantern? Bo-bo Yo, bro just scored, Geronimo, now he wanna eat at Amazonico with a hand ting with the longest nose Longer than Pinocchio Uh, uh Yo, extreme opposites in my portfolio 'cah we really bring BRIT awards Ever seen a crack fiend overdose? You ever been in curfew time tryna whip it up and go your home? Twenty-one seconds to go, I'm still tryna' get it all done like Romeo Ayy, right now, I'm in Pari' Bro just phone for the ends, they were talkin' 'bout shh then he got turned Cali' G Lock field up to the brim, doin' laps 'round like we're in Lee Valley Got my jewels shinin' in the trenches, posted with that big fat swammy D-T-B, I'm old-school like Nani We still take to the park and test them I ain't got time impress them Side-by-side in the ride with my best friend Can't forget Ramz, always tryna go kweff them F them, I'll cheff them They love talk on my name, God bless them Probably my diamond wrist that stressed them Yo, two man, four shanks, only big boy tanks When I'm on them sides, hella man do planks I ain't pullin' no stunts, live corn, no blanks When shush got, it was more than bants I had a hood bitch just like Ms Banks, she kept my grub safe, so I gotta give thanks They say I can't mix pleasure with business, but I'll still slip my D through her Mention my name, then you better have fifty Sorry, I hit his habibti D2B, man done it so swiftly You ain't made a .9 bell go so quickly Still livin' life risky T house really got tricky I heard a cat called me by my rap name, imagine, it could've got sticky I just bought dings, bring that burner out, bap, bap, bap, bap, bap Bap Corn woke up all the neighbours, I knew walalo let it ring, no doubt OFB, we just always about, even when them times, we had waps on drought Had his sister all at my mum's bit throwin' it back when she wanted some clout I'm in then I'm out We went from babies straight to men Push me to the end, that's my life on the line tryna' whoosh one of them Oh no, I can't go jail go again, already been there once, but I'll still reoffend Darlin', no need to pretend, when there's no makeup, you still look ten-ten M1OnTheBeat Woo You know, you know Come on then Live Some history stuff in the buildin' right now Feels special, it feels right Feel like the whole of Europe's comin' together right now Someone in the studio said, Mm, I ain't even need them man in the U.S. no more Aight, mad out here And we ain't done yet man M1OnTheBeat Let's run some game on it, Headie Yo I was upsee sofa surfin', now it's two waps, could've bought a Birkin Thought I got a drop, but it weren't him Guess Rev really was reversin' And Oscar hold corn than more than worthy Smoke filled up with bine, press hood of dirty It was three for two-five and four for thirty Now it's chandeliers, my shorts are Burberry Tell me, who wanna hold a gurney? Five blocks squished makes the four-door goin' Free Kash, he was doin' up coleine, now he's fresh home, it's a cause for commotion Both wrist covered in Evian, 'course two smokes in a ride got normal Yeah I ain't tryna' go on a memorial, bro got one in his head, that's protocol You know They run down shh, run down shh All now, we up here, run 'round further Heard them boy from the 9 not score, sound rare, two ones like Timo Werner Twinnin' I see an old friend turn opp, so I'm tryna' allocate to the L like Jürgen And bro just patterned two lockster, make sure he manage them man for certain Everyone wanna link up to a bullyin' man then the links a burden I heard shh-shh linked up for a shoot, the video shoot ended up in curtains These boots expensive, I bought them Louis, Gucci, Burberry Funny how shh went sleep from a boot, it was cheap like one from Dorothy Perkins It's all a façade, why they all tryna' act hard? Before you started in road I was live in the trench when you was just at yard They like, Dezz', how you beat that murder? Say I don't know, so I just gotta thank God Spent twenty-one on my wrist, now these barbies wanna come trouble my bankcard I swear if this .44 bangs off, you're gonna see bells spin around like dandruff I still get assists even though that I'm hands-off Nah, they can't buck bro when he slams off Uh, last time someone got kwenged, where was the intention to blow some bands off? Now this time somethin' gets touched, I'm gonna bring gyal to the nizz with pants off Jail, don't fake, don't fake, I'm up in the club with copper till late Yo, don't bake, no break, I was sat in that T with grub on my plate Uh-du-du, uh-du-du, uh-uh, uh-uh, and I also ate Yeah, come on then Yeah, yeah Ik hoor je, tellie op maan, shh, niet storen Stack die pap, cash lang, net toren Vraag je ams om de location Zet d'r in m'n collection, ze is lost, net Dora Wie's die boy met de drip like Gunna? Wie's die boy in de whip met dollars? Wie's die boy met de, yo Black tracksuit op m'n Air Force ones Bad boy tune, it's a bad boy song Bitch, ik curve, zet mezelf op first Zet shawty last, last, net Stefflon Don Jij denkt nog steeds dat ik rap voor fun Dom, euro's of count in pond, pound Man, this ass is rond, maar je mag niet slaan, want je bent nog jong So far, uno, dos, tres Die Henney maakt een nigga gek, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt Shit, woah, sorry, schat, ik ben gehackt, uh Stuur je wifey een DM en zeg d'r daarna Sorry, schat, ik ben gehackt, uh Spenden het minst, maar we maken het meest Vraag je m'n pap, zeg ik zakelijk nee Hebben in je goals, want ze klagen op m'n G's Hoeveel , we praten Ghanees Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor Best MC met de bars, ben ik better Jij zat niet in m'n corner, McGregor, woah Sheesh, come on then Ayy, how you comin' up in here, do you wanna come on it? Yo, woo X10, sheesh Uh, Mm M1OnTheBeat Let's get it in, let's go, man We in Paris right now Quatro Kom in die ollo, hoef niet te betalen met doekoe, nee, blacka, betaalt met gezicht Die mannen willen me stoppen, m'n goonie net Harry Potter als hij komt met die stick Ben met je bitch, ze geeft top in de whip, ze is net een banaan als je ziet hoe ze split Gooi d'r op adu en adu op no man en daarna op mij, jongen, wat een assist Ik laat die mannetjes zweten, net Zlatan, maak het heet onder voeten, geen satan Money is long en , heb ik grond, in m'n city, ik voel me net Haaland Drip die is koud alsof ik op de maan land Jij kan proberen, weet niet of je aan kan Je mannen beperkt, het is niet eens herfst, maar toch doe je weer als een bla man Jij bent een prater, ik de dader Zoek je beef, kom ik over als slager Die bitch vraagt me of ik kom slapen En ik ben een JJ hoe ik d'r belazer Zakken gaan dik, vroeger waren we mager Suiker met brood en een klein beetje water Voeger waren we mager Suiker met brood en een klein beetje water Come on then, Chivv in the buildin', yeah Ayy, we doin' tings properly now, international takeover stuff That tape's about to drop, you need it in your life M1OnTheBeat Ayy, Dezzie Are you not tryna' do it go after him, bro? Come on then X10 Live, you know the ting already, fired up HL8 Yo At that carnival function, bro spotted him Dropped him, so we all hopped in You should've saw the way that a one chopped him Man cook up this beef, like DSavv try take off his head, pumpkin Out here doin' school bunkin' This G17 had thugs pumpin' Whoosh, gang just done a dumpin' Nah, I don't fistfight like T-N-A, it ain't processed in my DNA Fuck verbal, CBA It's due timin', so we'll meet, one day Yeah, I'm from O'Block, not GDK Said they got big guns, must be GTA Jump out, let it beat, Senseii Don't get yourself shot, like Danny Pressplay Everythin' nice, got me covered in ice Now your hand on my wrist, so your boyfriend Kitchen knife does more than slice, if I take his life, sorry, Jesus Christ Fresh from 'Ville, zim zimma Who took this key for this bruck down bimmer? Slow down, B, gyal way too inner Tell your barbie, just, yo Grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle I said grip it, strangle, I see bro slap shots from an angle This G Lock ain't too much too handle Slip on your block, get lit, no candle We in Paris right now, charged up Charged up showin' the world what's good, you know Ayy, this one's mad, Beats by Weez, turn, yo Ayy, you're makin' history Let's go on Headie, let's go If we're dead or alive, I'm never tryna' miss another summer They're still two glizzies on a sunna I seen my aunt the other day and she ain't done nothin' for me on the come up Catherine tell me I remind her of my mother She don't know that was enough 'cah in the trenches, no one teach you self love I been out there with two rambos and a puffer Now this Nike one we used to call a bomber We was lookin' up to hustlers, we weren't lookin' up to President Obama Come from nothin' Gettin' power from a shot, wasn't a llama Studied dramas and after school we had to handle dramas Took a chase with me and Brad', we had to hop like fifty gardens Jakes tryna' hunt us down, like Osama Bin Laden I end up incarcerated and I missed three birthdays, wish me happy belated I got my old friends mad at me because I treat my friends like my family Yes, we were related Probation think I'm gang affiliated It's the last one, but I ain't on my last legs I really used to dream that I could be rappin' in past tense 'cah I was on eagle when the mandem was on Partridge Behind bars when everyone went to Bath Fest' And we was doin' burglaries and car thefts listenin' to Giggs when he was talkin' the hardest My pops always said I had a hard head I'm tryna' turn this eight ball of light into naan bread I didn't get to wash my armpits I got body odour trappin' off this Motorola No way I hit this crack fiend if I didn't know her You couldn't catch an oppa, but you caught his older He got done up and he might need an organ donor It's hard to see these old niggas turn to vultures And they ain't comin' back, they like Ole Gunnar Solskjær Whoo, whoo, whoo Whoo Ruthless, ruthless We ain't done yet It feels like a special moment, feels like a moment in time Fire in the Booth in the buildin' Amsterdam, 4011 M1OnTheBeat What you tellin' me, Charlie? Let's go, my guy, yeah It's all about the love and blessings, you done know Big shout out to the Headie One Amsterdam, UK, link up, you get me? Uh, ik zag mannen me voorbij gaan, maar ik had geduld Ik bleef voor effe humble, m'n zakken waren op nul Je vriend heeft niet gestackt, hij geeft corona nu de schuld Maar je kan zoveel meer bereiken als je plannen niet onthuld We moven in silence, het is m'n buit die geluid maakt Als je me niet gunt, moet je niet huilen bij m'n uitvaart Flessen in de club, maar post geen foto's als ik uit ga Gek genoeg geniet ik wanneer m'n telefoon uit staat Maar fattoemannen doen het meest, willen hangen om te zeggen dat ze met je zijn geweest Als ik niet beter wist, dan zou ik zeggen Het zijn gays Maar deze tijd wordt je gecanceld, dus we spelen het op safe Het leven is niet weten, 't is maar hoe je het bekeek Wil je rijden in Ferarri's die money van een Range? Wil je rijden in de Range met die money van een hoopty? Op beiden kan je niet bouwen, want je stopt het niet een steen, dat is roekeloos Woah, en deze tijd moet je niet vragen om te linken, want ik zeg je dat ik kom, maar ik verschijn niet Huh En neem die shit niet te persoonlijk, want je bent een toffe gozer, maar heb simpelweg die tijd niet, 't is blacka Big shout, uh, Fire in the Booth, Chivv Charlie, you get me? My brother My brother them, trust me, it's love And we keep it goin' No borders, we out here We ain't done yet Feels like a real moment out here, man I see what you're doin' Headie, I see what you're doin', my guy And it continues Ayy Yeah, drippar i Louis Vuitton och en Cartier bustdown klocka Drippar i Louis Vuitton och en Cartier bustdown, ayy Lyssna, Stockholm, Sweden, back Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar Gud jag ber dig få mig inte att krocka igen Hon säger hon behöver mina bars, det torka Hur ska en rappare orka? Folk dem ber till Gud Jag ber dig, kan han inte dö eller torska? Jag kukade strapen imorse innan jag ens borsta Studiobanditen han är ingen brådska Lämnade hylsor, säger till polisen och plocka igen, plocka igen Kukmätningar med Glocks, häll i lite koks, där har du en soppa igen Går jag igång i en vers, jag går inte och stoppa igen Scenen är min, jag går upp, jag är hög som fan, jag hör hur dem skriker Det 2022 nu, fuck vad du gjorde 21 för det är gamla meriter Jag rullar en grammis, skit i en gala Rökt tills lungorna sviker Jag håller inte koll på debatter, håll mig utanför politiken Stenarna dansar på klockan som en tonåring på TikTok Ser du hur långt vi har kommit från jobbiga plitar, KV-kläder och flip-flops? Jag och Polismyndigheten har svårt för varann, vi kan aldrig bli sams Hatad av dem som ändå aldrig älskade mig, sånt kliar inte mig nånstans Mitt liv är en film, denna skiten är HD Två superkrafter, AD och HD Namnet på gunnen jag bär den har två T Tro inte jag pratar om Lipton Helgood Rolle, hade lätt kunnat få roller i Simpsons Flexar med pengar i Aldrig vart bunden till någon, jag klarar mig själv så vad vill dem? Hata på mig nu, don't love me later Typ som en häftapparat, I stick to my paper Mig på en feature, ger dig en buzz, men Drippar i Louis Vuitton och en Cartier bustdown klocka Satt i en Lambo truck, två Glockar, yeah-yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah Går inte och stoppa igen, går inte och stoppa igen, ye Jag går inte och stoppa igen, går inte och stoppa igen, yeah No borders, rest in peace, Byn Block, we out here, man Ey Yasin in the buildin' Rinkeby for life Rest in peace Franky, min fucking bror Okay, I see what you man are dealin' with, now, I see what you're dealin' with History in the makin' Yo La mia bitch mi chiede Louis V, Prada, Gucci, ha un ass curvy Dior, Fendi, Celine, Chanel, vuole whip nel mio garage I miei street 247 come beef, come Ghost Rider Quaggiù nessuno è mai salvo, ops, questa è Milano Preghiere son vane, non ti basta un Amen, yo Abbiamo svariate entrate, West sulle collane, yo La mia tasca si fa grande come avessi un tablet, yo Tu vuoi il beef, non mangio carne, specie se è d'infame, yo Rolls-Royce nero, coca in table, cash, no PayPal No more label, nel mio grammo J-Lo, J-Lo Tu fai home run come nel baseball Cabrio, sto con Headie come in WWE Sì, impellicolavo weed, mo firmo sopra i CD Ha, ha, ha, ha Turn Questa merda si fa deep Ho comprato un'auto a mamma Audi Sport e guarda IG Mentre Ago ha fatto un figlio compro a Thiago nuovo drip Questa è west side a Paris, ehi Come on then Come on then Ayy, No Borders, the tape Makin' sure there's no borders to this ting And that right there was a real, legendary moment Fire in the Booth The hottest from the hardest, the hardest from the hottest Doin' tings proper out here, you know what I'm sayin'? Some real legendary stuff History bein' made You ain't ever seen this shit before, No Borders Headie, I see you, my guy, woo Let's go Charlie, deya1</t>
+          <t>On a des si des flingues et des coups d'mains dur le bon Dieu m'a donné j'ai pas donné1</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Freestyle 1 Deluxe</t>
+          <t>#Freestyle1 (Seven Binks)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>On a des si des flingues et des coups d'mains dur le bon Dieu m'a donné j'ai pas donné1</t>
+          <t>Binks Oh, y'a même Shotas wallah Jconnais la valeur d'la drogue comme j'connais la chambre de ta sur Koba LaD, Seven Binks, revendeur de stups et khabateur On connait les tête-à-tête, les seul coups de poing qui stermine en hagar Le shit c'est rentable, j'ai acheté mes sapes avec l'argent des plaques Eh gamin, si comme moi, tu charbonne pour t'en sortir Viens me voir, qu'on s'arrange, j'te lâche la plaquette à 36 Si tu veux ton argent vite, fait partir le détaille vite Avec le bénéfice du demi, jai fini au demi kil J'ai fait pleuré ta daronne jai taclé à la gorge ton pote Espèce de con, en plus t'as rien dans les poches Avachi côté passager, pénard, fonce-dé devant le volant Lossa roule le dernier teh, j'recompte la liasse en souriant Le charbon c'est mieux que rien, jguette le ient-cli dans l'rouge des yeux Il sait que j'fume d'la frappe, tu veux ton 10 donne le billet rose Koba LaD, Seven Binks Fenzo, Shotas derrière moi Lapince cherche un couteau Flo-cka khabat sous Jack Da' Bienvenue au P.A.L Peu d'amour, beaucoup d'haine Koba du 7, j'ai ta nièce en levrette Y'a dl'a beuh, du bon shit Si tu grattes, j'te bousille Beleck au barrette, si tu casses c'est moins 10 J'connais la valeur d'la drogue comme je connais la ce-for d'mes gars Koba du Binks Pour de l'argent je découpe et j'emballe J'ai plus de cerveau, trop fumé, faut qu'on maille 2x Avachi en haut du 7 2 heures passé, j'en peux plus j'suis trop die, là j'suis flex Avachi, là j'suis trop die, là j'suis flex 3x</t>
         </is>
       </c>
     </row>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>#Freestyle1 (Seven Binks)</t>
+          <t>Freestyle #3</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Binks Oh, y'a même Shotas wallah Jconnais la valeur d'la drogue comme j'connais la chambre de ta sur Koba LaD, Seven Binks, revendeur de stups et khabateur On connait les tête-à-tête, les seul coups de poing qui stermine en hagar Le shit c'est rentable, j'ai acheté mes sapes avec l'argent des plaques Eh gamin, si comme moi, tu charbonne pour t'en sortir Viens me voir, qu'on s'arrange, j'te lâche la plaquette à 36 Si tu veux ton argent vite, fait partir le détaille vite Avec le bénéfice du demi, jai fini au demi kil J'ai fait pleuré ta daronne jai taclé à la gorge ton pote Espèce de con, en plus t'as rien dans les poches Avachi côté passager, pénard, fonce-dé devant le volant Lossa roule le dernier teh, j'recompte la liasse en souriant Le charbon c'est mieux que rien, jguette le ient-cli dans l'rouge des yeux Il sait que j'fume d'la frappe, tu veux ton 10 donne le billet rose Koba LaD, Seven Binks Fenzo, Shotas derrière moi Lapince cherche un couteau Flo-cka khabat sous Jack Da' Bienvenue au P.A.L Peu d'amour, beaucoup d'haine Koba du 7, j'ai ta nièce en levrette Y'a dl'a beuh, du bon shit Si tu grattes, j'te bousille Beleck au barrette, si tu casses c'est moins 10 J'connais la valeur d'la drogue comme je connais la ce-for d'mes gars Koba du Binks Pour de l'argent je découpe et j'emballe J'ai plus de cerveau, trop fumé, faut qu'on maille 2x Avachi en haut du 7 2 heures passé, j'en peux plus j'suis trop die, là j'suis flex Avachi, là j'suis trop die, là j'suis flex 3x</t>
+          <t>J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote le big-leu a perdu lil gauche Et sous hachich ou guash, on dit que j'suis pechu On charbonne pour le cash, le plus p'tit gars fait bien les choses Eh salope, enlève tes dents, salope 9 millimètres, toi t'es vert, toi, galope C'est plus pareil, nan, les tits-pe ont grandi Import-export, et dans mon sac, y a dix kil' Quand j'suis solo sur l'terrain, j'repense à toute ma vie, à mes investissements, quand j'vois un ient-cli, bah, j'souris Postiche avec mes khey, et qui vivra verra Faut que le terrain tourne comme celui de Gomorra Dans ma che-po la recette, maint'nant passez, elle est finit la quette' Critical dans la massa, j'ai mon billet pour rejoindre Namek Sous l'effet du cannabis, on va t'niquer ta mère, t'as beau prier La Mecque La bibi ou ta mère, on va t'shooter, en même temps insulter ton père J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote a perdu son il gauche Un coup d'bâton dans l'crane, ton pote a perdu son il gauche J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks</t>
         </is>
       </c>
     </row>
@@ -3225,12 +3225,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Freestyle #3</t>
+          <t>#Freestyle3 (Seven Binks)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote le big-leu a perdu lil gauche Et sous hachich ou guash, on dit que j'suis pechu On charbonne pour le cash, le plus p'tit gars fait bien les choses Eh salope, enlève tes dents, salope 9 millimètres, toi t'es vert, toi, galope C'est plus pareil, nan, les tits-pe ont grandi Import-export, et dans mon sac, y a dix kil' Quand j'suis solo sur l'terrain, j'repense à toute ma vie, à mes investissements, quand j'vois un ient-cli, bah, j'souris Postiche avec mes khey, et qui vivra verra Faut que le terrain tourne comme celui de Gomorra Dans ma che-po la recette, maint'nant passez, elle est finit la quette' Critical dans la massa, j'ai mon billet pour rejoindre Namek Sous l'effet du cannabis, on va t'niquer ta mère, t'as beau prier La Mecque La bibi ou ta mère, on va t'shooter, en même temps insulter ton père J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' J'souris à ma vie, ma liasse pousse plus vite que mes ves-ch' Un coup d'bâton dans l'crane, ton pote a perdu son il gauche Un coup d'bâton dans l'crane, ton pote a perdu son il gauche J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks J'suis tous les jours dans l'binks, j'suis tous les jours dans l'binks</t>
+          <t>J'souris à ma vie Ma liasse pour plus vite que mes veu-che A coup dbâton dans l'crâne Ton pote le bigleux a perdu l'oeil gauche Et sur un chichon dpoche, OG kush j'suis té-chou On charbonne pour le cash, le critical fait bien les choses Eh salope, enlève tes dents salope 9mm toi et tes frères galopent C'est plus pareil, non les ti-pe ont grandis Import, export et dans mon sac ya 10 kil Quand j'suis solo sur l'terrain, j'repense à tout ma vie A mes investissement, quand j'vois un iencli ben j'souris Postiche avec mes kheys et qui vivra verra Faut que le terrain tourne comme celui de Gomora Dans ma tion-po la recette, maintenant passez, allez finir la quette Critical dans la massa, jai mon billet pour rejoindre namek Sous l'effet du cannabis on va tniquer ta mère, t'as beau prier La Mecque Là ??? ta mère, on va t'shooter, en même temps insulter ton père Et j'souris à ma vie, ma liasse pousse plus vite que mes veuches x2 Un coup de bâton dans lcrane, ton pote a perdu son oeil gauche x2 J'suis tous les jours dans l'binks x8</t>
         </is>
       </c>
     </row>
@@ -3242,12 +3242,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>#Freestyle3 (Seven Binks)</t>
+          <t>#Freestyle7 (Seven Binks)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'souris à ma vie Ma liasse pour plus vite que mes veu-che A coup dbâton dans l'crâne Ton pote le bigleux a perdu l'oeil gauche Et sur un chichon dpoche, OG kush j'suis té-chou On charbonne pour le cash, le critical fait bien les choses Eh salope, enlève tes dents salope 9mm toi et tes frères galopent C'est plus pareil, non les ti-pe ont grandis Import, export et dans mon sac ya 10 kil Quand j'suis solo sur l'terrain, j'repense à tout ma vie A mes investissement, quand j'vois un iencli ben j'souris Postiche avec mes kheys et qui vivra verra Faut que le terrain tourne comme celui de Gomora Dans ma tion-po la recette, maintenant passez, allez finir la quette Critical dans la massa, jai mon billet pour rejoindre namek Sous l'effet du cannabis on va tniquer ta mère, t'as beau prier La Mecque Là ??? ta mère, on va t'shooter, en même temps insulter ton père Et j'souris à ma vie, ma liasse pousse plus vite que mes veuches x2 Un coup de bâton dans lcrane, ton pote a perdu son oeil gauche x2 J'suis tous les jours dans l'binks x8</t>
+          <t>La rue a fait d'moi un homme Elle m'a dépucelé étant môme Ce mode de vie inquiète maman Et dans la rue faut qu'au pèses tes mots La rue me ramène du fric, des fois les keuf mais plus souvent du fric Y'a que le travail qui paie, là grâce à Dieu, nique ta mère et ta chance J'ai pas encore percé, j'ai pas encore signé J'vais les démarrer, j'attend juste le bon signal L'buzz monte crescendo pendant qu'ils crachent sur mon dos Mais moi j'm'en bats les yeuc, je fais plus d'argent qu'eux J'ai plusieurs choses à dire, j'suis pas un gars d'la street non c'est moi la street Le thème c'est de prendre l'oseille, moi je veux des tunes pas d'nouveaux amis Et c'est qui qui parle qu'on le tabasse Et à chaque freestyle rien qu'ils s'abaissent Quand j'galère j'ramène des bolosses, et Quand j'détaille j'ramène ma balance Tout c'que j'fumes gros j'le vend, c'est d'la frappe frère t'inquiète J'ai l'taga adéquat, nouveau tampon, nouveau kil' Je suis l'chemin de l'argent, j'ai pas besoin de boussole La frappe de Ketama, bien chée-ca dans l'sous-sol À l'ancienne j'avais pas d'argent, j'volais même des sucettes Ce soir je détaille, j'récupère, et aujourd'hui c'est moi qui gère J'transforme cette dope en thune et j'réinvestis avec Koba LaD, Seven Binks, c'est l'fin du game le freestyle7</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>#Freestyle7 (Seven Binks)</t>
+          <t>Freestyle BMF #1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>La rue a fait d'moi un homme Elle m'a dépucelé étant môme Ce mode de vie inquiète maman Et dans la rue faut qu'au pèses tes mots La rue me ramène du fric, des fois les keuf mais plus souvent du fric Y'a que le travail qui paie, là grâce à Dieu, nique ta mère et ta chance J'ai pas encore percé, j'ai pas encore signé J'vais les démarrer, j'attend juste le bon signal L'buzz monte crescendo pendant qu'ils crachent sur mon dos Mais moi j'm'en bats les yeuc, je fais plus d'argent qu'eux J'ai plusieurs choses à dire, j'suis pas un gars d'la street non c'est moi la street Le thème c'est de prendre l'oseille, moi je veux des tunes pas d'nouveaux amis Et c'est qui qui parle qu'on le tabasse Et à chaque freestyle rien qu'ils s'abaissent Quand j'galère j'ramène des bolosses, et Quand j'détaille j'ramène ma balance Tout c'que j'fumes gros j'le vend, c'est d'la frappe frère t'inquiète J'ai l'taga adéquat, nouveau tampon, nouveau kil' Je suis l'chemin de l'argent, j'ai pas besoin de boussole La frappe de Ketama, bien chée-ca dans l'sous-sol À l'ancienne j'avais pas d'argent, j'volais même des sucettes Ce soir je détaille, j'récupère, et aujourd'hui c'est moi qui gère J'transforme cette dope en thune et j'réinvestis avec Koba LaD, Seven Binks, c'est l'fin du game le freestyle7</t>
+          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF J'suis content, l'zinc est sorti d'taule Trop de me-ar dans la piaule Tout en haut dans la boule Ta meuf c'est comme mon teh elle m'colle Mais zin-cou remontes des tonnes Tartine sous éthanol C'qu'on peut faire pour des talles, donc on s'couche tard, on s'lève à l'aube J'suis pas dans les blerni, j'arrive, j'récupère mes talbins et j'me taille vite Quand j'sais pas ta fe-meu, rien qu'elle crit Quand j'fais partir le BM tout l'monde crit Tu connais c'est la BMF, tout en BMF j'ai des sous du merch Toute l'année ça tartine à fond, j'ti-sor une Patek avec le bénéf' Putain d'merde J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse Quand j'la baise, j'ai un snus dans la bouche 3.8.0 auto la cartouche Toi trimard t'as finis sur la touche, Toi trimard t'as finis sur la touche Peut-être que si ma daronne avait un peu de blé j'aurais pas tenu le sac de push Et cale sur le R, j'ai les sourcils froncés Tu vas payer ton truc si tu l'touches Un peu de beuh-R, un peu de cash J'guette la moitié du benef à que-che T'as d'la chance qu'on est pas à tes trousses, fils de pute on connaît d'jà tes cachettes C'était trop facile pour moi de tourner la page, j'ai des sous, j'ai des meufs, j'ai la pêche Comme la plus part du temps j'suis sous piche Pour les grosses décisions j'appelle Suge J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse</t>
         </is>
       </c>
     </row>
@@ -3276,12 +3276,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Freestyle BMF #1</t>
+          <t>Freestyle BMF #2</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF J'suis content, l'zinc est sorti d'taule Trop de me-ar dans la piaule Tout en haut dans la boule Ta meuf c'est comme mon teh elle m'colle Mais zin-cou remontes des tonnes Tartine sous éthanol C'qu'on peut faire pour des talles, donc on s'couche tard, on s'lève à l'aube J'suis pas dans les blerni, j'arrive, j'récupère mes talbins et j'me taille vite Quand j'sais pas ta fe-meu, rien qu'elle crit Quand j'fais partir le BM tout l'monde crit Tu connais c'est la BMF, tout en BMF j'ai des sous du merch Toute l'année ça tartine à fond, j'ti-sor une Patek avec le bénéf' Putain d'merde J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse Quand j'la baise, j'ai un snus dans la bouche 3.8.0 auto la cartouche Toi trimard t'as finis sur la touche, Toi trimard t'as finis sur la touche Peut-être que si ma daronne avait un peu de blé j'aurais pas tenu le sac de push Et cale sur le R, j'ai les sourcils froncés Tu vas payer ton truc si tu l'touches Un peu de beuh-R, un peu de cash J'guette la moitié du benef à que-che T'as d'la chance qu'on est pas à tes trousses, fils de pute on connaît d'jà tes cachettes C'était trop facile pour moi de tourner la page, j'ai des sous, j'ai des meufs, j'ai la pêche Comme la plus part du temps j'suis sous piche Pour les grosses décisions j'appelle Suge J'commence midi, minuit, j'roule un gros joint dans l'escalier Premier bolosse qui passe, deuxième bolosse qui passe Toi tu joues avec mes couilles avec mon fric et j't'ai cramé Comment tu veux qu'on fasse Mais comment tu veux qu'on fasse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse J'suis venu tout seul j'ai pas besoin d'eux Que d'mes zinc si ça shoot J'les ai vu dans ma chute, c'est fils de pute s'foutaient d'ma gueule J'te visser pas, j'aime pas ta breuh Gros sur toi j'ai un doute J'reste après 0 heure, dans la renta comme la bourse</t>
+          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF Que des remontés en 2-2 Personne petav mais ça pue la beuh J'la baise tout seul elle croit qu'on est 3 J'l'ai terminé à 4 pattes J'viens pas à 5, j'en ai mis 6 ? J'investis 15 pour l'camembert De mon putain de Glock 17 Wesh moi J'suis plus dans ces bêtises Mais j'suis le best de toutes ces pétasses Millionaire mais tu connais j'stresse vite J stresse vite quand y'a la passad J'l'ai trop baisé j'en ai marre d'cette meuf Donc j'ai fait la passe à mon p'tit reuf J'ai rayé la jante et la rolex C'est pas ma faute j'étais défoncé J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire Expert comptable gère toutes les finances Le contrôle, laisse entrer les dépenses Il m'a déconseillé d'me fillance' Il m'a déconseillé d'me fillance' J'arrive en retard à ? Des fois c'est j'ai mes cheveux devant mes yeux J'ai toujours refusé la gamelle Apres mon tacos j'vais manger un snickers J'aime trop quand tu toques tu bouges tes fesses J'aime trop quand tu toques tu bouges tes fesses La coquine elle veut que ma be-teu J'vais la laisser croire que j'suis teubé Elle a arrêté de s' ? ? ? va dire à la surveillante J'vais la baiser si elle remontre ses fesses J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3293,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Freestyle BMF #2</t>
+          <t>#FreestyleBonus (Seven Binks)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>C'est la BMF C'est la B, la B, c'est la BMF C'est la B, la B, c'est la BMF C'est la BMF Que des remontés en 2-2 Personne petav mais ça pue la beuh J'la baise tout seul elle croit qu'on est 3 J'l'ai terminé à 4 pattes J'viens pas à 5, j'en ai mis 6 ? J'investis 15 pour l'camembert De mon putain de Glock 17 Wesh moi J'suis plus dans ces bêtises Mais j'suis le best de toutes ces pétasses Millionaire mais tu connais j'stresse vite J stresse vite quand y'a la passad J'l'ai trop baisé j'en ai marre d'cette meuf Donc j'ai fait la passe à mon p'tit reuf J'ai rayé la jante et la rolex C'est pas ma faute j'étais défoncé J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire Expert comptable gère toutes les finances Le contrôle, laisse entrer les dépenses Il m'a déconseillé d'me fillance' Il m'a déconseillé d'me fillance' J'arrive en retard à ? Des fois c'est j'ai mes cheveux devant mes yeux J'ai toujours refusé la gamelle Apres mon tacos j'vais manger un snickers J'aime trop quand tu toques tu bouges tes fesses J'aime trop quand tu toques tu bouges tes fesses La coquine elle veut que ma be-teu J'vais la laisser croire que j'suis teubé Elle a arrêté de s' ? ? ? va dire à la surveillante J'vais la baiser si elle remontre ses fesses J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'aime trop l'argent j'aime trop les femmes C'est p't-être ça qui causera ma perte Calibrée si elle donne le go Nique sa mère si j'prends 10 ans ferme J'descend d'chez moi vêtu de noir Si y'a un truc à faire J'descend d'chez moi vêtu de noir Si y'a un truc à faire</t>
+          <t>Taylor 'bout to fucking flex C'est nous la rue, la vraie, j'suis en avance ou bien à l'heure Souvent les plus blindés, c'est ceux qui en ont pas l'air Et puis j'ai remarqué que mes ex deviennent tous des catins Elles se mettent tous à 4 pattes en pensant Mais j'suis occupé à faire du biff-e, même si c'est moi le fardeau de la miff' Et dans la vie, faut que tu te méfies des poètes, des raconteurs de fables des comédiens Faut qu'tu saches mon ami, que pour sauver l'honneur faut qu'j'le fasse J'aime quand elle bouge ses grosses fesses, quand elle continue à m'sucer même quand j'crache Faites attention, mes démons s'agitent, faut déconseiller aux personnes âgées Nous, c'est ta p'tite sur qu'on fait rougir pendant que toi et ton équipe, vous faites rager eh J'suis dans l'bolide teinté, garé au fond d'l'allée, mec Attends, j'finis d'rouler et on reprend la route, frère Je n'ai pas fini d'vous faire baver et dans mon couplet zéro bavures Et pour c'plavon, j'prévois mon baveux J'veux pas ber-tom, la liberté, c'est trop bavon Et j'suis toujours dans le même binks, mes reufs je les aime, cela va d'soi Jamais je vais retourner ma veste et j'avance avec les mêmes depuis l'bac à sable ba- bye bac</t>
         </is>
       </c>
     </row>
@@ -3310,12 +3310,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>#FreestyleBonus (Seven Binks)</t>
+          <t>Freestyle Couvre Feu (OklmRadio)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Taylor 'bout to fucking flex C'est nous la rue, la vraie, j'suis en avance ou bien à l'heure Souvent les plus blindés, c'est ceux qui en ont pas l'air Et puis j'ai remarqué que mes ex deviennent tous des catins Elles se mettent tous à 4 pattes en pensant Mais j'suis occupé à faire du biff-e, même si c'est moi le fardeau de la miff' Et dans la vie, faut que tu te méfies des poètes, des raconteurs de fables des comédiens Faut qu'tu saches mon ami, que pour sauver l'honneur faut qu'j'le fasse J'aime quand elle bouge ses grosses fesses, quand elle continue à m'sucer même quand j'crache Faites attention, mes démons s'agitent, faut déconseiller aux personnes âgées Nous, c'est ta p'tite sur qu'on fait rougir pendant que toi et ton équipe, vous faites rager eh J'suis dans l'bolide teinté, garé au fond d'l'allée, mec Attends, j'finis d'rouler et on reprend la route, frère Je n'ai pas fini d'vous faire baver et dans mon couplet zéro bavures Et pour c'plavon, j'prévois mon baveux J'veux pas ber-tom, la liberté, c'est trop bavon Et j'suis toujours dans le même binks, mes reufs je les aime, cela va d'soi Jamais je vais retourner ma veste et j'avance avec les mêmes depuis l'bac à sable ba- bye bac</t>
+          <t>Couvre Feu ! We Voicetags Mwaka Flex ,Flex fait nous Flex -- Le 7 Le 7 Le 7 We We ya Haja t'inquiéte on est la La concurrence c'est de l'eau Sur le feu on rajoute de l'huile Et dans ton équipe vous manquez de lait J'ai pas percer Jsui dans le bando Des barettes et des claquettes Qu'est du croyais Jsui pas parti Et pour le re-gué Sache qu'on est partant Ya dop ya meme dixon AK dans la tchop pas besoin d'tre a douze Jai verser mon taga qui fait la diff Et si t'en met trop la fumer t'étouffer Faut pas venir déranger Nos affaires Ici on va te montrer que t'est pas fort Et les médias en raffole Ils savent que c'est moi le chouchou de la foule ......... Et plus rien nous canalisent Moi je veux pas d'amis Jveux que de la money -- Eh t'entend pas ou quoi On a dis couvre feu</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Freestyle Couvre Feu (OklmRadio)</t>
+          <t>Freestyle Couvre Feu sur OKLM Radio</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Couvre Feu ! We Voicetags Mwaka Flex ,Flex fait nous Flex -- Le 7 Le 7 Le 7 We We ya Haja t'inquiéte on est la La concurrence c'est de l'eau Sur le feu on rajoute de l'huile Et dans ton équipe vous manquez de lait J'ai pas percer Jsui dans le bando Des barettes et des claquettes Qu'est du croyais Jsui pas parti Et pour le re-gué Sache qu'on est partant Ya dop ya meme dixon AK dans la tchop pas besoin d'tre a douze Jai verser mon taga qui fait la diff Et si t'en met trop la fumer t'étouffer Faut pas venir déranger Nos affaires Ici on va te montrer que t'est pas fort Et les médias en raffole Ils savent que c'est moi le chouchou de la foule ......... Et plus rien nous canalisent Moi je veux pas d'amis Jveux que de la money -- Eh t'entend pas ou quoi On a dis couvre feu</t>
+          <t>J'suis dans l'pilon, la selha, la beugeu Sinon c'est ta sur que j'aurais fais tapiner Avant de faire partir en gros, j'ai saigné le rainté Les temps pleins portent malchance , j'me suis trop fait pété Mais le point de vente a tourné , j'suis devenu le gérant enculé Les potes à mon p'tit Reuf, on bossé, re bossé Tien 70 pour la journée J'faisais d'rentrer bien avant d'rapper Viens pas t'faire de dessin, faut que tu descende Tu te dessape desserre ton string J'veux que tu m'suce sans les dents, J'veux pas être déçu Y'a ma baves et mon sperm qui coule sur tes seins J'ai pris mes distances, il me déteste tous Mon buzz atise, rien d'autre que la haine Il envie ma réussite du dix au disque Et que maintenant je parle en somme à 6chiffre Dans l'fond du tiek's, en haut du 7 Entrain de recompter l'argent de la semaine, en attendant que le peura paie Suge fait bosser la puce de zipette Un flow intacte, tout droit de Namek C'est ce que les extraterrestre détecte Et comme j'ai capté la tactique tôt, j'ai placé le tipeu en haut du toit du SevenBinks Et j'suis dans l'bink's, j'roule un autre binger Et cette fois ci, j'met plus de taga dans la Massa L'argent rend bête, et tout mon avenir dans une bague Mon boumara m'as dit que dans peu de temps je serais la tête Toujours implique dans mon four l'argent on l'as fait, et on saura l'refaire C'est le manque d'argent qui nous rendent fou Et y'a que les keuf qui arrive à nous faire fuir Et dans les teuk, on fait pas de faute Tout le jour de paye, on te feras ta fête Ce qui ne te tue pas te rend plus fort J'ai des blessure de guerre, mon entourage est fier Et j'suis dans l'bail, et j'ravitaille et ravitaille et ravitaille et ravitaille Koba la D mec, et tout la concu à la traîne Le but c'est de multiplier l'benef plus de 3 fois Fait moi confiance, calcul pas les gens La rue n'aime pas que tu parle, préfère quand t'agis mec Faut des conseils au personnes agées, j'suis fonc-dé dans l'fer, t'en ouvre en dernière gente Si tu nous cherche tu viens en face, j'suis en concert, j'suis dans la fosse On se déplace pour le bénéfice, et quand sa vaut le coup pour sa paire de fesse Ah ba-ban-bang Du biff du biff du biff, avant d'en avoir La vie m'as mis des baffes Ma montrer que les plus grand bluff Et que la plus part, se faisait des couilles par des pouff Avant d'parler d'la rue, faut y être Gérer la pression, calmer la boule au ventre Avoir des principes des valeurs enculé Et ne pas laissé tomber à terre t'es couilles Ils ont plus rien à dire, j'ai déjà tout dis Ici c'est il pour il et dents pour dents Et maintenant c'est moi l'chouchou ta racli Le reste de la concu, entre paranthese J'ai ramener le bat 7, jusqu'à Namek Y'a une barrette pour chacun Koba la D morse ou miel, et tire toutes les petasse à la fin de la teuf Kob'z, kiff sossa, des sous et moin de soucis Showcawe, Sacem, et moin de sous sale Et le soir je m'endors de moin en moin seul Et regarde tout ces biglass, pourtant J'visser peu trop de boloss Le 6.35 est chargé, pd, stuveu ramene tes grand frère C'est trop facile d'écrire, j'dead ça avec du cran Elle croit que j'm'attache, si j'trouve un autre gros cul Et bah j'la tej, en vrai j'm'en fou d'ces putes Moi j'suis precé, d'finir cette recharge On a pas le même train de vie, on bicrave Et c'est pauvre con s'bicrave - Train de Vie J'me rappelle j'avais rien, j'traînais tous les jours dans l'bât 7 J'enchaînais joint sur joint, quand j'étais chaud j'allais voler En cours j'étais plutôt violent, en aucun cas j'me laissais faire J'avais toujours c'qu'il faut, souvent apprécié par toutes les filles Matrixé par The Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi, pour qu'il me pousse du shit Il m'a dit fais partir, ramène vingt-six et garde le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Et regarde j'ai tout compris J'ai grandi, j'ai appris, que faire du bénéfice, coffrer nan c'est pas si facile Tout l'temps ma mère me répète de faire attention à mes potes La plupart c'est des putes quand ils pourront ils t'la mettront dans l'cul Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye J'suis passé d'plaquettes aux kilos, police va t'faire enculer Si tu t'soucies du regard des gens, tu vas jamais y arriver En peu d'temps j'leur ai tré-mon Et regarde ma nouvelle montre C'est à mon buzz qu'elle s'agrippe Cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Du bénéf' beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça des sapes toutes neuves Plus de boloss, plus de billets Plus de billets, plus de gue-dro En plus de ça c'est que d'la pefra, guette ça les attire tous Et finir ici personne balance Breva sur mon joint, mes gants Pas d'flaque donc pas d'empreintes Et pas d'empreintes donc pas de preuves Moi plus rien ne m'étonne Et plus rien n'peut m'atteindre Compte pas sur moi pour t'attendre Si je t'attends j'vais perdre d'l'argent Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye</t>
         </is>
       </c>
     </row>
@@ -3344,12 +3344,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Freestyle Couvre Feu sur OKLM Radio</t>
+          <t>Freestyle GTD</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>J'suis dans l'pilon, la selha, la beugeu Sinon c'est ta sur que j'aurais fais tapiner Avant de faire partir en gros, j'ai saigné le rainté Les temps pleins portent malchance , j'me suis trop fait pété Mais le point de vente a tourné , j'suis devenu le gérant enculé Les potes à mon p'tit Reuf, on bossé, re bossé Tien 70 pour la journée J'faisais d'rentrer bien avant d'rapper Viens pas t'faire de dessin, faut que tu descende Tu te dessape desserre ton string J'veux que tu m'suce sans les dents, J'veux pas être déçu Y'a ma baves et mon sperm qui coule sur tes seins J'ai pris mes distances, il me déteste tous Mon buzz atise, rien d'autre que la haine Il envie ma réussite du dix au disque Et que maintenant je parle en somme à 6chiffre Dans l'fond du tiek's, en haut du 7 Entrain de recompter l'argent de la semaine, en attendant que le peura paie Suge fait bosser la puce de zipette Un flow intacte, tout droit de Namek C'est ce que les extraterrestre détecte Et comme j'ai capté la tactique tôt, j'ai placé le tipeu en haut du toit du SevenBinks Et j'suis dans l'bink's, j'roule un autre binger Et cette fois ci, j'met plus de taga dans la Massa L'argent rend bête, et tout mon avenir dans une bague Mon boumara m'as dit que dans peu de temps je serais la tête Toujours implique dans mon four l'argent on l'as fait, et on saura l'refaire C'est le manque d'argent qui nous rendent fou Et y'a que les keuf qui arrive à nous faire fuir Et dans les teuk, on fait pas de faute Tout le jour de paye, on te feras ta fête Ce qui ne te tue pas te rend plus fort J'ai des blessure de guerre, mon entourage est fier Et j'suis dans l'bail, et j'ravitaille et ravitaille et ravitaille et ravitaille Koba la D mec, et tout la concu à la traîne Le but c'est de multiplier l'benef plus de 3 fois Fait moi confiance, calcul pas les gens La rue n'aime pas que tu parle, préfère quand t'agis mec Faut des conseils au personnes agées, j'suis fonc-dé dans l'fer, t'en ouvre en dernière gente Si tu nous cherche tu viens en face, j'suis en concert, j'suis dans la fosse On se déplace pour le bénéfice, et quand sa vaut le coup pour sa paire de fesse Ah ba-ban-bang Du biff du biff du biff, avant d'en avoir La vie m'as mis des baffes Ma montrer que les plus grand bluff Et que la plus part, se faisait des couilles par des pouff Avant d'parler d'la rue, faut y être Gérer la pression, calmer la boule au ventre Avoir des principes des valeurs enculé Et ne pas laissé tomber à terre t'es couilles Ils ont plus rien à dire, j'ai déjà tout dis Ici c'est il pour il et dents pour dents Et maintenant c'est moi l'chouchou ta racli Le reste de la concu, entre paranthese J'ai ramener le bat 7, jusqu'à Namek Y'a une barrette pour chacun Koba la D morse ou miel, et tire toutes les petasse à la fin de la teuf Kob'z, kiff sossa, des sous et moin de soucis Showcawe, Sacem, et moin de sous sale Et le soir je m'endors de moin en moin seul Et regarde tout ces biglass, pourtant J'visser peu trop de boloss Le 6.35 est chargé, pd, stuveu ramene tes grand frère C'est trop facile d'écrire, j'dead ça avec du cran Elle croit que j'm'attache, si j'trouve un autre gros cul Et bah j'la tej, en vrai j'm'en fou d'ces putes Moi j'suis precé, d'finir cette recharge On a pas le même train de vie, on bicrave Et c'est pauvre con s'bicrave - Train de Vie J'me rappelle j'avais rien, j'traînais tous les jours dans l'bât 7 J'enchaînais joint sur joint, quand j'étais chaud j'allais voler En cours j'étais plutôt violent, en aucun cas j'me laissais faire J'avais toujours c'qu'il faut, souvent apprécié par toutes les filles Matrixé par The Wire, j'ai eu envie d'bicrave J'ai harcelé Deuspi, pour qu'il me pousse du shit Il m'a dit fais partir, ramène vingt-six et garde le reste Mais p'tit frère fais belek, est-ce que t'es sûr de prendre des risques ? Et regarde j'ai tout compris J'ai grandi, j'ai appris, que faire du bénéfice, coffrer nan c'est pas si facile Tout l'temps ma mère me répète de faire attention à mes potes La plupart c'est des putes quand ils pourront ils t'la mettront dans l'cul Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye J'suis passé d'plaquettes aux kilos, police va t'faire enculer Si tu t'soucies du regard des gens, tu vas jamais y arriver En peu d'temps j'leur ai tré-mon Et regarde ma nouvelle montre C'est à mon buzz qu'elle s'agrippe Cette pute compte pas lâcher la grappe Le buzz ramène que du bénéf' Du bénéf' beaucoup d'bénéf' Mon compte en banque se remplit, en plus de ça des sapes toutes neuves Plus de boloss, plus de billets Plus de billets, plus de gue-dro En plus de ça c'est que d'la pefra, guette ça les attire tous Et finir ici personne balance Breva sur mon joint, mes gants Pas d'flaque donc pas d'empreintes Et pas d'empreintes donc pas de preuves Moi plus rien ne m'étonne Et plus rien n'peut m'atteindre Compte pas sur moi pour t'attendre Si je t'attends j'vais perdre d'l'argent Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'me réveille je chie J'vis pour vendre ce shit j'me lève au spliff Un train d'vie pas très passionnant et un peu casse-couilles des fois Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye Et j'suis dans l'binks, j'vi-ser j'v'-esqui la hess Et j'suis dans l'binks, j'vi-ser j'pense à la paye</t>
+          <t>Hum Ouh Layte Beats J'ai la SACEM qui tombe Hun, hun J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Vers chez nous, c'est rare les refus, la première preuve toutes les références Fuck les fédéraux, là, j'suis au bar avec El Jefe Aucun regret, si on doit l'refaire, on l'refait Grosse caisse comme le président, j'ai de quoi faire baver les envieux T'as pas d'coffret, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le shit à vendre P'tit pédé, reste concentré, tu va nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde qu'j'ai dû péter Eh, j'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex m'dit de les éviter, qu'on prendra d'la valeur au fil du temps Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter, qu'on prendra d'la valeur au fil du temps J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Ma Rolex me dit qu'on prendra d'la valeur au fil du temps</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Freestyle GTD</t>
+          <t>Freestyle La Pure</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hum Ouh Layte Beats J'ai la SACEM qui tombe Hun, hun J'ai la SACEM qui tombe, c'est bon, j'suis refait Ouais, on cultive la beuh à Rafa Vers chez nous, c'est rare les refus, la première preuve toutes les références Fuck les fédéraux, là, j'suis au bar avec El Jefe Aucun regret, si on doit l'refaire, on l'refait Grosse caisse comme le président, j'ai de quoi faire baver les envieux T'as pas d'coffret, t'as plus R, t'avais des thunes, ça, c'était avant Cinq kilos, dix kilos, on détaille d'abord le shit à vendre P'tit pédé, reste concentré, tu va nous rodave si tu laisses ouvert C'est la vraie vie, c'est pas GTA, j'ai tout dealé dans le GTD Pas d'autres alternatives, j'étais mort, c'est dans c'monde de merde qu'j'ai dû péter Eh, j'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Trop pété, trop pété J'retourne au quartier, on s'pète plus tard Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex m'dit de les éviter, qu'on prendra d'la valeur au fil du temps Putain, y avait trop d'mythos qui s'prennent pour des gros mutants Ma Rolex me dit de les éviter, qu'on prendra d'la valeur au fil du temps J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété J'té-cla un autre pé-tou, j'ai raté la sortie, si j'suis trop pété Ma Rolex me dit qu'on prendra d'la valeur au fil du temps</t>
+          <t>Nel rap francese sono numerosi gli artisti che nel 2020 hanno dato luce a dei lavori interessanti e completi, tuttavia tra di loro spicca Mes, rapper di Sevran, che con Les Dernieres Salopards ha raggiunto alcuni risultati eccezionali. Il lavoro di Maes, il cui vero nome è Walid Georgey, lanciato da diversi singoli che hanno avuto un successo commerciale incredibile e arrivato dopo il successo del precedente Pure, è il scondo album ufficiale del rapper francse ed ha conquistato sia il pubblico sia la critica tramite un lavoro maturo e completo. Maes comincia a rappare e scrivere da giovanissimo, la svolta con la musica arriva nel 2018 quando, dopo un periodo di carcere durato circa un anno e mezzo, pubblica la serie di freestyle MaesEstLiberable seguita dal mixtape Relle Vie 2.0 che lo fa notare al grande pubblico. Dopo la firma con la major Maes a dicembre dello stesso album pubblica il suo primo album ufficiale Pure, supportato principalmente dai singoli Billets Verts e Madrina in collaborazione con Booba, entrambi certificati dischi di diamante. Dopo due anni durante i quali rimane sempre attivo grazie alle numerosi collaborazioni con molti rapper francesi, ritorna con il sopracitato Les Dernieres Salopards. Maes è un rapper dotato di un incredibile versatilità, capace di esprimersi sia tramite canzoni aggressive che tramite brani più intimi, conciliando i contenuti con numerose hit da classifica. I testi del rapper di Sevran si concentrano principalmente sulla strada, dando vita attraverso liriche sia gangsta che intime, ad una descrizione veritiera e costruttiva. Le capacità e lo stile di Maes sono già evidenti nel mixtape Relle Vie 2.0, un lavoro dove il rapper pone in primo piano la realtà di strada attraverso canzoni dallo stile talvolta violento talvolta più leggero, tra di esse si nota in particolare la canzone TMax 530, uno storytelling scritto in prigione. Il vero salto di qualità tuttavia lo si deve al primo album, un lavoro che comprende sia brani scritti in carcere che dopo, grazie al quale ottiene un grande successo in Francia. Se nel primo mixtape aveva evidenziato la sua componente più aggressiva con brani sulla spaccato della strada, nellalbum seguente riesce ad offrire un lavoro più completo e contenente canzoni più riflessive, intime e da atmosfere noir. Tra di esse si notano in particolare due dei tre singoli Madrina, in collaborazione con Booba, che è stata in cima alle classifiche per diverse settimane ed il cui video ha accumulato più di 100 milioni di visualizzazioni su YouTube e, soprattutto, Mama, terzo estratto dellalbum. Nel terzo singolo Maes riesce ad esprimere i suoi sentimenti e le sue paure durante la prigione, dando vita ad un brano intimo in cui riflette sul significato di strada e della vita che essa comporta. Durante lintervallo tra il primo album ed il secondo lartista si fa notare sia grazie ai due singoli NWR e Street che, soprattutto, grazie alle numerose collaborazioni di successo che lo rendono sempre presente sulla scena musicale. Tra di esse, si distinguono in particolare LOdeaur du Charbon con Dosseh e Matin insieme a Koba LaD. Maes in seguito ritorna sulla scena con la pubblicazione del sopracitato secondo album Les Dernieres Salopards. In questo lavoro il rapper continua il suo miglioramento dando vita al milgior progetto della sua carriera. Lalbum contiene liriche su diversi temi tra cui il successo, la famiglia e la strada, che sono parte della vita del rapper e delle quali fornisce sia i lati positivi che quelli problematici. Maes in questo lavoro riesce inoltre a bilanciare molto bene sia lindole aggressiva e gangster con la quale descrive la strada, per esempio nelle canzoni Elvira, Dragovic e Marco Polo con quella più riflessiva di Memoire e Les Gens Disent. Il successo commerciale si sia alla qualità di lavoro che propone il rapper sia alla spinta dei tre singoli certificati poi diamante ed in collaborzione con Ninho, Booba e Jul, pesi massimi del rap transalpino. Lalbum, certificato doppio disco di platino, è stato lodato dalla critica ed ha portato Maes ad un tour nei palazzetti poi annullato causa Covid. Les Dernieres Salopards è stato un lavoro grazie al quale il rapper ha dato prova di tutte le sue abilità dimostrando di essere una grande penna ed offrendo un immaginario unico, fatto sia di aggressività che di intimità, riuscendo a creare nella mente dellascoltatore sia attraverso le canzoni che attraverso i video unatmosfera completamente propria. Maes risulta essere in conclusione uno dei rapper più produttivi e differenti della nuova scena francese riuscendo ad emergere rispetto ai colleghi. Labilità di Maes è soprattutto quella di riuscire a riproporre una figura gangster attraverso un immaginario differente, basato sulla sua street credibility, ma capace di proporre diverse tematiche di riflessione che, unite ad uno stile unico, ne fanno un artista incredibile.</t>
         </is>
       </c>
     </row>
@@ -3378,12 +3378,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Freestyle La Pure</t>
+          <t>Freestyle Quartier</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Nel rap francese sono numerosi gli artisti che nel 2020 hanno dato luce a dei lavori interessanti e completi, tuttavia tra di loro spicca Mes, rapper di Sevran, che con Les Dernieres Salopards ha raggiunto alcuni risultati eccezionali. Il lavoro di Maes, il cui vero nome è Walid Georgey, lanciato da diversi singoli che hanno avuto un successo commerciale incredibile e arrivato dopo il successo del precedente Pure, è il scondo album ufficiale del rapper francse ed ha conquistato sia il pubblico sia la critica tramite un lavoro maturo e completo. Maes comincia a rappare e scrivere da giovanissimo, la svolta con la musica arriva nel 2018 quando, dopo un periodo di carcere durato circa un anno e mezzo, pubblica la serie di freestyle MaesEstLiberable seguita dal mixtape Relle Vie 2.0 che lo fa notare al grande pubblico. Dopo la firma con la major Maes a dicembre dello stesso album pubblica il suo primo album ufficiale Pure, supportato principalmente dai singoli Billets Verts e Madrina in collaborazione con Booba, entrambi certificati dischi di diamante. Dopo due anni durante i quali rimane sempre attivo grazie alle numerosi collaborazioni con molti rapper francesi, ritorna con il sopracitato Les Dernieres Salopards. Maes è un rapper dotato di un incredibile versatilità, capace di esprimersi sia tramite canzoni aggressive che tramite brani più intimi, conciliando i contenuti con numerose hit da classifica. I testi del rapper di Sevran si concentrano principalmente sulla strada, dando vita attraverso liriche sia gangsta che intime, ad una descrizione veritiera e costruttiva. Le capacità e lo stile di Maes sono già evidenti nel mixtape Relle Vie 2.0, un lavoro dove il rapper pone in primo piano la realtà di strada attraverso canzoni dallo stile talvolta violento talvolta più leggero, tra di esse si nota in particolare la canzone TMax 530, uno storytelling scritto in prigione. Il vero salto di qualità tuttavia lo si deve al primo album, un lavoro che comprende sia brani scritti in carcere che dopo, grazie al quale ottiene un grande successo in Francia. Se nel primo mixtape aveva evidenziato la sua componente più aggressiva con brani sulla spaccato della strada, nellalbum seguente riesce ad offrire un lavoro più completo e contenente canzoni più riflessive, intime e da atmosfere noir. Tra di esse si notano in particolare due dei tre singoli Madrina, in collaborazione con Booba, che è stata in cima alle classifiche per diverse settimane ed il cui video ha accumulato più di 100 milioni di visualizzazioni su YouTube e, soprattutto, Mama, terzo estratto dellalbum. Nel terzo singolo Maes riesce ad esprimere i suoi sentimenti e le sue paure durante la prigione, dando vita ad un brano intimo in cui riflette sul significato di strada e della vita che essa comporta. Durante lintervallo tra il primo album ed il secondo lartista si fa notare sia grazie ai due singoli NWR e Street che, soprattutto, grazie alle numerose collaborazioni di successo che lo rendono sempre presente sulla scena musicale. Tra di esse, si distinguono in particolare LOdeaur du Charbon con Dosseh e Matin insieme a Koba LaD. Maes in seguito ritorna sulla scena con la pubblicazione del sopracitato secondo album Les Dernieres Salopards. In questo lavoro il rapper continua il suo miglioramento dando vita al milgior progetto della sua carriera. Lalbum contiene liriche su diversi temi tra cui il successo, la famiglia e la strada, che sono parte della vita del rapper e delle quali fornisce sia i lati positivi che quelli problematici. Maes in questo lavoro riesce inoltre a bilanciare molto bene sia lindole aggressiva e gangster con la quale descrive la strada, per esempio nelle canzoni Elvira, Dragovic e Marco Polo con quella più riflessiva di Memoire e Les Gens Disent. Il successo commerciale si sia alla qualità di lavoro che propone il rapper sia alla spinta dei tre singoli certificati poi diamante ed in collaborzione con Ninho, Booba e Jul, pesi massimi del rap transalpino. Lalbum, certificato doppio disco di platino, è stato lodato dalla critica ed ha portato Maes ad un tour nei palazzetti poi annullato causa Covid. Les Dernieres Salopards è stato un lavoro grazie al quale il rapper ha dato prova di tutte le sue abilità dimostrando di essere una grande penna ed offrendo un immaginario unico, fatto sia di aggressività che di intimità, riuscendo a creare nella mente dellascoltatore sia attraverso le canzoni che attraverso i video unatmosfera completamente propria. Maes risulta essere in conclusione uno dei rapper più produttivi e differenti della nuova scena francese riuscendo ad emergere rispetto ai colleghi. Labilità di Maes è soprattutto quella di riuscire a riproporre una figura gangster attraverso un immaginario differente, basato sulla sua street credibility, ma capace di proporre diverse tematiche di riflessione che, unite ad uno stile unico, ne fanno un artista incredibile.</t>
+          <t>Cartier Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran À midi tapante, faut être sûr l'terrain ou sinon, on saute ton tour Les pochtons gé-char, ah mon gars, t'as peur Peur, faut qu'le rrain-te tourne, donc faut tout faire pour Pour Tout faire pour Pour, premier boom, l'p'tit les renvoyais rabattre dans toute la ville La ville Midi-minuit Minuit, midi-minuit Minuit, j'suis tout l'temps dehors comme les rats d'la ville J'baises trop depuis qu'j'ai l'permis J'ai l'permis, j'suis dans l'S3 ABT ABT, ABT, ABT, ma voiture va plus vite que celle de Batman De Batman Elle m'parles de patin, me parles de s'poser De s'poser, de base, moi, je voulais que la baiser De la baiser, de la baiser, de la baiser Mais maintenant, sa fille m'appelles Mon papa Mon papa Bon vendeur, dans les comptes, j'utilises bloc-notes, pour ça, j'ai les chiffres de c'que tu m'dois net Hier, au gris, j'parlais avec un mec Un mec qui a tombé pour plus d'une tonne Tu peux pas calmer ma faim, j'suis assoiffé d'thunes, j'suis avec dealers qui parlent en mètres Mais au moins, j'peux dire à ma mère qu'j'suis une star du net Net À la cité, à la cool, jus d'pomme et gros, deux pots d'beuh à la main À la main Survêt' et paire de TN, t'inquiète, y a le double platine chez moi Chez moi C'est moi, le p'tit renoi C'est moi d'la tess qui fait du bruit avec sa voiture Vroum, vroum, vroum La Cigale, l'Olympia, c'est pour les p'tits bites Les p'tites bites, j'suis en train d'boucler la tournée dès cette nuit Faut venir le voir pour qu'tu puisses me croire sinon, tu vas m'prendre pour un gros menteur Y a mon reuf masqué Masqué, ça fait dix ans qu'il tourne, sa mère, mon sin-c' dans des histoires de meurtres On se plaint pas, nous, on se dit qu'y a toujours pire et quoi qu'il arrive, c'est la vie C'est pas toujours facile Eh, y a les pénuries d'shit Eh, en hiver, les descentes surprises Aïe, aïe, aïe Concert, après, showcase, j'peux pas dormir, demain, j'voyage Putain, tu vas prendre une que-cla si tu t'endors sur le terrain On est cramé par les baqueux, j'vois les sirènes, j'mets le mode S Et j'mets le mode S, j'mets le mode S, vas-y, venez bande de bâtards Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs C'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Freestyle Quartier</t>
+          <t>Freestyle Terrain</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cartier Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran À midi tapante, faut être sûr l'terrain ou sinon, on saute ton tour Les pochtons gé-char, ah mon gars, t'as peur Peur, faut qu'le rrain-te tourne, donc faut tout faire pour Pour Tout faire pour Pour, premier boom, l'p'tit les renvoyais rabattre dans toute la ville La ville Midi-minuit Minuit, midi-minuit Minuit, j'suis tout l'temps dehors comme les rats d'la ville J'baises trop depuis qu'j'ai l'permis J'ai l'permis, j'suis dans l'S3 ABT ABT, ABT, ABT, ma voiture va plus vite que celle de Batman De Batman Elle m'parles de patin, me parles de s'poser De s'poser, de base, moi, je voulais que la baiser De la baiser, de la baiser, de la baiser Mais maintenant, sa fille m'appelles Mon papa Mon papa Bon vendeur, dans les comptes, j'utilises bloc-notes, pour ça, j'ai les chiffres de c'que tu m'dois net Hier, au gris, j'parlais avec un mec Un mec qui a tombé pour plus d'une tonne Tu peux pas calmer ma faim, j'suis assoiffé d'thunes, j'suis avec dealers qui parlent en mètres Mais au moins, j'peux dire à ma mère qu'j'suis une star du net Net À la cité, à la cool, jus d'pomme et gros, deux pots d'beuh à la main À la main Survêt' et paire de TN, t'inquiète, y a le double platine chez moi Chez moi C'est moi, le p'tit renoi C'est moi d'la tess qui fait du bruit avec sa voiture Vroum, vroum, vroum La Cigale, l'Olympia, c'est pour les p'tits bites Les p'tites bites, j'suis en train d'boucler la tournée dès cette nuit Faut venir le voir pour qu'tu puisses me croire sinon, tu vas m'prendre pour un gros menteur Y a mon reuf masqué Masqué, ça fait dix ans qu'il tourne, sa mère, mon sin-c' dans des histoires de meurtres On se plaint pas, nous, on se dit qu'y a toujours pire et quoi qu'il arrive, c'est la vie C'est pas toujours facile Eh, y a les pénuries d'shit Eh, en hiver, les descentes surprises Aïe, aïe, aïe Concert, après, showcase, j'peux pas dormir, demain, j'voyage Putain, tu vas prendre une que-cla si tu t'endors sur le terrain On est cramé par les baqueux, j'vois les sirènes, j'mets le mode S Et j'mets le mode S, j'mets le mode S, vas-y, venez bande de bâtards Qu'est-ce tu crois ? Ici, ça craint, gros, c'est crû, les p'tits ont les crocs C'est crû, les p'tits ont les crocs Qui l'aurait cru ? Mais bon, faut y croire Maintenant, les p'tits, c'est des grands depuis qu'ils récupèrent en gros Depuis qu'ils récupèrent en gros Et pour être dedans, il t'faut du cran On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé On était bien mais maintenant, c'est B C'est B mais nique sa mère, j'ai du blé Du blé</t>
+          <t>Layte Beats Oh-oh Le terrain ouvre, bats les couilles, qu'c'est miné C'est miné, j'fais les livraisons après minuit Minuit Trois points par jour, milles euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Qu'on a tenu Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros Même ma nièce, elle s'ennuie Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros Okay, okay J'récupère les sous, j'ai d'jà la feuille d compte, si le R coule, j'ai d'jà prcé dans tous les cas Tous les cas Le mal dans tous, dans tous les recoins, y a pas d'bagailles Hey, j'ai tout guetté pour le terrain Hey Frère, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres Deux beugeuh, deux beuh différentes, prends pas celle-là, crois-moi que la meilleure, c'est l'autre C'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon Hum, mes thunes et l'odeur d'ma beuh Hum Fais-que, j'peux baiser qui j'veux mais non Hum, c'est mort Hum, ces folles, elles sont toutes rrées-bou Hum J'suis sur l'terrain, j'me suis pas forcé, c'est un choix que j'ai décidé d'faire tout seul De faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore Encore, entre nous, un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste Faut que j'résiste Tout près d'moi, j'garde mon oseille et la mi-ff Tout est fignoler, tout est peaufiner, même la dep' a du mal à nous filoche Tout est posé, tout est compter, la pression du stade quand j'tiens la sacoche Appelle mon sin-c' au cas où ils m'pètent et sur l'terrain, dépendant du PU Tout est fignoler, tout est peaufiner, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner Tout est fignoler, tout est peaufiner Hum, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner1</t>
         </is>
       </c>
     </row>
@@ -3412,12 +3412,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Freestyle Terrain</t>
+          <t>Freestyle VII</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Layte Beats Oh-oh Le terrain ouvre, bats les couilles, qu'c'est miné C'est miné, j'fais les livraisons après minuit Minuit Trois points par jour, milles euros minimum, c'est les murs d'l'ancien hôpital qu'on a maintenu, gros Qu'on a tenu Maîtrise toutes les manuvres, j'suis l'noir préféré de Jean-Pierre et Manu, gros Même ma nièce, elle s'ennuie Regard froid, menaçant, si ça monte pas, cette été, j'rajoute d'la C, gros Okay, okay J'récupère les sous, j'ai d'jà la feuille d compte, si le R coule, j'ai d'jà prcé dans tous les cas Tous les cas Le mal dans tous, dans tous les recoins, y a pas d'bagailles Hey, j'ai tout guetté pour le terrain Hey Frère, j'suis pas un radin mais c'est la pénurie, même un kilo, j'peux même pas dépanner aux autres Deux beugeuh, deux beuh différentes, prends pas celle-là, crois-moi que la meilleure, c'est l'autre C'est l'autre C'est trop, mon pote, moi, j'suis pas beau mais bon Hum, mes thunes et l'odeur d'ma beuh Hum Fais-que, j'peux baiser qui j'veux mais non Hum, c'est mort Hum, ces folles, elles sont toutes rrées-bou Hum J'suis sur l'terrain, j'me suis pas forcé, c'est un choix que j'ai décidé d'faire tout seul De faire tout seul Et sans l'vouloir, c'est l'boss de ma famille que j'ai sali J'ai pris des sous mais j'en veux encore Encore, entre nous, un million d'écart Le cur lourd assombri par la rancur mais s'adouci quand elle descend près d'mes couilles C'est triste à dire, c'est dur à vivre mais y a du biff', faut que j'résiste Faut que j'résiste Tout près d'moi, j'garde mon oseille et la mi-ff Tout est fignoler, tout est peaufiner, même la dep' a du mal à nous filoche Tout est posé, tout est compter, la pression du stade quand j'tiens la sacoche Appelle mon sin-c' au cas où ils m'pètent et sur l'terrain, dépendant du PU Tout est fignoler, tout est peaufiner, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner Tout est fignoler, tout est peaufiner Hum, ils peuvent toujours venir, y a rien Tout est posé, tout est recompter, la pression du stade quand j'suis sûr l'terrain Tout est fignoler, tout est peaufiner, tout est fignoler, tout est peaufiner1</t>
+          <t>Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Sku, sku, et tu peux m'trouver dans l'fond du binks Ou dans la schnek à ta nièce et tu veux même voir ma tête sur Deezer Ils font pas tout c'qui disent, y'a les 22 à dix heues Cinq cents euros, sur cent grammes et petit, prends-en d'la graine Hé, police, on t'encule, des big liasses et des kilos Pas d'remords, j'ai plus d'cur, peu m'importe tant qu'le liquide coule Et pour qu'le liquide coule, il faut qu'la bonbonne, tu la cales Sois sérieux, fais pas l'con, ne lui donne pas n'importe laquelle Et beaucoup maudit sur ma vie, depuis, je vis plus la même vie qu'avant Ramasser, ramasser, c'est toute ma vie mais cette pute pense qu'à me faire des morveux Démarre vite, on détaille, on recharge vite et je les rattrape tous à vive allure Et maint'nant, c'est Koba qui vous donne l'heure, balade dans la street la bite à l'air Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Koba du 7, numéro uno, c'est moi qui fait la une, le préféré des internautes Mon buzz attise la haine et j'garde la tête sur les épaules Et gros, oublie pas d'où tu viens ou tu t'mettras les tiens à dos Ici, c'est tout ou rien, j'gratte partout comme un rat Y a pas d'pause, pas d'arrêt, y a pas d'triche, pas d'faute, pas d'arbitre On bannit les poucaves, tous ceux qui parlent aux keufs Y a ceux qu'acceptent la crise et d'autres qui font sauter ton compte Et j'vis-ser pour ves-qui la hess Et l'bénef', on grossira donc dix pièces de frappe pour qu'j'fasse le taff' Et c'est ici, la rue, la vraie et c'est ici la rue la vrai Et j'recompte avant d'partir, et j're-recompte posé dans l'bat' Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Freestyle VII</t>
+          <t>Frères ennemis</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Sku, sku, et tu peux m'trouver dans l'fond du binks Ou dans la schnek à ta nièce et tu veux même voir ma tête sur Deezer Ils font pas tout c'qui disent, y'a les 22 à dix heues Cinq cents euros, sur cent grammes et petit, prends-en d'la graine Hé, police, on t'encule, des big liasses et des kilos Pas d'remords, j'ai plus d'cur, peu m'importe tant qu'le liquide coule Et pour qu'le liquide coule, il faut qu'la bonbonne, tu la cales Sois sérieux, fais pas l'con, ne lui donne pas n'importe laquelle Et beaucoup maudit sur ma vie, depuis, je vis plus la même vie qu'avant Ramasser, ramasser, c'est toute ma vie mais cette pute pense qu'à me faire des morveux Démarre vite, on détaille, on recharge vite et je les rattrape tous à vive allure Et maint'nant, c'est Koba qui vous donne l'heure, balade dans la street la bite à l'air Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Koba du 7, numéro uno, c'est moi qui fait la une, le préféré des internautes Mon buzz attise la haine et j'garde la tête sur les épaules Et gros, oublie pas d'où tu viens ou tu t'mettras les tiens à dos Ici, c'est tout ou rien, j'gratte partout comme un rat Y a pas d'pause, pas d'arrêt, y a pas d'triche, pas d'faute, pas d'arbitre On bannit les poucaves, tous ceux qui parlent aux keufs Y a ceux qu'acceptent la crise et d'autres qui font sauter ton compte Et j'vis-ser pour ves-qui la hess Et l'bénef', on grossira donc dix pièces de frappe pour qu'j'fasse le taff' Et c'est ici, la rue, la vraie et c'est ici la rue la vrai Et j'recompte avant d'partir, et j're-recompte posé dans l'bat' Police, on t'encule, police, on t'encule On les avance tous, ils remboursent tous Police, on t'encule, police, on t'encule Nous, on détaille tout et on revend tout Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule Police, on t'encule, police, on t'encule</t>
+          <t>A-A Ouh On m'fait des fucks puis, des coucous, elle pense que j'suis son doudou Ouh A-A Elle veut m'ralentir, elle fait tout pour Ouh AWA the mafia, my nigga! Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer J'arrive dans une caisse sombre, bre-som, j'fais l'même travail que Trey Songz Oh-oh, j'laisse ça, j'touche plus ça, j'essaie d'fuir mes addictions Oh-oh Toujours dans mes calculs, addition et soustraction et merde alors, j'crois qu'Iblis veut nuir mes ambitions Aye, aye, aye, aye Test, vas-y, essayes, la BMF va t'chopper, pressé mais précis, j'découpe la S en chap-chap Aye, aye, aye, aye J'garde ma peine pour moi mais quelques fois, ça m'échappe, j'garde ma peine pour moi mais quelques fois, ça m'échappe J'viens d'régler un problème, j'me remets dans une galère Dans la merde, j'retiens jamais la leçon, j'refais tous les jours pareil Toujours pareil J'te nique ta mère avec du style, grosse balayette laser, j'viens d'niquer ma paire d'LV Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer, skrt Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet, skrt Le goudron nique ma santé Sa mère et la peine me nique ma santé Ça fait longtemps qu'on s'fait la guerre et on sait même plus pourquoi, pourtant, de base, c'était Kob'z, wesh, bien ou quoi ? J'me roule un putain d'joint et j'lui dit Fume avec moi, elle veut pas, elle veut d'la C et un paquet d'Philip Mo' Ouais, t'inquiètes, c'est gratuit, tu payes avec ton âme, ouais, tête dur, il a dealé, volé mais à cause d'une dame Babe, ouais, à cause d'un tard-pé, il a perdu sa tête, déçu, blessé, il fait des pompes solo sur le synthé' Et p't-être que c'est que dans ma tête que je n'suis pas fais pour quelqu'un J'pull up dans ta té-c' et j'espère que j'ratte les enfants Laissez-moi, j'veux remplir la caisse J'mets une cagoule car j'suis quelqu'un, j'te nique avec du style, tâche de sang sur ma Requin Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet Le goudron nique ma santé Sa mère et la peine me nique ma santé Ouh, ouh On m'fait des fucks puis des coucous, elle pense que j'suis son doudou Ouh Elle veut m'ralentir, elle fait tout pour Ouh, ah</t>
         </is>
       </c>
     </row>
@@ -3446,12 +3446,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Freestyle Waka</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
         </is>
       </c>
     </row>
@@ -3463,12 +3463,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Frères ennemis</t>
+          <t>Gros bonnets</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>A-A Ouh On m'fait des fucks puis, des coucous, elle pense que j'suis son doudou Ouh A-A Elle veut m'ralentir, elle fait tout pour Ouh AWA the mafia, my nigga! Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer J'arrive dans une caisse sombre, bre-som, j'fais l'même travail que Trey Songz Oh-oh, j'laisse ça, j'touche plus ça, j'essaie d'fuir mes addictions Oh-oh Toujours dans mes calculs, addition et soustraction et merde alors, j'crois qu'Iblis veut nuir mes ambitions Aye, aye, aye, aye Test, vas-y, essayes, la BMF va t'chopper, pressé mais précis, j'découpe la S en chap-chap Aye, aye, aye, aye J'garde ma peine pour moi mais quelques fois, ça m'échappe, j'garde ma peine pour moi mais quelques fois, ça m'échappe J'viens d'régler un problème, j'me remets dans une galère Dans la merde, j'retiens jamais la leçon, j'refais tous les jours pareil Toujours pareil J'te nique ta mère avec du style, grosse balayette laser, j'viens d'niquer ma paire d'LV Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer, skrt Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet, skrt Le goudron nique ma santé Sa mère et la peine me nique ma santé Ça fait longtemps qu'on s'fait la guerre et on sait même plus pourquoi, pourtant, de base, c'était Kob'z, wesh, bien ou quoi ? J'me roule un putain d'joint et j'lui dit Fume avec moi, elle veut pas, elle veut d'la C et un paquet d'Philip Mo' Ouais, t'inquiètes, c'est gratuit, tu payes avec ton âme, ouais, tête dur, il a dealé, volé mais à cause d'une dame Babe, ouais, à cause d'un tard-pé, il a perdu sa tête, déçu, blessé, il fait des pompes solo sur le synthé' Et p't-être que c'est que dans ma tête que je n'suis pas fais pour quelqu'un J'pull up dans ta té-c' et j'espère que j'ratte les enfants Laissez-moi, j'veux remplir la caisse J'mets une cagoule car j'suis quelqu'un, j'te nique avec du style, tâche de sang sur ma Requin Encore une histoire de lovés Lovés, sa mère, c'est l'charbon qui m'a formaté, j'peux pas changer Changer Une fois la détente pressée, c'est plus pareil Eh, eh, c'est l'charbon qui m'a formaté, j'peux pas changer J'peux pas changer Coucou, c'est nous La BMF va t'chopper, vous, vous êtes où ? Truth Records sur le poignet Le goudron nique ma santé Sa mère et la peine me nique ma santé Ouh, ouh On m'fait des fucks puis des coucous, elle pense que j'suis son doudou Ouh Elle veut m'ralentir, elle fait tout pour Ouh, ah</t>
+          <t>Premier du binks, boy Hey Cartel volume 2, Koba À tout moment, gros, ça peut péter Ah, ah, ah J'voulais acheter un Fe-Fe mais dans la ne-zo, y a trop d'jaloux J'veux sortir mon flingue mais y a trop de gens, faut que j'jauge Avec mes putes, je jongle, c'est la loi d'la jungle Ils m'connaissent pas mais ces gros bâtards, rien qu'ils m'jugent Faut que j'réponde de mes actes, faut qu'j'en visser un autre Avec le temps, moi, j'm'habitue à mon mal être La lumière, ça m'fait mal aux yeux, nous, on est trop des rates-pi d'en-d'ssous D'en bas Moi, j'pouvais dead mais nique sa grand-mère, ils m'ont déçu J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper J'suis la seule étoile qui n'est pas dans l'ciel, imbécile, c'qu'on envoie, c'est des étincelles Wouh Té-ma mon cur, faut pas t'approcher, dans ma tête, on est trois comme Cell J'suis à fond sur le périph', ma boîte, elle est séquentielle Rah, tah, tah Dans la boîte à gants, y a du vert, y a un arc-en-ciel Wouh Fils, quitte le terrain, deux-trois sociétés au pays J'suis connu jusqu'à Babi', j'suis connu jusqu'à Cali Le tit-pe qu'était timide aujourd'hui, c'est lui qu'à l'calibre Y a zéro timinik, ça t'élimine en deux minutes J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Cartel volume 2, Koba</t>
         </is>
       </c>
     </row>
@@ -3480,12 +3480,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>GTD</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
+          <t>Ouais J'suis dans l'bendo J'suis dans l'bendo, j'suis trop cramé Ouais, eh J'suis dans l'bendo, j'suis trop cramé Ouh, plein d'billets roses, j'ai les yeux rouges Ouh J'fais que d'compter toute la journée, j'en attrape même des crampes aux pouces Un peu partout j'ramène mon neuf, depuis, gros, moi, j'ai trop faim Ouais Pas b'soin d'sniffer pour te fumer, pas b'soin d'sniffer pour te fumer Même pas c'qu'on raconte, j'suis l'numéro un mais y a toujours mes affaires sur le terrain Me fait pas jurer sur la vie d'ma mère Ma mère, me fait pas jurer sur la vie d'ma mère Ma mère Un peu nerveux, un peu tendue Tendue, un peu bourré sur le cadi En jean quand j'vais bicrave sur Paris, en jean quand j'vais bicrave sur Paris J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente Déjà une heure passé Passé, les bacqueux viennent juste de partir Partir Pour faire des sous, moi, j'suis partant Partant, j'enfile des gants et ma parka Dans un cavu dans l'hélico' Oui, là, j'suis pas là, j'suis au repos Oui J'suis dans l'te-hô, y a dix étoiles Oui, j'suis dans l'te-hô, y a dix étoiles Pas besoin d'pesette, t'inquiète, c'est la frappe qui parle Qui parle Et pour gonfler l'terrain, j'ai ramener d'la selha De la coke Y a d'la beuh qui t'embouche un coin Qui t'embouche un coin, qui t'embouche un coin D'la beugih qui t'embouche un coin Ouais J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Gros bonnets</t>
+          <t>HENNY BU</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Premier du binks, boy Hey Cartel volume 2, Koba À tout moment, gros, ça peut péter Ah, ah, ah J'voulais acheter un Fe-Fe mais dans la ne-zo, y a trop d'jaloux J'veux sortir mon flingue mais y a trop de gens, faut que j'jauge Avec mes putes, je jongle, c'est la loi d'la jungle Ils m'connaissent pas mais ces gros bâtards, rien qu'ils m'jugent Faut que j'réponde de mes actes, faut qu'j'en visser un autre Avec le temps, moi, j'm'habitue à mon mal être La lumière, ça m'fait mal aux yeux, nous, on est trop des rates-pi d'en-d'ssous D'en bas Moi, j'pouvais dead mais nique sa grand-mère, ils m'ont déçu J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper J'suis la seule étoile qui n'est pas dans l'ciel, imbécile, c'qu'on envoie, c'est des étincelles Wouh Té-ma mon cur, faut pas t'approcher, dans ma tête, on est trois comme Cell J'suis à fond sur le périph', ma boîte, elle est séquentielle Rah, tah, tah Dans la boîte à gants, y a du vert, y a un arc-en-ciel Wouh Fils, quitte le terrain, deux-trois sociétés au pays J'suis connu jusqu'à Babi', j'suis connu jusqu'à Cali Le tit-pe qu'était timide aujourd'hui, c'est lui qu'à l'calibre Y a zéro timinik, ça t'élimine en deux minutes J'suis rempli d'manies et d'monnaie Monnaie, donc elle veut tout m'donner Donner J'suis avec MHD MH, faut que tu t'mettes toute nue Elle m'a pris pour gros bonnet Wouh, ma vie dans gros classe G J'comptais tout couper, la Caille s'est cramponnée Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Et les descentes de flics, ça d'vient d'pire en pire T'as voulu jouer la ue-r, nan, la ue-r t'a pas loupé J'crois qu'ils veulent faire chuter le terrain d'pure Pas b'soin d'cavaler, les gros bonnets vont pas t'louper Cartel volume 2, Koba</t>
+          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
         </is>
       </c>
     </row>
@@ -3514,12 +3514,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GTD</t>
+          <t>Hermano</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ouais J'suis dans l'bendo J'suis dans l'bendo, j'suis trop cramé Ouais, eh J'suis dans l'bendo, j'suis trop cramé Ouh, plein d'billets roses, j'ai les yeux rouges Ouh J'fais que d'compter toute la journée, j'en attrape même des crampes aux pouces Un peu partout j'ramène mon neuf, depuis, gros, moi, j'ai trop faim Ouais Pas b'soin d'sniffer pour te fumer, pas b'soin d'sniffer pour te fumer Même pas c'qu'on raconte, j'suis l'numéro un mais y a toujours mes affaires sur le terrain Me fait pas jurer sur la vie d'ma mère Ma mère, me fait pas jurer sur la vie d'ma mère Ma mère Un peu nerveux, un peu tendue Tendue, un peu bourré sur le cadi En jean quand j'vais bicrave sur Paris, en jean quand j'vais bicrave sur Paris J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente Déjà une heure passé Passé, les bacqueux viennent juste de partir Partir Pour faire des sous, moi, j'suis partant Partant, j'enfile des gants et ma parka Dans un cavu dans l'hélico' Oui, là, j'suis pas là, j'suis au repos Oui J'suis dans l'te-hô, y a dix étoiles Oui, j'suis dans l'te-hô, y a dix étoiles Pas besoin d'pesette, t'inquiète, c'est la frappe qui parle Qui parle Et pour gonfler l'terrain, j'ai ramener d'la selha De la coke Y a d'la beuh qui t'embouche un coin Qui t'embouche un coin, qui t'embouche un coin D'la beugih qui t'embouche un coin Ouais J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'suis à fond dans l'GTD, j'ai tout dealer J'ai fait une petite perte, une bonbonne a sauter J'ai, j'ai, j'ai J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente J'ai enlevé la puce, j'ai tout fait partir, il est minuit trente Il est minuit trente</t>
+          <t>Tratos con José Antonio Shaylou Tratos con José Antonio Oh-oh, oh-oh Tratos con José Antonio Ah-ah, ah-ah Tratos con José Antonio y paquetes que son de otoño Tratas con el demonio y acabas cogiendo insomnio Y es que mira, espera, la verdad no es que pensara Grupo mío 9amara, la L raja tu cara Una pistola que dice que dispara, si-si la mano tiene fría Tú tiene' un grupo pero no son nada, po-por la droga tú lo hacía Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, jai niqué lSVR Por la droga tú lo hacía' Holà mamacita, nous, cest la cité, tu sais, tu connais le cartel d'Évry Fallait pas qu'je perds si tôt, tout pour la santé, bébé, ici, tu connais les sentences J'peux sortir un six coups, sortir un siete trente-cinq, jpeux même sortir un bazooka Han J'sors une Kala' de mon sac-à-dos, six étoiles, c'est GTA J'suis trop bourré avec mes brigands Yeah, avec mes cabrons, mes hermanos Yeah Si j'ai trop tisé, j'suis dans l'RS tres, j'repense à la pétasse d'hier soir Wow-wow J'visser un boloss, j'visser deux boloss, faut pas qu'une pédale va me balance Ah J'suis rempli d'platine, j'suis rempli d'ro'-ro' mais putain d'sa mère, j'aime trop la drogue Ah Voiture pé-ta, la fimbi sait même pas Woin, woin Elle tremble, elle flippe, à l'instant, les baqueux nous chassent J'remplis tous mes cartons d'chaussures depuis qu'j'fais des showcases T'avanceras p't-être un peu mais faut qu't'oublies la chance Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere' un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, j'ai niqué les VR Por la droga tú lo hacía'</t>
         </is>
       </c>
     </row>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HENNY BU</t>
+          <t>Immonde</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Hum, ah-ah-ah, Finvy Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B, 2B 2B Narcos 2B 2B, 2B 2B, 2B 2B Oh, oh, ouais Hadouken Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Jojo Jojo On fait ça que pour finir au top, nigga Que pour finir au top, nigga, top, nigga, ah-ah, ah-ah, nigga Henny Bu mélangé dans l'cup, nigga C'est fort, Bu mélangé dans l'cup, nigga, Bu, Bu, Bu J'suis dans SUV, pas dans Uber Dans l'auto, mama, opération dragon, non stop, nigga Non stop Ça rempli pas l'frigo Miskine, ah-ah, ça assume pas l'bercail Ça assume pas l'bercail T'arrives pas à gérer la go Ah-ah, yah, yah, tu passes ta vie dans l'Citygo Fuck Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde Touchdown, on rattrape la balle Henny Bu C'est fort, on éteint tout, elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intérsse pas du tout Henny Bu Bu, Bu, c'est nous la blu C'est nous la blue, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, la blue On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Tu m'as demandé d'miser mais maintenant, tu parles chinois Parles chinois, ouh J'ai payé l'hôtel Oh, j'la démonte et juste après, j'rentre chez moi J'monte direct Et juste avant de rentrer chez moi Oh, j'm'arrête au grec Ouais pour un salade, tomate, sans oignons Hey Dans l'binks, on est cramés, dans l'binks, on est pétés, c'est Henny Bu la potion Ah, yah, yah, yah, yah On fait la diff', devant les cages, on rate pas l'but Pah, rien qu'elle transpire, rien qu'elle transpire, j'la met à bout J'la met à bout, la putain d'pute J'aurais pu t'faire confiance mais t'es qu'une snitch Ah bon, ah bon, j'remonte dans l'GTS et toi, ça fait une heure qu't'attends ton Heetch Yah, yah, yah, yah Au tier-quar, on m'appelle 2B 2B, 2B 2B, 2B 2B Au tier-quar, on m'appelle LaD LaD, LaD LaD, LaD LaD, ah Ouais, c'est d'la faute au Jack au miel si on a tout mélangé, on t'as mêlé Eh, eh, eh C'est d'la faute au Jack au miel, merde C'est d'la faute au Jack au miel Henny Bu C'est fort, Henny Bu, on éteint tout On éteint tout Elle nous fait la Betty Boop Elle nous fait la Betty Boop, ça m'intéresse pas du tout Dégage Henny Bu Bu, Bu, c'est nous la blue La pure, essaie de faire le fou Essaie de faire le fou, ça va finir en boom Ça va finir en On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue La blue, la blue, Jojo On refourgue tout, une touche de fou, y a que de la foudre D'la foudre, d'la foudre, d'la foudre On refourgue tout, la pilule bleu, la magic blue, yah, yah, ah-ah-ah-ah Le reste, on est pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé, on est pas mêlé Pas mêlé Pas mêlé Pas mêlé, pas mêlé Pas mêlé, pas mêlé Pas mêlé Jojo Le reste, on est pas mêlé Brah</t>
+          <t>Junior Alaprod Zanmi Ah-ah-ah-ah-ah-ah-ah-ah Nardey, c'est chaud, ça, ah-ah Koba, Leto dans ton bendo, mets le son à fond, coupe le bédo Merci Range Rover, c'est le bateau, on prend toutes les parts du gâteau Ouh Les faires, c'est du gâteau Hein-hein, Winterfell Mafia Château Hein-hein Porte de Saint-Ouen, côté Nord du périph', si tu nous dois, ça peut monter chez toi Boum Rien n'a changé à part ça Non, les boloss défilent comme des mannequins Ouh Classique comm une paire de rquin Hein-hein, c'est Paname, là, c'est pas les 'ricains Tou-tou-touh J'arrive à bord d'une grosse allemande Skrt, c'est pas un vrai si il crache dans ton dos T'as fauté, tu t'manges une sale amende, j'retire ma queue, j'ai craché sur son dos Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Oh-oh-oh-oh, eh, by-bye, by-bye Moi, par défaut, j'ai grandi dans la street Moi, par défaut, j'ai tout appris dans l'hall, les bagarres, les descentes, la beuh, le stresse C'est l'bédo ou la Game Boy, donc dehors, à onze heures trente, j'coupe la 'quette de frappe en tranche, j'sers bolosses à tour de rôles J'ai trop bossé, j'ai trop géré, seize ans, j'dégaine ma première loc' Minuit, je ferme, je récupère, je compte, j'rejoins mes 'sins-c à Mantes Dans mon village, à Mantes-La-Jolie J'fais une croix dessus pour la coupé en deux, j'roulais sans la clim' dans la Clio 2, maintenant, j'ai les sièges qui chauffent dans la GT Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Secteurs Junior Alaprod Zanmi Nardey, c'est chaud, ça, ah-ah</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Hermano</t>
+          <t>Jack’O</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tratos con José Antonio Shaylou Tratos con José Antonio Oh-oh, oh-oh Tratos con José Antonio Ah-ah, ah-ah Tratos con José Antonio y paquetes que son de otoño Tratas con el demonio y acabas cogiendo insomnio Y es que mira, espera, la verdad no es que pensara Grupo mío 9amara, la L raja tu cara Una pistola que dice que dispara, si-si la mano tiene fría Tú tiene' un grupo pero no son nada, po-por la droga tú lo hacía Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, jai niqué lSVR Por la droga tú lo hacía' Holà mamacita, nous, cest la cité, tu sais, tu connais le cartel d'Évry Fallait pas qu'je perds si tôt, tout pour la santé, bébé, ici, tu connais les sentences J'peux sortir un six coups, sortir un siete trente-cinq, jpeux même sortir un bazooka Han J'sors une Kala' de mon sac-à-dos, six étoiles, c'est GTA J'suis trop bourré avec mes brigands Yeah, avec mes cabrons, mes hermanos Yeah Si j'ai trop tisé, j'suis dans l'RS tres, j'repense à la pétasse d'hier soir Wow-wow J'visser un boloss, j'visser deux boloss, faut pas qu'une pédale va me balance Ah J'suis rempli d'platine, j'suis rempli d'ro'-ro' mais putain d'sa mère, j'aime trop la drogue Ah Voiture pé-ta, la fimbi sait même pas Woin, woin Elle tremble, elle flippe, à l'instant, les baqueux nous chassent J'remplis tous mes cartons d'chaussures depuis qu'j'fais des showcases T'avanceras p't-être un peu mais faut qu't'oublies la chance Meto la marcha atrás, me fugo hasta París París Tú no das pa' más, por la droga tú lo hacía' Habla mal de mi hermano y sabemos que ere' un gusano, por qué? Por la droga tú lo hacía' Voiture pétée, elle veut qu'j'la dépose mais j'peux même pas Por la droga tú lo hacía' J'ai fait d'la D, dans ma fonce-dé, j'ai niqué les VR Por la droga tú lo hacía'</t>
+          <t>Riley Beatz, we do it better we do it better Eh, eh, eh, eh Jack'O, Jack'O, oh, Jack, boy, Jack'O, Jack'O Pas de fric, pas de pute, pas de monnaie J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, eh ouais Pas d'fric, pas de pute mmh Dans mon verre, y a du Jack y a du Jack, y a du Jack'O Fonce-dé, j'ai tout fait, j'suis fonce-dé j'ai tout fait tomber J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round J'dois assumer le cinquième round, han J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Dans mes contacts, j'ai la même, tous les jours, elle m'appelle Pour que j'la doggy, doggy, doggy, elle m'harcèle Pour que j'la doggy, elle m'harcèle, j'fais partie des sept princes Dans mon hall, dans mon binks, j'ai ton adresse Les sept princes, tout l'monde nous connait Succès mérité et arrêtez d'dire qu'on l'a volé La Rolex est fausse, oui, la Rolex est fausse, oui Le LV est faux, oui, LV est faux, oui Le dernier RS6, RS6, vroum, vroum J'suis en haut d'la montagne, récupérer du shit des bails Des gros culs comme à London Vers ici, t'as pas d'locks, t'es démodé Mmh, pas les mêmes pétards qu'on tape, boy Plusieurs couleurs dans la kich', on est démarqués Et ça fume d'la putain d'beuhgi, elle vient de California Sous ballon, j'la doggy, comme Landy sur pe-Sna Mi-rappeur, mi-bandit, libérez Kaz' et Suge Ça fume d'la putain d'beuhgi, pas n'importe quel gandja, boy Maintenant, la cynophile enquête, cynophile enquête, 'quête, 'quête, 'quête, faut qu'on benda C'est la municipale qui est d'vant ma porte Bye, bye, bye, bye, bye, faut qu'on benda Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O T'as pas d'fric, pas d'meuf, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'pute, monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Immonde</t>
+          <t>Jour de paye</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Junior Alaprod Zanmi Ah-ah-ah-ah-ah-ah-ah-ah Nardey, c'est chaud, ça, ah-ah Koba, Leto dans ton bendo, mets le son à fond, coupe le bédo Merci Range Rover, c'est le bateau, on prend toutes les parts du gâteau Ouh Les faires, c'est du gâteau Hein-hein, Winterfell Mafia Château Hein-hein Porte de Saint-Ouen, côté Nord du périph', si tu nous dois, ça peut monter chez toi Boum Rien n'a changé à part ça Non, les boloss défilent comme des mannequins Ouh Classique comm une paire de rquin Hein-hein, c'est Paname, là, c'est pas les 'ricains Tou-tou-touh J'arrive à bord d'une grosse allemande Skrt, c'est pas un vrai si il crache dans ton dos T'as fauté, tu t'manges une sale amende, j'retire ma queue, j'ai craché sur son dos Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Oh-oh-oh-oh, eh, by-bye, by-bye Moi, par défaut, j'ai grandi dans la street Moi, par défaut, j'ai tout appris dans l'hall, les bagarres, les descentes, la beuh, le stresse C'est l'bédo ou la Game Boy, donc dehors, à onze heures trente, j'coupe la 'quette de frappe en tranche, j'sers bolosses à tour de rôles J'ai trop bossé, j'ai trop géré, seize ans, j'dégaine ma première loc' Minuit, je ferme, je récupère, je compte, j'rejoins mes 'sins-c à Mantes Dans mon village, à Mantes-La-Jolie J'fais une croix dessus pour la coupé en deux, j'roulais sans la clim' dans la Clio 2, maintenant, j'ai les sièges qui chauffent dans la GT Sur la vie d'ma mère qu'on va les faires si ils jouent trop Ma cagoule à trois trous mais on tolère aucun trou Grandi dans l'illicite, c'est les p'tits qu'on incite On a pris goût au risque à cause du putain d'bénéfice Et j'irai faire toutes les adresses, même si c'est au bout du monde, avec le bénéf' de la s'maine, j'sors la dernière Nike à la mode Splash, splash, splash Mon Dieu, dis-moi, pourquoi ce monde est immonde ? Mais nique sa mère, j'suis dans l'sche-Por, y a tous les modes Tou-tou-tou-tou-tou-tou-tou-touh Les balles pleuvent, encore une famille en pleurs, ça fait que d'vendre Ça fait que d'vendre dans nos secteurs Secteurs Fuck les keufs dans nos halls qu'on chante en cur, j'crois qu'on est maudits Maudits dans nos secteurs Secteurs Junior Alaprod Zanmi Nardey, c'est chaud, ça, ah-ah</t>
+          <t>Fire J'ai rien dans le nose, j'fais du sale et sans cause Ça tire pas d'balle en mousse, d'mande à Baber et Mouss Des fois, j'prends des news, mes reufs au ballon, ils sont mieux qu'à la tess mieux qu'à la cité, hein J'suis bordélique, des fois, gros, j'nettoie pas la presse comme une pute quand j'l'ai quitté, hein Dix kil' côté passager, R.I.P.R.O dans la caisse Qu'est-ce que c'est trop bon la vie d'artiste, toujours dans l'bénéf', j'sns pas la crise J'ai branché ta fe-meu, j'ai mis la pris, j'ai oublié mon calibre, j'ai pris la tise J'prends pas la musique comme job, j'écris solo dans ma tchop Bourré dans le Range Rov', des fois, j'fais tomber ma kichta comme Jolve Dans la kichta, c'est que du mauve, j'fais pas d'cinéma, j'fais que des loves Un ou deux lourds, la putain d'tes morts, j'disparais d'Paname en deux-trois moves Toujours en coste-La, pas d'peau d'lézard, j'entends des échos, des trucs bizarres J'décide du re-sor d'tous ces bâtards, le pouce à l'envers comme Jules César Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine J'suis plus trop dans l'binks, j'suis dans une grosse villa, j'suis dans un 4x4 J'ai deux-trois caisses et dans chacune d'entre elles, au cas où, j'laisse un flingue Là, j'rétrograde, rrah-pah-pah-pah-pah, c'est nerveux au virage J'suis avec une 'tasse, elle a un cul comme ça mais elle a plus Insta' J'suis dans un bolide, si j'veux, j'mets tempête au GTI Toi, tu sais qu'parler aux filles, moi, j'étais là mais j't'ai pas vu Bande d'imbéciles, la moitié d'ces rappeurs, c'est des comiques oui Moi-même, j'serais pas connu, la moitié, j'les aurai soulevé On a fait trop d'bagarres, on a fait trop d'descentes, on a vu trop d'décès J'ai perdu v'là des sous, tu m'dis qu't'es là pour moi mais nique ta mère la pute Tu m'dis qu't'es là pour moi mais nique ta mère la pute, ouais Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Eh, yeah, eh, yeah, eh, racaille comme les rues de Barbès Yeah, eh, yeah, eh, elle a tatoué mon blase sur ses fesses Yeah, eh, yeah, eh, fils de pute, réponds-moi au bigo Yeah, eh, yeah, eh, j'démarre l'Lambo' devant l'comico Yeah, eh, j'arrive en grosse équipe, t'as même pas idée J'te baise, comment veux-tu n'pas aimer ? Vérité t'allumes que ton briquet, l'argent du sang vient du Paraguay On a chourave des ques-s' à même pas neuf ans, pour le système, j'étais turbulent À part moi-même, personne m'a sauvé, c'que je gagne, y a que Dieu qui peut m'l'enlever Que des fous alliés dans le bâtiment, un fusil à pompe, c'est le châtiment J'lui parle de levrette, elle, de sentiments, quand j'lui dis vient sucer, j'lui parle gentiment Y a le fast qui veut balayer, motherfuck, barillet Fils de putes, ils font des dépôts, j'en ai mis six dans le barillet Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine1</t>
         </is>
       </c>
     </row>
@@ -3582,12 +3582,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Jack’O</t>
+          <t>Kilos de beuh</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Riley Beatz, we do it better we do it better Eh, eh, eh, eh Jack'O, Jack'O, oh, Jack, boy, Jack'O, Jack'O Pas de fric, pas de pute, pas de monnaie J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, eh ouais Pas d'fric, pas de pute mmh Dans mon verre, y a du Jack y a du Jack, y a du Jack'O Fonce-dé, j'ai tout fait, j'suis fonce-dé j'ai tout fait tomber J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round J'dois assumer le cinquième round, han J'suis au Novotel, j'ai un gros cul d'vant ma rétine Elle parle trop, j'dois assumer le cinquième round Dans mes contacts, j'ai la même, tous les jours, elle m'appelle Pour que j'la doggy, doggy, doggy, elle m'harcèle Pour que j'la doggy, elle m'harcèle, j'fais partie des sept princes Dans mon hall, dans mon binks, j'ai ton adresse Les sept princes, tout l'monde nous connait Succès mérité et arrêtez d'dire qu'on l'a volé La Rolex est fausse, oui, la Rolex est fausse, oui Le LV est faux, oui, LV est faux, oui Le dernier RS6, RS6, vroum, vroum J'suis en haut d'la montagne, récupérer du shit des bails Des gros culs comme à London Vers ici, t'as pas d'locks, t'es démodé Mmh, pas les mêmes pétards qu'on tape, boy Plusieurs couleurs dans la kich', on est démarqués Et ça fume d'la putain d'beuhgi, elle vient de California Sous ballon, j'la doggy, comme Landy sur pe-Sna Mi-rappeur, mi-bandit, libérez Kaz' et Suge Ça fume d'la putain d'beuhgi, pas n'importe quel gandja, boy Maintenant, la cynophile enquête, cynophile enquête, 'quête, 'quête, 'quête, faut qu'on benda C'est la municipale qui est d'vant ma porte Bye, bye, bye, bye, bye, faut qu'on benda Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber Pas d'fric, pas d'pute, monnaie Dans mon verre, j'ai du Jack Honey J'suis fonce-dé, j'ai tout fait tomber, j'ai tout fait tomber J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O J'suis fonce-dé, j'ai tout fait tomber à cause du Jack'O, Jack'O, Jack'O T'as pas d'fric, pas d'meuf, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Pas d'fric, pas d'pute, monnaie, que du Jack au miel Pas d'fric, pas d'monnaie, que du Jack au miel Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O Oh, Jack'O, oh Jack'O</t>
+          <t>Ouais, ouais, ouais Elikya Trafic Gianni, Koba, c'est gang, ganja You know, I don't like to do that! 2.13.0, c'est la ville Premiers du binks, boy Hein Dans la surface comme Rome' Lukaku Si la 'sique ça l'fait plus, j'en filerai les gants en cuir J'en filerai les gants en cuir Le trafic n'a plus rien à prouver, ça va trop vite, donc ces putes veulent ralentir Ces putes veulent ralentir Le PGR 23, sacoche italienne, le soir, avec l'Albanais, j'baraude dans l'Cayenne Fuck tous cs rageux qui racontent des bobards, un dégaine de bandit, la p'tite me trouve beau gar' La rue, c'est un mode de vie, c'est pas une mode Dehors, trop d'faux en peurs d'presser la gâchette Wow On s'fait du fric, mon négro et on soulève des meufs sur qui tu fantasmes en cachette Que du bénéf', faut pas faire de perte Jamais, j'viens d'BXL, j'ai pas peur de perdre D'mande à Gotti Maras, le trafic les dépasse Y a ceux qui s'donnent à fond et ceux qui donnent des blases H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Paire de TN sur le béton Le bitume, RS sur le bouton Jean Ami' Et l'pétard de ma pétasse Ma pétasse prend toute la place Toute la place dans ma voiture Suge et Kaza qui vient d'bé-tom Au dépôt, LV sur le bouton Ma chemise Quand j'suis fonce-dé dans l'trou noir Dans l'trou noir, l'A.P diamants m'sert de lampe torche 500 000 euros dans l'garage, j'ai pas besoin de m'la péter J'ai-j'ai l'RS6, j'ai l'SVR, bientôt j'tis-sor une Bugatti En plus, rapper, c'est trop facile J'm'en bats les couilles, j'écris même plus, j'm'en bats les couilles, j'écris même plus J'finis mon texte avant l'instru' Ba-ba-bay H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o molinga Yeah, yeah J'suis toujours pas refait, mon re-frè, sentier des murs comme un chat noir Chat noir R.I.P Ilévia comme Chino Chino, à 6B, j'sors avec des kilos Ouais J'suis dans le game avec Gino Gino,ça livre plus de co-'co' que Deliveroo Mal Luné, broliqué dans l'Clio, on verra, le buteur de la tour est sous les verrous Gros, ma villa est verte, j'passe par Evry, bourré dans l'parking, pas dans l'carré VIP Rue d'Grande Armée, j'la fais miauler, avec ma mmh, j'lui mets des gifles Et si ça foire, autrement, j'fais du chiffre, j'revends la beuh, c'est chaud Elle m'parle de ses chaînes, passe à la T pour l'shit, les schmitts font chier H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Premiers du binks, boy Poh, poh, poh, poh, poh</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Jour de paye</t>
+          <t>La Calle</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fire J'ai rien dans le nose, j'fais du sale et sans cause Ça tire pas d'balle en mousse, d'mande à Baber et Mouss Des fois, j'prends des news, mes reufs au ballon, ils sont mieux qu'à la tess mieux qu'à la cité, hein J'suis bordélique, des fois, gros, j'nettoie pas la presse comme une pute quand j'l'ai quitté, hein Dix kil' côté passager, R.I.P.R.O dans la caisse Qu'est-ce que c'est trop bon la vie d'artiste, toujours dans l'bénéf', j'sns pas la crise J'ai branché ta fe-meu, j'ai mis la pris, j'ai oublié mon calibre, j'ai pris la tise J'prends pas la musique comme job, j'écris solo dans ma tchop Bourré dans le Range Rov', des fois, j'fais tomber ma kichta comme Jolve Dans la kichta, c'est que du mauve, j'fais pas d'cinéma, j'fais que des loves Un ou deux lourds, la putain d'tes morts, j'disparais d'Paname en deux-trois moves Toujours en coste-La, pas d'peau d'lézard, j'entends des échos, des trucs bizarres J'décide du re-sor d'tous ces bâtards, le pouce à l'envers comme Jules César Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine J'suis plus trop dans l'binks, j'suis dans une grosse villa, j'suis dans un 4x4 J'ai deux-trois caisses et dans chacune d'entre elles, au cas où, j'laisse un flingue Là, j'rétrograde, rrah-pah-pah-pah-pah, c'est nerveux au virage J'suis avec une 'tasse, elle a un cul comme ça mais elle a plus Insta' J'suis dans un bolide, si j'veux, j'mets tempête au GTI Toi, tu sais qu'parler aux filles, moi, j'étais là mais j't'ai pas vu Bande d'imbéciles, la moitié d'ces rappeurs, c'est des comiques oui Moi-même, j'serais pas connu, la moitié, j'les aurai soulevé On a fait trop d'bagarres, on a fait trop d'descentes, on a vu trop d'décès J'ai perdu v'là des sous, tu m'dis qu't'es là pour moi mais nique ta mère la pute Tu m'dis qu't'es là pour moi mais nique ta mère la pute, ouais Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Eh, yeah, eh, yeah, eh, racaille comme les rues de Barbès Yeah, eh, yeah, eh, elle a tatoué mon blase sur ses fesses Yeah, eh, yeah, eh, fils de pute, réponds-moi au bigo Yeah, eh, yeah, eh, j'démarre l'Lambo' devant l'comico Yeah, eh, j'arrive en grosse équipe, t'as même pas idée J'te baise, comment veux-tu n'pas aimer ? Vérité t'allumes que ton briquet, l'argent du sang vient du Paraguay On a chourave des ques-s' à même pas neuf ans, pour le système, j'étais turbulent À part moi-même, personne m'a sauvé, c'que je gagne, y a que Dieu qui peut m'l'enlever Que des fous alliés dans le bâtiment, un fusil à pompe, c'est le châtiment J'lui parle de levrette, elle, de sentiments, quand j'lui dis vient sucer, j'lui parle gentiment Y a le fast qui veut balayer, motherfuck, barillet Fils de putes, ils font des dépôts, j'en ai mis six dans le barillet Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr, pah, pah, pah Que la mif' sur le bateau, animal sur le capot Tu rêves de nous trouer la peau grr Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine Mais on va pas s'embrouiller si ça vaut pas la peine Tous les jours, c'est la paye, frelon, n'aies pas la haine1</t>
+          <t>Takeshi-San Han-han-han Ah-ah, ah-ah Franglish, Koba Yeah, let's get it Comment j'veux trop la ken, là Oui, eh, j'sais qu'elle va trop parler Miskine, ça sert à rien mais j'la fais espérer P'tite tisse-mé bien chargée, j'veux trop la ken, tu sais La ken, tu sais Ah mais nique, ça va parler J'suis dans mes pensées au feu rouge Oui, j'suis fonce-dé dans Dubaï J'suis en Ferrari, j'fais du rallye, que des coups d'frein d'vant l'radar J'me suis gavé, y a plus d'petit Petit, Sugy sur un buddy Un buddy Écoute pas, c'est ds bitches, c'est des bitchs, c'est des bitches On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la lo,i désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Devant moi, elle va se cambrer Oui, si j'reste là, ses jambes vont trembler Ah Mauvais garçon, là, j'suis tenté Ouh, rre-ve dans la main, j'sirotais Oui Petit à petit, je la rends bête Ah, elle me demandera un tête-à-tête Oh Lui faire du le-sa, j'ai la recette Oh, lui faire du le-sa, j'ai la recette Let's get it J'suis rentré dans la son-mai Ouh, j'vois la concu' s'affoler Bah oui Au poignet, j'ai ton loyer Bling, aux pieds, j'ai l'prix d'ton foyer Ah Tu vas rien faire du tout, que des grands gestes, ils font qu'aboyer Bah oui Tu vas rien faire du tout, wow Let's get it On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Yeah Let's go On sort de la Calle Mmh, bientôt On sort de la Calle Eh, hey, let's go On sort de la Calle Ouais, bientôt On sort de la Calle</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kilos de beuh</t>
+          <t>La cité</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais Elikya Trafic Gianni, Koba, c'est gang, ganja You know, I don't like to do that! 2.13.0, c'est la ville Premiers du binks, boy Hein Dans la surface comme Rome' Lukaku Si la 'sique ça l'fait plus, j'en filerai les gants en cuir J'en filerai les gants en cuir Le trafic n'a plus rien à prouver, ça va trop vite, donc ces putes veulent ralentir Ces putes veulent ralentir Le PGR 23, sacoche italienne, le soir, avec l'Albanais, j'baraude dans l'Cayenne Fuck tous cs rageux qui racontent des bobards, un dégaine de bandit, la p'tite me trouve beau gar' La rue, c'est un mode de vie, c'est pas une mode Dehors, trop d'faux en peurs d'presser la gâchette Wow On s'fait du fric, mon négro et on soulève des meufs sur qui tu fantasmes en cachette Que du bénéf', faut pas faire de perte Jamais, j'viens d'BXL, j'ai pas peur de perdre D'mande à Gotti Maras, le trafic les dépasse Y a ceux qui s'donnent à fond et ceux qui donnent des blases H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Paire de TN sur le béton Le bitume, RS sur le bouton Jean Ami' Et l'pétard de ma pétasse Ma pétasse prend toute la place Toute la place dans ma voiture Suge et Kaza qui vient d'bé-tom Au dépôt, LV sur le bouton Ma chemise Quand j'suis fonce-dé dans l'trou noir Dans l'trou noir, l'A.P diamants m'sert de lampe torche 500 000 euros dans l'garage, j'ai pas besoin de m'la péter J'ai-j'ai l'RS6, j'ai l'SVR, bientôt j'tis-sor une Bugatti En plus, rapper, c'est trop facile J'm'en bats les couilles, j'écris même plus, j'm'en bats les couilles, j'écris même plus J'finis mon texte avant l'instru' Ba-ba-bay H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o molinga Yeah, yeah J'suis toujours pas refait, mon re-frè, sentier des murs comme un chat noir Chat noir R.I.P Ilévia comme Chino Chino, à 6B, j'sors avec des kilos Ouais J'suis dans le game avec Gino Gino,ça livre plus de co-'co' que Deliveroo Mal Luné, broliqué dans l'Clio, on verra, le buteur de la tour est sous les verrous Gros, ma villa est verte, j'passe par Evry, bourré dans l'parking, pas dans l'carré VIP Rue d'Grande Armée, j'la fais miauler, avec ma mmh, j'lui mets des gifles Et si ça foire, autrement, j'fais du chiffre, j'revends la beuh, c'est chaud Elle m'parle de ses chaînes, passe à la T pour l'shit, les schmitts font chier H24, vie de transit, impossible que j'quitte la street Poh-poh-poh-poh-poh, poh-poh-poh-poh-poh Les rageux veulent savoir si c'est vraiment trop beau la vie d'artiste J'ai pas cé-per, j'investis dans l'sale avec les sous d'la vie d'artiste Tu sais que j'peux tout niquer quand j'suis avec mes maudits fonces-dé sous tise Aye, aye, aye, aye, aye, aye, aye La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De beuh Gianni, Frenetik, Koba J'me branle, yaya o moni nga Owh La vie d'artiste, un peu Un peu, du shit, des kilos d'beuh De zip' Gianni, Frenetik, Koba Oh ouais, yaya o moni nga Yeah, yeah Premiers du binks, boy Poh, poh, poh, poh, poh</t>
+          <t>Nan, nan, nan, nan Woo Ouais Bleu, ouais Bleu C'est nous les patrons d'la ville, toi t'es qu'un te-traî qu'on a crossé La matière grise nous fait maigrir, mais l'patron d'la boite nous fait grossir Les 20K faut qu'tu les sors ou Banda manmanw Gros moteur, Range Rover, j'suis trop frais mama J'fais confiance au flair, j'ai toujours l'instinct animal On a appris à se lever tôt et puis à manier le métal Les tits-pe ils entendent pas, maintenant ouais c'est Pop Champagne J'suis grave dans l'bât', j'suis pas le tit-peu de la campagne Tu connais ton boug, j'fais confiance au flair Je vi-sser pas si j'sens pas Et si nous on t'sent pas, bah on sera sans tié-pi Grosse ne-chai, grosse pétasse, gros brolique bien gé-char Tarpé, couteau gars, tarpé, couteau gars On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh Ce soir j'suis pas prêt d'rentrer, c'est nous les mal-fréquentés Pas besoin d'faire des gros débats, la guitare fait des gros dégâts J'essaie d'garder la santé et ne pas finir ganté Beretta pièce en sale état, nigga ça tire on volait pas J'suis dans l'viano, j'suis dans J'détaille la coke, j'suis dans la cave J'suis au tel-hô, j'baise pas d'pétasse Renoi, j'fais bosser ta reu-seu Si j'me retrouve dans l'réseau P'tit frère c'est qu'j'avais mes raisons Demande pardon au bon Dieu Mais ici-bas gros c'est trop dur Tu connais l'équipe, Criminel League Tu sais déjà SD, c'est magique Tireur d'élite, j'suis l'meilleur joueur Vas-y viens regarder les statistiques C'est Medellin, si mes frères sont bourrés Y aura des balistiques, j'suis sous la lean J'suis très bien entouré et j'trouve ça magnifique On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh À la cité on a tout fait À la cité on a tout fait À la cité on a tout fait Gang, ouais Bleu</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>La Calle</t>
+          <t>L’Affranchi (Freestyle Rapelite)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Takeshi-San Han-han-han Ah-ah, ah-ah Franglish, Koba Yeah, let's get it Comment j'veux trop la ken, là Oui, eh, j'sais qu'elle va trop parler Miskine, ça sert à rien mais j'la fais espérer P'tite tisse-mé bien chargée, j'veux trop la ken, tu sais La ken, tu sais Ah mais nique, ça va parler J'suis dans mes pensées au feu rouge Oui, j'suis fonce-dé dans Dubaï J'suis en Ferrari, j'fais du rallye, que des coups d'frein d'vant l'radar J'me suis gavé, y a plus d'petit Petit, Sugy sur un buddy Un buddy Écoute pas, c'est ds bitches, c'est des bitchs, c'est des bitches On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la lo,i désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Devant moi, elle va se cambrer Oui, si j'reste là, ses jambes vont trembler Ah Mauvais garçon, là, j'suis tenté Ouh, rre-ve dans la main, j'sirotais Oui Petit à petit, je la rends bête Ah, elle me demandera un tête-à-tête Oh Lui faire du le-sa, j'ai la recette Oh, lui faire du le-sa, j'ai la recette Let's get it J'suis rentré dans la son-mai Ouh, j'vois la concu' s'affoler Bah oui Au poignet, j'ai ton loyer Bling, aux pieds, j'ai l'prix d'ton foyer Ah Tu vas rien faire du tout, que des grands gestes, ils font qu'aboyer Bah oui Tu vas rien faire du tout, wow Let's get it On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle On reste en Margiela, p'tit moteur mais la beuh, ça va, p'tit moteur mais la beuh, ça va Arrête tes ces-vi, on m'a dit qu'tu lahsa trop bien, on m'a dit qu'tu lahsa trop bien J'te l'répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Répète pas deux fois la balle se dirige vers ton foie, trop d'moula, j'ai des crampes aux doigts Ouh-ouh Baby veut faire des bisous, big drip, elle aime les bijoux Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Let's go Baby veut faire des bisous Ah, big drip, elle aime les bijoux Hey, hey Les plus fraîches rentrent avec nous Bah oui, yeah, on sort de la Calle Sheesh Fait la loi, désormais Sheesh, on sort de la Calle Let's get it Fait la loi, désormais Bah oui, on sort de la Calle Let's go Baby veut faire des bisous Hey, big drip, elle aime les bijoux Big drip Les plus fraîches rentrent avec nous Eh, let's get it, yeah, on sort de la Calle Yeah Let's go On sort de la Calle Mmh, bientôt On sort de la Calle Eh, hey, let's go On sort de la Calle Ouais, bientôt On sort de la Calle</t>
+          <t>Ouais, on n'a pas fini d'tout niquer là L'Affranchi, 19 avril, Rapelite On a pris des sous, on a fait des déçus mais toujours autant indécis J'suis en haut d'la pente en RS et le reste de la concurrence est en-d'ssous J'ai une Rolex rolex ! toute en or en or ! et elle s'accorde avec mon disque en or ! Tout niquer, c'est la seule devise mais diviser les devis, ça nous divise J'suis cagoulé, j'suis cagoulé 'goulé dans ta baraque sur la pointe des pieds des pieds Quand j'en ramène, quand j'en ramène la frappe, bah tous tes grands viennent me supplier c'est vrai J'suis avec mes gars mes gars, avec mes gants mes gants et quoi qu'il arrive, faut qu'tu fermes ta gueule t'es mort Dans l'Seven binks, avec mon gang dans l'binks, y a l'neuf millimètre qui fait fuir ta bande t'es mort Et viens pour onze heures quarante, à cinquante, j'te ramène les affaires Binks open à midi o'clock, première patrouille après treize heures Y a d'la beugueu, y a du taga et d'la coke que sur demande Prends-en d'la graine, viens à Evry, j'suis l'plus blindé d'ma génération J'suis dans les bails, bails, bails bails, bails, bails et j'lui ai mis dans son cavu, j'savais pas J'étais die die die die die die, donne-moi vite ton adresse, j'te prends un Uber et puis bye, bye, bye bye, bye, bye Elle veut mon buzz ou bien ma caisse ou ma drogue ou mes talles, talles, talles talles, talles, talles, talles, talles, talles, talles, talles, talles Disque de platine, moi, j'suis plus un môme un môme En vrai, y a qu'mon argent qui m'aime qui m'aime Deux millions, c'est grand minimum J'ai ramassé des miettes puis, j'ai r'vendu les pains oh les pains oh Même pas un rond, c'est des teurs-men eux teur-mens eux Bat' 7 le nouveau monument, un p'tit moment que j'demande plus rien à maman Si tu penses me la mettre, tu vas manger l'amende 'mende S'te plaît, dis-moi qui l'a fait, ouais qui l'a fait, ouais, un projet, déjà quatre trophées, ouais ah bon ? La Grinta Records qui triomphe, on est fait on l'a fait avec la dalle d'un fauve Les yeux plissés dans l'SQ5 et ouais, y a Suge à la passe et y a ZZ et ouais J'fais crier le moteur du 400 chevaux, y a eu ce sur la passe en I sur l'YZ</t>
         </is>
       </c>
     </row>
@@ -3650,12 +3650,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>La cité</t>
+          <t>La journée du Roi Soleil</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nan, nan, nan, nan Woo Ouais Bleu, ouais Bleu C'est nous les patrons d'la ville, toi t'es qu'un te-traî qu'on a crossé La matière grise nous fait maigrir, mais l'patron d'la boite nous fait grossir Les 20K faut qu'tu les sors ou Banda manmanw Gros moteur, Range Rover, j'suis trop frais mama J'fais confiance au flair, j'ai toujours l'instinct animal On a appris à se lever tôt et puis à manier le métal Les tits-pe ils entendent pas, maintenant ouais c'est Pop Champagne J'suis grave dans l'bât', j'suis pas le tit-peu de la campagne Tu connais ton boug, j'fais confiance au flair Je vi-sser pas si j'sens pas Et si nous on t'sent pas, bah on sera sans tié-pi Grosse ne-chai, grosse pétasse, gros brolique bien gé-char Tarpé, couteau gars, tarpé, couteau gars On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh Ce soir j'suis pas prêt d'rentrer, c'est nous les mal-fréquentés Pas besoin d'faire des gros débats, la guitare fait des gros dégâts J'essaie d'garder la santé et ne pas finir ganté Beretta pièce en sale état, nigga ça tire on volait pas J'suis dans l'viano, j'suis dans J'détaille la coke, j'suis dans la cave J'suis au tel-hô, j'baise pas d'pétasse Renoi, j'fais bosser ta reu-seu Si j'me retrouve dans l'réseau P'tit frère c'est qu'j'avais mes raisons Demande pardon au bon Dieu Mais ici-bas gros c'est trop dur Tu connais l'équipe, Criminel League Tu sais déjà SD, c'est magique Tireur d'élite, j'suis l'meilleur joueur Vas-y viens regarder les statistiques C'est Medellin, si mes frères sont bourrés Y aura des balistiques, j'suis sous la lean J'suis très bien entouré et j'trouve ça magnifique On a bien charbonné, c'est nous les méchants dans la ville Il faut pas trop donner, si tu sais qu'c'est pas ton ami Dégaine de gros bonnets, au charbon tu connais On m'a bien répété faut pas être gentil dans la vie À la cité on a tout fait, eh-eh, eh-eh Tu sais déjà, c'est validé, eh-eh, eh-eh À la cité on a tout fait, eh-eh, eh-eh T'as vu le style et t'as kiffé, eh-eh, eh-eh À la cité on a tout fait À la cité on a tout fait À la cité on a tout fait Gang, ouais Bleu</t>
+          <t>Bienvenue sur Studytracks Ah Stan-E Music, bonjour Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 8h00 8h00 oh, Sire, voilà l'heure Sire, voilà l'heure Le Roi est réveillé, lavé, peigné t rasé Peigné et rasé c'est l petit lever, bientôt, le grand lever Le Roi déjeune d'un bouillon, il est déjà habillé Environ cent assistants masculins, c'matin, sont admis Oh à observer cette cérémonie 10h00 le Roi traverse la galerie devant la foule en liesse Jusqu'à la chapelle royale pour assister à la messe 11h00 de retour dans son appartement Appartement Le Roi tient conseil, comme d'habitude, y a pas de week-end Pour tous les jours d'la semaine, bah ça sera pareil Cinq ou six ministres travaillent avec le Roi qui parle peu Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 13h00 dans sa chambre, bah c'est tout seul que mange le Roi Mais le repas n'est pas si privé qu'ça devant les hommes qui n's'assoient pas Trois services sont proposés, de cinq à sept plats 14h00 moment d'détente en fonction des ordres donnés le matin Une chasse dans le parc ou en forêt Ouh, une promenade dans les jardins en LV 18h00 le Roi signe de nombreuses lettres et notifications 20h00 un dossier dans les apparts de Madame de Maintenon Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Il attire le regard et recueille hommages du public 22h00 dans l'antichambre de l'il de buf, la foule va affluer Affluer Au souper du Grand Couvert, elle va assister À table, entouré par la mif royale, le Roi s'assied Il s'rend dans le salon pour saluer les dames de la Cour après s'être restauré Enfin, il rejoint ses proches dans son cabinet pour profiter 23h30 le coucher est un rituel public où dans sa chambre, le Roi va pouvoir se retirer-gué Ça va s'dérouler selon un processus inversé Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Ah Ah</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>L’Affranchi (Freestyle Rapelite)</t>
+          <t>La sacoche</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ouais, on n'a pas fini d'tout niquer là L'Affranchi, 19 avril, Rapelite On a pris des sous, on a fait des déçus mais toujours autant indécis J'suis en haut d'la pente en RS et le reste de la concurrence est en-d'ssous J'ai une Rolex rolex ! toute en or en or ! et elle s'accorde avec mon disque en or ! Tout niquer, c'est la seule devise mais diviser les devis, ça nous divise J'suis cagoulé, j'suis cagoulé 'goulé dans ta baraque sur la pointe des pieds des pieds Quand j'en ramène, quand j'en ramène la frappe, bah tous tes grands viennent me supplier c'est vrai J'suis avec mes gars mes gars, avec mes gants mes gants et quoi qu'il arrive, faut qu'tu fermes ta gueule t'es mort Dans l'Seven binks, avec mon gang dans l'binks, y a l'neuf millimètre qui fait fuir ta bande t'es mort Et viens pour onze heures quarante, à cinquante, j'te ramène les affaires Binks open à midi o'clock, première patrouille après treize heures Y a d'la beugueu, y a du taga et d'la coke que sur demande Prends-en d'la graine, viens à Evry, j'suis l'plus blindé d'ma génération J'suis dans les bails, bails, bails bails, bails, bails et j'lui ai mis dans son cavu, j'savais pas J'étais die die die die die die, donne-moi vite ton adresse, j'te prends un Uber et puis bye, bye, bye bye, bye, bye Elle veut mon buzz ou bien ma caisse ou ma drogue ou mes talles, talles, talles talles, talles, talles, talles, talles, talles, talles, talles, talles Disque de platine, moi, j'suis plus un môme un môme En vrai, y a qu'mon argent qui m'aime qui m'aime Deux millions, c'est grand minimum J'ai ramassé des miettes puis, j'ai r'vendu les pains oh les pains oh Même pas un rond, c'est des teurs-men eux teur-mens eux Bat' 7 le nouveau monument, un p'tit moment que j'demande plus rien à maman Si tu penses me la mettre, tu vas manger l'amende 'mende S'te plaît, dis-moi qui l'a fait, ouais qui l'a fait, ouais, un projet, déjà quatre trophées, ouais ah bon ? La Grinta Records qui triomphe, on est fait on l'a fait avec la dalle d'un fauve Les yeux plissés dans l'SQ5 et ouais, y a Suge à la passe et y a ZZ et ouais J'fais crier le moteur du 400 chevaux, y a eu ce sur la passe en I sur l'YZ</t>
+          <t>Oy, putain Eh, là, c'est l'9-1 qui t'parle, mon pote Ouais chacal, Denzo trop atroce À seize ans, j'ouvre le four à neuf heures, j'vois la mort, j'ressens plus les douleurs Perquis' fait paniquer la re-su, chien renifle patate, beuhgueu J'ai mis la main à la pâte la main à la pâte En touchant le crack, pas le cellophane, impliqué voit de quoi je parle Couteau chauffé, le te-shi qui crame, coupe bien pesée, faut pas laisser de grammes Le bosseur vient perturber dans ta liasse donc annuler le resto, la foumas Un bon vendeur doit connaître son produit, sortir les crocs pour niquer la survie Les gens sont décevants, leur donner l'heure, c'est une perte de temps Du four au pe-ra, j'ai mis l'clignotant, résultat me plaît dans le compte en banque Bagarre, le coup d'cur te rend hésitant, première boulette, t'encaisses évidemment Les rendez-vous attirent des flaques de sang Mon pe-ra, c'est comme mon miroir seul lui connait ma face cachée Désolé baby, je veux plus t'voir, levrette vient de me faire cracher Guetteur, vendeur, ssiste-gro, ravitailleur Partout dans la ne-zo, gyro', hélico' Y a du ne-jau, Nueve Uno, ravitailleur Partout dans la ne-zo, gyro', hélico' Nueve Uno Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'peux t'ramener des p'tits qui veulent guetter, des p'tits qui veulent bicrave Pas d'demi, que des TP, TP, c'est beaucoup plus rentable Viens voir, y a l'adresse sur les pochtars, y a mon num' dans les pochtars J'te parle pas d'rap, j'te parle de grosses têtes de beuh et cinquante dans le bocal Putain, faut qu'mes projets aboutissent faut qu'mes projets aboutissent En attendant, que d'la ppe-f' dans la sacoche que d'la ppe-f' dans la sacoche J'te l'dis, c'est pas l'argent qui nous fait, c'est nous, on fait l'argent Fallait des couilles, fallait d'la beuhgeu, du te-sh', avec les gues-sh', être indulgent J'ai pas fait comme eux, j'ai fait la pince, j'ai coffré ouais, j'ai coffré C'est moi l'capitaine, j'tire penaltys et coups-francs tous les coups-francs Encore sur l'terrain, j'vais pas vous dire qu'j'ai réussi J'récupère la recette, le taga est dans l'RS7 dans l'RS7, oy, oy, oy Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche</t>
         </is>
       </c>
     </row>
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>La journée du Roi Soleil</t>
+          <t>La VDA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bienvenue sur Studytracks Ah Stan-E Music, bonjour Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 8h00 8h00 oh, Sire, voilà l'heure Sire, voilà l'heure Le Roi est réveillé, lavé, peigné t rasé Peigné et rasé c'est l petit lever, bientôt, le grand lever Le Roi déjeune d'un bouillon, il est déjà habillé Environ cent assistants masculins, c'matin, sont admis Oh à observer cette cérémonie 10h00 le Roi traverse la galerie devant la foule en liesse Jusqu'à la chapelle royale pour assister à la messe 11h00 de retour dans son appartement Appartement Le Roi tient conseil, comme d'habitude, y a pas de week-end Pour tous les jours d'la semaine, bah ça sera pareil Cinq ou six ministres travaillent avec le Roi qui parle peu Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Woh 13h00 dans sa chambre, bah c'est tout seul que mange le Roi Mais le repas n'est pas si privé qu'ça devant les hommes qui n's'assoient pas Trois services sont proposés, de cinq à sept plats 14h00 moment d'détente en fonction des ordres donnés le matin Une chasse dans le parc ou en forêt Ouh, une promenade dans les jardins en LV 18h00 le Roi signe de nombreuses lettres et notifications 20h00 un dossier dans les apparts de Madame de Maintenon Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Il attire le regard et recueille hommages du public 22h00 dans l'antichambre de l'il de buf, la foule va affluer Affluer Au souper du Grand Couvert, elle va assister À table, entouré par la mif royale, le Roi s'assied Il s'rend dans le salon pour saluer les dames de la Cour après s'être restauré Enfin, il rejoint ses proches dans son cabinet pour profiter 23h30 le coucher est un rituel public où dans sa chambre, le Roi va pouvoir se retirer-gué Ça va s'dérouler selon un processus inversé Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Puis arrive la cérémonie du bougeoir avant un repos bien mérité Oh-oh, oh-oh, oh-oh Les journées du Roi Soleil sont toutes complètes, organisées Organisées Il suit un programme strict préparé par ses officiers Ses officiers Le lever et le coucher sont des rituels monarchiques Ah Il attire le regard et recueille hommages du public Ah Ah</t>
+          <t>Oh nan, nan, nan, nan Lil Lil Ben Ben Oh nan, nan, nan, nan Binks, eyah Il m'reste même pas l'trois-quart de mes potes De mes potes, j'crois qu'c'est moi qu'est mal-aimé Han mais bon, c'est pas grave Han Si j'veux, demain, je tis-sor un Fe-Fe, un RR, j'n'ai pas d'caution Moi, j'aime trop mon terrain mais j'me crame plus trop Nique sa mère, nique sa mère À part pour faire des pub' sinon, j'suis pas là J'suis au Melia, vingtième étage, avec une pétasse du Canada Avant midi, bousillé sous buzz Buzz, au tiek, on n'fait pas la bise Moi, j'aime trop mon biff et Deuspi m'a dit Plus t'auras du buzz, plus t'auras du biff C'st nous les cités, viens faire un tour, c soir, j'suis aux 4T J'suis avec Uzi, on fait un gros clip, sortez les bécanes et les calibres Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres La VDA, le tempo, j'suis dans les 4T avec Koba, on a la grinta, c'est des mecs wo, c'est Uzave qui va te tuer Pas d'mano contre mano, on s'fait la rre-gue On s'fait la rre-gue Ils mettront la cagoule pendant qu'j'ferais des mapesas Ah Après l'pétard, gros décollage, j'suis pas les jeunes de ton âge J'ai dispatché des kil' et des kil', j'ai brûlé la zone, j'ai fait des gardes à v', pas des après-m' Y a d'l'oseille, tu peux vérifier Han, les ennemis, on les élimine Han Transporte bédo, cash, télécommande, j'ai un SIG-Sauer comme au Tennessee Hey, y a d'la zip' à vingt-sept Han, j'suis venu faire un bordel, moi Moi J'les vois carrément bête, j'suis avec mes gars juste en bas du terrain J'ai ramené l'ro'-ro' dans la tess mais putain d'merde, j'avais rien demandé J'ai ramené l'ro'-ro' dans la cité, putain d'merde J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>La sacoche</t>
+          <t>La vie c’est compliqué*</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Oy, putain Eh, là, c'est l'9-1 qui t'parle, mon pote Ouais chacal, Denzo trop atroce À seize ans, j'ouvre le four à neuf heures, j'vois la mort, j'ressens plus les douleurs Perquis' fait paniquer la re-su, chien renifle patate, beuhgueu J'ai mis la main à la pâte la main à la pâte En touchant le crack, pas le cellophane, impliqué voit de quoi je parle Couteau chauffé, le te-shi qui crame, coupe bien pesée, faut pas laisser de grammes Le bosseur vient perturber dans ta liasse donc annuler le resto, la foumas Un bon vendeur doit connaître son produit, sortir les crocs pour niquer la survie Les gens sont décevants, leur donner l'heure, c'est une perte de temps Du four au pe-ra, j'ai mis l'clignotant, résultat me plaît dans le compte en banque Bagarre, le coup d'cur te rend hésitant, première boulette, t'encaisses évidemment Les rendez-vous attirent des flaques de sang Mon pe-ra, c'est comme mon miroir seul lui connait ma face cachée Désolé baby, je veux plus t'voir, levrette vient de me faire cracher Guetteur, vendeur, ssiste-gro, ravitailleur Partout dans la ne-zo, gyro', hélico' Y a du ne-jau, Nueve Uno, ravitailleur Partout dans la ne-zo, gyro', hélico' Nueve Uno Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'peux t'ramener des p'tits qui veulent guetter, des p'tits qui veulent bicrave Pas d'demi, que des TP, TP, c'est beaucoup plus rentable Viens voir, y a l'adresse sur les pochtars, y a mon num' dans les pochtars J'te parle pas d'rap, j'te parle de grosses têtes de beuh et cinquante dans le bocal Putain, faut qu'mes projets aboutissent faut qu'mes projets aboutissent En attendant, que d'la ppe-f' dans la sacoche que d'la ppe-f' dans la sacoche J'te l'dis, c'est pas l'argent qui nous fait, c'est nous, on fait l'argent Fallait des couilles, fallait d'la beuhgeu, du te-sh', avec les gues-sh', être indulgent J'ai pas fait comme eux, j'ai fait la pince, j'ai coffré ouais, j'ai coffré C'est moi l'capitaine, j'tire penaltys et coups-francs tous les coups-francs Encore sur l'terrain, j'vais pas vous dire qu'j'ai réussi J'récupère la recette, le taga est dans l'RS7 dans l'RS7, oy, oy, oy Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Détale quand tu vois les bleus Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche J'l'ai pesé, rajoute un peu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche Sky-Dweller, cadran bleu Y a que d'la ppe-fra dans la sacoche Coca', pilon d'beuh Y a que d'la ppe-fra dans la sacoche</t>
+          <t>C'est exactement c'que m'disais l'ancien J'te jure qu'il m'avait dit d'le faire, merde Putain Que tout l'reste, c'est des freins Hum, y a qu'un seul chemin, prend pas ce raccourci Un peu têtu mais Un peu têtu j'vais pas m'louper ce coup ci J'ai pas fait la moitié d'ma route Ma route, c'que j'ai d'jà, j'le mérite Le poids vrille, là, de trop, du citron pressé sur la shoes J'suis à l'arrière d'la caisse, un peu en fumette, j'baiss pas trop ma f'nêtre On est dans la ville, j'vais trop d'photos J'vais fair trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter Moche mais c'est ça la vie J'entends crier par la fenêtre, y a les moteurs qui sont éteins, dans la de-mer et dans l'pétrin J'traîne avec de vrais allumées Han, han, han, han Grandie comme un oukthy, c'est pas la mort qui va m'changer C'est pas la mort qui va m'changer J'guette les étoiles, j'crois qu'ils m'parlent, j'embrasse, j'embrasse maman quand faut y aller J'vais faire trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter C'est moche mais c'est ça la vie, il faut s'adapter Oh-oh-oh-oh-oh, eh Oh-oh-oh-oh-oh, eh</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>La VDA</t>
+          <t>Les espèces chimiques</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Oh nan, nan, nan, nan Lil Lil Ben Ben Oh nan, nan, nan, nan Binks, eyah Il m'reste même pas l'trois-quart de mes potes De mes potes, j'crois qu'c'est moi qu'est mal-aimé Han mais bon, c'est pas grave Han Si j'veux, demain, je tis-sor un Fe-Fe, un RR, j'n'ai pas d'caution Moi, j'aime trop mon terrain mais j'me crame plus trop Nique sa mère, nique sa mère À part pour faire des pub' sinon, j'suis pas là J'suis au Melia, vingtième étage, avec une pétasse du Canada Avant midi, bousillé sous buzz Buzz, au tiek, on n'fait pas la bise Moi, j'aime trop mon biff et Deuspi m'a dit Plus t'auras du buzz, plus t'auras du biff C'st nous les cités, viens faire un tour, c soir, j'suis aux 4T J'suis avec Uzi, on fait un gros clip, sortez les bécanes et les calibres Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean Des fois, je traîne solo sur Paris mais j'suis broliqué, poto, reste tranquille Si tu m'casses les couilles, caméra ou pas, j'vais trouer quatre fois ta veste en jean J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres La VDA, le tempo, j'suis dans les 4T avec Koba, on a la grinta, c'est des mecs wo, c'est Uzave qui va te tuer Pas d'mano contre mano, on s'fait la rre-gue On s'fait la rre-gue Ils mettront la cagoule pendant qu'j'ferais des mapesas Ah Après l'pétard, gros décollage, j'suis pas les jeunes de ton âge J'ai dispatché des kil' et des kil', j'ai brûlé la zone, j'ai fait des gardes à v', pas des après-m' Y a d'l'oseille, tu peux vérifier Han, les ennemis, on les élimine Han Transporte bédo, cash, télécommande, j'ai un SIG-Sauer comme au Tennessee Hey, y a d'la zip' à vingt-sept Han, j'suis venu faire un bordel, moi Moi J'les vois carrément bête, j'suis avec mes gars juste en bas du terrain J'ai ramené l'ro'-ro' dans la tess mais putain d'merde, j'avais rien demandé J'ai ramené l'ro'-ro' dans la cité, putain d'merde J'suis avec le haut du panier, pédé, la carrière est solide Carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Racheter des calibres J'suis avec le haut du panier, pédé, la carrière est solide Ils pourront pas venir t'aider, ils peuvent racheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album Eux, c'est des grandes gueules, ils vont rien faire à part acheter des calibres Gros, j'suis dans l'binks, j'tartine la zep, la zipette, avant l'album C'est des grandes gueules, ils vont rien faire à part acheter des calibres</t>
+          <t>Bienvenue sur Studytrakcs Oh, aïe aïe aïe Studytracks Oh, aïe aïe aïe Koba La D Oh Stan-E Music, bonjour Un atome est constitué d'un noyau chargé positivement Autour du noyau des électrons chargés, en mouvement Sont en mouvement, chargés négativement Noyau est constitué de nuéclons neutrons et protons Pas de charge pour les neutrons Pas de charge pour les neutrons Chargés positivement sont les protons Un atome possède un nombre de protons et d'électrons équivalent L'atome est donc neutre électriquement D'atomes, la matière est constituée Une molécule et formée par des atomes liés Deux atomes d'hydrogène, un atome d'oxygène H2O, c'est la molécule d'eau Un atome est représenté par son symbole Qui indique son nom Qui indique son nom Par son numéro atomique Z, c'est le nombre de protons Et par son nombre de masse A, c'est le nombre de nucléons On classe les 118 éléments différents dans un tableau appelé Classification périodique des éléments Ils sont rangés par numéro atomique Z croissant Ils sont rangés par numéro atomique Z croissant D'atomes la matière est constituée Une molécule est formée par des atomes liés Deux atomes d'oxygène, un atome de carbone CO2, c'est la molécule de dioxyde de carbone Un ion, un particule chargée électriquement Positivement ou négativement Un ion positif est appelé cation Il est issu d'un atome ayant perdu un électron Un ion négatif est appelé anion Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons D'atomes la matière est constituée Une molécule est formée par des atomes liés Un atome de chlore, deux atomes d'hydrogène HCl, c'est la molécule de chlorure d'hydrogène</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3735,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>La vie c’est compliqué*</t>
+          <t>Longue vie</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>C'est exactement c'que m'disais l'ancien J'te jure qu'il m'avait dit d'le faire, merde Putain Que tout l'reste, c'est des freins Hum, y a qu'un seul chemin, prend pas ce raccourci Un peu têtu mais Un peu têtu j'vais pas m'louper ce coup ci J'ai pas fait la moitié d'ma route Ma route, c'que j'ai d'jà, j'le mérite Le poids vrille, là, de trop, du citron pressé sur la shoes J'suis à l'arrière d'la caisse, un peu en fumette, j'baiss pas trop ma f'nêtre On est dans la ville, j'vais trop d'photos J'vais fair trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter Moche mais c'est ça la vie J'entends crier par la fenêtre, y a les moteurs qui sont éteins, dans la de-mer et dans l'pétrin J'traîne avec de vrais allumées Han, han, han, han Grandie comme un oukthy, c'est pas la mort qui va m'changer C'est pas la mort qui va m'changer J'guette les étoiles, j'crois qu'ils m'parlent, j'embrasse, j'embrasse maman quand faut y aller J'vais faire trop d'photos, rodave dans l'R carbone T'façon, j'vais l'savoir si t'es la bonne J'peux t'en faire des gosses, juste, ne sois pas conne J'ai l'étrier bleu, j'ai le cadran bleu Ouh Uh-uh-uh, c'est moche mais c'est ça la vie, il faut s'adapter C'est moche mais c'est ça la vie, il faut s'adapter Oh-oh-oh-oh-oh, eh Oh-oh-oh-oh-oh, eh</t>
+          <t>Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vi, y a trop d'ennemis, je souhait Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Eh, ça détaille comme à Charlie D, j'passe plus par affinité T'as cru faire carrière dans la stup' ? La rue t'auras piétiné Le médecin pourra plus m'aider, sur la chaise, kilos d'cocaïne On a d'la notoriété, je tasse le dispositif Et tout est Smurf Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'cité Eh, eh, putain d'merde J'suis dans l'bendo, sa mère la pute, mes bras ont pris du galbé mais mes poches aussi Aussi J'suis dans l'bendo, sa mère la pute, quelques amis d'enfance font pleurer, c'est des putes Des putes J'suis dans l'bendo, sa mère la pute La pute, toujours dans l'hall où ça pue la pisse La pisse Ou j'vais fonde-dé à l'hôtel avec tain-p' qui vas m'sucer tout l'trajet Sucer tout l'trajet À vrai dire, y a trop d'trucs qu'ont changer et je pensais pas en arriver là Ah Je côtoie que depuis qu'j'ai percer, avec les femmes, j'ai l'embarras du choix Nique sa mère Et si j'aurais pas percer, nique sa grand-mère, la drogue, ça rapporte aussi Eh J'suis dans l'site avec Skaodi et Deus' me pénave pour un autre los-ki S'embrouilles pour des grosses folles, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor</t>
         </is>
       </c>
     </row>
@@ -3752,12 +3752,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Les espèces chimiques</t>
+          <t>Love*</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bienvenue sur Studytrakcs Oh, aïe aïe aïe Studytracks Oh, aïe aïe aïe Koba La D Oh Stan-E Music, bonjour Un atome est constitué d'un noyau chargé positivement Autour du noyau des électrons chargés, en mouvement Sont en mouvement, chargés négativement Noyau est constitué de nuéclons neutrons et protons Pas de charge pour les neutrons Pas de charge pour les neutrons Chargés positivement sont les protons Un atome possède un nombre de protons et d'électrons équivalent L'atome est donc neutre électriquement D'atomes, la matière est constituée Une molécule et formée par des atomes liés Deux atomes d'hydrogène, un atome d'oxygène H2O, c'est la molécule d'eau Un atome est représenté par son symbole Qui indique son nom Qui indique son nom Par son numéro atomique Z, c'est le nombre de protons Et par son nombre de masse A, c'est le nombre de nucléons On classe les 118 éléments différents dans un tableau appelé Classification périodique des éléments Ils sont rangés par numéro atomique Z croissant Ils sont rangés par numéro atomique Z croissant D'atomes la matière est constituée Une molécule est formée par des atomes liés Deux atomes d'oxygène, un atome de carbone CO2, c'est la molécule de dioxyde de carbone Un ion, un particule chargée électriquement Positivement ou négativement Un ion positif est appelé cation Il est issu d'un atome ayant perdu un électron Un ion négatif est appelé anion Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons Il est issu d'un groupe d'atomes ou bien d'un atome Ayant gagné un ou plusieurs électrons D'atomes la matière est constituée Une molécule est formée par des atomes liés Un atome de chlore, deux atomes d'hydrogène HCl, c'est la molécule de chlorure d'hydrogène</t>
+          <t>Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks En vrai t'avais raison de pas vouloir m'connaître, j'suis d'la catégorie des négros mal-honnêtes J'vends d'la drogue et j'fume moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, comptr, détaille Tu veux qu'j'arrête l business, tu veux qu'j't'arrose de pétales Mais si j'laisse cette vie comment veux-tu qu'j'enlève cette dague ? Et comment j'm'habille l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compares pas à mes potes C'est toi que j'compte marier mais avec eux que j'croque Prends pas la tête, ce soir j'rentre tard j'récupère des sous M'envoie pas d'message, j'éteins mon tel j'suis fonce-dé, tu m'saoules J'peux pas arrêter c'que j'fais, tu m'as connu dans les affaires Chérie t'inquiètes je gère, c'est ton mari qui tient la gare Non plus personne t'embête mais pas quand j'paye les biens Te prends pas la tête, financièrement tu s'ras prête C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose, j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte Fais-moi mes gosses et on est quitte, babe Te fies pas à ma tchatche, c'est p't'être que des bobards, j'suis p't'être là pour ta chatte Dieu merci j'ai d'la chance, dans un monde de timp, j'reste fidèle qu'à mon cash1</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Longue vie</t>
+          <t>LTDP</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vi, y a trop d'ennemis, je souhait Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Eh, ça détaille comme à Charlie D, j'passe plus par affinité T'as cru faire carrière dans la stup' ? La rue t'auras piétiné Le médecin pourra plus m'aider, sur la chaise, kilos d'cocaïne On a d'la notoriété, je tasse le dispositif Et tout est Smurf Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor Ça s'embrouilles pour des grosses folles Oui, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'cité Eh, eh, putain d'merde J'suis dans l'bendo, sa mère la pute, mes bras ont pris du galbé mais mes poches aussi Aussi J'suis dans l'bendo, sa mère la pute, quelques amis d'enfance font pleurer, c'est des putes Des putes J'suis dans l'bendo, sa mère la pute La pute, toujours dans l'hall où ça pue la pisse La pisse Ou j'vais fonde-dé à l'hôtel avec tain-p' qui vas m'sucer tout l'trajet Sucer tout l'trajet À vrai dire, y a trop d'trucs qu'ont changer et je pensais pas en arriver là Ah Je côtoie que depuis qu'j'ai percer, avec les femmes, j'ai l'embarras du choix Nique sa mère Et si j'aurais pas percer, nique sa grand-mère, la drogue, ça rapporte aussi Eh J'suis dans l'site avec Skaodi et Deus' me pénave pour un autre los-ki S'embrouilles pour des grosses folles, sa mère, pour des grosses sommes Et gros, j'ai dit à mes potes N'attends rien de personne Jamais Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne Quatre-vingt treize Et j'reviens de si loin, j'rêve de plus rien, j'reviens d'l'Essonne J'vais pas mourir à la cité Ouh, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site J'vais pas mourir à la cité Jamais, j'sais pas c'que vous m'souhaiter Hein ? Sur ma vie, y a trop d'ennemis, je souhaite Longue vie à tout l'site Putain d'merde Han-han Ah Ils disent qu'on a pas mi-dor Han-han Ah-ah Ils disent qu'on a pas mi-dor</t>
+          <t>Lève pas trop la main, tu crois qu'tu parles à qui ? Marrakech, gros bolide, au volant, c'est de-spee, ma gueule Plein d'nouveaux habits, pas d'nouveaux amis amis J'suis au cinquantième, j'mange aussi la vie Calé dans l'tiroir, 9.3, zone à risque Absent lors des défaites mais tu snappes mes victoires p'tit profiteurs Et quand j'signais des chèques, t'étais sur le té-c', tu suçais des bites Tu connais quand tu m'croises dans ta rue, fais ta to-ph', nashave, j'suis fatigué j'suis bien Hier, j'me suis fait contrôler, la mu'-mu' d'la ne-zo sont trop énervés Toute la nuit, j'l'ai retourné, son nom, j'm'en souviens plus J'pense à Chadli, au Z, au V, j'pense à Kaza et Suge On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit J'vends plus trop d'shit, j'ai tout laissé aux p'tits, la ce-pu et le Snap' J'ai pris trop d'thune mais tu connais, dans c'jeu, les jaloux aiment pas ça J'me la pète pas, si j'veux, dans un d'mes clips, j'sors 100 000 en liquide en espèce Au fond, j'm'en bats les couilles mais c'est léger, logique T'as tiré sur lui lui, malheureusement, tu l'as loupé tu t'en veux On est revenus gantés, calibrés sur le T, pour une histoire de fierté bang, bang, bang Là, sur moi, j'ai 10K, toute la carte, tu peux la commander J'suis un mec d'la 'bre, gros trimards, à tout moment, j'peux t'barbé, c'est léger On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Love*</t>
+          <t>Macaver</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks, le Seven Binks Le Seven Binks En vrai t'avais raison de pas vouloir m'connaître, j'suis d'la catégorie des négros mal-honnêtes J'vends d'la drogue et j'fume moi j'suis pas là pour plaire Mais toi on dirait qu'tu t'en fous tu veux que j'reste ton mec Pourtant je sais rien faire d'mes mains à part rouler, comptr, détaille Tu veux qu'j'arrête l business, tu veux qu'j't'arrose de pétales Mais si j'laisse cette vie comment veux-tu qu'j'enlève cette dague ? Et comment j'm'habille l'argent du four c'est tout c'que j'gagne Mélange pas tout bébé, t'compares pas à mes potes C'est toi que j'compte marier mais avec eux que j'croque Prends pas la tête, ce soir j'rentre tard j'récupère des sous M'envoie pas d'message, j'éteins mon tel j'suis fonce-dé, tu m'saoules J'peux pas arrêter c'que j'fais, tu m'as connu dans les affaires Chérie t'inquiètes je gère, c'est ton mari qui tient la gare Non plus personne t'embête mais pas quand j'paye les biens Te prends pas la tête, financièrement tu s'ras prête C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash C'est plus d'temps en temps, c'est d'plus en plus souvent Que j'me pose, j'me questionne et j'deviens plus distant Moi si j'prends dix ans, dis moi est-c'que tu vas m'attendre ? M'aimeras tu autant ou prendras-tu tout mon argent ? Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte J'ramène mes sous, fais-moi mes gosses et on est quitte, babe C'est réel, j'te mens pas, te fies pas à ma tchatche C'est p't'être que des bobards, j'suis p't'être là pour ta chatte Si j'tombe sur une ge-vier, Dieu merci j'ai d'la chance Mais j'vis dans un monde de timp, j'reste fidèle qu'à mon cash Quand j'te regarde, c'est à c'moment que je cogite Comment tu fais pour que tu restes dans mon train d'vie, babe ? Pose pas d'dilemme, pour mon point d'deal, direct j'te quitte Fais-moi mes gosses et on est quitte, babe Te fies pas à ma tchatche, c'est p't'être que des bobards, j'suis p't'être là pour ta chatte Dieu merci j'ai d'la chance, dans un monde de timp, j'reste fidèle qu'à mon cash1</t>
+          <t>Pas encore de parole</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>LTDP</t>
+          <t>Maxi boule</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Lève pas trop la main, tu crois qu'tu parles à qui ? Marrakech, gros bolide, au volant, c'est de-spee, ma gueule Plein d'nouveaux habits, pas d'nouveaux amis amis J'suis au cinquantième, j'mange aussi la vie Calé dans l'tiroir, 9.3, zone à risque Absent lors des défaites mais tu snappes mes victoires p'tit profiteurs Et quand j'signais des chèques, t'étais sur le té-c', tu suçais des bites Tu connais quand tu m'croises dans ta rue, fais ta to-ph', nashave, j'suis fatigué j'suis bien Hier, j'me suis fait contrôler, la mu'-mu' d'la ne-zo sont trop énervés Toute la nuit, j'l'ai retourné, son nom, j'm'en souviens plus J'pense à Chadli, au Z, au V, j'pense à Kaza et Suge On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit J'vends plus trop d'shit, j'ai tout laissé aux p'tits, la ce-pu et le Snap' J'ai pris trop d'thune mais tu connais, dans c'jeu, les jaloux aiment pas ça J'me la pète pas, si j'veux, dans un d'mes clips, j'sors 100 000 en liquide en espèce Au fond, j'm'en bats les couilles mais c'est léger, logique T'as tiré sur lui lui, malheureusement, tu l'as loupé tu t'en veux On est revenus gantés, calibrés sur le T, pour une histoire de fierté bang, bang, bang Là, sur moi, j'ai 10K, toute la carte, tu peux la commander J'suis un mec d'la 'bre, gros trimards, à tout moment, j'peux t'barbé, c'est léger On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS3 la tête du p'tit, chargé sur la A3 la tête du p'tit On a la beldia, on ravitaille tout Bériz C'est carré, ça bouge pas, on les livre comme Uber Eats J'ai cartonne l'RS6 la tête du p'tit, chargé sur la A6 la tête du p'tit</t>
+          <t>Han-han-han-han-han Bien ou bien ? Weshi, wesha Han-han-han-han-han Bien ou bien ? Ok Wesh, les humains ? Weshi, wesha C'est comment ? Bien ou quoi ? Bien ou bien ? Grinta Binks, société gérée par gérants d'terrains d'gains Pah-pah Wesh ? Mon sin-cou, tu dis-quoi ? Moi, j'ai plus d'une barrette dans mon sac Merde, j'suis un p'tit peu pressé Vite fait, j'vais voir un mec, on s'revoit après, merde J'ai tout repris à fond, comme Ron', avant qu'on m'défonce la porte, cache tout Véhicule d'Instagram, j'suis dans un Range, c'est les bails, j'nique cata, n'importent quel trou J'ai-j'ai-j'ai d'la buh mais y a plus d'zippette-pett-pette, il faut qu'j'en pète Et si j'ai pas mon feu, j'ai mon bip, bip, bip, donc j'peux pas perdre Ve-venez voir, ici, ça ment pas, si ça parle d'RS c'est que la patate, y en a Viens-viens-viens-voir, c'est carrément gang, LaD qui fait des dérapages en M3 Pour qu'il parle bien, gère le frein à main, elle, j'peut la ken mais là, j'ai la flemme Ils croit qu'j'sais pas tout c'qu'il dit sur moi, lui, j'peux l'gifler mais ça sert à rien Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis serein, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Oh, la bouteille, j'la descends solo, Jack au re-pu, zéro coupure J'suis dans l'bâtiment, dans un bolide, dans un maxi boulard grave connu Filme ton cul d'derrière Hum, but mais j'frôle le poteau Poteau rentrant J'ai la poisse, j'fais que d'tomber sur des putains Putains, d'putains Faites pas les gues-din, zahma, vous êtes déterminés comme jamais Devant la fête, il faudra courir, ça va tirer-gué comme à L.A J'pourrais les croire mais c'est des mythos Mythos, des gros mythos Mythos Des gros mythos mais bon, j'vais les laisser kill' On les baise encore une fois, jamais deux sans trois S.A.N.K, Kobz LaD, les autres sont calidas On les baise tout les jours, rebelote, rebelote, rebelote J'vais pas la désapés, moi, j'vais juste décaler sa culotte Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis sereins, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch, j'suis dans une grosse caisse, dans un maxi boule1</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3820,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Macaver</t>
+          <t>Menotté</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Pas encore de parole</t>
+          <t>Mmh, mmh Ouh oh, oh J'ai le RS3 le RS3 J'ai l'RS3, vitesse éclair ouais, là j'baise, j't'appelle t'à l'heure J'ai eu raison de suivre mon flair, maintenant, sans rien faire, j'prends du flouze Il faut v'nir découper mes fraises et ma grosse liasse te fout la frousse, j'ai l'RS3, vitesse éclair Et j'dois récupérer ma meuf, elle sait pas qu'ma caisse est chargée Des millions d'auditeurs, c'est pas pour autant qu'j'vais changer Toi, arrête de faire rodave, arrête de snapper l'AMG, salope On change les prix que si le produit a changé On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Bon investissement, mon chiffre d'affaires, que la foudre sur le four Crois-moi, l'union fait pas la force, ils vont sûrement venir par te faire Tes mort dans l'film, si tu flippes, prends tes deux mains et porte tes couilles, salope prends tes deux mains et porte tes couilles Crois-moi, l'union fait pas la force En c'moment, l'quartier il est éteint il est éteint, y a les condés tout autour Ça fait partir les clickos, c'est la tour, rien qu'j'les attire On a la meilleure beuh, la meilleure beuh, le meilleur shit d'la zone le meilleur shit On roule avec les plus grosses caisses d'la zone On était p'tits, on était plein on était p'tits, on était pleins Mais bon, on va pas s'plaindre mais bon, on va pas s'plaindre Moi, j'y ai cru, mais fallait pas mais fallait pas Mais bon, on va pas s'plaindre J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Le 6.35, j'l'ai dans mes mains, moi J'suis dans la tess, j'roule un pilon, sur c'que j'ramasse, j'peux pas parler Le bruit du moteur en dit long, la paire de TN a vécu Aucun mensonge sur c'qu'on évoque, les armes de Call Of dans la ve-c' Dans la défonce, j'reperds mon feu, mais nique sa mère, j'en vole un autre Plus rien à faire, j'suis menotté plus rien à faire, j'suis menotté À ma mère, qu'est-ce que j'peux dire ? À ma mère, qu'est-ce que j'peux dire ? J'm'en fous qu'le savoir est une arme savoir est une arme Le 6.35, j'l'ai dans mes mains, moi j'l'ai dans mes mains, moi Mmh, mmh Mmh, mmh Mmh, mmh Mmh, mmh</t>
         </is>
       </c>
     </row>
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Maxi boule</t>
+          <t>Millionnaire*</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Han-han-han-han-han Bien ou bien ? Weshi, wesha Han-han-han-han-han Bien ou bien ? Ok Wesh, les humains ? Weshi, wesha C'est comment ? Bien ou quoi ? Bien ou bien ? Grinta Binks, société gérée par gérants d'terrains d'gains Pah-pah Wesh ? Mon sin-cou, tu dis-quoi ? Moi, j'ai plus d'une barrette dans mon sac Merde, j'suis un p'tit peu pressé Vite fait, j'vais voir un mec, on s'revoit après, merde J'ai tout repris à fond, comme Ron', avant qu'on m'défonce la porte, cache tout Véhicule d'Instagram, j'suis dans un Range, c'est les bails, j'nique cata, n'importent quel trou J'ai-j'ai-j'ai d'la buh mais y a plus d'zippette-pett-pette, il faut qu'j'en pète Et si j'ai pas mon feu, j'ai mon bip, bip, bip, donc j'peux pas perdre Ve-venez voir, ici, ça ment pas, si ça parle d'RS c'est que la patate, y en a Viens-viens-viens-voir, c'est carrément gang, LaD qui fait des dérapages en M3 Pour qu'il parle bien, gère le frein à main, elle, j'peut la ken mais là, j'ai la flemme Ils croit qu'j'sais pas tout c'qu'il dit sur moi, lui, j'peux l'gifler mais ça sert à rien Ça sert à rien d'dire Faut qu'j'encaisse, gros, tu nous casse les couilles J'suis dans une tte-ch', j'suis dans une grosse caisse, dans un maxi boule Ça sert à rien d'trop parler pour rien, j'préfère rouler des joints J'préfère rouler des joints, j'préfère rouler des joints Oh, la bouteille, j'la descends solo, solo, je n'sens plus les coups Descends solo, solo, solo, je n'sens plus les coups, moi Dans l'fond d'la fête, t'inquiète, j'suis serein, moi, partout, j'ai mon flingue Partout, j'ai mon flingue, partout, j'ai mon flingue Oh, la bouteille, j'la descends solo, Jack au re-pu, zéro coupure J'suis dans l'bâtiment, dans un bolide, dans un maxi boulard grave connu Filme ton cul d'derrière Hum,